--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Alcachofa.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Alcachofa.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R15"/>
+  <dimension ref="A1:R18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E7" t="n">
         <v>8</v>
@@ -852,7 +852,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -861,20 +861,20 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="K7" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="L7" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M7" t="n">
-        <v>17400</v>
+        <v>14500</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -883,10 +883,10 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>348</v>
+        <v>483</v>
       </c>
       <c r="Q7" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R7" t="inlineStr">
         <is>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44364</v>
+        <v>44426</v>
       </c>
       <c r="E8" t="n">
         <v>8</v>
@@ -924,7 +924,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -933,20 +933,20 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K8" t="n">
-        <v>19000</v>
+        <v>12000</v>
       </c>
       <c r="L8" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="M8" t="n">
-        <v>19500</v>
+        <v>12600</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
@@ -955,10 +955,10 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>390</v>
+        <v>315</v>
       </c>
       <c r="Q8" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R8" t="inlineStr">
         <is>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44364</v>
+        <v>44383</v>
       </c>
       <c r="E9" t="n">
         <v>8</v>
@@ -996,7 +996,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1005,20 +1005,20 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K9" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="L9" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="M9" t="n">
-        <v>19500</v>
+        <v>17400</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
@@ -1027,10 +1027,10 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>650</v>
+        <v>348</v>
       </c>
       <c r="Q9" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R9" t="inlineStr">
         <is>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44350</v>
+        <v>44364</v>
       </c>
       <c r="E10" t="n">
         <v>8</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="K10" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="L10" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="M10" t="n">
-        <v>15600</v>
+        <v>19500</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>312</v>
+        <v>390</v>
       </c>
       <c r="Q10" t="n">
         <v>50</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44350</v>
+        <v>44364</v>
       </c>
       <c r="E11" t="n">
         <v>8</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="K11" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="L11" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="M11" t="n">
-        <v>17500</v>
+        <v>19500</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>583</v>
+        <v>650</v>
       </c>
       <c r="Q11" t="n">
         <v>30</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44358</v>
+        <v>44350</v>
       </c>
       <c r="E12" t="n">
         <v>8</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K12" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="L12" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="M12" t="n">
-        <v>19000</v>
+        <v>15600</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>380</v>
+        <v>312</v>
       </c>
       <c r="Q12" t="n">
         <v>50</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44358</v>
+        <v>44350</v>
       </c>
       <c r="E13" t="n">
         <v>8</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="K13" t="n">
+        <v>17000</v>
+      </c>
+      <c r="L13" t="n">
         <v>18000</v>
       </c>
-      <c r="L13" t="n">
-        <v>20000</v>
-      </c>
       <c r="M13" t="n">
-        <v>19000</v>
+        <v>17500</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>633</v>
+        <v>583</v>
       </c>
       <c r="Q13" t="n">
         <v>30</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44399</v>
+        <v>44358</v>
       </c>
       <c r="E14" t="n">
         <v>8</v>
@@ -1356,7 +1356,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1368,17 +1368,17 @@
         <v>100</v>
       </c>
       <c r="K14" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="L14" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="M14" t="n">
-        <v>14500</v>
+        <v>19000</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
@@ -1387,10 +1387,10 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>483</v>
+        <v>380</v>
       </c>
       <c r="Q14" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R14" t="inlineStr">
         <is>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44376</v>
+        <v>44358</v>
       </c>
       <c r="E15" t="n">
         <v>8</v>
@@ -1440,13 +1440,13 @@
         <v>100</v>
       </c>
       <c r="K15" t="n">
-        <v>19000</v>
+        <v>18000</v>
       </c>
       <c r="L15" t="n">
         <v>20000</v>
       </c>
       <c r="M15" t="n">
-        <v>19500</v>
+        <v>19000</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,12 +1459,228 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>650</v>
+        <v>633</v>
       </c>
       <c r="Q15" t="n">
         <v>30</v>
       </c>
       <c r="R15" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>11</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="n">
+        <v>44399</v>
+      </c>
+      <c r="E16" t="n">
+        <v>8</v>
+      </c>
+      <c r="F16" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Española</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J16" t="n">
+        <v>100</v>
+      </c>
+      <c r="K16" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L16" t="n">
+        <v>15000</v>
+      </c>
+      <c r="M16" t="n">
+        <v>14500</v>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>$/caja 30 unidades</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P16" t="n">
+        <v>483</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>30</v>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>11</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="n">
+        <v>44420</v>
+      </c>
+      <c r="E17" t="n">
+        <v>8</v>
+      </c>
+      <c r="F17" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Española</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J17" t="n">
+        <v>100</v>
+      </c>
+      <c r="K17" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L17" t="n">
+        <v>15000</v>
+      </c>
+      <c r="M17" t="n">
+        <v>14500</v>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>$/caja 30 unidades</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P17" t="n">
+        <v>483</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>30</v>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>11</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="n">
+        <v>44376</v>
+      </c>
+      <c r="E18" t="n">
+        <v>8</v>
+      </c>
+      <c r="F18" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Española</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J18" t="n">
+        <v>100</v>
+      </c>
+      <c r="K18" t="n">
+        <v>19000</v>
+      </c>
+      <c r="L18" t="n">
+        <v>20000</v>
+      </c>
+      <c r="M18" t="n">
+        <v>19500</v>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>$/caja 30 unidades</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P18" t="n">
+        <v>650</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>30</v>
+      </c>
+      <c r="R18" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Alcachofa.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Alcachofa.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R18"/>
+  <dimension ref="A1:R21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44342</v>
+        <v>44428</v>
       </c>
       <c r="E4" t="n">
         <v>8</v>
@@ -648,13 +648,13 @@
         <v>100</v>
       </c>
       <c r="K4" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="L4" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M4" t="n">
-        <v>17500</v>
+        <v>14500</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>583</v>
+        <v>483</v>
       </c>
       <c r="Q4" t="n">
         <v>30</v>
@@ -708,7 +708,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -720,17 +720,17 @@
         <v>100</v>
       </c>
       <c r="K5" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="L5" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="M5" t="n">
-        <v>15500</v>
+        <v>17500</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -739,10 +739,10 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>388</v>
+        <v>583</v>
       </c>
       <c r="Q5" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R5" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44385</v>
+        <v>44342</v>
       </c>
       <c r="E6" t="n">
         <v>8</v>
@@ -780,7 +780,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -792,17 +792,17 @@
         <v>100</v>
       </c>
       <c r="K6" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="L6" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="M6" t="n">
-        <v>17500</v>
+        <v>15500</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
@@ -811,10 +811,10 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>583</v>
+        <v>388</v>
       </c>
       <c r="Q6" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R6" t="inlineStr">
         <is>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44421</v>
+        <v>44385</v>
       </c>
       <c r="E7" t="n">
         <v>8</v>
@@ -864,13 +864,13 @@
         <v>100</v>
       </c>
       <c r="K7" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="L7" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M7" t="n">
-        <v>14500</v>
+        <v>17500</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>483</v>
+        <v>583</v>
       </c>
       <c r="Q7" t="n">
         <v>30</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44426</v>
+        <v>44421</v>
       </c>
       <c r="E8" t="n">
         <v>8</v>
@@ -924,7 +924,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -933,20 +933,20 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="K8" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L8" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M8" t="n">
-        <v>12600</v>
+        <v>14500</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
@@ -955,10 +955,10 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>315</v>
+        <v>483</v>
       </c>
       <c r="Q8" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R8" t="inlineStr">
         <is>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44383</v>
+        <v>44426</v>
       </c>
       <c r="E9" t="n">
         <v>8</v>
@@ -996,7 +996,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1008,17 +1008,17 @@
         <v>50</v>
       </c>
       <c r="K9" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="L9" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="M9" t="n">
-        <v>17400</v>
+        <v>12600</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
@@ -1027,10 +1027,10 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>348</v>
+        <v>315</v>
       </c>
       <c r="Q9" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R9" t="inlineStr">
         <is>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44364</v>
+        <v>44383</v>
       </c>
       <c r="E10" t="n">
         <v>8</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K10" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="L10" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="M10" t="n">
-        <v>19500</v>
+        <v>17400</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>390</v>
+        <v>348</v>
       </c>
       <c r="Q10" t="n">
         <v>50</v>
@@ -1140,7 +1140,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1162,7 +1162,7 @@
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
@@ -1171,10 +1171,10 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>650</v>
+        <v>390</v>
       </c>
       <c r="Q11" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R11" t="inlineStr">
         <is>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44350</v>
+        <v>44364</v>
       </c>
       <c r="E12" t="n">
         <v>8</v>
@@ -1212,7 +1212,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1221,20 +1221,20 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="K12" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="L12" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="M12" t="n">
-        <v>15600</v>
+        <v>19500</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
@@ -1243,10 +1243,10 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>312</v>
+        <v>650</v>
       </c>
       <c r="Q12" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R12" t="inlineStr">
         <is>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44350</v>
+        <v>44435</v>
       </c>
       <c r="E13" t="n">
         <v>8</v>
@@ -1284,7 +1284,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1293,20 +1293,20 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="K13" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="L13" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M13" t="n">
-        <v>17500</v>
+        <v>14500</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
@@ -1315,10 +1315,10 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>583</v>
+        <v>290</v>
       </c>
       <c r="Q13" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R13" t="inlineStr">
         <is>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44358</v>
+        <v>44350</v>
       </c>
       <c r="E14" t="n">
         <v>8</v>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K14" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="L14" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="M14" t="n">
-        <v>19000</v>
+        <v>15600</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>380</v>
+        <v>312</v>
       </c>
       <c r="Q14" t="n">
         <v>50</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44358</v>
+        <v>44350</v>
       </c>
       <c r="E15" t="n">
         <v>8</v>
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="K15" t="n">
+        <v>17000</v>
+      </c>
+      <c r="L15" t="n">
         <v>18000</v>
       </c>
-      <c r="L15" t="n">
-        <v>20000</v>
-      </c>
       <c r="M15" t="n">
-        <v>19000</v>
+        <v>17500</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>633</v>
+        <v>583</v>
       </c>
       <c r="Q15" t="n">
         <v>30</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44399</v>
+        <v>44358</v>
       </c>
       <c r="E16" t="n">
         <v>8</v>
@@ -1500,7 +1500,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1512,17 +1512,17 @@
         <v>100</v>
       </c>
       <c r="K16" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="L16" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="M16" t="n">
-        <v>14500</v>
+        <v>19000</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
@@ -1531,10 +1531,10 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>483</v>
+        <v>380</v>
       </c>
       <c r="Q16" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R16" t="inlineStr">
         <is>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44420</v>
+        <v>44358</v>
       </c>
       <c r="E17" t="n">
         <v>8</v>
@@ -1584,13 +1584,13 @@
         <v>100</v>
       </c>
       <c r="K17" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="L17" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="M17" t="n">
-        <v>14500</v>
+        <v>19000</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>483</v>
+        <v>633</v>
       </c>
       <c r="Q17" t="n">
         <v>30</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44376</v>
+        <v>44399</v>
       </c>
       <c r="E18" t="n">
         <v>8</v>
@@ -1656,13 +1656,13 @@
         <v>100</v>
       </c>
       <c r="K18" t="n">
-        <v>19000</v>
+        <v>14000</v>
       </c>
       <c r="L18" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="M18" t="n">
-        <v>19500</v>
+        <v>14500</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,12 +1675,228 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>650</v>
+        <v>483</v>
       </c>
       <c r="Q18" t="n">
         <v>30</v>
       </c>
       <c r="R18" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>11</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="n">
+        <v>44420</v>
+      </c>
+      <c r="E19" t="n">
+        <v>8</v>
+      </c>
+      <c r="F19" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Española</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J19" t="n">
+        <v>100</v>
+      </c>
+      <c r="K19" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L19" t="n">
+        <v>15000</v>
+      </c>
+      <c r="M19" t="n">
+        <v>14500</v>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>$/caja 30 unidades</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P19" t="n">
+        <v>483</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>30</v>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>11</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="n">
+        <v>44433</v>
+      </c>
+      <c r="E20" t="n">
+        <v>8</v>
+      </c>
+      <c r="F20" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Argentina(o)</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J20" t="n">
+        <v>100</v>
+      </c>
+      <c r="K20" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L20" t="n">
+        <v>15000</v>
+      </c>
+      <c r="M20" t="n">
+        <v>14500</v>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>$/caja 50 unidades</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P20" t="n">
+        <v>290</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>50</v>
+      </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>11</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="n">
+        <v>44376</v>
+      </c>
+      <c r="E21" t="n">
+        <v>8</v>
+      </c>
+      <c r="F21" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Española</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J21" t="n">
+        <v>100</v>
+      </c>
+      <c r="K21" t="n">
+        <v>19000</v>
+      </c>
+      <c r="L21" t="n">
+        <v>20000</v>
+      </c>
+      <c r="M21" t="n">
+        <v>19500</v>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>$/caja 30 unidades</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P21" t="n">
+        <v>650</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>30</v>
+      </c>
+      <c r="R21" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Alcachofa.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Alcachofa.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R21"/>
+  <dimension ref="A1:R23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44397</v>
+        <v>44350</v>
       </c>
       <c r="E2" t="n">
         <v>8</v>
@@ -492,7 +492,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -501,20 +501,20 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K2" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L2" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="M2" t="n">
-        <v>14500</v>
+        <v>15600</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -523,10 +523,10 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>483</v>
+        <v>312</v>
       </c>
       <c r="Q2" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R2" t="inlineStr">
         <is>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44335</v>
+        <v>44350</v>
       </c>
       <c r="E3" t="n">
         <v>8</v>
@@ -573,7 +573,7 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="K3" t="n">
         <v>17000</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44428</v>
+        <v>44383</v>
       </c>
       <c r="E4" t="n">
         <v>8</v>
@@ -636,7 +636,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -645,20 +645,20 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K4" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="L4" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M4" t="n">
-        <v>14500</v>
+        <v>17400</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -667,10 +667,10 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>483</v>
+        <v>348</v>
       </c>
       <c r="Q4" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R4" t="inlineStr">
         <is>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44342</v>
+        <v>44364</v>
       </c>
       <c r="E5" t="n">
         <v>8</v>
@@ -708,7 +708,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -720,17 +720,17 @@
         <v>100</v>
       </c>
       <c r="K5" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="L5" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="M5" t="n">
-        <v>17500</v>
+        <v>19500</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -739,10 +739,10 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>583</v>
+        <v>390</v>
       </c>
       <c r="Q5" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R5" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44342</v>
+        <v>44364</v>
       </c>
       <c r="E6" t="n">
         <v>8</v>
@@ -780,7 +780,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -792,17 +792,17 @@
         <v>100</v>
       </c>
       <c r="K6" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="L6" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="M6" t="n">
-        <v>15500</v>
+        <v>19500</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
@@ -811,10 +811,10 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>388</v>
+        <v>650</v>
       </c>
       <c r="Q6" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R6" t="inlineStr">
         <is>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44421</v>
+        <v>44358</v>
       </c>
       <c r="E8" t="n">
         <v>8</v>
@@ -924,7 +924,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -936,17 +936,17 @@
         <v>100</v>
       </c>
       <c r="K8" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="L8" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="M8" t="n">
-        <v>14500</v>
+        <v>19000</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
@@ -955,10 +955,10 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>483</v>
+        <v>380</v>
       </c>
       <c r="Q8" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R8" t="inlineStr">
         <is>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44426</v>
+        <v>44358</v>
       </c>
       <c r="E9" t="n">
         <v>8</v>
@@ -996,7 +996,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1005,20 +1005,20 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="K9" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="L9" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="M9" t="n">
-        <v>12600</v>
+        <v>19000</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
@@ -1027,10 +1027,10 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>315</v>
+        <v>633</v>
       </c>
       <c r="Q9" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R9" t="inlineStr">
         <is>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44383</v>
+        <v>44433</v>
       </c>
       <c r="E10" t="n">
         <v>8</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="K10" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="L10" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M10" t="n">
-        <v>17400</v>
+        <v>14500</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>348</v>
+        <v>290</v>
       </c>
       <c r="Q10" t="n">
         <v>50</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44364</v>
+        <v>44397</v>
       </c>
       <c r="E11" t="n">
         <v>8</v>
@@ -1140,7 +1140,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1152,17 +1152,17 @@
         <v>100</v>
       </c>
       <c r="K11" t="n">
-        <v>19000</v>
+        <v>14000</v>
       </c>
       <c r="L11" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="M11" t="n">
-        <v>19500</v>
+        <v>14500</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
@@ -1171,10 +1171,10 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>390</v>
+        <v>483</v>
       </c>
       <c r="Q11" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R11" t="inlineStr">
         <is>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44364</v>
+        <v>44335</v>
       </c>
       <c r="E12" t="n">
         <v>8</v>
@@ -1224,13 +1224,13 @@
         <v>100</v>
       </c>
       <c r="K12" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="L12" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="M12" t="n">
-        <v>19500</v>
+        <v>17500</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>650</v>
+        <v>583</v>
       </c>
       <c r="Q12" t="n">
         <v>30</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44435</v>
+        <v>44426</v>
       </c>
       <c r="E13" t="n">
         <v>8</v>
@@ -1284,7 +1284,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1293,20 +1293,20 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K13" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="L13" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M13" t="n">
-        <v>14500</v>
+        <v>12600</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
@@ -1315,10 +1315,10 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>290</v>
+        <v>315</v>
       </c>
       <c r="Q13" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R13" t="inlineStr">
         <is>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44350</v>
+        <v>44421</v>
       </c>
       <c r="E14" t="n">
         <v>8</v>
@@ -1356,7 +1356,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1365,20 +1365,20 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="K14" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L14" t="n">
         <v>15000</v>
       </c>
-      <c r="L14" t="n">
-        <v>16000</v>
-      </c>
       <c r="M14" t="n">
-        <v>15600</v>
+        <v>14500</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
@@ -1387,10 +1387,10 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>312</v>
+        <v>483</v>
       </c>
       <c r="Q14" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R14" t="inlineStr">
         <is>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44350</v>
+        <v>44420</v>
       </c>
       <c r="E15" t="n">
         <v>8</v>
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="K15" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="L15" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M15" t="n">
-        <v>17500</v>
+        <v>14500</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>583</v>
+        <v>483</v>
       </c>
       <c r="Q15" t="n">
         <v>30</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44358</v>
+        <v>44441</v>
       </c>
       <c r="E16" t="n">
         <v>8</v>
@@ -1500,7 +1500,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1512,17 +1512,17 @@
         <v>100</v>
       </c>
       <c r="K16" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="L16" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="M16" t="n">
-        <v>19000</v>
+        <v>13500</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
@@ -1531,10 +1531,10 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>380</v>
+        <v>450</v>
       </c>
       <c r="Q16" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R16" t="inlineStr">
         <is>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44358</v>
+        <v>44342</v>
       </c>
       <c r="E17" t="n">
         <v>8</v>
@@ -1584,13 +1584,13 @@
         <v>100</v>
       </c>
       <c r="K17" t="n">
+        <v>17000</v>
+      </c>
+      <c r="L17" t="n">
         <v>18000</v>
       </c>
-      <c r="L17" t="n">
-        <v>20000</v>
-      </c>
       <c r="M17" t="n">
-        <v>19000</v>
+        <v>17500</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>633</v>
+        <v>583</v>
       </c>
       <c r="Q17" t="n">
         <v>30</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44399</v>
+        <v>44342</v>
       </c>
       <c r="E18" t="n">
         <v>8</v>
@@ -1644,7 +1644,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1656,17 +1656,17 @@
         <v>100</v>
       </c>
       <c r="K18" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L18" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="M18" t="n">
-        <v>14500</v>
+        <v>15500</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
@@ -1675,10 +1675,10 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>483</v>
+        <v>388</v>
       </c>
       <c r="Q18" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R18" t="inlineStr">
         <is>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44420</v>
+        <v>44428</v>
       </c>
       <c r="E19" t="n">
         <v>8</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44433</v>
+        <v>44442</v>
       </c>
       <c r="E20" t="n">
         <v>8</v>
@@ -1788,7 +1788,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1800,17 +1800,17 @@
         <v>100</v>
       </c>
       <c r="K20" t="n">
-        <v>14000</v>
+        <v>14500</v>
       </c>
       <c r="L20" t="n">
         <v>15000</v>
       </c>
       <c r="M20" t="n">
-        <v>14500</v>
+        <v>14750</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
@@ -1819,10 +1819,10 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>290</v>
+        <v>492</v>
       </c>
       <c r="Q20" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R20" t="inlineStr">
         <is>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44376</v>
+        <v>44435</v>
       </c>
       <c r="E21" t="n">
         <v>8</v>
@@ -1860,7 +1860,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1872,31 +1872,175 @@
         <v>100</v>
       </c>
       <c r="K21" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L21" t="n">
+        <v>15000</v>
+      </c>
+      <c r="M21" t="n">
+        <v>14500</v>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>$/caja 50 unidades</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P21" t="n">
+        <v>290</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>50</v>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>11</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="n">
+        <v>44376</v>
+      </c>
+      <c r="E22" t="n">
+        <v>8</v>
+      </c>
+      <c r="F22" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Española</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J22" t="n">
+        <v>100</v>
+      </c>
+      <c r="K22" t="n">
         <v>19000</v>
       </c>
-      <c r="L21" t="n">
+      <c r="L22" t="n">
         <v>20000</v>
       </c>
-      <c r="M21" t="n">
+      <c r="M22" t="n">
         <v>19500</v>
       </c>
-      <c r="N21" t="inlineStr">
+      <c r="N22" t="inlineStr">
         <is>
           <t>$/caja 30 unidades</t>
         </is>
       </c>
-      <c r="O21" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="P21" t="n">
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P22" t="n">
         <v>650</v>
       </c>
-      <c r="Q21" t="n">
+      <c r="Q22" t="n">
         <v>30</v>
       </c>
-      <c r="R21" t="inlineStr">
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>11</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="n">
+        <v>44399</v>
+      </c>
+      <c r="E23" t="n">
+        <v>8</v>
+      </c>
+      <c r="F23" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Española</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J23" t="n">
+        <v>100</v>
+      </c>
+      <c r="K23" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L23" t="n">
+        <v>15000</v>
+      </c>
+      <c r="M23" t="n">
+        <v>14500</v>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>$/caja 30 unidades</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P23" t="n">
+        <v>483</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>30</v>
+      </c>
+      <c r="R23" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Alcachofa.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Alcachofa.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R23"/>
+  <dimension ref="A1:R24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44358</v>
+        <v>44447</v>
       </c>
       <c r="E8" t="n">
         <v>8</v>
@@ -924,7 +924,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -936,17 +936,17 @@
         <v>100</v>
       </c>
       <c r="K8" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="L8" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="M8" t="n">
-        <v>19000</v>
+        <v>14500</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
@@ -955,10 +955,10 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>380</v>
+        <v>483</v>
       </c>
       <c r="Q8" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R8" t="inlineStr">
         <is>
@@ -996,7 +996,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1018,7 +1018,7 @@
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
@@ -1027,10 +1027,10 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>633</v>
+        <v>380</v>
       </c>
       <c r="Q9" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R9" t="inlineStr">
         <is>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44433</v>
+        <v>44358</v>
       </c>
       <c r="E10" t="n">
         <v>8</v>
@@ -1068,7 +1068,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1080,17 +1080,17 @@
         <v>100</v>
       </c>
       <c r="K10" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="L10" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="M10" t="n">
-        <v>14500</v>
+        <v>19000</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
@@ -1099,10 +1099,10 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>290</v>
+        <v>633</v>
       </c>
       <c r="Q10" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R10" t="inlineStr">
         <is>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44397</v>
+        <v>44433</v>
       </c>
       <c r="E11" t="n">
         <v>8</v>
@@ -1140,7 +1140,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1162,7 +1162,7 @@
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
@@ -1171,10 +1171,10 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>483</v>
+        <v>290</v>
       </c>
       <c r="Q11" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R11" t="inlineStr">
         <is>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44335</v>
+        <v>44397</v>
       </c>
       <c r="E12" t="n">
         <v>8</v>
@@ -1224,13 +1224,13 @@
         <v>100</v>
       </c>
       <c r="K12" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="L12" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M12" t="n">
-        <v>17500</v>
+        <v>14500</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>583</v>
+        <v>483</v>
       </c>
       <c r="Q12" t="n">
         <v>30</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44426</v>
+        <v>44335</v>
       </c>
       <c r="E13" t="n">
         <v>8</v>
@@ -1284,7 +1284,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1293,20 +1293,20 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="K13" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="L13" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="M13" t="n">
-        <v>12600</v>
+        <v>17500</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
@@ -1315,10 +1315,10 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>315</v>
+        <v>583</v>
       </c>
       <c r="Q13" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R13" t="inlineStr">
         <is>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44421</v>
+        <v>44426</v>
       </c>
       <c r="E14" t="n">
         <v>8</v>
@@ -1356,7 +1356,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1365,20 +1365,20 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K14" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="L14" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M14" t="n">
-        <v>14500</v>
+        <v>12600</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
@@ -1387,10 +1387,10 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>483</v>
+        <v>315</v>
       </c>
       <c r="Q14" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R14" t="inlineStr">
         <is>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44420</v>
+        <v>44421</v>
       </c>
       <c r="E15" t="n">
         <v>8</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44441</v>
+        <v>44420</v>
       </c>
       <c r="E16" t="n">
         <v>8</v>
@@ -1512,13 +1512,13 @@
         <v>100</v>
       </c>
       <c r="K16" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L16" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M16" t="n">
-        <v>13500</v>
+        <v>14500</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>450</v>
+        <v>483</v>
       </c>
       <c r="Q16" t="n">
         <v>30</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44342</v>
+        <v>44441</v>
       </c>
       <c r="E17" t="n">
         <v>8</v>
@@ -1584,13 +1584,13 @@
         <v>100</v>
       </c>
       <c r="K17" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="L17" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="M17" t="n">
-        <v>17500</v>
+        <v>13500</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>583</v>
+        <v>450</v>
       </c>
       <c r="Q17" t="n">
         <v>30</v>
@@ -1644,7 +1644,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1656,17 +1656,17 @@
         <v>100</v>
       </c>
       <c r="K18" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="L18" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="M18" t="n">
-        <v>15500</v>
+        <v>17500</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
@@ -1675,10 +1675,10 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>388</v>
+        <v>583</v>
       </c>
       <c r="Q18" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R18" t="inlineStr">
         <is>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44428</v>
+        <v>44342</v>
       </c>
       <c r="E19" t="n">
         <v>8</v>
@@ -1716,7 +1716,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1728,17 +1728,17 @@
         <v>100</v>
       </c>
       <c r="K19" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L19" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="M19" t="n">
-        <v>14500</v>
+        <v>15500</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
@@ -1747,10 +1747,10 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>483</v>
+        <v>388</v>
       </c>
       <c r="Q19" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R19" t="inlineStr">
         <is>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44442</v>
+        <v>44428</v>
       </c>
       <c r="E20" t="n">
         <v>8</v>
@@ -1800,13 +1800,13 @@
         <v>100</v>
       </c>
       <c r="K20" t="n">
-        <v>14500</v>
+        <v>14000</v>
       </c>
       <c r="L20" t="n">
         <v>15000</v>
       </c>
       <c r="M20" t="n">
-        <v>14750</v>
+        <v>14500</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>492</v>
+        <v>483</v>
       </c>
       <c r="Q20" t="n">
         <v>30</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E21" t="n">
         <v>8</v>
@@ -1860,7 +1860,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1872,17 +1872,17 @@
         <v>100</v>
       </c>
       <c r="K21" t="n">
-        <v>14000</v>
+        <v>14500</v>
       </c>
       <c r="L21" t="n">
         <v>15000</v>
       </c>
       <c r="M21" t="n">
-        <v>14500</v>
+        <v>14750</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
@@ -1891,10 +1891,10 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>290</v>
+        <v>492</v>
       </c>
       <c r="Q21" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R21" t="inlineStr">
         <is>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44376</v>
+        <v>44435</v>
       </c>
       <c r="E22" t="n">
         <v>8</v>
@@ -1932,7 +1932,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1944,17 +1944,17 @@
         <v>100</v>
       </c>
       <c r="K22" t="n">
-        <v>19000</v>
+        <v>14000</v>
       </c>
       <c r="L22" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="M22" t="n">
-        <v>19500</v>
+        <v>14500</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
@@ -1963,10 +1963,10 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>650</v>
+        <v>290</v>
       </c>
       <c r="Q22" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R22" t="inlineStr">
         <is>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44399</v>
+        <v>44376</v>
       </c>
       <c r="E23" t="n">
         <v>8</v>
@@ -2016,13 +2016,13 @@
         <v>100</v>
       </c>
       <c r="K23" t="n">
-        <v>14000</v>
+        <v>19000</v>
       </c>
       <c r="L23" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="M23" t="n">
-        <v>14500</v>
+        <v>19500</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2035,12 +2035,84 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>483</v>
+        <v>650</v>
       </c>
       <c r="Q23" t="n">
         <v>30</v>
       </c>
       <c r="R23" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>11</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="n">
+        <v>44399</v>
+      </c>
+      <c r="E24" t="n">
+        <v>8</v>
+      </c>
+      <c r="F24" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Española</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J24" t="n">
+        <v>100</v>
+      </c>
+      <c r="K24" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L24" t="n">
+        <v>15000</v>
+      </c>
+      <c r="M24" t="n">
+        <v>14500</v>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>$/caja 30 unidades</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P24" t="n">
+        <v>483</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>30</v>
+      </c>
+      <c r="R24" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Alcachofa.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Alcachofa.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R24"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44350</v>
+        <v>44335</v>
       </c>
       <c r="E2" t="n">
         <v>8</v>
@@ -492,7 +492,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -501,20 +501,20 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="K2" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="L2" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="M2" t="n">
-        <v>15600</v>
+        <v>17500</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -523,10 +523,10 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>312</v>
+        <v>583</v>
       </c>
       <c r="Q2" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R2" t="inlineStr">
         <is>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44350</v>
+        <v>44428</v>
       </c>
       <c r="E3" t="n">
         <v>8</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="K3" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="L3" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M3" t="n">
-        <v>17500</v>
+        <v>14500</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>583</v>
+        <v>483</v>
       </c>
       <c r="Q3" t="n">
         <v>30</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44383</v>
+        <v>44454</v>
       </c>
       <c r="E4" t="n">
         <v>8</v>
@@ -636,7 +636,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -645,32 +645,32 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="K4" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="L4" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="M4" t="n">
-        <v>17400</v>
+        <v>13500</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P4" t="n">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="Q4" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R4" t="inlineStr">
         <is>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44364</v>
+        <v>44421</v>
       </c>
       <c r="E5" t="n">
         <v>8</v>
@@ -708,7 +708,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -720,17 +720,17 @@
         <v>100</v>
       </c>
       <c r="K5" t="n">
-        <v>19000</v>
+        <v>14000</v>
       </c>
       <c r="L5" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="M5" t="n">
-        <v>19500</v>
+        <v>14500</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -739,10 +739,10 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>390</v>
+        <v>483</v>
       </c>
       <c r="Q5" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R5" t="inlineStr">
         <is>
@@ -780,7 +780,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -802,7 +802,7 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
@@ -811,10 +811,10 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>650</v>
+        <v>390</v>
       </c>
       <c r="Q6" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R6" t="inlineStr">
         <is>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44385</v>
+        <v>44364</v>
       </c>
       <c r="E7" t="n">
         <v>8</v>
@@ -864,13 +864,13 @@
         <v>100</v>
       </c>
       <c r="K7" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="L7" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="M7" t="n">
-        <v>17500</v>
+        <v>19500</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>583</v>
+        <v>650</v>
       </c>
       <c r="Q7" t="n">
         <v>30</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44447</v>
+        <v>44435</v>
       </c>
       <c r="E8" t="n">
         <v>8</v>
@@ -924,7 +924,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -946,7 +946,7 @@
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
@@ -955,10 +955,10 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>483</v>
+        <v>290</v>
       </c>
       <c r="Q8" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R8" t="inlineStr">
         <is>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44358</v>
+        <v>44385</v>
       </c>
       <c r="E9" t="n">
         <v>8</v>
@@ -996,7 +996,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1008,17 +1008,17 @@
         <v>100</v>
       </c>
       <c r="K9" t="n">
+        <v>17000</v>
+      </c>
+      <c r="L9" t="n">
         <v>18000</v>
       </c>
-      <c r="L9" t="n">
-        <v>20000</v>
-      </c>
       <c r="M9" t="n">
-        <v>19000</v>
+        <v>17500</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
@@ -1027,10 +1027,10 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>380</v>
+        <v>583</v>
       </c>
       <c r="Q9" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R9" t="inlineStr">
         <is>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44358</v>
+        <v>44342</v>
       </c>
       <c r="E10" t="n">
         <v>8</v>
@@ -1080,13 +1080,13 @@
         <v>100</v>
       </c>
       <c r="K10" t="n">
+        <v>17000</v>
+      </c>
+      <c r="L10" t="n">
         <v>18000</v>
       </c>
-      <c r="L10" t="n">
-        <v>20000</v>
-      </c>
       <c r="M10" t="n">
-        <v>19000</v>
+        <v>17500</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>633</v>
+        <v>583</v>
       </c>
       <c r="Q10" t="n">
         <v>30</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44433</v>
+        <v>44342</v>
       </c>
       <c r="E11" t="n">
         <v>8</v>
@@ -1140,7 +1140,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1152,17 +1152,17 @@
         <v>100</v>
       </c>
       <c r="K11" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L11" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="M11" t="n">
-        <v>14500</v>
+        <v>15500</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
@@ -1171,10 +1171,10 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>290</v>
+        <v>388</v>
       </c>
       <c r="Q11" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R11" t="inlineStr">
         <is>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44397</v>
+        <v>44399</v>
       </c>
       <c r="E12" t="n">
         <v>8</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44335</v>
+        <v>44383</v>
       </c>
       <c r="E13" t="n">
         <v>8</v>
@@ -1284,7 +1284,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1293,7 +1293,7 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K13" t="n">
         <v>17000</v>
@@ -1302,11 +1302,11 @@
         <v>18000</v>
       </c>
       <c r="M13" t="n">
-        <v>17500</v>
+        <v>17400</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
@@ -1315,10 +1315,10 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>583</v>
+        <v>348</v>
       </c>
       <c r="Q13" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R13" t="inlineStr">
         <is>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44426</v>
+        <v>44441</v>
       </c>
       <c r="E14" t="n">
         <v>8</v>
@@ -1356,7 +1356,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1365,20 +1365,20 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="K14" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="L14" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="M14" t="n">
-        <v>12600</v>
+        <v>13500</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
@@ -1387,10 +1387,10 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>315</v>
+        <v>450</v>
       </c>
       <c r="Q14" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R14" t="inlineStr">
         <is>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44421</v>
+        <v>44426</v>
       </c>
       <c r="E15" t="n">
         <v>8</v>
@@ -1428,7 +1428,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1437,20 +1437,20 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K15" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="L15" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M15" t="n">
-        <v>14500</v>
+        <v>12600</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
@@ -1459,10 +1459,10 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>483</v>
+        <v>315</v>
       </c>
       <c r="Q15" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R15" t="inlineStr">
         <is>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44420</v>
+        <v>44442</v>
       </c>
       <c r="E16" t="n">
         <v>8</v>
@@ -1512,13 +1512,13 @@
         <v>100</v>
       </c>
       <c r="K16" t="n">
-        <v>14000</v>
+        <v>14500</v>
       </c>
       <c r="L16" t="n">
         <v>15000</v>
       </c>
       <c r="M16" t="n">
-        <v>14500</v>
+        <v>14750</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>483</v>
+        <v>492</v>
       </c>
       <c r="Q16" t="n">
         <v>30</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44441</v>
+        <v>44420</v>
       </c>
       <c r="E17" t="n">
         <v>8</v>
@@ -1584,13 +1584,13 @@
         <v>100</v>
       </c>
       <c r="K17" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L17" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M17" t="n">
-        <v>13500</v>
+        <v>14500</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>450</v>
+        <v>483</v>
       </c>
       <c r="Q17" t="n">
         <v>30</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44342</v>
+        <v>44350</v>
       </c>
       <c r="E18" t="n">
         <v>8</v>
@@ -1644,7 +1644,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1653,20 +1653,20 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K18" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="L18" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="M18" t="n">
-        <v>17500</v>
+        <v>15600</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
@@ -1675,10 +1675,10 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>583</v>
+        <v>312</v>
       </c>
       <c r="Q18" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R18" t="inlineStr">
         <is>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44342</v>
+        <v>44350</v>
       </c>
       <c r="E19" t="n">
         <v>8</v>
@@ -1716,7 +1716,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1725,20 +1725,20 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="K19" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="L19" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="M19" t="n">
-        <v>15500</v>
+        <v>17500</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
@@ -1747,10 +1747,10 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>388</v>
+        <v>583</v>
       </c>
       <c r="Q19" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R19" t="inlineStr">
         <is>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44428</v>
+        <v>44447</v>
       </c>
       <c r="E20" t="n">
         <v>8</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44442</v>
+        <v>44433</v>
       </c>
       <c r="E21" t="n">
         <v>8</v>
@@ -1860,7 +1860,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1872,17 +1872,17 @@
         <v>100</v>
       </c>
       <c r="K21" t="n">
-        <v>14500</v>
+        <v>14000</v>
       </c>
       <c r="L21" t="n">
         <v>15000</v>
       </c>
       <c r="M21" t="n">
-        <v>14750</v>
+        <v>14500</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
@@ -1891,10 +1891,10 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>492</v>
+        <v>290</v>
       </c>
       <c r="Q21" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R21" t="inlineStr">
         <is>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44435</v>
+        <v>44397</v>
       </c>
       <c r="E22" t="n">
         <v>8</v>
@@ -1932,7 +1932,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1954,7 +1954,7 @@
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
@@ -1963,10 +1963,10 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>290</v>
+        <v>483</v>
       </c>
       <c r="Q22" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R22" t="inlineStr">
         <is>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44399</v>
+        <v>44358</v>
       </c>
       <c r="E24" t="n">
         <v>8</v>
@@ -2076,7 +2076,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -2088,31 +2088,103 @@
         <v>100</v>
       </c>
       <c r="K24" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="L24" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="M24" t="n">
-        <v>14500</v>
+        <v>19000</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
+          <t>$/caja 50 unidades</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P24" t="n">
+        <v>380</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>50</v>
+      </c>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>11</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="n">
+        <v>44358</v>
+      </c>
+      <c r="E25" t="n">
+        <v>8</v>
+      </c>
+      <c r="F25" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Española</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J25" t="n">
+        <v>100</v>
+      </c>
+      <c r="K25" t="n">
+        <v>18000</v>
+      </c>
+      <c r="L25" t="n">
+        <v>20000</v>
+      </c>
+      <c r="M25" t="n">
+        <v>19000</v>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
           <t>$/caja 30 unidades</t>
         </is>
       </c>
-      <c r="O24" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="P24" t="n">
-        <v>483</v>
-      </c>
-      <c r="Q24" t="n">
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P25" t="n">
+        <v>633</v>
+      </c>
+      <c r="Q25" t="n">
         <v>30</v>
       </c>
-      <c r="R24" t="inlineStr">
+      <c r="R25" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Alcachofa.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Alcachofa.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:R26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44433</v>
+        <v>44463</v>
       </c>
       <c r="E21" t="n">
         <v>8</v>
@@ -1872,13 +1872,13 @@
         <v>100</v>
       </c>
       <c r="K21" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="L21" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="M21" t="n">
-        <v>14500</v>
+        <v>9500</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1891,7 +1891,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>290</v>
+        <v>190</v>
       </c>
       <c r="Q21" t="n">
         <v>50</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44397</v>
+        <v>44433</v>
       </c>
       <c r="E22" t="n">
         <v>8</v>
@@ -1932,7 +1932,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1954,7 +1954,7 @@
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
@@ -1963,10 +1963,10 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>483</v>
+        <v>290</v>
       </c>
       <c r="Q22" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R22" t="inlineStr">
         <is>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44376</v>
+        <v>44397</v>
       </c>
       <c r="E23" t="n">
         <v>8</v>
@@ -2016,13 +2016,13 @@
         <v>100</v>
       </c>
       <c r="K23" t="n">
-        <v>19000</v>
+        <v>14000</v>
       </c>
       <c r="L23" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="M23" t="n">
-        <v>19500</v>
+        <v>14500</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>650</v>
+        <v>483</v>
       </c>
       <c r="Q23" t="n">
         <v>30</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44358</v>
+        <v>44376</v>
       </c>
       <c r="E24" t="n">
         <v>8</v>
@@ -2076,7 +2076,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -2088,17 +2088,17 @@
         <v>100</v>
       </c>
       <c r="K24" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="L24" t="n">
         <v>20000</v>
       </c>
       <c r="M24" t="n">
-        <v>19000</v>
+        <v>19500</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
@@ -2107,10 +2107,10 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>380</v>
+        <v>650</v>
       </c>
       <c r="Q24" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R24" t="inlineStr">
         <is>
@@ -2148,7 +2148,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -2170,21 +2170,93 @@
       </c>
       <c r="N25" t="inlineStr">
         <is>
+          <t>$/caja 50 unidades</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P25" t="n">
+        <v>380</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>50</v>
+      </c>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>11</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="n">
+        <v>44358</v>
+      </c>
+      <c r="E26" t="n">
+        <v>8</v>
+      </c>
+      <c r="F26" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Española</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J26" t="n">
+        <v>100</v>
+      </c>
+      <c r="K26" t="n">
+        <v>18000</v>
+      </c>
+      <c r="L26" t="n">
+        <v>20000</v>
+      </c>
+      <c r="M26" t="n">
+        <v>19000</v>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
           <t>$/caja 30 unidades</t>
         </is>
       </c>
-      <c r="O25" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="P25" t="n">
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P26" t="n">
         <v>633</v>
       </c>
-      <c r="Q25" t="n">
+      <c r="Q26" t="n">
         <v>30</v>
       </c>
-      <c r="R25" t="inlineStr">
+      <c r="R26" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Alcachofa.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Alcachofa.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44335</v>
+        <v>44383</v>
       </c>
       <c r="E2" t="n">
         <v>8</v>
@@ -492,7 +492,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K2" t="n">
         <v>17000</v>
@@ -510,11 +510,11 @@
         <v>18000</v>
       </c>
       <c r="M2" t="n">
-        <v>17500</v>
+        <v>17400</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -523,10 +523,10 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>583</v>
+        <v>348</v>
       </c>
       <c r="Q2" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R2" t="inlineStr">
         <is>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44428</v>
+        <v>44442</v>
       </c>
       <c r="E3" t="n">
         <v>8</v>
@@ -576,13 +576,13 @@
         <v>100</v>
       </c>
       <c r="K3" t="n">
-        <v>14000</v>
+        <v>14500</v>
       </c>
       <c r="L3" t="n">
         <v>15000</v>
       </c>
       <c r="M3" t="n">
-        <v>14500</v>
+        <v>14750</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>483</v>
+        <v>492</v>
       </c>
       <c r="Q3" t="n">
         <v>30</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44454</v>
+        <v>44441</v>
       </c>
       <c r="E4" t="n">
         <v>8</v>
@@ -636,7 +636,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -658,19 +658,19 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P4" t="n">
-        <v>338</v>
+        <v>450</v>
       </c>
       <c r="Q4" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R4" t="inlineStr">
         <is>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44421</v>
+        <v>44420</v>
       </c>
       <c r="E5" t="n">
         <v>8</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44364</v>
+        <v>44342</v>
       </c>
       <c r="E6" t="n">
         <v>8</v>
@@ -780,7 +780,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -792,17 +792,17 @@
         <v>100</v>
       </c>
       <c r="K6" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="L6" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="M6" t="n">
-        <v>19500</v>
+        <v>17500</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
@@ -811,10 +811,10 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>390</v>
+        <v>583</v>
       </c>
       <c r="Q6" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R6" t="inlineStr">
         <is>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44364</v>
+        <v>44342</v>
       </c>
       <c r="E7" t="n">
         <v>8</v>
@@ -852,7 +852,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -864,17 +864,17 @@
         <v>100</v>
       </c>
       <c r="K7" t="n">
-        <v>19000</v>
+        <v>15000</v>
       </c>
       <c r="L7" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="M7" t="n">
-        <v>19500</v>
+        <v>15500</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -883,10 +883,10 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>650</v>
+        <v>388</v>
       </c>
       <c r="Q7" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R7" t="inlineStr">
         <is>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44435</v>
+        <v>44376</v>
       </c>
       <c r="E8" t="n">
         <v>8</v>
@@ -924,7 +924,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -936,17 +936,17 @@
         <v>100</v>
       </c>
       <c r="K8" t="n">
-        <v>14000</v>
+        <v>19000</v>
       </c>
       <c r="L8" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="M8" t="n">
-        <v>14500</v>
+        <v>19500</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
@@ -955,10 +955,10 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>290</v>
+        <v>650</v>
       </c>
       <c r="Q8" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R8" t="inlineStr">
         <is>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44385</v>
+        <v>44399</v>
       </c>
       <c r="E9" t="n">
         <v>8</v>
@@ -1008,13 +1008,13 @@
         <v>100</v>
       </c>
       <c r="K9" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="L9" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M9" t="n">
-        <v>17500</v>
+        <v>14500</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>583</v>
+        <v>483</v>
       </c>
       <c r="Q9" t="n">
         <v>30</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44342</v>
+        <v>44364</v>
       </c>
       <c r="E10" t="n">
         <v>8</v>
@@ -1068,7 +1068,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1080,17 +1080,17 @@
         <v>100</v>
       </c>
       <c r="K10" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="L10" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="M10" t="n">
-        <v>17500</v>
+        <v>19500</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
@@ -1099,10 +1099,10 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>583</v>
+        <v>390</v>
       </c>
       <c r="Q10" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R10" t="inlineStr">
         <is>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44342</v>
+        <v>44364</v>
       </c>
       <c r="E11" t="n">
         <v>8</v>
@@ -1140,7 +1140,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1152,17 +1152,17 @@
         <v>100</v>
       </c>
       <c r="K11" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="L11" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="M11" t="n">
-        <v>15500</v>
+        <v>19500</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
@@ -1171,10 +1171,10 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>388</v>
+        <v>650</v>
       </c>
       <c r="Q11" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R11" t="inlineStr">
         <is>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44399</v>
+        <v>44463</v>
       </c>
       <c r="E12" t="n">
         <v>8</v>
@@ -1212,7 +1212,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1224,17 +1224,17 @@
         <v>100</v>
       </c>
       <c r="K12" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="L12" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="M12" t="n">
-        <v>14500</v>
+        <v>9500</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
@@ -1243,10 +1243,10 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>483</v>
+        <v>190</v>
       </c>
       <c r="Q12" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R12" t="inlineStr">
         <is>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44383</v>
+        <v>44428</v>
       </c>
       <c r="E13" t="n">
         <v>8</v>
@@ -1284,7 +1284,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1293,20 +1293,20 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="K13" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="L13" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M13" t="n">
-        <v>17400</v>
+        <v>14500</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
@@ -1315,10 +1315,10 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>348</v>
+        <v>483</v>
       </c>
       <c r="Q13" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R13" t="inlineStr">
         <is>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44441</v>
+        <v>44447</v>
       </c>
       <c r="E14" t="n">
         <v>8</v>
@@ -1368,13 +1368,13 @@
         <v>100</v>
       </c>
       <c r="K14" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L14" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M14" t="n">
-        <v>13500</v>
+        <v>14500</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>450</v>
+        <v>483</v>
       </c>
       <c r="Q14" t="n">
         <v>30</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44426</v>
+        <v>44421</v>
       </c>
       <c r="E15" t="n">
         <v>8</v>
@@ -1428,7 +1428,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1437,20 +1437,20 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="K15" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L15" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M15" t="n">
-        <v>12600</v>
+        <v>14500</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
@@ -1459,10 +1459,10 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>315</v>
+        <v>483</v>
       </c>
       <c r="Q15" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R15" t="inlineStr">
         <is>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44442</v>
+        <v>44454</v>
       </c>
       <c r="E16" t="n">
         <v>8</v>
@@ -1500,7 +1500,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1512,29 +1512,29 @@
         <v>100</v>
       </c>
       <c r="K16" t="n">
-        <v>14500</v>
+        <v>13000</v>
       </c>
       <c r="L16" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="M16" t="n">
-        <v>14750</v>
+        <v>13500</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P16" t="n">
-        <v>492</v>
+        <v>338</v>
       </c>
       <c r="Q16" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R16" t="inlineStr">
         <is>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44420</v>
+        <v>44426</v>
       </c>
       <c r="E17" t="n">
         <v>8</v>
@@ -1572,7 +1572,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1581,20 +1581,20 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K17" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="L17" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M17" t="n">
-        <v>14500</v>
+        <v>12600</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
@@ -1603,10 +1603,10 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>483</v>
+        <v>315</v>
       </c>
       <c r="Q17" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R17" t="inlineStr">
         <is>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44350</v>
+        <v>44358</v>
       </c>
       <c r="E18" t="n">
         <v>8</v>
@@ -1653,16 +1653,16 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="K18" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="L18" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="M18" t="n">
-        <v>15600</v>
+        <v>19000</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>312</v>
+        <v>380</v>
       </c>
       <c r="Q18" t="n">
         <v>50</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44350</v>
+        <v>44358</v>
       </c>
       <c r="E19" t="n">
         <v>8</v>
@@ -1725,16 +1725,16 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="K19" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="L19" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="M19" t="n">
-        <v>17500</v>
+        <v>19000</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>583</v>
+        <v>633</v>
       </c>
       <c r="Q19" t="n">
         <v>30</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44447</v>
+        <v>44335</v>
       </c>
       <c r="E20" t="n">
         <v>8</v>
@@ -1800,13 +1800,13 @@
         <v>100</v>
       </c>
       <c r="K20" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="L20" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M20" t="n">
-        <v>14500</v>
+        <v>17500</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>483</v>
+        <v>583</v>
       </c>
       <c r="Q20" t="n">
         <v>30</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44463</v>
+        <v>44350</v>
       </c>
       <c r="E21" t="n">
         <v>8</v>
@@ -1869,16 +1869,16 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K21" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="L21" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="M21" t="n">
-        <v>9500</v>
+        <v>15600</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1891,7 +1891,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>190</v>
+        <v>312</v>
       </c>
       <c r="Q21" t="n">
         <v>50</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44433</v>
+        <v>44350</v>
       </c>
       <c r="E22" t="n">
         <v>8</v>
@@ -1932,7 +1932,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1941,20 +1941,20 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="K22" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="L22" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M22" t="n">
-        <v>14500</v>
+        <v>17500</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
@@ -1963,10 +1963,10 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>290</v>
+        <v>583</v>
       </c>
       <c r="Q22" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R22" t="inlineStr">
         <is>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44397</v>
+        <v>44385</v>
       </c>
       <c r="E23" t="n">
         <v>8</v>
@@ -2016,13 +2016,13 @@
         <v>100</v>
       </c>
       <c r="K23" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="L23" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M23" t="n">
-        <v>14500</v>
+        <v>17500</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>483</v>
+        <v>583</v>
       </c>
       <c r="Q23" t="n">
         <v>30</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44376</v>
+        <v>44435</v>
       </c>
       <c r="E24" t="n">
         <v>8</v>
@@ -2076,7 +2076,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -2088,17 +2088,17 @@
         <v>100</v>
       </c>
       <c r="K24" t="n">
-        <v>19000</v>
+        <v>14000</v>
       </c>
       <c r="L24" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="M24" t="n">
-        <v>19500</v>
+        <v>14500</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
@@ -2107,10 +2107,10 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>650</v>
+        <v>290</v>
       </c>
       <c r="Q24" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R24" t="inlineStr">
         <is>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44358</v>
+        <v>44433</v>
       </c>
       <c r="E25" t="n">
         <v>8</v>
@@ -2160,13 +2160,13 @@
         <v>100</v>
       </c>
       <c r="K25" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="L25" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="M25" t="n">
-        <v>19000</v>
+        <v>14500</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>380</v>
+        <v>290</v>
       </c>
       <c r="Q25" t="n">
         <v>50</v>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44358</v>
+        <v>44397</v>
       </c>
       <c r="E26" t="n">
         <v>8</v>
@@ -2232,13 +2232,13 @@
         <v>100</v>
       </c>
       <c r="K26" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="L26" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="M26" t="n">
-        <v>19000</v>
+        <v>14500</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
@@ -2251,7 +2251,7 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>633</v>
+        <v>483</v>
       </c>
       <c r="Q26" t="n">
         <v>30</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Alcachofa.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Alcachofa.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R26"/>
+  <dimension ref="A1:R28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44463</v>
+        <v>44483</v>
       </c>
       <c r="E12" t="n">
         <v>8</v>
@@ -1212,7 +1212,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1221,20 +1221,20 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>100</v>
+        <v>450</v>
       </c>
       <c r="K12" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="L12" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M12" t="n">
-        <v>9500</v>
+        <v>11444</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
@@ -1243,10 +1243,10 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>190</v>
+        <v>381</v>
       </c>
       <c r="Q12" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R12" t="inlineStr">
         <is>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44428</v>
+        <v>44483</v>
       </c>
       <c r="E13" t="n">
         <v>8</v>
@@ -1284,7 +1284,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1293,32 +1293,32 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>100</v>
+        <v>220</v>
       </c>
       <c r="K13" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="L13" t="n">
-        <v>15000</v>
+        <v>8500</v>
       </c>
       <c r="M13" t="n">
-        <v>14500</v>
+        <v>8273</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P13" t="n">
-        <v>483</v>
+        <v>207</v>
       </c>
       <c r="Q13" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R13" t="inlineStr">
         <is>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44447</v>
+        <v>44463</v>
       </c>
       <c r="E14" t="n">
         <v>8</v>
@@ -1356,7 +1356,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1368,17 +1368,17 @@
         <v>100</v>
       </c>
       <c r="K14" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="L14" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="M14" t="n">
-        <v>14500</v>
+        <v>9500</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
@@ -1387,10 +1387,10 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>483</v>
+        <v>190</v>
       </c>
       <c r="Q14" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R14" t="inlineStr">
         <is>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44421</v>
+        <v>44428</v>
       </c>
       <c r="E15" t="n">
         <v>8</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44454</v>
+        <v>44447</v>
       </c>
       <c r="E16" t="n">
         <v>8</v>
@@ -1500,7 +1500,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1512,29 +1512,29 @@
         <v>100</v>
       </c>
       <c r="K16" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L16" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M16" t="n">
-        <v>13500</v>
+        <v>14500</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P16" t="n">
-        <v>338</v>
+        <v>483</v>
       </c>
       <c r="Q16" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R16" t="inlineStr">
         <is>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44426</v>
+        <v>44421</v>
       </c>
       <c r="E17" t="n">
         <v>8</v>
@@ -1572,7 +1572,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1581,20 +1581,20 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="K17" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L17" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M17" t="n">
-        <v>12600</v>
+        <v>14500</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
@@ -1603,10 +1603,10 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>315</v>
+        <v>483</v>
       </c>
       <c r="Q17" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R17" t="inlineStr">
         <is>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44358</v>
+        <v>44454</v>
       </c>
       <c r="E18" t="n">
         <v>8</v>
@@ -1644,7 +1644,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1656,29 +1656,29 @@
         <v>100</v>
       </c>
       <c r="K18" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="L18" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="M18" t="n">
-        <v>19000</v>
+        <v>13500</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P18" t="n">
-        <v>380</v>
+        <v>338</v>
       </c>
       <c r="Q18" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R18" t="inlineStr">
         <is>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44358</v>
+        <v>44426</v>
       </c>
       <c r="E19" t="n">
         <v>8</v>
@@ -1716,7 +1716,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1725,20 +1725,20 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K19" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="L19" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="M19" t="n">
-        <v>19000</v>
+        <v>12600</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
@@ -1747,10 +1747,10 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>633</v>
+        <v>315</v>
       </c>
       <c r="Q19" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R19" t="inlineStr">
         <is>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44335</v>
+        <v>44358</v>
       </c>
       <c r="E20" t="n">
         <v>8</v>
@@ -1788,7 +1788,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1800,17 +1800,17 @@
         <v>100</v>
       </c>
       <c r="K20" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="L20" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="M20" t="n">
-        <v>17500</v>
+        <v>19000</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
@@ -1819,10 +1819,10 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>583</v>
+        <v>380</v>
       </c>
       <c r="Q20" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R20" t="inlineStr">
         <is>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44350</v>
+        <v>44358</v>
       </c>
       <c r="E21" t="n">
         <v>8</v>
@@ -1860,7 +1860,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1869,20 +1869,20 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="K21" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="L21" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="M21" t="n">
-        <v>15600</v>
+        <v>19000</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
@@ -1891,10 +1891,10 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>312</v>
+        <v>633</v>
       </c>
       <c r="Q21" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R21" t="inlineStr">
         <is>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44350</v>
+        <v>44335</v>
       </c>
       <c r="E22" t="n">
         <v>8</v>
@@ -1941,7 +1941,7 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="K22" t="n">
         <v>17000</v>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44385</v>
+        <v>44350</v>
       </c>
       <c r="E23" t="n">
         <v>8</v>
@@ -2004,7 +2004,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -2013,20 +2013,20 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K23" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="L23" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="M23" t="n">
-        <v>17500</v>
+        <v>15600</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
@@ -2035,10 +2035,10 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>583</v>
+        <v>312</v>
       </c>
       <c r="Q23" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R23" t="inlineStr">
         <is>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44435</v>
+        <v>44350</v>
       </c>
       <c r="E24" t="n">
         <v>8</v>
@@ -2076,7 +2076,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -2085,20 +2085,20 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="K24" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="L24" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M24" t="n">
-        <v>14500</v>
+        <v>17500</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
@@ -2107,10 +2107,10 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>290</v>
+        <v>583</v>
       </c>
       <c r="Q24" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R24" t="inlineStr">
         <is>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44433</v>
+        <v>44385</v>
       </c>
       <c r="E25" t="n">
         <v>8</v>
@@ -2148,7 +2148,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -2160,17 +2160,17 @@
         <v>100</v>
       </c>
       <c r="K25" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="L25" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M25" t="n">
-        <v>14500</v>
+        <v>17500</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
@@ -2179,10 +2179,10 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>290</v>
+        <v>583</v>
       </c>
       <c r="Q25" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R25" t="inlineStr">
         <is>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44397</v>
+        <v>44435</v>
       </c>
       <c r="E26" t="n">
         <v>8</v>
@@ -2220,7 +2220,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -2242,21 +2242,165 @@
       </c>
       <c r="N26" t="inlineStr">
         <is>
+          <t>$/caja 50 unidades</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P26" t="n">
+        <v>290</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>50</v>
+      </c>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>11</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="n">
+        <v>44433</v>
+      </c>
+      <c r="E27" t="n">
+        <v>8</v>
+      </c>
+      <c r="F27" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Argentina(o)</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J27" t="n">
+        <v>100</v>
+      </c>
+      <c r="K27" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L27" t="n">
+        <v>15000</v>
+      </c>
+      <c r="M27" t="n">
+        <v>14500</v>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>$/caja 50 unidades</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P27" t="n">
+        <v>290</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>50</v>
+      </c>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>11</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="n">
+        <v>44397</v>
+      </c>
+      <c r="E28" t="n">
+        <v>8</v>
+      </c>
+      <c r="F28" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Española</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J28" t="n">
+        <v>100</v>
+      </c>
+      <c r="K28" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L28" t="n">
+        <v>15000</v>
+      </c>
+      <c r="M28" t="n">
+        <v>14500</v>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
           <t>$/caja 30 unidades</t>
         </is>
       </c>
-      <c r="O26" t="inlineStr">
+      <c r="O28" t="inlineStr">
         <is>
           <t>Provincia de Limarí</t>
         </is>
       </c>
-      <c r="P26" t="n">
+      <c r="P28" t="n">
         <v>483</v>
       </c>
-      <c r="Q26" t="n">
+      <c r="Q28" t="n">
         <v>30</v>
       </c>
-      <c r="R26" t="inlineStr">
+      <c r="R28" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Alcachofa.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Alcachofa.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R28"/>
+  <dimension ref="A1:R30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44447</v>
+        <v>44484</v>
       </c>
       <c r="E16" t="n">
         <v>8</v>
@@ -1500,7 +1500,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1509,20 +1509,20 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>100</v>
+        <v>220</v>
       </c>
       <c r="K16" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="L16" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="M16" t="n">
-        <v>14500</v>
+        <v>8455</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
@@ -1531,10 +1531,10 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>483</v>
+        <v>169</v>
       </c>
       <c r="Q16" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R16" t="inlineStr">
         <is>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44421</v>
+        <v>44484</v>
       </c>
       <c r="E17" t="n">
         <v>8</v>
@@ -1581,16 +1581,16 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>100</v>
+        <v>220</v>
       </c>
       <c r="K17" t="n">
-        <v>14000</v>
+        <v>7500</v>
       </c>
       <c r="L17" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="M17" t="n">
-        <v>14500</v>
+        <v>7727</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>483</v>
+        <v>258</v>
       </c>
       <c r="Q17" t="n">
         <v>30</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44454</v>
+        <v>44447</v>
       </c>
       <c r="E18" t="n">
         <v>8</v>
@@ -1644,7 +1644,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1656,29 +1656,29 @@
         <v>100</v>
       </c>
       <c r="K18" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L18" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M18" t="n">
-        <v>13500</v>
+        <v>14500</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P18" t="n">
-        <v>338</v>
+        <v>483</v>
       </c>
       <c r="Q18" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R18" t="inlineStr">
         <is>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44426</v>
+        <v>44421</v>
       </c>
       <c r="E19" t="n">
         <v>8</v>
@@ -1716,7 +1716,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1725,20 +1725,20 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="K19" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L19" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M19" t="n">
-        <v>12600</v>
+        <v>14500</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
@@ -1747,10 +1747,10 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>315</v>
+        <v>483</v>
       </c>
       <c r="Q19" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R19" t="inlineStr">
         <is>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44358</v>
+        <v>44454</v>
       </c>
       <c r="E20" t="n">
         <v>8</v>
@@ -1788,7 +1788,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1800,29 +1800,29 @@
         <v>100</v>
       </c>
       <c r="K20" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="L20" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="M20" t="n">
-        <v>19000</v>
+        <v>13500</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P20" t="n">
-        <v>380</v>
+        <v>338</v>
       </c>
       <c r="Q20" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R20" t="inlineStr">
         <is>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44358</v>
+        <v>44426</v>
       </c>
       <c r="E21" t="n">
         <v>8</v>
@@ -1860,7 +1860,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1869,20 +1869,20 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K21" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="L21" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="M21" t="n">
-        <v>19000</v>
+        <v>12600</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
@@ -1891,10 +1891,10 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>633</v>
+        <v>315</v>
       </c>
       <c r="Q21" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R21" t="inlineStr">
         <is>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44335</v>
+        <v>44358</v>
       </c>
       <c r="E22" t="n">
         <v>8</v>
@@ -1932,7 +1932,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1944,17 +1944,17 @@
         <v>100</v>
       </c>
       <c r="K22" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="L22" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="M22" t="n">
-        <v>17500</v>
+        <v>19000</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
@@ -1963,10 +1963,10 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>583</v>
+        <v>380</v>
       </c>
       <c r="Q22" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R22" t="inlineStr">
         <is>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44350</v>
+        <v>44358</v>
       </c>
       <c r="E23" t="n">
         <v>8</v>
@@ -2004,7 +2004,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -2013,20 +2013,20 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="K23" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="L23" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="M23" t="n">
-        <v>15600</v>
+        <v>19000</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
@@ -2035,10 +2035,10 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>312</v>
+        <v>633</v>
       </c>
       <c r="Q23" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R23" t="inlineStr">
         <is>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44350</v>
+        <v>44335</v>
       </c>
       <c r="E24" t="n">
         <v>8</v>
@@ -2085,7 +2085,7 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="K24" t="n">
         <v>17000</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44385</v>
+        <v>44350</v>
       </c>
       <c r="E25" t="n">
         <v>8</v>
@@ -2148,7 +2148,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -2157,20 +2157,20 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K25" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="L25" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="M25" t="n">
-        <v>17500</v>
+        <v>15600</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
@@ -2179,10 +2179,10 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>583</v>
+        <v>312</v>
       </c>
       <c r="Q25" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R25" t="inlineStr">
         <is>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44435</v>
+        <v>44350</v>
       </c>
       <c r="E26" t="n">
         <v>8</v>
@@ -2220,7 +2220,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -2229,20 +2229,20 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="K26" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="L26" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M26" t="n">
-        <v>14500</v>
+        <v>17500</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
@@ -2251,10 +2251,10 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>290</v>
+        <v>583</v>
       </c>
       <c r="Q26" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R26" t="inlineStr">
         <is>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44433</v>
+        <v>44385</v>
       </c>
       <c r="E27" t="n">
         <v>8</v>
@@ -2292,7 +2292,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -2304,17 +2304,17 @@
         <v>100</v>
       </c>
       <c r="K27" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="L27" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M27" t="n">
-        <v>14500</v>
+        <v>17500</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
@@ -2323,10 +2323,10 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>290</v>
+        <v>583</v>
       </c>
       <c r="Q27" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R27" t="inlineStr">
         <is>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44397</v>
+        <v>44435</v>
       </c>
       <c r="E28" t="n">
         <v>8</v>
@@ -2364,7 +2364,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -2386,21 +2386,165 @@
       </c>
       <c r="N28" t="inlineStr">
         <is>
+          <t>$/caja 50 unidades</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P28" t="n">
+        <v>290</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>50</v>
+      </c>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>11</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="n">
+        <v>44433</v>
+      </c>
+      <c r="E29" t="n">
+        <v>8</v>
+      </c>
+      <c r="F29" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Argentina(o)</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J29" t="n">
+        <v>100</v>
+      </c>
+      <c r="K29" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L29" t="n">
+        <v>15000</v>
+      </c>
+      <c r="M29" t="n">
+        <v>14500</v>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>$/caja 50 unidades</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P29" t="n">
+        <v>290</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>50</v>
+      </c>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>11</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="n">
+        <v>44397</v>
+      </c>
+      <c r="E30" t="n">
+        <v>8</v>
+      </c>
+      <c r="F30" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Española</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J30" t="n">
+        <v>100</v>
+      </c>
+      <c r="K30" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L30" t="n">
+        <v>15000</v>
+      </c>
+      <c r="M30" t="n">
+        <v>14500</v>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
           <t>$/caja 30 unidades</t>
         </is>
       </c>
-      <c r="O28" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="P28" t="n">
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P30" t="n">
         <v>483</v>
       </c>
-      <c r="Q28" t="n">
+      <c r="Q30" t="n">
         <v>30</v>
       </c>
-      <c r="R28" t="inlineStr">
+      <c r="R30" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Alcachofa.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Alcachofa.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R30"/>
+  <dimension ref="A1:R32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44358</v>
+        <v>44489</v>
       </c>
       <c r="E22" t="n">
         <v>8</v>
@@ -1944,13 +1944,13 @@
         <v>100</v>
       </c>
       <c r="K22" t="n">
-        <v>18000</v>
+        <v>9000</v>
       </c>
       <c r="L22" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="M22" t="n">
-        <v>19000</v>
+        <v>9500</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>380</v>
+        <v>190</v>
       </c>
       <c r="Q22" t="n">
         <v>50</v>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44358</v>
+        <v>44489</v>
       </c>
       <c r="E23" t="n">
         <v>8</v>
@@ -2016,13 +2016,13 @@
         <v>100</v>
       </c>
       <c r="K23" t="n">
-        <v>18000</v>
+        <v>8000</v>
       </c>
       <c r="L23" t="n">
-        <v>20000</v>
+        <v>8500</v>
       </c>
       <c r="M23" t="n">
-        <v>19000</v>
+        <v>8250</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>633</v>
+        <v>275</v>
       </c>
       <c r="Q23" t="n">
         <v>30</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44335</v>
+        <v>44358</v>
       </c>
       <c r="E24" t="n">
         <v>8</v>
@@ -2076,7 +2076,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -2088,17 +2088,17 @@
         <v>100</v>
       </c>
       <c r="K24" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="L24" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="M24" t="n">
-        <v>17500</v>
+        <v>19000</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
@@ -2107,10 +2107,10 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>583</v>
+        <v>380</v>
       </c>
       <c r="Q24" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R24" t="inlineStr">
         <is>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44350</v>
+        <v>44358</v>
       </c>
       <c r="E25" t="n">
         <v>8</v>
@@ -2148,7 +2148,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -2157,20 +2157,20 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="K25" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="L25" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="M25" t="n">
-        <v>15600</v>
+        <v>19000</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
@@ -2179,10 +2179,10 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>312</v>
+        <v>633</v>
       </c>
       <c r="Q25" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R25" t="inlineStr">
         <is>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44350</v>
+        <v>44335</v>
       </c>
       <c r="E26" t="n">
         <v>8</v>
@@ -2229,7 +2229,7 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="K26" t="n">
         <v>17000</v>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44385</v>
+        <v>44350</v>
       </c>
       <c r="E27" t="n">
         <v>8</v>
@@ -2292,7 +2292,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -2301,20 +2301,20 @@
         </is>
       </c>
       <c r="J27" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K27" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="L27" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="M27" t="n">
-        <v>17500</v>
+        <v>15600</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
@@ -2323,10 +2323,10 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>583</v>
+        <v>312</v>
       </c>
       <c r="Q27" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R27" t="inlineStr">
         <is>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44435</v>
+        <v>44350</v>
       </c>
       <c r="E28" t="n">
         <v>8</v>
@@ -2364,7 +2364,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -2373,20 +2373,20 @@
         </is>
       </c>
       <c r="J28" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="K28" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="L28" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M28" t="n">
-        <v>14500</v>
+        <v>17500</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
@@ -2395,10 +2395,10 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>290</v>
+        <v>583</v>
       </c>
       <c r="Q28" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R28" t="inlineStr">
         <is>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44433</v>
+        <v>44385</v>
       </c>
       <c r="E29" t="n">
         <v>8</v>
@@ -2436,7 +2436,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -2448,17 +2448,17 @@
         <v>100</v>
       </c>
       <c r="K29" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="L29" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M29" t="n">
-        <v>14500</v>
+        <v>17500</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
@@ -2467,10 +2467,10 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>290</v>
+        <v>583</v>
       </c>
       <c r="Q29" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R29" t="inlineStr">
         <is>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44397</v>
+        <v>44435</v>
       </c>
       <c r="E30" t="n">
         <v>8</v>
@@ -2508,7 +2508,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -2530,21 +2530,165 @@
       </c>
       <c r="N30" t="inlineStr">
         <is>
+          <t>$/caja 50 unidades</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P30" t="n">
+        <v>290</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>50</v>
+      </c>
+      <c r="R30" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>11</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="n">
+        <v>44433</v>
+      </c>
+      <c r="E31" t="n">
+        <v>8</v>
+      </c>
+      <c r="F31" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Argentina(o)</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J31" t="n">
+        <v>100</v>
+      </c>
+      <c r="K31" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L31" t="n">
+        <v>15000</v>
+      </c>
+      <c r="M31" t="n">
+        <v>14500</v>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>$/caja 50 unidades</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P31" t="n">
+        <v>290</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>50</v>
+      </c>
+      <c r="R31" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>11</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="n">
+        <v>44397</v>
+      </c>
+      <c r="E32" t="n">
+        <v>8</v>
+      </c>
+      <c r="F32" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Española</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J32" t="n">
+        <v>100</v>
+      </c>
+      <c r="K32" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L32" t="n">
+        <v>15000</v>
+      </c>
+      <c r="M32" t="n">
+        <v>14500</v>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
           <t>$/caja 30 unidades</t>
         </is>
       </c>
-      <c r="O30" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="P30" t="n">
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P32" t="n">
         <v>483</v>
       </c>
-      <c r="Q30" t="n">
+      <c r="Q32" t="n">
         <v>30</v>
       </c>
-      <c r="R30" t="inlineStr">
+      <c r="R32" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Alcachofa.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Alcachofa.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R32"/>
+  <dimension ref="A1:R33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44383</v>
+        <v>44496</v>
       </c>
       <c r="E2" t="n">
         <v>8</v>
@@ -492,7 +492,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -501,32 +501,32 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>50</v>
+        <v>350</v>
       </c>
       <c r="K2" t="n">
-        <v>17000</v>
+        <v>7000</v>
       </c>
       <c r="L2" t="n">
-        <v>18000</v>
+        <v>7500</v>
       </c>
       <c r="M2" t="n">
-        <v>17400</v>
+        <v>7214</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P2" t="n">
-        <v>348</v>
+        <v>180</v>
       </c>
       <c r="Q2" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R2" t="inlineStr">
         <is>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44442</v>
+        <v>44383</v>
       </c>
       <c r="E3" t="n">
         <v>8</v>
@@ -564,7 +564,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -573,20 +573,20 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K3" t="n">
-        <v>14500</v>
+        <v>17000</v>
       </c>
       <c r="L3" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M3" t="n">
-        <v>14750</v>
+        <v>17400</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -595,10 +595,10 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>492</v>
+        <v>348</v>
       </c>
       <c r="Q3" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R3" t="inlineStr">
         <is>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44441</v>
+        <v>44442</v>
       </c>
       <c r="E4" t="n">
         <v>8</v>
@@ -648,13 +648,13 @@
         <v>100</v>
       </c>
       <c r="K4" t="n">
-        <v>13000</v>
+        <v>14500</v>
       </c>
       <c r="L4" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M4" t="n">
-        <v>13500</v>
+        <v>14750</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>450</v>
+        <v>492</v>
       </c>
       <c r="Q4" t="n">
         <v>30</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44420</v>
+        <v>44441</v>
       </c>
       <c r="E5" t="n">
         <v>8</v>
@@ -720,13 +720,13 @@
         <v>100</v>
       </c>
       <c r="K5" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L5" t="n">
         <v>14000</v>
       </c>
-      <c r="L5" t="n">
-        <v>15000</v>
-      </c>
       <c r="M5" t="n">
-        <v>14500</v>
+        <v>13500</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>483</v>
+        <v>450</v>
       </c>
       <c r="Q5" t="n">
         <v>30</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44342</v>
+        <v>44420</v>
       </c>
       <c r="E6" t="n">
         <v>8</v>
@@ -792,13 +792,13 @@
         <v>100</v>
       </c>
       <c r="K6" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="L6" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M6" t="n">
-        <v>17500</v>
+        <v>14500</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>583</v>
+        <v>483</v>
       </c>
       <c r="Q6" t="n">
         <v>30</v>
@@ -852,7 +852,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -864,17 +864,17 @@
         <v>100</v>
       </c>
       <c r="K7" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="L7" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="M7" t="n">
-        <v>15500</v>
+        <v>17500</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -883,10 +883,10 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>388</v>
+        <v>583</v>
       </c>
       <c r="Q7" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R7" t="inlineStr">
         <is>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44376</v>
+        <v>44342</v>
       </c>
       <c r="E8" t="n">
         <v>8</v>
@@ -924,7 +924,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -936,17 +936,17 @@
         <v>100</v>
       </c>
       <c r="K8" t="n">
-        <v>19000</v>
+        <v>15000</v>
       </c>
       <c r="L8" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="M8" t="n">
-        <v>19500</v>
+        <v>15500</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
@@ -955,10 +955,10 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>650</v>
+        <v>388</v>
       </c>
       <c r="Q8" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R8" t="inlineStr">
         <is>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44399</v>
+        <v>44376</v>
       </c>
       <c r="E9" t="n">
         <v>8</v>
@@ -1008,13 +1008,13 @@
         <v>100</v>
       </c>
       <c r="K9" t="n">
-        <v>14000</v>
+        <v>19000</v>
       </c>
       <c r="L9" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="M9" t="n">
-        <v>14500</v>
+        <v>19500</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>483</v>
+        <v>650</v>
       </c>
       <c r="Q9" t="n">
         <v>30</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44364</v>
+        <v>44399</v>
       </c>
       <c r="E10" t="n">
         <v>8</v>
@@ -1068,7 +1068,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1080,17 +1080,17 @@
         <v>100</v>
       </c>
       <c r="K10" t="n">
-        <v>19000</v>
+        <v>14000</v>
       </c>
       <c r="L10" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="M10" t="n">
-        <v>19500</v>
+        <v>14500</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
@@ -1099,10 +1099,10 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>390</v>
+        <v>483</v>
       </c>
       <c r="Q10" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R10" t="inlineStr">
         <is>
@@ -1140,7 +1140,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1162,7 +1162,7 @@
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
@@ -1171,10 +1171,10 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>650</v>
+        <v>390</v>
       </c>
       <c r="Q11" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R11" t="inlineStr">
         <is>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44483</v>
+        <v>44364</v>
       </c>
       <c r="E12" t="n">
         <v>8</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>450</v>
+        <v>100</v>
       </c>
       <c r="K12" t="n">
-        <v>11000</v>
+        <v>19000</v>
       </c>
       <c r="L12" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="M12" t="n">
-        <v>11444</v>
+        <v>19500</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>381</v>
+        <v>650</v>
       </c>
       <c r="Q12" t="n">
         <v>30</v>
@@ -1284,7 +1284,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1293,32 +1293,32 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>220</v>
+        <v>450</v>
       </c>
       <c r="K13" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="L13" t="n">
-        <v>8500</v>
+        <v>12000</v>
       </c>
       <c r="M13" t="n">
-        <v>8273</v>
+        <v>11444</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P13" t="n">
-        <v>207</v>
+        <v>381</v>
       </c>
       <c r="Q13" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R13" t="inlineStr">
         <is>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44463</v>
+        <v>44483</v>
       </c>
       <c r="E14" t="n">
         <v>8</v>
@@ -1356,7 +1356,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1365,32 +1365,32 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>100</v>
+        <v>220</v>
       </c>
       <c r="K14" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="L14" t="n">
-        <v>10000</v>
+        <v>8500</v>
       </c>
       <c r="M14" t="n">
-        <v>9500</v>
+        <v>8273</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P14" t="n">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="Q14" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R14" t="inlineStr">
         <is>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44428</v>
+        <v>44463</v>
       </c>
       <c r="E15" t="n">
         <v>8</v>
@@ -1428,7 +1428,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1440,17 +1440,17 @@
         <v>100</v>
       </c>
       <c r="K15" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="L15" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="M15" t="n">
-        <v>14500</v>
+        <v>9500</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
@@ -1459,10 +1459,10 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>483</v>
+        <v>190</v>
       </c>
       <c r="Q15" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R15" t="inlineStr">
         <is>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44484</v>
+        <v>44428</v>
       </c>
       <c r="E16" t="n">
         <v>8</v>
@@ -1500,7 +1500,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1509,20 +1509,20 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>220</v>
+        <v>100</v>
       </c>
       <c r="K16" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="L16" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="M16" t="n">
-        <v>8455</v>
+        <v>14500</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
@@ -1531,10 +1531,10 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>169</v>
+        <v>483</v>
       </c>
       <c r="Q16" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R16" t="inlineStr">
         <is>
@@ -1572,7 +1572,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1584,17 +1584,17 @@
         <v>220</v>
       </c>
       <c r="K17" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="L17" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M17" t="n">
-        <v>7727</v>
+        <v>8455</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
@@ -1603,10 +1603,10 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>258</v>
+        <v>169</v>
       </c>
       <c r="Q17" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R17" t="inlineStr">
         <is>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44447</v>
+        <v>44484</v>
       </c>
       <c r="E18" t="n">
         <v>8</v>
@@ -1653,16 +1653,16 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>100</v>
+        <v>220</v>
       </c>
       <c r="K18" t="n">
-        <v>14000</v>
+        <v>7500</v>
       </c>
       <c r="L18" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="M18" t="n">
-        <v>14500</v>
+        <v>7727</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>483</v>
+        <v>258</v>
       </c>
       <c r="Q18" t="n">
         <v>30</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44421</v>
+        <v>44447</v>
       </c>
       <c r="E19" t="n">
         <v>8</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44454</v>
+        <v>44421</v>
       </c>
       <c r="E20" t="n">
         <v>8</v>
@@ -1788,7 +1788,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1800,29 +1800,29 @@
         <v>100</v>
       </c>
       <c r="K20" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L20" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M20" t="n">
-        <v>13500</v>
+        <v>14500</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P20" t="n">
-        <v>338</v>
+        <v>483</v>
       </c>
       <c r="Q20" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R20" t="inlineStr">
         <is>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44426</v>
+        <v>44454</v>
       </c>
       <c r="E21" t="n">
         <v>8</v>
@@ -1869,16 +1869,16 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="K21" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="L21" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="M21" t="n">
-        <v>12600</v>
+        <v>13500</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1887,11 +1887,11 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P21" t="n">
-        <v>315</v>
+        <v>338</v>
       </c>
       <c r="Q21" t="n">
         <v>40</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44489</v>
+        <v>44426</v>
       </c>
       <c r="E22" t="n">
         <v>8</v>
@@ -1932,7 +1932,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1941,20 +1941,20 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K22" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="L22" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="M22" t="n">
-        <v>9500</v>
+        <v>12600</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
@@ -1963,10 +1963,10 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>190</v>
+        <v>315</v>
       </c>
       <c r="Q22" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R22" t="inlineStr">
         <is>
@@ -2004,7 +2004,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -2016,17 +2016,17 @@
         <v>100</v>
       </c>
       <c r="K23" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="L23" t="n">
-        <v>8500</v>
+        <v>10000</v>
       </c>
       <c r="M23" t="n">
-        <v>8250</v>
+        <v>9500</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
@@ -2035,10 +2035,10 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>275</v>
+        <v>190</v>
       </c>
       <c r="Q23" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R23" t="inlineStr">
         <is>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44358</v>
+        <v>44489</v>
       </c>
       <c r="E24" t="n">
         <v>8</v>
@@ -2076,7 +2076,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -2088,17 +2088,17 @@
         <v>100</v>
       </c>
       <c r="K24" t="n">
-        <v>18000</v>
+        <v>8000</v>
       </c>
       <c r="L24" t="n">
-        <v>20000</v>
+        <v>8500</v>
       </c>
       <c r="M24" t="n">
-        <v>19000</v>
+        <v>8250</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
@@ -2107,10 +2107,10 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>380</v>
+        <v>275</v>
       </c>
       <c r="Q24" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R24" t="inlineStr">
         <is>
@@ -2148,7 +2148,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -2170,7 +2170,7 @@
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
@@ -2179,10 +2179,10 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>633</v>
+        <v>380</v>
       </c>
       <c r="Q25" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R25" t="inlineStr">
         <is>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44335</v>
+        <v>44358</v>
       </c>
       <c r="E26" t="n">
         <v>8</v>
@@ -2232,13 +2232,13 @@
         <v>100</v>
       </c>
       <c r="K26" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="L26" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="M26" t="n">
-        <v>17500</v>
+        <v>19000</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
@@ -2251,7 +2251,7 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>583</v>
+        <v>633</v>
       </c>
       <c r="Q26" t="n">
         <v>30</v>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44350</v>
+        <v>44335</v>
       </c>
       <c r="E27" t="n">
         <v>8</v>
@@ -2292,7 +2292,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -2301,20 +2301,20 @@
         </is>
       </c>
       <c r="J27" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="K27" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="L27" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="M27" t="n">
-        <v>15600</v>
+        <v>17500</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
@@ -2323,10 +2323,10 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>312</v>
+        <v>583</v>
       </c>
       <c r="Q27" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R27" t="inlineStr">
         <is>
@@ -2364,7 +2364,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -2373,20 +2373,20 @@
         </is>
       </c>
       <c r="J28" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K28" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="L28" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="M28" t="n">
-        <v>17500</v>
+        <v>15600</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
@@ -2395,10 +2395,10 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>583</v>
+        <v>312</v>
       </c>
       <c r="Q28" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R28" t="inlineStr">
         <is>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44385</v>
+        <v>44350</v>
       </c>
       <c r="E29" t="n">
         <v>8</v>
@@ -2445,7 +2445,7 @@
         </is>
       </c>
       <c r="J29" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="K29" t="n">
         <v>17000</v>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44435</v>
+        <v>44385</v>
       </c>
       <c r="E30" t="n">
         <v>8</v>
@@ -2508,7 +2508,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -2520,17 +2520,17 @@
         <v>100</v>
       </c>
       <c r="K30" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="L30" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M30" t="n">
-        <v>14500</v>
+        <v>17500</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
@@ -2539,10 +2539,10 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>290</v>
+        <v>583</v>
       </c>
       <c r="Q30" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R30" t="inlineStr">
         <is>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44433</v>
+        <v>44435</v>
       </c>
       <c r="E31" t="n">
         <v>8</v>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44397</v>
+        <v>44433</v>
       </c>
       <c r="E32" t="n">
         <v>8</v>
@@ -2652,7 +2652,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -2674,21 +2674,93 @@
       </c>
       <c r="N32" t="inlineStr">
         <is>
+          <t>$/caja 50 unidades</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P32" t="n">
+        <v>290</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>50</v>
+      </c>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>11</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="n">
+        <v>44397</v>
+      </c>
+      <c r="E33" t="n">
+        <v>8</v>
+      </c>
+      <c r="F33" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Española</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J33" t="n">
+        <v>100</v>
+      </c>
+      <c r="K33" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L33" t="n">
+        <v>15000</v>
+      </c>
+      <c r="M33" t="n">
+        <v>14500</v>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
           <t>$/caja 30 unidades</t>
         </is>
       </c>
-      <c r="O32" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="P32" t="n">
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P33" t="n">
         <v>483</v>
       </c>
-      <c r="Q32" t="n">
+      <c r="Q33" t="n">
         <v>30</v>
       </c>
-      <c r="R32" t="inlineStr">
+      <c r="R33" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Alcachofa.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Alcachofa.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R33"/>
+  <dimension ref="A1:R36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44376</v>
+        <v>44497</v>
       </c>
       <c r="E9" t="n">
         <v>8</v>
@@ -996,7 +996,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1005,20 +1005,20 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="K9" t="n">
-        <v>19000</v>
+        <v>6500</v>
       </c>
       <c r="L9" t="n">
-        <v>20000</v>
+        <v>7000</v>
       </c>
       <c r="M9" t="n">
-        <v>19500</v>
+        <v>6778</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
@@ -1027,10 +1027,10 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>650</v>
+        <v>136</v>
       </c>
       <c r="Q9" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R9" t="inlineStr">
         <is>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44399</v>
+        <v>44497</v>
       </c>
       <c r="E10" t="n">
         <v>8</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K10" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="L10" t="n">
-        <v>15000</v>
+        <v>7500</v>
       </c>
       <c r="M10" t="n">
-        <v>14500</v>
+        <v>7250</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>483</v>
+        <v>242</v>
       </c>
       <c r="Q10" t="n">
         <v>30</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44364</v>
+        <v>44497</v>
       </c>
       <c r="E11" t="n">
         <v>8</v>
@@ -1140,7 +1140,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1149,32 +1149,32 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="K11" t="n">
-        <v>19000</v>
+        <v>6000</v>
       </c>
       <c r="L11" t="n">
-        <v>20000</v>
+        <v>6500</v>
       </c>
       <c r="M11" t="n">
-        <v>19500</v>
+        <v>6192</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P11" t="n">
-        <v>390</v>
+        <v>155</v>
       </c>
       <c r="Q11" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R11" t="inlineStr">
         <is>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44364</v>
+        <v>44376</v>
       </c>
       <c r="E12" t="n">
         <v>8</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44483</v>
+        <v>44399</v>
       </c>
       <c r="E13" t="n">
         <v>8</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>450</v>
+        <v>100</v>
       </c>
       <c r="K13" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="L13" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M13" t="n">
-        <v>11444</v>
+        <v>14500</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>381</v>
+        <v>483</v>
       </c>
       <c r="Q13" t="n">
         <v>30</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44483</v>
+        <v>44364</v>
       </c>
       <c r="E14" t="n">
         <v>8</v>
@@ -1356,7 +1356,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1365,32 +1365,32 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>220</v>
+        <v>100</v>
       </c>
       <c r="K14" t="n">
-        <v>8000</v>
+        <v>19000</v>
       </c>
       <c r="L14" t="n">
-        <v>8500</v>
+        <v>20000</v>
       </c>
       <c r="M14" t="n">
-        <v>8273</v>
+        <v>19500</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P14" t="n">
-        <v>207</v>
+        <v>390</v>
       </c>
       <c r="Q14" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R14" t="inlineStr">
         <is>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44463</v>
+        <v>44364</v>
       </c>
       <c r="E15" t="n">
         <v>8</v>
@@ -1428,7 +1428,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1440,17 +1440,17 @@
         <v>100</v>
       </c>
       <c r="K15" t="n">
-        <v>9000</v>
+        <v>19000</v>
       </c>
       <c r="L15" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="M15" t="n">
-        <v>9500</v>
+        <v>19500</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
@@ -1459,10 +1459,10 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>190</v>
+        <v>650</v>
       </c>
       <c r="Q15" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R15" t="inlineStr">
         <is>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44428</v>
+        <v>44483</v>
       </c>
       <c r="E16" t="n">
         <v>8</v>
@@ -1509,16 +1509,16 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>100</v>
+        <v>450</v>
       </c>
       <c r="K16" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="L16" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="M16" t="n">
-        <v>14500</v>
+        <v>11444</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>483</v>
+        <v>381</v>
       </c>
       <c r="Q16" t="n">
         <v>30</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44484</v>
+        <v>44483</v>
       </c>
       <c r="E17" t="n">
         <v>8</v>
@@ -1572,7 +1572,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1587,26 +1587,26 @@
         <v>8000</v>
       </c>
       <c r="L17" t="n">
-        <v>9000</v>
+        <v>8500</v>
       </c>
       <c r="M17" t="n">
-        <v>8455</v>
+        <v>8273</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P17" t="n">
-        <v>169</v>
+        <v>207</v>
       </c>
       <c r="Q17" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R17" t="inlineStr">
         <is>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44484</v>
+        <v>44463</v>
       </c>
       <c r="E18" t="n">
         <v>8</v>
@@ -1644,7 +1644,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1653,20 +1653,20 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>220</v>
+        <v>100</v>
       </c>
       <c r="K18" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="L18" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M18" t="n">
-        <v>7727</v>
+        <v>9500</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
@@ -1675,10 +1675,10 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>258</v>
+        <v>190</v>
       </c>
       <c r="Q18" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R18" t="inlineStr">
         <is>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44447</v>
+        <v>44428</v>
       </c>
       <c r="E19" t="n">
         <v>8</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44421</v>
+        <v>44484</v>
       </c>
       <c r="E20" t="n">
         <v>8</v>
@@ -1788,7 +1788,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1797,20 +1797,20 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>100</v>
+        <v>220</v>
       </c>
       <c r="K20" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="L20" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="M20" t="n">
-        <v>14500</v>
+        <v>8455</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
@@ -1819,10 +1819,10 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>483</v>
+        <v>169</v>
       </c>
       <c r="Q20" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R20" t="inlineStr">
         <is>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44454</v>
+        <v>44484</v>
       </c>
       <c r="E21" t="n">
         <v>8</v>
@@ -1860,7 +1860,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1869,32 +1869,32 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>100</v>
+        <v>220</v>
       </c>
       <c r="K21" t="n">
-        <v>13000</v>
+        <v>7500</v>
       </c>
       <c r="L21" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="M21" t="n">
-        <v>13500</v>
+        <v>7727</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P21" t="n">
-        <v>338</v>
+        <v>258</v>
       </c>
       <c r="Q21" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R21" t="inlineStr">
         <is>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44426</v>
+        <v>44447</v>
       </c>
       <c r="E22" t="n">
         <v>8</v>
@@ -1932,7 +1932,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1941,20 +1941,20 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="K22" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L22" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M22" t="n">
-        <v>12600</v>
+        <v>14500</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
@@ -1963,10 +1963,10 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>315</v>
+        <v>483</v>
       </c>
       <c r="Q22" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R22" t="inlineStr">
         <is>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44489</v>
+        <v>44421</v>
       </c>
       <c r="E23" t="n">
         <v>8</v>
@@ -2004,7 +2004,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -2016,17 +2016,17 @@
         <v>100</v>
       </c>
       <c r="K23" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="L23" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="M23" t="n">
-        <v>9500</v>
+        <v>14500</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
@@ -2035,10 +2035,10 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>190</v>
+        <v>483</v>
       </c>
       <c r="Q23" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R23" t="inlineStr">
         <is>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44489</v>
+        <v>44454</v>
       </c>
       <c r="E24" t="n">
         <v>8</v>
@@ -2076,7 +2076,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -2088,29 +2088,29 @@
         <v>100</v>
       </c>
       <c r="K24" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="L24" t="n">
-        <v>8500</v>
+        <v>14000</v>
       </c>
       <c r="M24" t="n">
-        <v>8250</v>
+        <v>13500</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P24" t="n">
-        <v>275</v>
+        <v>338</v>
       </c>
       <c r="Q24" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R24" t="inlineStr">
         <is>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44358</v>
+        <v>44426</v>
       </c>
       <c r="E25" t="n">
         <v>8</v>
@@ -2148,7 +2148,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -2157,20 +2157,20 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K25" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="L25" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="M25" t="n">
-        <v>19000</v>
+        <v>12600</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
@@ -2179,10 +2179,10 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>380</v>
+        <v>315</v>
       </c>
       <c r="Q25" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R25" t="inlineStr">
         <is>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44358</v>
+        <v>44489</v>
       </c>
       <c r="E26" t="n">
         <v>8</v>
@@ -2220,7 +2220,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -2232,17 +2232,17 @@
         <v>100</v>
       </c>
       <c r="K26" t="n">
-        <v>18000</v>
+        <v>9000</v>
       </c>
       <c r="L26" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="M26" t="n">
-        <v>19000</v>
+        <v>9500</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
@@ -2251,10 +2251,10 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>633</v>
+        <v>190</v>
       </c>
       <c r="Q26" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R26" t="inlineStr">
         <is>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44335</v>
+        <v>44489</v>
       </c>
       <c r="E27" t="n">
         <v>8</v>
@@ -2304,13 +2304,13 @@
         <v>100</v>
       </c>
       <c r="K27" t="n">
-        <v>17000</v>
+        <v>8000</v>
       </c>
       <c r="L27" t="n">
-        <v>18000</v>
+        <v>8500</v>
       </c>
       <c r="M27" t="n">
-        <v>17500</v>
+        <v>8250</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
@@ -2323,7 +2323,7 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>583</v>
+        <v>275</v>
       </c>
       <c r="Q27" t="n">
         <v>30</v>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44350</v>
+        <v>44358</v>
       </c>
       <c r="E28" t="n">
         <v>8</v>
@@ -2373,16 +2373,16 @@
         </is>
       </c>
       <c r="J28" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="K28" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="L28" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="M28" t="n">
-        <v>15600</v>
+        <v>19000</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
@@ -2395,7 +2395,7 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>312</v>
+        <v>380</v>
       </c>
       <c r="Q28" t="n">
         <v>50</v>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44350</v>
+        <v>44358</v>
       </c>
       <c r="E29" t="n">
         <v>8</v>
@@ -2445,16 +2445,16 @@
         </is>
       </c>
       <c r="J29" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="K29" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="L29" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="M29" t="n">
-        <v>17500</v>
+        <v>19000</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
@@ -2467,7 +2467,7 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>583</v>
+        <v>633</v>
       </c>
       <c r="Q29" t="n">
         <v>30</v>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44385</v>
+        <v>44335</v>
       </c>
       <c r="E30" t="n">
         <v>8</v>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44435</v>
+        <v>44350</v>
       </c>
       <c r="E31" t="n">
         <v>8</v>
@@ -2589,16 +2589,16 @@
         </is>
       </c>
       <c r="J31" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K31" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L31" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="M31" t="n">
-        <v>14500</v>
+        <v>15600</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
@@ -2611,7 +2611,7 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>290</v>
+        <v>312</v>
       </c>
       <c r="Q31" t="n">
         <v>50</v>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44433</v>
+        <v>44350</v>
       </c>
       <c r="E32" t="n">
         <v>8</v>
@@ -2652,7 +2652,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -2661,20 +2661,20 @@
         </is>
       </c>
       <c r="J32" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="K32" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="L32" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M32" t="n">
-        <v>14500</v>
+        <v>17500</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
@@ -2683,10 +2683,10 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>290</v>
+        <v>583</v>
       </c>
       <c r="Q32" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R32" t="inlineStr">
         <is>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44397</v>
+        <v>44385</v>
       </c>
       <c r="E33" t="n">
         <v>8</v>
@@ -2736,13 +2736,13 @@
         <v>100</v>
       </c>
       <c r="K33" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="L33" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M33" t="n">
-        <v>14500</v>
+        <v>17500</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
@@ -2755,12 +2755,228 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>483</v>
+        <v>583</v>
       </c>
       <c r="Q33" t="n">
         <v>30</v>
       </c>
       <c r="R33" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>11</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="n">
+        <v>44435</v>
+      </c>
+      <c r="E34" t="n">
+        <v>8</v>
+      </c>
+      <c r="F34" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Argentina(o)</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J34" t="n">
+        <v>100</v>
+      </c>
+      <c r="K34" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L34" t="n">
+        <v>15000</v>
+      </c>
+      <c r="M34" t="n">
+        <v>14500</v>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>$/caja 50 unidades</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P34" t="n">
+        <v>290</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>50</v>
+      </c>
+      <c r="R34" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>11</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="n">
+        <v>44433</v>
+      </c>
+      <c r="E35" t="n">
+        <v>8</v>
+      </c>
+      <c r="F35" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Argentina(o)</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J35" t="n">
+        <v>100</v>
+      </c>
+      <c r="K35" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L35" t="n">
+        <v>15000</v>
+      </c>
+      <c r="M35" t="n">
+        <v>14500</v>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>$/caja 50 unidades</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P35" t="n">
+        <v>290</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>50</v>
+      </c>
+      <c r="R35" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>11</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D36" s="2" t="n">
+        <v>44397</v>
+      </c>
+      <c r="E36" t="n">
+        <v>8</v>
+      </c>
+      <c r="F36" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Española</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J36" t="n">
+        <v>100</v>
+      </c>
+      <c r="K36" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L36" t="n">
+        <v>15000</v>
+      </c>
+      <c r="M36" t="n">
+        <v>14500</v>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>$/caja 30 unidades</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P36" t="n">
+        <v>483</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>30</v>
+      </c>
+      <c r="R36" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Alcachofa.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Alcachofa.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44496</v>
+        <v>44428</v>
       </c>
       <c r="E2" t="n">
         <v>8</v>
@@ -492,7 +492,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -501,32 +501,32 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>350</v>
+        <v>100</v>
       </c>
       <c r="K2" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="L2" t="n">
-        <v>7500</v>
+        <v>15000</v>
       </c>
       <c r="M2" t="n">
-        <v>7214</v>
+        <v>14500</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P2" t="n">
-        <v>180</v>
+        <v>483</v>
       </c>
       <c r="Q2" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R2" t="inlineStr">
         <is>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44383</v>
+        <v>44497</v>
       </c>
       <c r="E3" t="n">
         <v>8</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>50</v>
+        <v>180</v>
       </c>
       <c r="K3" t="n">
-        <v>17000</v>
+        <v>6500</v>
       </c>
       <c r="L3" t="n">
-        <v>18000</v>
+        <v>7000</v>
       </c>
       <c r="M3" t="n">
-        <v>17400</v>
+        <v>6778</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>348</v>
+        <v>136</v>
       </c>
       <c r="Q3" t="n">
         <v>50</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44442</v>
+        <v>44497</v>
       </c>
       <c r="E4" t="n">
         <v>8</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K4" t="n">
-        <v>14500</v>
+        <v>7000</v>
       </c>
       <c r="L4" t="n">
-        <v>15000</v>
+        <v>7500</v>
       </c>
       <c r="M4" t="n">
-        <v>14750</v>
+        <v>7250</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>492</v>
+        <v>242</v>
       </c>
       <c r="Q4" t="n">
         <v>30</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44441</v>
+        <v>44497</v>
       </c>
       <c r="E5" t="n">
         <v>8</v>
@@ -708,7 +708,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -717,32 +717,32 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="K5" t="n">
-        <v>13000</v>
+        <v>6000</v>
       </c>
       <c r="L5" t="n">
-        <v>14000</v>
+        <v>6500</v>
       </c>
       <c r="M5" t="n">
-        <v>13500</v>
+        <v>6192</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P5" t="n">
-        <v>450</v>
+        <v>155</v>
       </c>
       <c r="Q5" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R5" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44420</v>
+        <v>44463</v>
       </c>
       <c r="E6" t="n">
         <v>8</v>
@@ -780,7 +780,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -792,17 +792,17 @@
         <v>100</v>
       </c>
       <c r="K6" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="L6" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="M6" t="n">
-        <v>14500</v>
+        <v>9500</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
@@ -811,10 +811,10 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>483</v>
+        <v>190</v>
       </c>
       <c r="Q6" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R6" t="inlineStr">
         <is>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44342</v>
+        <v>44397</v>
       </c>
       <c r="E7" t="n">
         <v>8</v>
@@ -864,13 +864,13 @@
         <v>100</v>
       </c>
       <c r="K7" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="L7" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M7" t="n">
-        <v>17500</v>
+        <v>14500</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>583</v>
+        <v>483</v>
       </c>
       <c r="Q7" t="n">
         <v>30</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44342</v>
+        <v>44364</v>
       </c>
       <c r="E8" t="n">
         <v>8</v>
@@ -924,7 +924,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -936,17 +936,17 @@
         <v>100</v>
       </c>
       <c r="K8" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="L8" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="M8" t="n">
-        <v>15500</v>
+        <v>19500</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
@@ -955,10 +955,10 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="Q8" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R8" t="inlineStr">
         <is>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44497</v>
+        <v>44364</v>
       </c>
       <c r="E9" t="n">
         <v>8</v>
@@ -996,7 +996,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1005,20 +1005,20 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>180</v>
+        <v>100</v>
       </c>
       <c r="K9" t="n">
-        <v>6500</v>
+        <v>19000</v>
       </c>
       <c r="L9" t="n">
-        <v>7000</v>
+        <v>20000</v>
       </c>
       <c r="M9" t="n">
-        <v>6778</v>
+        <v>19500</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
@@ -1027,10 +1027,10 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>136</v>
+        <v>650</v>
       </c>
       <c r="Q9" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R9" t="inlineStr">
         <is>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44497</v>
+        <v>44441</v>
       </c>
       <c r="E10" t="n">
         <v>8</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K10" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="L10" t="n">
-        <v>7500</v>
+        <v>14000</v>
       </c>
       <c r="M10" t="n">
-        <v>7250</v>
+        <v>13500</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>242</v>
+        <v>450</v>
       </c>
       <c r="Q10" t="n">
         <v>30</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44497</v>
+        <v>44426</v>
       </c>
       <c r="E11" t="n">
         <v>8</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>130</v>
+        <v>50</v>
       </c>
       <c r="K11" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="L11" t="n">
-        <v>6500</v>
+        <v>13000</v>
       </c>
       <c r="M11" t="n">
-        <v>6192</v>
+        <v>12600</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1167,11 +1167,11 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P11" t="n">
-        <v>155</v>
+        <v>315</v>
       </c>
       <c r="Q11" t="n">
         <v>40</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44376</v>
+        <v>44489</v>
       </c>
       <c r="E12" t="n">
         <v>8</v>
@@ -1212,7 +1212,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1224,17 +1224,17 @@
         <v>100</v>
       </c>
       <c r="K12" t="n">
-        <v>19000</v>
+        <v>9000</v>
       </c>
       <c r="L12" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="M12" t="n">
-        <v>19500</v>
+        <v>9500</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
@@ -1243,10 +1243,10 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>650</v>
+        <v>190</v>
       </c>
       <c r="Q12" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R12" t="inlineStr">
         <is>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44399</v>
+        <v>44489</v>
       </c>
       <c r="E13" t="n">
         <v>8</v>
@@ -1296,13 +1296,13 @@
         <v>100</v>
       </c>
       <c r="K13" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="L13" t="n">
-        <v>15000</v>
+        <v>8500</v>
       </c>
       <c r="M13" t="n">
-        <v>14500</v>
+        <v>8250</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>483</v>
+        <v>275</v>
       </c>
       <c r="Q13" t="n">
         <v>30</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44364</v>
+        <v>44447</v>
       </c>
       <c r="E14" t="n">
         <v>8</v>
@@ -1356,7 +1356,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1368,17 +1368,17 @@
         <v>100</v>
       </c>
       <c r="K14" t="n">
-        <v>19000</v>
+        <v>14000</v>
       </c>
       <c r="L14" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="M14" t="n">
-        <v>19500</v>
+        <v>14500</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
@@ -1387,10 +1387,10 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>390</v>
+        <v>483</v>
       </c>
       <c r="Q14" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R14" t="inlineStr">
         <is>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44364</v>
+        <v>44483</v>
       </c>
       <c r="E15" t="n">
         <v>8</v>
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>100</v>
+        <v>450</v>
       </c>
       <c r="K15" t="n">
-        <v>19000</v>
+        <v>11000</v>
       </c>
       <c r="L15" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="M15" t="n">
-        <v>19500</v>
+        <v>11444</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>650</v>
+        <v>381</v>
       </c>
       <c r="Q15" t="n">
         <v>30</v>
@@ -1500,7 +1500,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1509,32 +1509,32 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>450</v>
+        <v>220</v>
       </c>
       <c r="K16" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="L16" t="n">
-        <v>12000</v>
+        <v>8500</v>
       </c>
       <c r="M16" t="n">
-        <v>11444</v>
+        <v>8273</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P16" t="n">
-        <v>381</v>
+        <v>207</v>
       </c>
       <c r="Q16" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R16" t="inlineStr">
         <is>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44483</v>
+        <v>44435</v>
       </c>
       <c r="E17" t="n">
         <v>8</v>
@@ -1572,7 +1572,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1581,32 +1581,32 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>220</v>
+        <v>100</v>
       </c>
       <c r="K17" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="L17" t="n">
-        <v>8500</v>
+        <v>15000</v>
       </c>
       <c r="M17" t="n">
-        <v>8273</v>
+        <v>14500</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P17" t="n">
-        <v>207</v>
+        <v>290</v>
       </c>
       <c r="Q17" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R17" t="inlineStr">
         <is>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44463</v>
+        <v>44358</v>
       </c>
       <c r="E18" t="n">
         <v>8</v>
@@ -1656,13 +1656,13 @@
         <v>100</v>
       </c>
       <c r="K18" t="n">
-        <v>9000</v>
+        <v>18000</v>
       </c>
       <c r="L18" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="M18" t="n">
-        <v>9500</v>
+        <v>19000</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>190</v>
+        <v>380</v>
       </c>
       <c r="Q18" t="n">
         <v>50</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44428</v>
+        <v>44358</v>
       </c>
       <c r="E19" t="n">
         <v>8</v>
@@ -1728,13 +1728,13 @@
         <v>100</v>
       </c>
       <c r="K19" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="L19" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="M19" t="n">
-        <v>14500</v>
+        <v>19000</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>483</v>
+        <v>633</v>
       </c>
       <c r="Q19" t="n">
         <v>30</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44484</v>
+        <v>44420</v>
       </c>
       <c r="E20" t="n">
         <v>8</v>
@@ -1788,7 +1788,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1797,20 +1797,20 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>220</v>
+        <v>100</v>
       </c>
       <c r="K20" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="L20" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="M20" t="n">
-        <v>8455</v>
+        <v>14500</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
@@ -1819,10 +1819,10 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>169</v>
+        <v>483</v>
       </c>
       <c r="Q20" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R20" t="inlineStr">
         <is>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44484</v>
+        <v>44335</v>
       </c>
       <c r="E21" t="n">
         <v>8</v>
@@ -1869,16 +1869,16 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>220</v>
+        <v>100</v>
       </c>
       <c r="K21" t="n">
-        <v>7500</v>
+        <v>17000</v>
       </c>
       <c r="L21" t="n">
-        <v>8000</v>
+        <v>18000</v>
       </c>
       <c r="M21" t="n">
-        <v>7727</v>
+        <v>17500</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1891,7 +1891,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>258</v>
+        <v>583</v>
       </c>
       <c r="Q21" t="n">
         <v>30</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44447</v>
+        <v>44350</v>
       </c>
       <c r="E22" t="n">
         <v>8</v>
@@ -1932,7 +1932,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1941,20 +1941,20 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K22" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L22" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="M22" t="n">
-        <v>14500</v>
+        <v>15600</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
@@ -1963,10 +1963,10 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>483</v>
+        <v>312</v>
       </c>
       <c r="Q22" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R22" t="inlineStr">
         <is>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44421</v>
+        <v>44350</v>
       </c>
       <c r="E23" t="n">
         <v>8</v>
@@ -2013,16 +2013,16 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="K23" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="L23" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M23" t="n">
-        <v>14500</v>
+        <v>17500</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>483</v>
+        <v>583</v>
       </c>
       <c r="Q23" t="n">
         <v>30</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44454</v>
+        <v>44496</v>
       </c>
       <c r="E24" t="n">
         <v>8</v>
@@ -2085,16 +2085,16 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>100</v>
+        <v>350</v>
       </c>
       <c r="K24" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="L24" t="n">
-        <v>14000</v>
+        <v>7500</v>
       </c>
       <c r="M24" t="n">
-        <v>13500</v>
+        <v>7214</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -2103,11 +2103,11 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P24" t="n">
-        <v>338</v>
+        <v>180</v>
       </c>
       <c r="Q24" t="n">
         <v>40</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44426</v>
+        <v>44385</v>
       </c>
       <c r="E25" t="n">
         <v>8</v>
@@ -2148,7 +2148,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -2157,20 +2157,20 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="K25" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="L25" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="M25" t="n">
-        <v>12600</v>
+        <v>17500</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
@@ -2179,10 +2179,10 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>315</v>
+        <v>583</v>
       </c>
       <c r="Q25" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R25" t="inlineStr">
         <is>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44489</v>
+        <v>44454</v>
       </c>
       <c r="E26" t="n">
         <v>8</v>
@@ -2220,7 +2220,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -2232,29 +2232,29 @@
         <v>100</v>
       </c>
       <c r="K26" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="L26" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="M26" t="n">
-        <v>9500</v>
+        <v>13500</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P26" t="n">
-        <v>190</v>
+        <v>338</v>
       </c>
       <c r="Q26" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R26" t="inlineStr">
         <is>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44489</v>
+        <v>44399</v>
       </c>
       <c r="E27" t="n">
         <v>8</v>
@@ -2304,13 +2304,13 @@
         <v>100</v>
       </c>
       <c r="K27" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="L27" t="n">
-        <v>8500</v>
+        <v>15000</v>
       </c>
       <c r="M27" t="n">
-        <v>8250</v>
+        <v>14500</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
@@ -2323,7 +2323,7 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>275</v>
+        <v>483</v>
       </c>
       <c r="Q27" t="n">
         <v>30</v>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44358</v>
+        <v>44376</v>
       </c>
       <c r="E28" t="n">
         <v>8</v>
@@ -2364,7 +2364,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -2376,17 +2376,17 @@
         <v>100</v>
       </c>
       <c r="K28" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="L28" t="n">
         <v>20000</v>
       </c>
       <c r="M28" t="n">
-        <v>19000</v>
+        <v>19500</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
@@ -2395,10 +2395,10 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>380</v>
+        <v>650</v>
       </c>
       <c r="Q28" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R28" t="inlineStr">
         <is>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44358</v>
+        <v>44442</v>
       </c>
       <c r="E29" t="n">
         <v>8</v>
@@ -2448,13 +2448,13 @@
         <v>100</v>
       </c>
       <c r="K29" t="n">
-        <v>18000</v>
+        <v>14500</v>
       </c>
       <c r="L29" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="M29" t="n">
-        <v>19000</v>
+        <v>14750</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
@@ -2467,7 +2467,7 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>633</v>
+        <v>492</v>
       </c>
       <c r="Q29" t="n">
         <v>30</v>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44335</v>
+        <v>44484</v>
       </c>
       <c r="E30" t="n">
         <v>8</v>
@@ -2508,7 +2508,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -2517,20 +2517,20 @@
         </is>
       </c>
       <c r="J30" t="n">
-        <v>100</v>
+        <v>220</v>
       </c>
       <c r="K30" t="n">
-        <v>17000</v>
+        <v>8000</v>
       </c>
       <c r="L30" t="n">
-        <v>18000</v>
+        <v>9000</v>
       </c>
       <c r="M30" t="n">
-        <v>17500</v>
+        <v>8455</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
@@ -2539,10 +2539,10 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>583</v>
+        <v>169</v>
       </c>
       <c r="Q30" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R30" t="inlineStr">
         <is>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44350</v>
+        <v>44484</v>
       </c>
       <c r="E31" t="n">
         <v>8</v>
@@ -2580,7 +2580,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -2589,20 +2589,20 @@
         </is>
       </c>
       <c r="J31" t="n">
-        <v>50</v>
+        <v>220</v>
       </c>
       <c r="K31" t="n">
-        <v>15000</v>
+        <v>7500</v>
       </c>
       <c r="L31" t="n">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="M31" t="n">
-        <v>15600</v>
+        <v>7727</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
@@ -2611,10 +2611,10 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>312</v>
+        <v>258</v>
       </c>
       <c r="Q31" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R31" t="inlineStr">
         <is>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44350</v>
+        <v>44342</v>
       </c>
       <c r="E32" t="n">
         <v>8</v>
@@ -2661,7 +2661,7 @@
         </is>
       </c>
       <c r="J32" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="K32" t="n">
         <v>17000</v>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44385</v>
+        <v>44342</v>
       </c>
       <c r="E33" t="n">
         <v>8</v>
@@ -2724,7 +2724,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -2736,17 +2736,17 @@
         <v>100</v>
       </c>
       <c r="K33" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="L33" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="M33" t="n">
-        <v>17500</v>
+        <v>15500</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
@@ -2755,10 +2755,10 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>583</v>
+        <v>388</v>
       </c>
       <c r="Q33" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R33" t="inlineStr">
         <is>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44435</v>
+        <v>44421</v>
       </c>
       <c r="E34" t="n">
         <v>8</v>
@@ -2796,7 +2796,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -2818,7 +2818,7 @@
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
@@ -2827,10 +2827,10 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>290</v>
+        <v>483</v>
       </c>
       <c r="Q34" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R34" t="inlineStr">
         <is>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44433</v>
+        <v>44383</v>
       </c>
       <c r="E35" t="n">
         <v>8</v>
@@ -2877,16 +2877,16 @@
         </is>
       </c>
       <c r="J35" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K35" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="L35" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M35" t="n">
-        <v>14500</v>
+        <v>17400</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
@@ -2899,7 +2899,7 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>290</v>
+        <v>348</v>
       </c>
       <c r="Q35" t="n">
         <v>50</v>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44397</v>
+        <v>44433</v>
       </c>
       <c r="E36" t="n">
         <v>8</v>
@@ -2940,7 +2940,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -2962,7 +2962,7 @@
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
@@ -2971,10 +2971,10 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>483</v>
+        <v>290</v>
       </c>
       <c r="Q36" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R36" t="inlineStr">
         <is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Alcachofa.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Alcachofa.xlsx
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44497</v>
+        <v>44364</v>
       </c>
       <c r="E3" t="n">
         <v>8</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>180</v>
+        <v>100</v>
       </c>
       <c r="K3" t="n">
-        <v>6500</v>
+        <v>19000</v>
       </c>
       <c r="L3" t="n">
-        <v>7000</v>
+        <v>20000</v>
       </c>
       <c r="M3" t="n">
-        <v>6778</v>
+        <v>19500</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>136</v>
+        <v>390</v>
       </c>
       <c r="Q3" t="n">
         <v>50</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44497</v>
+        <v>44364</v>
       </c>
       <c r="E4" t="n">
         <v>8</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K4" t="n">
-        <v>7000</v>
+        <v>19000</v>
       </c>
       <c r="L4" t="n">
-        <v>7500</v>
+        <v>20000</v>
       </c>
       <c r="M4" t="n">
-        <v>7250</v>
+        <v>19500</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>242</v>
+        <v>650</v>
       </c>
       <c r="Q4" t="n">
         <v>30</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44497</v>
+        <v>44385</v>
       </c>
       <c r="E5" t="n">
         <v>8</v>
@@ -708,7 +708,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -717,32 +717,32 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="K5" t="n">
-        <v>6000</v>
+        <v>17000</v>
       </c>
       <c r="L5" t="n">
-        <v>6500</v>
+        <v>18000</v>
       </c>
       <c r="M5" t="n">
-        <v>6192</v>
+        <v>17500</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P5" t="n">
-        <v>155</v>
+        <v>583</v>
       </c>
       <c r="Q5" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R5" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44463</v>
+        <v>44484</v>
       </c>
       <c r="E6" t="n">
         <v>8</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>100</v>
+        <v>220</v>
       </c>
       <c r="K6" t="n">
+        <v>8000</v>
+      </c>
+      <c r="L6" t="n">
         <v>9000</v>
       </c>
-      <c r="L6" t="n">
-        <v>10000</v>
-      </c>
       <c r="M6" t="n">
-        <v>9500</v>
+        <v>8455</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>190</v>
+        <v>169</v>
       </c>
       <c r="Q6" t="n">
         <v>50</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44397</v>
+        <v>44484</v>
       </c>
       <c r="E7" t="n">
         <v>8</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>100</v>
+        <v>220</v>
       </c>
       <c r="K7" t="n">
-        <v>14000</v>
+        <v>7500</v>
       </c>
       <c r="L7" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="M7" t="n">
-        <v>14500</v>
+        <v>7727</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>483</v>
+        <v>258</v>
       </c>
       <c r="Q7" t="n">
         <v>30</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44364</v>
+        <v>44397</v>
       </c>
       <c r="E8" t="n">
         <v>8</v>
@@ -924,7 +924,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -936,17 +936,17 @@
         <v>100</v>
       </c>
       <c r="K8" t="n">
-        <v>19000</v>
+        <v>14000</v>
       </c>
       <c r="L8" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="M8" t="n">
-        <v>19500</v>
+        <v>14500</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
@@ -955,10 +955,10 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>390</v>
+        <v>483</v>
       </c>
       <c r="Q8" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R8" t="inlineStr">
         <is>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44364</v>
+        <v>44383</v>
       </c>
       <c r="E9" t="n">
         <v>8</v>
@@ -996,7 +996,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1005,20 +1005,20 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K9" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="L9" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="M9" t="n">
-        <v>19500</v>
+        <v>17400</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
@@ -1027,10 +1027,10 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>650</v>
+        <v>348</v>
       </c>
       <c r="Q9" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R9" t="inlineStr">
         <is>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44441</v>
+        <v>44433</v>
       </c>
       <c r="E10" t="n">
         <v>8</v>
@@ -1068,7 +1068,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1080,17 +1080,17 @@
         <v>100</v>
       </c>
       <c r="K10" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L10" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M10" t="n">
-        <v>13500</v>
+        <v>14500</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
@@ -1099,10 +1099,10 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>450</v>
+        <v>290</v>
       </c>
       <c r="Q10" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R10" t="inlineStr">
         <is>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44426</v>
+        <v>44335</v>
       </c>
       <c r="E11" t="n">
         <v>8</v>
@@ -1140,7 +1140,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1149,20 +1149,20 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="K11" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="L11" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="M11" t="n">
-        <v>12600</v>
+        <v>17500</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
@@ -1171,10 +1171,10 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>315</v>
+        <v>583</v>
       </c>
       <c r="Q11" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R11" t="inlineStr">
         <is>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44447</v>
+        <v>44497</v>
       </c>
       <c r="E14" t="n">
         <v>8</v>
@@ -1356,7 +1356,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1365,20 +1365,20 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="K14" t="n">
-        <v>14000</v>
+        <v>6500</v>
       </c>
       <c r="L14" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="M14" t="n">
-        <v>14500</v>
+        <v>6778</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
@@ -1387,10 +1387,10 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>483</v>
+        <v>136</v>
       </c>
       <c r="Q14" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R14" t="inlineStr">
         <is>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44483</v>
+        <v>44497</v>
       </c>
       <c r="E15" t="n">
         <v>8</v>
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>450</v>
+        <v>200</v>
       </c>
       <c r="K15" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="L15" t="n">
-        <v>12000</v>
+        <v>7500</v>
       </c>
       <c r="M15" t="n">
-        <v>11444</v>
+        <v>7250</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>381</v>
+        <v>242</v>
       </c>
       <c r="Q15" t="n">
         <v>30</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44483</v>
+        <v>44497</v>
       </c>
       <c r="E16" t="n">
         <v>8</v>
@@ -1509,16 +1509,16 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>220</v>
+        <v>130</v>
       </c>
       <c r="K16" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L16" t="n">
-        <v>8500</v>
+        <v>6500</v>
       </c>
       <c r="M16" t="n">
-        <v>8273</v>
+        <v>6192</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>207</v>
+        <v>155</v>
       </c>
       <c r="Q16" t="n">
         <v>40</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44435</v>
+        <v>44358</v>
       </c>
       <c r="E17" t="n">
         <v>8</v>
@@ -1584,13 +1584,13 @@
         <v>100</v>
       </c>
       <c r="K17" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="L17" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="M17" t="n">
-        <v>14500</v>
+        <v>19000</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>290</v>
+        <v>380</v>
       </c>
       <c r="Q17" t="n">
         <v>50</v>
@@ -1644,7 +1644,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1666,7 +1666,7 @@
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
@@ -1675,10 +1675,10 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>380</v>
+        <v>633</v>
       </c>
       <c r="Q18" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R18" t="inlineStr">
         <is>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44358</v>
+        <v>44399</v>
       </c>
       <c r="E19" t="n">
         <v>8</v>
@@ -1728,13 +1728,13 @@
         <v>100</v>
       </c>
       <c r="K19" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="L19" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="M19" t="n">
-        <v>19000</v>
+        <v>14500</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>633</v>
+        <v>483</v>
       </c>
       <c r="Q19" t="n">
         <v>30</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44420</v>
+        <v>44435</v>
       </c>
       <c r="E20" t="n">
         <v>8</v>
@@ -1788,7 +1788,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1810,7 +1810,7 @@
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
@@ -1819,10 +1819,10 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>483</v>
+        <v>290</v>
       </c>
       <c r="Q20" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R20" t="inlineStr">
         <is>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44335</v>
+        <v>44442</v>
       </c>
       <c r="E21" t="n">
         <v>8</v>
@@ -1872,13 +1872,13 @@
         <v>100</v>
       </c>
       <c r="K21" t="n">
-        <v>17000</v>
+        <v>14500</v>
       </c>
       <c r="L21" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M21" t="n">
-        <v>17500</v>
+        <v>14750</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1891,7 +1891,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>583</v>
+        <v>492</v>
       </c>
       <c r="Q21" t="n">
         <v>30</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44350</v>
+        <v>44483</v>
       </c>
       <c r="E22" t="n">
         <v>8</v>
@@ -1932,7 +1932,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1941,20 +1941,20 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>50</v>
+        <v>450</v>
       </c>
       <c r="K22" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="L22" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="M22" t="n">
-        <v>15600</v>
+        <v>11444</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
@@ -1963,10 +1963,10 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>312</v>
+        <v>381</v>
       </c>
       <c r="Q22" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R22" t="inlineStr">
         <is>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44350</v>
+        <v>44483</v>
       </c>
       <c r="E23" t="n">
         <v>8</v>
@@ -2004,7 +2004,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -2013,32 +2013,32 @@
         </is>
       </c>
       <c r="J23" t="n">
+        <v>220</v>
+      </c>
+      <c r="K23" t="n">
+        <v>8000</v>
+      </c>
+      <c r="L23" t="n">
+        <v>8500</v>
+      </c>
+      <c r="M23" t="n">
+        <v>8273</v>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>$/caja 40 unidades</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>Región de Coquimbo</t>
+        </is>
+      </c>
+      <c r="P23" t="n">
+        <v>207</v>
+      </c>
+      <c r="Q23" t="n">
         <v>40</v>
-      </c>
-      <c r="K23" t="n">
-        <v>17000</v>
-      </c>
-      <c r="L23" t="n">
-        <v>18000</v>
-      </c>
-      <c r="M23" t="n">
-        <v>17500</v>
-      </c>
-      <c r="N23" t="inlineStr">
-        <is>
-          <t>$/caja 30 unidades</t>
-        </is>
-      </c>
-      <c r="O23" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="P23" t="n">
-        <v>583</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>30</v>
       </c>
       <c r="R23" t="inlineStr">
         <is>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44385</v>
+        <v>44420</v>
       </c>
       <c r="E25" t="n">
         <v>8</v>
@@ -2160,13 +2160,13 @@
         <v>100</v>
       </c>
       <c r="K25" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="L25" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M25" t="n">
-        <v>17500</v>
+        <v>14500</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>583</v>
+        <v>483</v>
       </c>
       <c r="Q25" t="n">
         <v>30</v>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44399</v>
+        <v>44463</v>
       </c>
       <c r="E27" t="n">
         <v>8</v>
@@ -2292,7 +2292,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -2304,17 +2304,17 @@
         <v>100</v>
       </c>
       <c r="K27" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="L27" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="M27" t="n">
-        <v>14500</v>
+        <v>9500</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
@@ -2323,10 +2323,10 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>483</v>
+        <v>190</v>
       </c>
       <c r="Q27" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R27" t="inlineStr">
         <is>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44376</v>
+        <v>44342</v>
       </c>
       <c r="E28" t="n">
         <v>8</v>
@@ -2376,13 +2376,13 @@
         <v>100</v>
       </c>
       <c r="K28" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="L28" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="M28" t="n">
-        <v>19500</v>
+        <v>17500</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
@@ -2395,7 +2395,7 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>650</v>
+        <v>583</v>
       </c>
       <c r="Q28" t="n">
         <v>30</v>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44442</v>
+        <v>44342</v>
       </c>
       <c r="E29" t="n">
         <v>8</v>
@@ -2436,7 +2436,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -2448,17 +2448,17 @@
         <v>100</v>
       </c>
       <c r="K29" t="n">
-        <v>14500</v>
+        <v>15000</v>
       </c>
       <c r="L29" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="M29" t="n">
-        <v>14750</v>
+        <v>15500</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
@@ -2467,10 +2467,10 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>492</v>
+        <v>388</v>
       </c>
       <c r="Q29" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R29" t="inlineStr">
         <is>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44484</v>
+        <v>44376</v>
       </c>
       <c r="E30" t="n">
         <v>8</v>
@@ -2508,7 +2508,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -2517,20 +2517,20 @@
         </is>
       </c>
       <c r="J30" t="n">
-        <v>220</v>
+        <v>100</v>
       </c>
       <c r="K30" t="n">
-        <v>8000</v>
+        <v>19000</v>
       </c>
       <c r="L30" t="n">
-        <v>9000</v>
+        <v>20000</v>
       </c>
       <c r="M30" t="n">
-        <v>8455</v>
+        <v>19500</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
@@ -2539,10 +2539,10 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>169</v>
+        <v>650</v>
       </c>
       <c r="Q30" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R30" t="inlineStr">
         <is>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44484</v>
+        <v>44421</v>
       </c>
       <c r="E31" t="n">
         <v>8</v>
@@ -2589,16 +2589,16 @@
         </is>
       </c>
       <c r="J31" t="n">
-        <v>220</v>
+        <v>100</v>
       </c>
       <c r="K31" t="n">
-        <v>7500</v>
+        <v>14000</v>
       </c>
       <c r="L31" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="M31" t="n">
-        <v>7727</v>
+        <v>14500</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
@@ -2611,7 +2611,7 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>258</v>
+        <v>483</v>
       </c>
       <c r="Q31" t="n">
         <v>30</v>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44342</v>
+        <v>44426</v>
       </c>
       <c r="E32" t="n">
         <v>8</v>
@@ -2652,7 +2652,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -2661,20 +2661,20 @@
         </is>
       </c>
       <c r="J32" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K32" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="L32" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="M32" t="n">
-        <v>17500</v>
+        <v>12600</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
@@ -2683,10 +2683,10 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>583</v>
+        <v>315</v>
       </c>
       <c r="Q32" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R32" t="inlineStr">
         <is>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44342</v>
+        <v>44441</v>
       </c>
       <c r="E33" t="n">
         <v>8</v>
@@ -2724,7 +2724,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -2736,17 +2736,17 @@
         <v>100</v>
       </c>
       <c r="K33" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="L33" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="M33" t="n">
-        <v>15500</v>
+        <v>13500</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
@@ -2755,10 +2755,10 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>388</v>
+        <v>450</v>
       </c>
       <c r="Q33" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R33" t="inlineStr">
         <is>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44421</v>
+        <v>44350</v>
       </c>
       <c r="E34" t="n">
         <v>8</v>
@@ -2796,7 +2796,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -2805,20 +2805,20 @@
         </is>
       </c>
       <c r="J34" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K34" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L34" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="M34" t="n">
-        <v>14500</v>
+        <v>15600</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
@@ -2827,10 +2827,10 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>483</v>
+        <v>312</v>
       </c>
       <c r="Q34" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R34" t="inlineStr">
         <is>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44383</v>
+        <v>44350</v>
       </c>
       <c r="E35" t="n">
         <v>8</v>
@@ -2868,7 +2868,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -2877,7 +2877,7 @@
         </is>
       </c>
       <c r="J35" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="K35" t="n">
         <v>17000</v>
@@ -2886,11 +2886,11 @@
         <v>18000</v>
       </c>
       <c r="M35" t="n">
-        <v>17400</v>
+        <v>17500</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
@@ -2899,10 +2899,10 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>348</v>
+        <v>583</v>
       </c>
       <c r="Q35" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R35" t="inlineStr">
         <is>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44433</v>
+        <v>44447</v>
       </c>
       <c r="E36" t="n">
         <v>8</v>
@@ -2940,7 +2940,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -2962,7 +2962,7 @@
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
@@ -2971,10 +2971,10 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>290</v>
+        <v>483</v>
       </c>
       <c r="Q36" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R36" t="inlineStr">
         <is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Alcachofa.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Alcachofa.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44428</v>
+        <v>44433</v>
       </c>
       <c r="E2" t="n">
         <v>8</v>
@@ -492,7 +492,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -514,7 +514,7 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -523,10 +523,10 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>483</v>
+        <v>290</v>
       </c>
       <c r="Q2" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R2" t="inlineStr">
         <is>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44364</v>
+        <v>44454</v>
       </c>
       <c r="E3" t="n">
         <v>8</v>
@@ -564,7 +564,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -576,29 +576,29 @@
         <v>100</v>
       </c>
       <c r="K3" t="n">
-        <v>19000</v>
+        <v>13000</v>
       </c>
       <c r="L3" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="M3" t="n">
-        <v>19500</v>
+        <v>13500</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P3" t="n">
-        <v>390</v>
+        <v>338</v>
       </c>
       <c r="Q3" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R3" t="inlineStr">
         <is>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44364</v>
+        <v>44426</v>
       </c>
       <c r="E4" t="n">
         <v>8</v>
@@ -636,7 +636,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -645,20 +645,20 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K4" t="n">
-        <v>19000</v>
+        <v>12000</v>
       </c>
       <c r="L4" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="M4" t="n">
-        <v>19500</v>
+        <v>12600</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -667,10 +667,10 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>650</v>
+        <v>315</v>
       </c>
       <c r="Q4" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R4" t="inlineStr">
         <is>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44385</v>
+        <v>44421</v>
       </c>
       <c r="E5" t="n">
         <v>8</v>
@@ -720,13 +720,13 @@
         <v>100</v>
       </c>
       <c r="K5" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="L5" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M5" t="n">
-        <v>17500</v>
+        <v>14500</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>583</v>
+        <v>483</v>
       </c>
       <c r="Q5" t="n">
         <v>30</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44484</v>
+        <v>44364</v>
       </c>
       <c r="E6" t="n">
         <v>8</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>220</v>
+        <v>100</v>
       </c>
       <c r="K6" t="n">
-        <v>8000</v>
+        <v>19000</v>
       </c>
       <c r="L6" t="n">
-        <v>9000</v>
+        <v>20000</v>
       </c>
       <c r="M6" t="n">
-        <v>8455</v>
+        <v>19500</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>169</v>
+        <v>390</v>
       </c>
       <c r="Q6" t="n">
         <v>50</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44484</v>
+        <v>44364</v>
       </c>
       <c r="E7" t="n">
         <v>8</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>220</v>
+        <v>100</v>
       </c>
       <c r="K7" t="n">
-        <v>7500</v>
+        <v>19000</v>
       </c>
       <c r="L7" t="n">
-        <v>8000</v>
+        <v>20000</v>
       </c>
       <c r="M7" t="n">
-        <v>7727</v>
+        <v>19500</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>258</v>
+        <v>650</v>
       </c>
       <c r="Q7" t="n">
         <v>30</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44397</v>
+        <v>44483</v>
       </c>
       <c r="E8" t="n">
         <v>8</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>100</v>
+        <v>450</v>
       </c>
       <c r="K8" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="L8" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="M8" t="n">
-        <v>14500</v>
+        <v>11444</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>483</v>
+        <v>381</v>
       </c>
       <c r="Q8" t="n">
         <v>30</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44383</v>
+        <v>44483</v>
       </c>
       <c r="E9" t="n">
         <v>8</v>
@@ -996,7 +996,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1005,32 +1005,32 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>50</v>
+        <v>220</v>
       </c>
       <c r="K9" t="n">
-        <v>17000</v>
+        <v>8000</v>
       </c>
       <c r="L9" t="n">
-        <v>18000</v>
+        <v>8500</v>
       </c>
       <c r="M9" t="n">
-        <v>17400</v>
+        <v>8273</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P9" t="n">
-        <v>348</v>
+        <v>207</v>
       </c>
       <c r="Q9" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R9" t="inlineStr">
         <is>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44433</v>
+        <v>44442</v>
       </c>
       <c r="E10" t="n">
         <v>8</v>
@@ -1068,7 +1068,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1080,17 +1080,17 @@
         <v>100</v>
       </c>
       <c r="K10" t="n">
-        <v>14000</v>
+        <v>14500</v>
       </c>
       <c r="L10" t="n">
         <v>15000</v>
       </c>
       <c r="M10" t="n">
-        <v>14500</v>
+        <v>14750</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
@@ -1099,10 +1099,10 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>290</v>
+        <v>492</v>
       </c>
       <c r="Q10" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R10" t="inlineStr">
         <is>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44335</v>
+        <v>44385</v>
       </c>
       <c r="E11" t="n">
         <v>8</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44489</v>
+        <v>44420</v>
       </c>
       <c r="E12" t="n">
         <v>8</v>
@@ -1212,7 +1212,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1224,17 +1224,17 @@
         <v>100</v>
       </c>
       <c r="K12" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="L12" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="M12" t="n">
-        <v>9500</v>
+        <v>14500</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
@@ -1243,10 +1243,10 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>190</v>
+        <v>483</v>
       </c>
       <c r="Q12" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R12" t="inlineStr">
         <is>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44489</v>
+        <v>44376</v>
       </c>
       <c r="E13" t="n">
         <v>8</v>
@@ -1296,13 +1296,13 @@
         <v>100</v>
       </c>
       <c r="K13" t="n">
-        <v>8000</v>
+        <v>19000</v>
       </c>
       <c r="L13" t="n">
-        <v>8500</v>
+        <v>20000</v>
       </c>
       <c r="M13" t="n">
-        <v>8250</v>
+        <v>19500</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>275</v>
+        <v>650</v>
       </c>
       <c r="Q13" t="n">
         <v>30</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44497</v>
+        <v>44484</v>
       </c>
       <c r="E14" t="n">
         <v>8</v>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>180</v>
+        <v>220</v>
       </c>
       <c r="K14" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="L14" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M14" t="n">
-        <v>6778</v>
+        <v>8455</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>136</v>
+        <v>169</v>
       </c>
       <c r="Q14" t="n">
         <v>50</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44497</v>
+        <v>44484</v>
       </c>
       <c r="E15" t="n">
         <v>8</v>
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="K15" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="L15" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="M15" t="n">
-        <v>7250</v>
+        <v>7727</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>242</v>
+        <v>258</v>
       </c>
       <c r="Q15" t="n">
         <v>30</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44497</v>
+        <v>44441</v>
       </c>
       <c r="E16" t="n">
         <v>8</v>
@@ -1500,7 +1500,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1509,32 +1509,32 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="K16" t="n">
-        <v>6000</v>
+        <v>13000</v>
       </c>
       <c r="L16" t="n">
-        <v>6500</v>
+        <v>14000</v>
       </c>
       <c r="M16" t="n">
-        <v>6192</v>
+        <v>13500</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P16" t="n">
-        <v>155</v>
+        <v>450</v>
       </c>
       <c r="Q16" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R16" t="inlineStr">
         <is>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44358</v>
+        <v>44397</v>
       </c>
       <c r="E17" t="n">
         <v>8</v>
@@ -1572,7 +1572,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1584,17 +1584,17 @@
         <v>100</v>
       </c>
       <c r="K17" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="L17" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="M17" t="n">
-        <v>19000</v>
+        <v>14500</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
@@ -1603,10 +1603,10 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>380</v>
+        <v>483</v>
       </c>
       <c r="Q17" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R17" t="inlineStr">
         <is>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44358</v>
+        <v>44428</v>
       </c>
       <c r="E18" t="n">
         <v>8</v>
@@ -1656,13 +1656,13 @@
         <v>100</v>
       </c>
       <c r="K18" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="L18" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="M18" t="n">
-        <v>19000</v>
+        <v>14500</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>633</v>
+        <v>483</v>
       </c>
       <c r="Q18" t="n">
         <v>30</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44399</v>
+        <v>44463</v>
       </c>
       <c r="E19" t="n">
         <v>8</v>
@@ -1716,7 +1716,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1728,17 +1728,17 @@
         <v>100</v>
       </c>
       <c r="K19" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="L19" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="M19" t="n">
-        <v>14500</v>
+        <v>9500</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
@@ -1747,10 +1747,10 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>483</v>
+        <v>190</v>
       </c>
       <c r="Q19" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R19" t="inlineStr">
         <is>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44435</v>
+        <v>44496</v>
       </c>
       <c r="E20" t="n">
         <v>8</v>
@@ -1788,7 +1788,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1797,32 +1797,32 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>100</v>
+        <v>350</v>
       </c>
       <c r="K20" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="L20" t="n">
-        <v>15000</v>
+        <v>7500</v>
       </c>
       <c r="M20" t="n">
-        <v>14500</v>
+        <v>7214</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P20" t="n">
-        <v>290</v>
+        <v>180</v>
       </c>
       <c r="Q20" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R20" t="inlineStr">
         <is>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44442</v>
+        <v>44435</v>
       </c>
       <c r="E21" t="n">
         <v>8</v>
@@ -1860,7 +1860,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1872,17 +1872,17 @@
         <v>100</v>
       </c>
       <c r="K21" t="n">
-        <v>14500</v>
+        <v>14000</v>
       </c>
       <c r="L21" t="n">
         <v>15000</v>
       </c>
       <c r="M21" t="n">
-        <v>14750</v>
+        <v>14500</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
@@ -1891,10 +1891,10 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>492</v>
+        <v>290</v>
       </c>
       <c r="Q21" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R21" t="inlineStr">
         <is>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44483</v>
+        <v>44489</v>
       </c>
       <c r="E22" t="n">
         <v>8</v>
@@ -1932,7 +1932,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1941,20 +1941,20 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>450</v>
+        <v>100</v>
       </c>
       <c r="K22" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="L22" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M22" t="n">
-        <v>11444</v>
+        <v>9500</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
@@ -1963,10 +1963,10 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>381</v>
+        <v>190</v>
       </c>
       <c r="Q22" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R22" t="inlineStr">
         <is>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44483</v>
+        <v>44489</v>
       </c>
       <c r="E23" t="n">
         <v>8</v>
@@ -2004,7 +2004,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -2013,7 +2013,7 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>220</v>
+        <v>100</v>
       </c>
       <c r="K23" t="n">
         <v>8000</v>
@@ -2022,23 +2022,23 @@
         <v>8500</v>
       </c>
       <c r="M23" t="n">
-        <v>8273</v>
+        <v>8250</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P23" t="n">
-        <v>207</v>
+        <v>275</v>
       </c>
       <c r="Q23" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R23" t="inlineStr">
         <is>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44496</v>
+        <v>44497</v>
       </c>
       <c r="E24" t="n">
         <v>8</v>
@@ -2076,7 +2076,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -2085,32 +2085,32 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>350</v>
+        <v>180</v>
       </c>
       <c r="K24" t="n">
+        <v>6500</v>
+      </c>
+      <c r="L24" t="n">
         <v>7000</v>
       </c>
-      <c r="L24" t="n">
-        <v>7500</v>
-      </c>
       <c r="M24" t="n">
-        <v>7214</v>
+        <v>6778</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P24" t="n">
-        <v>180</v>
+        <v>136</v>
       </c>
       <c r="Q24" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R24" t="inlineStr">
         <is>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44420</v>
+        <v>44497</v>
       </c>
       <c r="E25" t="n">
         <v>8</v>
@@ -2157,16 +2157,16 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K25" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="L25" t="n">
-        <v>15000</v>
+        <v>7500</v>
       </c>
       <c r="M25" t="n">
-        <v>14500</v>
+        <v>7250</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>483</v>
+        <v>242</v>
       </c>
       <c r="Q25" t="n">
         <v>30</v>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44454</v>
+        <v>44497</v>
       </c>
       <c r="E26" t="n">
         <v>8</v>
@@ -2229,16 +2229,16 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="K26" t="n">
-        <v>13000</v>
+        <v>6000</v>
       </c>
       <c r="L26" t="n">
-        <v>14000</v>
+        <v>6500</v>
       </c>
       <c r="M26" t="n">
-        <v>13500</v>
+        <v>6192</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
@@ -2247,11 +2247,11 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P26" t="n">
-        <v>338</v>
+        <v>155</v>
       </c>
       <c r="Q26" t="n">
         <v>40</v>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44463</v>
+        <v>44383</v>
       </c>
       <c r="E27" t="n">
         <v>8</v>
@@ -2301,16 +2301,16 @@
         </is>
       </c>
       <c r="J27" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K27" t="n">
-        <v>9000</v>
+        <v>17000</v>
       </c>
       <c r="L27" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="M27" t="n">
-        <v>9500</v>
+        <v>17400</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
@@ -2323,7 +2323,7 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>190</v>
+        <v>348</v>
       </c>
       <c r="Q27" t="n">
         <v>50</v>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44342</v>
+        <v>44399</v>
       </c>
       <c r="E28" t="n">
         <v>8</v>
@@ -2376,13 +2376,13 @@
         <v>100</v>
       </c>
       <c r="K28" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="L28" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M28" t="n">
-        <v>17500</v>
+        <v>14500</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
@@ -2395,7 +2395,7 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>583</v>
+        <v>483</v>
       </c>
       <c r="Q28" t="n">
         <v>30</v>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44342</v>
+        <v>44350</v>
       </c>
       <c r="E29" t="n">
         <v>8</v>
@@ -2436,7 +2436,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -2445,7 +2445,7 @@
         </is>
       </c>
       <c r="J29" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K29" t="n">
         <v>15000</v>
@@ -2454,11 +2454,11 @@
         <v>16000</v>
       </c>
       <c r="M29" t="n">
-        <v>15500</v>
+        <v>15600</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
@@ -2467,10 +2467,10 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>388</v>
+        <v>312</v>
       </c>
       <c r="Q29" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R29" t="inlineStr">
         <is>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44376</v>
+        <v>44350</v>
       </c>
       <c r="E30" t="n">
         <v>8</v>
@@ -2517,16 +2517,16 @@
         </is>
       </c>
       <c r="J30" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="K30" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="L30" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="M30" t="n">
-        <v>19500</v>
+        <v>17500</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
@@ -2539,7 +2539,7 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>650</v>
+        <v>583</v>
       </c>
       <c r="Q30" t="n">
         <v>30</v>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44421</v>
+        <v>44358</v>
       </c>
       <c r="E31" t="n">
         <v>8</v>
@@ -2580,7 +2580,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -2592,17 +2592,17 @@
         <v>100</v>
       </c>
       <c r="K31" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="L31" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="M31" t="n">
-        <v>14500</v>
+        <v>19000</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
@@ -2611,10 +2611,10 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>483</v>
+        <v>380</v>
       </c>
       <c r="Q31" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R31" t="inlineStr">
         <is>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44426</v>
+        <v>44358</v>
       </c>
       <c r="E32" t="n">
         <v>8</v>
@@ -2652,7 +2652,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -2661,20 +2661,20 @@
         </is>
       </c>
       <c r="J32" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="K32" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="L32" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="M32" t="n">
-        <v>12600</v>
+        <v>19000</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
@@ -2683,10 +2683,10 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>315</v>
+        <v>633</v>
       </c>
       <c r="Q32" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R32" t="inlineStr">
         <is>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44441</v>
+        <v>44335</v>
       </c>
       <c r="E33" t="n">
         <v>8</v>
@@ -2736,13 +2736,13 @@
         <v>100</v>
       </c>
       <c r="K33" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="L33" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="M33" t="n">
-        <v>13500</v>
+        <v>17500</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
@@ -2755,7 +2755,7 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>450</v>
+        <v>583</v>
       </c>
       <c r="Q33" t="n">
         <v>30</v>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44350</v>
+        <v>44342</v>
       </c>
       <c r="E34" t="n">
         <v>8</v>
@@ -2796,7 +2796,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -2805,20 +2805,20 @@
         </is>
       </c>
       <c r="J34" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="K34" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="L34" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="M34" t="n">
-        <v>15600</v>
+        <v>17500</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
@@ -2827,10 +2827,10 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>312</v>
+        <v>583</v>
       </c>
       <c r="Q34" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R34" t="inlineStr">
         <is>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44350</v>
+        <v>44342</v>
       </c>
       <c r="E35" t="n">
         <v>8</v>
@@ -2868,7 +2868,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -2877,32 +2877,32 @@
         </is>
       </c>
       <c r="J35" t="n">
+        <v>100</v>
+      </c>
+      <c r="K35" t="n">
+        <v>15000</v>
+      </c>
+      <c r="L35" t="n">
+        <v>16000</v>
+      </c>
+      <c r="M35" t="n">
+        <v>15500</v>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>$/caja 40 unidades</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P35" t="n">
+        <v>388</v>
+      </c>
+      <c r="Q35" t="n">
         <v>40</v>
-      </c>
-      <c r="K35" t="n">
-        <v>17000</v>
-      </c>
-      <c r="L35" t="n">
-        <v>18000</v>
-      </c>
-      <c r="M35" t="n">
-        <v>17500</v>
-      </c>
-      <c r="N35" t="inlineStr">
-        <is>
-          <t>$/caja 30 unidades</t>
-        </is>
-      </c>
-      <c r="O35" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="P35" t="n">
-        <v>583</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>30</v>
       </c>
       <c r="R35" t="inlineStr">
         <is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Alcachofa.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Alcachofa.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44433</v>
+        <v>44335</v>
       </c>
       <c r="E2" t="n">
         <v>8</v>
@@ -492,7 +492,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -504,17 +504,17 @@
         <v>100</v>
       </c>
       <c r="K2" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="L2" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M2" t="n">
-        <v>14500</v>
+        <v>17500</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -523,10 +523,10 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>290</v>
+        <v>583</v>
       </c>
       <c r="Q2" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R2" t="inlineStr">
         <is>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44454</v>
+        <v>44441</v>
       </c>
       <c r="E3" t="n">
         <v>8</v>
@@ -564,7 +564,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -586,19 +586,19 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P3" t="n">
-        <v>338</v>
+        <v>450</v>
       </c>
       <c r="Q3" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R3" t="inlineStr">
         <is>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44426</v>
+        <v>44433</v>
       </c>
       <c r="E4" t="n">
         <v>8</v>
@@ -636,7 +636,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -645,32 +645,32 @@
         </is>
       </c>
       <c r="J4" t="n">
+        <v>100</v>
+      </c>
+      <c r="K4" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L4" t="n">
+        <v>15000</v>
+      </c>
+      <c r="M4" t="n">
+        <v>14500</v>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>$/caja 50 unidades</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P4" t="n">
+        <v>290</v>
+      </c>
+      <c r="Q4" t="n">
         <v>50</v>
-      </c>
-      <c r="K4" t="n">
-        <v>12000</v>
-      </c>
-      <c r="L4" t="n">
-        <v>13000</v>
-      </c>
-      <c r="M4" t="n">
-        <v>12600</v>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>$/caja 40 unidades</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="P4" t="n">
-        <v>315</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>40</v>
       </c>
       <c r="R4" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44364</v>
+        <v>44399</v>
       </c>
       <c r="E6" t="n">
         <v>8</v>
@@ -780,7 +780,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -792,17 +792,17 @@
         <v>100</v>
       </c>
       <c r="K6" t="n">
-        <v>19000</v>
+        <v>14000</v>
       </c>
       <c r="L6" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="M6" t="n">
-        <v>19500</v>
+        <v>14500</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
@@ -811,10 +811,10 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>390</v>
+        <v>483</v>
       </c>
       <c r="Q6" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R6" t="inlineStr">
         <is>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44364</v>
+        <v>44497</v>
       </c>
       <c r="E7" t="n">
         <v>8</v>
@@ -852,7 +852,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -861,20 +861,20 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="K7" t="n">
-        <v>19000</v>
+        <v>6500</v>
       </c>
       <c r="L7" t="n">
-        <v>20000</v>
+        <v>7000</v>
       </c>
       <c r="M7" t="n">
-        <v>19500</v>
+        <v>6778</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -883,10 +883,10 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>650</v>
+        <v>136</v>
       </c>
       <c r="Q7" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R7" t="inlineStr">
         <is>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44483</v>
+        <v>44497</v>
       </c>
       <c r="E8" t="n">
         <v>8</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>450</v>
+        <v>200</v>
       </c>
       <c r="K8" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="L8" t="n">
-        <v>12000</v>
+        <v>7500</v>
       </c>
       <c r="M8" t="n">
-        <v>11444</v>
+        <v>7250</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>381</v>
+        <v>242</v>
       </c>
       <c r="Q8" t="n">
         <v>30</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44483</v>
+        <v>44497</v>
       </c>
       <c r="E9" t="n">
         <v>8</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>220</v>
+        <v>130</v>
       </c>
       <c r="K9" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L9" t="n">
-        <v>8500</v>
+        <v>6500</v>
       </c>
       <c r="M9" t="n">
-        <v>8273</v>
+        <v>6192</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>207</v>
+        <v>155</v>
       </c>
       <c r="Q9" t="n">
         <v>40</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44442</v>
+        <v>44435</v>
       </c>
       <c r="E10" t="n">
         <v>8</v>
@@ -1068,7 +1068,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1080,17 +1080,17 @@
         <v>100</v>
       </c>
       <c r="K10" t="n">
-        <v>14500</v>
+        <v>14000</v>
       </c>
       <c r="L10" t="n">
         <v>15000</v>
       </c>
       <c r="M10" t="n">
-        <v>14750</v>
+        <v>14500</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
@@ -1099,10 +1099,10 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>492</v>
+        <v>290</v>
       </c>
       <c r="Q10" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R10" t="inlineStr">
         <is>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44385</v>
+        <v>44496</v>
       </c>
       <c r="E11" t="n">
         <v>8</v>
@@ -1140,7 +1140,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1149,32 +1149,32 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>100</v>
+        <v>350</v>
       </c>
       <c r="K11" t="n">
-        <v>17000</v>
+        <v>7000</v>
       </c>
       <c r="L11" t="n">
-        <v>18000</v>
+        <v>7500</v>
       </c>
       <c r="M11" t="n">
-        <v>17500</v>
+        <v>7214</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P11" t="n">
-        <v>583</v>
+        <v>180</v>
       </c>
       <c r="Q11" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R11" t="inlineStr">
         <is>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44420</v>
+        <v>44342</v>
       </c>
       <c r="E12" t="n">
         <v>8</v>
@@ -1224,13 +1224,13 @@
         <v>100</v>
       </c>
       <c r="K12" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="L12" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M12" t="n">
-        <v>14500</v>
+        <v>17500</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>483</v>
+        <v>583</v>
       </c>
       <c r="Q12" t="n">
         <v>30</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44376</v>
+        <v>44342</v>
       </c>
       <c r="E13" t="n">
         <v>8</v>
@@ -1284,7 +1284,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1296,17 +1296,17 @@
         <v>100</v>
       </c>
       <c r="K13" t="n">
-        <v>19000</v>
+        <v>15000</v>
       </c>
       <c r="L13" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="M13" t="n">
-        <v>19500</v>
+        <v>15500</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
@@ -1315,10 +1315,10 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>650</v>
+        <v>388</v>
       </c>
       <c r="Q13" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R13" t="inlineStr">
         <is>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44484</v>
+        <v>44397</v>
       </c>
       <c r="E14" t="n">
         <v>8</v>
@@ -1356,7 +1356,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1365,20 +1365,20 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>220</v>
+        <v>100</v>
       </c>
       <c r="K14" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="L14" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="M14" t="n">
-        <v>8455</v>
+        <v>14500</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
@@ -1387,10 +1387,10 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>169</v>
+        <v>483</v>
       </c>
       <c r="Q14" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R14" t="inlineStr">
         <is>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44484</v>
+        <v>44442</v>
       </c>
       <c r="E15" t="n">
         <v>8</v>
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>220</v>
+        <v>100</v>
       </c>
       <c r="K15" t="n">
-        <v>7500</v>
+        <v>14500</v>
       </c>
       <c r="L15" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="M15" t="n">
-        <v>7727</v>
+        <v>14750</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>258</v>
+        <v>492</v>
       </c>
       <c r="Q15" t="n">
         <v>30</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44441</v>
+        <v>44484</v>
       </c>
       <c r="E16" t="n">
         <v>8</v>
@@ -1500,7 +1500,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1509,20 +1509,20 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>100</v>
+        <v>220</v>
       </c>
       <c r="K16" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="L16" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="M16" t="n">
-        <v>13500</v>
+        <v>8455</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
@@ -1531,10 +1531,10 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>450</v>
+        <v>169</v>
       </c>
       <c r="Q16" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R16" t="inlineStr">
         <is>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44397</v>
+        <v>44484</v>
       </c>
       <c r="E17" t="n">
         <v>8</v>
@@ -1581,16 +1581,16 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>100</v>
+        <v>220</v>
       </c>
       <c r="K17" t="n">
-        <v>14000</v>
+        <v>7500</v>
       </c>
       <c r="L17" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="M17" t="n">
-        <v>14500</v>
+        <v>7727</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>483</v>
+        <v>258</v>
       </c>
       <c r="Q17" t="n">
         <v>30</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44428</v>
+        <v>44426</v>
       </c>
       <c r="E18" t="n">
         <v>8</v>
@@ -1644,7 +1644,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1653,20 +1653,20 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K18" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="L18" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M18" t="n">
-        <v>14500</v>
+        <v>12600</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
@@ -1675,10 +1675,10 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>483</v>
+        <v>315</v>
       </c>
       <c r="Q18" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R18" t="inlineStr">
         <is>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44463</v>
+        <v>44358</v>
       </c>
       <c r="E19" t="n">
         <v>8</v>
@@ -1728,13 +1728,13 @@
         <v>100</v>
       </c>
       <c r="K19" t="n">
-        <v>9000</v>
+        <v>18000</v>
       </c>
       <c r="L19" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="M19" t="n">
-        <v>9500</v>
+        <v>19000</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>190</v>
+        <v>380</v>
       </c>
       <c r="Q19" t="n">
         <v>50</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44496</v>
+        <v>44358</v>
       </c>
       <c r="E20" t="n">
         <v>8</v>
@@ -1788,7 +1788,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1797,32 +1797,32 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>350</v>
+        <v>100</v>
       </c>
       <c r="K20" t="n">
-        <v>7000</v>
+        <v>18000</v>
       </c>
       <c r="L20" t="n">
-        <v>7500</v>
+        <v>20000</v>
       </c>
       <c r="M20" t="n">
-        <v>7214</v>
+        <v>19000</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P20" t="n">
-        <v>180</v>
+        <v>633</v>
       </c>
       <c r="Q20" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R20" t="inlineStr">
         <is>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44435</v>
+        <v>44483</v>
       </c>
       <c r="E21" t="n">
         <v>8</v>
@@ -1860,7 +1860,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1869,20 +1869,20 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>100</v>
+        <v>450</v>
       </c>
       <c r="K21" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="L21" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="M21" t="n">
-        <v>14500</v>
+        <v>11444</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
@@ -1891,10 +1891,10 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>290</v>
+        <v>381</v>
       </c>
       <c r="Q21" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R21" t="inlineStr">
         <is>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44489</v>
+        <v>44483</v>
       </c>
       <c r="E22" t="n">
         <v>8</v>
@@ -1932,7 +1932,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1941,32 +1941,32 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>100</v>
+        <v>220</v>
       </c>
       <c r="K22" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="L22" t="n">
-        <v>10000</v>
+        <v>8500</v>
       </c>
       <c r="M22" t="n">
-        <v>9500</v>
+        <v>8273</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P22" t="n">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="Q22" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R22" t="inlineStr">
         <is>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44489</v>
+        <v>44383</v>
       </c>
       <c r="E23" t="n">
         <v>8</v>
@@ -2004,7 +2004,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -2013,20 +2013,20 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K23" t="n">
-        <v>8000</v>
+        <v>17000</v>
       </c>
       <c r="L23" t="n">
-        <v>8500</v>
+        <v>18000</v>
       </c>
       <c r="M23" t="n">
-        <v>8250</v>
+        <v>17400</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
@@ -2035,10 +2035,10 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>275</v>
+        <v>348</v>
       </c>
       <c r="Q23" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R23" t="inlineStr">
         <is>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44497</v>
+        <v>44376</v>
       </c>
       <c r="E24" t="n">
         <v>8</v>
@@ -2076,7 +2076,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -2085,20 +2085,20 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>180</v>
+        <v>100</v>
       </c>
       <c r="K24" t="n">
-        <v>6500</v>
+        <v>19000</v>
       </c>
       <c r="L24" t="n">
-        <v>7000</v>
+        <v>20000</v>
       </c>
       <c r="M24" t="n">
-        <v>6778</v>
+        <v>19500</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
@@ -2107,10 +2107,10 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>136</v>
+        <v>650</v>
       </c>
       <c r="Q24" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R24" t="inlineStr">
         <is>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44497</v>
+        <v>44364</v>
       </c>
       <c r="E25" t="n">
         <v>8</v>
@@ -2148,7 +2148,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -2157,20 +2157,20 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K25" t="n">
-        <v>7000</v>
+        <v>19000</v>
       </c>
       <c r="L25" t="n">
-        <v>7500</v>
+        <v>20000</v>
       </c>
       <c r="M25" t="n">
-        <v>7250</v>
+        <v>19500</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
@@ -2179,10 +2179,10 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>242</v>
+        <v>390</v>
       </c>
       <c r="Q25" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R25" t="inlineStr">
         <is>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44497</v>
+        <v>44364</v>
       </c>
       <c r="E26" t="n">
         <v>8</v>
@@ -2220,7 +2220,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -2229,32 +2229,32 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="K26" t="n">
-        <v>6000</v>
+        <v>19000</v>
       </c>
       <c r="L26" t="n">
-        <v>6500</v>
+        <v>20000</v>
       </c>
       <c r="M26" t="n">
-        <v>6192</v>
+        <v>19500</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P26" t="n">
-        <v>155</v>
+        <v>650</v>
       </c>
       <c r="Q26" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R26" t="inlineStr">
         <is>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44383</v>
+        <v>44489</v>
       </c>
       <c r="E27" t="n">
         <v>8</v>
@@ -2301,16 +2301,16 @@
         </is>
       </c>
       <c r="J27" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="K27" t="n">
-        <v>17000</v>
+        <v>9000</v>
       </c>
       <c r="L27" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="M27" t="n">
-        <v>17400</v>
+        <v>9500</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
@@ -2323,7 +2323,7 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>348</v>
+        <v>190</v>
       </c>
       <c r="Q27" t="n">
         <v>50</v>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44399</v>
+        <v>44489</v>
       </c>
       <c r="E28" t="n">
         <v>8</v>
@@ -2376,13 +2376,13 @@
         <v>100</v>
       </c>
       <c r="K28" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="L28" t="n">
-        <v>15000</v>
+        <v>8500</v>
       </c>
       <c r="M28" t="n">
-        <v>14500</v>
+        <v>8250</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
@@ -2395,7 +2395,7 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>483</v>
+        <v>275</v>
       </c>
       <c r="Q28" t="n">
         <v>30</v>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44350</v>
+        <v>44447</v>
       </c>
       <c r="E29" t="n">
         <v>8</v>
@@ -2436,7 +2436,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -2445,20 +2445,20 @@
         </is>
       </c>
       <c r="J29" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="K29" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L29" t="n">
         <v>15000</v>
       </c>
-      <c r="L29" t="n">
-        <v>16000</v>
-      </c>
       <c r="M29" t="n">
-        <v>15600</v>
+        <v>14500</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
@@ -2467,10 +2467,10 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>312</v>
+        <v>483</v>
       </c>
       <c r="Q29" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R29" t="inlineStr">
         <is>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44350</v>
+        <v>44420</v>
       </c>
       <c r="E30" t="n">
         <v>8</v>
@@ -2517,16 +2517,16 @@
         </is>
       </c>
       <c r="J30" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="K30" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="L30" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M30" t="n">
-        <v>17500</v>
+        <v>14500</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
@@ -2539,7 +2539,7 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>583</v>
+        <v>483</v>
       </c>
       <c r="Q30" t="n">
         <v>30</v>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44358</v>
+        <v>44385</v>
       </c>
       <c r="E31" t="n">
         <v>8</v>
@@ -2580,7 +2580,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -2592,17 +2592,17 @@
         <v>100</v>
       </c>
       <c r="K31" t="n">
+        <v>17000</v>
+      </c>
+      <c r="L31" t="n">
         <v>18000</v>
       </c>
-      <c r="L31" t="n">
-        <v>20000</v>
-      </c>
       <c r="M31" t="n">
-        <v>19000</v>
+        <v>17500</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
@@ -2611,10 +2611,10 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>380</v>
+        <v>583</v>
       </c>
       <c r="Q31" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R31" t="inlineStr">
         <is>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44358</v>
+        <v>44350</v>
       </c>
       <c r="E32" t="n">
         <v>8</v>
@@ -2652,7 +2652,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -2661,20 +2661,20 @@
         </is>
       </c>
       <c r="J32" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K32" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="L32" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="M32" t="n">
-        <v>19000</v>
+        <v>15600</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
@@ -2683,10 +2683,10 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>633</v>
+        <v>312</v>
       </c>
       <c r="Q32" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R32" t="inlineStr">
         <is>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44335</v>
+        <v>44350</v>
       </c>
       <c r="E33" t="n">
         <v>8</v>
@@ -2733,7 +2733,7 @@
         </is>
       </c>
       <c r="J33" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="K33" t="n">
         <v>17000</v>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44342</v>
+        <v>44428</v>
       </c>
       <c r="E34" t="n">
         <v>8</v>
@@ -2808,13 +2808,13 @@
         <v>100</v>
       </c>
       <c r="K34" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="L34" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M34" t="n">
-        <v>17500</v>
+        <v>14500</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>583</v>
+        <v>483</v>
       </c>
       <c r="Q34" t="n">
         <v>30</v>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44342</v>
+        <v>44463</v>
       </c>
       <c r="E35" t="n">
         <v>8</v>
@@ -2868,7 +2868,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -2880,17 +2880,17 @@
         <v>100</v>
       </c>
       <c r="K35" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="L35" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="M35" t="n">
-        <v>15500</v>
+        <v>9500</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
@@ -2899,10 +2899,10 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>388</v>
+        <v>190</v>
       </c>
       <c r="Q35" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R35" t="inlineStr">
         <is>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44447</v>
+        <v>44454</v>
       </c>
       <c r="E36" t="n">
         <v>8</v>
@@ -2940,7 +2940,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -2952,29 +2952,29 @@
         <v>100</v>
       </c>
       <c r="K36" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L36" t="n">
         <v>14000</v>
       </c>
-      <c r="L36" t="n">
-        <v>15000</v>
-      </c>
       <c r="M36" t="n">
-        <v>14500</v>
+        <v>13500</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P36" t="n">
-        <v>483</v>
+        <v>338</v>
       </c>
       <c r="Q36" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R36" t="inlineStr">
         <is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Alcachofa.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Alcachofa.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44335</v>
+        <v>44385</v>
       </c>
       <c r="E2" t="n">
         <v>8</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44441</v>
+        <v>44447</v>
       </c>
       <c r="E3" t="n">
         <v>8</v>
@@ -576,13 +576,13 @@
         <v>100</v>
       </c>
       <c r="K3" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L3" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M3" t="n">
-        <v>13500</v>
+        <v>14500</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>450</v>
+        <v>483</v>
       </c>
       <c r="Q3" t="n">
         <v>30</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44433</v>
+        <v>44497</v>
       </c>
       <c r="E4" t="n">
         <v>8</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="K4" t="n">
-        <v>14000</v>
+        <v>6500</v>
       </c>
       <c r="L4" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="M4" t="n">
-        <v>14500</v>
+        <v>6778</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>290</v>
+        <v>136</v>
       </c>
       <c r="Q4" t="n">
         <v>50</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44421</v>
+        <v>44497</v>
       </c>
       <c r="E5" t="n">
         <v>8</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K5" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="L5" t="n">
-        <v>15000</v>
+        <v>7500</v>
       </c>
       <c r="M5" t="n">
-        <v>14500</v>
+        <v>7250</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>483</v>
+        <v>242</v>
       </c>
       <c r="Q5" t="n">
         <v>30</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44399</v>
+        <v>44497</v>
       </c>
       <c r="E6" t="n">
         <v>8</v>
@@ -780,7 +780,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -789,32 +789,32 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="K6" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="L6" t="n">
-        <v>15000</v>
+        <v>6500</v>
       </c>
       <c r="M6" t="n">
-        <v>14500</v>
+        <v>6192</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P6" t="n">
-        <v>483</v>
+        <v>155</v>
       </c>
       <c r="Q6" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R6" t="inlineStr">
         <is>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44497</v>
+        <v>44484</v>
       </c>
       <c r="E7" t="n">
         <v>8</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>180</v>
+        <v>220</v>
       </c>
       <c r="K7" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="L7" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M7" t="n">
-        <v>6778</v>
+        <v>8455</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>136</v>
+        <v>169</v>
       </c>
       <c r="Q7" t="n">
         <v>50</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44497</v>
+        <v>44484</v>
       </c>
       <c r="E8" t="n">
         <v>8</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="K8" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="L8" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="M8" t="n">
-        <v>7250</v>
+        <v>7727</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>242</v>
+        <v>258</v>
       </c>
       <c r="Q8" t="n">
         <v>30</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44497</v>
+        <v>44376</v>
       </c>
       <c r="E9" t="n">
         <v>8</v>
@@ -996,7 +996,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1005,32 +1005,32 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="K9" t="n">
-        <v>6000</v>
+        <v>19000</v>
       </c>
       <c r="L9" t="n">
-        <v>6500</v>
+        <v>20000</v>
       </c>
       <c r="M9" t="n">
-        <v>6192</v>
+        <v>19500</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P9" t="n">
-        <v>155</v>
+        <v>650</v>
       </c>
       <c r="Q9" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R9" t="inlineStr">
         <is>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44435</v>
+        <v>44383</v>
       </c>
       <c r="E10" t="n">
         <v>8</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K10" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="L10" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M10" t="n">
-        <v>14500</v>
+        <v>17400</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>290</v>
+        <v>348</v>
       </c>
       <c r="Q10" t="n">
         <v>50</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44496</v>
+        <v>44358</v>
       </c>
       <c r="E11" t="n">
         <v>8</v>
@@ -1140,7 +1140,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1149,32 +1149,32 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>350</v>
+        <v>100</v>
       </c>
       <c r="K11" t="n">
-        <v>7000</v>
+        <v>18000</v>
       </c>
       <c r="L11" t="n">
-        <v>7500</v>
+        <v>20000</v>
       </c>
       <c r="M11" t="n">
-        <v>7214</v>
+        <v>19000</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P11" t="n">
-        <v>180</v>
+        <v>380</v>
       </c>
       <c r="Q11" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R11" t="inlineStr">
         <is>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44342</v>
+        <v>44358</v>
       </c>
       <c r="E12" t="n">
         <v>8</v>
@@ -1224,13 +1224,13 @@
         <v>100</v>
       </c>
       <c r="K12" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="L12" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="M12" t="n">
-        <v>17500</v>
+        <v>19000</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>583</v>
+        <v>633</v>
       </c>
       <c r="Q12" t="n">
         <v>30</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44342</v>
+        <v>44420</v>
       </c>
       <c r="E13" t="n">
         <v>8</v>
@@ -1284,7 +1284,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1296,17 +1296,17 @@
         <v>100</v>
       </c>
       <c r="K13" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L13" t="n">
         <v>15000</v>
       </c>
-      <c r="L13" t="n">
-        <v>16000</v>
-      </c>
       <c r="M13" t="n">
-        <v>15500</v>
+        <v>14500</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
@@ -1315,10 +1315,10 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>388</v>
+        <v>483</v>
       </c>
       <c r="Q13" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R13" t="inlineStr">
         <is>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44397</v>
+        <v>44428</v>
       </c>
       <c r="E14" t="n">
         <v>8</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44442</v>
+        <v>44399</v>
       </c>
       <c r="E15" t="n">
         <v>8</v>
@@ -1440,13 +1440,13 @@
         <v>100</v>
       </c>
       <c r="K15" t="n">
-        <v>14500</v>
+        <v>14000</v>
       </c>
       <c r="L15" t="n">
         <v>15000</v>
       </c>
       <c r="M15" t="n">
-        <v>14750</v>
+        <v>14500</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>492</v>
+        <v>483</v>
       </c>
       <c r="Q15" t="n">
         <v>30</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44484</v>
+        <v>44397</v>
       </c>
       <c r="E16" t="n">
         <v>8</v>
@@ -1500,7 +1500,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1509,20 +1509,20 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>220</v>
+        <v>100</v>
       </c>
       <c r="K16" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="L16" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="M16" t="n">
-        <v>8455</v>
+        <v>14500</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
@@ -1531,10 +1531,10 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>169</v>
+        <v>483</v>
       </c>
       <c r="Q16" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R16" t="inlineStr">
         <is>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44484</v>
+        <v>44342</v>
       </c>
       <c r="E17" t="n">
         <v>8</v>
@@ -1581,16 +1581,16 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>220</v>
+        <v>100</v>
       </c>
       <c r="K17" t="n">
-        <v>7500</v>
+        <v>17000</v>
       </c>
       <c r="L17" t="n">
-        <v>8000</v>
+        <v>18000</v>
       </c>
       <c r="M17" t="n">
-        <v>7727</v>
+        <v>17500</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>258</v>
+        <v>583</v>
       </c>
       <c r="Q17" t="n">
         <v>30</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44426</v>
+        <v>44342</v>
       </c>
       <c r="E18" t="n">
         <v>8</v>
@@ -1653,16 +1653,16 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="K18" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="L18" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="M18" t="n">
-        <v>12600</v>
+        <v>15500</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>315</v>
+        <v>388</v>
       </c>
       <c r="Q18" t="n">
         <v>40</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44358</v>
+        <v>44442</v>
       </c>
       <c r="E19" t="n">
         <v>8</v>
@@ -1716,7 +1716,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1728,17 +1728,17 @@
         <v>100</v>
       </c>
       <c r="K19" t="n">
-        <v>18000</v>
+        <v>14500</v>
       </c>
       <c r="L19" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="M19" t="n">
-        <v>19000</v>
+        <v>14750</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
@@ -1747,10 +1747,10 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>380</v>
+        <v>492</v>
       </c>
       <c r="Q19" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R19" t="inlineStr">
         <is>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44358</v>
+        <v>44435</v>
       </c>
       <c r="E20" t="n">
         <v>8</v>
@@ -1788,7 +1788,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1800,17 +1800,17 @@
         <v>100</v>
       </c>
       <c r="K20" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="L20" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="M20" t="n">
-        <v>19000</v>
+        <v>14500</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
@@ -1819,10 +1819,10 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>633</v>
+        <v>290</v>
       </c>
       <c r="Q20" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R20" t="inlineStr">
         <is>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44483</v>
+        <v>44364</v>
       </c>
       <c r="E21" t="n">
         <v>8</v>
@@ -1860,7 +1860,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1869,20 +1869,20 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>450</v>
+        <v>100</v>
       </c>
       <c r="K21" t="n">
-        <v>11000</v>
+        <v>19000</v>
       </c>
       <c r="L21" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="M21" t="n">
-        <v>11444</v>
+        <v>19500</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
@@ -1891,10 +1891,10 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>381</v>
+        <v>390</v>
       </c>
       <c r="Q21" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R21" t="inlineStr">
         <is>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44483</v>
+        <v>44364</v>
       </c>
       <c r="E22" t="n">
         <v>8</v>
@@ -1932,7 +1932,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1941,32 +1941,32 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>220</v>
+        <v>100</v>
       </c>
       <c r="K22" t="n">
-        <v>8000</v>
+        <v>19000</v>
       </c>
       <c r="L22" t="n">
-        <v>8500</v>
+        <v>20000</v>
       </c>
       <c r="M22" t="n">
-        <v>8273</v>
+        <v>19500</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P22" t="n">
-        <v>207</v>
+        <v>650</v>
       </c>
       <c r="Q22" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R22" t="inlineStr">
         <is>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44383</v>
+        <v>44441</v>
       </c>
       <c r="E23" t="n">
         <v>8</v>
@@ -2004,7 +2004,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -2013,20 +2013,20 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="K23" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="L23" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="M23" t="n">
-        <v>17400</v>
+        <v>13500</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
@@ -2035,10 +2035,10 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>348</v>
+        <v>450</v>
       </c>
       <c r="Q23" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R23" t="inlineStr">
         <is>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44376</v>
+        <v>44433</v>
       </c>
       <c r="E24" t="n">
         <v>8</v>
@@ -2076,7 +2076,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -2088,17 +2088,17 @@
         <v>100</v>
       </c>
       <c r="K24" t="n">
-        <v>19000</v>
+        <v>14000</v>
       </c>
       <c r="L24" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="M24" t="n">
-        <v>19500</v>
+        <v>14500</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
@@ -2107,10 +2107,10 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>650</v>
+        <v>290</v>
       </c>
       <c r="Q24" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R24" t="inlineStr">
         <is>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44364</v>
+        <v>44421</v>
       </c>
       <c r="E25" t="n">
         <v>8</v>
@@ -2148,7 +2148,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -2160,17 +2160,17 @@
         <v>100</v>
       </c>
       <c r="K25" t="n">
-        <v>19000</v>
+        <v>14000</v>
       </c>
       <c r="L25" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="M25" t="n">
-        <v>19500</v>
+        <v>14500</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
@@ -2179,10 +2179,10 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>390</v>
+        <v>483</v>
       </c>
       <c r="Q25" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R25" t="inlineStr">
         <is>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44364</v>
+        <v>44350</v>
       </c>
       <c r="E26" t="n">
         <v>8</v>
@@ -2220,7 +2220,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -2229,20 +2229,20 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K26" t="n">
-        <v>19000</v>
+        <v>15000</v>
       </c>
       <c r="L26" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="M26" t="n">
-        <v>19500</v>
+        <v>15600</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
@@ -2251,10 +2251,10 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>650</v>
+        <v>312</v>
       </c>
       <c r="Q26" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R26" t="inlineStr">
         <is>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44489</v>
+        <v>44350</v>
       </c>
       <c r="E27" t="n">
         <v>8</v>
@@ -2292,7 +2292,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -2301,20 +2301,20 @@
         </is>
       </c>
       <c r="J27" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="K27" t="n">
-        <v>9000</v>
+        <v>17000</v>
       </c>
       <c r="L27" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="M27" t="n">
-        <v>9500</v>
+        <v>17500</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
@@ -2323,10 +2323,10 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>190</v>
+        <v>583</v>
       </c>
       <c r="Q27" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R27" t="inlineStr">
         <is>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44489</v>
+        <v>44335</v>
       </c>
       <c r="E28" t="n">
         <v>8</v>
@@ -2376,13 +2376,13 @@
         <v>100</v>
       </c>
       <c r="K28" t="n">
-        <v>8000</v>
+        <v>17000</v>
       </c>
       <c r="L28" t="n">
-        <v>8500</v>
+        <v>18000</v>
       </c>
       <c r="M28" t="n">
-        <v>8250</v>
+        <v>17500</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
@@ -2395,7 +2395,7 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>275</v>
+        <v>583</v>
       </c>
       <c r="Q28" t="n">
         <v>30</v>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44447</v>
+        <v>44489</v>
       </c>
       <c r="E29" t="n">
         <v>8</v>
@@ -2436,7 +2436,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -2448,17 +2448,17 @@
         <v>100</v>
       </c>
       <c r="K29" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="L29" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="M29" t="n">
-        <v>14500</v>
+        <v>9500</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
@@ -2467,10 +2467,10 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>483</v>
+        <v>190</v>
       </c>
       <c r="Q29" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R29" t="inlineStr">
         <is>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44420</v>
+        <v>44489</v>
       </c>
       <c r="E30" t="n">
         <v>8</v>
@@ -2520,13 +2520,13 @@
         <v>100</v>
       </c>
       <c r="K30" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="L30" t="n">
-        <v>15000</v>
+        <v>8500</v>
       </c>
       <c r="M30" t="n">
-        <v>14500</v>
+        <v>8250</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
@@ -2539,7 +2539,7 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>483</v>
+        <v>275</v>
       </c>
       <c r="Q30" t="n">
         <v>30</v>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44385</v>
+        <v>44483</v>
       </c>
       <c r="E31" t="n">
         <v>8</v>
@@ -2589,16 +2589,16 @@
         </is>
       </c>
       <c r="J31" t="n">
-        <v>100</v>
+        <v>450</v>
       </c>
       <c r="K31" t="n">
-        <v>17000</v>
+        <v>11000</v>
       </c>
       <c r="L31" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="M31" t="n">
-        <v>17500</v>
+        <v>11444</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
@@ -2611,7 +2611,7 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>583</v>
+        <v>381</v>
       </c>
       <c r="Q31" t="n">
         <v>30</v>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44350</v>
+        <v>44483</v>
       </c>
       <c r="E32" t="n">
         <v>8</v>
@@ -2652,7 +2652,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -2661,32 +2661,32 @@
         </is>
       </c>
       <c r="J32" t="n">
-        <v>50</v>
+        <v>220</v>
       </c>
       <c r="K32" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="L32" t="n">
-        <v>16000</v>
+        <v>8500</v>
       </c>
       <c r="M32" t="n">
-        <v>15600</v>
+        <v>8273</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P32" t="n">
-        <v>312</v>
+        <v>207</v>
       </c>
       <c r="Q32" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R32" t="inlineStr">
         <is>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44350</v>
+        <v>44463</v>
       </c>
       <c r="E33" t="n">
         <v>8</v>
@@ -2724,7 +2724,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -2733,20 +2733,20 @@
         </is>
       </c>
       <c r="J33" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="K33" t="n">
-        <v>17000</v>
+        <v>9000</v>
       </c>
       <c r="L33" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="M33" t="n">
-        <v>17500</v>
+        <v>9500</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
@@ -2755,10 +2755,10 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>583</v>
+        <v>190</v>
       </c>
       <c r="Q33" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R33" t="inlineStr">
         <is>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44428</v>
+        <v>44496</v>
       </c>
       <c r="E34" t="n">
         <v>8</v>
@@ -2796,7 +2796,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -2805,32 +2805,32 @@
         </is>
       </c>
       <c r="J34" t="n">
-        <v>100</v>
+        <v>350</v>
       </c>
       <c r="K34" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="L34" t="n">
-        <v>15000</v>
+        <v>7500</v>
       </c>
       <c r="M34" t="n">
-        <v>14500</v>
+        <v>7214</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P34" t="n">
-        <v>483</v>
+        <v>180</v>
       </c>
       <c r="Q34" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R34" t="inlineStr">
         <is>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44463</v>
+        <v>44426</v>
       </c>
       <c r="E35" t="n">
         <v>8</v>
@@ -2868,7 +2868,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -2877,20 +2877,20 @@
         </is>
       </c>
       <c r="J35" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K35" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="L35" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="M35" t="n">
-        <v>9500</v>
+        <v>12600</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
@@ -2899,10 +2899,10 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>190</v>
+        <v>315</v>
       </c>
       <c r="Q35" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R35" t="inlineStr">
         <is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Alcachofa.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Alcachofa.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44385</v>
+        <v>44342</v>
       </c>
       <c r="E2" t="n">
         <v>8</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44447</v>
+        <v>44342</v>
       </c>
       <c r="E3" t="n">
         <v>8</v>
@@ -564,7 +564,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -576,17 +576,17 @@
         <v>100</v>
       </c>
       <c r="K3" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L3" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="M3" t="n">
-        <v>14500</v>
+        <v>15500</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -595,10 +595,10 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>483</v>
+        <v>388</v>
       </c>
       <c r="Q3" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R3" t="inlineStr">
         <is>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44497</v>
+        <v>44420</v>
       </c>
       <c r="E4" t="n">
         <v>8</v>
@@ -636,7 +636,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -645,20 +645,20 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>180</v>
+        <v>100</v>
       </c>
       <c r="K4" t="n">
-        <v>6500</v>
+        <v>14000</v>
       </c>
       <c r="L4" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="M4" t="n">
-        <v>6778</v>
+        <v>14500</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -667,10 +667,10 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>136</v>
+        <v>483</v>
       </c>
       <c r="Q4" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R4" t="inlineStr">
         <is>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44497</v>
+        <v>44421</v>
       </c>
       <c r="E5" t="n">
         <v>8</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K5" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="L5" t="n">
-        <v>7500</v>
+        <v>15000</v>
       </c>
       <c r="M5" t="n">
-        <v>7250</v>
+        <v>14500</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>242</v>
+        <v>483</v>
       </c>
       <c r="Q5" t="n">
         <v>30</v>
@@ -780,7 +780,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -789,32 +789,32 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>130</v>
+        <v>180</v>
       </c>
       <c r="K6" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="L6" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="M6" t="n">
-        <v>6192</v>
+        <v>6778</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P6" t="n">
-        <v>155</v>
+        <v>136</v>
       </c>
       <c r="Q6" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R6" t="inlineStr">
         <is>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44484</v>
+        <v>44497</v>
       </c>
       <c r="E7" t="n">
         <v>8</v>
@@ -852,7 +852,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -861,20 +861,20 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="K7" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L7" t="n">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="M7" t="n">
-        <v>8455</v>
+        <v>7250</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -883,10 +883,10 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>169</v>
+        <v>242</v>
       </c>
       <c r="Q7" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R7" t="inlineStr">
         <is>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44484</v>
+        <v>44497</v>
       </c>
       <c r="E8" t="n">
         <v>8</v>
@@ -924,7 +924,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -933,32 +933,32 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>220</v>
+        <v>130</v>
       </c>
       <c r="K8" t="n">
-        <v>7500</v>
+        <v>6000</v>
       </c>
       <c r="L8" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="M8" t="n">
-        <v>7727</v>
+        <v>6192</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P8" t="n">
-        <v>258</v>
+        <v>155</v>
       </c>
       <c r="Q8" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R8" t="inlineStr">
         <is>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44376</v>
+        <v>44383</v>
       </c>
       <c r="E9" t="n">
         <v>8</v>
@@ -996,7 +996,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1005,20 +1005,20 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K9" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="L9" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="M9" t="n">
-        <v>19500</v>
+        <v>17400</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
@@ -1027,10 +1027,10 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>650</v>
+        <v>348</v>
       </c>
       <c r="Q9" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R9" t="inlineStr">
         <is>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44383</v>
+        <v>44483</v>
       </c>
       <c r="E10" t="n">
         <v>8</v>
@@ -1068,7 +1068,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1077,20 +1077,20 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>50</v>
+        <v>450</v>
       </c>
       <c r="K10" t="n">
-        <v>17000</v>
+        <v>11000</v>
       </c>
       <c r="L10" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="M10" t="n">
-        <v>17400</v>
+        <v>11444</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
@@ -1099,10 +1099,10 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>348</v>
+        <v>381</v>
       </c>
       <c r="Q10" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R10" t="inlineStr">
         <is>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44358</v>
+        <v>44483</v>
       </c>
       <c r="E11" t="n">
         <v>8</v>
@@ -1140,7 +1140,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1149,32 +1149,32 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>100</v>
+        <v>220</v>
       </c>
       <c r="K11" t="n">
-        <v>18000</v>
+        <v>8000</v>
       </c>
       <c r="L11" t="n">
-        <v>20000</v>
+        <v>8500</v>
       </c>
       <c r="M11" t="n">
-        <v>19000</v>
+        <v>8273</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P11" t="n">
-        <v>380</v>
+        <v>207</v>
       </c>
       <c r="Q11" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R11" t="inlineStr">
         <is>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44358</v>
+        <v>44397</v>
       </c>
       <c r="E12" t="n">
         <v>8</v>
@@ -1224,13 +1224,13 @@
         <v>100</v>
       </c>
       <c r="K12" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="L12" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="M12" t="n">
-        <v>19000</v>
+        <v>14500</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>633</v>
+        <v>483</v>
       </c>
       <c r="Q12" t="n">
         <v>30</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44420</v>
+        <v>44435</v>
       </c>
       <c r="E13" t="n">
         <v>8</v>
@@ -1284,7 +1284,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1306,7 +1306,7 @@
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
@@ -1315,10 +1315,10 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>483</v>
+        <v>290</v>
       </c>
       <c r="Q13" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R13" t="inlineStr">
         <is>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44428</v>
+        <v>44350</v>
       </c>
       <c r="E14" t="n">
         <v>8</v>
@@ -1356,7 +1356,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1365,20 +1365,20 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K14" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L14" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="M14" t="n">
-        <v>14500</v>
+        <v>15600</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
@@ -1387,10 +1387,10 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>483</v>
+        <v>312</v>
       </c>
       <c r="Q14" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R14" t="inlineStr">
         <is>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44399</v>
+        <v>44350</v>
       </c>
       <c r="E15" t="n">
         <v>8</v>
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="K15" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="L15" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M15" t="n">
-        <v>14500</v>
+        <v>17500</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>483</v>
+        <v>583</v>
       </c>
       <c r="Q15" t="n">
         <v>30</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44397</v>
+        <v>44358</v>
       </c>
       <c r="E16" t="n">
         <v>8</v>
@@ -1500,7 +1500,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1512,17 +1512,17 @@
         <v>100</v>
       </c>
       <c r="K16" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="L16" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="M16" t="n">
-        <v>14500</v>
+        <v>19000</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
@@ -1531,10 +1531,10 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>483</v>
+        <v>380</v>
       </c>
       <c r="Q16" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R16" t="inlineStr">
         <is>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44342</v>
+        <v>44358</v>
       </c>
       <c r="E17" t="n">
         <v>8</v>
@@ -1584,13 +1584,13 @@
         <v>100</v>
       </c>
       <c r="K17" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="L17" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="M17" t="n">
-        <v>17500</v>
+        <v>19000</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>583</v>
+        <v>633</v>
       </c>
       <c r="Q17" t="n">
         <v>30</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44342</v>
+        <v>44433</v>
       </c>
       <c r="E18" t="n">
         <v>8</v>
@@ -1644,7 +1644,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1656,17 +1656,17 @@
         <v>100</v>
       </c>
       <c r="K18" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L18" t="n">
         <v>15000</v>
       </c>
-      <c r="L18" t="n">
-        <v>16000</v>
-      </c>
       <c r="M18" t="n">
-        <v>15500</v>
+        <v>14500</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
@@ -1675,10 +1675,10 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>388</v>
+        <v>290</v>
       </c>
       <c r="Q18" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R18" t="inlineStr">
         <is>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44442</v>
+        <v>44364</v>
       </c>
       <c r="E19" t="n">
         <v>8</v>
@@ -1716,7 +1716,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1728,17 +1728,17 @@
         <v>100</v>
       </c>
       <c r="K19" t="n">
-        <v>14500</v>
+        <v>19000</v>
       </c>
       <c r="L19" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="M19" t="n">
-        <v>14750</v>
+        <v>19500</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
@@ -1747,10 +1747,10 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>492</v>
+        <v>390</v>
       </c>
       <c r="Q19" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R19" t="inlineStr">
         <is>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44435</v>
+        <v>44364</v>
       </c>
       <c r="E20" t="n">
         <v>8</v>
@@ -1788,7 +1788,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1800,17 +1800,17 @@
         <v>100</v>
       </c>
       <c r="K20" t="n">
-        <v>14000</v>
+        <v>19000</v>
       </c>
       <c r="L20" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="M20" t="n">
-        <v>14500</v>
+        <v>19500</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
@@ -1819,10 +1819,10 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>290</v>
+        <v>650</v>
       </c>
       <c r="Q20" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R20" t="inlineStr">
         <is>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44364</v>
+        <v>44463</v>
       </c>
       <c r="E21" t="n">
         <v>8</v>
@@ -1872,13 +1872,13 @@
         <v>100</v>
       </c>
       <c r="K21" t="n">
-        <v>19000</v>
+        <v>9000</v>
       </c>
       <c r="L21" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="M21" t="n">
-        <v>19500</v>
+        <v>9500</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1891,7 +1891,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>390</v>
+        <v>190</v>
       </c>
       <c r="Q21" t="n">
         <v>50</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44364</v>
+        <v>44484</v>
       </c>
       <c r="E22" t="n">
         <v>8</v>
@@ -1932,7 +1932,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1941,20 +1941,20 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>100</v>
+        <v>220</v>
       </c>
       <c r="K22" t="n">
-        <v>19000</v>
+        <v>8000</v>
       </c>
       <c r="L22" t="n">
-        <v>20000</v>
+        <v>9000</v>
       </c>
       <c r="M22" t="n">
-        <v>19500</v>
+        <v>8455</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
@@ -1963,10 +1963,10 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>650</v>
+        <v>169</v>
       </c>
       <c r="Q22" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R22" t="inlineStr">
         <is>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44441</v>
+        <v>44484</v>
       </c>
       <c r="E23" t="n">
         <v>8</v>
@@ -2013,16 +2013,16 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>100</v>
+        <v>220</v>
       </c>
       <c r="K23" t="n">
-        <v>13000</v>
+        <v>7500</v>
       </c>
       <c r="L23" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="M23" t="n">
-        <v>13500</v>
+        <v>7727</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>450</v>
+        <v>258</v>
       </c>
       <c r="Q23" t="n">
         <v>30</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44433</v>
+        <v>44376</v>
       </c>
       <c r="E24" t="n">
         <v>8</v>
@@ -2076,7 +2076,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -2088,17 +2088,17 @@
         <v>100</v>
       </c>
       <c r="K24" t="n">
-        <v>14000</v>
+        <v>19000</v>
       </c>
       <c r="L24" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="M24" t="n">
-        <v>14500</v>
+        <v>19500</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
@@ -2107,10 +2107,10 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>290</v>
+        <v>650</v>
       </c>
       <c r="Q24" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R24" t="inlineStr">
         <is>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44421</v>
+        <v>44426</v>
       </c>
       <c r="E25" t="n">
         <v>8</v>
@@ -2148,7 +2148,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -2157,20 +2157,20 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K25" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="L25" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M25" t="n">
-        <v>14500</v>
+        <v>12600</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
@@ -2179,10 +2179,10 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>483</v>
+        <v>315</v>
       </c>
       <c r="Q25" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R25" t="inlineStr">
         <is>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44350</v>
+        <v>44442</v>
       </c>
       <c r="E26" t="n">
         <v>8</v>
@@ -2220,7 +2220,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -2229,20 +2229,20 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="K26" t="n">
+        <v>14500</v>
+      </c>
+      <c r="L26" t="n">
         <v>15000</v>
       </c>
-      <c r="L26" t="n">
-        <v>16000</v>
-      </c>
       <c r="M26" t="n">
-        <v>15600</v>
+        <v>14750</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
@@ -2251,10 +2251,10 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>312</v>
+        <v>492</v>
       </c>
       <c r="Q26" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R26" t="inlineStr">
         <is>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44350</v>
+        <v>44447</v>
       </c>
       <c r="E27" t="n">
         <v>8</v>
@@ -2301,16 +2301,16 @@
         </is>
       </c>
       <c r="J27" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="K27" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="L27" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M27" t="n">
-        <v>17500</v>
+        <v>14500</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
@@ -2323,7 +2323,7 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>583</v>
+        <v>483</v>
       </c>
       <c r="Q27" t="n">
         <v>30</v>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44335</v>
+        <v>44454</v>
       </c>
       <c r="E28" t="n">
         <v>8</v>
@@ -2364,7 +2364,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -2376,29 +2376,29 @@
         <v>100</v>
       </c>
       <c r="K28" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="L28" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="M28" t="n">
-        <v>17500</v>
+        <v>13500</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P28" t="n">
-        <v>583</v>
+        <v>338</v>
       </c>
       <c r="Q28" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R28" t="inlineStr">
         <is>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44483</v>
+        <v>44399</v>
       </c>
       <c r="E31" t="n">
         <v>8</v>
@@ -2589,16 +2589,16 @@
         </is>
       </c>
       <c r="J31" t="n">
-        <v>450</v>
+        <v>100</v>
       </c>
       <c r="K31" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="L31" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M31" t="n">
-        <v>11444</v>
+        <v>14500</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
@@ -2611,7 +2611,7 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>381</v>
+        <v>483</v>
       </c>
       <c r="Q31" t="n">
         <v>30</v>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44483</v>
+        <v>44441</v>
       </c>
       <c r="E32" t="n">
         <v>8</v>
@@ -2652,7 +2652,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -2661,32 +2661,32 @@
         </is>
       </c>
       <c r="J32" t="n">
-        <v>220</v>
+        <v>100</v>
       </c>
       <c r="K32" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="L32" t="n">
-        <v>8500</v>
+        <v>14000</v>
       </c>
       <c r="M32" t="n">
-        <v>8273</v>
+        <v>13500</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P32" t="n">
-        <v>207</v>
+        <v>450</v>
       </c>
       <c r="Q32" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R32" t="inlineStr">
         <is>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44463</v>
+        <v>44335</v>
       </c>
       <c r="E33" t="n">
         <v>8</v>
@@ -2724,7 +2724,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -2736,17 +2736,17 @@
         <v>100</v>
       </c>
       <c r="K33" t="n">
-        <v>9000</v>
+        <v>17000</v>
       </c>
       <c r="L33" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="M33" t="n">
-        <v>9500</v>
+        <v>17500</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
@@ -2755,10 +2755,10 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>190</v>
+        <v>583</v>
       </c>
       <c r="Q33" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R33" t="inlineStr">
         <is>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44426</v>
+        <v>44385</v>
       </c>
       <c r="E35" t="n">
         <v>8</v>
@@ -2868,7 +2868,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -2877,20 +2877,20 @@
         </is>
       </c>
       <c r="J35" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="K35" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="L35" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="M35" t="n">
-        <v>12600</v>
+        <v>17500</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
@@ -2899,10 +2899,10 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>315</v>
+        <v>583</v>
       </c>
       <c r="Q35" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R35" t="inlineStr">
         <is>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44454</v>
+        <v>44428</v>
       </c>
       <c r="E36" t="n">
         <v>8</v>
@@ -2940,7 +2940,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -2952,29 +2952,29 @@
         <v>100</v>
       </c>
       <c r="K36" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L36" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M36" t="n">
-        <v>13500</v>
+        <v>14500</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P36" t="n">
-        <v>338</v>
+        <v>483</v>
       </c>
       <c r="Q36" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R36" t="inlineStr">
         <is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Alcachofa.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Alcachofa.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44342</v>
+        <v>44463</v>
       </c>
       <c r="E2" t="n">
         <v>8</v>
@@ -492,7 +492,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -504,17 +504,17 @@
         <v>100</v>
       </c>
       <c r="K2" t="n">
-        <v>17000</v>
+        <v>9000</v>
       </c>
       <c r="L2" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="M2" t="n">
-        <v>17500</v>
+        <v>9500</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -523,10 +523,10 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>583</v>
+        <v>190</v>
       </c>
       <c r="Q2" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R2" t="inlineStr">
         <is>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44342</v>
+        <v>44497</v>
       </c>
       <c r="E3" t="n">
         <v>8</v>
@@ -564,7 +564,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -573,20 +573,20 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="K3" t="n">
-        <v>15000</v>
+        <v>6500</v>
       </c>
       <c r="L3" t="n">
-        <v>16000</v>
+        <v>7000</v>
       </c>
       <c r="M3" t="n">
-        <v>15500</v>
+        <v>6778</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -595,10 +595,10 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>388</v>
+        <v>136</v>
       </c>
       <c r="Q3" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R3" t="inlineStr">
         <is>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44420</v>
+        <v>44497</v>
       </c>
       <c r="E4" t="n">
         <v>8</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K4" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="L4" t="n">
-        <v>15000</v>
+        <v>7500</v>
       </c>
       <c r="M4" t="n">
-        <v>14500</v>
+        <v>7250</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>483</v>
+        <v>242</v>
       </c>
       <c r="Q4" t="n">
         <v>30</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44421</v>
+        <v>44497</v>
       </c>
       <c r="E5" t="n">
         <v>8</v>
@@ -708,7 +708,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -717,32 +717,32 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="K5" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="L5" t="n">
-        <v>15000</v>
+        <v>6500</v>
       </c>
       <c r="M5" t="n">
-        <v>14500</v>
+        <v>6192</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P5" t="n">
-        <v>483</v>
+        <v>155</v>
       </c>
       <c r="Q5" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R5" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44497</v>
+        <v>44428</v>
       </c>
       <c r="E6" t="n">
         <v>8</v>
@@ -780,7 +780,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -789,20 +789,20 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>180</v>
+        <v>100</v>
       </c>
       <c r="K6" t="n">
-        <v>6500</v>
+        <v>14000</v>
       </c>
       <c r="L6" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="M6" t="n">
-        <v>6778</v>
+        <v>14500</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
@@ -811,10 +811,10 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>136</v>
+        <v>483</v>
       </c>
       <c r="Q6" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R6" t="inlineStr">
         <is>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44497</v>
+        <v>44364</v>
       </c>
       <c r="E7" t="n">
         <v>8</v>
@@ -852,7 +852,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -861,20 +861,20 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K7" t="n">
-        <v>7000</v>
+        <v>19000</v>
       </c>
       <c r="L7" t="n">
-        <v>7500</v>
+        <v>20000</v>
       </c>
       <c r="M7" t="n">
-        <v>7250</v>
+        <v>19500</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -883,10 +883,10 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>242</v>
+        <v>390</v>
       </c>
       <c r="Q7" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R7" t="inlineStr">
         <is>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44497</v>
+        <v>44364</v>
       </c>
       <c r="E8" t="n">
         <v>8</v>
@@ -924,7 +924,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -933,32 +933,32 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="K8" t="n">
-        <v>6000</v>
+        <v>19000</v>
       </c>
       <c r="L8" t="n">
-        <v>6500</v>
+        <v>20000</v>
       </c>
       <c r="M8" t="n">
-        <v>6192</v>
+        <v>19500</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P8" t="n">
-        <v>155</v>
+        <v>650</v>
       </c>
       <c r="Q8" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R8" t="inlineStr">
         <is>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44383</v>
+        <v>44484</v>
       </c>
       <c r="E9" t="n">
         <v>8</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>50</v>
+        <v>220</v>
       </c>
       <c r="K9" t="n">
-        <v>17000</v>
+        <v>8000</v>
       </c>
       <c r="L9" t="n">
-        <v>18000</v>
+        <v>9000</v>
       </c>
       <c r="M9" t="n">
-        <v>17400</v>
+        <v>8455</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>348</v>
+        <v>169</v>
       </c>
       <c r="Q9" t="n">
         <v>50</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44483</v>
+        <v>44484</v>
       </c>
       <c r="E10" t="n">
         <v>8</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>450</v>
+        <v>220</v>
       </c>
       <c r="K10" t="n">
-        <v>11000</v>
+        <v>7500</v>
       </c>
       <c r="L10" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="M10" t="n">
-        <v>11444</v>
+        <v>7727</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>381</v>
+        <v>258</v>
       </c>
       <c r="Q10" t="n">
         <v>30</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44483</v>
+        <v>44447</v>
       </c>
       <c r="E11" t="n">
         <v>8</v>
@@ -1140,7 +1140,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1149,32 +1149,32 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>220</v>
+        <v>100</v>
       </c>
       <c r="K11" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="L11" t="n">
-        <v>8500</v>
+        <v>15000</v>
       </c>
       <c r="M11" t="n">
-        <v>8273</v>
+        <v>14500</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P11" t="n">
-        <v>207</v>
+        <v>483</v>
       </c>
       <c r="Q11" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R11" t="inlineStr">
         <is>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44397</v>
+        <v>44496</v>
       </c>
       <c r="E12" t="n">
         <v>8</v>
@@ -1212,7 +1212,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1221,32 +1221,32 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>100</v>
+        <v>350</v>
       </c>
       <c r="K12" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="L12" t="n">
-        <v>15000</v>
+        <v>7500</v>
       </c>
       <c r="M12" t="n">
-        <v>14500</v>
+        <v>7214</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P12" t="n">
-        <v>483</v>
+        <v>180</v>
       </c>
       <c r="Q12" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R12" t="inlineStr">
         <is>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44435</v>
+        <v>44342</v>
       </c>
       <c r="E13" t="n">
         <v>8</v>
@@ -1284,7 +1284,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1296,17 +1296,17 @@
         <v>100</v>
       </c>
       <c r="K13" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="L13" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M13" t="n">
-        <v>14500</v>
+        <v>17500</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
@@ -1315,10 +1315,10 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>290</v>
+        <v>583</v>
       </c>
       <c r="Q13" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R13" t="inlineStr">
         <is>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44350</v>
+        <v>44342</v>
       </c>
       <c r="E14" t="n">
         <v>8</v>
@@ -1356,7 +1356,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1365,7 +1365,7 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="K14" t="n">
         <v>15000</v>
@@ -1374,11 +1374,11 @@
         <v>16000</v>
       </c>
       <c r="M14" t="n">
-        <v>15600</v>
+        <v>15500</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
@@ -1387,10 +1387,10 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>312</v>
+        <v>388</v>
       </c>
       <c r="Q14" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R14" t="inlineStr">
         <is>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44350</v>
+        <v>44376</v>
       </c>
       <c r="E15" t="n">
         <v>8</v>
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="K15" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="L15" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="M15" t="n">
-        <v>17500</v>
+        <v>19500</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>583</v>
+        <v>650</v>
       </c>
       <c r="Q15" t="n">
         <v>30</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44358</v>
+        <v>44441</v>
       </c>
       <c r="E16" t="n">
         <v>8</v>
@@ -1500,7 +1500,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1512,17 +1512,17 @@
         <v>100</v>
       </c>
       <c r="K16" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="L16" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="M16" t="n">
-        <v>19000</v>
+        <v>13500</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
@@ -1531,10 +1531,10 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>380</v>
+        <v>450</v>
       </c>
       <c r="Q16" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R16" t="inlineStr">
         <is>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44358</v>
+        <v>44383</v>
       </c>
       <c r="E17" t="n">
         <v>8</v>
@@ -1572,7 +1572,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1581,20 +1581,20 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K17" t="n">
+        <v>17000</v>
+      </c>
+      <c r="L17" t="n">
         <v>18000</v>
       </c>
-      <c r="L17" t="n">
-        <v>20000</v>
-      </c>
       <c r="M17" t="n">
-        <v>19000</v>
+        <v>17400</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
@@ -1603,10 +1603,10 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>633</v>
+        <v>348</v>
       </c>
       <c r="Q17" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R17" t="inlineStr">
         <is>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44433</v>
+        <v>44435</v>
       </c>
       <c r="E18" t="n">
         <v>8</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44364</v>
+        <v>44442</v>
       </c>
       <c r="E19" t="n">
         <v>8</v>
@@ -1716,7 +1716,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1728,17 +1728,17 @@
         <v>100</v>
       </c>
       <c r="K19" t="n">
-        <v>19000</v>
+        <v>14500</v>
       </c>
       <c r="L19" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="M19" t="n">
-        <v>19500</v>
+        <v>14750</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
@@ -1747,10 +1747,10 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>390</v>
+        <v>492</v>
       </c>
       <c r="Q19" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R19" t="inlineStr">
         <is>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44364</v>
+        <v>44350</v>
       </c>
       <c r="E20" t="n">
         <v>8</v>
@@ -1788,7 +1788,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1797,20 +1797,20 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K20" t="n">
-        <v>19000</v>
+        <v>15000</v>
       </c>
       <c r="L20" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="M20" t="n">
-        <v>19500</v>
+        <v>15600</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
@@ -1819,10 +1819,10 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>650</v>
+        <v>312</v>
       </c>
       <c r="Q20" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R20" t="inlineStr">
         <is>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44463</v>
+        <v>44350</v>
       </c>
       <c r="E21" t="n">
         <v>8</v>
@@ -1860,7 +1860,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1869,20 +1869,20 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="K21" t="n">
-        <v>9000</v>
+        <v>17000</v>
       </c>
       <c r="L21" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="M21" t="n">
-        <v>9500</v>
+        <v>17500</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
@@ -1891,10 +1891,10 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>190</v>
+        <v>583</v>
       </c>
       <c r="Q21" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R21" t="inlineStr">
         <is>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44484</v>
+        <v>44433</v>
       </c>
       <c r="E22" t="n">
         <v>8</v>
@@ -1941,16 +1941,16 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>220</v>
+        <v>100</v>
       </c>
       <c r="K22" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="L22" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="M22" t="n">
-        <v>8455</v>
+        <v>14500</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>169</v>
+        <v>290</v>
       </c>
       <c r="Q22" t="n">
         <v>50</v>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44484</v>
+        <v>44358</v>
       </c>
       <c r="E23" t="n">
         <v>8</v>
@@ -2004,7 +2004,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -2013,20 +2013,20 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>220</v>
+        <v>100</v>
       </c>
       <c r="K23" t="n">
-        <v>7500</v>
+        <v>18000</v>
       </c>
       <c r="L23" t="n">
-        <v>8000</v>
+        <v>20000</v>
       </c>
       <c r="M23" t="n">
-        <v>7727</v>
+        <v>19000</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
@@ -2035,10 +2035,10 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>258</v>
+        <v>380</v>
       </c>
       <c r="Q23" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R23" t="inlineStr">
         <is>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44376</v>
+        <v>44358</v>
       </c>
       <c r="E24" t="n">
         <v>8</v>
@@ -2088,13 +2088,13 @@
         <v>100</v>
       </c>
       <c r="K24" t="n">
-        <v>19000</v>
+        <v>18000</v>
       </c>
       <c r="L24" t="n">
         <v>20000</v>
       </c>
       <c r="M24" t="n">
-        <v>19500</v>
+        <v>19000</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>650</v>
+        <v>633</v>
       </c>
       <c r="Q24" t="n">
         <v>30</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44426</v>
+        <v>44454</v>
       </c>
       <c r="E25" t="n">
         <v>8</v>
@@ -2157,16 +2157,16 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="K25" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="L25" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="M25" t="n">
-        <v>12600</v>
+        <v>13500</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
@@ -2175,11 +2175,11 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P25" t="n">
-        <v>315</v>
+        <v>338</v>
       </c>
       <c r="Q25" t="n">
         <v>40</v>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44442</v>
+        <v>44420</v>
       </c>
       <c r="E26" t="n">
         <v>8</v>
@@ -2232,13 +2232,13 @@
         <v>100</v>
       </c>
       <c r="K26" t="n">
-        <v>14500</v>
+        <v>14000</v>
       </c>
       <c r="L26" t="n">
         <v>15000</v>
       </c>
       <c r="M26" t="n">
-        <v>14750</v>
+        <v>14500</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
@@ -2251,7 +2251,7 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>492</v>
+        <v>483</v>
       </c>
       <c r="Q26" t="n">
         <v>30</v>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44447</v>
+        <v>44426</v>
       </c>
       <c r="E27" t="n">
         <v>8</v>
@@ -2292,7 +2292,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -2301,20 +2301,20 @@
         </is>
       </c>
       <c r="J27" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K27" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="L27" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M27" t="n">
-        <v>14500</v>
+        <v>12600</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
@@ -2323,10 +2323,10 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>483</v>
+        <v>315</v>
       </c>
       <c r="Q27" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R27" t="inlineStr">
         <is>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44454</v>
+        <v>44397</v>
       </c>
       <c r="E28" t="n">
         <v>8</v>
@@ -2364,7 +2364,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -2376,29 +2376,29 @@
         <v>100</v>
       </c>
       <c r="K28" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L28" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M28" t="n">
-        <v>13500</v>
+        <v>14500</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P28" t="n">
-        <v>338</v>
+        <v>483</v>
       </c>
       <c r="Q28" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R28" t="inlineStr">
         <is>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44489</v>
+        <v>44421</v>
       </c>
       <c r="E29" t="n">
         <v>8</v>
@@ -2436,7 +2436,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -2448,17 +2448,17 @@
         <v>100</v>
       </c>
       <c r="K29" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="L29" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="M29" t="n">
-        <v>9500</v>
+        <v>14500</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
@@ -2467,10 +2467,10 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>190</v>
+        <v>483</v>
       </c>
       <c r="Q29" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R29" t="inlineStr">
         <is>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44489</v>
+        <v>44483</v>
       </c>
       <c r="E30" t="n">
         <v>8</v>
@@ -2517,16 +2517,16 @@
         </is>
       </c>
       <c r="J30" t="n">
-        <v>100</v>
+        <v>450</v>
       </c>
       <c r="K30" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="L30" t="n">
-        <v>8500</v>
+        <v>12000</v>
       </c>
       <c r="M30" t="n">
-        <v>8250</v>
+        <v>11444</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
@@ -2539,7 +2539,7 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>275</v>
+        <v>381</v>
       </c>
       <c r="Q30" t="n">
         <v>30</v>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44399</v>
+        <v>44483</v>
       </c>
       <c r="E31" t="n">
         <v>8</v>
@@ -2580,7 +2580,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -2589,32 +2589,32 @@
         </is>
       </c>
       <c r="J31" t="n">
-        <v>100</v>
+        <v>220</v>
       </c>
       <c r="K31" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="L31" t="n">
-        <v>15000</v>
+        <v>8500</v>
       </c>
       <c r="M31" t="n">
-        <v>14500</v>
+        <v>8273</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P31" t="n">
-        <v>483</v>
+        <v>207</v>
       </c>
       <c r="Q31" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R31" t="inlineStr">
         <is>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44441</v>
+        <v>44489</v>
       </c>
       <c r="E32" t="n">
         <v>8</v>
@@ -2652,7 +2652,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -2664,17 +2664,17 @@
         <v>100</v>
       </c>
       <c r="K32" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="L32" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="M32" t="n">
-        <v>13500</v>
+        <v>9500</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
@@ -2683,10 +2683,10 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>450</v>
+        <v>190</v>
       </c>
       <c r="Q32" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R32" t="inlineStr">
         <is>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44335</v>
+        <v>44489</v>
       </c>
       <c r="E33" t="n">
         <v>8</v>
@@ -2736,13 +2736,13 @@
         <v>100</v>
       </c>
       <c r="K33" t="n">
-        <v>17000</v>
+        <v>8000</v>
       </c>
       <c r="L33" t="n">
-        <v>18000</v>
+        <v>8500</v>
       </c>
       <c r="M33" t="n">
-        <v>17500</v>
+        <v>8250</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
@@ -2755,7 +2755,7 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>583</v>
+        <v>275</v>
       </c>
       <c r="Q33" t="n">
         <v>30</v>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44496</v>
+        <v>44385</v>
       </c>
       <c r="E34" t="n">
         <v>8</v>
@@ -2796,7 +2796,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -2805,32 +2805,32 @@
         </is>
       </c>
       <c r="J34" t="n">
-        <v>350</v>
+        <v>100</v>
       </c>
       <c r="K34" t="n">
-        <v>7000</v>
+        <v>17000</v>
       </c>
       <c r="L34" t="n">
-        <v>7500</v>
+        <v>18000</v>
       </c>
       <c r="M34" t="n">
-        <v>7214</v>
+        <v>17500</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P34" t="n">
-        <v>180</v>
+        <v>583</v>
       </c>
       <c r="Q34" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R34" t="inlineStr">
         <is>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44385</v>
+        <v>44399</v>
       </c>
       <c r="E35" t="n">
         <v>8</v>
@@ -2880,13 +2880,13 @@
         <v>100</v>
       </c>
       <c r="K35" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="L35" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M35" t="n">
-        <v>17500</v>
+        <v>14500</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
@@ -2899,7 +2899,7 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>583</v>
+        <v>483</v>
       </c>
       <c r="Q35" t="n">
         <v>30</v>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44428</v>
+        <v>44335</v>
       </c>
       <c r="E36" t="n">
         <v>8</v>
@@ -2952,13 +2952,13 @@
         <v>100</v>
       </c>
       <c r="K36" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="L36" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M36" t="n">
-        <v>14500</v>
+        <v>17500</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>483</v>
+        <v>583</v>
       </c>
       <c r="Q36" t="n">
         <v>30</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Alcachofa.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Alcachofa.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44463</v>
+        <v>44489</v>
       </c>
       <c r="E2" t="n">
         <v>8</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44497</v>
+        <v>44489</v>
       </c>
       <c r="E3" t="n">
         <v>8</v>
@@ -564,7 +564,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -573,20 +573,20 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>180</v>
+        <v>100</v>
       </c>
       <c r="K3" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="L3" t="n">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="M3" t="n">
-        <v>6778</v>
+        <v>8250</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -595,10 +595,10 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>136</v>
+        <v>275</v>
       </c>
       <c r="Q3" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R3" t="inlineStr">
         <is>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44497</v>
+        <v>44350</v>
       </c>
       <c r="E4" t="n">
         <v>8</v>
@@ -636,7 +636,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -645,20 +645,20 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="K4" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="L4" t="n">
-        <v>7500</v>
+        <v>16000</v>
       </c>
       <c r="M4" t="n">
-        <v>7250</v>
+        <v>15600</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -667,10 +667,10 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>242</v>
+        <v>312</v>
       </c>
       <c r="Q4" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R4" t="inlineStr">
         <is>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44497</v>
+        <v>44350</v>
       </c>
       <c r="E5" t="n">
         <v>8</v>
@@ -708,7 +708,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -717,32 +717,32 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>130</v>
+        <v>40</v>
       </c>
       <c r="K5" t="n">
-        <v>6000</v>
+        <v>17000</v>
       </c>
       <c r="L5" t="n">
-        <v>6500</v>
+        <v>18000</v>
       </c>
       <c r="M5" t="n">
-        <v>6192</v>
+        <v>17500</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P5" t="n">
-        <v>155</v>
+        <v>583</v>
       </c>
       <c r="Q5" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R5" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44428</v>
+        <v>44426</v>
       </c>
       <c r="E6" t="n">
         <v>8</v>
@@ -780,7 +780,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -789,20 +789,20 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K6" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="L6" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M6" t="n">
-        <v>14500</v>
+        <v>12600</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
@@ -811,10 +811,10 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>483</v>
+        <v>315</v>
       </c>
       <c r="Q6" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R6" t="inlineStr">
         <is>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44364</v>
+        <v>44497</v>
       </c>
       <c r="E7" t="n">
         <v>8</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="K7" t="n">
-        <v>19000</v>
+        <v>6500</v>
       </c>
       <c r="L7" t="n">
-        <v>20000</v>
+        <v>7000</v>
       </c>
       <c r="M7" t="n">
-        <v>19500</v>
+        <v>6778</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>390</v>
+        <v>136</v>
       </c>
       <c r="Q7" t="n">
         <v>50</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44364</v>
+        <v>44497</v>
       </c>
       <c r="E8" t="n">
         <v>8</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K8" t="n">
-        <v>19000</v>
+        <v>7000</v>
       </c>
       <c r="L8" t="n">
-        <v>20000</v>
+        <v>7500</v>
       </c>
       <c r="M8" t="n">
-        <v>19500</v>
+        <v>7250</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>650</v>
+        <v>242</v>
       </c>
       <c r="Q8" t="n">
         <v>30</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44484</v>
+        <v>44497</v>
       </c>
       <c r="E9" t="n">
         <v>8</v>
@@ -996,7 +996,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1005,32 +1005,32 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>220</v>
+        <v>130</v>
       </c>
       <c r="K9" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L9" t="n">
-        <v>9000</v>
+        <v>6500</v>
       </c>
       <c r="M9" t="n">
-        <v>8455</v>
+        <v>6192</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P9" t="n">
-        <v>169</v>
+        <v>155</v>
       </c>
       <c r="Q9" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R9" t="inlineStr">
         <is>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44484</v>
+        <v>44433</v>
       </c>
       <c r="E10" t="n">
         <v>8</v>
@@ -1068,7 +1068,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1077,20 +1077,20 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>220</v>
+        <v>100</v>
       </c>
       <c r="K10" t="n">
-        <v>7500</v>
+        <v>14000</v>
       </c>
       <c r="L10" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="M10" t="n">
-        <v>7727</v>
+        <v>14500</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
@@ -1099,10 +1099,10 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>258</v>
+        <v>290</v>
       </c>
       <c r="Q10" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R10" t="inlineStr">
         <is>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44447</v>
+        <v>44421</v>
       </c>
       <c r="E11" t="n">
         <v>8</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44496</v>
+        <v>44454</v>
       </c>
       <c r="E12" t="n">
         <v>8</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>350</v>
+        <v>100</v>
       </c>
       <c r="K12" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="L12" t="n">
-        <v>7500</v>
+        <v>14000</v>
       </c>
       <c r="M12" t="n">
-        <v>7214</v>
+        <v>13500</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1239,11 +1239,11 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P12" t="n">
-        <v>180</v>
+        <v>338</v>
       </c>
       <c r="Q12" t="n">
         <v>40</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44342</v>
+        <v>44385</v>
       </c>
       <c r="E13" t="n">
         <v>8</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44342</v>
+        <v>44397</v>
       </c>
       <c r="E14" t="n">
         <v>8</v>
@@ -1356,7 +1356,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1368,17 +1368,17 @@
         <v>100</v>
       </c>
       <c r="K14" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L14" t="n">
         <v>15000</v>
       </c>
-      <c r="L14" t="n">
-        <v>16000</v>
-      </c>
       <c r="M14" t="n">
-        <v>15500</v>
+        <v>14500</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
@@ -1387,10 +1387,10 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>388</v>
+        <v>483</v>
       </c>
       <c r="Q14" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R14" t="inlineStr">
         <is>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44376</v>
+        <v>44442</v>
       </c>
       <c r="E15" t="n">
         <v>8</v>
@@ -1440,13 +1440,13 @@
         <v>100</v>
       </c>
       <c r="K15" t="n">
-        <v>19000</v>
+        <v>14500</v>
       </c>
       <c r="L15" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="M15" t="n">
-        <v>19500</v>
+        <v>14750</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>650</v>
+        <v>492</v>
       </c>
       <c r="Q15" t="n">
         <v>30</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44441</v>
+        <v>44484</v>
       </c>
       <c r="E16" t="n">
         <v>8</v>
@@ -1500,7 +1500,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1509,20 +1509,20 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>100</v>
+        <v>220</v>
       </c>
       <c r="K16" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="L16" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="M16" t="n">
-        <v>13500</v>
+        <v>8455</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
@@ -1531,10 +1531,10 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>450</v>
+        <v>169</v>
       </c>
       <c r="Q16" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R16" t="inlineStr">
         <is>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44383</v>
+        <v>44484</v>
       </c>
       <c r="E17" t="n">
         <v>8</v>
@@ -1572,7 +1572,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1581,20 +1581,20 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>50</v>
+        <v>220</v>
       </c>
       <c r="K17" t="n">
-        <v>17000</v>
+        <v>7500</v>
       </c>
       <c r="L17" t="n">
-        <v>18000</v>
+        <v>8000</v>
       </c>
       <c r="M17" t="n">
-        <v>17400</v>
+        <v>7727</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
@@ -1603,10 +1603,10 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>348</v>
+        <v>258</v>
       </c>
       <c r="Q17" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R17" t="inlineStr">
         <is>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44435</v>
+        <v>44463</v>
       </c>
       <c r="E18" t="n">
         <v>8</v>
@@ -1656,13 +1656,13 @@
         <v>100</v>
       </c>
       <c r="K18" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="L18" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="M18" t="n">
-        <v>14500</v>
+        <v>9500</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>290</v>
+        <v>190</v>
       </c>
       <c r="Q18" t="n">
         <v>50</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44442</v>
+        <v>44435</v>
       </c>
       <c r="E19" t="n">
         <v>8</v>
@@ -1716,7 +1716,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1728,17 +1728,17 @@
         <v>100</v>
       </c>
       <c r="K19" t="n">
-        <v>14500</v>
+        <v>14000</v>
       </c>
       <c r="L19" t="n">
         <v>15000</v>
       </c>
       <c r="M19" t="n">
-        <v>14750</v>
+        <v>14500</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
@@ -1747,10 +1747,10 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>492</v>
+        <v>290</v>
       </c>
       <c r="Q19" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R19" t="inlineStr">
         <is>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44350</v>
+        <v>44483</v>
       </c>
       <c r="E20" t="n">
         <v>8</v>
@@ -1788,7 +1788,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1797,20 +1797,20 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>50</v>
+        <v>450</v>
       </c>
       <c r="K20" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="L20" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="M20" t="n">
-        <v>15600</v>
+        <v>11444</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
@@ -1819,10 +1819,10 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>312</v>
+        <v>381</v>
       </c>
       <c r="Q20" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R20" t="inlineStr">
         <is>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44350</v>
+        <v>44483</v>
       </c>
       <c r="E21" t="n">
         <v>8</v>
@@ -1860,7 +1860,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1869,32 +1869,32 @@
         </is>
       </c>
       <c r="J21" t="n">
+        <v>220</v>
+      </c>
+      <c r="K21" t="n">
+        <v>8000</v>
+      </c>
+      <c r="L21" t="n">
+        <v>8500</v>
+      </c>
+      <c r="M21" t="n">
+        <v>8273</v>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>$/caja 40 unidades</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>Región de Coquimbo</t>
+        </is>
+      </c>
+      <c r="P21" t="n">
+        <v>207</v>
+      </c>
+      <c r="Q21" t="n">
         <v>40</v>
-      </c>
-      <c r="K21" t="n">
-        <v>17000</v>
-      </c>
-      <c r="L21" t="n">
-        <v>18000</v>
-      </c>
-      <c r="M21" t="n">
-        <v>17500</v>
-      </c>
-      <c r="N21" t="inlineStr">
-        <is>
-          <t>$/caja 30 unidades</t>
-        </is>
-      </c>
-      <c r="O21" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="P21" t="n">
-        <v>583</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>30</v>
       </c>
       <c r="R21" t="inlineStr">
         <is>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44433</v>
+        <v>44447</v>
       </c>
       <c r="E22" t="n">
         <v>8</v>
@@ -1932,7 +1932,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1954,7 +1954,7 @@
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
@@ -1963,10 +1963,10 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>290</v>
+        <v>483</v>
       </c>
       <c r="Q22" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R22" t="inlineStr">
         <is>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44358</v>
+        <v>44420</v>
       </c>
       <c r="E23" t="n">
         <v>8</v>
@@ -2004,7 +2004,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -2016,17 +2016,17 @@
         <v>100</v>
       </c>
       <c r="K23" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="L23" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="M23" t="n">
-        <v>19000</v>
+        <v>14500</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
@@ -2035,10 +2035,10 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>380</v>
+        <v>483</v>
       </c>
       <c r="Q23" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R23" t="inlineStr">
         <is>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44358</v>
+        <v>44441</v>
       </c>
       <c r="E24" t="n">
         <v>8</v>
@@ -2088,13 +2088,13 @@
         <v>100</v>
       </c>
       <c r="K24" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="L24" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="M24" t="n">
-        <v>19000</v>
+        <v>13500</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>633</v>
+        <v>450</v>
       </c>
       <c r="Q24" t="n">
         <v>30</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44454</v>
+        <v>44342</v>
       </c>
       <c r="E25" t="n">
         <v>8</v>
@@ -2148,7 +2148,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -2160,29 +2160,29 @@
         <v>100</v>
       </c>
       <c r="K25" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="L25" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="M25" t="n">
-        <v>13500</v>
+        <v>17500</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P25" t="n">
-        <v>338</v>
+        <v>583</v>
       </c>
       <c r="Q25" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R25" t="inlineStr">
         <is>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44420</v>
+        <v>44342</v>
       </c>
       <c r="E26" t="n">
         <v>8</v>
@@ -2220,7 +2220,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -2232,17 +2232,17 @@
         <v>100</v>
       </c>
       <c r="K26" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L26" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="M26" t="n">
-        <v>14500</v>
+        <v>15500</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
@@ -2251,10 +2251,10 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>483</v>
+        <v>388</v>
       </c>
       <c r="Q26" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R26" t="inlineStr">
         <is>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44426</v>
+        <v>44399</v>
       </c>
       <c r="E27" t="n">
         <v>8</v>
@@ -2292,7 +2292,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -2301,20 +2301,20 @@
         </is>
       </c>
       <c r="J27" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="K27" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L27" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M27" t="n">
-        <v>12600</v>
+        <v>14500</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
@@ -2323,10 +2323,10 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>315</v>
+        <v>483</v>
       </c>
       <c r="Q27" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R27" t="inlineStr">
         <is>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44397</v>
+        <v>44335</v>
       </c>
       <c r="E28" t="n">
         <v>8</v>
@@ -2376,13 +2376,13 @@
         <v>100</v>
       </c>
       <c r="K28" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="L28" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M28" t="n">
-        <v>14500</v>
+        <v>17500</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
@@ -2395,7 +2395,7 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>483</v>
+        <v>583</v>
       </c>
       <c r="Q28" t="n">
         <v>30</v>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44421</v>
+        <v>44428</v>
       </c>
       <c r="E29" t="n">
         <v>8</v>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44483</v>
+        <v>44496</v>
       </c>
       <c r="E30" t="n">
         <v>8</v>
@@ -2508,7 +2508,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -2517,32 +2517,32 @@
         </is>
       </c>
       <c r="J30" t="n">
-        <v>450</v>
+        <v>350</v>
       </c>
       <c r="K30" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="L30" t="n">
-        <v>12000</v>
+        <v>7500</v>
       </c>
       <c r="M30" t="n">
-        <v>11444</v>
+        <v>7214</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P30" t="n">
-        <v>381</v>
+        <v>180</v>
       </c>
       <c r="Q30" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R30" t="inlineStr">
         <is>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44483</v>
+        <v>44383</v>
       </c>
       <c r="E31" t="n">
         <v>8</v>
@@ -2580,7 +2580,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -2589,32 +2589,32 @@
         </is>
       </c>
       <c r="J31" t="n">
-        <v>220</v>
+        <v>50</v>
       </c>
       <c r="K31" t="n">
-        <v>8000</v>
+        <v>17000</v>
       </c>
       <c r="L31" t="n">
-        <v>8500</v>
+        <v>18000</v>
       </c>
       <c r="M31" t="n">
-        <v>8273</v>
+        <v>17400</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P31" t="n">
-        <v>207</v>
+        <v>348</v>
       </c>
       <c r="Q31" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R31" t="inlineStr">
         <is>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44489</v>
+        <v>44364</v>
       </c>
       <c r="E32" t="n">
         <v>8</v>
@@ -2664,13 +2664,13 @@
         <v>100</v>
       </c>
       <c r="K32" t="n">
-        <v>9000</v>
+        <v>19000</v>
       </c>
       <c r="L32" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="M32" t="n">
-        <v>9500</v>
+        <v>19500</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
@@ -2683,7 +2683,7 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>190</v>
+        <v>390</v>
       </c>
       <c r="Q32" t="n">
         <v>50</v>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44489</v>
+        <v>44364</v>
       </c>
       <c r="E33" t="n">
         <v>8</v>
@@ -2736,13 +2736,13 @@
         <v>100</v>
       </c>
       <c r="K33" t="n">
-        <v>8000</v>
+        <v>19000</v>
       </c>
       <c r="L33" t="n">
-        <v>8500</v>
+        <v>20000</v>
       </c>
       <c r="M33" t="n">
-        <v>8250</v>
+        <v>19500</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
@@ -2755,7 +2755,7 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>275</v>
+        <v>650</v>
       </c>
       <c r="Q33" t="n">
         <v>30</v>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44385</v>
+        <v>44358</v>
       </c>
       <c r="E34" t="n">
         <v>8</v>
@@ -2796,7 +2796,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -2808,17 +2808,17 @@
         <v>100</v>
       </c>
       <c r="K34" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="L34" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="M34" t="n">
-        <v>17500</v>
+        <v>19000</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
@@ -2827,10 +2827,10 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>583</v>
+        <v>380</v>
       </c>
       <c r="Q34" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R34" t="inlineStr">
         <is>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44399</v>
+        <v>44358</v>
       </c>
       <c r="E35" t="n">
         <v>8</v>
@@ -2880,13 +2880,13 @@
         <v>100</v>
       </c>
       <c r="K35" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="L35" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="M35" t="n">
-        <v>14500</v>
+        <v>19000</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
@@ -2899,7 +2899,7 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>483</v>
+        <v>633</v>
       </c>
       <c r="Q35" t="n">
         <v>30</v>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44335</v>
+        <v>44376</v>
       </c>
       <c r="E36" t="n">
         <v>8</v>
@@ -2952,13 +2952,13 @@
         <v>100</v>
       </c>
       <c r="K36" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="L36" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="M36" t="n">
-        <v>17500</v>
+        <v>19500</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>583</v>
+        <v>650</v>
       </c>
       <c r="Q36" t="n">
         <v>30</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Alcachofa.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Alcachofa.xlsx
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44350</v>
+        <v>44496</v>
       </c>
       <c r="E4" t="n">
         <v>8</v>
@@ -636,7 +636,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -645,32 +645,32 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>50</v>
+        <v>350</v>
       </c>
       <c r="K4" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="L4" t="n">
-        <v>16000</v>
+        <v>7500</v>
       </c>
       <c r="M4" t="n">
-        <v>15600</v>
+        <v>7214</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P4" t="n">
-        <v>312</v>
+        <v>180</v>
       </c>
       <c r="Q4" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R4" t="inlineStr">
         <is>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44350</v>
+        <v>44364</v>
       </c>
       <c r="E5" t="n">
         <v>8</v>
@@ -708,7 +708,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -717,20 +717,20 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="K5" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="L5" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="M5" t="n">
-        <v>17500</v>
+        <v>19500</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -739,10 +739,10 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>583</v>
+        <v>390</v>
       </c>
       <c r="Q5" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R5" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44426</v>
+        <v>44364</v>
       </c>
       <c r="E6" t="n">
         <v>8</v>
@@ -780,7 +780,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -789,20 +789,20 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="K6" t="n">
-        <v>12000</v>
+        <v>19000</v>
       </c>
       <c r="L6" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="M6" t="n">
-        <v>12600</v>
+        <v>19500</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
@@ -811,10 +811,10 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>315</v>
+        <v>650</v>
       </c>
       <c r="Q6" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R6" t="inlineStr">
         <is>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44497</v>
+        <v>44376</v>
       </c>
       <c r="E7" t="n">
         <v>8</v>
@@ -852,7 +852,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -861,20 +861,20 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>180</v>
+        <v>100</v>
       </c>
       <c r="K7" t="n">
-        <v>6500</v>
+        <v>19000</v>
       </c>
       <c r="L7" t="n">
-        <v>7000</v>
+        <v>20000</v>
       </c>
       <c r="M7" t="n">
-        <v>6778</v>
+        <v>19500</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -883,10 +883,10 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>136</v>
+        <v>650</v>
       </c>
       <c r="Q7" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R7" t="inlineStr">
         <is>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44497</v>
+        <v>44454</v>
       </c>
       <c r="E8" t="n">
         <v>8</v>
@@ -924,7 +924,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -933,32 +933,32 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K8" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="L8" t="n">
-        <v>7500</v>
+        <v>14000</v>
       </c>
       <c r="M8" t="n">
-        <v>7250</v>
+        <v>13500</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P8" t="n">
-        <v>242</v>
+        <v>338</v>
       </c>
       <c r="Q8" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R8" t="inlineStr">
         <is>
@@ -996,7 +996,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1005,32 +1005,32 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>130</v>
+        <v>180</v>
       </c>
       <c r="K9" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="L9" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="M9" t="n">
-        <v>6192</v>
+        <v>6778</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P9" t="n">
-        <v>155</v>
+        <v>136</v>
       </c>
       <c r="Q9" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R9" t="inlineStr">
         <is>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44433</v>
+        <v>44497</v>
       </c>
       <c r="E10" t="n">
         <v>8</v>
@@ -1068,7 +1068,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1077,20 +1077,20 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K10" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="L10" t="n">
-        <v>15000</v>
+        <v>7500</v>
       </c>
       <c r="M10" t="n">
-        <v>14500</v>
+        <v>7250</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
@@ -1099,10 +1099,10 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>290</v>
+        <v>242</v>
       </c>
       <c r="Q10" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R10" t="inlineStr">
         <is>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44421</v>
+        <v>44497</v>
       </c>
       <c r="E11" t="n">
         <v>8</v>
@@ -1140,7 +1140,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1149,32 +1149,32 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="K11" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="L11" t="n">
-        <v>15000</v>
+        <v>6500</v>
       </c>
       <c r="M11" t="n">
-        <v>14500</v>
+        <v>6192</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P11" t="n">
-        <v>483</v>
+        <v>155</v>
       </c>
       <c r="Q11" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R11" t="inlineStr">
         <is>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44454</v>
+        <v>44433</v>
       </c>
       <c r="E12" t="n">
         <v>8</v>
@@ -1212,7 +1212,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1224,29 +1224,29 @@
         <v>100</v>
       </c>
       <c r="K12" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L12" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M12" t="n">
-        <v>13500</v>
+        <v>14500</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P12" t="n">
-        <v>338</v>
+        <v>290</v>
       </c>
       <c r="Q12" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R12" t="inlineStr">
         <is>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44385</v>
+        <v>44350</v>
       </c>
       <c r="E13" t="n">
         <v>8</v>
@@ -1284,7 +1284,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1293,20 +1293,20 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K13" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="L13" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="M13" t="n">
-        <v>17500</v>
+        <v>15600</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
@@ -1315,10 +1315,10 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>583</v>
+        <v>312</v>
       </c>
       <c r="Q13" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R13" t="inlineStr">
         <is>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44397</v>
+        <v>44350</v>
       </c>
       <c r="E14" t="n">
         <v>8</v>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="K14" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="L14" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M14" t="n">
-        <v>14500</v>
+        <v>17500</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>483</v>
+        <v>583</v>
       </c>
       <c r="Q14" t="n">
         <v>30</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44442</v>
+        <v>44399</v>
       </c>
       <c r="E15" t="n">
         <v>8</v>
@@ -1440,13 +1440,13 @@
         <v>100</v>
       </c>
       <c r="K15" t="n">
-        <v>14500</v>
+        <v>14000</v>
       </c>
       <c r="L15" t="n">
         <v>15000</v>
       </c>
       <c r="M15" t="n">
-        <v>14750</v>
+        <v>14500</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>492</v>
+        <v>483</v>
       </c>
       <c r="Q15" t="n">
         <v>30</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44484</v>
+        <v>44397</v>
       </c>
       <c r="E16" t="n">
         <v>8</v>
@@ -1500,7 +1500,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1509,20 +1509,20 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>220</v>
+        <v>100</v>
       </c>
       <c r="K16" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="L16" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="M16" t="n">
-        <v>8455</v>
+        <v>14500</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
@@ -1531,10 +1531,10 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>169</v>
+        <v>483</v>
       </c>
       <c r="Q16" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R16" t="inlineStr">
         <is>
@@ -1572,7 +1572,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1584,17 +1584,17 @@
         <v>220</v>
       </c>
       <c r="K17" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="L17" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M17" t="n">
-        <v>7727</v>
+        <v>8455</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
@@ -1603,10 +1603,10 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>258</v>
+        <v>169</v>
       </c>
       <c r="Q17" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R17" t="inlineStr">
         <is>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44463</v>
+        <v>44484</v>
       </c>
       <c r="E18" t="n">
         <v>8</v>
@@ -1644,7 +1644,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1653,20 +1653,20 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>100</v>
+        <v>220</v>
       </c>
       <c r="K18" t="n">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="L18" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M18" t="n">
-        <v>9500</v>
+        <v>7727</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
@@ -1675,10 +1675,10 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>190</v>
+        <v>258</v>
       </c>
       <c r="Q18" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R18" t="inlineStr">
         <is>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44435</v>
+        <v>44420</v>
       </c>
       <c r="E19" t="n">
         <v>8</v>
@@ -1716,7 +1716,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1738,7 +1738,7 @@
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
@@ -1747,10 +1747,10 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>290</v>
+        <v>483</v>
       </c>
       <c r="Q19" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R19" t="inlineStr">
         <is>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44483</v>
+        <v>44421</v>
       </c>
       <c r="E20" t="n">
         <v>8</v>
@@ -1797,16 +1797,16 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>450</v>
+        <v>100</v>
       </c>
       <c r="K20" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="L20" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M20" t="n">
-        <v>11444</v>
+        <v>14500</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>381</v>
+        <v>483</v>
       </c>
       <c r="Q20" t="n">
         <v>30</v>
@@ -1860,7 +1860,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1869,32 +1869,32 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>220</v>
+        <v>450</v>
       </c>
       <c r="K21" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="L21" t="n">
-        <v>8500</v>
+        <v>12000</v>
       </c>
       <c r="M21" t="n">
-        <v>8273</v>
+        <v>11444</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P21" t="n">
-        <v>207</v>
+        <v>381</v>
       </c>
       <c r="Q21" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R21" t="inlineStr">
         <is>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44447</v>
+        <v>44483</v>
       </c>
       <c r="E22" t="n">
         <v>8</v>
@@ -1932,7 +1932,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1941,32 +1941,32 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>100</v>
+        <v>220</v>
       </c>
       <c r="K22" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="L22" t="n">
-        <v>15000</v>
+        <v>8500</v>
       </c>
       <c r="M22" t="n">
-        <v>14500</v>
+        <v>8273</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P22" t="n">
-        <v>483</v>
+        <v>207</v>
       </c>
       <c r="Q22" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R22" t="inlineStr">
         <is>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44420</v>
+        <v>44442</v>
       </c>
       <c r="E23" t="n">
         <v>8</v>
@@ -2016,13 +2016,13 @@
         <v>100</v>
       </c>
       <c r="K23" t="n">
-        <v>14000</v>
+        <v>14500</v>
       </c>
       <c r="L23" t="n">
         <v>15000</v>
       </c>
       <c r="M23" t="n">
-        <v>14500</v>
+        <v>14750</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>483</v>
+        <v>492</v>
       </c>
       <c r="Q23" t="n">
         <v>30</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44441</v>
+        <v>44463</v>
       </c>
       <c r="E24" t="n">
         <v>8</v>
@@ -2076,7 +2076,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -2088,17 +2088,17 @@
         <v>100</v>
       </c>
       <c r="K24" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="L24" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="M24" t="n">
-        <v>13500</v>
+        <v>9500</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
@@ -2107,10 +2107,10 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>450</v>
+        <v>190</v>
       </c>
       <c r="Q24" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R24" t="inlineStr">
         <is>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44399</v>
+        <v>44447</v>
       </c>
       <c r="E27" t="n">
         <v>8</v>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44335</v>
+        <v>44385</v>
       </c>
       <c r="E28" t="n">
         <v>8</v>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44496</v>
+        <v>44441</v>
       </c>
       <c r="E30" t="n">
         <v>8</v>
@@ -2508,7 +2508,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -2517,32 +2517,32 @@
         </is>
       </c>
       <c r="J30" t="n">
-        <v>350</v>
+        <v>100</v>
       </c>
       <c r="K30" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="L30" t="n">
-        <v>7500</v>
+        <v>14000</v>
       </c>
       <c r="M30" t="n">
-        <v>7214</v>
+        <v>13500</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P30" t="n">
-        <v>180</v>
+        <v>450</v>
       </c>
       <c r="Q30" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R30" t="inlineStr">
         <is>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44383</v>
+        <v>44426</v>
       </c>
       <c r="E31" t="n">
         <v>8</v>
@@ -2580,7 +2580,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -2592,17 +2592,17 @@
         <v>50</v>
       </c>
       <c r="K31" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="L31" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="M31" t="n">
-        <v>17400</v>
+        <v>12600</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
@@ -2611,10 +2611,10 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>348</v>
+        <v>315</v>
       </c>
       <c r="Q31" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R31" t="inlineStr">
         <is>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44364</v>
+        <v>44335</v>
       </c>
       <c r="E32" t="n">
         <v>8</v>
@@ -2652,7 +2652,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -2664,17 +2664,17 @@
         <v>100</v>
       </c>
       <c r="K32" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="L32" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="M32" t="n">
-        <v>19500</v>
+        <v>17500</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
@@ -2683,10 +2683,10 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>390</v>
+        <v>583</v>
       </c>
       <c r="Q32" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R32" t="inlineStr">
         <is>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44364</v>
+        <v>44435</v>
       </c>
       <c r="E33" t="n">
         <v>8</v>
@@ -2724,7 +2724,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -2736,17 +2736,17 @@
         <v>100</v>
       </c>
       <c r="K33" t="n">
-        <v>19000</v>
+        <v>14000</v>
       </c>
       <c r="L33" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="M33" t="n">
-        <v>19500</v>
+        <v>14500</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
@@ -2755,10 +2755,10 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>650</v>
+        <v>290</v>
       </c>
       <c r="Q33" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R33" t="inlineStr">
         <is>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44376</v>
+        <v>44383</v>
       </c>
       <c r="E36" t="n">
         <v>8</v>
@@ -2940,7 +2940,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -2949,20 +2949,20 @@
         </is>
       </c>
       <c r="J36" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K36" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="L36" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="M36" t="n">
-        <v>19500</v>
+        <v>17400</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
@@ -2971,10 +2971,10 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>650</v>
+        <v>348</v>
       </c>
       <c r="Q36" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R36" t="inlineStr">
         <is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Alcachofa.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Alcachofa.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44489</v>
+        <v>44441</v>
       </c>
       <c r="E2" t="n">
         <v>8</v>
@@ -492,7 +492,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -504,17 +504,17 @@
         <v>100</v>
       </c>
       <c r="K2" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="L2" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="M2" t="n">
-        <v>9500</v>
+        <v>13500</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -523,10 +523,10 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>190</v>
+        <v>450</v>
       </c>
       <c r="Q2" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R2" t="inlineStr">
         <is>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44489</v>
+        <v>44433</v>
       </c>
       <c r="E3" t="n">
         <v>8</v>
@@ -564,7 +564,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -576,17 +576,17 @@
         <v>100</v>
       </c>
       <c r="K3" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="L3" t="n">
-        <v>8500</v>
+        <v>15000</v>
       </c>
       <c r="M3" t="n">
-        <v>8250</v>
+        <v>14500</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -595,10 +595,10 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>275</v>
+        <v>290</v>
       </c>
       <c r="Q3" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R3" t="inlineStr">
         <is>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44496</v>
+        <v>44447</v>
       </c>
       <c r="E4" t="n">
         <v>8</v>
@@ -636,7 +636,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -645,32 +645,32 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>350</v>
+        <v>100</v>
       </c>
       <c r="K4" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="L4" t="n">
-        <v>7500</v>
+        <v>15000</v>
       </c>
       <c r="M4" t="n">
-        <v>7214</v>
+        <v>14500</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P4" t="n">
-        <v>180</v>
+        <v>483</v>
       </c>
       <c r="Q4" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R4" t="inlineStr">
         <is>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44364</v>
+        <v>44463</v>
       </c>
       <c r="E5" t="n">
         <v>8</v>
@@ -720,13 +720,13 @@
         <v>100</v>
       </c>
       <c r="K5" t="n">
-        <v>19000</v>
+        <v>9000</v>
       </c>
       <c r="L5" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="M5" t="n">
-        <v>19500</v>
+        <v>9500</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>390</v>
+        <v>190</v>
       </c>
       <c r="Q5" t="n">
         <v>50</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44364</v>
+        <v>44342</v>
       </c>
       <c r="E6" t="n">
         <v>8</v>
@@ -792,13 +792,13 @@
         <v>100</v>
       </c>
       <c r="K6" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="L6" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="M6" t="n">
-        <v>19500</v>
+        <v>17500</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>650</v>
+        <v>583</v>
       </c>
       <c r="Q6" t="n">
         <v>30</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44376</v>
+        <v>44342</v>
       </c>
       <c r="E7" t="n">
         <v>8</v>
@@ -852,7 +852,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -864,17 +864,17 @@
         <v>100</v>
       </c>
       <c r="K7" t="n">
-        <v>19000</v>
+        <v>15000</v>
       </c>
       <c r="L7" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="M7" t="n">
-        <v>19500</v>
+        <v>15500</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -883,10 +883,10 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>650</v>
+        <v>388</v>
       </c>
       <c r="Q7" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R7" t="inlineStr">
         <is>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44454</v>
+        <v>44399</v>
       </c>
       <c r="E8" t="n">
         <v>8</v>
@@ -924,7 +924,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -936,29 +936,29 @@
         <v>100</v>
       </c>
       <c r="K8" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L8" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M8" t="n">
-        <v>13500</v>
+        <v>14500</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P8" t="n">
-        <v>338</v>
+        <v>483</v>
       </c>
       <c r="Q8" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R8" t="inlineStr">
         <is>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44497</v>
+        <v>44420</v>
       </c>
       <c r="E9" t="n">
         <v>8</v>
@@ -996,7 +996,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1005,20 +1005,20 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>180</v>
+        <v>100</v>
       </c>
       <c r="K9" t="n">
-        <v>6500</v>
+        <v>14000</v>
       </c>
       <c r="L9" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="M9" t="n">
-        <v>6778</v>
+        <v>14500</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
@@ -1027,10 +1027,10 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>136</v>
+        <v>483</v>
       </c>
       <c r="Q9" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R9" t="inlineStr">
         <is>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44497</v>
+        <v>44484</v>
       </c>
       <c r="E10" t="n">
         <v>8</v>
@@ -1068,7 +1068,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1077,20 +1077,20 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="K10" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L10" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="M10" t="n">
-        <v>7250</v>
+        <v>8455</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
@@ -1099,10 +1099,10 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>242</v>
+        <v>169</v>
       </c>
       <c r="Q10" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R10" t="inlineStr">
         <is>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44497</v>
+        <v>44484</v>
       </c>
       <c r="E11" t="n">
         <v>8</v>
@@ -1140,7 +1140,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1149,32 +1149,32 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>130</v>
+        <v>220</v>
       </c>
       <c r="K11" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="L11" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="M11" t="n">
-        <v>6192</v>
+        <v>7727</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P11" t="n">
-        <v>155</v>
+        <v>258</v>
       </c>
       <c r="Q11" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R11" t="inlineStr">
         <is>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44433</v>
+        <v>44385</v>
       </c>
       <c r="E12" t="n">
         <v>8</v>
@@ -1212,7 +1212,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1224,17 +1224,17 @@
         <v>100</v>
       </c>
       <c r="K12" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="L12" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M12" t="n">
-        <v>14500</v>
+        <v>17500</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
@@ -1243,10 +1243,10 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>290</v>
+        <v>583</v>
       </c>
       <c r="Q12" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R12" t="inlineStr">
         <is>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44399</v>
+        <v>44397</v>
       </c>
       <c r="E15" t="n">
         <v>8</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44397</v>
+        <v>44483</v>
       </c>
       <c r="E16" t="n">
         <v>8</v>
@@ -1509,16 +1509,16 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>100</v>
+        <v>450</v>
       </c>
       <c r="K16" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="L16" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="M16" t="n">
-        <v>14500</v>
+        <v>11444</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>483</v>
+        <v>381</v>
       </c>
       <c r="Q16" t="n">
         <v>30</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44484</v>
+        <v>44483</v>
       </c>
       <c r="E17" t="n">
         <v>8</v>
@@ -1572,7 +1572,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1587,26 +1587,26 @@
         <v>8000</v>
       </c>
       <c r="L17" t="n">
-        <v>9000</v>
+        <v>8500</v>
       </c>
       <c r="M17" t="n">
-        <v>8455</v>
+        <v>8273</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P17" t="n">
-        <v>169</v>
+        <v>207</v>
       </c>
       <c r="Q17" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R17" t="inlineStr">
         <is>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44484</v>
+        <v>44426</v>
       </c>
       <c r="E18" t="n">
         <v>8</v>
@@ -1644,7 +1644,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1653,20 +1653,20 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>220</v>
+        <v>50</v>
       </c>
       <c r="K18" t="n">
-        <v>7500</v>
+        <v>12000</v>
       </c>
       <c r="L18" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="M18" t="n">
-        <v>7727</v>
+        <v>12600</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
@@ -1675,10 +1675,10 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>258</v>
+        <v>315</v>
       </c>
       <c r="Q18" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R18" t="inlineStr">
         <is>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44420</v>
+        <v>44364</v>
       </c>
       <c r="E19" t="n">
         <v>8</v>
@@ -1716,7 +1716,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1728,17 +1728,17 @@
         <v>100</v>
       </c>
       <c r="K19" t="n">
-        <v>14000</v>
+        <v>19000</v>
       </c>
       <c r="L19" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="M19" t="n">
-        <v>14500</v>
+        <v>19500</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
@@ -1747,10 +1747,10 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>483</v>
+        <v>390</v>
       </c>
       <c r="Q19" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R19" t="inlineStr">
         <is>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44421</v>
+        <v>44364</v>
       </c>
       <c r="E20" t="n">
         <v>8</v>
@@ -1800,13 +1800,13 @@
         <v>100</v>
       </c>
       <c r="K20" t="n">
-        <v>14000</v>
+        <v>19000</v>
       </c>
       <c r="L20" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="M20" t="n">
-        <v>14500</v>
+        <v>19500</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>483</v>
+        <v>650</v>
       </c>
       <c r="Q20" t="n">
         <v>30</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44483</v>
+        <v>44358</v>
       </c>
       <c r="E21" t="n">
         <v>8</v>
@@ -1860,7 +1860,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1869,20 +1869,20 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>450</v>
+        <v>100</v>
       </c>
       <c r="K21" t="n">
-        <v>11000</v>
+        <v>18000</v>
       </c>
       <c r="L21" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="M21" t="n">
-        <v>11444</v>
+        <v>19000</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
@@ -1891,10 +1891,10 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="Q21" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R21" t="inlineStr">
         <is>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44483</v>
+        <v>44358</v>
       </c>
       <c r="E22" t="n">
         <v>8</v>
@@ -1932,7 +1932,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1941,32 +1941,32 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>220</v>
+        <v>100</v>
       </c>
       <c r="K22" t="n">
-        <v>8000</v>
+        <v>18000</v>
       </c>
       <c r="L22" t="n">
-        <v>8500</v>
+        <v>20000</v>
       </c>
       <c r="M22" t="n">
-        <v>8273</v>
+        <v>19000</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P22" t="n">
-        <v>207</v>
+        <v>633</v>
       </c>
       <c r="Q22" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R22" t="inlineStr">
         <is>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44442</v>
+        <v>44383</v>
       </c>
       <c r="E23" t="n">
         <v>8</v>
@@ -2004,7 +2004,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -2013,20 +2013,20 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K23" t="n">
-        <v>14500</v>
+        <v>17000</v>
       </c>
       <c r="L23" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M23" t="n">
-        <v>14750</v>
+        <v>17400</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
@@ -2035,10 +2035,10 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>492</v>
+        <v>348</v>
       </c>
       <c r="Q23" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R23" t="inlineStr">
         <is>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44463</v>
+        <v>44435</v>
       </c>
       <c r="E24" t="n">
         <v>8</v>
@@ -2088,13 +2088,13 @@
         <v>100</v>
       </c>
       <c r="K24" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="L24" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="M24" t="n">
-        <v>9500</v>
+        <v>14500</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>190</v>
+        <v>290</v>
       </c>
       <c r="Q24" t="n">
         <v>50</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44342</v>
+        <v>44442</v>
       </c>
       <c r="E25" t="n">
         <v>8</v>
@@ -2160,13 +2160,13 @@
         <v>100</v>
       </c>
       <c r="K25" t="n">
-        <v>17000</v>
+        <v>14500</v>
       </c>
       <c r="L25" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M25" t="n">
-        <v>17500</v>
+        <v>14750</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>583</v>
+        <v>492</v>
       </c>
       <c r="Q25" t="n">
         <v>30</v>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44342</v>
+        <v>44496</v>
       </c>
       <c r="E26" t="n">
         <v>8</v>
@@ -2229,16 +2229,16 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>100</v>
+        <v>350</v>
       </c>
       <c r="K26" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="L26" t="n">
-        <v>16000</v>
+        <v>7500</v>
       </c>
       <c r="M26" t="n">
-        <v>15500</v>
+        <v>7214</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
@@ -2247,11 +2247,11 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P26" t="n">
-        <v>388</v>
+        <v>180</v>
       </c>
       <c r="Q26" t="n">
         <v>40</v>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44447</v>
+        <v>44428</v>
       </c>
       <c r="E27" t="n">
         <v>8</v>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44385</v>
+        <v>44454</v>
       </c>
       <c r="E28" t="n">
         <v>8</v>
@@ -2364,7 +2364,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -2376,29 +2376,29 @@
         <v>100</v>
       </c>
       <c r="K28" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="L28" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="M28" t="n">
-        <v>17500</v>
+        <v>13500</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P28" t="n">
-        <v>583</v>
+        <v>338</v>
       </c>
       <c r="Q28" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R28" t="inlineStr">
         <is>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44428</v>
+        <v>44376</v>
       </c>
       <c r="E29" t="n">
         <v>8</v>
@@ -2448,13 +2448,13 @@
         <v>100</v>
       </c>
       <c r="K29" t="n">
-        <v>14000</v>
+        <v>19000</v>
       </c>
       <c r="L29" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="M29" t="n">
-        <v>14500</v>
+        <v>19500</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
@@ -2467,7 +2467,7 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>483</v>
+        <v>650</v>
       </c>
       <c r="Q29" t="n">
         <v>30</v>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44441</v>
+        <v>44335</v>
       </c>
       <c r="E30" t="n">
         <v>8</v>
@@ -2520,13 +2520,13 @@
         <v>100</v>
       </c>
       <c r="K30" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="L30" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="M30" t="n">
-        <v>13500</v>
+        <v>17500</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
@@ -2539,7 +2539,7 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>450</v>
+        <v>583</v>
       </c>
       <c r="Q30" t="n">
         <v>30</v>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44426</v>
+        <v>44497</v>
       </c>
       <c r="E31" t="n">
         <v>8</v>
@@ -2580,7 +2580,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -2589,32 +2589,32 @@
         </is>
       </c>
       <c r="J31" t="n">
+        <v>180</v>
+      </c>
+      <c r="K31" t="n">
+        <v>6500</v>
+      </c>
+      <c r="L31" t="n">
+        <v>7000</v>
+      </c>
+      <c r="M31" t="n">
+        <v>6778</v>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>$/caja 50 unidades</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P31" t="n">
+        <v>136</v>
+      </c>
+      <c r="Q31" t="n">
         <v>50</v>
-      </c>
-      <c r="K31" t="n">
-        <v>12000</v>
-      </c>
-      <c r="L31" t="n">
-        <v>13000</v>
-      </c>
-      <c r="M31" t="n">
-        <v>12600</v>
-      </c>
-      <c r="N31" t="inlineStr">
-        <is>
-          <t>$/caja 40 unidades</t>
-        </is>
-      </c>
-      <c r="O31" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="P31" t="n">
-        <v>315</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>40</v>
       </c>
       <c r="R31" t="inlineStr">
         <is>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44335</v>
+        <v>44497</v>
       </c>
       <c r="E32" t="n">
         <v>8</v>
@@ -2661,16 +2661,16 @@
         </is>
       </c>
       <c r="J32" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K32" t="n">
-        <v>17000</v>
+        <v>7000</v>
       </c>
       <c r="L32" t="n">
-        <v>18000</v>
+        <v>7500</v>
       </c>
       <c r="M32" t="n">
-        <v>17500</v>
+        <v>7250</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
@@ -2683,7 +2683,7 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>583</v>
+        <v>242</v>
       </c>
       <c r="Q32" t="n">
         <v>30</v>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44435</v>
+        <v>44497</v>
       </c>
       <c r="E33" t="n">
         <v>8</v>
@@ -2724,7 +2724,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -2733,32 +2733,32 @@
         </is>
       </c>
       <c r="J33" t="n">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="K33" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="L33" t="n">
-        <v>15000</v>
+        <v>6500</v>
       </c>
       <c r="M33" t="n">
-        <v>14500</v>
+        <v>6192</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P33" t="n">
-        <v>290</v>
+        <v>155</v>
       </c>
       <c r="Q33" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R33" t="inlineStr">
         <is>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44358</v>
+        <v>44421</v>
       </c>
       <c r="E34" t="n">
         <v>8</v>
@@ -2796,7 +2796,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -2808,17 +2808,17 @@
         <v>100</v>
       </c>
       <c r="K34" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="L34" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="M34" t="n">
-        <v>19000</v>
+        <v>14500</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
@@ -2827,10 +2827,10 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>380</v>
+        <v>483</v>
       </c>
       <c r="Q34" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R34" t="inlineStr">
         <is>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44358</v>
+        <v>44489</v>
       </c>
       <c r="E35" t="n">
         <v>8</v>
@@ -2868,7 +2868,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -2880,17 +2880,17 @@
         <v>100</v>
       </c>
       <c r="K35" t="n">
-        <v>18000</v>
+        <v>9000</v>
       </c>
       <c r="L35" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="M35" t="n">
-        <v>19000</v>
+        <v>9500</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
@@ -2899,10 +2899,10 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>633</v>
+        <v>190</v>
       </c>
       <c r="Q35" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R35" t="inlineStr">
         <is>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44383</v>
+        <v>44489</v>
       </c>
       <c r="E36" t="n">
         <v>8</v>
@@ -2940,7 +2940,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -2949,20 +2949,20 @@
         </is>
       </c>
       <c r="J36" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="K36" t="n">
-        <v>17000</v>
+        <v>8000</v>
       </c>
       <c r="L36" t="n">
-        <v>18000</v>
+        <v>8500</v>
       </c>
       <c r="M36" t="n">
-        <v>17400</v>
+        <v>8250</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
@@ -2971,10 +2971,10 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>348</v>
+        <v>275</v>
       </c>
       <c r="Q36" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R36" t="inlineStr">
         <is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Alcachofa.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Alcachofa.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R36"/>
+  <dimension ref="A1:R37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44350</v>
+        <v>44680</v>
       </c>
       <c r="E13" t="n">
         <v>8</v>
@@ -1284,7 +1284,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1296,17 +1296,17 @@
         <v>50</v>
       </c>
       <c r="K13" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="L13" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="M13" t="n">
-        <v>15600</v>
+        <v>18600</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
@@ -1315,10 +1315,10 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>312</v>
+        <v>620</v>
       </c>
       <c r="Q13" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R13" t="inlineStr">
         <is>
@@ -1356,7 +1356,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1365,20 +1365,20 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K14" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="L14" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="M14" t="n">
-        <v>17500</v>
+        <v>15600</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
@@ -1387,10 +1387,10 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>583</v>
+        <v>312</v>
       </c>
       <c r="Q14" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R14" t="inlineStr">
         <is>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44397</v>
+        <v>44350</v>
       </c>
       <c r="E15" t="n">
         <v>8</v>
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="K15" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="L15" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M15" t="n">
-        <v>14500</v>
+        <v>17500</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>483</v>
+        <v>583</v>
       </c>
       <c r="Q15" t="n">
         <v>30</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44483</v>
+        <v>44397</v>
       </c>
       <c r="E16" t="n">
         <v>8</v>
@@ -1509,16 +1509,16 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>450</v>
+        <v>100</v>
       </c>
       <c r="K16" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="L16" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M16" t="n">
-        <v>11444</v>
+        <v>14500</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>381</v>
+        <v>483</v>
       </c>
       <c r="Q16" t="n">
         <v>30</v>
@@ -1572,7 +1572,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1581,32 +1581,32 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>220</v>
+        <v>450</v>
       </c>
       <c r="K17" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="L17" t="n">
-        <v>8500</v>
+        <v>12000</v>
       </c>
       <c r="M17" t="n">
-        <v>8273</v>
+        <v>11444</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P17" t="n">
-        <v>207</v>
+        <v>381</v>
       </c>
       <c r="Q17" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R17" t="inlineStr">
         <is>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44426</v>
+        <v>44483</v>
       </c>
       <c r="E18" t="n">
         <v>8</v>
@@ -1653,16 +1653,16 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>50</v>
+        <v>220</v>
       </c>
       <c r="K18" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="L18" t="n">
-        <v>13000</v>
+        <v>8500</v>
       </c>
       <c r="M18" t="n">
-        <v>12600</v>
+        <v>8273</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1671,11 +1671,11 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P18" t="n">
-        <v>315</v>
+        <v>207</v>
       </c>
       <c r="Q18" t="n">
         <v>40</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44364</v>
+        <v>44426</v>
       </c>
       <c r="E19" t="n">
         <v>8</v>
@@ -1716,7 +1716,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1725,20 +1725,20 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K19" t="n">
-        <v>19000</v>
+        <v>12000</v>
       </c>
       <c r="L19" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="M19" t="n">
-        <v>19500</v>
+        <v>12600</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
@@ -1747,10 +1747,10 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>390</v>
+        <v>315</v>
       </c>
       <c r="Q19" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R19" t="inlineStr">
         <is>
@@ -1788,7 +1788,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1810,7 +1810,7 @@
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
@@ -1819,10 +1819,10 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>650</v>
+        <v>390</v>
       </c>
       <c r="Q20" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R20" t="inlineStr">
         <is>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44358</v>
+        <v>44364</v>
       </c>
       <c r="E21" t="n">
         <v>8</v>
@@ -1860,7 +1860,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1872,17 +1872,17 @@
         <v>100</v>
       </c>
       <c r="K21" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="L21" t="n">
         <v>20000</v>
       </c>
       <c r="M21" t="n">
-        <v>19000</v>
+        <v>19500</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
@@ -1891,10 +1891,10 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>380</v>
+        <v>650</v>
       </c>
       <c r="Q21" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R21" t="inlineStr">
         <is>
@@ -1932,7 +1932,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1954,7 +1954,7 @@
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
@@ -1963,10 +1963,10 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>633</v>
+        <v>380</v>
       </c>
       <c r="Q22" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R22" t="inlineStr">
         <is>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44383</v>
+        <v>44358</v>
       </c>
       <c r="E23" t="n">
         <v>8</v>
@@ -2004,7 +2004,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -2013,20 +2013,20 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="K23" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="L23" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="M23" t="n">
-        <v>17400</v>
+        <v>19000</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
@@ -2035,10 +2035,10 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>348</v>
+        <v>633</v>
       </c>
       <c r="Q23" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R23" t="inlineStr">
         <is>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44435</v>
+        <v>44383</v>
       </c>
       <c r="E24" t="n">
         <v>8</v>
@@ -2085,16 +2085,16 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K24" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="L24" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M24" t="n">
-        <v>14500</v>
+        <v>17400</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>290</v>
+        <v>348</v>
       </c>
       <c r="Q24" t="n">
         <v>50</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44442</v>
+        <v>44435</v>
       </c>
       <c r="E25" t="n">
         <v>8</v>
@@ -2148,7 +2148,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -2160,17 +2160,17 @@
         <v>100</v>
       </c>
       <c r="K25" t="n">
-        <v>14500</v>
+        <v>14000</v>
       </c>
       <c r="L25" t="n">
         <v>15000</v>
       </c>
       <c r="M25" t="n">
-        <v>14750</v>
+        <v>14500</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
@@ -2179,10 +2179,10 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>492</v>
+        <v>290</v>
       </c>
       <c r="Q25" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R25" t="inlineStr">
         <is>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44496</v>
+        <v>44442</v>
       </c>
       <c r="E26" t="n">
         <v>8</v>
@@ -2220,7 +2220,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -2229,32 +2229,32 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>350</v>
+        <v>100</v>
       </c>
       <c r="K26" t="n">
-        <v>7000</v>
+        <v>14500</v>
       </c>
       <c r="L26" t="n">
-        <v>7500</v>
+        <v>15000</v>
       </c>
       <c r="M26" t="n">
-        <v>7214</v>
+        <v>14750</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P26" t="n">
-        <v>180</v>
+        <v>492</v>
       </c>
       <c r="Q26" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R26" t="inlineStr">
         <is>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44428</v>
+        <v>44496</v>
       </c>
       <c r="E27" t="n">
         <v>8</v>
@@ -2292,7 +2292,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -2301,32 +2301,32 @@
         </is>
       </c>
       <c r="J27" t="n">
-        <v>100</v>
+        <v>350</v>
       </c>
       <c r="K27" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="L27" t="n">
-        <v>15000</v>
+        <v>7500</v>
       </c>
       <c r="M27" t="n">
-        <v>14500</v>
+        <v>7214</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P27" t="n">
-        <v>483</v>
+        <v>180</v>
       </c>
       <c r="Q27" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R27" t="inlineStr">
         <is>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44454</v>
+        <v>44428</v>
       </c>
       <c r="E28" t="n">
         <v>8</v>
@@ -2364,7 +2364,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -2376,29 +2376,29 @@
         <v>100</v>
       </c>
       <c r="K28" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L28" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M28" t="n">
-        <v>13500</v>
+        <v>14500</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P28" t="n">
-        <v>338</v>
+        <v>483</v>
       </c>
       <c r="Q28" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R28" t="inlineStr">
         <is>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44376</v>
+        <v>44454</v>
       </c>
       <c r="E29" t="n">
         <v>8</v>
@@ -2436,7 +2436,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -2448,29 +2448,29 @@
         <v>100</v>
       </c>
       <c r="K29" t="n">
-        <v>19000</v>
+        <v>13000</v>
       </c>
       <c r="L29" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="M29" t="n">
-        <v>19500</v>
+        <v>13500</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P29" t="n">
-        <v>650</v>
+        <v>338</v>
       </c>
       <c r="Q29" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R29" t="inlineStr">
         <is>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44335</v>
+        <v>44376</v>
       </c>
       <c r="E30" t="n">
         <v>8</v>
@@ -2520,13 +2520,13 @@
         <v>100</v>
       </c>
       <c r="K30" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="L30" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="M30" t="n">
-        <v>17500</v>
+        <v>19500</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
@@ -2539,7 +2539,7 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>583</v>
+        <v>650</v>
       </c>
       <c r="Q30" t="n">
         <v>30</v>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44497</v>
+        <v>44335</v>
       </c>
       <c r="E31" t="n">
         <v>8</v>
@@ -2580,7 +2580,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -2589,20 +2589,20 @@
         </is>
       </c>
       <c r="J31" t="n">
-        <v>180</v>
+        <v>100</v>
       </c>
       <c r="K31" t="n">
-        <v>6500</v>
+        <v>17000</v>
       </c>
       <c r="L31" t="n">
-        <v>7000</v>
+        <v>18000</v>
       </c>
       <c r="M31" t="n">
-        <v>6778</v>
+        <v>17500</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
@@ -2611,10 +2611,10 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>136</v>
+        <v>583</v>
       </c>
       <c r="Q31" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R31" t="inlineStr">
         <is>
@@ -2652,7 +2652,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -2661,20 +2661,20 @@
         </is>
       </c>
       <c r="J32" t="n">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="K32" t="n">
+        <v>6500</v>
+      </c>
+      <c r="L32" t="n">
         <v>7000</v>
       </c>
-      <c r="L32" t="n">
-        <v>7500</v>
-      </c>
       <c r="M32" t="n">
-        <v>7250</v>
+        <v>6778</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
@@ -2683,10 +2683,10 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>242</v>
+        <v>136</v>
       </c>
       <c r="Q32" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R32" t="inlineStr">
         <is>
@@ -2724,7 +2724,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -2733,32 +2733,32 @@
         </is>
       </c>
       <c r="J33" t="n">
-        <v>130</v>
+        <v>200</v>
       </c>
       <c r="K33" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L33" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="M33" t="n">
-        <v>6192</v>
+        <v>7250</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P33" t="n">
-        <v>155</v>
+        <v>242</v>
       </c>
       <c r="Q33" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R33" t="inlineStr">
         <is>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44421</v>
+        <v>44497</v>
       </c>
       <c r="E34" t="n">
         <v>8</v>
@@ -2796,7 +2796,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -2805,32 +2805,32 @@
         </is>
       </c>
       <c r="J34" t="n">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="K34" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="L34" t="n">
-        <v>15000</v>
+        <v>6500</v>
       </c>
       <c r="M34" t="n">
-        <v>14500</v>
+        <v>6192</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P34" t="n">
-        <v>483</v>
+        <v>155</v>
       </c>
       <c r="Q34" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R34" t="inlineStr">
         <is>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44489</v>
+        <v>44421</v>
       </c>
       <c r="E35" t="n">
         <v>8</v>
@@ -2868,7 +2868,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -2880,17 +2880,17 @@
         <v>100</v>
       </c>
       <c r="K35" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="L35" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="M35" t="n">
-        <v>9500</v>
+        <v>14500</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
@@ -2899,10 +2899,10 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>190</v>
+        <v>483</v>
       </c>
       <c r="Q35" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R35" t="inlineStr">
         <is>
@@ -2940,7 +2940,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -2952,31 +2952,103 @@
         <v>100</v>
       </c>
       <c r="K36" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L36" t="n">
+        <v>10000</v>
+      </c>
+      <c r="M36" t="n">
+        <v>9500</v>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>$/caja 50 unidades</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P36" t="n">
+        <v>190</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>50</v>
+      </c>
+      <c r="R36" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>11</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D37" s="2" t="n">
+        <v>44489</v>
+      </c>
+      <c r="E37" t="n">
+        <v>8</v>
+      </c>
+      <c r="F37" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Española</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J37" t="n">
+        <v>100</v>
+      </c>
+      <c r="K37" t="n">
         <v>8000</v>
       </c>
-      <c r="L36" t="n">
+      <c r="L37" t="n">
         <v>8500</v>
       </c>
-      <c r="M36" t="n">
+      <c r="M37" t="n">
         <v>8250</v>
       </c>
-      <c r="N36" t="inlineStr">
+      <c r="N37" t="inlineStr">
         <is>
           <t>$/caja 30 unidades</t>
         </is>
       </c>
-      <c r="O36" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="P36" t="n">
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P37" t="n">
         <v>275</v>
       </c>
-      <c r="Q36" t="n">
+      <c r="Q37" t="n">
         <v>30</v>
       </c>
-      <c r="R36" t="inlineStr">
+      <c r="R37" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Alcachofa.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Alcachofa.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44441</v>
+        <v>44421</v>
       </c>
       <c r="E2" t="n">
         <v>8</v>
@@ -504,13 +504,13 @@
         <v>100</v>
       </c>
       <c r="K2" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L2" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M2" t="n">
-        <v>13500</v>
+        <v>14500</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>450</v>
+        <v>483</v>
       </c>
       <c r="Q2" t="n">
         <v>30</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44433</v>
+        <v>44335</v>
       </c>
       <c r="E3" t="n">
         <v>8</v>
@@ -564,7 +564,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -576,17 +576,17 @@
         <v>100</v>
       </c>
       <c r="K3" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="L3" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M3" t="n">
-        <v>14500</v>
+        <v>17500</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -595,10 +595,10 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>290</v>
+        <v>583</v>
       </c>
       <c r="Q3" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R3" t="inlineStr">
         <is>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44447</v>
+        <v>44497</v>
       </c>
       <c r="E4" t="n">
         <v>8</v>
@@ -636,7 +636,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -645,20 +645,20 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="K4" t="n">
-        <v>14000</v>
+        <v>6500</v>
       </c>
       <c r="L4" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="M4" t="n">
-        <v>14500</v>
+        <v>6778</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -667,10 +667,10 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>483</v>
+        <v>136</v>
       </c>
       <c r="Q4" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R4" t="inlineStr">
         <is>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44463</v>
+        <v>44497</v>
       </c>
       <c r="E5" t="n">
         <v>8</v>
@@ -708,7 +708,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -717,20 +717,20 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K5" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="L5" t="n">
-        <v>10000</v>
+        <v>7500</v>
       </c>
       <c r="M5" t="n">
-        <v>9500</v>
+        <v>7250</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -739,10 +739,10 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>190</v>
+        <v>242</v>
       </c>
       <c r="Q5" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R5" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44342</v>
+        <v>44497</v>
       </c>
       <c r="E6" t="n">
         <v>8</v>
@@ -780,7 +780,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -789,32 +789,32 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="K6" t="n">
-        <v>17000</v>
+        <v>6000</v>
       </c>
       <c r="L6" t="n">
-        <v>18000</v>
+        <v>6500</v>
       </c>
       <c r="M6" t="n">
-        <v>17500</v>
+        <v>6192</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P6" t="n">
-        <v>583</v>
+        <v>155</v>
       </c>
       <c r="Q6" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R6" t="inlineStr">
         <is>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44342</v>
+        <v>44428</v>
       </c>
       <c r="E7" t="n">
         <v>8</v>
@@ -852,7 +852,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -864,17 +864,17 @@
         <v>100</v>
       </c>
       <c r="K7" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L7" t="n">
         <v>15000</v>
       </c>
-      <c r="L7" t="n">
-        <v>16000</v>
-      </c>
       <c r="M7" t="n">
-        <v>15500</v>
+        <v>14500</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -883,10 +883,10 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>388</v>
+        <v>483</v>
       </c>
       <c r="Q7" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R7" t="inlineStr">
         <is>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44399</v>
+        <v>44442</v>
       </c>
       <c r="E8" t="n">
         <v>8</v>
@@ -936,13 +936,13 @@
         <v>100</v>
       </c>
       <c r="K8" t="n">
-        <v>14000</v>
+        <v>14500</v>
       </c>
       <c r="L8" t="n">
         <v>15000</v>
       </c>
       <c r="M8" t="n">
-        <v>14500</v>
+        <v>14750</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>483</v>
+        <v>492</v>
       </c>
       <c r="Q8" t="n">
         <v>30</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44420</v>
+        <v>44342</v>
       </c>
       <c r="E9" t="n">
         <v>8</v>
@@ -1008,13 +1008,13 @@
         <v>100</v>
       </c>
       <c r="K9" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="L9" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M9" t="n">
-        <v>14500</v>
+        <v>17500</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>483</v>
+        <v>583</v>
       </c>
       <c r="Q9" t="n">
         <v>30</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44484</v>
+        <v>44342</v>
       </c>
       <c r="E10" t="n">
         <v>8</v>
@@ -1068,7 +1068,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1077,20 +1077,20 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>220</v>
+        <v>100</v>
       </c>
       <c r="K10" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="L10" t="n">
-        <v>9000</v>
+        <v>16000</v>
       </c>
       <c r="M10" t="n">
-        <v>8455</v>
+        <v>15500</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
@@ -1099,10 +1099,10 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>169</v>
+        <v>388</v>
       </c>
       <c r="Q10" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R10" t="inlineStr">
         <is>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44484</v>
+        <v>44350</v>
       </c>
       <c r="E11" t="n">
         <v>8</v>
@@ -1140,7 +1140,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1149,20 +1149,20 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>220</v>
+        <v>50</v>
       </c>
       <c r="K11" t="n">
-        <v>7500</v>
+        <v>15000</v>
       </c>
       <c r="L11" t="n">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="M11" t="n">
-        <v>7727</v>
+        <v>15600</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
@@ -1171,10 +1171,10 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>258</v>
+        <v>312</v>
       </c>
       <c r="Q11" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R11" t="inlineStr">
         <is>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44385</v>
+        <v>44350</v>
       </c>
       <c r="E12" t="n">
         <v>8</v>
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="K12" t="n">
         <v>17000</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44680</v>
+        <v>44435</v>
       </c>
       <c r="E13" t="n">
         <v>8</v>
@@ -1284,7 +1284,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1293,32 +1293,32 @@
         </is>
       </c>
       <c r="J13" t="n">
+        <v>100</v>
+      </c>
+      <c r="K13" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L13" t="n">
+        <v>15000</v>
+      </c>
+      <c r="M13" t="n">
+        <v>14500</v>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>$/caja 50 unidades</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P13" t="n">
+        <v>290</v>
+      </c>
+      <c r="Q13" t="n">
         <v>50</v>
-      </c>
-      <c r="K13" t="n">
-        <v>18000</v>
-      </c>
-      <c r="L13" t="n">
-        <v>19000</v>
-      </c>
-      <c r="M13" t="n">
-        <v>18600</v>
-      </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>$/caja 30 unidades</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="P13" t="n">
-        <v>620</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>30</v>
       </c>
       <c r="R13" t="inlineStr">
         <is>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44350</v>
+        <v>44484</v>
       </c>
       <c r="E14" t="n">
         <v>8</v>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>50</v>
+        <v>220</v>
       </c>
       <c r="K14" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="L14" t="n">
-        <v>16000</v>
+        <v>9000</v>
       </c>
       <c r="M14" t="n">
-        <v>15600</v>
+        <v>8455</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>312</v>
+        <v>169</v>
       </c>
       <c r="Q14" t="n">
         <v>50</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44350</v>
+        <v>44484</v>
       </c>
       <c r="E15" t="n">
         <v>8</v>
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>40</v>
+        <v>220</v>
       </c>
       <c r="K15" t="n">
-        <v>17000</v>
+        <v>7500</v>
       </c>
       <c r="L15" t="n">
-        <v>18000</v>
+        <v>8000</v>
       </c>
       <c r="M15" t="n">
-        <v>17500</v>
+        <v>7727</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>583</v>
+        <v>258</v>
       </c>
       <c r="Q15" t="n">
         <v>30</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44397</v>
+        <v>44463</v>
       </c>
       <c r="E16" t="n">
         <v>8</v>
@@ -1500,7 +1500,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1512,17 +1512,17 @@
         <v>100</v>
       </c>
       <c r="K16" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="L16" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="M16" t="n">
-        <v>14500</v>
+        <v>9500</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
@@ -1531,10 +1531,10 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>483</v>
+        <v>190</v>
       </c>
       <c r="Q16" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R16" t="inlineStr">
         <is>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44483</v>
+        <v>44680</v>
       </c>
       <c r="E17" t="n">
         <v>8</v>
@@ -1581,16 +1581,16 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>450</v>
+        <v>50</v>
       </c>
       <c r="K17" t="n">
-        <v>11000</v>
+        <v>18000</v>
       </c>
       <c r="L17" t="n">
-        <v>12000</v>
+        <v>19000</v>
       </c>
       <c r="M17" t="n">
-        <v>11444</v>
+        <v>18600</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>381</v>
+        <v>620</v>
       </c>
       <c r="Q17" t="n">
         <v>30</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44483</v>
+        <v>44376</v>
       </c>
       <c r="E18" t="n">
         <v>8</v>
@@ -1644,7 +1644,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1653,32 +1653,32 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>220</v>
+        <v>100</v>
       </c>
       <c r="K18" t="n">
-        <v>8000</v>
+        <v>19000</v>
       </c>
       <c r="L18" t="n">
-        <v>8500</v>
+        <v>20000</v>
       </c>
       <c r="M18" t="n">
-        <v>8273</v>
+        <v>19500</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P18" t="n">
-        <v>207</v>
+        <v>650</v>
       </c>
       <c r="Q18" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R18" t="inlineStr">
         <is>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44426</v>
+        <v>44483</v>
       </c>
       <c r="E19" t="n">
         <v>8</v>
@@ -1716,7 +1716,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1725,20 +1725,20 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>50</v>
+        <v>450</v>
       </c>
       <c r="K19" t="n">
+        <v>11000</v>
+      </c>
+      <c r="L19" t="n">
         <v>12000</v>
       </c>
-      <c r="L19" t="n">
-        <v>13000</v>
-      </c>
       <c r="M19" t="n">
-        <v>12600</v>
+        <v>11444</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
@@ -1747,10 +1747,10 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>315</v>
+        <v>381</v>
       </c>
       <c r="Q19" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R19" t="inlineStr">
         <is>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44364</v>
+        <v>44483</v>
       </c>
       <c r="E20" t="n">
         <v>8</v>
@@ -1788,7 +1788,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1797,32 +1797,32 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>100</v>
+        <v>220</v>
       </c>
       <c r="K20" t="n">
-        <v>19000</v>
+        <v>8000</v>
       </c>
       <c r="L20" t="n">
-        <v>20000</v>
+        <v>8500</v>
       </c>
       <c r="M20" t="n">
-        <v>19500</v>
+        <v>8273</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P20" t="n">
-        <v>390</v>
+        <v>207</v>
       </c>
       <c r="Q20" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R20" t="inlineStr">
         <is>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44364</v>
+        <v>44420</v>
       </c>
       <c r="E21" t="n">
         <v>8</v>
@@ -1872,13 +1872,13 @@
         <v>100</v>
       </c>
       <c r="K21" t="n">
-        <v>19000</v>
+        <v>14000</v>
       </c>
       <c r="L21" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="M21" t="n">
-        <v>19500</v>
+        <v>14500</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1891,7 +1891,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>650</v>
+        <v>483</v>
       </c>
       <c r="Q21" t="n">
         <v>30</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44358</v>
+        <v>44397</v>
       </c>
       <c r="E22" t="n">
         <v>8</v>
@@ -1932,7 +1932,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1944,17 +1944,17 @@
         <v>100</v>
       </c>
       <c r="K22" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="L22" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="M22" t="n">
-        <v>19000</v>
+        <v>14500</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
@@ -1963,10 +1963,10 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>380</v>
+        <v>483</v>
       </c>
       <c r="Q22" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R22" t="inlineStr">
         <is>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44358</v>
+        <v>44385</v>
       </c>
       <c r="E23" t="n">
         <v>8</v>
@@ -2016,13 +2016,13 @@
         <v>100</v>
       </c>
       <c r="K23" t="n">
+        <v>17000</v>
+      </c>
+      <c r="L23" t="n">
         <v>18000</v>
       </c>
-      <c r="L23" t="n">
-        <v>20000</v>
-      </c>
       <c r="M23" t="n">
-        <v>19000</v>
+        <v>17500</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>633</v>
+        <v>583</v>
       </c>
       <c r="Q23" t="n">
         <v>30</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44383</v>
+        <v>44426</v>
       </c>
       <c r="E24" t="n">
         <v>8</v>
@@ -2076,7 +2076,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -2088,17 +2088,17 @@
         <v>50</v>
       </c>
       <c r="K24" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="L24" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="M24" t="n">
-        <v>17400</v>
+        <v>12600</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
@@ -2107,10 +2107,10 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>348</v>
+        <v>315</v>
       </c>
       <c r="Q24" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R24" t="inlineStr">
         <is>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44435</v>
+        <v>44447</v>
       </c>
       <c r="E25" t="n">
         <v>8</v>
@@ -2148,7 +2148,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -2170,7 +2170,7 @@
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
@@ -2179,10 +2179,10 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>290</v>
+        <v>483</v>
       </c>
       <c r="Q25" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R25" t="inlineStr">
         <is>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44442</v>
+        <v>44364</v>
       </c>
       <c r="E26" t="n">
         <v>8</v>
@@ -2220,7 +2220,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -2232,17 +2232,17 @@
         <v>100</v>
       </c>
       <c r="K26" t="n">
-        <v>14500</v>
+        <v>19000</v>
       </c>
       <c r="L26" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="M26" t="n">
-        <v>14750</v>
+        <v>19500</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
@@ -2251,10 +2251,10 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>492</v>
+        <v>390</v>
       </c>
       <c r="Q26" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R26" t="inlineStr">
         <is>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44496</v>
+        <v>44364</v>
       </c>
       <c r="E27" t="n">
         <v>8</v>
@@ -2292,7 +2292,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -2301,32 +2301,32 @@
         </is>
       </c>
       <c r="J27" t="n">
-        <v>350</v>
+        <v>100</v>
       </c>
       <c r="K27" t="n">
-        <v>7000</v>
+        <v>19000</v>
       </c>
       <c r="L27" t="n">
-        <v>7500</v>
+        <v>20000</v>
       </c>
       <c r="M27" t="n">
-        <v>7214</v>
+        <v>19500</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P27" t="n">
-        <v>180</v>
+        <v>650</v>
       </c>
       <c r="Q27" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R27" t="inlineStr">
         <is>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44428</v>
+        <v>44399</v>
       </c>
       <c r="E28" t="n">
         <v>8</v>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44454</v>
+        <v>44433</v>
       </c>
       <c r="E29" t="n">
         <v>8</v>
@@ -2436,7 +2436,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -2448,29 +2448,29 @@
         <v>100</v>
       </c>
       <c r="K29" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L29" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M29" t="n">
-        <v>13500</v>
+        <v>14500</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P29" t="n">
-        <v>338</v>
+        <v>290</v>
       </c>
       <c r="Q29" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R29" t="inlineStr">
         <is>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44376</v>
+        <v>44383</v>
       </c>
       <c r="E30" t="n">
         <v>8</v>
@@ -2508,7 +2508,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -2517,20 +2517,20 @@
         </is>
       </c>
       <c r="J30" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K30" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="L30" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="M30" t="n">
-        <v>19500</v>
+        <v>17400</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
@@ -2539,10 +2539,10 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>650</v>
+        <v>348</v>
       </c>
       <c r="Q30" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R30" t="inlineStr">
         <is>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44335</v>
+        <v>44496</v>
       </c>
       <c r="E31" t="n">
         <v>8</v>
@@ -2580,7 +2580,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -2589,32 +2589,32 @@
         </is>
       </c>
       <c r="J31" t="n">
-        <v>100</v>
+        <v>350</v>
       </c>
       <c r="K31" t="n">
-        <v>17000</v>
+        <v>7000</v>
       </c>
       <c r="L31" t="n">
-        <v>18000</v>
+        <v>7500</v>
       </c>
       <c r="M31" t="n">
-        <v>17500</v>
+        <v>7214</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P31" t="n">
-        <v>583</v>
+        <v>180</v>
       </c>
       <c r="Q31" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R31" t="inlineStr">
         <is>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44497</v>
+        <v>44489</v>
       </c>
       <c r="E32" t="n">
         <v>8</v>
@@ -2661,16 +2661,16 @@
         </is>
       </c>
       <c r="J32" t="n">
-        <v>180</v>
+        <v>100</v>
       </c>
       <c r="K32" t="n">
-        <v>6500</v>
+        <v>9000</v>
       </c>
       <c r="L32" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M32" t="n">
-        <v>6778</v>
+        <v>9500</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
@@ -2683,7 +2683,7 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>136</v>
+        <v>190</v>
       </c>
       <c r="Q32" t="n">
         <v>50</v>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44497</v>
+        <v>44489</v>
       </c>
       <c r="E33" t="n">
         <v>8</v>
@@ -2733,16 +2733,16 @@
         </is>
       </c>
       <c r="J33" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K33" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L33" t="n">
-        <v>7500</v>
+        <v>8500</v>
       </c>
       <c r="M33" t="n">
-        <v>7250</v>
+        <v>8250</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
@@ -2755,7 +2755,7 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>242</v>
+        <v>275</v>
       </c>
       <c r="Q33" t="n">
         <v>30</v>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44497</v>
+        <v>44441</v>
       </c>
       <c r="E34" t="n">
         <v>8</v>
@@ -2796,7 +2796,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -2805,32 +2805,32 @@
         </is>
       </c>
       <c r="J34" t="n">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="K34" t="n">
-        <v>6000</v>
+        <v>13000</v>
       </c>
       <c r="L34" t="n">
-        <v>6500</v>
+        <v>14000</v>
       </c>
       <c r="M34" t="n">
-        <v>6192</v>
+        <v>13500</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P34" t="n">
-        <v>155</v>
+        <v>450</v>
       </c>
       <c r="Q34" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R34" t="inlineStr">
         <is>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44421</v>
+        <v>44358</v>
       </c>
       <c r="E35" t="n">
         <v>8</v>
@@ -2868,7 +2868,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -2880,17 +2880,17 @@
         <v>100</v>
       </c>
       <c r="K35" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="L35" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="M35" t="n">
-        <v>14500</v>
+        <v>19000</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
@@ -2899,10 +2899,10 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>483</v>
+        <v>380</v>
       </c>
       <c r="Q35" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R35" t="inlineStr">
         <is>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44489</v>
+        <v>44358</v>
       </c>
       <c r="E36" t="n">
         <v>8</v>
@@ -2940,7 +2940,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -2952,17 +2952,17 @@
         <v>100</v>
       </c>
       <c r="K36" t="n">
-        <v>9000</v>
+        <v>18000</v>
       </c>
       <c r="L36" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="M36" t="n">
-        <v>9500</v>
+        <v>19000</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
@@ -2971,10 +2971,10 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>190</v>
+        <v>633</v>
       </c>
       <c r="Q36" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R36" t="inlineStr">
         <is>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44489</v>
+        <v>44454</v>
       </c>
       <c r="E37" t="n">
         <v>8</v>
@@ -3012,7 +3012,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -3024,29 +3024,29 @@
         <v>100</v>
       </c>
       <c r="K37" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="L37" t="n">
-        <v>8500</v>
+        <v>14000</v>
       </c>
       <c r="M37" t="n">
-        <v>8250</v>
+        <v>13500</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P37" t="n">
-        <v>275</v>
+        <v>338</v>
       </c>
       <c r="Q37" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R37" t="inlineStr">
         <is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Alcachofa.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Alcachofa.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44421</v>
+        <v>44435</v>
       </c>
       <c r="E2" t="n">
         <v>8</v>
@@ -492,7 +492,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -514,7 +514,7 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -523,10 +523,10 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>483</v>
+        <v>290</v>
       </c>
       <c r="Q2" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R2" t="inlineStr">
         <is>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44335</v>
+        <v>44364</v>
       </c>
       <c r="E3" t="n">
         <v>8</v>
@@ -564,7 +564,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -576,17 +576,17 @@
         <v>100</v>
       </c>
       <c r="K3" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="L3" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="M3" t="n">
-        <v>17500</v>
+        <v>19500</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -595,10 +595,10 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>583</v>
+        <v>390</v>
       </c>
       <c r="Q3" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R3" t="inlineStr">
         <is>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44497</v>
+        <v>44364</v>
       </c>
       <c r="E4" t="n">
         <v>8</v>
@@ -636,7 +636,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -645,20 +645,20 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>180</v>
+        <v>100</v>
       </c>
       <c r="K4" t="n">
-        <v>6500</v>
+        <v>19000</v>
       </c>
       <c r="L4" t="n">
-        <v>7000</v>
+        <v>20000</v>
       </c>
       <c r="M4" t="n">
-        <v>6778</v>
+        <v>19500</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -667,10 +667,10 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>136</v>
+        <v>650</v>
       </c>
       <c r="Q4" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R4" t="inlineStr">
         <is>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44497</v>
+        <v>44496</v>
       </c>
       <c r="E5" t="n">
         <v>8</v>
@@ -708,7 +708,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -717,7 +717,7 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>200</v>
+        <v>350</v>
       </c>
       <c r="K5" t="n">
         <v>7000</v>
@@ -726,23 +726,23 @@
         <v>7500</v>
       </c>
       <c r="M5" t="n">
-        <v>7250</v>
+        <v>7214</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P5" t="n">
-        <v>242</v>
+        <v>180</v>
       </c>
       <c r="Q5" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R5" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44497</v>
+        <v>44397</v>
       </c>
       <c r="E6" t="n">
         <v>8</v>
@@ -780,7 +780,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -789,32 +789,32 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="K6" t="n">
-        <v>6000</v>
+        <v>14000</v>
       </c>
       <c r="L6" t="n">
-        <v>6500</v>
+        <v>15000</v>
       </c>
       <c r="M6" t="n">
-        <v>6192</v>
+        <v>14500</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P6" t="n">
-        <v>155</v>
+        <v>483</v>
       </c>
       <c r="Q6" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R6" t="inlineStr">
         <is>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44428</v>
+        <v>44433</v>
       </c>
       <c r="E7" t="n">
         <v>8</v>
@@ -852,7 +852,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -874,7 +874,7 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -883,10 +883,10 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>483</v>
+        <v>290</v>
       </c>
       <c r="Q7" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R7" t="inlineStr">
         <is>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44442</v>
+        <v>44426</v>
       </c>
       <c r="E8" t="n">
         <v>8</v>
@@ -924,7 +924,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -933,20 +933,20 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K8" t="n">
-        <v>14500</v>
+        <v>12000</v>
       </c>
       <c r="L8" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M8" t="n">
-        <v>14750</v>
+        <v>12600</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
@@ -955,10 +955,10 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>492</v>
+        <v>315</v>
       </c>
       <c r="Q8" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R8" t="inlineStr">
         <is>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44342</v>
+        <v>44489</v>
       </c>
       <c r="E9" t="n">
         <v>8</v>
@@ -996,7 +996,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1008,17 +1008,17 @@
         <v>100</v>
       </c>
       <c r="K9" t="n">
-        <v>17000</v>
+        <v>9000</v>
       </c>
       <c r="L9" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="M9" t="n">
-        <v>17500</v>
+        <v>9500</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
@@ -1027,10 +1027,10 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>583</v>
+        <v>190</v>
       </c>
       <c r="Q9" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R9" t="inlineStr">
         <is>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44342</v>
+        <v>44489</v>
       </c>
       <c r="E10" t="n">
         <v>8</v>
@@ -1068,7 +1068,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1080,17 +1080,17 @@
         <v>100</v>
       </c>
       <c r="K10" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="L10" t="n">
-        <v>16000</v>
+        <v>8500</v>
       </c>
       <c r="M10" t="n">
-        <v>15500</v>
+        <v>8250</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
@@ -1099,10 +1099,10 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>388</v>
+        <v>275</v>
       </c>
       <c r="Q10" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R10" t="inlineStr">
         <is>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44350</v>
+        <v>44428</v>
       </c>
       <c r="E11" t="n">
         <v>8</v>
@@ -1140,7 +1140,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1149,20 +1149,20 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="K11" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L11" t="n">
         <v>15000</v>
       </c>
-      <c r="L11" t="n">
-        <v>16000</v>
-      </c>
       <c r="M11" t="n">
-        <v>15600</v>
+        <v>14500</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
@@ -1171,10 +1171,10 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>312</v>
+        <v>483</v>
       </c>
       <c r="Q11" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R11" t="inlineStr">
         <is>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44350</v>
+        <v>44680</v>
       </c>
       <c r="E12" t="n">
         <v>8</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K12" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="L12" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="M12" t="n">
-        <v>17500</v>
+        <v>18600</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>583</v>
+        <v>620</v>
       </c>
       <c r="Q12" t="n">
         <v>30</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44435</v>
+        <v>44484</v>
       </c>
       <c r="E13" t="n">
         <v>8</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>100</v>
+        <v>220</v>
       </c>
       <c r="K13" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="L13" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="M13" t="n">
-        <v>14500</v>
+        <v>8455</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>290</v>
+        <v>169</v>
       </c>
       <c r="Q13" t="n">
         <v>50</v>
@@ -1356,7 +1356,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1368,17 +1368,17 @@
         <v>220</v>
       </c>
       <c r="K14" t="n">
+        <v>7500</v>
+      </c>
+      <c r="L14" t="n">
         <v>8000</v>
       </c>
-      <c r="L14" t="n">
-        <v>9000</v>
-      </c>
       <c r="M14" t="n">
-        <v>8455</v>
+        <v>7727</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
@@ -1387,10 +1387,10 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>169</v>
+        <v>258</v>
       </c>
       <c r="Q14" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R14" t="inlineStr">
         <is>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44484</v>
+        <v>44385</v>
       </c>
       <c r="E15" t="n">
         <v>8</v>
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>220</v>
+        <v>100</v>
       </c>
       <c r="K15" t="n">
-        <v>7500</v>
+        <v>17000</v>
       </c>
       <c r="L15" t="n">
-        <v>8000</v>
+        <v>18000</v>
       </c>
       <c r="M15" t="n">
-        <v>7727</v>
+        <v>17500</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>258</v>
+        <v>583</v>
       </c>
       <c r="Q15" t="n">
         <v>30</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44463</v>
+        <v>44420</v>
       </c>
       <c r="E16" t="n">
         <v>8</v>
@@ -1500,7 +1500,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1512,17 +1512,17 @@
         <v>100</v>
       </c>
       <c r="K16" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="L16" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="M16" t="n">
-        <v>9500</v>
+        <v>14500</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
@@ -1531,10 +1531,10 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>190</v>
+        <v>483</v>
       </c>
       <c r="Q16" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R16" t="inlineStr">
         <is>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44680</v>
+        <v>44421</v>
       </c>
       <c r="E17" t="n">
         <v>8</v>
@@ -1581,16 +1581,16 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="K17" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="L17" t="n">
-        <v>19000</v>
+        <v>15000</v>
       </c>
       <c r="M17" t="n">
-        <v>18600</v>
+        <v>14500</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>620</v>
+        <v>483</v>
       </c>
       <c r="Q17" t="n">
         <v>30</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44376</v>
+        <v>44350</v>
       </c>
       <c r="E18" t="n">
         <v>8</v>
@@ -1644,7 +1644,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1653,20 +1653,20 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K18" t="n">
-        <v>19000</v>
+        <v>15000</v>
       </c>
       <c r="L18" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="M18" t="n">
-        <v>19500</v>
+        <v>15600</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
@@ -1675,10 +1675,10 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>650</v>
+        <v>312</v>
       </c>
       <c r="Q18" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R18" t="inlineStr">
         <is>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44483</v>
+        <v>44350</v>
       </c>
       <c r="E19" t="n">
         <v>8</v>
@@ -1725,16 +1725,16 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>450</v>
+        <v>40</v>
       </c>
       <c r="K19" t="n">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="L19" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="M19" t="n">
-        <v>11444</v>
+        <v>17500</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>381</v>
+        <v>583</v>
       </c>
       <c r="Q19" t="n">
         <v>30</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44483</v>
+        <v>44383</v>
       </c>
       <c r="E20" t="n">
         <v>8</v>
@@ -1788,7 +1788,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1797,32 +1797,32 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>220</v>
+        <v>50</v>
       </c>
       <c r="K20" t="n">
-        <v>8000</v>
+        <v>17000</v>
       </c>
       <c r="L20" t="n">
-        <v>8500</v>
+        <v>18000</v>
       </c>
       <c r="M20" t="n">
-        <v>8273</v>
+        <v>17400</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P20" t="n">
-        <v>207</v>
+        <v>348</v>
       </c>
       <c r="Q20" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R20" t="inlineStr">
         <is>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44420</v>
+        <v>44483</v>
       </c>
       <c r="E21" t="n">
         <v>8</v>
@@ -1869,16 +1869,16 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>100</v>
+        <v>450</v>
       </c>
       <c r="K21" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="L21" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="M21" t="n">
-        <v>14500</v>
+        <v>11444</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1891,7 +1891,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>483</v>
+        <v>381</v>
       </c>
       <c r="Q21" t="n">
         <v>30</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44397</v>
+        <v>44483</v>
       </c>
       <c r="E22" t="n">
         <v>8</v>
@@ -1932,7 +1932,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1941,32 +1941,32 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>100</v>
+        <v>220</v>
       </c>
       <c r="K22" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="L22" t="n">
-        <v>15000</v>
+        <v>8500</v>
       </c>
       <c r="M22" t="n">
-        <v>14500</v>
+        <v>8273</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P22" t="n">
-        <v>483</v>
+        <v>207</v>
       </c>
       <c r="Q22" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R22" t="inlineStr">
         <is>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44385</v>
+        <v>44497</v>
       </c>
       <c r="E23" t="n">
         <v>8</v>
@@ -2004,7 +2004,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -2013,20 +2013,20 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="K23" t="n">
-        <v>17000</v>
+        <v>6500</v>
       </c>
       <c r="L23" t="n">
-        <v>18000</v>
+        <v>7000</v>
       </c>
       <c r="M23" t="n">
-        <v>17500</v>
+        <v>6778</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
@@ -2035,10 +2035,10 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>583</v>
+        <v>136</v>
       </c>
       <c r="Q23" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R23" t="inlineStr">
         <is>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44426</v>
+        <v>44497</v>
       </c>
       <c r="E24" t="n">
         <v>8</v>
@@ -2076,7 +2076,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -2085,20 +2085,20 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="K24" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="L24" t="n">
-        <v>13000</v>
+        <v>7500</v>
       </c>
       <c r="M24" t="n">
-        <v>12600</v>
+        <v>7250</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
@@ -2107,10 +2107,10 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>315</v>
+        <v>242</v>
       </c>
       <c r="Q24" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R24" t="inlineStr">
         <is>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44447</v>
+        <v>44497</v>
       </c>
       <c r="E25" t="n">
         <v>8</v>
@@ -2148,7 +2148,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -2157,32 +2157,32 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="K25" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="L25" t="n">
-        <v>15000</v>
+        <v>6500</v>
       </c>
       <c r="M25" t="n">
-        <v>14500</v>
+        <v>6192</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P25" t="n">
-        <v>483</v>
+        <v>155</v>
       </c>
       <c r="Q25" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R25" t="inlineStr">
         <is>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44364</v>
+        <v>44335</v>
       </c>
       <c r="E26" t="n">
         <v>8</v>
@@ -2220,7 +2220,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -2232,17 +2232,17 @@
         <v>100</v>
       </c>
       <c r="K26" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="L26" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="M26" t="n">
-        <v>19500</v>
+        <v>17500</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
@@ -2251,10 +2251,10 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>390</v>
+        <v>583</v>
       </c>
       <c r="Q26" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R26" t="inlineStr">
         <is>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44364</v>
+        <v>44441</v>
       </c>
       <c r="E27" t="n">
         <v>8</v>
@@ -2304,13 +2304,13 @@
         <v>100</v>
       </c>
       <c r="K27" t="n">
-        <v>19000</v>
+        <v>13000</v>
       </c>
       <c r="L27" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="M27" t="n">
-        <v>19500</v>
+        <v>13500</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
@@ -2323,7 +2323,7 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>650</v>
+        <v>450</v>
       </c>
       <c r="Q27" t="n">
         <v>30</v>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44433</v>
+        <v>44454</v>
       </c>
       <c r="E29" t="n">
         <v>8</v>
@@ -2436,7 +2436,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -2448,29 +2448,29 @@
         <v>100</v>
       </c>
       <c r="K29" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L29" t="n">
         <v>14000</v>
       </c>
-      <c r="L29" t="n">
-        <v>15000</v>
-      </c>
       <c r="M29" t="n">
-        <v>14500</v>
+        <v>13500</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P29" t="n">
-        <v>290</v>
+        <v>338</v>
       </c>
       <c r="Q29" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R29" t="inlineStr">
         <is>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44383</v>
+        <v>44358</v>
       </c>
       <c r="E30" t="n">
         <v>8</v>
@@ -2517,16 +2517,16 @@
         </is>
       </c>
       <c r="J30" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="K30" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="L30" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="M30" t="n">
-        <v>17400</v>
+        <v>19000</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
@@ -2539,7 +2539,7 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>348</v>
+        <v>380</v>
       </c>
       <c r="Q30" t="n">
         <v>50</v>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44496</v>
+        <v>44358</v>
       </c>
       <c r="E31" t="n">
         <v>8</v>
@@ -2580,7 +2580,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -2589,32 +2589,32 @@
         </is>
       </c>
       <c r="J31" t="n">
-        <v>350</v>
+        <v>100</v>
       </c>
       <c r="K31" t="n">
-        <v>7000</v>
+        <v>18000</v>
       </c>
       <c r="L31" t="n">
-        <v>7500</v>
+        <v>20000</v>
       </c>
       <c r="M31" t="n">
-        <v>7214</v>
+        <v>19000</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P31" t="n">
-        <v>180</v>
+        <v>633</v>
       </c>
       <c r="Q31" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R31" t="inlineStr">
         <is>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44489</v>
+        <v>44463</v>
       </c>
       <c r="E32" t="n">
         <v>8</v>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44489</v>
+        <v>44342</v>
       </c>
       <c r="E33" t="n">
         <v>8</v>
@@ -2736,13 +2736,13 @@
         <v>100</v>
       </c>
       <c r="K33" t="n">
-        <v>8000</v>
+        <v>17000</v>
       </c>
       <c r="L33" t="n">
-        <v>8500</v>
+        <v>18000</v>
       </c>
       <c r="M33" t="n">
-        <v>8250</v>
+        <v>17500</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
@@ -2755,7 +2755,7 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>275</v>
+        <v>583</v>
       </c>
       <c r="Q33" t="n">
         <v>30</v>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44441</v>
+        <v>44342</v>
       </c>
       <c r="E34" t="n">
         <v>8</v>
@@ -2796,7 +2796,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -2808,17 +2808,17 @@
         <v>100</v>
       </c>
       <c r="K34" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="L34" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="M34" t="n">
-        <v>13500</v>
+        <v>15500</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
@@ -2827,10 +2827,10 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>450</v>
+        <v>388</v>
       </c>
       <c r="Q34" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R34" t="inlineStr">
         <is>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44358</v>
+        <v>44447</v>
       </c>
       <c r="E35" t="n">
         <v>8</v>
@@ -2868,7 +2868,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -2880,17 +2880,17 @@
         <v>100</v>
       </c>
       <c r="K35" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="L35" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="M35" t="n">
-        <v>19000</v>
+        <v>14500</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
@@ -2899,10 +2899,10 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>380</v>
+        <v>483</v>
       </c>
       <c r="Q35" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R35" t="inlineStr">
         <is>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44358</v>
+        <v>44376</v>
       </c>
       <c r="E36" t="n">
         <v>8</v>
@@ -2952,13 +2952,13 @@
         <v>100</v>
       </c>
       <c r="K36" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="L36" t="n">
         <v>20000</v>
       </c>
       <c r="M36" t="n">
-        <v>19000</v>
+        <v>19500</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>633</v>
+        <v>650</v>
       </c>
       <c r="Q36" t="n">
         <v>30</v>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44454</v>
+        <v>44442</v>
       </c>
       <c r="E37" t="n">
         <v>8</v>
@@ -3012,7 +3012,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -3024,29 +3024,29 @@
         <v>100</v>
       </c>
       <c r="K37" t="n">
-        <v>13000</v>
+        <v>14500</v>
       </c>
       <c r="L37" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M37" t="n">
-        <v>13500</v>
+        <v>14750</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P37" t="n">
-        <v>338</v>
+        <v>492</v>
       </c>
       <c r="Q37" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R37" t="inlineStr">
         <is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Alcachofa.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Alcachofa.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R37"/>
+  <dimension ref="A1:R38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44435</v>
+        <v>44699</v>
       </c>
       <c r="E2" t="n">
         <v>8</v>
@@ -492,7 +492,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -504,17 +504,17 @@
         <v>100</v>
       </c>
       <c r="K2" t="n">
-        <v>14000</v>
+        <v>19000</v>
       </c>
       <c r="L2" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="M2" t="n">
-        <v>14500</v>
+        <v>19500</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -523,10 +523,10 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>290</v>
+        <v>650</v>
       </c>
       <c r="Q2" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R2" t="inlineStr">
         <is>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44364</v>
+        <v>44435</v>
       </c>
       <c r="E3" t="n">
         <v>8</v>
@@ -576,13 +576,13 @@
         <v>100</v>
       </c>
       <c r="K3" t="n">
-        <v>19000</v>
+        <v>14000</v>
       </c>
       <c r="L3" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="M3" t="n">
-        <v>19500</v>
+        <v>14500</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>390</v>
+        <v>290</v>
       </c>
       <c r="Q3" t="n">
         <v>50</v>
@@ -636,7 +636,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -658,7 +658,7 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -667,10 +667,10 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>650</v>
+        <v>390</v>
       </c>
       <c r="Q4" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R4" t="inlineStr">
         <is>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44496</v>
+        <v>44364</v>
       </c>
       <c r="E5" t="n">
         <v>8</v>
@@ -708,7 +708,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -717,32 +717,32 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>350</v>
+        <v>100</v>
       </c>
       <c r="K5" t="n">
-        <v>7000</v>
+        <v>19000</v>
       </c>
       <c r="L5" t="n">
-        <v>7500</v>
+        <v>20000</v>
       </c>
       <c r="M5" t="n">
-        <v>7214</v>
+        <v>19500</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P5" t="n">
-        <v>180</v>
+        <v>650</v>
       </c>
       <c r="Q5" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R5" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44397</v>
+        <v>44496</v>
       </c>
       <c r="E6" t="n">
         <v>8</v>
@@ -780,7 +780,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -789,32 +789,32 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>100</v>
+        <v>350</v>
       </c>
       <c r="K6" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="L6" t="n">
-        <v>15000</v>
+        <v>7500</v>
       </c>
       <c r="M6" t="n">
-        <v>14500</v>
+        <v>7214</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P6" t="n">
-        <v>483</v>
+        <v>180</v>
       </c>
       <c r="Q6" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R6" t="inlineStr">
         <is>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44433</v>
+        <v>44397</v>
       </c>
       <c r="E7" t="n">
         <v>8</v>
@@ -852,7 +852,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -874,7 +874,7 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -883,10 +883,10 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>290</v>
+        <v>483</v>
       </c>
       <c r="Q7" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R7" t="inlineStr">
         <is>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44426</v>
+        <v>44433</v>
       </c>
       <c r="E8" t="n">
         <v>8</v>
@@ -924,7 +924,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -933,32 +933,32 @@
         </is>
       </c>
       <c r="J8" t="n">
+        <v>100</v>
+      </c>
+      <c r="K8" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L8" t="n">
+        <v>15000</v>
+      </c>
+      <c r="M8" t="n">
+        <v>14500</v>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>$/caja 50 unidades</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P8" t="n">
+        <v>290</v>
+      </c>
+      <c r="Q8" t="n">
         <v>50</v>
-      </c>
-      <c r="K8" t="n">
-        <v>12000</v>
-      </c>
-      <c r="L8" t="n">
-        <v>13000</v>
-      </c>
-      <c r="M8" t="n">
-        <v>12600</v>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>$/caja 40 unidades</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="P8" t="n">
-        <v>315</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>40</v>
       </c>
       <c r="R8" t="inlineStr">
         <is>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44489</v>
+        <v>44426</v>
       </c>
       <c r="E9" t="n">
         <v>8</v>
@@ -996,7 +996,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1005,20 +1005,20 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K9" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="L9" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="M9" t="n">
-        <v>9500</v>
+        <v>12600</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
@@ -1027,10 +1027,10 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>190</v>
+        <v>315</v>
       </c>
       <c r="Q9" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R9" t="inlineStr">
         <is>
@@ -1068,7 +1068,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1080,17 +1080,17 @@
         <v>100</v>
       </c>
       <c r="K10" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="L10" t="n">
-        <v>8500</v>
+        <v>10000</v>
       </c>
       <c r="M10" t="n">
-        <v>8250</v>
+        <v>9500</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
@@ -1099,10 +1099,10 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>275</v>
+        <v>190</v>
       </c>
       <c r="Q10" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R10" t="inlineStr">
         <is>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44428</v>
+        <v>44489</v>
       </c>
       <c r="E11" t="n">
         <v>8</v>
@@ -1152,13 +1152,13 @@
         <v>100</v>
       </c>
       <c r="K11" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="L11" t="n">
-        <v>15000</v>
+        <v>8500</v>
       </c>
       <c r="M11" t="n">
-        <v>14500</v>
+        <v>8250</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>483</v>
+        <v>275</v>
       </c>
       <c r="Q11" t="n">
         <v>30</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44680</v>
+        <v>44428</v>
       </c>
       <c r="E12" t="n">
         <v>8</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="K12" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="L12" t="n">
-        <v>19000</v>
+        <v>15000</v>
       </c>
       <c r="M12" t="n">
-        <v>18600</v>
+        <v>14500</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>620</v>
+        <v>483</v>
       </c>
       <c r="Q12" t="n">
         <v>30</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44484</v>
+        <v>44680</v>
       </c>
       <c r="E13" t="n">
         <v>8</v>
@@ -1284,7 +1284,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1293,20 +1293,20 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>220</v>
+        <v>50</v>
       </c>
       <c r="K13" t="n">
-        <v>8000</v>
+        <v>18000</v>
       </c>
       <c r="L13" t="n">
-        <v>9000</v>
+        <v>19000</v>
       </c>
       <c r="M13" t="n">
-        <v>8455</v>
+        <v>18600</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
@@ -1315,10 +1315,10 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>169</v>
+        <v>620</v>
       </c>
       <c r="Q13" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R13" t="inlineStr">
         <is>
@@ -1356,7 +1356,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1368,17 +1368,17 @@
         <v>220</v>
       </c>
       <c r="K14" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="L14" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M14" t="n">
-        <v>7727</v>
+        <v>8455</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
@@ -1387,10 +1387,10 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>258</v>
+        <v>169</v>
       </c>
       <c r="Q14" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R14" t="inlineStr">
         <is>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44385</v>
+        <v>44484</v>
       </c>
       <c r="E15" t="n">
         <v>8</v>
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>100</v>
+        <v>220</v>
       </c>
       <c r="K15" t="n">
-        <v>17000</v>
+        <v>7500</v>
       </c>
       <c r="L15" t="n">
-        <v>18000</v>
+        <v>8000</v>
       </c>
       <c r="M15" t="n">
-        <v>17500</v>
+        <v>7727</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>583</v>
+        <v>258</v>
       </c>
       <c r="Q15" t="n">
         <v>30</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44420</v>
+        <v>44385</v>
       </c>
       <c r="E16" t="n">
         <v>8</v>
@@ -1512,13 +1512,13 @@
         <v>100</v>
       </c>
       <c r="K16" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="L16" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M16" t="n">
-        <v>14500</v>
+        <v>17500</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>483</v>
+        <v>583</v>
       </c>
       <c r="Q16" t="n">
         <v>30</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44421</v>
+        <v>44420</v>
       </c>
       <c r="E17" t="n">
         <v>8</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44350</v>
+        <v>44421</v>
       </c>
       <c r="E18" t="n">
         <v>8</v>
@@ -1644,7 +1644,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1653,20 +1653,20 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="K18" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L18" t="n">
         <v>15000</v>
       </c>
-      <c r="L18" t="n">
-        <v>16000</v>
-      </c>
       <c r="M18" t="n">
-        <v>15600</v>
+        <v>14500</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
@@ -1675,10 +1675,10 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>312</v>
+        <v>483</v>
       </c>
       <c r="Q18" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R18" t="inlineStr">
         <is>
@@ -1716,7 +1716,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1725,20 +1725,20 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K19" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="L19" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="M19" t="n">
-        <v>17500</v>
+        <v>15600</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
@@ -1747,10 +1747,10 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>583</v>
+        <v>312</v>
       </c>
       <c r="Q19" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R19" t="inlineStr">
         <is>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44383</v>
+        <v>44350</v>
       </c>
       <c r="E20" t="n">
         <v>8</v>
@@ -1788,7 +1788,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1797,7 +1797,7 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="K20" t="n">
         <v>17000</v>
@@ -1806,11 +1806,11 @@
         <v>18000</v>
       </c>
       <c r="M20" t="n">
-        <v>17400</v>
+        <v>17500</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
@@ -1819,10 +1819,10 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>348</v>
+        <v>583</v>
       </c>
       <c r="Q20" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R20" t="inlineStr">
         <is>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44483</v>
+        <v>44383</v>
       </c>
       <c r="E21" t="n">
         <v>8</v>
@@ -1860,7 +1860,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1869,20 +1869,20 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>450</v>
+        <v>50</v>
       </c>
       <c r="K21" t="n">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="L21" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="M21" t="n">
-        <v>11444</v>
+        <v>17400</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
@@ -1891,10 +1891,10 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>381</v>
+        <v>348</v>
       </c>
       <c r="Q21" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R21" t="inlineStr">
         <is>
@@ -1932,7 +1932,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1941,32 +1941,32 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>220</v>
+        <v>450</v>
       </c>
       <c r="K22" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="L22" t="n">
-        <v>8500</v>
+        <v>12000</v>
       </c>
       <c r="M22" t="n">
-        <v>8273</v>
+        <v>11444</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P22" t="n">
-        <v>207</v>
+        <v>381</v>
       </c>
       <c r="Q22" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R22" t="inlineStr">
         <is>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44497</v>
+        <v>44483</v>
       </c>
       <c r="E23" t="n">
         <v>8</v>
@@ -2004,7 +2004,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -2013,32 +2013,32 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>180</v>
+        <v>220</v>
       </c>
       <c r="K23" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="L23" t="n">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="M23" t="n">
-        <v>6778</v>
+        <v>8273</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P23" t="n">
-        <v>136</v>
+        <v>207</v>
       </c>
       <c r="Q23" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R23" t="inlineStr">
         <is>
@@ -2076,7 +2076,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -2085,20 +2085,20 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="K24" t="n">
+        <v>6500</v>
+      </c>
+      <c r="L24" t="n">
         <v>7000</v>
       </c>
-      <c r="L24" t="n">
-        <v>7500</v>
-      </c>
       <c r="M24" t="n">
-        <v>7250</v>
+        <v>6778</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
@@ -2107,10 +2107,10 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>242</v>
+        <v>136</v>
       </c>
       <c r="Q24" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R24" t="inlineStr">
         <is>
@@ -2148,7 +2148,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -2157,32 +2157,32 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>130</v>
+        <v>200</v>
       </c>
       <c r="K25" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L25" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="M25" t="n">
-        <v>6192</v>
+        <v>7250</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P25" t="n">
-        <v>155</v>
+        <v>242</v>
       </c>
       <c r="Q25" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R25" t="inlineStr">
         <is>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44335</v>
+        <v>44497</v>
       </c>
       <c r="E26" t="n">
         <v>8</v>
@@ -2220,7 +2220,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -2229,32 +2229,32 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="K26" t="n">
-        <v>17000</v>
+        <v>6000</v>
       </c>
       <c r="L26" t="n">
-        <v>18000</v>
+        <v>6500</v>
       </c>
       <c r="M26" t="n">
-        <v>17500</v>
+        <v>6192</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P26" t="n">
-        <v>583</v>
+        <v>155</v>
       </c>
       <c r="Q26" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R26" t="inlineStr">
         <is>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44441</v>
+        <v>44335</v>
       </c>
       <c r="E27" t="n">
         <v>8</v>
@@ -2304,13 +2304,13 @@
         <v>100</v>
       </c>
       <c r="K27" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="L27" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="M27" t="n">
-        <v>13500</v>
+        <v>17500</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
@@ -2323,7 +2323,7 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>450</v>
+        <v>583</v>
       </c>
       <c r="Q27" t="n">
         <v>30</v>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44399</v>
+        <v>44441</v>
       </c>
       <c r="E28" t="n">
         <v>8</v>
@@ -2376,13 +2376,13 @@
         <v>100</v>
       </c>
       <c r="K28" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L28" t="n">
         <v>14000</v>
       </c>
-      <c r="L28" t="n">
-        <v>15000</v>
-      </c>
       <c r="M28" t="n">
-        <v>14500</v>
+        <v>13500</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
@@ -2395,7 +2395,7 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>483</v>
+        <v>450</v>
       </c>
       <c r="Q28" t="n">
         <v>30</v>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44454</v>
+        <v>44399</v>
       </c>
       <c r="E29" t="n">
         <v>8</v>
@@ -2436,7 +2436,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -2448,29 +2448,29 @@
         <v>100</v>
       </c>
       <c r="K29" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L29" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M29" t="n">
-        <v>13500</v>
+        <v>14500</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P29" t="n">
-        <v>338</v>
+        <v>483</v>
       </c>
       <c r="Q29" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R29" t="inlineStr">
         <is>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44358</v>
+        <v>44454</v>
       </c>
       <c r="E30" t="n">
         <v>8</v>
@@ -2508,7 +2508,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -2520,29 +2520,29 @@
         <v>100</v>
       </c>
       <c r="K30" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="L30" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="M30" t="n">
-        <v>19000</v>
+        <v>13500</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P30" t="n">
-        <v>380</v>
+        <v>338</v>
       </c>
       <c r="Q30" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R30" t="inlineStr">
         <is>
@@ -2580,7 +2580,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -2602,7 +2602,7 @@
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
@@ -2611,10 +2611,10 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>633</v>
+        <v>380</v>
       </c>
       <c r="Q31" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R31" t="inlineStr">
         <is>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44463</v>
+        <v>44358</v>
       </c>
       <c r="E32" t="n">
         <v>8</v>
@@ -2652,7 +2652,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -2664,17 +2664,17 @@
         <v>100</v>
       </c>
       <c r="K32" t="n">
-        <v>9000</v>
+        <v>18000</v>
       </c>
       <c r="L32" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="M32" t="n">
-        <v>9500</v>
+        <v>19000</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
@@ -2683,10 +2683,10 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>190</v>
+        <v>633</v>
       </c>
       <c r="Q32" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R32" t="inlineStr">
         <is>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44342</v>
+        <v>44463</v>
       </c>
       <c r="E33" t="n">
         <v>8</v>
@@ -2724,7 +2724,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -2736,17 +2736,17 @@
         <v>100</v>
       </c>
       <c r="K33" t="n">
-        <v>17000</v>
+        <v>9000</v>
       </c>
       <c r="L33" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="M33" t="n">
-        <v>17500</v>
+        <v>9500</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
@@ -2755,10 +2755,10 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>583</v>
+        <v>190</v>
       </c>
       <c r="Q33" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R33" t="inlineStr">
         <is>
@@ -2796,7 +2796,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -2808,17 +2808,17 @@
         <v>100</v>
       </c>
       <c r="K34" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="L34" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="M34" t="n">
-        <v>15500</v>
+        <v>17500</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
@@ -2827,10 +2827,10 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>388</v>
+        <v>583</v>
       </c>
       <c r="Q34" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R34" t="inlineStr">
         <is>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44447</v>
+        <v>44342</v>
       </c>
       <c r="E35" t="n">
         <v>8</v>
@@ -2868,7 +2868,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -2880,17 +2880,17 @@
         <v>100</v>
       </c>
       <c r="K35" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L35" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="M35" t="n">
-        <v>14500</v>
+        <v>15500</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
@@ -2899,10 +2899,10 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>483</v>
+        <v>388</v>
       </c>
       <c r="Q35" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R35" t="inlineStr">
         <is>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44376</v>
+        <v>44447</v>
       </c>
       <c r="E36" t="n">
         <v>8</v>
@@ -2952,13 +2952,13 @@
         <v>100</v>
       </c>
       <c r="K36" t="n">
-        <v>19000</v>
+        <v>14000</v>
       </c>
       <c r="L36" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="M36" t="n">
-        <v>19500</v>
+        <v>14500</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>650</v>
+        <v>483</v>
       </c>
       <c r="Q36" t="n">
         <v>30</v>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44442</v>
+        <v>44376</v>
       </c>
       <c r="E37" t="n">
         <v>8</v>
@@ -3024,13 +3024,13 @@
         <v>100</v>
       </c>
       <c r="K37" t="n">
-        <v>14500</v>
+        <v>19000</v>
       </c>
       <c r="L37" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="M37" t="n">
-        <v>14750</v>
+        <v>19500</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
@@ -3043,12 +3043,84 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>492</v>
+        <v>650</v>
       </c>
       <c r="Q37" t="n">
         <v>30</v>
       </c>
       <c r="R37" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>11</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D38" s="2" t="n">
+        <v>44442</v>
+      </c>
+      <c r="E38" t="n">
+        <v>8</v>
+      </c>
+      <c r="F38" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Española</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J38" t="n">
+        <v>100</v>
+      </c>
+      <c r="K38" t="n">
+        <v>14500</v>
+      </c>
+      <c r="L38" t="n">
+        <v>15000</v>
+      </c>
+      <c r="M38" t="n">
+        <v>14750</v>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>$/caja 30 unidades</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P38" t="n">
+        <v>492</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>30</v>
+      </c>
+      <c r="R38" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Alcachofa.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Alcachofa.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R38"/>
+  <dimension ref="A1:R39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44376</v>
+        <v>44706</v>
       </c>
       <c r="E37" t="n">
         <v>8</v>
@@ -3021,16 +3021,16 @@
         </is>
       </c>
       <c r="J37" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K37" t="n">
-        <v>19000</v>
+        <v>23000</v>
       </c>
       <c r="L37" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="M37" t="n">
-        <v>19500</v>
+        <v>23400</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
@@ -3043,7 +3043,7 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>650</v>
+        <v>780</v>
       </c>
       <c r="Q37" t="n">
         <v>30</v>
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44442</v>
+        <v>44376</v>
       </c>
       <c r="E38" t="n">
         <v>8</v>
@@ -3096,13 +3096,13 @@
         <v>100</v>
       </c>
       <c r="K38" t="n">
-        <v>14500</v>
+        <v>19000</v>
       </c>
       <c r="L38" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="M38" t="n">
-        <v>14750</v>
+        <v>19500</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
@@ -3115,12 +3115,84 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>492</v>
+        <v>650</v>
       </c>
       <c r="Q38" t="n">
         <v>30</v>
       </c>
       <c r="R38" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>11</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D39" s="2" t="n">
+        <v>44442</v>
+      </c>
+      <c r="E39" t="n">
+        <v>8</v>
+      </c>
+      <c r="F39" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Española</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J39" t="n">
+        <v>100</v>
+      </c>
+      <c r="K39" t="n">
+        <v>14500</v>
+      </c>
+      <c r="L39" t="n">
+        <v>15000</v>
+      </c>
+      <c r="M39" t="n">
+        <v>14750</v>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>$/caja 30 unidades</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P39" t="n">
+        <v>492</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>30</v>
+      </c>
+      <c r="R39" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Alcachofa.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Alcachofa.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44699</v>
+        <v>44399</v>
       </c>
       <c r="E2" t="n">
         <v>8</v>
@@ -504,13 +504,13 @@
         <v>100</v>
       </c>
       <c r="K2" t="n">
-        <v>19000</v>
+        <v>14000</v>
       </c>
       <c r="L2" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="M2" t="n">
-        <v>19500</v>
+        <v>14500</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>650</v>
+        <v>483</v>
       </c>
       <c r="Q2" t="n">
         <v>30</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44435</v>
+        <v>44489</v>
       </c>
       <c r="E3" t="n">
         <v>8</v>
@@ -576,13 +576,13 @@
         <v>100</v>
       </c>
       <c r="K3" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="L3" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="M3" t="n">
-        <v>14500</v>
+        <v>9500</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>290</v>
+        <v>190</v>
       </c>
       <c r="Q3" t="n">
         <v>50</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44364</v>
+        <v>44489</v>
       </c>
       <c r="E4" t="n">
         <v>8</v>
@@ -636,7 +636,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -648,17 +648,17 @@
         <v>100</v>
       </c>
       <c r="K4" t="n">
-        <v>19000</v>
+        <v>8000</v>
       </c>
       <c r="L4" t="n">
-        <v>20000</v>
+        <v>8500</v>
       </c>
       <c r="M4" t="n">
-        <v>19500</v>
+        <v>8250</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -667,10 +667,10 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>390</v>
+        <v>275</v>
       </c>
       <c r="Q4" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R4" t="inlineStr">
         <is>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44364</v>
+        <v>44442</v>
       </c>
       <c r="E5" t="n">
         <v>8</v>
@@ -720,13 +720,13 @@
         <v>100</v>
       </c>
       <c r="K5" t="n">
-        <v>19000</v>
+        <v>14500</v>
       </c>
       <c r="L5" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="M5" t="n">
-        <v>19500</v>
+        <v>14750</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>650</v>
+        <v>492</v>
       </c>
       <c r="Q5" t="n">
         <v>30</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44496</v>
+        <v>44426</v>
       </c>
       <c r="E6" t="n">
         <v>8</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>350</v>
+        <v>50</v>
       </c>
       <c r="K6" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="L6" t="n">
-        <v>7500</v>
+        <v>13000</v>
       </c>
       <c r="M6" t="n">
-        <v>7214</v>
+        <v>12600</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -807,11 +807,11 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P6" t="n">
-        <v>180</v>
+        <v>315</v>
       </c>
       <c r="Q6" t="n">
         <v>40</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44397</v>
+        <v>44463</v>
       </c>
       <c r="E7" t="n">
         <v>8</v>
@@ -852,7 +852,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -864,17 +864,17 @@
         <v>100</v>
       </c>
       <c r="K7" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="L7" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="M7" t="n">
-        <v>14500</v>
+        <v>9500</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -883,10 +883,10 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>483</v>
+        <v>190</v>
       </c>
       <c r="Q7" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R7" t="inlineStr">
         <is>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44433</v>
+        <v>44397</v>
       </c>
       <c r="E8" t="n">
         <v>8</v>
@@ -924,7 +924,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -946,7 +946,7 @@
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
@@ -955,10 +955,10 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>290</v>
+        <v>483</v>
       </c>
       <c r="Q8" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R8" t="inlineStr">
         <is>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44426</v>
+        <v>44342</v>
       </c>
       <c r="E9" t="n">
         <v>8</v>
@@ -996,7 +996,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1005,20 +1005,20 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="K9" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="L9" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="M9" t="n">
-        <v>12600</v>
+        <v>17500</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
@@ -1027,10 +1027,10 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>315</v>
+        <v>583</v>
       </c>
       <c r="Q9" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R9" t="inlineStr">
         <is>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44489</v>
+        <v>44342</v>
       </c>
       <c r="E10" t="n">
         <v>8</v>
@@ -1068,7 +1068,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1080,17 +1080,17 @@
         <v>100</v>
       </c>
       <c r="K10" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="L10" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="M10" t="n">
-        <v>9500</v>
+        <v>15500</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
@@ -1099,10 +1099,10 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>190</v>
+        <v>388</v>
       </c>
       <c r="Q10" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R10" t="inlineStr">
         <is>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44489</v>
+        <v>44680</v>
       </c>
       <c r="E11" t="n">
         <v>8</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K11" t="n">
-        <v>8000</v>
+        <v>18000</v>
       </c>
       <c r="L11" t="n">
-        <v>8500</v>
+        <v>19000</v>
       </c>
       <c r="M11" t="n">
-        <v>8250</v>
+        <v>18600</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>275</v>
+        <v>620</v>
       </c>
       <c r="Q11" t="n">
         <v>30</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44428</v>
+        <v>44376</v>
       </c>
       <c r="E12" t="n">
         <v>8</v>
@@ -1224,13 +1224,13 @@
         <v>100</v>
       </c>
       <c r="K12" t="n">
-        <v>14000</v>
+        <v>19000</v>
       </c>
       <c r="L12" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="M12" t="n">
-        <v>14500</v>
+        <v>19500</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>483</v>
+        <v>650</v>
       </c>
       <c r="Q12" t="n">
         <v>30</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44680</v>
+        <v>44383</v>
       </c>
       <c r="E13" t="n">
         <v>8</v>
@@ -1284,7 +1284,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1296,17 +1296,17 @@
         <v>50</v>
       </c>
       <c r="K13" t="n">
+        <v>17000</v>
+      </c>
+      <c r="L13" t="n">
         <v>18000</v>
       </c>
-      <c r="L13" t="n">
-        <v>19000</v>
-      </c>
       <c r="M13" t="n">
-        <v>18600</v>
+        <v>17400</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
@@ -1315,10 +1315,10 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>620</v>
+        <v>348</v>
       </c>
       <c r="Q13" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R13" t="inlineStr">
         <is>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44385</v>
+        <v>44706</v>
       </c>
       <c r="E16" t="n">
         <v>8</v>
@@ -1509,16 +1509,16 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K16" t="n">
-        <v>17000</v>
+        <v>23000</v>
       </c>
       <c r="L16" t="n">
-        <v>18000</v>
+        <v>24000</v>
       </c>
       <c r="M16" t="n">
-        <v>17500</v>
+        <v>23400</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>583</v>
+        <v>780</v>
       </c>
       <c r="Q16" t="n">
         <v>30</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44420</v>
+        <v>44335</v>
       </c>
       <c r="E17" t="n">
         <v>8</v>
@@ -1584,13 +1584,13 @@
         <v>100</v>
       </c>
       <c r="K17" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="L17" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M17" t="n">
-        <v>14500</v>
+        <v>17500</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>483</v>
+        <v>583</v>
       </c>
       <c r="Q17" t="n">
         <v>30</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44421</v>
+        <v>44483</v>
       </c>
       <c r="E18" t="n">
         <v>8</v>
@@ -1653,16 +1653,16 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>100</v>
+        <v>450</v>
       </c>
       <c r="K18" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="L18" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="M18" t="n">
-        <v>14500</v>
+        <v>11444</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>483</v>
+        <v>381</v>
       </c>
       <c r="Q18" t="n">
         <v>30</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44350</v>
+        <v>44483</v>
       </c>
       <c r="E19" t="n">
         <v>8</v>
@@ -1716,7 +1716,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1725,32 +1725,32 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>50</v>
+        <v>220</v>
       </c>
       <c r="K19" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="L19" t="n">
-        <v>16000</v>
+        <v>8500</v>
       </c>
       <c r="M19" t="n">
-        <v>15600</v>
+        <v>8273</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P19" t="n">
-        <v>312</v>
+        <v>207</v>
       </c>
       <c r="Q19" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R19" t="inlineStr">
         <is>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44350</v>
+        <v>44441</v>
       </c>
       <c r="E20" t="n">
         <v>8</v>
@@ -1797,16 +1797,16 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="K20" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="L20" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="M20" t="n">
-        <v>17500</v>
+        <v>13500</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>583</v>
+        <v>450</v>
       </c>
       <c r="Q20" t="n">
         <v>30</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44383</v>
+        <v>44358</v>
       </c>
       <c r="E21" t="n">
         <v>8</v>
@@ -1869,16 +1869,16 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="K21" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="L21" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="M21" t="n">
-        <v>17400</v>
+        <v>19000</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1891,7 +1891,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>348</v>
+        <v>380</v>
       </c>
       <c r="Q21" t="n">
         <v>50</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44483</v>
+        <v>44358</v>
       </c>
       <c r="E22" t="n">
         <v>8</v>
@@ -1941,16 +1941,16 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>450</v>
+        <v>100</v>
       </c>
       <c r="K22" t="n">
-        <v>11000</v>
+        <v>18000</v>
       </c>
       <c r="L22" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="M22" t="n">
-        <v>11444</v>
+        <v>19000</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>381</v>
+        <v>633</v>
       </c>
       <c r="Q22" t="n">
         <v>30</v>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44483</v>
+        <v>44385</v>
       </c>
       <c r="E23" t="n">
         <v>8</v>
@@ -2004,7 +2004,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -2013,32 +2013,32 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>220</v>
+        <v>100</v>
       </c>
       <c r="K23" t="n">
-        <v>8000</v>
+        <v>17000</v>
       </c>
       <c r="L23" t="n">
-        <v>8500</v>
+        <v>18000</v>
       </c>
       <c r="M23" t="n">
-        <v>8273</v>
+        <v>17500</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P23" t="n">
-        <v>207</v>
+        <v>583</v>
       </c>
       <c r="Q23" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R23" t="inlineStr">
         <is>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44497</v>
+        <v>44364</v>
       </c>
       <c r="E24" t="n">
         <v>8</v>
@@ -2085,16 +2085,16 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>180</v>
+        <v>100</v>
       </c>
       <c r="K24" t="n">
-        <v>6500</v>
+        <v>19000</v>
       </c>
       <c r="L24" t="n">
-        <v>7000</v>
+        <v>20000</v>
       </c>
       <c r="M24" t="n">
-        <v>6778</v>
+        <v>19500</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>136</v>
+        <v>390</v>
       </c>
       <c r="Q24" t="n">
         <v>50</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44497</v>
+        <v>44364</v>
       </c>
       <c r="E25" t="n">
         <v>8</v>
@@ -2157,16 +2157,16 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K25" t="n">
-        <v>7000</v>
+        <v>19000</v>
       </c>
       <c r="L25" t="n">
-        <v>7500</v>
+        <v>20000</v>
       </c>
       <c r="M25" t="n">
-        <v>7250</v>
+        <v>19500</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>242</v>
+        <v>650</v>
       </c>
       <c r="Q25" t="n">
         <v>30</v>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44497</v>
+        <v>44428</v>
       </c>
       <c r="E26" t="n">
         <v>8</v>
@@ -2220,7 +2220,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -2229,32 +2229,32 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="K26" t="n">
-        <v>6000</v>
+        <v>14000</v>
       </c>
       <c r="L26" t="n">
-        <v>6500</v>
+        <v>15000</v>
       </c>
       <c r="M26" t="n">
-        <v>6192</v>
+        <v>14500</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P26" t="n">
-        <v>155</v>
+        <v>483</v>
       </c>
       <c r="Q26" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R26" t="inlineStr">
         <is>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44335</v>
+        <v>44350</v>
       </c>
       <c r="E27" t="n">
         <v>8</v>
@@ -2292,7 +2292,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -2301,20 +2301,20 @@
         </is>
       </c>
       <c r="J27" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K27" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="L27" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="M27" t="n">
-        <v>17500</v>
+        <v>15600</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
@@ -2323,10 +2323,10 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>583</v>
+        <v>312</v>
       </c>
       <c r="Q27" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R27" t="inlineStr">
         <is>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44441</v>
+        <v>44350</v>
       </c>
       <c r="E28" t="n">
         <v>8</v>
@@ -2373,16 +2373,16 @@
         </is>
       </c>
       <c r="J28" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="K28" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="L28" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="M28" t="n">
-        <v>13500</v>
+        <v>17500</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
@@ -2395,7 +2395,7 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>450</v>
+        <v>583</v>
       </c>
       <c r="Q28" t="n">
         <v>30</v>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44399</v>
+        <v>44447</v>
       </c>
       <c r="E29" t="n">
         <v>8</v>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44454</v>
+        <v>44420</v>
       </c>
       <c r="E30" t="n">
         <v>8</v>
@@ -2508,7 +2508,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -2520,29 +2520,29 @@
         <v>100</v>
       </c>
       <c r="K30" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L30" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M30" t="n">
-        <v>13500</v>
+        <v>14500</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P30" t="n">
-        <v>338</v>
+        <v>483</v>
       </c>
       <c r="Q30" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R30" t="inlineStr">
         <is>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44358</v>
+        <v>44435</v>
       </c>
       <c r="E31" t="n">
         <v>8</v>
@@ -2592,13 +2592,13 @@
         <v>100</v>
       </c>
       <c r="K31" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="L31" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="M31" t="n">
-        <v>19000</v>
+        <v>14500</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
@@ -2611,7 +2611,7 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>380</v>
+        <v>290</v>
       </c>
       <c r="Q31" t="n">
         <v>50</v>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44358</v>
+        <v>44496</v>
       </c>
       <c r="E32" t="n">
         <v>8</v>
@@ -2652,7 +2652,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -2661,32 +2661,32 @@
         </is>
       </c>
       <c r="J32" t="n">
-        <v>100</v>
+        <v>350</v>
       </c>
       <c r="K32" t="n">
-        <v>18000</v>
+        <v>7000</v>
       </c>
       <c r="L32" t="n">
-        <v>20000</v>
+        <v>7500</v>
       </c>
       <c r="M32" t="n">
-        <v>19000</v>
+        <v>7214</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P32" t="n">
-        <v>633</v>
+        <v>180</v>
       </c>
       <c r="Q32" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R32" t="inlineStr">
         <is>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44463</v>
+        <v>44497</v>
       </c>
       <c r="E33" t="n">
         <v>8</v>
@@ -2733,16 +2733,16 @@
         </is>
       </c>
       <c r="J33" t="n">
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="K33" t="n">
-        <v>9000</v>
+        <v>6500</v>
       </c>
       <c r="L33" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M33" t="n">
-        <v>9500</v>
+        <v>6778</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
@@ -2755,7 +2755,7 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>190</v>
+        <v>136</v>
       </c>
       <c r="Q33" t="n">
         <v>50</v>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44342</v>
+        <v>44497</v>
       </c>
       <c r="E34" t="n">
         <v>8</v>
@@ -2805,16 +2805,16 @@
         </is>
       </c>
       <c r="J34" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K34" t="n">
-        <v>17000</v>
+        <v>7000</v>
       </c>
       <c r="L34" t="n">
-        <v>18000</v>
+        <v>7500</v>
       </c>
       <c r="M34" t="n">
-        <v>17500</v>
+        <v>7250</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>583</v>
+        <v>242</v>
       </c>
       <c r="Q34" t="n">
         <v>30</v>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44342</v>
+        <v>44497</v>
       </c>
       <c r="E35" t="n">
         <v>8</v>
@@ -2877,16 +2877,16 @@
         </is>
       </c>
       <c r="J35" t="n">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="K35" t="n">
-        <v>15000</v>
+        <v>6000</v>
       </c>
       <c r="L35" t="n">
-        <v>16000</v>
+        <v>6500</v>
       </c>
       <c r="M35" t="n">
-        <v>15500</v>
+        <v>6192</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
@@ -2895,11 +2895,11 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P35" t="n">
-        <v>388</v>
+        <v>155</v>
       </c>
       <c r="Q35" t="n">
         <v>40</v>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44447</v>
+        <v>44433</v>
       </c>
       <c r="E36" t="n">
         <v>8</v>
@@ -2940,7 +2940,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -2962,7 +2962,7 @@
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
@@ -2971,10 +2971,10 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>483</v>
+        <v>290</v>
       </c>
       <c r="Q36" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R36" t="inlineStr">
         <is>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44706</v>
+        <v>44454</v>
       </c>
       <c r="E37" t="n">
         <v>8</v>
@@ -3012,7 +3012,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -3021,32 +3021,32 @@
         </is>
       </c>
       <c r="J37" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="K37" t="n">
-        <v>23000</v>
+        <v>13000</v>
       </c>
       <c r="L37" t="n">
-        <v>24000</v>
+        <v>14000</v>
       </c>
       <c r="M37" t="n">
-        <v>23400</v>
+        <v>13500</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P37" t="n">
-        <v>780</v>
+        <v>338</v>
       </c>
       <c r="Q37" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R37" t="inlineStr">
         <is>
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44376</v>
+        <v>44699</v>
       </c>
       <c r="E38" t="n">
         <v>8</v>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44442</v>
+        <v>44421</v>
       </c>
       <c r="E39" t="n">
         <v>8</v>
@@ -3168,13 +3168,13 @@
         <v>100</v>
       </c>
       <c r="K39" t="n">
-        <v>14500</v>
+        <v>14000</v>
       </c>
       <c r="L39" t="n">
         <v>15000</v>
       </c>
       <c r="M39" t="n">
-        <v>14750</v>
+        <v>14500</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
@@ -3187,7 +3187,7 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>492</v>
+        <v>483</v>
       </c>
       <c r="Q39" t="n">
         <v>30</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Alcachofa.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Alcachofa.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R39"/>
+  <dimension ref="A1:R40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44441</v>
+        <v>44721</v>
       </c>
       <c r="E20" t="n">
         <v>8</v>
@@ -1797,16 +1797,16 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="K20" t="n">
-        <v>13000</v>
+        <v>19000</v>
       </c>
       <c r="L20" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="M20" t="n">
-        <v>13500</v>
+        <v>19533</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>450</v>
+        <v>651</v>
       </c>
       <c r="Q20" t="n">
         <v>30</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44358</v>
+        <v>44441</v>
       </c>
       <c r="E21" t="n">
         <v>8</v>
@@ -1860,7 +1860,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1872,17 +1872,17 @@
         <v>100</v>
       </c>
       <c r="K21" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="L21" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="M21" t="n">
-        <v>19000</v>
+        <v>13500</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
@@ -1891,10 +1891,10 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>380</v>
+        <v>450</v>
       </c>
       <c r="Q21" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R21" t="inlineStr">
         <is>
@@ -1932,7 +1932,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1954,7 +1954,7 @@
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
@@ -1963,10 +1963,10 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>633</v>
+        <v>380</v>
       </c>
       <c r="Q22" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R22" t="inlineStr">
         <is>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44385</v>
+        <v>44358</v>
       </c>
       <c r="E23" t="n">
         <v>8</v>
@@ -2016,13 +2016,13 @@
         <v>100</v>
       </c>
       <c r="K23" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="L23" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="M23" t="n">
-        <v>17500</v>
+        <v>19000</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>583</v>
+        <v>633</v>
       </c>
       <c r="Q23" t="n">
         <v>30</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44364</v>
+        <v>44385</v>
       </c>
       <c r="E24" t="n">
         <v>8</v>
@@ -2076,7 +2076,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -2088,17 +2088,17 @@
         <v>100</v>
       </c>
       <c r="K24" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="L24" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="M24" t="n">
-        <v>19500</v>
+        <v>17500</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
@@ -2107,10 +2107,10 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>390</v>
+        <v>583</v>
       </c>
       <c r="Q24" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R24" t="inlineStr">
         <is>
@@ -2148,7 +2148,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -2170,7 +2170,7 @@
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
@@ -2179,10 +2179,10 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>650</v>
+        <v>390</v>
       </c>
       <c r="Q25" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R25" t="inlineStr">
         <is>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44428</v>
+        <v>44364</v>
       </c>
       <c r="E26" t="n">
         <v>8</v>
@@ -2232,13 +2232,13 @@
         <v>100</v>
       </c>
       <c r="K26" t="n">
-        <v>14000</v>
+        <v>19000</v>
       </c>
       <c r="L26" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="M26" t="n">
-        <v>14500</v>
+        <v>19500</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
@@ -2251,7 +2251,7 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>483</v>
+        <v>650</v>
       </c>
       <c r="Q26" t="n">
         <v>30</v>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44350</v>
+        <v>44428</v>
       </c>
       <c r="E27" t="n">
         <v>8</v>
@@ -2292,7 +2292,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -2301,20 +2301,20 @@
         </is>
       </c>
       <c r="J27" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="K27" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L27" t="n">
         <v>15000</v>
       </c>
-      <c r="L27" t="n">
-        <v>16000</v>
-      </c>
       <c r="M27" t="n">
-        <v>15600</v>
+        <v>14500</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
@@ -2323,10 +2323,10 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>312</v>
+        <v>483</v>
       </c>
       <c r="Q27" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R27" t="inlineStr">
         <is>
@@ -2364,7 +2364,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -2373,20 +2373,20 @@
         </is>
       </c>
       <c r="J28" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K28" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="L28" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="M28" t="n">
-        <v>17500</v>
+        <v>15600</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
@@ -2395,10 +2395,10 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>583</v>
+        <v>312</v>
       </c>
       <c r="Q28" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R28" t="inlineStr">
         <is>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44447</v>
+        <v>44350</v>
       </c>
       <c r="E29" t="n">
         <v>8</v>
@@ -2445,16 +2445,16 @@
         </is>
       </c>
       <c r="J29" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="K29" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="L29" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M29" t="n">
-        <v>14500</v>
+        <v>17500</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
@@ -2467,7 +2467,7 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>483</v>
+        <v>583</v>
       </c>
       <c r="Q29" t="n">
         <v>30</v>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44420</v>
+        <v>44447</v>
       </c>
       <c r="E30" t="n">
         <v>8</v>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44435</v>
+        <v>44420</v>
       </c>
       <c r="E31" t="n">
         <v>8</v>
@@ -2580,7 +2580,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -2602,7 +2602,7 @@
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
@@ -2611,10 +2611,10 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>290</v>
+        <v>483</v>
       </c>
       <c r="Q31" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R31" t="inlineStr">
         <is>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44496</v>
+        <v>44435</v>
       </c>
       <c r="E32" t="n">
         <v>8</v>
@@ -2652,7 +2652,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -2661,32 +2661,32 @@
         </is>
       </c>
       <c r="J32" t="n">
-        <v>350</v>
+        <v>100</v>
       </c>
       <c r="K32" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="L32" t="n">
-        <v>7500</v>
+        <v>15000</v>
       </c>
       <c r="M32" t="n">
-        <v>7214</v>
+        <v>14500</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P32" t="n">
-        <v>180</v>
+        <v>290</v>
       </c>
       <c r="Q32" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R32" t="inlineStr">
         <is>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44497</v>
+        <v>44496</v>
       </c>
       <c r="E33" t="n">
         <v>8</v>
@@ -2724,7 +2724,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -2733,32 +2733,32 @@
         </is>
       </c>
       <c r="J33" t="n">
+        <v>350</v>
+      </c>
+      <c r="K33" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L33" t="n">
+        <v>7500</v>
+      </c>
+      <c r="M33" t="n">
+        <v>7214</v>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>$/caja 40 unidades</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>Región de Coquimbo</t>
+        </is>
+      </c>
+      <c r="P33" t="n">
         <v>180</v>
       </c>
-      <c r="K33" t="n">
-        <v>6500</v>
-      </c>
-      <c r="L33" t="n">
-        <v>7000</v>
-      </c>
-      <c r="M33" t="n">
-        <v>6778</v>
-      </c>
-      <c r="N33" t="inlineStr">
-        <is>
-          <t>$/caja 50 unidades</t>
-        </is>
-      </c>
-      <c r="O33" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="P33" t="n">
-        <v>136</v>
-      </c>
       <c r="Q33" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R33" t="inlineStr">
         <is>
@@ -2796,7 +2796,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -2805,20 +2805,20 @@
         </is>
       </c>
       <c r="J34" t="n">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="K34" t="n">
+        <v>6500</v>
+      </c>
+      <c r="L34" t="n">
         <v>7000</v>
       </c>
-      <c r="L34" t="n">
-        <v>7500</v>
-      </c>
       <c r="M34" t="n">
-        <v>7250</v>
+        <v>6778</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
@@ -2827,10 +2827,10 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>242</v>
+        <v>136</v>
       </c>
       <c r="Q34" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R34" t="inlineStr">
         <is>
@@ -2868,7 +2868,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -2877,32 +2877,32 @@
         </is>
       </c>
       <c r="J35" t="n">
-        <v>130</v>
+        <v>200</v>
       </c>
       <c r="K35" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L35" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="M35" t="n">
-        <v>6192</v>
+        <v>7250</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P35" t="n">
-        <v>155</v>
+        <v>242</v>
       </c>
       <c r="Q35" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R35" t="inlineStr">
         <is>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44433</v>
+        <v>44497</v>
       </c>
       <c r="E36" t="n">
         <v>8</v>
@@ -2940,7 +2940,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -2949,32 +2949,32 @@
         </is>
       </c>
       <c r="J36" t="n">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="K36" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="L36" t="n">
-        <v>15000</v>
+        <v>6500</v>
       </c>
       <c r="M36" t="n">
-        <v>14500</v>
+        <v>6192</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P36" t="n">
-        <v>290</v>
+        <v>155</v>
       </c>
       <c r="Q36" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R36" t="inlineStr">
         <is>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44454</v>
+        <v>44433</v>
       </c>
       <c r="E37" t="n">
         <v>8</v>
@@ -3012,7 +3012,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -3024,29 +3024,29 @@
         <v>100</v>
       </c>
       <c r="K37" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L37" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M37" t="n">
-        <v>13500</v>
+        <v>14500</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P37" t="n">
-        <v>338</v>
+        <v>290</v>
       </c>
       <c r="Q37" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R37" t="inlineStr">
         <is>
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44699</v>
+        <v>44454</v>
       </c>
       <c r="E38" t="n">
         <v>8</v>
@@ -3084,7 +3084,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -3096,29 +3096,29 @@
         <v>100</v>
       </c>
       <c r="K38" t="n">
-        <v>19000</v>
+        <v>13000</v>
       </c>
       <c r="L38" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="M38" t="n">
-        <v>19500</v>
+        <v>13500</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P38" t="n">
-        <v>650</v>
+        <v>338</v>
       </c>
       <c r="Q38" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R38" t="inlineStr">
         <is>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44421</v>
+        <v>44699</v>
       </c>
       <c r="E39" t="n">
         <v>8</v>
@@ -3168,13 +3168,13 @@
         <v>100</v>
       </c>
       <c r="K39" t="n">
-        <v>14000</v>
+        <v>19000</v>
       </c>
       <c r="L39" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="M39" t="n">
-        <v>14500</v>
+        <v>19500</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
@@ -3187,12 +3187,84 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>483</v>
+        <v>650</v>
       </c>
       <c r="Q39" t="n">
         <v>30</v>
       </c>
       <c r="R39" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>11</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D40" s="2" t="n">
+        <v>44421</v>
+      </c>
+      <c r="E40" t="n">
+        <v>8</v>
+      </c>
+      <c r="F40" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Española</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J40" t="n">
+        <v>100</v>
+      </c>
+      <c r="K40" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L40" t="n">
+        <v>15000</v>
+      </c>
+      <c r="M40" t="n">
+        <v>14500</v>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>$/caja 30 unidades</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P40" t="n">
+        <v>483</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>30</v>
+      </c>
+      <c r="R40" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Alcachofa.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Alcachofa.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R40"/>
+  <dimension ref="A1:R41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44433</v>
+        <v>44722</v>
       </c>
       <c r="E37" t="n">
         <v>8</v>
@@ -3012,7 +3012,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -3021,20 +3021,20 @@
         </is>
       </c>
       <c r="J37" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K37" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="L37" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="M37" t="n">
-        <v>14500</v>
+        <v>21333</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
@@ -3043,10 +3043,10 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>290</v>
+        <v>711</v>
       </c>
       <c r="Q37" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R37" t="inlineStr">
         <is>
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44454</v>
+        <v>44433</v>
       </c>
       <c r="E38" t="n">
         <v>8</v>
@@ -3084,7 +3084,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -3096,29 +3096,29 @@
         <v>100</v>
       </c>
       <c r="K38" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L38" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M38" t="n">
-        <v>13500</v>
+        <v>14500</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P38" t="n">
-        <v>338</v>
+        <v>290</v>
       </c>
       <c r="Q38" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R38" t="inlineStr">
         <is>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44699</v>
+        <v>44454</v>
       </c>
       <c r="E39" t="n">
         <v>8</v>
@@ -3156,7 +3156,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -3168,29 +3168,29 @@
         <v>100</v>
       </c>
       <c r="K39" t="n">
-        <v>19000</v>
+        <v>13000</v>
       </c>
       <c r="L39" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="M39" t="n">
-        <v>19500</v>
+        <v>13500</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P39" t="n">
-        <v>650</v>
+        <v>338</v>
       </c>
       <c r="Q39" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R39" t="inlineStr">
         <is>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44421</v>
+        <v>44699</v>
       </c>
       <c r="E40" t="n">
         <v>8</v>
@@ -3240,13 +3240,13 @@
         <v>100</v>
       </c>
       <c r="K40" t="n">
-        <v>14000</v>
+        <v>19000</v>
       </c>
       <c r="L40" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="M40" t="n">
-        <v>14500</v>
+        <v>19500</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
@@ -3259,12 +3259,84 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>483</v>
+        <v>650</v>
       </c>
       <c r="Q40" t="n">
         <v>30</v>
       </c>
       <c r="R40" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>11</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D41" s="2" t="n">
+        <v>44421</v>
+      </c>
+      <c r="E41" t="n">
+        <v>8</v>
+      </c>
+      <c r="F41" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Española</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J41" t="n">
+        <v>100</v>
+      </c>
+      <c r="K41" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L41" t="n">
+        <v>15000</v>
+      </c>
+      <c r="M41" t="n">
+        <v>14500</v>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>$/caja 30 unidades</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P41" t="n">
+        <v>483</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>30</v>
+      </c>
+      <c r="R41" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Alcachofa.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Alcachofa.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R41"/>
+  <dimension ref="A1:R42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44399</v>
+        <v>44442</v>
       </c>
       <c r="E2" t="n">
         <v>8</v>
@@ -504,13 +504,13 @@
         <v>100</v>
       </c>
       <c r="K2" t="n">
-        <v>14000</v>
+        <v>14500</v>
       </c>
       <c r="L2" t="n">
         <v>15000</v>
       </c>
       <c r="M2" t="n">
-        <v>14500</v>
+        <v>14750</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>483</v>
+        <v>492</v>
       </c>
       <c r="Q2" t="n">
         <v>30</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44489</v>
+        <v>44722</v>
       </c>
       <c r="E3" t="n">
         <v>8</v>
@@ -564,7 +564,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -573,20 +573,20 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K3" t="n">
-        <v>9000</v>
+        <v>20000</v>
       </c>
       <c r="L3" t="n">
-        <v>10000</v>
+        <v>22000</v>
       </c>
       <c r="M3" t="n">
-        <v>9500</v>
+        <v>21333</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -595,10 +595,10 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>190</v>
+        <v>711</v>
       </c>
       <c r="Q3" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R3" t="inlineStr">
         <is>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44489</v>
+        <v>44433</v>
       </c>
       <c r="E4" t="n">
         <v>8</v>
@@ -636,7 +636,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -648,17 +648,17 @@
         <v>100</v>
       </c>
       <c r="K4" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="L4" t="n">
-        <v>8500</v>
+        <v>15000</v>
       </c>
       <c r="M4" t="n">
-        <v>8250</v>
+        <v>14500</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -667,10 +667,10 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>275</v>
+        <v>290</v>
       </c>
       <c r="Q4" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R4" t="inlineStr">
         <is>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44442</v>
+        <v>44497</v>
       </c>
       <c r="E5" t="n">
         <v>8</v>
@@ -708,7 +708,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -717,20 +717,20 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="K5" t="n">
-        <v>14500</v>
+        <v>6500</v>
       </c>
       <c r="L5" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="M5" t="n">
-        <v>14750</v>
+        <v>6778</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -739,10 +739,10 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>492</v>
+        <v>136</v>
       </c>
       <c r="Q5" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R5" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44426</v>
+        <v>44497</v>
       </c>
       <c r="E6" t="n">
         <v>8</v>
@@ -780,7 +780,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -789,20 +789,20 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="K6" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="L6" t="n">
-        <v>13000</v>
+        <v>7500</v>
       </c>
       <c r="M6" t="n">
-        <v>12600</v>
+        <v>7250</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
@@ -811,10 +811,10 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>315</v>
+        <v>242</v>
       </c>
       <c r="Q6" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R6" t="inlineStr">
         <is>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44463</v>
+        <v>44497</v>
       </c>
       <c r="E7" t="n">
         <v>8</v>
@@ -852,7 +852,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -861,32 +861,32 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="K7" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="L7" t="n">
-        <v>10000</v>
+        <v>6500</v>
       </c>
       <c r="M7" t="n">
-        <v>9500</v>
+        <v>6192</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P7" t="n">
-        <v>190</v>
+        <v>155</v>
       </c>
       <c r="Q7" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R7" t="inlineStr">
         <is>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44397</v>
+        <v>44489</v>
       </c>
       <c r="E8" t="n">
         <v>8</v>
@@ -924,7 +924,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -936,17 +936,17 @@
         <v>100</v>
       </c>
       <c r="K8" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="L8" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="M8" t="n">
-        <v>14500</v>
+        <v>9500</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
@@ -955,10 +955,10 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>483</v>
+        <v>190</v>
       </c>
       <c r="Q8" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R8" t="inlineStr">
         <is>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44342</v>
+        <v>44489</v>
       </c>
       <c r="E9" t="n">
         <v>8</v>
@@ -1008,13 +1008,13 @@
         <v>100</v>
       </c>
       <c r="K9" t="n">
-        <v>17000</v>
+        <v>8000</v>
       </c>
       <c r="L9" t="n">
-        <v>18000</v>
+        <v>8500</v>
       </c>
       <c r="M9" t="n">
-        <v>17500</v>
+        <v>8250</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>583</v>
+        <v>275</v>
       </c>
       <c r="Q9" t="n">
         <v>30</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44342</v>
+        <v>44421</v>
       </c>
       <c r="E10" t="n">
         <v>8</v>
@@ -1068,7 +1068,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1080,17 +1080,17 @@
         <v>100</v>
       </c>
       <c r="K10" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L10" t="n">
         <v>15000</v>
       </c>
-      <c r="L10" t="n">
-        <v>16000</v>
-      </c>
       <c r="M10" t="n">
-        <v>15500</v>
+        <v>14500</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
@@ -1099,10 +1099,10 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>388</v>
+        <v>483</v>
       </c>
       <c r="Q10" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R10" t="inlineStr">
         <is>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44680</v>
+        <v>44342</v>
       </c>
       <c r="E11" t="n">
         <v>8</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="K11" t="n">
+        <v>17000</v>
+      </c>
+      <c r="L11" t="n">
         <v>18000</v>
       </c>
-      <c r="L11" t="n">
-        <v>19000</v>
-      </c>
       <c r="M11" t="n">
-        <v>18600</v>
+        <v>17500</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>620</v>
+        <v>583</v>
       </c>
       <c r="Q11" t="n">
         <v>30</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44376</v>
+        <v>44342</v>
       </c>
       <c r="E12" t="n">
         <v>8</v>
@@ -1212,7 +1212,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1224,17 +1224,17 @@
         <v>100</v>
       </c>
       <c r="K12" t="n">
-        <v>19000</v>
+        <v>15000</v>
       </c>
       <c r="L12" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="M12" t="n">
-        <v>19500</v>
+        <v>15500</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
@@ -1243,10 +1243,10 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>650</v>
+        <v>388</v>
       </c>
       <c r="Q12" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R12" t="inlineStr">
         <is>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44383</v>
+        <v>44483</v>
       </c>
       <c r="E13" t="n">
         <v>8</v>
@@ -1284,7 +1284,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1293,20 +1293,20 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>50</v>
+        <v>450</v>
       </c>
       <c r="K13" t="n">
-        <v>17000</v>
+        <v>11000</v>
       </c>
       <c r="L13" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="M13" t="n">
-        <v>17400</v>
+        <v>11444</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
@@ -1315,10 +1315,10 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>348</v>
+        <v>381</v>
       </c>
       <c r="Q13" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R13" t="inlineStr">
         <is>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44484</v>
+        <v>44483</v>
       </c>
       <c r="E14" t="n">
         <v>8</v>
@@ -1356,7 +1356,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1371,26 +1371,26 @@
         <v>8000</v>
       </c>
       <c r="L14" t="n">
-        <v>9000</v>
+        <v>8500</v>
       </c>
       <c r="M14" t="n">
-        <v>8455</v>
+        <v>8273</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P14" t="n">
-        <v>169</v>
+        <v>207</v>
       </c>
       <c r="Q14" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R14" t="inlineStr">
         <is>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44484</v>
+        <v>44426</v>
       </c>
       <c r="E15" t="n">
         <v>8</v>
@@ -1428,7 +1428,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1437,20 +1437,20 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>220</v>
+        <v>50</v>
       </c>
       <c r="K15" t="n">
-        <v>7500</v>
+        <v>12000</v>
       </c>
       <c r="L15" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="M15" t="n">
-        <v>7727</v>
+        <v>12600</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
@@ -1459,10 +1459,10 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>258</v>
+        <v>315</v>
       </c>
       <c r="Q15" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R15" t="inlineStr">
         <is>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44706</v>
+        <v>44484</v>
       </c>
       <c r="E16" t="n">
         <v>8</v>
@@ -1500,7 +1500,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1509,32 +1509,32 @@
         </is>
       </c>
       <c r="J16" t="n">
+        <v>220</v>
+      </c>
+      <c r="K16" t="n">
+        <v>8000</v>
+      </c>
+      <c r="L16" t="n">
+        <v>9000</v>
+      </c>
+      <c r="M16" t="n">
+        <v>8455</v>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>$/caja 50 unidades</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P16" t="n">
+        <v>169</v>
+      </c>
+      <c r="Q16" t="n">
         <v>50</v>
-      </c>
-      <c r="K16" t="n">
-        <v>23000</v>
-      </c>
-      <c r="L16" t="n">
-        <v>24000</v>
-      </c>
-      <c r="M16" t="n">
-        <v>23400</v>
-      </c>
-      <c r="N16" t="inlineStr">
-        <is>
-          <t>$/caja 30 unidades</t>
-        </is>
-      </c>
-      <c r="O16" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="P16" t="n">
-        <v>780</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>30</v>
       </c>
       <c r="R16" t="inlineStr">
         <is>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44335</v>
+        <v>44484</v>
       </c>
       <c r="E17" t="n">
         <v>8</v>
@@ -1581,16 +1581,16 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>100</v>
+        <v>220</v>
       </c>
       <c r="K17" t="n">
-        <v>17000</v>
+        <v>7500</v>
       </c>
       <c r="L17" t="n">
-        <v>18000</v>
+        <v>8000</v>
       </c>
       <c r="M17" t="n">
-        <v>17500</v>
+        <v>7727</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>583</v>
+        <v>258</v>
       </c>
       <c r="Q17" t="n">
         <v>30</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44483</v>
+        <v>44463</v>
       </c>
       <c r="E18" t="n">
         <v>8</v>
@@ -1644,7 +1644,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1653,20 +1653,20 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>450</v>
+        <v>100</v>
       </c>
       <c r="K18" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="L18" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M18" t="n">
-        <v>11444</v>
+        <v>9500</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
@@ -1675,10 +1675,10 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>381</v>
+        <v>190</v>
       </c>
       <c r="Q18" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R18" t="inlineStr">
         <is>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44483</v>
+        <v>44376</v>
       </c>
       <c r="E19" t="n">
         <v>8</v>
@@ -1716,7 +1716,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1725,32 +1725,32 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>220</v>
+        <v>100</v>
       </c>
       <c r="K19" t="n">
-        <v>8000</v>
+        <v>19000</v>
       </c>
       <c r="L19" t="n">
-        <v>8500</v>
+        <v>20000</v>
       </c>
       <c r="M19" t="n">
-        <v>8273</v>
+        <v>19500</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P19" t="n">
-        <v>207</v>
+        <v>650</v>
       </c>
       <c r="Q19" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R19" t="inlineStr">
         <is>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44721</v>
+        <v>44441</v>
       </c>
       <c r="E20" t="n">
         <v>8</v>
@@ -1797,16 +1797,16 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="K20" t="n">
-        <v>19000</v>
+        <v>13000</v>
       </c>
       <c r="L20" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="M20" t="n">
-        <v>19533</v>
+        <v>13500</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>651</v>
+        <v>450</v>
       </c>
       <c r="Q20" t="n">
         <v>30</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44441</v>
+        <v>44721</v>
       </c>
       <c r="E21" t="n">
         <v>8</v>
@@ -1869,16 +1869,16 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="K21" t="n">
-        <v>13000</v>
+        <v>19000</v>
       </c>
       <c r="L21" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="M21" t="n">
-        <v>13500</v>
+        <v>19533</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1891,7 +1891,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>450</v>
+        <v>651</v>
       </c>
       <c r="Q21" t="n">
         <v>30</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44358</v>
+        <v>44447</v>
       </c>
       <c r="E22" t="n">
         <v>8</v>
@@ -1932,7 +1932,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1944,17 +1944,17 @@
         <v>100</v>
       </c>
       <c r="K22" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="L22" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="M22" t="n">
-        <v>19000</v>
+        <v>14500</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
@@ -1963,10 +1963,10 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>380</v>
+        <v>483</v>
       </c>
       <c r="Q22" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R22" t="inlineStr">
         <is>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44358</v>
+        <v>44399</v>
       </c>
       <c r="E23" t="n">
         <v>8</v>
@@ -2016,13 +2016,13 @@
         <v>100</v>
       </c>
       <c r="K23" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="L23" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="M23" t="n">
-        <v>19000</v>
+        <v>14500</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>633</v>
+        <v>483</v>
       </c>
       <c r="Q23" t="n">
         <v>30</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44385</v>
+        <v>44428</v>
       </c>
       <c r="E24" t="n">
         <v>8</v>
@@ -2088,13 +2088,13 @@
         <v>100</v>
       </c>
       <c r="K24" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="L24" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M24" t="n">
-        <v>17500</v>
+        <v>14500</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>583</v>
+        <v>483</v>
       </c>
       <c r="Q24" t="n">
         <v>30</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44364</v>
+        <v>44335</v>
       </c>
       <c r="E25" t="n">
         <v>8</v>
@@ -2148,7 +2148,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -2160,17 +2160,17 @@
         <v>100</v>
       </c>
       <c r="K25" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="L25" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="M25" t="n">
-        <v>19500</v>
+        <v>17500</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
@@ -2179,10 +2179,10 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>390</v>
+        <v>583</v>
       </c>
       <c r="Q25" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R25" t="inlineStr">
         <is>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44364</v>
+        <v>44420</v>
       </c>
       <c r="E26" t="n">
         <v>8</v>
@@ -2232,13 +2232,13 @@
         <v>100</v>
       </c>
       <c r="K26" t="n">
-        <v>19000</v>
+        <v>14000</v>
       </c>
       <c r="L26" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="M26" t="n">
-        <v>19500</v>
+        <v>14500</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
@@ -2251,7 +2251,7 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>650</v>
+        <v>483</v>
       </c>
       <c r="Q26" t="n">
         <v>30</v>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44428</v>
+        <v>44727</v>
       </c>
       <c r="E27" t="n">
         <v>8</v>
@@ -2301,16 +2301,16 @@
         </is>
       </c>
       <c r="J27" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="K27" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="L27" t="n">
-        <v>15000</v>
+        <v>21000</v>
       </c>
       <c r="M27" t="n">
-        <v>14500</v>
+        <v>20467</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
@@ -2323,7 +2323,7 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>483</v>
+        <v>682</v>
       </c>
       <c r="Q27" t="n">
         <v>30</v>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44350</v>
+        <v>44699</v>
       </c>
       <c r="E28" t="n">
         <v>8</v>
@@ -2364,7 +2364,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -2373,20 +2373,20 @@
         </is>
       </c>
       <c r="J28" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="K28" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="L28" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="M28" t="n">
-        <v>15600</v>
+        <v>19500</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
@@ -2395,10 +2395,10 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>312</v>
+        <v>650</v>
       </c>
       <c r="Q28" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R28" t="inlineStr">
         <is>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44350</v>
+        <v>44435</v>
       </c>
       <c r="E29" t="n">
         <v>8</v>
@@ -2436,7 +2436,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -2445,20 +2445,20 @@
         </is>
       </c>
       <c r="J29" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="K29" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="L29" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M29" t="n">
-        <v>17500</v>
+        <v>14500</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
@@ -2467,10 +2467,10 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>583</v>
+        <v>290</v>
       </c>
       <c r="Q29" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R29" t="inlineStr">
         <is>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44447</v>
+        <v>44680</v>
       </c>
       <c r="E30" t="n">
         <v>8</v>
@@ -2517,16 +2517,16 @@
         </is>
       </c>
       <c r="J30" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K30" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="L30" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="M30" t="n">
-        <v>14500</v>
+        <v>18600</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
@@ -2539,7 +2539,7 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>483</v>
+        <v>620</v>
       </c>
       <c r="Q30" t="n">
         <v>30</v>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44420</v>
+        <v>44454</v>
       </c>
       <c r="E31" t="n">
         <v>8</v>
@@ -2580,7 +2580,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -2592,29 +2592,29 @@
         <v>100</v>
       </c>
       <c r="K31" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L31" t="n">
         <v>14000</v>
       </c>
-      <c r="L31" t="n">
-        <v>15000</v>
-      </c>
       <c r="M31" t="n">
-        <v>14500</v>
+        <v>13500</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P31" t="n">
-        <v>483</v>
+        <v>338</v>
       </c>
       <c r="Q31" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R31" t="inlineStr">
         <is>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44435</v>
+        <v>44706</v>
       </c>
       <c r="E32" t="n">
         <v>8</v>
@@ -2652,7 +2652,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -2661,20 +2661,20 @@
         </is>
       </c>
       <c r="J32" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K32" t="n">
-        <v>14000</v>
+        <v>23000</v>
       </c>
       <c r="L32" t="n">
-        <v>15000</v>
+        <v>24000</v>
       </c>
       <c r="M32" t="n">
-        <v>14500</v>
+        <v>23400</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
@@ -2683,10 +2683,10 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>290</v>
+        <v>780</v>
       </c>
       <c r="Q32" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R32" t="inlineStr">
         <is>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44496</v>
+        <v>44358</v>
       </c>
       <c r="E33" t="n">
         <v>8</v>
@@ -2724,7 +2724,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -2733,32 +2733,32 @@
         </is>
       </c>
       <c r="J33" t="n">
-        <v>350</v>
+        <v>100</v>
       </c>
       <c r="K33" t="n">
-        <v>7000</v>
+        <v>18000</v>
       </c>
       <c r="L33" t="n">
-        <v>7500</v>
+        <v>20000</v>
       </c>
       <c r="M33" t="n">
-        <v>7214</v>
+        <v>19000</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P33" t="n">
-        <v>180</v>
+        <v>380</v>
       </c>
       <c r="Q33" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R33" t="inlineStr">
         <is>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44497</v>
+        <v>44358</v>
       </c>
       <c r="E34" t="n">
         <v>8</v>
@@ -2796,7 +2796,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -2805,20 +2805,20 @@
         </is>
       </c>
       <c r="J34" t="n">
-        <v>180</v>
+        <v>100</v>
       </c>
       <c r="K34" t="n">
-        <v>6500</v>
+        <v>18000</v>
       </c>
       <c r="L34" t="n">
-        <v>7000</v>
+        <v>20000</v>
       </c>
       <c r="M34" t="n">
-        <v>6778</v>
+        <v>19000</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
@@ -2827,10 +2827,10 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>136</v>
+        <v>633</v>
       </c>
       <c r="Q34" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R34" t="inlineStr">
         <is>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44497</v>
+        <v>44383</v>
       </c>
       <c r="E35" t="n">
         <v>8</v>
@@ -2868,7 +2868,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -2877,20 +2877,20 @@
         </is>
       </c>
       <c r="J35" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="K35" t="n">
-        <v>7000</v>
+        <v>17000</v>
       </c>
       <c r="L35" t="n">
-        <v>7500</v>
+        <v>18000</v>
       </c>
       <c r="M35" t="n">
-        <v>7250</v>
+        <v>17400</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
@@ -2899,10 +2899,10 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>242</v>
+        <v>348</v>
       </c>
       <c r="Q35" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R35" t="inlineStr">
         <is>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44497</v>
+        <v>44350</v>
       </c>
       <c r="E36" t="n">
         <v>8</v>
@@ -2940,7 +2940,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -2949,32 +2949,32 @@
         </is>
       </c>
       <c r="J36" t="n">
-        <v>130</v>
+        <v>50</v>
       </c>
       <c r="K36" t="n">
-        <v>6000</v>
+        <v>15000</v>
       </c>
       <c r="L36" t="n">
-        <v>6500</v>
+        <v>16000</v>
       </c>
       <c r="M36" t="n">
-        <v>6192</v>
+        <v>15600</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P36" t="n">
-        <v>155</v>
+        <v>312</v>
       </c>
       <c r="Q36" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R36" t="inlineStr">
         <is>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44722</v>
+        <v>44350</v>
       </c>
       <c r="E37" t="n">
         <v>8</v>
@@ -3021,16 +3021,16 @@
         </is>
       </c>
       <c r="J37" t="n">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="K37" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="L37" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="M37" t="n">
-        <v>21333</v>
+        <v>17500</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
@@ -3043,7 +3043,7 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>711</v>
+        <v>583</v>
       </c>
       <c r="Q37" t="n">
         <v>30</v>
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44433</v>
+        <v>44496</v>
       </c>
       <c r="E38" t="n">
         <v>8</v>
@@ -3084,7 +3084,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -3093,32 +3093,32 @@
         </is>
       </c>
       <c r="J38" t="n">
-        <v>100</v>
+        <v>350</v>
       </c>
       <c r="K38" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="L38" t="n">
-        <v>15000</v>
+        <v>7500</v>
       </c>
       <c r="M38" t="n">
-        <v>14500</v>
+        <v>7214</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P38" t="n">
-        <v>290</v>
+        <v>180</v>
       </c>
       <c r="Q38" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R38" t="inlineStr">
         <is>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44454</v>
+        <v>44385</v>
       </c>
       <c r="E39" t="n">
         <v>8</v>
@@ -3156,7 +3156,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -3168,29 +3168,29 @@
         <v>100</v>
       </c>
       <c r="K39" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="L39" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="M39" t="n">
-        <v>13500</v>
+        <v>17500</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P39" t="n">
-        <v>338</v>
+        <v>583</v>
       </c>
       <c r="Q39" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R39" t="inlineStr">
         <is>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44699</v>
+        <v>44364</v>
       </c>
       <c r="E40" t="n">
         <v>8</v>
@@ -3228,7 +3228,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -3250,7 +3250,7 @@
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
@@ -3259,10 +3259,10 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>650</v>
+        <v>390</v>
       </c>
       <c r="Q40" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R40" t="inlineStr">
         <is>
@@ -3285,7 +3285,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44421</v>
+        <v>44364</v>
       </c>
       <c r="E41" t="n">
         <v>8</v>
@@ -3312,13 +3312,13 @@
         <v>100</v>
       </c>
       <c r="K41" t="n">
-        <v>14000</v>
+        <v>19000</v>
       </c>
       <c r="L41" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="M41" t="n">
-        <v>14500</v>
+        <v>19500</v>
       </c>
       <c r="N41" t="inlineStr">
         <is>
@@ -3331,12 +3331,84 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>483</v>
+        <v>650</v>
       </c>
       <c r="Q41" t="n">
         <v>30</v>
       </c>
       <c r="R41" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>11</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D42" s="2" t="n">
+        <v>44397</v>
+      </c>
+      <c r="E42" t="n">
+        <v>8</v>
+      </c>
+      <c r="F42" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Española</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J42" t="n">
+        <v>100</v>
+      </c>
+      <c r="K42" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L42" t="n">
+        <v>15000</v>
+      </c>
+      <c r="M42" t="n">
+        <v>14500</v>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>$/caja 30 unidades</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P42" t="n">
+        <v>483</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>30</v>
+      </c>
+      <c r="R42" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Alcachofa.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Alcachofa.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R42"/>
+  <dimension ref="A1:R43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44441</v>
+        <v>44729</v>
       </c>
       <c r="E20" t="n">
         <v>8</v>
@@ -1788,7 +1788,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1797,20 +1797,20 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K20" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="L20" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="M20" t="n">
-        <v>13500</v>
+        <v>17500</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
@@ -1819,10 +1819,10 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>450</v>
+        <v>438</v>
       </c>
       <c r="Q20" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R20" t="inlineStr">
         <is>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44721</v>
+        <v>44441</v>
       </c>
       <c r="E21" t="n">
         <v>8</v>
@@ -1869,16 +1869,16 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="K21" t="n">
-        <v>19000</v>
+        <v>13000</v>
       </c>
       <c r="L21" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="M21" t="n">
-        <v>19533</v>
+        <v>13500</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1891,7 +1891,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>651</v>
+        <v>450</v>
       </c>
       <c r="Q21" t="n">
         <v>30</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44447</v>
+        <v>44721</v>
       </c>
       <c r="E22" t="n">
         <v>8</v>
@@ -1941,16 +1941,16 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="K22" t="n">
-        <v>14000</v>
+        <v>19000</v>
       </c>
       <c r="L22" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="M22" t="n">
-        <v>14500</v>
+        <v>19533</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>483</v>
+        <v>651</v>
       </c>
       <c r="Q22" t="n">
         <v>30</v>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44399</v>
+        <v>44447</v>
       </c>
       <c r="E23" t="n">
         <v>8</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44428</v>
+        <v>44399</v>
       </c>
       <c r="E24" t="n">
         <v>8</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44335</v>
+        <v>44428</v>
       </c>
       <c r="E25" t="n">
         <v>8</v>
@@ -2160,13 +2160,13 @@
         <v>100</v>
       </c>
       <c r="K25" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="L25" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M25" t="n">
-        <v>17500</v>
+        <v>14500</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>583</v>
+        <v>483</v>
       </c>
       <c r="Q25" t="n">
         <v>30</v>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44420</v>
+        <v>44335</v>
       </c>
       <c r="E26" t="n">
         <v>8</v>
@@ -2232,13 +2232,13 @@
         <v>100</v>
       </c>
       <c r="K26" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="L26" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M26" t="n">
-        <v>14500</v>
+        <v>17500</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
@@ -2251,7 +2251,7 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>483</v>
+        <v>583</v>
       </c>
       <c r="Q26" t="n">
         <v>30</v>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44727</v>
+        <v>44420</v>
       </c>
       <c r="E27" t="n">
         <v>8</v>
@@ -2301,16 +2301,16 @@
         </is>
       </c>
       <c r="J27" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="K27" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="L27" t="n">
-        <v>21000</v>
+        <v>15000</v>
       </c>
       <c r="M27" t="n">
-        <v>20467</v>
+        <v>14500</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
@@ -2323,7 +2323,7 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>682</v>
+        <v>483</v>
       </c>
       <c r="Q27" t="n">
         <v>30</v>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44699</v>
+        <v>44727</v>
       </c>
       <c r="E28" t="n">
         <v>8</v>
@@ -2373,16 +2373,16 @@
         </is>
       </c>
       <c r="J28" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="K28" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="L28" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="M28" t="n">
-        <v>19500</v>
+        <v>20467</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
@@ -2395,7 +2395,7 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>650</v>
+        <v>682</v>
       </c>
       <c r="Q28" t="n">
         <v>30</v>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44435</v>
+        <v>44699</v>
       </c>
       <c r="E29" t="n">
         <v>8</v>
@@ -2436,7 +2436,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -2448,17 +2448,17 @@
         <v>100</v>
       </c>
       <c r="K29" t="n">
-        <v>14000</v>
+        <v>19000</v>
       </c>
       <c r="L29" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="M29" t="n">
-        <v>14500</v>
+        <v>19500</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
@@ -2467,10 +2467,10 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>290</v>
+        <v>650</v>
       </c>
       <c r="Q29" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R29" t="inlineStr">
         <is>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44680</v>
+        <v>44435</v>
       </c>
       <c r="E30" t="n">
         <v>8</v>
@@ -2508,7 +2508,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -2517,32 +2517,32 @@
         </is>
       </c>
       <c r="J30" t="n">
+        <v>100</v>
+      </c>
+      <c r="K30" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L30" t="n">
+        <v>15000</v>
+      </c>
+      <c r="M30" t="n">
+        <v>14500</v>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>$/caja 50 unidades</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P30" t="n">
+        <v>290</v>
+      </c>
+      <c r="Q30" t="n">
         <v>50</v>
-      </c>
-      <c r="K30" t="n">
-        <v>18000</v>
-      </c>
-      <c r="L30" t="n">
-        <v>19000</v>
-      </c>
-      <c r="M30" t="n">
-        <v>18600</v>
-      </c>
-      <c r="N30" t="inlineStr">
-        <is>
-          <t>$/caja 30 unidades</t>
-        </is>
-      </c>
-      <c r="O30" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="P30" t="n">
-        <v>620</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>30</v>
       </c>
       <c r="R30" t="inlineStr">
         <is>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44454</v>
+        <v>44680</v>
       </c>
       <c r="E31" t="n">
         <v>8</v>
@@ -2580,7 +2580,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -2589,32 +2589,32 @@
         </is>
       </c>
       <c r="J31" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K31" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="L31" t="n">
-        <v>14000</v>
+        <v>19000</v>
       </c>
       <c r="M31" t="n">
-        <v>13500</v>
+        <v>18600</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P31" t="n">
-        <v>338</v>
+        <v>620</v>
       </c>
       <c r="Q31" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R31" t="inlineStr">
         <is>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44706</v>
+        <v>44454</v>
       </c>
       <c r="E32" t="n">
         <v>8</v>
@@ -2652,7 +2652,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -2661,32 +2661,32 @@
         </is>
       </c>
       <c r="J32" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="K32" t="n">
-        <v>23000</v>
+        <v>13000</v>
       </c>
       <c r="L32" t="n">
-        <v>24000</v>
+        <v>14000</v>
       </c>
       <c r="M32" t="n">
-        <v>23400</v>
+        <v>13500</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P32" t="n">
-        <v>780</v>
+        <v>338</v>
       </c>
       <c r="Q32" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R32" t="inlineStr">
         <is>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44358</v>
+        <v>44706</v>
       </c>
       <c r="E33" t="n">
         <v>8</v>
@@ -2724,7 +2724,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -2733,20 +2733,20 @@
         </is>
       </c>
       <c r="J33" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K33" t="n">
-        <v>18000</v>
+        <v>23000</v>
       </c>
       <c r="L33" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="M33" t="n">
-        <v>19000</v>
+        <v>23400</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
@@ -2755,10 +2755,10 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>380</v>
+        <v>780</v>
       </c>
       <c r="Q33" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R33" t="inlineStr">
         <is>
@@ -2796,7 +2796,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -2818,7 +2818,7 @@
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
@@ -2827,10 +2827,10 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>633</v>
+        <v>380</v>
       </c>
       <c r="Q34" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R34" t="inlineStr">
         <is>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44383</v>
+        <v>44358</v>
       </c>
       <c r="E35" t="n">
         <v>8</v>
@@ -2868,7 +2868,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -2877,20 +2877,20 @@
         </is>
       </c>
       <c r="J35" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="K35" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="L35" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="M35" t="n">
-        <v>17400</v>
+        <v>19000</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
@@ -2899,10 +2899,10 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>348</v>
+        <v>633</v>
       </c>
       <c r="Q35" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R35" t="inlineStr">
         <is>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44350</v>
+        <v>44383</v>
       </c>
       <c r="E36" t="n">
         <v>8</v>
@@ -2952,13 +2952,13 @@
         <v>50</v>
       </c>
       <c r="K36" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="L36" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="M36" t="n">
-        <v>15600</v>
+        <v>17400</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>312</v>
+        <v>348</v>
       </c>
       <c r="Q36" t="n">
         <v>50</v>
@@ -3012,7 +3012,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -3021,20 +3021,20 @@
         </is>
       </c>
       <c r="J37" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K37" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="L37" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="M37" t="n">
-        <v>17500</v>
+        <v>15600</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
@@ -3043,10 +3043,10 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>583</v>
+        <v>312</v>
       </c>
       <c r="Q37" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R37" t="inlineStr">
         <is>
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44496</v>
+        <v>44350</v>
       </c>
       <c r="E38" t="n">
         <v>8</v>
@@ -3084,7 +3084,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -3093,32 +3093,32 @@
         </is>
       </c>
       <c r="J38" t="n">
-        <v>350</v>
+        <v>40</v>
       </c>
       <c r="K38" t="n">
-        <v>7000</v>
+        <v>17000</v>
       </c>
       <c r="L38" t="n">
-        <v>7500</v>
+        <v>18000</v>
       </c>
       <c r="M38" t="n">
-        <v>7214</v>
+        <v>17500</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P38" t="n">
-        <v>180</v>
+        <v>583</v>
       </c>
       <c r="Q38" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R38" t="inlineStr">
         <is>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44385</v>
+        <v>44496</v>
       </c>
       <c r="E39" t="n">
         <v>8</v>
@@ -3156,7 +3156,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -3165,32 +3165,32 @@
         </is>
       </c>
       <c r="J39" t="n">
-        <v>100</v>
+        <v>350</v>
       </c>
       <c r="K39" t="n">
-        <v>17000</v>
+        <v>7000</v>
       </c>
       <c r="L39" t="n">
-        <v>18000</v>
+        <v>7500</v>
       </c>
       <c r="M39" t="n">
-        <v>17500</v>
+        <v>7214</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P39" t="n">
-        <v>583</v>
+        <v>180</v>
       </c>
       <c r="Q39" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R39" t="inlineStr">
         <is>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44364</v>
+        <v>44385</v>
       </c>
       <c r="E40" t="n">
         <v>8</v>
@@ -3228,7 +3228,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -3240,17 +3240,17 @@
         <v>100</v>
       </c>
       <c r="K40" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="L40" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="M40" t="n">
-        <v>19500</v>
+        <v>17500</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
@@ -3259,10 +3259,10 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>390</v>
+        <v>583</v>
       </c>
       <c r="Q40" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R40" t="inlineStr">
         <is>
@@ -3300,7 +3300,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -3322,7 +3322,7 @@
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
@@ -3331,10 +3331,10 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>650</v>
+        <v>390</v>
       </c>
       <c r="Q41" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R41" t="inlineStr">
         <is>
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44397</v>
+        <v>44364</v>
       </c>
       <c r="E42" t="n">
         <v>8</v>
@@ -3384,13 +3384,13 @@
         <v>100</v>
       </c>
       <c r="K42" t="n">
-        <v>14000</v>
+        <v>19000</v>
       </c>
       <c r="L42" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="M42" t="n">
-        <v>14500</v>
+        <v>19500</v>
       </c>
       <c r="N42" t="inlineStr">
         <is>
@@ -3403,12 +3403,84 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>483</v>
+        <v>650</v>
       </c>
       <c r="Q42" t="n">
         <v>30</v>
       </c>
       <c r="R42" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>11</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D43" s="2" t="n">
+        <v>44397</v>
+      </c>
+      <c r="E43" t="n">
+        <v>8</v>
+      </c>
+      <c r="F43" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Española</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J43" t="n">
+        <v>100</v>
+      </c>
+      <c r="K43" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L43" t="n">
+        <v>15000</v>
+      </c>
+      <c r="M43" t="n">
+        <v>14500</v>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>$/caja 30 unidades</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P43" t="n">
+        <v>483</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>30</v>
+      </c>
+      <c r="R43" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Alcachofa.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Alcachofa.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44442</v>
+        <v>44454</v>
       </c>
       <c r="E2" t="n">
         <v>8</v>
@@ -492,7 +492,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -504,29 +504,29 @@
         <v>100</v>
       </c>
       <c r="K2" t="n">
-        <v>14500</v>
+        <v>13000</v>
       </c>
       <c r="L2" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="M2" t="n">
-        <v>14750</v>
+        <v>13500</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P2" t="n">
-        <v>492</v>
+        <v>338</v>
       </c>
       <c r="Q2" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R2" t="inlineStr">
         <is>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44722</v>
+        <v>44489</v>
       </c>
       <c r="E3" t="n">
         <v>8</v>
@@ -564,7 +564,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -573,20 +573,20 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K3" t="n">
-        <v>20000</v>
+        <v>9000</v>
       </c>
       <c r="L3" t="n">
-        <v>22000</v>
+        <v>10000</v>
       </c>
       <c r="M3" t="n">
-        <v>21333</v>
+        <v>9500</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -595,10 +595,10 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>711</v>
+        <v>190</v>
       </c>
       <c r="Q3" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R3" t="inlineStr">
         <is>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44433</v>
+        <v>44489</v>
       </c>
       <c r="E4" t="n">
         <v>8</v>
@@ -636,7 +636,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -648,17 +648,17 @@
         <v>100</v>
       </c>
       <c r="K4" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="L4" t="n">
-        <v>15000</v>
+        <v>8500</v>
       </c>
       <c r="M4" t="n">
-        <v>14500</v>
+        <v>8250</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -667,10 +667,10 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="Q4" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R4" t="inlineStr">
         <is>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44497</v>
+        <v>44399</v>
       </c>
       <c r="E5" t="n">
         <v>8</v>
@@ -708,7 +708,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -717,20 +717,20 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>180</v>
+        <v>100</v>
       </c>
       <c r="K5" t="n">
-        <v>6500</v>
+        <v>14000</v>
       </c>
       <c r="L5" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="M5" t="n">
-        <v>6778</v>
+        <v>14500</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -739,10 +739,10 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>136</v>
+        <v>483</v>
       </c>
       <c r="Q5" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R5" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44497</v>
+        <v>44721</v>
       </c>
       <c r="E6" t="n">
         <v>8</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="K6" t="n">
-        <v>7000</v>
+        <v>19000</v>
       </c>
       <c r="L6" t="n">
-        <v>7500</v>
+        <v>20000</v>
       </c>
       <c r="M6" t="n">
-        <v>7250</v>
+        <v>19533</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>242</v>
+        <v>651</v>
       </c>
       <c r="Q6" t="n">
         <v>30</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44497</v>
+        <v>44364</v>
       </c>
       <c r="E7" t="n">
         <v>8</v>
@@ -852,7 +852,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -861,32 +861,32 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="K7" t="n">
-        <v>6000</v>
+        <v>19000</v>
       </c>
       <c r="L7" t="n">
-        <v>6500</v>
+        <v>20000</v>
       </c>
       <c r="M7" t="n">
-        <v>6192</v>
+        <v>19500</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P7" t="n">
-        <v>155</v>
+        <v>390</v>
       </c>
       <c r="Q7" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R7" t="inlineStr">
         <is>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44489</v>
+        <v>44364</v>
       </c>
       <c r="E8" t="n">
         <v>8</v>
@@ -924,7 +924,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -936,17 +936,17 @@
         <v>100</v>
       </c>
       <c r="K8" t="n">
-        <v>9000</v>
+        <v>19000</v>
       </c>
       <c r="L8" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="M8" t="n">
-        <v>9500</v>
+        <v>19500</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
@@ -955,10 +955,10 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>190</v>
+        <v>650</v>
       </c>
       <c r="Q8" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R8" t="inlineStr">
         <is>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44489</v>
+        <v>44383</v>
       </c>
       <c r="E9" t="n">
         <v>8</v>
@@ -996,7 +996,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1005,20 +1005,20 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K9" t="n">
-        <v>8000</v>
+        <v>17000</v>
       </c>
       <c r="L9" t="n">
-        <v>8500</v>
+        <v>18000</v>
       </c>
       <c r="M9" t="n">
-        <v>8250</v>
+        <v>17400</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
@@ -1027,10 +1027,10 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>275</v>
+        <v>348</v>
       </c>
       <c r="Q9" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R9" t="inlineStr">
         <is>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44421</v>
+        <v>44420</v>
       </c>
       <c r="E10" t="n">
         <v>8</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44342</v>
+        <v>44376</v>
       </c>
       <c r="E11" t="n">
         <v>8</v>
@@ -1152,13 +1152,13 @@
         <v>100</v>
       </c>
       <c r="K11" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="L11" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="M11" t="n">
-        <v>17500</v>
+        <v>19500</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>583</v>
+        <v>650</v>
       </c>
       <c r="Q11" t="n">
         <v>30</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44342</v>
+        <v>44397</v>
       </c>
       <c r="E12" t="n">
         <v>8</v>
@@ -1212,7 +1212,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1224,17 +1224,17 @@
         <v>100</v>
       </c>
       <c r="K12" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L12" t="n">
         <v>15000</v>
       </c>
-      <c r="L12" t="n">
-        <v>16000</v>
-      </c>
       <c r="M12" t="n">
-        <v>15500</v>
+        <v>14500</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
@@ -1243,10 +1243,10 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>388</v>
+        <v>483</v>
       </c>
       <c r="Q12" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R12" t="inlineStr">
         <is>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44483</v>
+        <v>44428</v>
       </c>
       <c r="E13" t="n">
         <v>8</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>450</v>
+        <v>100</v>
       </c>
       <c r="K13" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="L13" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M13" t="n">
-        <v>11444</v>
+        <v>14500</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>381</v>
+        <v>483</v>
       </c>
       <c r="Q13" t="n">
         <v>30</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44483</v>
+        <v>44680</v>
       </c>
       <c r="E14" t="n">
         <v>8</v>
@@ -1356,7 +1356,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1365,32 +1365,32 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>220</v>
+        <v>50</v>
       </c>
       <c r="K14" t="n">
-        <v>8000</v>
+        <v>18000</v>
       </c>
       <c r="L14" t="n">
-        <v>8500</v>
+        <v>19000</v>
       </c>
       <c r="M14" t="n">
-        <v>8273</v>
+        <v>18600</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P14" t="n">
-        <v>207</v>
+        <v>620</v>
       </c>
       <c r="Q14" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R14" t="inlineStr">
         <is>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44426</v>
+        <v>44358</v>
       </c>
       <c r="E15" t="n">
         <v>8</v>
@@ -1428,7 +1428,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1437,32 +1437,32 @@
         </is>
       </c>
       <c r="J15" t="n">
+        <v>100</v>
+      </c>
+      <c r="K15" t="n">
+        <v>18000</v>
+      </c>
+      <c r="L15" t="n">
+        <v>20000</v>
+      </c>
+      <c r="M15" t="n">
+        <v>19000</v>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>$/caja 50 unidades</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P15" t="n">
+        <v>380</v>
+      </c>
+      <c r="Q15" t="n">
         <v>50</v>
-      </c>
-      <c r="K15" t="n">
-        <v>12000</v>
-      </c>
-      <c r="L15" t="n">
-        <v>13000</v>
-      </c>
-      <c r="M15" t="n">
-        <v>12600</v>
-      </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>$/caja 40 unidades</t>
-        </is>
-      </c>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="P15" t="n">
-        <v>315</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>40</v>
       </c>
       <c r="R15" t="inlineStr">
         <is>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44484</v>
+        <v>44358</v>
       </c>
       <c r="E16" t="n">
         <v>8</v>
@@ -1500,7 +1500,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1509,20 +1509,20 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>220</v>
+        <v>100</v>
       </c>
       <c r="K16" t="n">
-        <v>8000</v>
+        <v>18000</v>
       </c>
       <c r="L16" t="n">
-        <v>9000</v>
+        <v>20000</v>
       </c>
       <c r="M16" t="n">
-        <v>8455</v>
+        <v>19000</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
@@ -1531,10 +1531,10 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>169</v>
+        <v>633</v>
       </c>
       <c r="Q16" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R16" t="inlineStr">
         <is>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44484</v>
+        <v>44497</v>
       </c>
       <c r="E17" t="n">
         <v>8</v>
@@ -1572,7 +1572,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1581,20 +1581,20 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>220</v>
+        <v>180</v>
       </c>
       <c r="K17" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="L17" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M17" t="n">
-        <v>7727</v>
+        <v>6778</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
@@ -1603,10 +1603,10 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>258</v>
+        <v>136</v>
       </c>
       <c r="Q17" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R17" t="inlineStr">
         <is>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44463</v>
+        <v>44497</v>
       </c>
       <c r="E18" t="n">
         <v>8</v>
@@ -1644,7 +1644,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1653,20 +1653,20 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K18" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="L18" t="n">
-        <v>10000</v>
+        <v>7500</v>
       </c>
       <c r="M18" t="n">
-        <v>9500</v>
+        <v>7250</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
@@ -1675,10 +1675,10 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>190</v>
+        <v>242</v>
       </c>
       <c r="Q18" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R18" t="inlineStr">
         <is>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44376</v>
+        <v>44497</v>
       </c>
       <c r="E19" t="n">
         <v>8</v>
@@ -1716,7 +1716,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1725,32 +1725,32 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="K19" t="n">
-        <v>19000</v>
+        <v>6000</v>
       </c>
       <c r="L19" t="n">
-        <v>20000</v>
+        <v>6500</v>
       </c>
       <c r="M19" t="n">
-        <v>19500</v>
+        <v>6192</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P19" t="n">
-        <v>650</v>
+        <v>155</v>
       </c>
       <c r="Q19" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R19" t="inlineStr">
         <is>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44721</v>
+        <v>44727</v>
       </c>
       <c r="E22" t="n">
         <v>8</v>
@@ -1944,13 +1944,13 @@
         <v>150</v>
       </c>
       <c r="K22" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="L22" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="M22" t="n">
-        <v>19533</v>
+        <v>20467</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>651</v>
+        <v>682</v>
       </c>
       <c r="Q22" t="n">
         <v>30</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44399</v>
+        <v>44722</v>
       </c>
       <c r="E24" t="n">
         <v>8</v>
@@ -2085,16 +2085,16 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K24" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="L24" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="M24" t="n">
-        <v>14500</v>
+        <v>21333</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>483</v>
+        <v>711</v>
       </c>
       <c r="Q24" t="n">
         <v>30</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44428</v>
+        <v>44496</v>
       </c>
       <c r="E25" t="n">
         <v>8</v>
@@ -2148,7 +2148,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -2157,32 +2157,32 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>100</v>
+        <v>350</v>
       </c>
       <c r="K25" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="L25" t="n">
-        <v>15000</v>
+        <v>7500</v>
       </c>
       <c r="M25" t="n">
-        <v>14500</v>
+        <v>7214</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P25" t="n">
-        <v>483</v>
+        <v>180</v>
       </c>
       <c r="Q25" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R25" t="inlineStr">
         <is>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44335</v>
+        <v>44463</v>
       </c>
       <c r="E26" t="n">
         <v>8</v>
@@ -2220,7 +2220,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -2232,17 +2232,17 @@
         <v>100</v>
       </c>
       <c r="K26" t="n">
-        <v>17000</v>
+        <v>9000</v>
       </c>
       <c r="L26" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="M26" t="n">
-        <v>17500</v>
+        <v>9500</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
@@ -2251,10 +2251,10 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>583</v>
+        <v>190</v>
       </c>
       <c r="Q26" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R26" t="inlineStr">
         <is>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44420</v>
+        <v>44484</v>
       </c>
       <c r="E27" t="n">
         <v>8</v>
@@ -2292,7 +2292,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -2301,20 +2301,20 @@
         </is>
       </c>
       <c r="J27" t="n">
-        <v>100</v>
+        <v>220</v>
       </c>
       <c r="K27" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="L27" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="M27" t="n">
-        <v>14500</v>
+        <v>8455</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
@@ -2323,10 +2323,10 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>483</v>
+        <v>169</v>
       </c>
       <c r="Q27" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R27" t="inlineStr">
         <is>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44727</v>
+        <v>44484</v>
       </c>
       <c r="E28" t="n">
         <v>8</v>
@@ -2373,16 +2373,16 @@
         </is>
       </c>
       <c r="J28" t="n">
-        <v>150</v>
+        <v>220</v>
       </c>
       <c r="K28" t="n">
-        <v>20000</v>
+        <v>7500</v>
       </c>
       <c r="L28" t="n">
-        <v>21000</v>
+        <v>8000</v>
       </c>
       <c r="M28" t="n">
-        <v>20467</v>
+        <v>7727</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
@@ -2395,7 +2395,7 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>682</v>
+        <v>258</v>
       </c>
       <c r="Q28" t="n">
         <v>30</v>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44699</v>
+        <v>44342</v>
       </c>
       <c r="E29" t="n">
         <v>8</v>
@@ -2448,13 +2448,13 @@
         <v>100</v>
       </c>
       <c r="K29" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="L29" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="M29" t="n">
-        <v>19500</v>
+        <v>17500</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
@@ -2467,7 +2467,7 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>650</v>
+        <v>583</v>
       </c>
       <c r="Q29" t="n">
         <v>30</v>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44435</v>
+        <v>44342</v>
       </c>
       <c r="E30" t="n">
         <v>8</v>
@@ -2508,7 +2508,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -2520,17 +2520,17 @@
         <v>100</v>
       </c>
       <c r="K30" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L30" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="M30" t="n">
-        <v>14500</v>
+        <v>15500</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
@@ -2539,10 +2539,10 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>290</v>
+        <v>388</v>
       </c>
       <c r="Q30" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R30" t="inlineStr">
         <is>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44680</v>
+        <v>44350</v>
       </c>
       <c r="E31" t="n">
         <v>8</v>
@@ -2580,7 +2580,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -2592,17 +2592,17 @@
         <v>50</v>
       </c>
       <c r="K31" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="L31" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="M31" t="n">
-        <v>18600</v>
+        <v>15600</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
@@ -2611,10 +2611,10 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>620</v>
+        <v>312</v>
       </c>
       <c r="Q31" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R31" t="inlineStr">
         <is>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44454</v>
+        <v>44350</v>
       </c>
       <c r="E32" t="n">
         <v>8</v>
@@ -2652,7 +2652,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -2661,32 +2661,32 @@
         </is>
       </c>
       <c r="J32" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="K32" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="L32" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="M32" t="n">
-        <v>13500</v>
+        <v>17500</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P32" t="n">
-        <v>338</v>
+        <v>583</v>
       </c>
       <c r="Q32" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R32" t="inlineStr">
         <is>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44706</v>
+        <v>44435</v>
       </c>
       <c r="E33" t="n">
         <v>8</v>
@@ -2724,7 +2724,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -2733,32 +2733,32 @@
         </is>
       </c>
       <c r="J33" t="n">
+        <v>100</v>
+      </c>
+      <c r="K33" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L33" t="n">
+        <v>15000</v>
+      </c>
+      <c r="M33" t="n">
+        <v>14500</v>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>$/caja 50 unidades</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P33" t="n">
+        <v>290</v>
+      </c>
+      <c r="Q33" t="n">
         <v>50</v>
-      </c>
-      <c r="K33" t="n">
-        <v>23000</v>
-      </c>
-      <c r="L33" t="n">
-        <v>24000</v>
-      </c>
-      <c r="M33" t="n">
-        <v>23400</v>
-      </c>
-      <c r="N33" t="inlineStr">
-        <is>
-          <t>$/caja 30 unidades</t>
-        </is>
-      </c>
-      <c r="O33" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="P33" t="n">
-        <v>780</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>30</v>
       </c>
       <c r="R33" t="inlineStr">
         <is>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44358</v>
+        <v>44706</v>
       </c>
       <c r="E34" t="n">
         <v>8</v>
@@ -2796,7 +2796,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -2805,20 +2805,20 @@
         </is>
       </c>
       <c r="J34" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K34" t="n">
-        <v>18000</v>
+        <v>23000</v>
       </c>
       <c r="L34" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="M34" t="n">
-        <v>19000</v>
+        <v>23400</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
@@ -2827,10 +2827,10 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>380</v>
+        <v>780</v>
       </c>
       <c r="Q34" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R34" t="inlineStr">
         <is>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44358</v>
+        <v>44335</v>
       </c>
       <c r="E35" t="n">
         <v>8</v>
@@ -2880,13 +2880,13 @@
         <v>100</v>
       </c>
       <c r="K35" t="n">
+        <v>17000</v>
+      </c>
+      <c r="L35" t="n">
         <v>18000</v>
       </c>
-      <c r="L35" t="n">
-        <v>20000</v>
-      </c>
       <c r="M35" t="n">
-        <v>19000</v>
+        <v>17500</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
@@ -2899,7 +2899,7 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>633</v>
+        <v>583</v>
       </c>
       <c r="Q35" t="n">
         <v>30</v>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44383</v>
+        <v>44426</v>
       </c>
       <c r="E36" t="n">
         <v>8</v>
@@ -2940,7 +2940,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -2952,17 +2952,17 @@
         <v>50</v>
       </c>
       <c r="K36" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="L36" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="M36" t="n">
-        <v>17400</v>
+        <v>12600</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
@@ -2971,10 +2971,10 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>348</v>
+        <v>315</v>
       </c>
       <c r="Q36" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R36" t="inlineStr">
         <is>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44350</v>
+        <v>44699</v>
       </c>
       <c r="E37" t="n">
         <v>8</v>
@@ -3012,7 +3012,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -3021,20 +3021,20 @@
         </is>
       </c>
       <c r="J37" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="K37" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="L37" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="M37" t="n">
-        <v>15600</v>
+        <v>19500</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
@@ -3043,10 +3043,10 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>312</v>
+        <v>650</v>
       </c>
       <c r="Q37" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R37" t="inlineStr">
         <is>
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44350</v>
+        <v>44385</v>
       </c>
       <c r="E38" t="n">
         <v>8</v>
@@ -3093,7 +3093,7 @@
         </is>
       </c>
       <c r="J38" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="K38" t="n">
         <v>17000</v>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44496</v>
+        <v>44433</v>
       </c>
       <c r="E39" t="n">
         <v>8</v>
@@ -3156,7 +3156,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -3165,32 +3165,32 @@
         </is>
       </c>
       <c r="J39" t="n">
-        <v>350</v>
+        <v>100</v>
       </c>
       <c r="K39" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="L39" t="n">
-        <v>7500</v>
+        <v>15000</v>
       </c>
       <c r="M39" t="n">
-        <v>7214</v>
+        <v>14500</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P39" t="n">
-        <v>180</v>
+        <v>290</v>
       </c>
       <c r="Q39" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R39" t="inlineStr">
         <is>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44385</v>
+        <v>44421</v>
       </c>
       <c r="E40" t="n">
         <v>8</v>
@@ -3240,13 +3240,13 @@
         <v>100</v>
       </c>
       <c r="K40" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="L40" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M40" t="n">
-        <v>17500</v>
+        <v>14500</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
@@ -3259,7 +3259,7 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>583</v>
+        <v>483</v>
       </c>
       <c r="Q40" t="n">
         <v>30</v>
@@ -3285,7 +3285,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44364</v>
+        <v>44442</v>
       </c>
       <c r="E41" t="n">
         <v>8</v>
@@ -3300,7 +3300,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -3312,17 +3312,17 @@
         <v>100</v>
       </c>
       <c r="K41" t="n">
-        <v>19000</v>
+        <v>14500</v>
       </c>
       <c r="L41" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="M41" t="n">
-        <v>19500</v>
+        <v>14750</v>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
@@ -3331,10 +3331,10 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>390</v>
+        <v>492</v>
       </c>
       <c r="Q41" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R41" t="inlineStr">
         <is>
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44364</v>
+        <v>44483</v>
       </c>
       <c r="E42" t="n">
         <v>8</v>
@@ -3381,16 +3381,16 @@
         </is>
       </c>
       <c r="J42" t="n">
-        <v>100</v>
+        <v>450</v>
       </c>
       <c r="K42" t="n">
-        <v>19000</v>
+        <v>11000</v>
       </c>
       <c r="L42" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="M42" t="n">
-        <v>19500</v>
+        <v>11444</v>
       </c>
       <c r="N42" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>650</v>
+        <v>381</v>
       </c>
       <c r="Q42" t="n">
         <v>30</v>
@@ -3429,7 +3429,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44397</v>
+        <v>44483</v>
       </c>
       <c r="E43" t="n">
         <v>8</v>
@@ -3444,7 +3444,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -3453,32 +3453,32 @@
         </is>
       </c>
       <c r="J43" t="n">
-        <v>100</v>
+        <v>220</v>
       </c>
       <c r="K43" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="L43" t="n">
-        <v>15000</v>
+        <v>8500</v>
       </c>
       <c r="M43" t="n">
-        <v>14500</v>
+        <v>8273</v>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P43" t="n">
-        <v>483</v>
+        <v>207</v>
       </c>
       <c r="Q43" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R43" t="inlineStr">
         <is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Alcachofa.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Alcachofa.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R43"/>
+  <dimension ref="A1:R45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44447</v>
+        <v>44741</v>
       </c>
       <c r="E23" t="n">
         <v>8</v>
@@ -2004,7 +2004,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -2016,17 +2016,17 @@
         <v>100</v>
       </c>
       <c r="K23" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="L23" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="M23" t="n">
-        <v>14500</v>
+        <v>16500</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
@@ -2035,10 +2035,10 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>483</v>
+        <v>330</v>
       </c>
       <c r="Q23" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R23" t="inlineStr">
         <is>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44722</v>
+        <v>44741</v>
       </c>
       <c r="E24" t="n">
         <v>8</v>
@@ -2085,7 +2085,7 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K24" t="n">
         <v>20000</v>
@@ -2094,7 +2094,7 @@
         <v>22000</v>
       </c>
       <c r="M24" t="n">
-        <v>21333</v>
+        <v>21000</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>711</v>
+        <v>700</v>
       </c>
       <c r="Q24" t="n">
         <v>30</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44496</v>
+        <v>44447</v>
       </c>
       <c r="E25" t="n">
         <v>8</v>
@@ -2148,7 +2148,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -2157,32 +2157,32 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>350</v>
+        <v>100</v>
       </c>
       <c r="K25" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="L25" t="n">
-        <v>7500</v>
+        <v>15000</v>
       </c>
       <c r="M25" t="n">
-        <v>7214</v>
+        <v>14500</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P25" t="n">
-        <v>180</v>
+        <v>483</v>
       </c>
       <c r="Q25" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R25" t="inlineStr">
         <is>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44463</v>
+        <v>44722</v>
       </c>
       <c r="E26" t="n">
         <v>8</v>
@@ -2220,7 +2220,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -2229,20 +2229,20 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K26" t="n">
-        <v>9000</v>
+        <v>20000</v>
       </c>
       <c r="L26" t="n">
-        <v>10000</v>
+        <v>22000</v>
       </c>
       <c r="M26" t="n">
-        <v>9500</v>
+        <v>21333</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
@@ -2251,10 +2251,10 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>190</v>
+        <v>711</v>
       </c>
       <c r="Q26" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R26" t="inlineStr">
         <is>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44484</v>
+        <v>44496</v>
       </c>
       <c r="E27" t="n">
         <v>8</v>
@@ -2292,7 +2292,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -2301,32 +2301,32 @@
         </is>
       </c>
       <c r="J27" t="n">
-        <v>220</v>
+        <v>350</v>
       </c>
       <c r="K27" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L27" t="n">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="M27" t="n">
-        <v>8455</v>
+        <v>7214</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P27" t="n">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="Q27" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R27" t="inlineStr">
         <is>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44484</v>
+        <v>44463</v>
       </c>
       <c r="E28" t="n">
         <v>8</v>
@@ -2364,7 +2364,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -2373,20 +2373,20 @@
         </is>
       </c>
       <c r="J28" t="n">
-        <v>220</v>
+        <v>100</v>
       </c>
       <c r="K28" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="L28" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M28" t="n">
-        <v>7727</v>
+        <v>9500</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
@@ -2395,10 +2395,10 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>258</v>
+        <v>190</v>
       </c>
       <c r="Q28" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R28" t="inlineStr">
         <is>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44342</v>
+        <v>44484</v>
       </c>
       <c r="E29" t="n">
         <v>8</v>
@@ -2436,7 +2436,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -2445,20 +2445,20 @@
         </is>
       </c>
       <c r="J29" t="n">
-        <v>100</v>
+        <v>220</v>
       </c>
       <c r="K29" t="n">
-        <v>17000</v>
+        <v>8000</v>
       </c>
       <c r="L29" t="n">
-        <v>18000</v>
+        <v>9000</v>
       </c>
       <c r="M29" t="n">
-        <v>17500</v>
+        <v>8455</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
@@ -2467,10 +2467,10 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>583</v>
+        <v>169</v>
       </c>
       <c r="Q29" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R29" t="inlineStr">
         <is>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44342</v>
+        <v>44484</v>
       </c>
       <c r="E30" t="n">
         <v>8</v>
@@ -2508,7 +2508,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -2517,20 +2517,20 @@
         </is>
       </c>
       <c r="J30" t="n">
-        <v>100</v>
+        <v>220</v>
       </c>
       <c r="K30" t="n">
-        <v>15000</v>
+        <v>7500</v>
       </c>
       <c r="L30" t="n">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="M30" t="n">
-        <v>15500</v>
+        <v>7727</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
@@ -2539,10 +2539,10 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>388</v>
+        <v>258</v>
       </c>
       <c r="Q30" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R30" t="inlineStr">
         <is>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44350</v>
+        <v>44342</v>
       </c>
       <c r="E31" t="n">
         <v>8</v>
@@ -2580,7 +2580,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -2589,20 +2589,20 @@
         </is>
       </c>
       <c r="J31" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="K31" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="L31" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="M31" t="n">
-        <v>15600</v>
+        <v>17500</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
@@ -2611,10 +2611,10 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>312</v>
+        <v>583</v>
       </c>
       <c r="Q31" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R31" t="inlineStr">
         <is>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44350</v>
+        <v>44342</v>
       </c>
       <c r="E32" t="n">
         <v>8</v>
@@ -2652,7 +2652,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -2661,32 +2661,32 @@
         </is>
       </c>
       <c r="J32" t="n">
+        <v>100</v>
+      </c>
+      <c r="K32" t="n">
+        <v>15000</v>
+      </c>
+      <c r="L32" t="n">
+        <v>16000</v>
+      </c>
+      <c r="M32" t="n">
+        <v>15500</v>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>$/caja 40 unidades</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P32" t="n">
+        <v>388</v>
+      </c>
+      <c r="Q32" t="n">
         <v>40</v>
-      </c>
-      <c r="K32" t="n">
-        <v>17000</v>
-      </c>
-      <c r="L32" t="n">
-        <v>18000</v>
-      </c>
-      <c r="M32" t="n">
-        <v>17500</v>
-      </c>
-      <c r="N32" t="inlineStr">
-        <is>
-          <t>$/caja 30 unidades</t>
-        </is>
-      </c>
-      <c r="O32" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="P32" t="n">
-        <v>583</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>30</v>
       </c>
       <c r="R32" t="inlineStr">
         <is>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44435</v>
+        <v>44350</v>
       </c>
       <c r="E33" t="n">
         <v>8</v>
@@ -2733,16 +2733,16 @@
         </is>
       </c>
       <c r="J33" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K33" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L33" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="M33" t="n">
-        <v>14500</v>
+        <v>15600</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
@@ -2755,7 +2755,7 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>290</v>
+        <v>312</v>
       </c>
       <c r="Q33" t="n">
         <v>50</v>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44706</v>
+        <v>44350</v>
       </c>
       <c r="E34" t="n">
         <v>8</v>
@@ -2805,16 +2805,16 @@
         </is>
       </c>
       <c r="J34" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="K34" t="n">
-        <v>23000</v>
+        <v>17000</v>
       </c>
       <c r="L34" t="n">
-        <v>24000</v>
+        <v>18000</v>
       </c>
       <c r="M34" t="n">
-        <v>23400</v>
+        <v>17500</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>780</v>
+        <v>583</v>
       </c>
       <c r="Q34" t="n">
         <v>30</v>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44335</v>
+        <v>44435</v>
       </c>
       <c r="E35" t="n">
         <v>8</v>
@@ -2868,7 +2868,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -2880,17 +2880,17 @@
         <v>100</v>
       </c>
       <c r="K35" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="L35" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M35" t="n">
-        <v>17500</v>
+        <v>14500</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
@@ -2899,10 +2899,10 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>583</v>
+        <v>290</v>
       </c>
       <c r="Q35" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R35" t="inlineStr">
         <is>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44426</v>
+        <v>44706</v>
       </c>
       <c r="E36" t="n">
         <v>8</v>
@@ -2940,7 +2940,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -2952,17 +2952,17 @@
         <v>50</v>
       </c>
       <c r="K36" t="n">
-        <v>12000</v>
+        <v>23000</v>
       </c>
       <c r="L36" t="n">
-        <v>13000</v>
+        <v>24000</v>
       </c>
       <c r="M36" t="n">
-        <v>12600</v>
+        <v>23400</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
@@ -2971,10 +2971,10 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>315</v>
+        <v>780</v>
       </c>
       <c r="Q36" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R36" t="inlineStr">
         <is>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44699</v>
+        <v>44335</v>
       </c>
       <c r="E37" t="n">
         <v>8</v>
@@ -3024,13 +3024,13 @@
         <v>100</v>
       </c>
       <c r="K37" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="L37" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="M37" t="n">
-        <v>19500</v>
+        <v>17500</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
@@ -3043,7 +3043,7 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>650</v>
+        <v>583</v>
       </c>
       <c r="Q37" t="n">
         <v>30</v>
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44385</v>
+        <v>44426</v>
       </c>
       <c r="E38" t="n">
         <v>8</v>
@@ -3084,7 +3084,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -3093,20 +3093,20 @@
         </is>
       </c>
       <c r="J38" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K38" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="L38" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="M38" t="n">
-        <v>17500</v>
+        <v>12600</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
@@ -3115,10 +3115,10 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>583</v>
+        <v>315</v>
       </c>
       <c r="Q38" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R38" t="inlineStr">
         <is>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44433</v>
+        <v>44699</v>
       </c>
       <c r="E39" t="n">
         <v>8</v>
@@ -3156,7 +3156,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -3168,17 +3168,17 @@
         <v>100</v>
       </c>
       <c r="K39" t="n">
-        <v>14000</v>
+        <v>19000</v>
       </c>
       <c r="L39" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="M39" t="n">
-        <v>14500</v>
+        <v>19500</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
@@ -3187,10 +3187,10 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>290</v>
+        <v>650</v>
       </c>
       <c r="Q39" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R39" t="inlineStr">
         <is>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44421</v>
+        <v>44385</v>
       </c>
       <c r="E40" t="n">
         <v>8</v>
@@ -3240,13 +3240,13 @@
         <v>100</v>
       </c>
       <c r="K40" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="L40" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M40" t="n">
-        <v>14500</v>
+        <v>17500</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
@@ -3259,7 +3259,7 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>483</v>
+        <v>583</v>
       </c>
       <c r="Q40" t="n">
         <v>30</v>
@@ -3285,7 +3285,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44442</v>
+        <v>44433</v>
       </c>
       <c r="E41" t="n">
         <v>8</v>
@@ -3300,7 +3300,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -3312,17 +3312,17 @@
         <v>100</v>
       </c>
       <c r="K41" t="n">
-        <v>14500</v>
+        <v>14000</v>
       </c>
       <c r="L41" t="n">
         <v>15000</v>
       </c>
       <c r="M41" t="n">
-        <v>14750</v>
+        <v>14500</v>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
@@ -3331,10 +3331,10 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>492</v>
+        <v>290</v>
       </c>
       <c r="Q41" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R41" t="inlineStr">
         <is>
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44483</v>
+        <v>44421</v>
       </c>
       <c r="E42" t="n">
         <v>8</v>
@@ -3381,16 +3381,16 @@
         </is>
       </c>
       <c r="J42" t="n">
-        <v>450</v>
+        <v>100</v>
       </c>
       <c r="K42" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="L42" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M42" t="n">
-        <v>11444</v>
+        <v>14500</v>
       </c>
       <c r="N42" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>381</v>
+        <v>483</v>
       </c>
       <c r="Q42" t="n">
         <v>30</v>
@@ -3429,58 +3429,202 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
+        <v>44442</v>
+      </c>
+      <c r="E43" t="n">
+        <v>8</v>
+      </c>
+      <c r="F43" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Española</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J43" t="n">
+        <v>100</v>
+      </c>
+      <c r="K43" t="n">
+        <v>14500</v>
+      </c>
+      <c r="L43" t="n">
+        <v>15000</v>
+      </c>
+      <c r="M43" t="n">
+        <v>14750</v>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>$/caja 30 unidades</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P43" t="n">
+        <v>492</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>30</v>
+      </c>
+      <c r="R43" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>11</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D44" s="2" t="n">
         <v>44483</v>
       </c>
-      <c r="E43" t="n">
-        <v>8</v>
-      </c>
-      <c r="F43" t="n">
-        <v>100112013</v>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>Alcachofa</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr">
+      <c r="E44" t="n">
+        <v>8</v>
+      </c>
+      <c r="F44" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Española</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J44" t="n">
+        <v>450</v>
+      </c>
+      <c r="K44" t="n">
+        <v>11000</v>
+      </c>
+      <c r="L44" t="n">
+        <v>12000</v>
+      </c>
+      <c r="M44" t="n">
+        <v>11444</v>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>$/caja 30 unidades</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P44" t="n">
+        <v>381</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>30</v>
+      </c>
+      <c r="R44" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>11</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D45" s="2" t="n">
+        <v>44483</v>
+      </c>
+      <c r="E45" t="n">
+        <v>8</v>
+      </c>
+      <c r="F45" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
         <is>
           <t>Madrigal</t>
         </is>
       </c>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>Primera</t>
-        </is>
-      </c>
-      <c r="J43" t="n">
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J45" t="n">
         <v>220</v>
       </c>
-      <c r="K43" t="n">
+      <c r="K45" t="n">
         <v>8000</v>
       </c>
-      <c r="L43" t="n">
+      <c r="L45" t="n">
         <v>8500</v>
       </c>
-      <c r="M43" t="n">
+      <c r="M45" t="n">
         <v>8273</v>
       </c>
-      <c r="N43" t="inlineStr">
+      <c r="N45" t="inlineStr">
         <is>
           <t>$/caja 40 unidades</t>
         </is>
       </c>
-      <c r="O43" t="inlineStr">
+      <c r="O45" t="inlineStr">
         <is>
           <t>Región de Coquimbo</t>
         </is>
       </c>
-      <c r="P43" t="n">
+      <c r="P45" t="n">
         <v>207</v>
       </c>
-      <c r="Q43" t="n">
+      <c r="Q45" t="n">
         <v>40</v>
       </c>
-      <c r="R43" t="inlineStr">
+      <c r="R45" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Alcachofa.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Alcachofa.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R45"/>
+  <dimension ref="A1:R46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44699</v>
+        <v>44748</v>
       </c>
       <c r="E39" t="n">
         <v>8</v>
@@ -3156,7 +3156,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -3165,20 +3165,20 @@
         </is>
       </c>
       <c r="J39" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="K39" t="n">
-        <v>19000</v>
+        <v>15000</v>
       </c>
       <c r="L39" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="M39" t="n">
-        <v>19500</v>
+        <v>15545</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
@@ -3187,10 +3187,10 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>650</v>
+        <v>389</v>
       </c>
       <c r="Q39" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R39" t="inlineStr">
         <is>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44385</v>
+        <v>44699</v>
       </c>
       <c r="E40" t="n">
         <v>8</v>
@@ -3240,13 +3240,13 @@
         <v>100</v>
       </c>
       <c r="K40" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="L40" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="M40" t="n">
-        <v>17500</v>
+        <v>19500</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
@@ -3259,7 +3259,7 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>583</v>
+        <v>650</v>
       </c>
       <c r="Q40" t="n">
         <v>30</v>
@@ -3285,7 +3285,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44433</v>
+        <v>44385</v>
       </c>
       <c r="E41" t="n">
         <v>8</v>
@@ -3300,7 +3300,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -3312,17 +3312,17 @@
         <v>100</v>
       </c>
       <c r="K41" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="L41" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M41" t="n">
-        <v>14500</v>
+        <v>17500</v>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
@@ -3331,10 +3331,10 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>290</v>
+        <v>583</v>
       </c>
       <c r="Q41" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R41" t="inlineStr">
         <is>
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44421</v>
+        <v>44433</v>
       </c>
       <c r="E42" t="n">
         <v>8</v>
@@ -3372,7 +3372,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -3394,7 +3394,7 @@
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
@@ -3403,10 +3403,10 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>483</v>
+        <v>290</v>
       </c>
       <c r="Q42" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R42" t="inlineStr">
         <is>
@@ -3429,7 +3429,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44442</v>
+        <v>44421</v>
       </c>
       <c r="E43" t="n">
         <v>8</v>
@@ -3456,13 +3456,13 @@
         <v>100</v>
       </c>
       <c r="K43" t="n">
-        <v>14500</v>
+        <v>14000</v>
       </c>
       <c r="L43" t="n">
         <v>15000</v>
       </c>
       <c r="M43" t="n">
-        <v>14750</v>
+        <v>14500</v>
       </c>
       <c r="N43" t="inlineStr">
         <is>
@@ -3475,7 +3475,7 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>492</v>
+        <v>483</v>
       </c>
       <c r="Q43" t="n">
         <v>30</v>
@@ -3501,7 +3501,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44483</v>
+        <v>44442</v>
       </c>
       <c r="E44" t="n">
         <v>8</v>
@@ -3525,16 +3525,16 @@
         </is>
       </c>
       <c r="J44" t="n">
-        <v>450</v>
+        <v>100</v>
       </c>
       <c r="K44" t="n">
-        <v>11000</v>
+        <v>14500</v>
       </c>
       <c r="L44" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M44" t="n">
-        <v>11444</v>
+        <v>14750</v>
       </c>
       <c r="N44" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>381</v>
+        <v>492</v>
       </c>
       <c r="Q44" t="n">
         <v>30</v>
@@ -3588,43 +3588,115 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
+          <t>Española</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J45" t="n">
+        <v>450</v>
+      </c>
+      <c r="K45" t="n">
+        <v>11000</v>
+      </c>
+      <c r="L45" t="n">
+        <v>12000</v>
+      </c>
+      <c r="M45" t="n">
+        <v>11444</v>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>$/caja 30 unidades</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P45" t="n">
+        <v>381</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>30</v>
+      </c>
+      <c r="R45" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>11</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D46" s="2" t="n">
+        <v>44483</v>
+      </c>
+      <c r="E46" t="n">
+        <v>8</v>
+      </c>
+      <c r="F46" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
           <t>Madrigal</t>
         </is>
       </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>Primera</t>
-        </is>
-      </c>
-      <c r="J45" t="n">
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J46" t="n">
         <v>220</v>
       </c>
-      <c r="K45" t="n">
+      <c r="K46" t="n">
         <v>8000</v>
       </c>
-      <c r="L45" t="n">
+      <c r="L46" t="n">
         <v>8500</v>
       </c>
-      <c r="M45" t="n">
+      <c r="M46" t="n">
         <v>8273</v>
       </c>
-      <c r="N45" t="inlineStr">
+      <c r="N46" t="inlineStr">
         <is>
           <t>$/caja 40 unidades</t>
         </is>
       </c>
-      <c r="O45" t="inlineStr">
+      <c r="O46" t="inlineStr">
         <is>
           <t>Región de Coquimbo</t>
         </is>
       </c>
-      <c r="P45" t="n">
+      <c r="P46" t="n">
         <v>207</v>
       </c>
-      <c r="Q45" t="n">
+      <c r="Q46" t="n">
         <v>40</v>
       </c>
-      <c r="R45" t="inlineStr">
+      <c r="R46" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Alcachofa.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Alcachofa.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R46"/>
+  <dimension ref="A1:R47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44399</v>
+        <v>44749</v>
       </c>
       <c r="E5" t="n">
         <v>8</v>
@@ -708,7 +708,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -717,20 +717,20 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="K5" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="L5" t="n">
         <v>15000</v>
       </c>
       <c r="M5" t="n">
-        <v>14500</v>
+        <v>14200</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -739,10 +739,10 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>483</v>
+        <v>284</v>
       </c>
       <c r="Q5" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R5" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44721</v>
+        <v>44399</v>
       </c>
       <c r="E6" t="n">
         <v>8</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="K6" t="n">
-        <v>19000</v>
+        <v>14000</v>
       </c>
       <c r="L6" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="M6" t="n">
-        <v>19533</v>
+        <v>14500</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>651</v>
+        <v>483</v>
       </c>
       <c r="Q6" t="n">
         <v>30</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44364</v>
+        <v>44721</v>
       </c>
       <c r="E7" t="n">
         <v>8</v>
@@ -852,7 +852,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -861,7 +861,7 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="K7" t="n">
         <v>19000</v>
@@ -870,11 +870,11 @@
         <v>20000</v>
       </c>
       <c r="M7" t="n">
-        <v>19500</v>
+        <v>19533</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -883,10 +883,10 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>390</v>
+        <v>651</v>
       </c>
       <c r="Q7" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R7" t="inlineStr">
         <is>
@@ -924,7 +924,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -946,7 +946,7 @@
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
@@ -955,10 +955,10 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>650</v>
+        <v>390</v>
       </c>
       <c r="Q8" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R8" t="inlineStr">
         <is>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44383</v>
+        <v>44364</v>
       </c>
       <c r="E9" t="n">
         <v>8</v>
@@ -996,7 +996,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1005,20 +1005,20 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="K9" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="L9" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="M9" t="n">
-        <v>17400</v>
+        <v>19500</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
@@ -1027,10 +1027,10 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>348</v>
+        <v>650</v>
       </c>
       <c r="Q9" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R9" t="inlineStr">
         <is>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44420</v>
+        <v>44383</v>
       </c>
       <c r="E10" t="n">
         <v>8</v>
@@ -1068,7 +1068,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1077,20 +1077,20 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K10" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="L10" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M10" t="n">
-        <v>14500</v>
+        <v>17400</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
@@ -1099,10 +1099,10 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>483</v>
+        <v>348</v>
       </c>
       <c r="Q10" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R10" t="inlineStr">
         <is>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44376</v>
+        <v>44420</v>
       </c>
       <c r="E11" t="n">
         <v>8</v>
@@ -1152,13 +1152,13 @@
         <v>100</v>
       </c>
       <c r="K11" t="n">
-        <v>19000</v>
+        <v>14000</v>
       </c>
       <c r="L11" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="M11" t="n">
-        <v>19500</v>
+        <v>14500</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>650</v>
+        <v>483</v>
       </c>
       <c r="Q11" t="n">
         <v>30</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44397</v>
+        <v>44376</v>
       </c>
       <c r="E12" t="n">
         <v>8</v>
@@ -1224,13 +1224,13 @@
         <v>100</v>
       </c>
       <c r="K12" t="n">
-        <v>14000</v>
+        <v>19000</v>
       </c>
       <c r="L12" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="M12" t="n">
-        <v>14500</v>
+        <v>19500</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>483</v>
+        <v>650</v>
       </c>
       <c r="Q12" t="n">
         <v>30</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44428</v>
+        <v>44397</v>
       </c>
       <c r="E13" t="n">
         <v>8</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44680</v>
+        <v>44428</v>
       </c>
       <c r="E14" t="n">
         <v>8</v>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="K14" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="L14" t="n">
-        <v>19000</v>
+        <v>15000</v>
       </c>
       <c r="M14" t="n">
-        <v>18600</v>
+        <v>14500</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>620</v>
+        <v>483</v>
       </c>
       <c r="Q14" t="n">
         <v>30</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44358</v>
+        <v>44680</v>
       </c>
       <c r="E15" t="n">
         <v>8</v>
@@ -1428,7 +1428,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1437,20 +1437,20 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K15" t="n">
         <v>18000</v>
       </c>
       <c r="L15" t="n">
-        <v>20000</v>
+        <v>19000</v>
       </c>
       <c r="M15" t="n">
-        <v>19000</v>
+        <v>18600</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
@@ -1459,10 +1459,10 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>380</v>
+        <v>620</v>
       </c>
       <c r="Q15" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R15" t="inlineStr">
         <is>
@@ -1500,7 +1500,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1522,7 +1522,7 @@
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
@@ -1531,10 +1531,10 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>633</v>
+        <v>380</v>
       </c>
       <c r="Q16" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R16" t="inlineStr">
         <is>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44497</v>
+        <v>44358</v>
       </c>
       <c r="E17" t="n">
         <v>8</v>
@@ -1572,7 +1572,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1581,20 +1581,20 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>180</v>
+        <v>100</v>
       </c>
       <c r="K17" t="n">
-        <v>6500</v>
+        <v>18000</v>
       </c>
       <c r="L17" t="n">
-        <v>7000</v>
+        <v>20000</v>
       </c>
       <c r="M17" t="n">
-        <v>6778</v>
+        <v>19000</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
@@ -1603,10 +1603,10 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>136</v>
+        <v>633</v>
       </c>
       <c r="Q17" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R17" t="inlineStr">
         <is>
@@ -1644,7 +1644,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1653,20 +1653,20 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="K18" t="n">
+        <v>6500</v>
+      </c>
+      <c r="L18" t="n">
         <v>7000</v>
       </c>
-      <c r="L18" t="n">
-        <v>7500</v>
-      </c>
       <c r="M18" t="n">
-        <v>7250</v>
+        <v>6778</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
@@ -1675,10 +1675,10 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>242</v>
+        <v>136</v>
       </c>
       <c r="Q18" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R18" t="inlineStr">
         <is>
@@ -1716,7 +1716,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1725,32 +1725,32 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>130</v>
+        <v>200</v>
       </c>
       <c r="K19" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L19" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="M19" t="n">
-        <v>6192</v>
+        <v>7250</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P19" t="n">
-        <v>155</v>
+        <v>242</v>
       </c>
       <c r="Q19" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R19" t="inlineStr">
         <is>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44729</v>
+        <v>44497</v>
       </c>
       <c r="E20" t="n">
         <v>8</v>
@@ -1788,7 +1788,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1797,16 +1797,16 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>200</v>
+        <v>130</v>
       </c>
       <c r="K20" t="n">
-        <v>17000</v>
+        <v>6000</v>
       </c>
       <c r="L20" t="n">
-        <v>18000</v>
+        <v>6500</v>
       </c>
       <c r="M20" t="n">
-        <v>17500</v>
+        <v>6192</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1815,11 +1815,11 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P20" t="n">
-        <v>438</v>
+        <v>155</v>
       </c>
       <c r="Q20" t="n">
         <v>40</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44441</v>
+        <v>44729</v>
       </c>
       <c r="E21" t="n">
         <v>8</v>
@@ -1860,7 +1860,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1869,20 +1869,20 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K21" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="L21" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="M21" t="n">
-        <v>13500</v>
+        <v>17500</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
@@ -1891,10 +1891,10 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>450</v>
+        <v>438</v>
       </c>
       <c r="Q21" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R21" t="inlineStr">
         <is>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44727</v>
+        <v>44441</v>
       </c>
       <c r="E22" t="n">
         <v>8</v>
@@ -1941,16 +1941,16 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="K22" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="L22" t="n">
-        <v>21000</v>
+        <v>14000</v>
       </c>
       <c r="M22" t="n">
-        <v>20467</v>
+        <v>13500</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>682</v>
+        <v>450</v>
       </c>
       <c r="Q22" t="n">
         <v>30</v>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44741</v>
+        <v>44727</v>
       </c>
       <c r="E23" t="n">
         <v>8</v>
@@ -2004,7 +2004,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -2013,20 +2013,20 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="K23" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="L23" t="n">
-        <v>17000</v>
+        <v>21000</v>
       </c>
       <c r="M23" t="n">
-        <v>16500</v>
+        <v>20467</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
@@ -2035,10 +2035,10 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>330</v>
+        <v>682</v>
       </c>
       <c r="Q23" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R23" t="inlineStr">
         <is>
@@ -2076,7 +2076,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -2088,17 +2088,17 @@
         <v>100</v>
       </c>
       <c r="K24" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="L24" t="n">
-        <v>22000</v>
+        <v>17000</v>
       </c>
       <c r="M24" t="n">
-        <v>21000</v>
+        <v>16500</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
@@ -2107,10 +2107,10 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>700</v>
+        <v>330</v>
       </c>
       <c r="Q24" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R24" t="inlineStr">
         <is>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44447</v>
+        <v>44741</v>
       </c>
       <c r="E25" t="n">
         <v>8</v>
@@ -2160,13 +2160,13 @@
         <v>100</v>
       </c>
       <c r="K25" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="L25" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="M25" t="n">
-        <v>14500</v>
+        <v>21000</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>483</v>
+        <v>700</v>
       </c>
       <c r="Q25" t="n">
         <v>30</v>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44722</v>
+        <v>44447</v>
       </c>
       <c r="E26" t="n">
         <v>8</v>
@@ -2229,16 +2229,16 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K26" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="L26" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="M26" t="n">
-        <v>21333</v>
+        <v>14500</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
@@ -2251,7 +2251,7 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>711</v>
+        <v>483</v>
       </c>
       <c r="Q26" t="n">
         <v>30</v>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44496</v>
+        <v>44722</v>
       </c>
       <c r="E27" t="n">
         <v>8</v>
@@ -2292,7 +2292,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -2301,32 +2301,32 @@
         </is>
       </c>
       <c r="J27" t="n">
-        <v>350</v>
+        <v>120</v>
       </c>
       <c r="K27" t="n">
-        <v>7000</v>
+        <v>20000</v>
       </c>
       <c r="L27" t="n">
-        <v>7500</v>
+        <v>22000</v>
       </c>
       <c r="M27" t="n">
-        <v>7214</v>
+        <v>21333</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P27" t="n">
-        <v>180</v>
+        <v>711</v>
       </c>
       <c r="Q27" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R27" t="inlineStr">
         <is>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44463</v>
+        <v>44496</v>
       </c>
       <c r="E28" t="n">
         <v>8</v>
@@ -2364,7 +2364,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -2373,32 +2373,32 @@
         </is>
       </c>
       <c r="J28" t="n">
-        <v>100</v>
+        <v>350</v>
       </c>
       <c r="K28" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="L28" t="n">
-        <v>10000</v>
+        <v>7500</v>
       </c>
       <c r="M28" t="n">
-        <v>9500</v>
+        <v>7214</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P28" t="n">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="Q28" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R28" t="inlineStr">
         <is>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44484</v>
+        <v>44463</v>
       </c>
       <c r="E29" t="n">
         <v>8</v>
@@ -2445,16 +2445,16 @@
         </is>
       </c>
       <c r="J29" t="n">
-        <v>220</v>
+        <v>100</v>
       </c>
       <c r="K29" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="L29" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M29" t="n">
-        <v>8455</v>
+        <v>9500</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
@@ -2467,7 +2467,7 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>169</v>
+        <v>190</v>
       </c>
       <c r="Q29" t="n">
         <v>50</v>
@@ -2508,7 +2508,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -2520,17 +2520,17 @@
         <v>220</v>
       </c>
       <c r="K30" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="L30" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M30" t="n">
-        <v>7727</v>
+        <v>8455</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
@@ -2539,10 +2539,10 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>258</v>
+        <v>169</v>
       </c>
       <c r="Q30" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R30" t="inlineStr">
         <is>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44342</v>
+        <v>44484</v>
       </c>
       <c r="E31" t="n">
         <v>8</v>
@@ -2589,16 +2589,16 @@
         </is>
       </c>
       <c r="J31" t="n">
-        <v>100</v>
+        <v>220</v>
       </c>
       <c r="K31" t="n">
-        <v>17000</v>
+        <v>7500</v>
       </c>
       <c r="L31" t="n">
-        <v>18000</v>
+        <v>8000</v>
       </c>
       <c r="M31" t="n">
-        <v>17500</v>
+        <v>7727</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
@@ -2611,7 +2611,7 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>583</v>
+        <v>258</v>
       </c>
       <c r="Q31" t="n">
         <v>30</v>
@@ -2652,7 +2652,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -2664,17 +2664,17 @@
         <v>100</v>
       </c>
       <c r="K32" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="L32" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="M32" t="n">
-        <v>15500</v>
+        <v>17500</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
@@ -2683,10 +2683,10 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>388</v>
+        <v>583</v>
       </c>
       <c r="Q32" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R32" t="inlineStr">
         <is>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44350</v>
+        <v>44342</v>
       </c>
       <c r="E33" t="n">
         <v>8</v>
@@ -2724,7 +2724,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -2733,7 +2733,7 @@
         </is>
       </c>
       <c r="J33" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="K33" t="n">
         <v>15000</v>
@@ -2742,11 +2742,11 @@
         <v>16000</v>
       </c>
       <c r="M33" t="n">
-        <v>15600</v>
+        <v>15500</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
@@ -2755,10 +2755,10 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>312</v>
+        <v>388</v>
       </c>
       <c r="Q33" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R33" t="inlineStr">
         <is>
@@ -2796,7 +2796,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -2805,20 +2805,20 @@
         </is>
       </c>
       <c r="J34" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K34" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="L34" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="M34" t="n">
-        <v>17500</v>
+        <v>15600</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
@@ -2827,10 +2827,10 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>583</v>
+        <v>312</v>
       </c>
       <c r="Q34" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R34" t="inlineStr">
         <is>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44435</v>
+        <v>44350</v>
       </c>
       <c r="E35" t="n">
         <v>8</v>
@@ -2868,7 +2868,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -2877,20 +2877,20 @@
         </is>
       </c>
       <c r="J35" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="K35" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="L35" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M35" t="n">
-        <v>14500</v>
+        <v>17500</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
@@ -2899,10 +2899,10 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>290</v>
+        <v>583</v>
       </c>
       <c r="Q35" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R35" t="inlineStr">
         <is>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44706</v>
+        <v>44435</v>
       </c>
       <c r="E36" t="n">
         <v>8</v>
@@ -2940,7 +2940,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -2949,32 +2949,32 @@
         </is>
       </c>
       <c r="J36" t="n">
+        <v>100</v>
+      </c>
+      <c r="K36" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L36" t="n">
+        <v>15000</v>
+      </c>
+      <c r="M36" t="n">
+        <v>14500</v>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>$/caja 50 unidades</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P36" t="n">
+        <v>290</v>
+      </c>
+      <c r="Q36" t="n">
         <v>50</v>
-      </c>
-      <c r="K36" t="n">
-        <v>23000</v>
-      </c>
-      <c r="L36" t="n">
-        <v>24000</v>
-      </c>
-      <c r="M36" t="n">
-        <v>23400</v>
-      </c>
-      <c r="N36" t="inlineStr">
-        <is>
-          <t>$/caja 30 unidades</t>
-        </is>
-      </c>
-      <c r="O36" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="P36" t="n">
-        <v>780</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>30</v>
       </c>
       <c r="R36" t="inlineStr">
         <is>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44335</v>
+        <v>44706</v>
       </c>
       <c r="E37" t="n">
         <v>8</v>
@@ -3021,16 +3021,16 @@
         </is>
       </c>
       <c r="J37" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K37" t="n">
-        <v>17000</v>
+        <v>23000</v>
       </c>
       <c r="L37" t="n">
-        <v>18000</v>
+        <v>24000</v>
       </c>
       <c r="M37" t="n">
-        <v>17500</v>
+        <v>23400</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
@@ -3043,7 +3043,7 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>583</v>
+        <v>780</v>
       </c>
       <c r="Q37" t="n">
         <v>30</v>
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44426</v>
+        <v>44335</v>
       </c>
       <c r="E38" t="n">
         <v>8</v>
@@ -3084,7 +3084,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -3093,20 +3093,20 @@
         </is>
       </c>
       <c r="J38" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="K38" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="L38" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="M38" t="n">
-        <v>12600</v>
+        <v>17500</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
@@ -3115,10 +3115,10 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>315</v>
+        <v>583</v>
       </c>
       <c r="Q38" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R38" t="inlineStr">
         <is>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44748</v>
+        <v>44426</v>
       </c>
       <c r="E39" t="n">
         <v>8</v>
@@ -3156,7 +3156,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -3165,16 +3165,16 @@
         </is>
       </c>
       <c r="J39" t="n">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="K39" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="L39" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="M39" t="n">
-        <v>15545</v>
+        <v>12600</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
@@ -3187,7 +3187,7 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>389</v>
+        <v>315</v>
       </c>
       <c r="Q39" t="n">
         <v>40</v>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44699</v>
+        <v>44748</v>
       </c>
       <c r="E40" t="n">
         <v>8</v>
@@ -3228,7 +3228,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -3237,20 +3237,20 @@
         </is>
       </c>
       <c r="J40" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="K40" t="n">
-        <v>19000</v>
+        <v>15000</v>
       </c>
       <c r="L40" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="M40" t="n">
-        <v>19500</v>
+        <v>15545</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
@@ -3259,10 +3259,10 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>650</v>
+        <v>389</v>
       </c>
       <c r="Q40" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R40" t="inlineStr">
         <is>
@@ -3285,7 +3285,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44385</v>
+        <v>44699</v>
       </c>
       <c r="E41" t="n">
         <v>8</v>
@@ -3312,13 +3312,13 @@
         <v>100</v>
       </c>
       <c r="K41" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="L41" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="M41" t="n">
-        <v>17500</v>
+        <v>19500</v>
       </c>
       <c r="N41" t="inlineStr">
         <is>
@@ -3331,7 +3331,7 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>583</v>
+        <v>650</v>
       </c>
       <c r="Q41" t="n">
         <v>30</v>
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44433</v>
+        <v>44385</v>
       </c>
       <c r="E42" t="n">
         <v>8</v>
@@ -3372,7 +3372,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -3384,17 +3384,17 @@
         <v>100</v>
       </c>
       <c r="K42" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="L42" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M42" t="n">
-        <v>14500</v>
+        <v>17500</v>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
@@ -3403,10 +3403,10 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>290</v>
+        <v>583</v>
       </c>
       <c r="Q42" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R42" t="inlineStr">
         <is>
@@ -3429,7 +3429,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44421</v>
+        <v>44433</v>
       </c>
       <c r="E43" t="n">
         <v>8</v>
@@ -3444,7 +3444,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -3466,7 +3466,7 @@
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
@@ -3475,10 +3475,10 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>483</v>
+        <v>290</v>
       </c>
       <c r="Q43" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R43" t="inlineStr">
         <is>
@@ -3501,7 +3501,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44442</v>
+        <v>44421</v>
       </c>
       <c r="E44" t="n">
         <v>8</v>
@@ -3528,13 +3528,13 @@
         <v>100</v>
       </c>
       <c r="K44" t="n">
-        <v>14500</v>
+        <v>14000</v>
       </c>
       <c r="L44" t="n">
         <v>15000</v>
       </c>
       <c r="M44" t="n">
-        <v>14750</v>
+        <v>14500</v>
       </c>
       <c r="N44" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>492</v>
+        <v>483</v>
       </c>
       <c r="Q44" t="n">
         <v>30</v>
@@ -3573,7 +3573,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44483</v>
+        <v>44442</v>
       </c>
       <c r="E45" t="n">
         <v>8</v>
@@ -3597,16 +3597,16 @@
         </is>
       </c>
       <c r="J45" t="n">
-        <v>450</v>
+        <v>100</v>
       </c>
       <c r="K45" t="n">
-        <v>11000</v>
+        <v>14500</v>
       </c>
       <c r="L45" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M45" t="n">
-        <v>11444</v>
+        <v>14750</v>
       </c>
       <c r="N45" t="inlineStr">
         <is>
@@ -3619,7 +3619,7 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>381</v>
+        <v>492</v>
       </c>
       <c r="Q45" t="n">
         <v>30</v>
@@ -3660,43 +3660,115 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
+          <t>Española</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J46" t="n">
+        <v>450</v>
+      </c>
+      <c r="K46" t="n">
+        <v>11000</v>
+      </c>
+      <c r="L46" t="n">
+        <v>12000</v>
+      </c>
+      <c r="M46" t="n">
+        <v>11444</v>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>$/caja 30 unidades</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P46" t="n">
+        <v>381</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>30</v>
+      </c>
+      <c r="R46" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>11</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D47" s="2" t="n">
+        <v>44483</v>
+      </c>
+      <c r="E47" t="n">
+        <v>8</v>
+      </c>
+      <c r="F47" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
           <t>Madrigal</t>
         </is>
       </c>
-      <c r="I46" t="inlineStr">
-        <is>
-          <t>Primera</t>
-        </is>
-      </c>
-      <c r="J46" t="n">
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J47" t="n">
         <v>220</v>
       </c>
-      <c r="K46" t="n">
+      <c r="K47" t="n">
         <v>8000</v>
       </c>
-      <c r="L46" t="n">
+      <c r="L47" t="n">
         <v>8500</v>
       </c>
-      <c r="M46" t="n">
+      <c r="M47" t="n">
         <v>8273</v>
       </c>
-      <c r="N46" t="inlineStr">
+      <c r="N47" t="inlineStr">
         <is>
           <t>$/caja 40 unidades</t>
         </is>
       </c>
-      <c r="O46" t="inlineStr">
+      <c r="O47" t="inlineStr">
         <is>
           <t>Región de Coquimbo</t>
         </is>
       </c>
-      <c r="P46" t="n">
+      <c r="P47" t="n">
         <v>207</v>
       </c>
-      <c r="Q46" t="n">
+      <c r="Q47" t="n">
         <v>40</v>
       </c>
-      <c r="R46" t="inlineStr">
+      <c r="R47" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Alcachofa.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Alcachofa.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R47"/>
+  <dimension ref="A1:R49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44749</v>
+        <v>44750</v>
       </c>
       <c r="E5" t="n">
         <v>8</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>250</v>
+        <v>130</v>
       </c>
       <c r="K5" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="L5" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="M5" t="n">
-        <v>14200</v>
+        <v>16615</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>284</v>
+        <v>332</v>
       </c>
       <c r="Q5" t="n">
         <v>50</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44399</v>
+        <v>44750</v>
       </c>
       <c r="E6" t="n">
         <v>8</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="K6" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="L6" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="M6" t="n">
-        <v>14500</v>
+        <v>18909</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>483</v>
+        <v>630</v>
       </c>
       <c r="Q6" t="n">
         <v>30</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44721</v>
+        <v>44749</v>
       </c>
       <c r="E7" t="n">
         <v>8</v>
@@ -852,7 +852,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -861,20 +861,20 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="K7" t="n">
-        <v>19000</v>
+        <v>13000</v>
       </c>
       <c r="L7" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="M7" t="n">
-        <v>19533</v>
+        <v>14200</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -883,10 +883,10 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>651</v>
+        <v>284</v>
       </c>
       <c r="Q7" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R7" t="inlineStr">
         <is>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44364</v>
+        <v>44399</v>
       </c>
       <c r="E8" t="n">
         <v>8</v>
@@ -924,7 +924,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -936,17 +936,17 @@
         <v>100</v>
       </c>
       <c r="K8" t="n">
-        <v>19000</v>
+        <v>14000</v>
       </c>
       <c r="L8" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="M8" t="n">
-        <v>19500</v>
+        <v>14500</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
@@ -955,10 +955,10 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>390</v>
+        <v>483</v>
       </c>
       <c r="Q8" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R8" t="inlineStr">
         <is>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44364</v>
+        <v>44721</v>
       </c>
       <c r="E9" t="n">
         <v>8</v>
@@ -1005,7 +1005,7 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="K9" t="n">
         <v>19000</v>
@@ -1014,7 +1014,7 @@
         <v>20000</v>
       </c>
       <c r="M9" t="n">
-        <v>19500</v>
+        <v>19533</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="Q9" t="n">
         <v>30</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44383</v>
+        <v>44364</v>
       </c>
       <c r="E10" t="n">
         <v>8</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="K10" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="L10" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="M10" t="n">
-        <v>17400</v>
+        <v>19500</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>348</v>
+        <v>390</v>
       </c>
       <c r="Q10" t="n">
         <v>50</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44420</v>
+        <v>44364</v>
       </c>
       <c r="E11" t="n">
         <v>8</v>
@@ -1152,13 +1152,13 @@
         <v>100</v>
       </c>
       <c r="K11" t="n">
-        <v>14000</v>
+        <v>19000</v>
       </c>
       <c r="L11" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="M11" t="n">
-        <v>14500</v>
+        <v>19500</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>483</v>
+        <v>650</v>
       </c>
       <c r="Q11" t="n">
         <v>30</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44376</v>
+        <v>44383</v>
       </c>
       <c r="E12" t="n">
         <v>8</v>
@@ -1212,7 +1212,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1221,20 +1221,20 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K12" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="L12" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="M12" t="n">
-        <v>19500</v>
+        <v>17400</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
@@ -1243,10 +1243,10 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>650</v>
+        <v>348</v>
       </c>
       <c r="Q12" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R12" t="inlineStr">
         <is>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44397</v>
+        <v>44420</v>
       </c>
       <c r="E13" t="n">
         <v>8</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44428</v>
+        <v>44376</v>
       </c>
       <c r="E14" t="n">
         <v>8</v>
@@ -1368,13 +1368,13 @@
         <v>100</v>
       </c>
       <c r="K14" t="n">
-        <v>14000</v>
+        <v>19000</v>
       </c>
       <c r="L14" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="M14" t="n">
-        <v>14500</v>
+        <v>19500</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>483</v>
+        <v>650</v>
       </c>
       <c r="Q14" t="n">
         <v>30</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44680</v>
+        <v>44397</v>
       </c>
       <c r="E15" t="n">
         <v>8</v>
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="K15" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="L15" t="n">
-        <v>19000</v>
+        <v>15000</v>
       </c>
       <c r="M15" t="n">
-        <v>18600</v>
+        <v>14500</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>620</v>
+        <v>483</v>
       </c>
       <c r="Q15" t="n">
         <v>30</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44358</v>
+        <v>44428</v>
       </c>
       <c r="E16" t="n">
         <v>8</v>
@@ -1500,7 +1500,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1512,17 +1512,17 @@
         <v>100</v>
       </c>
       <c r="K16" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="L16" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="M16" t="n">
-        <v>19000</v>
+        <v>14500</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
@@ -1531,10 +1531,10 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>380</v>
+        <v>483</v>
       </c>
       <c r="Q16" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R16" t="inlineStr">
         <is>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44358</v>
+        <v>44680</v>
       </c>
       <c r="E17" t="n">
         <v>8</v>
@@ -1581,16 +1581,16 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K17" t="n">
         <v>18000</v>
       </c>
       <c r="L17" t="n">
-        <v>20000</v>
+        <v>19000</v>
       </c>
       <c r="M17" t="n">
-        <v>19000</v>
+        <v>18600</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>633</v>
+        <v>620</v>
       </c>
       <c r="Q17" t="n">
         <v>30</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44497</v>
+        <v>44358</v>
       </c>
       <c r="E18" t="n">
         <v>8</v>
@@ -1653,16 +1653,16 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>180</v>
+        <v>100</v>
       </c>
       <c r="K18" t="n">
-        <v>6500</v>
+        <v>18000</v>
       </c>
       <c r="L18" t="n">
-        <v>7000</v>
+        <v>20000</v>
       </c>
       <c r="M18" t="n">
-        <v>6778</v>
+        <v>19000</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>136</v>
+        <v>380</v>
       </c>
       <c r="Q18" t="n">
         <v>50</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44497</v>
+        <v>44358</v>
       </c>
       <c r="E19" t="n">
         <v>8</v>
@@ -1725,16 +1725,16 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K19" t="n">
-        <v>7000</v>
+        <v>18000</v>
       </c>
       <c r="L19" t="n">
-        <v>7500</v>
+        <v>20000</v>
       </c>
       <c r="M19" t="n">
-        <v>7250</v>
+        <v>19000</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>242</v>
+        <v>633</v>
       </c>
       <c r="Q19" t="n">
         <v>30</v>
@@ -1788,7 +1788,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1797,32 +1797,32 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>130</v>
+        <v>180</v>
       </c>
       <c r="K20" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="L20" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="M20" t="n">
-        <v>6192</v>
+        <v>6778</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P20" t="n">
-        <v>155</v>
+        <v>136</v>
       </c>
       <c r="Q20" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R20" t="inlineStr">
         <is>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44729</v>
+        <v>44497</v>
       </c>
       <c r="E21" t="n">
         <v>8</v>
@@ -1860,7 +1860,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1872,17 +1872,17 @@
         <v>200</v>
       </c>
       <c r="K21" t="n">
-        <v>17000</v>
+        <v>7000</v>
       </c>
       <c r="L21" t="n">
-        <v>18000</v>
+        <v>7500</v>
       </c>
       <c r="M21" t="n">
-        <v>17500</v>
+        <v>7250</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
@@ -1891,10 +1891,10 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>438</v>
+        <v>242</v>
       </c>
       <c r="Q21" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R21" t="inlineStr">
         <is>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44441</v>
+        <v>44497</v>
       </c>
       <c r="E22" t="n">
         <v>8</v>
@@ -1932,7 +1932,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1941,32 +1941,32 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="K22" t="n">
-        <v>13000</v>
+        <v>6000</v>
       </c>
       <c r="L22" t="n">
-        <v>14000</v>
+        <v>6500</v>
       </c>
       <c r="M22" t="n">
-        <v>13500</v>
+        <v>6192</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P22" t="n">
-        <v>450</v>
+        <v>155</v>
       </c>
       <c r="Q22" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R22" t="inlineStr">
         <is>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44727</v>
+        <v>44729</v>
       </c>
       <c r="E23" t="n">
         <v>8</v>
@@ -2004,7 +2004,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -2013,20 +2013,20 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="K23" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="L23" t="n">
-        <v>21000</v>
+        <v>18000</v>
       </c>
       <c r="M23" t="n">
-        <v>20467</v>
+        <v>17500</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
@@ -2035,10 +2035,10 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>682</v>
+        <v>438</v>
       </c>
       <c r="Q23" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R23" t="inlineStr">
         <is>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44741</v>
+        <v>44441</v>
       </c>
       <c r="E24" t="n">
         <v>8</v>
@@ -2076,7 +2076,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -2088,17 +2088,17 @@
         <v>100</v>
       </c>
       <c r="K24" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="L24" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="M24" t="n">
-        <v>16500</v>
+        <v>13500</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
@@ -2107,10 +2107,10 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>330</v>
+        <v>450</v>
       </c>
       <c r="Q24" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R24" t="inlineStr">
         <is>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44741</v>
+        <v>44727</v>
       </c>
       <c r="E25" t="n">
         <v>8</v>
@@ -2157,16 +2157,16 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="K25" t="n">
         <v>20000</v>
       </c>
       <c r="L25" t="n">
-        <v>22000</v>
+        <v>21000</v>
       </c>
       <c r="M25" t="n">
-        <v>21000</v>
+        <v>20467</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>700</v>
+        <v>682</v>
       </c>
       <c r="Q25" t="n">
         <v>30</v>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44447</v>
+        <v>44741</v>
       </c>
       <c r="E26" t="n">
         <v>8</v>
@@ -2220,7 +2220,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -2232,17 +2232,17 @@
         <v>100</v>
       </c>
       <c r="K26" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="L26" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="M26" t="n">
-        <v>14500</v>
+        <v>16500</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
@@ -2251,10 +2251,10 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>483</v>
+        <v>330</v>
       </c>
       <c r="Q26" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R26" t="inlineStr">
         <is>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44722</v>
+        <v>44741</v>
       </c>
       <c r="E27" t="n">
         <v>8</v>
@@ -2301,7 +2301,7 @@
         </is>
       </c>
       <c r="J27" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K27" t="n">
         <v>20000</v>
@@ -2310,7 +2310,7 @@
         <v>22000</v>
       </c>
       <c r="M27" t="n">
-        <v>21333</v>
+        <v>21000</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
@@ -2323,7 +2323,7 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>711</v>
+        <v>700</v>
       </c>
       <c r="Q27" t="n">
         <v>30</v>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44496</v>
+        <v>44447</v>
       </c>
       <c r="E28" t="n">
         <v>8</v>
@@ -2364,7 +2364,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -2373,32 +2373,32 @@
         </is>
       </c>
       <c r="J28" t="n">
-        <v>350</v>
+        <v>100</v>
       </c>
       <c r="K28" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="L28" t="n">
-        <v>7500</v>
+        <v>15000</v>
       </c>
       <c r="M28" t="n">
-        <v>7214</v>
+        <v>14500</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P28" t="n">
-        <v>180</v>
+        <v>483</v>
       </c>
       <c r="Q28" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R28" t="inlineStr">
         <is>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44463</v>
+        <v>44722</v>
       </c>
       <c r="E29" t="n">
         <v>8</v>
@@ -2436,7 +2436,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -2445,20 +2445,20 @@
         </is>
       </c>
       <c r="J29" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K29" t="n">
-        <v>9000</v>
+        <v>20000</v>
       </c>
       <c r="L29" t="n">
-        <v>10000</v>
+        <v>22000</v>
       </c>
       <c r="M29" t="n">
-        <v>9500</v>
+        <v>21333</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
@@ -2467,10 +2467,10 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>190</v>
+        <v>711</v>
       </c>
       <c r="Q29" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R29" t="inlineStr">
         <is>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44484</v>
+        <v>44496</v>
       </c>
       <c r="E30" t="n">
         <v>8</v>
@@ -2508,7 +2508,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -2517,32 +2517,32 @@
         </is>
       </c>
       <c r="J30" t="n">
-        <v>220</v>
+        <v>350</v>
       </c>
       <c r="K30" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L30" t="n">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="M30" t="n">
-        <v>8455</v>
+        <v>7214</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P30" t="n">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="Q30" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R30" t="inlineStr">
         <is>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44484</v>
+        <v>44463</v>
       </c>
       <c r="E31" t="n">
         <v>8</v>
@@ -2580,7 +2580,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -2589,20 +2589,20 @@
         </is>
       </c>
       <c r="J31" t="n">
-        <v>220</v>
+        <v>100</v>
       </c>
       <c r="K31" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="L31" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M31" t="n">
-        <v>7727</v>
+        <v>9500</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
@@ -2611,10 +2611,10 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>258</v>
+        <v>190</v>
       </c>
       <c r="Q31" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R31" t="inlineStr">
         <is>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44342</v>
+        <v>44484</v>
       </c>
       <c r="E32" t="n">
         <v>8</v>
@@ -2652,7 +2652,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -2661,20 +2661,20 @@
         </is>
       </c>
       <c r="J32" t="n">
-        <v>100</v>
+        <v>220</v>
       </c>
       <c r="K32" t="n">
-        <v>17000</v>
+        <v>8000</v>
       </c>
       <c r="L32" t="n">
-        <v>18000</v>
+        <v>9000</v>
       </c>
       <c r="M32" t="n">
-        <v>17500</v>
+        <v>8455</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
@@ -2683,10 +2683,10 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>583</v>
+        <v>169</v>
       </c>
       <c r="Q32" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R32" t="inlineStr">
         <is>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44342</v>
+        <v>44484</v>
       </c>
       <c r="E33" t="n">
         <v>8</v>
@@ -2724,7 +2724,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -2733,20 +2733,20 @@
         </is>
       </c>
       <c r="J33" t="n">
-        <v>100</v>
+        <v>220</v>
       </c>
       <c r="K33" t="n">
-        <v>15000</v>
+        <v>7500</v>
       </c>
       <c r="L33" t="n">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="M33" t="n">
-        <v>15500</v>
+        <v>7727</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
@@ -2755,10 +2755,10 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>388</v>
+        <v>258</v>
       </c>
       <c r="Q33" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R33" t="inlineStr">
         <is>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44350</v>
+        <v>44342</v>
       </c>
       <c r="E34" t="n">
         <v>8</v>
@@ -2796,7 +2796,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -2805,20 +2805,20 @@
         </is>
       </c>
       <c r="J34" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="K34" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="L34" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="M34" t="n">
-        <v>15600</v>
+        <v>17500</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
@@ -2827,10 +2827,10 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>312</v>
+        <v>583</v>
       </c>
       <c r="Q34" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R34" t="inlineStr">
         <is>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44350</v>
+        <v>44342</v>
       </c>
       <c r="E35" t="n">
         <v>8</v>
@@ -2868,7 +2868,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -2877,32 +2877,32 @@
         </is>
       </c>
       <c r="J35" t="n">
+        <v>100</v>
+      </c>
+      <c r="K35" t="n">
+        <v>15000</v>
+      </c>
+      <c r="L35" t="n">
+        <v>16000</v>
+      </c>
+      <c r="M35" t="n">
+        <v>15500</v>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>$/caja 40 unidades</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P35" t="n">
+        <v>388</v>
+      </c>
+      <c r="Q35" t="n">
         <v>40</v>
-      </c>
-      <c r="K35" t="n">
-        <v>17000</v>
-      </c>
-      <c r="L35" t="n">
-        <v>18000</v>
-      </c>
-      <c r="M35" t="n">
-        <v>17500</v>
-      </c>
-      <c r="N35" t="inlineStr">
-        <is>
-          <t>$/caja 30 unidades</t>
-        </is>
-      </c>
-      <c r="O35" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="P35" t="n">
-        <v>583</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>30</v>
       </c>
       <c r="R35" t="inlineStr">
         <is>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44435</v>
+        <v>44350</v>
       </c>
       <c r="E36" t="n">
         <v>8</v>
@@ -2949,16 +2949,16 @@
         </is>
       </c>
       <c r="J36" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K36" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L36" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="M36" t="n">
-        <v>14500</v>
+        <v>15600</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>290</v>
+        <v>312</v>
       </c>
       <c r="Q36" t="n">
         <v>50</v>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44706</v>
+        <v>44350</v>
       </c>
       <c r="E37" t="n">
         <v>8</v>
@@ -3021,16 +3021,16 @@
         </is>
       </c>
       <c r="J37" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="K37" t="n">
-        <v>23000</v>
+        <v>17000</v>
       </c>
       <c r="L37" t="n">
-        <v>24000</v>
+        <v>18000</v>
       </c>
       <c r="M37" t="n">
-        <v>23400</v>
+        <v>17500</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
@@ -3043,7 +3043,7 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>780</v>
+        <v>583</v>
       </c>
       <c r="Q37" t="n">
         <v>30</v>
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44335</v>
+        <v>44435</v>
       </c>
       <c r="E38" t="n">
         <v>8</v>
@@ -3084,7 +3084,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -3096,17 +3096,17 @@
         <v>100</v>
       </c>
       <c r="K38" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="L38" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M38" t="n">
-        <v>17500</v>
+        <v>14500</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
@@ -3115,10 +3115,10 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>583</v>
+        <v>290</v>
       </c>
       <c r="Q38" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R38" t="inlineStr">
         <is>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44426</v>
+        <v>44706</v>
       </c>
       <c r="E39" t="n">
         <v>8</v>
@@ -3156,7 +3156,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -3168,17 +3168,17 @@
         <v>50</v>
       </c>
       <c r="K39" t="n">
-        <v>12000</v>
+        <v>23000</v>
       </c>
       <c r="L39" t="n">
-        <v>13000</v>
+        <v>24000</v>
       </c>
       <c r="M39" t="n">
-        <v>12600</v>
+        <v>23400</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
@@ -3187,10 +3187,10 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>315</v>
+        <v>780</v>
       </c>
       <c r="Q39" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R39" t="inlineStr">
         <is>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44748</v>
+        <v>44335</v>
       </c>
       <c r="E40" t="n">
         <v>8</v>
@@ -3228,7 +3228,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -3237,20 +3237,20 @@
         </is>
       </c>
       <c r="J40" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="K40" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="L40" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="M40" t="n">
-        <v>15545</v>
+        <v>17500</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
@@ -3259,10 +3259,10 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>389</v>
+        <v>583</v>
       </c>
       <c r="Q40" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R40" t="inlineStr">
         <is>
@@ -3285,7 +3285,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44699</v>
+        <v>44426</v>
       </c>
       <c r="E41" t="n">
         <v>8</v>
@@ -3300,7 +3300,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -3309,20 +3309,20 @@
         </is>
       </c>
       <c r="J41" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K41" t="n">
-        <v>19000</v>
+        <v>12000</v>
       </c>
       <c r="L41" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="M41" t="n">
-        <v>19500</v>
+        <v>12600</v>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
@@ -3331,10 +3331,10 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>650</v>
+        <v>315</v>
       </c>
       <c r="Q41" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R41" t="inlineStr">
         <is>
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44385</v>
+        <v>44748</v>
       </c>
       <c r="E42" t="n">
         <v>8</v>
@@ -3372,7 +3372,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -3381,20 +3381,20 @@
         </is>
       </c>
       <c r="J42" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="K42" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="L42" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="M42" t="n">
-        <v>17500</v>
+        <v>15545</v>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
@@ -3403,10 +3403,10 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>583</v>
+        <v>389</v>
       </c>
       <c r="Q42" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R42" t="inlineStr">
         <is>
@@ -3429,7 +3429,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44433</v>
+        <v>44699</v>
       </c>
       <c r="E43" t="n">
         <v>8</v>
@@ -3444,7 +3444,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -3456,17 +3456,17 @@
         <v>100</v>
       </c>
       <c r="K43" t="n">
-        <v>14000</v>
+        <v>19000</v>
       </c>
       <c r="L43" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="M43" t="n">
-        <v>14500</v>
+        <v>19500</v>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
@@ -3475,10 +3475,10 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>290</v>
+        <v>650</v>
       </c>
       <c r="Q43" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R43" t="inlineStr">
         <is>
@@ -3501,7 +3501,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44421</v>
+        <v>44385</v>
       </c>
       <c r="E44" t="n">
         <v>8</v>
@@ -3528,13 +3528,13 @@
         <v>100</v>
       </c>
       <c r="K44" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="L44" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M44" t="n">
-        <v>14500</v>
+        <v>17500</v>
       </c>
       <c r="N44" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>483</v>
+        <v>583</v>
       </c>
       <c r="Q44" t="n">
         <v>30</v>
@@ -3573,7 +3573,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44442</v>
+        <v>44433</v>
       </c>
       <c r="E45" t="n">
         <v>8</v>
@@ -3588,7 +3588,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -3600,17 +3600,17 @@
         <v>100</v>
       </c>
       <c r="K45" t="n">
-        <v>14500</v>
+        <v>14000</v>
       </c>
       <c r="L45" t="n">
         <v>15000</v>
       </c>
       <c r="M45" t="n">
-        <v>14750</v>
+        <v>14500</v>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
@@ -3619,10 +3619,10 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>492</v>
+        <v>290</v>
       </c>
       <c r="Q45" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R45" t="inlineStr">
         <is>
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44483</v>
+        <v>44421</v>
       </c>
       <c r="E46" t="n">
         <v>8</v>
@@ -3669,16 +3669,16 @@
         </is>
       </c>
       <c r="J46" t="n">
-        <v>450</v>
+        <v>100</v>
       </c>
       <c r="K46" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="L46" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M46" t="n">
-        <v>11444</v>
+        <v>14500</v>
       </c>
       <c r="N46" t="inlineStr">
         <is>
@@ -3691,7 +3691,7 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>381</v>
+        <v>483</v>
       </c>
       <c r="Q46" t="n">
         <v>30</v>
@@ -3717,58 +3717,202 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
+        <v>44442</v>
+      </c>
+      <c r="E47" t="n">
+        <v>8</v>
+      </c>
+      <c r="F47" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Española</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J47" t="n">
+        <v>100</v>
+      </c>
+      <c r="K47" t="n">
+        <v>14500</v>
+      </c>
+      <c r="L47" t="n">
+        <v>15000</v>
+      </c>
+      <c r="M47" t="n">
+        <v>14750</v>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>$/caja 30 unidades</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P47" t="n">
+        <v>492</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>30</v>
+      </c>
+      <c r="R47" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>11</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D48" s="2" t="n">
         <v>44483</v>
       </c>
-      <c r="E47" t="n">
-        <v>8</v>
-      </c>
-      <c r="F47" t="n">
-        <v>100112013</v>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>Alcachofa</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr">
+      <c r="E48" t="n">
+        <v>8</v>
+      </c>
+      <c r="F48" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Española</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J48" t="n">
+        <v>450</v>
+      </c>
+      <c r="K48" t="n">
+        <v>11000</v>
+      </c>
+      <c r="L48" t="n">
+        <v>12000</v>
+      </c>
+      <c r="M48" t="n">
+        <v>11444</v>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>$/caja 30 unidades</t>
+        </is>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P48" t="n">
+        <v>381</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>30</v>
+      </c>
+      <c r="R48" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>11</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D49" s="2" t="n">
+        <v>44483</v>
+      </c>
+      <c r="E49" t="n">
+        <v>8</v>
+      </c>
+      <c r="F49" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
         <is>
           <t>Madrigal</t>
         </is>
       </c>
-      <c r="I47" t="inlineStr">
-        <is>
-          <t>Primera</t>
-        </is>
-      </c>
-      <c r="J47" t="n">
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J49" t="n">
         <v>220</v>
       </c>
-      <c r="K47" t="n">
+      <c r="K49" t="n">
         <v>8000</v>
       </c>
-      <c r="L47" t="n">
+      <c r="L49" t="n">
         <v>8500</v>
       </c>
-      <c r="M47" t="n">
+      <c r="M49" t="n">
         <v>8273</v>
       </c>
-      <c r="N47" t="inlineStr">
+      <c r="N49" t="inlineStr">
         <is>
           <t>$/caja 40 unidades</t>
         </is>
       </c>
-      <c r="O47" t="inlineStr">
+      <c r="O49" t="inlineStr">
         <is>
           <t>Región de Coquimbo</t>
         </is>
       </c>
-      <c r="P47" t="n">
+      <c r="P49" t="n">
         <v>207</v>
       </c>
-      <c r="Q47" t="n">
+      <c r="Q49" t="n">
         <v>40</v>
       </c>
-      <c r="R47" t="inlineStr">
+      <c r="R49" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Alcachofa.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Alcachofa.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44454</v>
+        <v>44722</v>
       </c>
       <c r="E2" t="n">
         <v>8</v>
@@ -492,7 +492,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -501,32 +501,32 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K2" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="L2" t="n">
-        <v>14000</v>
+        <v>22000</v>
       </c>
       <c r="M2" t="n">
-        <v>13500</v>
+        <v>21333</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P2" t="n">
-        <v>338</v>
+        <v>711</v>
       </c>
       <c r="Q2" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R2" t="inlineStr">
         <is>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44489</v>
+        <v>44433</v>
       </c>
       <c r="E3" t="n">
         <v>8</v>
@@ -576,13 +576,13 @@
         <v>100</v>
       </c>
       <c r="K3" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="L3" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="M3" t="n">
-        <v>9500</v>
+        <v>14500</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>190</v>
+        <v>290</v>
       </c>
       <c r="Q3" t="n">
         <v>50</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44489</v>
+        <v>44421</v>
       </c>
       <c r="E4" t="n">
         <v>8</v>
@@ -648,13 +648,13 @@
         <v>100</v>
       </c>
       <c r="K4" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="L4" t="n">
-        <v>8500</v>
+        <v>15000</v>
       </c>
       <c r="M4" t="n">
-        <v>8250</v>
+        <v>14500</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>275</v>
+        <v>483</v>
       </c>
       <c r="Q4" t="n">
         <v>30</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44750</v>
+        <v>44729</v>
       </c>
       <c r="E5" t="n">
         <v>8</v>
@@ -717,20 +717,20 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>130</v>
+        <v>200</v>
       </c>
       <c r="K5" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="L5" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="M5" t="n">
-        <v>16615</v>
+        <v>17500</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -739,10 +739,10 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>332</v>
+        <v>438</v>
       </c>
       <c r="Q5" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R5" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44750</v>
+        <v>44350</v>
       </c>
       <c r="E6" t="n">
         <v>8</v>
@@ -780,7 +780,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -789,20 +789,20 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="K6" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="L6" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="M6" t="n">
-        <v>18909</v>
+        <v>15600</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
@@ -811,10 +811,10 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>630</v>
+        <v>312</v>
       </c>
       <c r="Q6" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R6" t="inlineStr">
         <is>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44749</v>
+        <v>44350</v>
       </c>
       <c r="E7" t="n">
         <v>8</v>
@@ -852,7 +852,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -861,20 +861,20 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>250</v>
+        <v>40</v>
       </c>
       <c r="K7" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="L7" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M7" t="n">
-        <v>14200</v>
+        <v>17500</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -883,10 +883,10 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>284</v>
+        <v>583</v>
       </c>
       <c r="Q7" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R7" t="inlineStr">
         <is>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44399</v>
+        <v>44680</v>
       </c>
       <c r="E8" t="n">
         <v>8</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K8" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="L8" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="M8" t="n">
-        <v>14500</v>
+        <v>18600</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>483</v>
+        <v>620</v>
       </c>
       <c r="Q8" t="n">
         <v>30</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44721</v>
+        <v>44335</v>
       </c>
       <c r="E9" t="n">
         <v>8</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="K9" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="L9" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="M9" t="n">
-        <v>19533</v>
+        <v>17500</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>651</v>
+        <v>583</v>
       </c>
       <c r="Q9" t="n">
         <v>30</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44364</v>
+        <v>44750</v>
       </c>
       <c r="E10" t="n">
         <v>8</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="K10" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="L10" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="M10" t="n">
-        <v>19500</v>
+        <v>16615</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>390</v>
+        <v>332</v>
       </c>
       <c r="Q10" t="n">
         <v>50</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44364</v>
+        <v>44750</v>
       </c>
       <c r="E11" t="n">
         <v>8</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="K11" t="n">
-        <v>19000</v>
+        <v>18000</v>
       </c>
       <c r="L11" t="n">
         <v>20000</v>
       </c>
       <c r="M11" t="n">
-        <v>19500</v>
+        <v>18909</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>650</v>
+        <v>630</v>
       </c>
       <c r="Q11" t="n">
         <v>30</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44376</v>
+        <v>44342</v>
       </c>
       <c r="E14" t="n">
         <v>8</v>
@@ -1368,13 +1368,13 @@
         <v>100</v>
       </c>
       <c r="K14" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="L14" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="M14" t="n">
-        <v>19500</v>
+        <v>17500</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>650</v>
+        <v>583</v>
       </c>
       <c r="Q14" t="n">
         <v>30</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44397</v>
+        <v>44342</v>
       </c>
       <c r="E15" t="n">
         <v>8</v>
@@ -1428,7 +1428,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1440,17 +1440,17 @@
         <v>100</v>
       </c>
       <c r="K15" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L15" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="M15" t="n">
-        <v>14500</v>
+        <v>15500</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
@@ -1459,10 +1459,10 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>483</v>
+        <v>388</v>
       </c>
       <c r="Q15" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R15" t="inlineStr">
         <is>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44428</v>
+        <v>44483</v>
       </c>
       <c r="E16" t="n">
         <v>8</v>
@@ -1509,16 +1509,16 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>100</v>
+        <v>450</v>
       </c>
       <c r="K16" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="L16" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="M16" t="n">
-        <v>14500</v>
+        <v>11444</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>483</v>
+        <v>381</v>
       </c>
       <c r="Q16" t="n">
         <v>30</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44680</v>
+        <v>44483</v>
       </c>
       <c r="E17" t="n">
         <v>8</v>
@@ -1572,7 +1572,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1581,32 +1581,32 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>50</v>
+        <v>220</v>
       </c>
       <c r="K17" t="n">
-        <v>18000</v>
+        <v>8000</v>
       </c>
       <c r="L17" t="n">
-        <v>19000</v>
+        <v>8500</v>
       </c>
       <c r="M17" t="n">
-        <v>18600</v>
+        <v>8273</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P17" t="n">
-        <v>620</v>
+        <v>207</v>
       </c>
       <c r="Q17" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R17" t="inlineStr">
         <is>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44358</v>
+        <v>44447</v>
       </c>
       <c r="E18" t="n">
         <v>8</v>
@@ -1644,7 +1644,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1656,17 +1656,17 @@
         <v>100</v>
       </c>
       <c r="K18" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="L18" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="M18" t="n">
-        <v>19000</v>
+        <v>14500</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
@@ -1675,10 +1675,10 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>380</v>
+        <v>483</v>
       </c>
       <c r="Q18" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R18" t="inlineStr">
         <is>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44358</v>
+        <v>44441</v>
       </c>
       <c r="E19" t="n">
         <v>8</v>
@@ -1728,13 +1728,13 @@
         <v>100</v>
       </c>
       <c r="K19" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="L19" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="M19" t="n">
-        <v>19000</v>
+        <v>13500</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>633</v>
+        <v>450</v>
       </c>
       <c r="Q19" t="n">
         <v>30</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44497</v>
+        <v>44749</v>
       </c>
       <c r="E20" t="n">
         <v>8</v>
@@ -1797,16 +1797,16 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>180</v>
+        <v>250</v>
       </c>
       <c r="K20" t="n">
-        <v>6500</v>
+        <v>13000</v>
       </c>
       <c r="L20" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="M20" t="n">
-        <v>6778</v>
+        <v>14200</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>136</v>
+        <v>284</v>
       </c>
       <c r="Q20" t="n">
         <v>50</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44497</v>
+        <v>44721</v>
       </c>
       <c r="E21" t="n">
         <v>8</v>
@@ -1869,16 +1869,16 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="K21" t="n">
-        <v>7000</v>
+        <v>19000</v>
       </c>
       <c r="L21" t="n">
-        <v>7500</v>
+        <v>20000</v>
       </c>
       <c r="M21" t="n">
-        <v>7250</v>
+        <v>19533</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1891,7 +1891,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>242</v>
+        <v>651</v>
       </c>
       <c r="Q21" t="n">
         <v>30</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44497</v>
+        <v>44442</v>
       </c>
       <c r="E22" t="n">
         <v>8</v>
@@ -1932,7 +1932,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1941,32 +1941,32 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="K22" t="n">
-        <v>6000</v>
+        <v>14500</v>
       </c>
       <c r="L22" t="n">
-        <v>6500</v>
+        <v>15000</v>
       </c>
       <c r="M22" t="n">
-        <v>6192</v>
+        <v>14750</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P22" t="n">
-        <v>155</v>
+        <v>492</v>
       </c>
       <c r="Q22" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R22" t="inlineStr">
         <is>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44729</v>
+        <v>44484</v>
       </c>
       <c r="E23" t="n">
         <v>8</v>
@@ -2013,20 +2013,20 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="K23" t="n">
-        <v>17000</v>
+        <v>8000</v>
       </c>
       <c r="L23" t="n">
-        <v>18000</v>
+        <v>9000</v>
       </c>
       <c r="M23" t="n">
-        <v>17500</v>
+        <v>8455</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
@@ -2035,10 +2035,10 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>438</v>
+        <v>169</v>
       </c>
       <c r="Q23" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R23" t="inlineStr">
         <is>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44441</v>
+        <v>44484</v>
       </c>
       <c r="E24" t="n">
         <v>8</v>
@@ -2085,16 +2085,16 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>100</v>
+        <v>220</v>
       </c>
       <c r="K24" t="n">
-        <v>13000</v>
+        <v>7500</v>
       </c>
       <c r="L24" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="M24" t="n">
-        <v>13500</v>
+        <v>7727</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>450</v>
+        <v>258</v>
       </c>
       <c r="Q24" t="n">
         <v>30</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44727</v>
+        <v>44706</v>
       </c>
       <c r="E25" t="n">
         <v>8</v>
@@ -2157,16 +2157,16 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="K25" t="n">
-        <v>20000</v>
+        <v>23000</v>
       </c>
       <c r="L25" t="n">
-        <v>21000</v>
+        <v>24000</v>
       </c>
       <c r="M25" t="n">
-        <v>20467</v>
+        <v>23400</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>682</v>
+        <v>780</v>
       </c>
       <c r="Q25" t="n">
         <v>30</v>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44447</v>
+        <v>44399</v>
       </c>
       <c r="E28" t="n">
         <v>8</v>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44722</v>
+        <v>44397</v>
       </c>
       <c r="E29" t="n">
         <v>8</v>
@@ -2445,16 +2445,16 @@
         </is>
       </c>
       <c r="J29" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K29" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="L29" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="M29" t="n">
-        <v>21333</v>
+        <v>14500</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
@@ -2467,7 +2467,7 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>711</v>
+        <v>483</v>
       </c>
       <c r="Q29" t="n">
         <v>30</v>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44463</v>
+        <v>44385</v>
       </c>
       <c r="E31" t="n">
         <v>8</v>
@@ -2580,7 +2580,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -2592,17 +2592,17 @@
         <v>100</v>
       </c>
       <c r="K31" t="n">
-        <v>9000</v>
+        <v>17000</v>
       </c>
       <c r="L31" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="M31" t="n">
-        <v>9500</v>
+        <v>17500</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
@@ -2611,10 +2611,10 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>190</v>
+        <v>583</v>
       </c>
       <c r="Q31" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R31" t="inlineStr">
         <is>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44484</v>
+        <v>44497</v>
       </c>
       <c r="E32" t="n">
         <v>8</v>
@@ -2661,16 +2661,16 @@
         </is>
       </c>
       <c r="J32" t="n">
-        <v>220</v>
+        <v>180</v>
       </c>
       <c r="K32" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="L32" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M32" t="n">
-        <v>8455</v>
+        <v>6778</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
@@ -2683,7 +2683,7 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>169</v>
+        <v>136</v>
       </c>
       <c r="Q32" t="n">
         <v>50</v>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44484</v>
+        <v>44497</v>
       </c>
       <c r="E33" t="n">
         <v>8</v>
@@ -2733,16 +2733,16 @@
         </is>
       </c>
       <c r="J33" t="n">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="K33" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L33" t="n">
         <v>7500</v>
       </c>
-      <c r="L33" t="n">
-        <v>8000</v>
-      </c>
       <c r="M33" t="n">
-        <v>7727</v>
+        <v>7250</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
@@ -2755,7 +2755,7 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>258</v>
+        <v>242</v>
       </c>
       <c r="Q33" t="n">
         <v>30</v>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44342</v>
+        <v>44497</v>
       </c>
       <c r="E34" t="n">
         <v>8</v>
@@ -2796,7 +2796,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -2805,32 +2805,32 @@
         </is>
       </c>
       <c r="J34" t="n">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="K34" t="n">
-        <v>17000</v>
+        <v>6000</v>
       </c>
       <c r="L34" t="n">
-        <v>18000</v>
+        <v>6500</v>
       </c>
       <c r="M34" t="n">
-        <v>17500</v>
+        <v>6192</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P34" t="n">
-        <v>583</v>
+        <v>155</v>
       </c>
       <c r="Q34" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R34" t="inlineStr">
         <is>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44342</v>
+        <v>44463</v>
       </c>
       <c r="E35" t="n">
         <v>8</v>
@@ -2868,7 +2868,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -2880,17 +2880,17 @@
         <v>100</v>
       </c>
       <c r="K35" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="L35" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="M35" t="n">
-        <v>15500</v>
+        <v>9500</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
@@ -2899,10 +2899,10 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>388</v>
+        <v>190</v>
       </c>
       <c r="Q35" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R35" t="inlineStr">
         <is>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44350</v>
+        <v>44435</v>
       </c>
       <c r="E36" t="n">
         <v>8</v>
@@ -2949,16 +2949,16 @@
         </is>
       </c>
       <c r="J36" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="K36" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L36" t="n">
         <v>15000</v>
       </c>
-      <c r="L36" t="n">
-        <v>16000</v>
-      </c>
       <c r="M36" t="n">
-        <v>15600</v>
+        <v>14500</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>312</v>
+        <v>290</v>
       </c>
       <c r="Q36" t="n">
         <v>50</v>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44350</v>
+        <v>44364</v>
       </c>
       <c r="E37" t="n">
         <v>8</v>
@@ -3012,7 +3012,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -3021,20 +3021,20 @@
         </is>
       </c>
       <c r="J37" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="K37" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="L37" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="M37" t="n">
-        <v>17500</v>
+        <v>19500</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
@@ -3043,10 +3043,10 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>583</v>
+        <v>390</v>
       </c>
       <c r="Q37" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R37" t="inlineStr">
         <is>
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44435</v>
+        <v>44364</v>
       </c>
       <c r="E38" t="n">
         <v>8</v>
@@ -3084,7 +3084,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -3096,17 +3096,17 @@
         <v>100</v>
       </c>
       <c r="K38" t="n">
-        <v>14000</v>
+        <v>19000</v>
       </c>
       <c r="L38" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="M38" t="n">
-        <v>14500</v>
+        <v>19500</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
@@ -3115,10 +3115,10 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>290</v>
+        <v>650</v>
       </c>
       <c r="Q38" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R38" t="inlineStr">
         <is>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44706</v>
+        <v>44727</v>
       </c>
       <c r="E39" t="n">
         <v>8</v>
@@ -3165,16 +3165,16 @@
         </is>
       </c>
       <c r="J39" t="n">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="K39" t="n">
-        <v>23000</v>
+        <v>20000</v>
       </c>
       <c r="L39" t="n">
-        <v>24000</v>
+        <v>21000</v>
       </c>
       <c r="M39" t="n">
-        <v>23400</v>
+        <v>20467</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
@@ -3187,7 +3187,7 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>780</v>
+        <v>682</v>
       </c>
       <c r="Q39" t="n">
         <v>30</v>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44335</v>
+        <v>44748</v>
       </c>
       <c r="E40" t="n">
         <v>8</v>
@@ -3228,7 +3228,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -3237,20 +3237,20 @@
         </is>
       </c>
       <c r="J40" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="K40" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="L40" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="M40" t="n">
-        <v>17500</v>
+        <v>15545</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
@@ -3259,10 +3259,10 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>583</v>
+        <v>389</v>
       </c>
       <c r="Q40" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R40" t="inlineStr">
         <is>
@@ -3285,7 +3285,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44426</v>
+        <v>44699</v>
       </c>
       <c r="E41" t="n">
         <v>8</v>
@@ -3300,7 +3300,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -3309,20 +3309,20 @@
         </is>
       </c>
       <c r="J41" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="K41" t="n">
-        <v>12000</v>
+        <v>19000</v>
       </c>
       <c r="L41" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="M41" t="n">
-        <v>12600</v>
+        <v>19500</v>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
@@ -3331,10 +3331,10 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>315</v>
+        <v>650</v>
       </c>
       <c r="Q41" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R41" t="inlineStr">
         <is>
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44748</v>
+        <v>44358</v>
       </c>
       <c r="E42" t="n">
         <v>8</v>
@@ -3381,20 +3381,20 @@
         </is>
       </c>
       <c r="J42" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="K42" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="L42" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="M42" t="n">
-        <v>15545</v>
+        <v>19000</v>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
@@ -3403,10 +3403,10 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="Q42" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R42" t="inlineStr">
         <is>
@@ -3429,7 +3429,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44699</v>
+        <v>44358</v>
       </c>
       <c r="E43" t="n">
         <v>8</v>
@@ -3456,13 +3456,13 @@
         <v>100</v>
       </c>
       <c r="K43" t="n">
-        <v>19000</v>
+        <v>18000</v>
       </c>
       <c r="L43" t="n">
         <v>20000</v>
       </c>
       <c r="M43" t="n">
-        <v>19500</v>
+        <v>19000</v>
       </c>
       <c r="N43" t="inlineStr">
         <is>
@@ -3475,7 +3475,7 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>650</v>
+        <v>633</v>
       </c>
       <c r="Q43" t="n">
         <v>30</v>
@@ -3501,7 +3501,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44385</v>
+        <v>44428</v>
       </c>
       <c r="E44" t="n">
         <v>8</v>
@@ -3528,13 +3528,13 @@
         <v>100</v>
       </c>
       <c r="K44" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="L44" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M44" t="n">
-        <v>17500</v>
+        <v>14500</v>
       </c>
       <c r="N44" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>583</v>
+        <v>483</v>
       </c>
       <c r="Q44" t="n">
         <v>30</v>
@@ -3573,7 +3573,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44433</v>
+        <v>44489</v>
       </c>
       <c r="E45" t="n">
         <v>8</v>
@@ -3600,13 +3600,13 @@
         <v>100</v>
       </c>
       <c r="K45" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="L45" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="M45" t="n">
-        <v>14500</v>
+        <v>9500</v>
       </c>
       <c r="N45" t="inlineStr">
         <is>
@@ -3619,7 +3619,7 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>290</v>
+        <v>190</v>
       </c>
       <c r="Q45" t="n">
         <v>50</v>
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44421</v>
+        <v>44489</v>
       </c>
       <c r="E46" t="n">
         <v>8</v>
@@ -3672,13 +3672,13 @@
         <v>100</v>
       </c>
       <c r="K46" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="L46" t="n">
-        <v>15000</v>
+        <v>8500</v>
       </c>
       <c r="M46" t="n">
-        <v>14500</v>
+        <v>8250</v>
       </c>
       <c r="N46" t="inlineStr">
         <is>
@@ -3691,7 +3691,7 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>483</v>
+        <v>275</v>
       </c>
       <c r="Q46" t="n">
         <v>30</v>
@@ -3717,7 +3717,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44442</v>
+        <v>44426</v>
       </c>
       <c r="E47" t="n">
         <v>8</v>
@@ -3732,7 +3732,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -3741,20 +3741,20 @@
         </is>
       </c>
       <c r="J47" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K47" t="n">
-        <v>14500</v>
+        <v>12000</v>
       </c>
       <c r="L47" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M47" t="n">
-        <v>14750</v>
+        <v>12600</v>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
@@ -3763,10 +3763,10 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>492</v>
+        <v>315</v>
       </c>
       <c r="Q47" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R47" t="inlineStr">
         <is>
@@ -3789,7 +3789,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44483</v>
+        <v>44376</v>
       </c>
       <c r="E48" t="n">
         <v>8</v>
@@ -3813,16 +3813,16 @@
         </is>
       </c>
       <c r="J48" t="n">
-        <v>450</v>
+        <v>100</v>
       </c>
       <c r="K48" t="n">
-        <v>11000</v>
+        <v>19000</v>
       </c>
       <c r="L48" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="M48" t="n">
-        <v>11444</v>
+        <v>19500</v>
       </c>
       <c r="N48" t="inlineStr">
         <is>
@@ -3835,7 +3835,7 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>381</v>
+        <v>650</v>
       </c>
       <c r="Q48" t="n">
         <v>30</v>
@@ -3861,7 +3861,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44483</v>
+        <v>44454</v>
       </c>
       <c r="E49" t="n">
         <v>8</v>
@@ -3885,16 +3885,16 @@
         </is>
       </c>
       <c r="J49" t="n">
-        <v>220</v>
+        <v>100</v>
       </c>
       <c r="K49" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="L49" t="n">
-        <v>8500</v>
+        <v>14000</v>
       </c>
       <c r="M49" t="n">
-        <v>8273</v>
+        <v>13500</v>
       </c>
       <c r="N49" t="inlineStr">
         <is>
@@ -3903,11 +3903,11 @@
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P49" t="n">
-        <v>207</v>
+        <v>338</v>
       </c>
       <c r="Q49" t="n">
         <v>40</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Alcachofa.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Alcachofa.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R49"/>
+  <dimension ref="A1:R51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44364</v>
+        <v>44755</v>
       </c>
       <c r="E37" t="n">
         <v>8</v>
@@ -3024,13 +3024,13 @@
         <v>100</v>
       </c>
       <c r="K37" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="L37" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="M37" t="n">
-        <v>19500</v>
+        <v>16500</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
@@ -3043,7 +3043,7 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>390</v>
+        <v>330</v>
       </c>
       <c r="Q37" t="n">
         <v>50</v>
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44364</v>
+        <v>44755</v>
       </c>
       <c r="E38" t="n">
         <v>8</v>
@@ -3096,13 +3096,13 @@
         <v>100</v>
       </c>
       <c r="K38" t="n">
-        <v>19000</v>
+        <v>18000</v>
       </c>
       <c r="L38" t="n">
         <v>20000</v>
       </c>
       <c r="M38" t="n">
-        <v>19500</v>
+        <v>19000</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
@@ -3115,7 +3115,7 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>650</v>
+        <v>633</v>
       </c>
       <c r="Q38" t="n">
         <v>30</v>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44727</v>
+        <v>44364</v>
       </c>
       <c r="E39" t="n">
         <v>8</v>
@@ -3156,7 +3156,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -3165,20 +3165,20 @@
         </is>
       </c>
       <c r="J39" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="K39" t="n">
+        <v>19000</v>
+      </c>
+      <c r="L39" t="n">
         <v>20000</v>
       </c>
-      <c r="L39" t="n">
-        <v>21000</v>
-      </c>
       <c r="M39" t="n">
-        <v>20467</v>
+        <v>19500</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
@@ -3187,10 +3187,10 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>682</v>
+        <v>390</v>
       </c>
       <c r="Q39" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R39" t="inlineStr">
         <is>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44748</v>
+        <v>44364</v>
       </c>
       <c r="E40" t="n">
         <v>8</v>
@@ -3228,7 +3228,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -3237,20 +3237,20 @@
         </is>
       </c>
       <c r="J40" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="K40" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="L40" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="M40" t="n">
-        <v>15545</v>
+        <v>19500</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
@@ -3259,10 +3259,10 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>389</v>
+        <v>650</v>
       </c>
       <c r="Q40" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R40" t="inlineStr">
         <is>
@@ -3285,7 +3285,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44699</v>
+        <v>44727</v>
       </c>
       <c r="E41" t="n">
         <v>8</v>
@@ -3309,16 +3309,16 @@
         </is>
       </c>
       <c r="J41" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="K41" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="L41" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="M41" t="n">
-        <v>19500</v>
+        <v>20467</v>
       </c>
       <c r="N41" t="inlineStr">
         <is>
@@ -3331,7 +3331,7 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>650</v>
+        <v>682</v>
       </c>
       <c r="Q41" t="n">
         <v>30</v>
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44358</v>
+        <v>44748</v>
       </c>
       <c r="E42" t="n">
         <v>8</v>
@@ -3381,20 +3381,20 @@
         </is>
       </c>
       <c r="J42" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="K42" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="L42" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="M42" t="n">
-        <v>19000</v>
+        <v>15545</v>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
@@ -3403,10 +3403,10 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>380</v>
+        <v>389</v>
       </c>
       <c r="Q42" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R42" t="inlineStr">
         <is>
@@ -3429,7 +3429,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44358</v>
+        <v>44699</v>
       </c>
       <c r="E43" t="n">
         <v>8</v>
@@ -3456,13 +3456,13 @@
         <v>100</v>
       </c>
       <c r="K43" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="L43" t="n">
         <v>20000</v>
       </c>
       <c r="M43" t="n">
-        <v>19000</v>
+        <v>19500</v>
       </c>
       <c r="N43" t="inlineStr">
         <is>
@@ -3475,7 +3475,7 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>633</v>
+        <v>650</v>
       </c>
       <c r="Q43" t="n">
         <v>30</v>
@@ -3501,7 +3501,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44428</v>
+        <v>44358</v>
       </c>
       <c r="E44" t="n">
         <v>8</v>
@@ -3516,7 +3516,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -3528,17 +3528,17 @@
         <v>100</v>
       </c>
       <c r="K44" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="L44" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="M44" t="n">
-        <v>14500</v>
+        <v>19000</v>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
@@ -3547,10 +3547,10 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>483</v>
+        <v>380</v>
       </c>
       <c r="Q44" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R44" t="inlineStr">
         <is>
@@ -3573,7 +3573,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44489</v>
+        <v>44358</v>
       </c>
       <c r="E45" t="n">
         <v>8</v>
@@ -3588,7 +3588,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -3600,17 +3600,17 @@
         <v>100</v>
       </c>
       <c r="K45" t="n">
-        <v>9000</v>
+        <v>18000</v>
       </c>
       <c r="L45" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="M45" t="n">
-        <v>9500</v>
+        <v>19000</v>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
@@ -3619,10 +3619,10 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>190</v>
+        <v>633</v>
       </c>
       <c r="Q45" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R45" t="inlineStr">
         <is>
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44489</v>
+        <v>44428</v>
       </c>
       <c r="E46" t="n">
         <v>8</v>
@@ -3672,13 +3672,13 @@
         <v>100</v>
       </c>
       <c r="K46" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="L46" t="n">
-        <v>8500</v>
+        <v>15000</v>
       </c>
       <c r="M46" t="n">
-        <v>8250</v>
+        <v>14500</v>
       </c>
       <c r="N46" t="inlineStr">
         <is>
@@ -3691,7 +3691,7 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>275</v>
+        <v>483</v>
       </c>
       <c r="Q46" t="n">
         <v>30</v>
@@ -3717,7 +3717,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44426</v>
+        <v>44489</v>
       </c>
       <c r="E47" t="n">
         <v>8</v>
@@ -3732,7 +3732,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -3741,32 +3741,32 @@
         </is>
       </c>
       <c r="J47" t="n">
+        <v>100</v>
+      </c>
+      <c r="K47" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L47" t="n">
+        <v>10000</v>
+      </c>
+      <c r="M47" t="n">
+        <v>9500</v>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>$/caja 50 unidades</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P47" t="n">
+        <v>190</v>
+      </c>
+      <c r="Q47" t="n">
         <v>50</v>
-      </c>
-      <c r="K47" t="n">
-        <v>12000</v>
-      </c>
-      <c r="L47" t="n">
-        <v>13000</v>
-      </c>
-      <c r="M47" t="n">
-        <v>12600</v>
-      </c>
-      <c r="N47" t="inlineStr">
-        <is>
-          <t>$/caja 40 unidades</t>
-        </is>
-      </c>
-      <c r="O47" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="P47" t="n">
-        <v>315</v>
-      </c>
-      <c r="Q47" t="n">
-        <v>40</v>
       </c>
       <c r="R47" t="inlineStr">
         <is>
@@ -3789,7 +3789,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44376</v>
+        <v>44489</v>
       </c>
       <c r="E48" t="n">
         <v>8</v>
@@ -3816,13 +3816,13 @@
         <v>100</v>
       </c>
       <c r="K48" t="n">
-        <v>19000</v>
+        <v>8000</v>
       </c>
       <c r="L48" t="n">
-        <v>20000</v>
+        <v>8500</v>
       </c>
       <c r="M48" t="n">
-        <v>19500</v>
+        <v>8250</v>
       </c>
       <c r="N48" t="inlineStr">
         <is>
@@ -3835,7 +3835,7 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>650</v>
+        <v>275</v>
       </c>
       <c r="Q48" t="n">
         <v>30</v>
@@ -3861,7 +3861,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44454</v>
+        <v>44426</v>
       </c>
       <c r="E49" t="n">
         <v>8</v>
@@ -3885,16 +3885,16 @@
         </is>
       </c>
       <c r="J49" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K49" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L49" t="n">
         <v>13000</v>
       </c>
-      <c r="L49" t="n">
-        <v>14000</v>
-      </c>
       <c r="M49" t="n">
-        <v>13500</v>
+        <v>12600</v>
       </c>
       <c r="N49" t="inlineStr">
         <is>
@@ -3903,16 +3903,160 @@
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P49" t="n">
-        <v>338</v>
+        <v>315</v>
       </c>
       <c r="Q49" t="n">
         <v>40</v>
       </c>
       <c r="R49" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>11</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D50" s="2" t="n">
+        <v>44376</v>
+      </c>
+      <c r="E50" t="n">
+        <v>8</v>
+      </c>
+      <c r="F50" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Española</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J50" t="n">
+        <v>100</v>
+      </c>
+      <c r="K50" t="n">
+        <v>19000</v>
+      </c>
+      <c r="L50" t="n">
+        <v>20000</v>
+      </c>
+      <c r="M50" t="n">
+        <v>19500</v>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>$/caja 30 unidades</t>
+        </is>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P50" t="n">
+        <v>650</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>30</v>
+      </c>
+      <c r="R50" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>11</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D51" s="2" t="n">
+        <v>44454</v>
+      </c>
+      <c r="E51" t="n">
+        <v>8</v>
+      </c>
+      <c r="F51" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Madrigal</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J51" t="n">
+        <v>100</v>
+      </c>
+      <c r="K51" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L51" t="n">
+        <v>14000</v>
+      </c>
+      <c r="M51" t="n">
+        <v>13500</v>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>$/caja 40 unidades</t>
+        </is>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P51" t="n">
+        <v>338</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>40</v>
+      </c>
+      <c r="R51" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Alcachofa.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Alcachofa.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R51"/>
+  <dimension ref="A1:R52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44741</v>
+        <v>44757</v>
       </c>
       <c r="E26" t="n">
         <v>8</v>
@@ -2229,16 +2229,16 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K26" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="L26" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="M26" t="n">
-        <v>16500</v>
+        <v>14400</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
@@ -2251,7 +2251,7 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>330</v>
+        <v>288</v>
       </c>
       <c r="Q26" t="n">
         <v>50</v>
@@ -2292,7 +2292,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -2304,17 +2304,17 @@
         <v>100</v>
       </c>
       <c r="K27" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="L27" t="n">
-        <v>22000</v>
+        <v>17000</v>
       </c>
       <c r="M27" t="n">
-        <v>21000</v>
+        <v>16500</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
@@ -2323,10 +2323,10 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>700</v>
+        <v>330</v>
       </c>
       <c r="Q27" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R27" t="inlineStr">
         <is>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44399</v>
+        <v>44741</v>
       </c>
       <c r="E28" t="n">
         <v>8</v>
@@ -2376,13 +2376,13 @@
         <v>100</v>
       </c>
       <c r="K28" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="L28" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="M28" t="n">
-        <v>14500</v>
+        <v>21000</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
@@ -2395,7 +2395,7 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>483</v>
+        <v>700</v>
       </c>
       <c r="Q28" t="n">
         <v>30</v>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44397</v>
+        <v>44399</v>
       </c>
       <c r="E29" t="n">
         <v>8</v>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44496</v>
+        <v>44397</v>
       </c>
       <c r="E30" t="n">
         <v>8</v>
@@ -2508,7 +2508,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -2517,32 +2517,32 @@
         </is>
       </c>
       <c r="J30" t="n">
-        <v>350</v>
+        <v>100</v>
       </c>
       <c r="K30" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="L30" t="n">
-        <v>7500</v>
+        <v>15000</v>
       </c>
       <c r="M30" t="n">
-        <v>7214</v>
+        <v>14500</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P30" t="n">
-        <v>180</v>
+        <v>483</v>
       </c>
       <c r="Q30" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R30" t="inlineStr">
         <is>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44385</v>
+        <v>44496</v>
       </c>
       <c r="E31" t="n">
         <v>8</v>
@@ -2580,7 +2580,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -2589,32 +2589,32 @@
         </is>
       </c>
       <c r="J31" t="n">
-        <v>100</v>
+        <v>350</v>
       </c>
       <c r="K31" t="n">
-        <v>17000</v>
+        <v>7000</v>
       </c>
       <c r="L31" t="n">
-        <v>18000</v>
+        <v>7500</v>
       </c>
       <c r="M31" t="n">
-        <v>17500</v>
+        <v>7214</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P31" t="n">
-        <v>583</v>
+        <v>180</v>
       </c>
       <c r="Q31" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R31" t="inlineStr">
         <is>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44497</v>
+        <v>44385</v>
       </c>
       <c r="E32" t="n">
         <v>8</v>
@@ -2652,7 +2652,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -2661,20 +2661,20 @@
         </is>
       </c>
       <c r="J32" t="n">
-        <v>180</v>
+        <v>100</v>
       </c>
       <c r="K32" t="n">
-        <v>6500</v>
+        <v>17000</v>
       </c>
       <c r="L32" t="n">
-        <v>7000</v>
+        <v>18000</v>
       </c>
       <c r="M32" t="n">
-        <v>6778</v>
+        <v>17500</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
@@ -2683,10 +2683,10 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>136</v>
+        <v>583</v>
       </c>
       <c r="Q32" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R32" t="inlineStr">
         <is>
@@ -2724,7 +2724,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -2733,20 +2733,20 @@
         </is>
       </c>
       <c r="J33" t="n">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="K33" t="n">
+        <v>6500</v>
+      </c>
+      <c r="L33" t="n">
         <v>7000</v>
       </c>
-      <c r="L33" t="n">
-        <v>7500</v>
-      </c>
       <c r="M33" t="n">
-        <v>7250</v>
+        <v>6778</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
@@ -2755,10 +2755,10 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>242</v>
+        <v>136</v>
       </c>
       <c r="Q33" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R33" t="inlineStr">
         <is>
@@ -2796,7 +2796,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -2805,32 +2805,32 @@
         </is>
       </c>
       <c r="J34" t="n">
-        <v>130</v>
+        <v>200</v>
       </c>
       <c r="K34" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L34" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="M34" t="n">
-        <v>6192</v>
+        <v>7250</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P34" t="n">
-        <v>155</v>
+        <v>242</v>
       </c>
       <c r="Q34" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R34" t="inlineStr">
         <is>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44463</v>
+        <v>44497</v>
       </c>
       <c r="E35" t="n">
         <v>8</v>
@@ -2868,7 +2868,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -2877,32 +2877,32 @@
         </is>
       </c>
       <c r="J35" t="n">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="K35" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="L35" t="n">
-        <v>10000</v>
+        <v>6500</v>
       </c>
       <c r="M35" t="n">
-        <v>9500</v>
+        <v>6192</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P35" t="n">
-        <v>190</v>
+        <v>155</v>
       </c>
       <c r="Q35" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R35" t="inlineStr">
         <is>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44435</v>
+        <v>44463</v>
       </c>
       <c r="E36" t="n">
         <v>8</v>
@@ -2952,13 +2952,13 @@
         <v>100</v>
       </c>
       <c r="K36" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="L36" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="M36" t="n">
-        <v>14500</v>
+        <v>9500</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>290</v>
+        <v>190</v>
       </c>
       <c r="Q36" t="n">
         <v>50</v>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44755</v>
+        <v>44435</v>
       </c>
       <c r="E37" t="n">
         <v>8</v>
@@ -3024,13 +3024,13 @@
         <v>100</v>
       </c>
       <c r="K37" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="L37" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="M37" t="n">
-        <v>16500</v>
+        <v>14500</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
@@ -3043,7 +3043,7 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>330</v>
+        <v>290</v>
       </c>
       <c r="Q37" t="n">
         <v>50</v>
@@ -3084,7 +3084,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -3096,17 +3096,17 @@
         <v>100</v>
       </c>
       <c r="K38" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="L38" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="M38" t="n">
-        <v>19000</v>
+        <v>16500</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
@@ -3115,10 +3115,10 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>633</v>
+        <v>330</v>
       </c>
       <c r="Q38" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R38" t="inlineStr">
         <is>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44364</v>
+        <v>44755</v>
       </c>
       <c r="E39" t="n">
         <v>8</v>
@@ -3156,7 +3156,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -3168,17 +3168,17 @@
         <v>100</v>
       </c>
       <c r="K39" t="n">
-        <v>19000</v>
+        <v>18000</v>
       </c>
       <c r="L39" t="n">
         <v>20000</v>
       </c>
       <c r="M39" t="n">
-        <v>19500</v>
+        <v>19000</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
@@ -3187,10 +3187,10 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>390</v>
+        <v>633</v>
       </c>
       <c r="Q39" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R39" t="inlineStr">
         <is>
@@ -3228,7 +3228,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -3250,7 +3250,7 @@
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
@@ -3259,10 +3259,10 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>650</v>
+        <v>390</v>
       </c>
       <c r="Q40" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R40" t="inlineStr">
         <is>
@@ -3285,7 +3285,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44727</v>
+        <v>44364</v>
       </c>
       <c r="E41" t="n">
         <v>8</v>
@@ -3309,16 +3309,16 @@
         </is>
       </c>
       <c r="J41" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="K41" t="n">
+        <v>19000</v>
+      </c>
+      <c r="L41" t="n">
         <v>20000</v>
       </c>
-      <c r="L41" t="n">
-        <v>21000</v>
-      </c>
       <c r="M41" t="n">
-        <v>20467</v>
+        <v>19500</v>
       </c>
       <c r="N41" t="inlineStr">
         <is>
@@ -3331,7 +3331,7 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>682</v>
+        <v>650</v>
       </c>
       <c r="Q41" t="n">
         <v>30</v>
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44748</v>
+        <v>44727</v>
       </c>
       <c r="E42" t="n">
         <v>8</v>
@@ -3372,7 +3372,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -3381,20 +3381,20 @@
         </is>
       </c>
       <c r="J42" t="n">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="K42" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="L42" t="n">
-        <v>16000</v>
+        <v>21000</v>
       </c>
       <c r="M42" t="n">
-        <v>15545</v>
+        <v>20467</v>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
@@ -3403,10 +3403,10 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>389</v>
+        <v>682</v>
       </c>
       <c r="Q42" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R42" t="inlineStr">
         <is>
@@ -3429,7 +3429,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44699</v>
+        <v>44748</v>
       </c>
       <c r="E43" t="n">
         <v>8</v>
@@ -3444,7 +3444,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -3453,20 +3453,20 @@
         </is>
       </c>
       <c r="J43" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="K43" t="n">
-        <v>19000</v>
+        <v>15000</v>
       </c>
       <c r="L43" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="M43" t="n">
-        <v>19500</v>
+        <v>15545</v>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
@@ -3475,10 +3475,10 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>650</v>
+        <v>389</v>
       </c>
       <c r="Q43" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R43" t="inlineStr">
         <is>
@@ -3501,7 +3501,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44358</v>
+        <v>44699</v>
       </c>
       <c r="E44" t="n">
         <v>8</v>
@@ -3516,7 +3516,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -3528,17 +3528,17 @@
         <v>100</v>
       </c>
       <c r="K44" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="L44" t="n">
         <v>20000</v>
       </c>
       <c r="M44" t="n">
-        <v>19000</v>
+        <v>19500</v>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
@@ -3547,10 +3547,10 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>380</v>
+        <v>650</v>
       </c>
       <c r="Q44" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R44" t="inlineStr">
         <is>
@@ -3588,7 +3588,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -3610,7 +3610,7 @@
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
@@ -3619,10 +3619,10 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>633</v>
+        <v>380</v>
       </c>
       <c r="Q45" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R45" t="inlineStr">
         <is>
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44428</v>
+        <v>44358</v>
       </c>
       <c r="E46" t="n">
         <v>8</v>
@@ -3672,13 +3672,13 @@
         <v>100</v>
       </c>
       <c r="K46" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="L46" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="M46" t="n">
-        <v>14500</v>
+        <v>19000</v>
       </c>
       <c r="N46" t="inlineStr">
         <is>
@@ -3691,7 +3691,7 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>483</v>
+        <v>633</v>
       </c>
       <c r="Q46" t="n">
         <v>30</v>
@@ -3717,7 +3717,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44489</v>
+        <v>44428</v>
       </c>
       <c r="E47" t="n">
         <v>8</v>
@@ -3732,7 +3732,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -3744,17 +3744,17 @@
         <v>100</v>
       </c>
       <c r="K47" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="L47" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="M47" t="n">
-        <v>9500</v>
+        <v>14500</v>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
@@ -3763,10 +3763,10 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>190</v>
+        <v>483</v>
       </c>
       <c r="Q47" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R47" t="inlineStr">
         <is>
@@ -3804,7 +3804,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -3816,17 +3816,17 @@
         <v>100</v>
       </c>
       <c r="K48" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="L48" t="n">
-        <v>8500</v>
+        <v>10000</v>
       </c>
       <c r="M48" t="n">
-        <v>8250</v>
+        <v>9500</v>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
@@ -3835,10 +3835,10 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>275</v>
+        <v>190</v>
       </c>
       <c r="Q48" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R48" t="inlineStr">
         <is>
@@ -3861,7 +3861,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44426</v>
+        <v>44489</v>
       </c>
       <c r="E49" t="n">
         <v>8</v>
@@ -3876,7 +3876,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -3885,20 +3885,20 @@
         </is>
       </c>
       <c r="J49" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="K49" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="L49" t="n">
-        <v>13000</v>
+        <v>8500</v>
       </c>
       <c r="M49" t="n">
-        <v>12600</v>
+        <v>8250</v>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
@@ -3907,10 +3907,10 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>315</v>
+        <v>275</v>
       </c>
       <c r="Q49" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R49" t="inlineStr">
         <is>
@@ -3933,7 +3933,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44376</v>
+        <v>44426</v>
       </c>
       <c r="E50" t="n">
         <v>8</v>
@@ -3948,7 +3948,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -3957,20 +3957,20 @@
         </is>
       </c>
       <c r="J50" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K50" t="n">
-        <v>19000</v>
+        <v>12000</v>
       </c>
       <c r="L50" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="M50" t="n">
-        <v>19500</v>
+        <v>12600</v>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
@@ -3979,10 +3979,10 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>650</v>
+        <v>315</v>
       </c>
       <c r="Q50" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R50" t="inlineStr">
         <is>
@@ -4005,7 +4005,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44454</v>
+        <v>44376</v>
       </c>
       <c r="E51" t="n">
         <v>8</v>
@@ -4020,7 +4020,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -4032,31 +4032,103 @@
         <v>100</v>
       </c>
       <c r="K51" t="n">
+        <v>19000</v>
+      </c>
+      <c r="L51" t="n">
+        <v>20000</v>
+      </c>
+      <c r="M51" t="n">
+        <v>19500</v>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>$/caja 30 unidades</t>
+        </is>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P51" t="n">
+        <v>650</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>30</v>
+      </c>
+      <c r="R51" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>11</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D52" s="2" t="n">
+        <v>44454</v>
+      </c>
+      <c r="E52" t="n">
+        <v>8</v>
+      </c>
+      <c r="F52" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Madrigal</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J52" t="n">
+        <v>100</v>
+      </c>
+      <c r="K52" t="n">
         <v>13000</v>
       </c>
-      <c r="L51" t="n">
+      <c r="L52" t="n">
         <v>14000</v>
       </c>
-      <c r="M51" t="n">
+      <c r="M52" t="n">
         <v>13500</v>
       </c>
-      <c r="N51" t="inlineStr">
+      <c r="N52" t="inlineStr">
         <is>
           <t>$/caja 40 unidades</t>
         </is>
       </c>
-      <c r="O51" t="inlineStr">
+      <c r="O52" t="inlineStr">
         <is>
           <t>Provincia del Elquí</t>
         </is>
       </c>
-      <c r="P51" t="n">
+      <c r="P52" t="n">
         <v>338</v>
       </c>
-      <c r="Q51" t="n">
+      <c r="Q52" t="n">
         <v>40</v>
       </c>
-      <c r="R51" t="inlineStr">
+      <c r="R52" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Alcachofa.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Alcachofa.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44722</v>
+        <v>44729</v>
       </c>
       <c r="E2" t="n">
         <v>8</v>
@@ -492,7 +492,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -501,20 +501,20 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="K2" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="L2" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="M2" t="n">
-        <v>21333</v>
+        <v>17500</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -523,10 +523,10 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>711</v>
+        <v>438</v>
       </c>
       <c r="Q2" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R2" t="inlineStr">
         <is>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44433</v>
+        <v>44442</v>
       </c>
       <c r="E3" t="n">
         <v>8</v>
@@ -564,7 +564,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -576,17 +576,17 @@
         <v>100</v>
       </c>
       <c r="K3" t="n">
-        <v>14000</v>
+        <v>14500</v>
       </c>
       <c r="L3" t="n">
         <v>15000</v>
       </c>
       <c r="M3" t="n">
-        <v>14500</v>
+        <v>14750</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -595,10 +595,10 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>290</v>
+        <v>492</v>
       </c>
       <c r="Q3" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R3" t="inlineStr">
         <is>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44421</v>
+        <v>44335</v>
       </c>
       <c r="E4" t="n">
         <v>8</v>
@@ -648,13 +648,13 @@
         <v>100</v>
       </c>
       <c r="K4" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="L4" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M4" t="n">
-        <v>14500</v>
+        <v>17500</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>483</v>
+        <v>583</v>
       </c>
       <c r="Q4" t="n">
         <v>30</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44729</v>
+        <v>44426</v>
       </c>
       <c r="E5" t="n">
         <v>8</v>
@@ -708,7 +708,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="K5" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="L5" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="M5" t="n">
-        <v>17500</v>
+        <v>12600</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>438</v>
+        <v>315</v>
       </c>
       <c r="Q5" t="n">
         <v>40</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44350</v>
+        <v>44447</v>
       </c>
       <c r="E6" t="n">
         <v>8</v>
@@ -780,7 +780,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -789,20 +789,20 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="K6" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L6" t="n">
         <v>15000</v>
       </c>
-      <c r="L6" t="n">
-        <v>16000</v>
-      </c>
       <c r="M6" t="n">
-        <v>15600</v>
+        <v>14500</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
@@ -811,10 +811,10 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>312</v>
+        <v>483</v>
       </c>
       <c r="Q6" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R6" t="inlineStr">
         <is>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44350</v>
+        <v>44741</v>
       </c>
       <c r="E7" t="n">
         <v>8</v>
@@ -852,7 +852,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -861,20 +861,20 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="K7" t="n">
+        <v>16000</v>
+      </c>
+      <c r="L7" t="n">
         <v>17000</v>
       </c>
-      <c r="L7" t="n">
-        <v>18000</v>
-      </c>
       <c r="M7" t="n">
-        <v>17500</v>
+        <v>16500</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -883,10 +883,10 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>583</v>
+        <v>330</v>
       </c>
       <c r="Q7" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R7" t="inlineStr">
         <is>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44680</v>
+        <v>44741</v>
       </c>
       <c r="E8" t="n">
         <v>8</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="K8" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="L8" t="n">
-        <v>19000</v>
+        <v>22000</v>
       </c>
       <c r="M8" t="n">
-        <v>18600</v>
+        <v>21000</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>620</v>
+        <v>700</v>
       </c>
       <c r="Q8" t="n">
         <v>30</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44335</v>
+        <v>44750</v>
       </c>
       <c r="E9" t="n">
         <v>8</v>
@@ -996,7 +996,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1005,20 +1005,20 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="K9" t="n">
+        <v>16000</v>
+      </c>
+      <c r="L9" t="n">
         <v>17000</v>
       </c>
-      <c r="L9" t="n">
-        <v>18000</v>
-      </c>
       <c r="M9" t="n">
-        <v>17500</v>
+        <v>16615</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
@@ -1027,10 +1027,10 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>583</v>
+        <v>332</v>
       </c>
       <c r="Q9" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R9" t="inlineStr">
         <is>
@@ -1068,7 +1068,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1077,20 +1077,20 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="K10" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="L10" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="M10" t="n">
-        <v>16615</v>
+        <v>18909</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
@@ -1099,10 +1099,10 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>332</v>
+        <v>630</v>
       </c>
       <c r="Q10" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R10" t="inlineStr">
         <is>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44750</v>
+        <v>44385</v>
       </c>
       <c r="E11" t="n">
         <v>8</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="K11" t="n">
+        <v>17000</v>
+      </c>
+      <c r="L11" t="n">
         <v>18000</v>
       </c>
-      <c r="L11" t="n">
-        <v>20000</v>
-      </c>
       <c r="M11" t="n">
-        <v>18909</v>
+        <v>17500</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>630</v>
+        <v>583</v>
       </c>
       <c r="Q11" t="n">
         <v>30</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44383</v>
+        <v>44727</v>
       </c>
       <c r="E12" t="n">
         <v>8</v>
@@ -1212,7 +1212,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1221,20 +1221,20 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="K12" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="L12" t="n">
-        <v>18000</v>
+        <v>21000</v>
       </c>
       <c r="M12" t="n">
-        <v>17400</v>
+        <v>20467</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
@@ -1243,10 +1243,10 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>348</v>
+        <v>682</v>
       </c>
       <c r="Q12" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R12" t="inlineStr">
         <is>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44420</v>
+        <v>44680</v>
       </c>
       <c r="E13" t="n">
         <v>8</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K13" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="L13" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="M13" t="n">
-        <v>14500</v>
+        <v>18600</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>483</v>
+        <v>620</v>
       </c>
       <c r="Q13" t="n">
         <v>30</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44342</v>
+        <v>44433</v>
       </c>
       <c r="E14" t="n">
         <v>8</v>
@@ -1356,7 +1356,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1368,17 +1368,17 @@
         <v>100</v>
       </c>
       <c r="K14" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="L14" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M14" t="n">
-        <v>17500</v>
+        <v>14500</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
@@ -1387,10 +1387,10 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>583</v>
+        <v>290</v>
       </c>
       <c r="Q14" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R14" t="inlineStr">
         <is>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44342</v>
+        <v>44755</v>
       </c>
       <c r="E15" t="n">
         <v>8</v>
@@ -1428,7 +1428,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1440,17 +1440,17 @@
         <v>100</v>
       </c>
       <c r="K15" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="L15" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="M15" t="n">
-        <v>15500</v>
+        <v>16500</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
@@ -1459,10 +1459,10 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>388</v>
+        <v>330</v>
       </c>
       <c r="Q15" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R15" t="inlineStr">
         <is>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44483</v>
+        <v>44755</v>
       </c>
       <c r="E16" t="n">
         <v>8</v>
@@ -1509,16 +1509,16 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>450</v>
+        <v>100</v>
       </c>
       <c r="K16" t="n">
-        <v>11000</v>
+        <v>18000</v>
       </c>
       <c r="L16" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="M16" t="n">
-        <v>11444</v>
+        <v>19000</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>381</v>
+        <v>633</v>
       </c>
       <c r="Q16" t="n">
         <v>30</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44483</v>
+        <v>44722</v>
       </c>
       <c r="E17" t="n">
         <v>8</v>
@@ -1572,7 +1572,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1581,32 +1581,32 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>220</v>
+        <v>120</v>
       </c>
       <c r="K17" t="n">
-        <v>8000</v>
+        <v>20000</v>
       </c>
       <c r="L17" t="n">
-        <v>8500</v>
+        <v>22000</v>
       </c>
       <c r="M17" t="n">
-        <v>8273</v>
+        <v>21333</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P17" t="n">
-        <v>207</v>
+        <v>711</v>
       </c>
       <c r="Q17" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R17" t="inlineStr">
         <is>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44447</v>
+        <v>44699</v>
       </c>
       <c r="E18" t="n">
         <v>8</v>
@@ -1656,13 +1656,13 @@
         <v>100</v>
       </c>
       <c r="K18" t="n">
-        <v>14000</v>
+        <v>19000</v>
       </c>
       <c r="L18" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="M18" t="n">
-        <v>14500</v>
+        <v>19500</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>483</v>
+        <v>650</v>
       </c>
       <c r="Q18" t="n">
         <v>30</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44441</v>
+        <v>44706</v>
       </c>
       <c r="E19" t="n">
         <v>8</v>
@@ -1725,16 +1725,16 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K19" t="n">
-        <v>13000</v>
+        <v>23000</v>
       </c>
       <c r="L19" t="n">
-        <v>14000</v>
+        <v>24000</v>
       </c>
       <c r="M19" t="n">
-        <v>13500</v>
+        <v>23400</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>450</v>
+        <v>780</v>
       </c>
       <c r="Q19" t="n">
         <v>30</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44749</v>
+        <v>44350</v>
       </c>
       <c r="E20" t="n">
         <v>8</v>
@@ -1797,16 +1797,16 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="K20" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="L20" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="M20" t="n">
-        <v>14200</v>
+        <v>15600</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>284</v>
+        <v>312</v>
       </c>
       <c r="Q20" t="n">
         <v>50</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44721</v>
+        <v>44350</v>
       </c>
       <c r="E21" t="n">
         <v>8</v>
@@ -1869,16 +1869,16 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>150</v>
+        <v>40</v>
       </c>
       <c r="K21" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="L21" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="M21" t="n">
-        <v>19533</v>
+        <v>17500</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1891,7 +1891,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>651</v>
+        <v>583</v>
       </c>
       <c r="Q21" t="n">
         <v>30</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44442</v>
+        <v>44383</v>
       </c>
       <c r="E22" t="n">
         <v>8</v>
@@ -1932,7 +1932,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1941,20 +1941,20 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K22" t="n">
-        <v>14500</v>
+        <v>17000</v>
       </c>
       <c r="L22" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M22" t="n">
-        <v>14750</v>
+        <v>17400</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
@@ -1963,10 +1963,10 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>492</v>
+        <v>348</v>
       </c>
       <c r="Q22" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R22" t="inlineStr">
         <is>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44484</v>
+        <v>44342</v>
       </c>
       <c r="E23" t="n">
         <v>8</v>
@@ -2004,7 +2004,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -2013,20 +2013,20 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>220</v>
+        <v>100</v>
       </c>
       <c r="K23" t="n">
-        <v>8000</v>
+        <v>17000</v>
       </c>
       <c r="L23" t="n">
-        <v>9000</v>
+        <v>18000</v>
       </c>
       <c r="M23" t="n">
-        <v>8455</v>
+        <v>17500</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
@@ -2035,10 +2035,10 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>169</v>
+        <v>583</v>
       </c>
       <c r="Q23" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R23" t="inlineStr">
         <is>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44484</v>
+        <v>44342</v>
       </c>
       <c r="E24" t="n">
         <v>8</v>
@@ -2076,7 +2076,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -2085,20 +2085,20 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>220</v>
+        <v>100</v>
       </c>
       <c r="K24" t="n">
-        <v>7500</v>
+        <v>15000</v>
       </c>
       <c r="L24" t="n">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="M24" t="n">
-        <v>7727</v>
+        <v>15500</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
@@ -2107,10 +2107,10 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>258</v>
+        <v>388</v>
       </c>
       <c r="Q24" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R24" t="inlineStr">
         <is>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44706</v>
+        <v>44435</v>
       </c>
       <c r="E25" t="n">
         <v>8</v>
@@ -2148,7 +2148,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -2157,32 +2157,32 @@
         </is>
       </c>
       <c r="J25" t="n">
+        <v>100</v>
+      </c>
+      <c r="K25" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L25" t="n">
+        <v>15000</v>
+      </c>
+      <c r="M25" t="n">
+        <v>14500</v>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>$/caja 50 unidades</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P25" t="n">
+        <v>290</v>
+      </c>
+      <c r="Q25" t="n">
         <v>50</v>
-      </c>
-      <c r="K25" t="n">
-        <v>23000</v>
-      </c>
-      <c r="L25" t="n">
-        <v>24000</v>
-      </c>
-      <c r="M25" t="n">
-        <v>23400</v>
-      </c>
-      <c r="N25" t="inlineStr">
-        <is>
-          <t>$/caja 30 unidades</t>
-        </is>
-      </c>
-      <c r="O25" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="P25" t="n">
-        <v>780</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>30</v>
       </c>
       <c r="R25" t="inlineStr">
         <is>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44757</v>
+        <v>44376</v>
       </c>
       <c r="E26" t="n">
         <v>8</v>
@@ -2220,7 +2220,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -2229,20 +2229,20 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="K26" t="n">
-        <v>14000</v>
+        <v>19000</v>
       </c>
       <c r="L26" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="M26" t="n">
-        <v>14400</v>
+        <v>19500</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
@@ -2251,10 +2251,10 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>288</v>
+        <v>650</v>
       </c>
       <c r="Q26" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R26" t="inlineStr">
         <is>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44741</v>
+        <v>44721</v>
       </c>
       <c r="E27" t="n">
         <v>8</v>
@@ -2292,7 +2292,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -2301,20 +2301,20 @@
         </is>
       </c>
       <c r="J27" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="K27" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="L27" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="M27" t="n">
-        <v>16500</v>
+        <v>19533</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
@@ -2323,10 +2323,10 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>330</v>
+        <v>651</v>
       </c>
       <c r="Q27" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R27" t="inlineStr">
         <is>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44741</v>
+        <v>44364</v>
       </c>
       <c r="E28" t="n">
         <v>8</v>
@@ -2364,7 +2364,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -2376,17 +2376,17 @@
         <v>100</v>
       </c>
       <c r="K28" t="n">
+        <v>19000</v>
+      </c>
+      <c r="L28" t="n">
         <v>20000</v>
       </c>
-      <c r="L28" t="n">
-        <v>22000</v>
-      </c>
       <c r="M28" t="n">
-        <v>21000</v>
+        <v>19500</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
@@ -2395,10 +2395,10 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>700</v>
+        <v>390</v>
       </c>
       <c r="Q28" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R28" t="inlineStr">
         <is>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44399</v>
+        <v>44364</v>
       </c>
       <c r="E29" t="n">
         <v>8</v>
@@ -2448,13 +2448,13 @@
         <v>100</v>
       </c>
       <c r="K29" t="n">
-        <v>14000</v>
+        <v>19000</v>
       </c>
       <c r="L29" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="M29" t="n">
-        <v>14500</v>
+        <v>19500</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
@@ -2467,7 +2467,7 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>483</v>
+        <v>650</v>
       </c>
       <c r="Q29" t="n">
         <v>30</v>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44397</v>
+        <v>44454</v>
       </c>
       <c r="E30" t="n">
         <v>8</v>
@@ -2508,7 +2508,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -2520,29 +2520,29 @@
         <v>100</v>
       </c>
       <c r="K30" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L30" t="n">
         <v>14000</v>
       </c>
-      <c r="L30" t="n">
-        <v>15000</v>
-      </c>
       <c r="M30" t="n">
-        <v>14500</v>
+        <v>13500</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P30" t="n">
-        <v>483</v>
+        <v>338</v>
       </c>
       <c r="Q30" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R30" t="inlineStr">
         <is>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44496</v>
+        <v>44428</v>
       </c>
       <c r="E31" t="n">
         <v>8</v>
@@ -2580,7 +2580,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -2589,32 +2589,32 @@
         </is>
       </c>
       <c r="J31" t="n">
-        <v>350</v>
+        <v>100</v>
       </c>
       <c r="K31" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="L31" t="n">
-        <v>7500</v>
+        <v>15000</v>
       </c>
       <c r="M31" t="n">
-        <v>7214</v>
+        <v>14500</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P31" t="n">
-        <v>180</v>
+        <v>483</v>
       </c>
       <c r="Q31" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R31" t="inlineStr">
         <is>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44385</v>
+        <v>44749</v>
       </c>
       <c r="E32" t="n">
         <v>8</v>
@@ -2652,7 +2652,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -2661,20 +2661,20 @@
         </is>
       </c>
       <c r="J32" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="K32" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="L32" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M32" t="n">
-        <v>17500</v>
+        <v>14200</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
@@ -2683,10 +2683,10 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>583</v>
+        <v>284</v>
       </c>
       <c r="Q32" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R32" t="inlineStr">
         <is>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44497</v>
+        <v>44420</v>
       </c>
       <c r="E33" t="n">
         <v>8</v>
@@ -2724,7 +2724,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -2733,20 +2733,20 @@
         </is>
       </c>
       <c r="J33" t="n">
-        <v>180</v>
+        <v>100</v>
       </c>
       <c r="K33" t="n">
-        <v>6500</v>
+        <v>14000</v>
       </c>
       <c r="L33" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="M33" t="n">
-        <v>6778</v>
+        <v>14500</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
@@ -2755,10 +2755,10 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>136</v>
+        <v>483</v>
       </c>
       <c r="Q33" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R33" t="inlineStr">
         <is>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44497</v>
+        <v>44463</v>
       </c>
       <c r="E34" t="n">
         <v>8</v>
@@ -2796,7 +2796,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -2805,20 +2805,20 @@
         </is>
       </c>
       <c r="J34" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K34" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L34" t="n">
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="M34" t="n">
-        <v>7250</v>
+        <v>9500</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
@@ -2827,10 +2827,10 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>242</v>
+        <v>190</v>
       </c>
       <c r="Q34" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R34" t="inlineStr">
         <is>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44497</v>
+        <v>44421</v>
       </c>
       <c r="E35" t="n">
         <v>8</v>
@@ -2868,7 +2868,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -2877,32 +2877,32 @@
         </is>
       </c>
       <c r="J35" t="n">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="K35" t="n">
-        <v>6000</v>
+        <v>14000</v>
       </c>
       <c r="L35" t="n">
-        <v>6500</v>
+        <v>15000</v>
       </c>
       <c r="M35" t="n">
-        <v>6192</v>
+        <v>14500</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P35" t="n">
-        <v>155</v>
+        <v>483</v>
       </c>
       <c r="Q35" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R35" t="inlineStr">
         <is>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44463</v>
+        <v>44748</v>
       </c>
       <c r="E36" t="n">
         <v>8</v>
@@ -2949,20 +2949,20 @@
         </is>
       </c>
       <c r="J36" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="K36" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="L36" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="M36" t="n">
-        <v>9500</v>
+        <v>15545</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
@@ -2971,10 +2971,10 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>190</v>
+        <v>389</v>
       </c>
       <c r="Q36" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R36" t="inlineStr">
         <is>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44435</v>
+        <v>44441</v>
       </c>
       <c r="E37" t="n">
         <v>8</v>
@@ -3012,7 +3012,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -3024,17 +3024,17 @@
         <v>100</v>
       </c>
       <c r="K37" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L37" t="n">
         <v>14000</v>
       </c>
-      <c r="L37" t="n">
-        <v>15000</v>
-      </c>
       <c r="M37" t="n">
-        <v>14500</v>
+        <v>13500</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
@@ -3043,10 +3043,10 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>290</v>
+        <v>450</v>
       </c>
       <c r="Q37" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R37" t="inlineStr">
         <is>
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44755</v>
+        <v>44483</v>
       </c>
       <c r="E38" t="n">
         <v>8</v>
@@ -3084,7 +3084,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -3093,20 +3093,20 @@
         </is>
       </c>
       <c r="J38" t="n">
-        <v>100</v>
+        <v>450</v>
       </c>
       <c r="K38" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="L38" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="M38" t="n">
-        <v>16500</v>
+        <v>11444</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
@@ -3115,10 +3115,10 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>330</v>
+        <v>381</v>
       </c>
       <c r="Q38" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R38" t="inlineStr">
         <is>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44755</v>
+        <v>44483</v>
       </c>
       <c r="E39" t="n">
         <v>8</v>
@@ -3156,7 +3156,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -3165,32 +3165,32 @@
         </is>
       </c>
       <c r="J39" t="n">
-        <v>100</v>
+        <v>220</v>
       </c>
       <c r="K39" t="n">
-        <v>18000</v>
+        <v>8000</v>
       </c>
       <c r="L39" t="n">
-        <v>20000</v>
+        <v>8500</v>
       </c>
       <c r="M39" t="n">
-        <v>19000</v>
+        <v>8273</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P39" t="n">
-        <v>633</v>
+        <v>207</v>
       </c>
       <c r="Q39" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R39" t="inlineStr">
         <is>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44364</v>
+        <v>44484</v>
       </c>
       <c r="E40" t="n">
         <v>8</v>
@@ -3237,16 +3237,16 @@
         </is>
       </c>
       <c r="J40" t="n">
-        <v>100</v>
+        <v>220</v>
       </c>
       <c r="K40" t="n">
-        <v>19000</v>
+        <v>8000</v>
       </c>
       <c r="L40" t="n">
-        <v>20000</v>
+        <v>9000</v>
       </c>
       <c r="M40" t="n">
-        <v>19500</v>
+        <v>8455</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
@@ -3259,7 +3259,7 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>390</v>
+        <v>169</v>
       </c>
       <c r="Q40" t="n">
         <v>50</v>
@@ -3285,7 +3285,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44364</v>
+        <v>44484</v>
       </c>
       <c r="E41" t="n">
         <v>8</v>
@@ -3309,16 +3309,16 @@
         </is>
       </c>
       <c r="J41" t="n">
-        <v>100</v>
+        <v>220</v>
       </c>
       <c r="K41" t="n">
-        <v>19000</v>
+        <v>7500</v>
       </c>
       <c r="L41" t="n">
-        <v>20000</v>
+        <v>8000</v>
       </c>
       <c r="M41" t="n">
-        <v>19500</v>
+        <v>7727</v>
       </c>
       <c r="N41" t="inlineStr">
         <is>
@@ -3331,7 +3331,7 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>650</v>
+        <v>258</v>
       </c>
       <c r="Q41" t="n">
         <v>30</v>
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44727</v>
+        <v>44496</v>
       </c>
       <c r="E42" t="n">
         <v>8</v>
@@ -3372,7 +3372,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -3381,32 +3381,32 @@
         </is>
       </c>
       <c r="J42" t="n">
-        <v>150</v>
+        <v>350</v>
       </c>
       <c r="K42" t="n">
-        <v>20000</v>
+        <v>7000</v>
       </c>
       <c r="L42" t="n">
-        <v>21000</v>
+        <v>7500</v>
       </c>
       <c r="M42" t="n">
-        <v>20467</v>
+        <v>7214</v>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P42" t="n">
-        <v>682</v>
+        <v>180</v>
       </c>
       <c r="Q42" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R42" t="inlineStr">
         <is>
@@ -3429,7 +3429,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44748</v>
+        <v>44399</v>
       </c>
       <c r="E43" t="n">
         <v>8</v>
@@ -3444,7 +3444,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -3453,20 +3453,20 @@
         </is>
       </c>
       <c r="J43" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="K43" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L43" t="n">
         <v>15000</v>
       </c>
-      <c r="L43" t="n">
-        <v>16000</v>
-      </c>
       <c r="M43" t="n">
-        <v>15545</v>
+        <v>14500</v>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
@@ -3475,10 +3475,10 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>389</v>
+        <v>483</v>
       </c>
       <c r="Q43" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R43" t="inlineStr">
         <is>
@@ -3501,7 +3501,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44699</v>
+        <v>44397</v>
       </c>
       <c r="E44" t="n">
         <v>8</v>
@@ -3528,13 +3528,13 @@
         <v>100</v>
       </c>
       <c r="K44" t="n">
-        <v>19000</v>
+        <v>14000</v>
       </c>
       <c r="L44" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="M44" t="n">
-        <v>19500</v>
+        <v>14500</v>
       </c>
       <c r="N44" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>650</v>
+        <v>483</v>
       </c>
       <c r="Q44" t="n">
         <v>30</v>
@@ -3573,7 +3573,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44358</v>
+        <v>44497</v>
       </c>
       <c r="E45" t="n">
         <v>8</v>
@@ -3597,16 +3597,16 @@
         </is>
       </c>
       <c r="J45" t="n">
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="K45" t="n">
-        <v>18000</v>
+        <v>6500</v>
       </c>
       <c r="L45" t="n">
-        <v>20000</v>
+        <v>7000</v>
       </c>
       <c r="M45" t="n">
-        <v>19000</v>
+        <v>6778</v>
       </c>
       <c r="N45" t="inlineStr">
         <is>
@@ -3619,7 +3619,7 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>380</v>
+        <v>136</v>
       </c>
       <c r="Q45" t="n">
         <v>50</v>
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44358</v>
+        <v>44497</v>
       </c>
       <c r="E46" t="n">
         <v>8</v>
@@ -3669,16 +3669,16 @@
         </is>
       </c>
       <c r="J46" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K46" t="n">
-        <v>18000</v>
+        <v>7000</v>
       </c>
       <c r="L46" t="n">
-        <v>20000</v>
+        <v>7500</v>
       </c>
       <c r="M46" t="n">
-        <v>19000</v>
+        <v>7250</v>
       </c>
       <c r="N46" t="inlineStr">
         <is>
@@ -3691,7 +3691,7 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>633</v>
+        <v>242</v>
       </c>
       <c r="Q46" t="n">
         <v>30</v>
@@ -3717,7 +3717,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44428</v>
+        <v>44497</v>
       </c>
       <c r="E47" t="n">
         <v>8</v>
@@ -3732,7 +3732,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -3741,32 +3741,32 @@
         </is>
       </c>
       <c r="J47" t="n">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="K47" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="L47" t="n">
-        <v>15000</v>
+        <v>6500</v>
       </c>
       <c r="M47" t="n">
-        <v>14500</v>
+        <v>6192</v>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P47" t="n">
-        <v>483</v>
+        <v>155</v>
       </c>
       <c r="Q47" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R47" t="inlineStr">
         <is>
@@ -3789,7 +3789,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44489</v>
+        <v>44757</v>
       </c>
       <c r="E48" t="n">
         <v>8</v>
@@ -3813,16 +3813,16 @@
         </is>
       </c>
       <c r="J48" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K48" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="L48" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="M48" t="n">
-        <v>9500</v>
+        <v>14400</v>
       </c>
       <c r="N48" t="inlineStr">
         <is>
@@ -3835,7 +3835,7 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>190</v>
+        <v>288</v>
       </c>
       <c r="Q48" t="n">
         <v>50</v>
@@ -3876,7 +3876,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -3888,17 +3888,17 @@
         <v>100</v>
       </c>
       <c r="K49" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="L49" t="n">
-        <v>8500</v>
+        <v>10000</v>
       </c>
       <c r="M49" t="n">
-        <v>8250</v>
+        <v>9500</v>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
@@ -3907,10 +3907,10 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>275</v>
+        <v>190</v>
       </c>
       <c r="Q49" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R49" t="inlineStr">
         <is>
@@ -3933,7 +3933,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44426</v>
+        <v>44489</v>
       </c>
       <c r="E50" t="n">
         <v>8</v>
@@ -3948,7 +3948,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -3957,20 +3957,20 @@
         </is>
       </c>
       <c r="J50" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="K50" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="L50" t="n">
-        <v>13000</v>
+        <v>8500</v>
       </c>
       <c r="M50" t="n">
-        <v>12600</v>
+        <v>8250</v>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
@@ -3979,10 +3979,10 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>315</v>
+        <v>275</v>
       </c>
       <c r="Q50" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R50" t="inlineStr">
         <is>
@@ -4005,7 +4005,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44376</v>
+        <v>44358</v>
       </c>
       <c r="E51" t="n">
         <v>8</v>
@@ -4020,7 +4020,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -4032,17 +4032,17 @@
         <v>100</v>
       </c>
       <c r="K51" t="n">
-        <v>19000</v>
+        <v>18000</v>
       </c>
       <c r="L51" t="n">
         <v>20000</v>
       </c>
       <c r="M51" t="n">
-        <v>19500</v>
+        <v>19000</v>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
@@ -4051,10 +4051,10 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>650</v>
+        <v>380</v>
       </c>
       <c r="Q51" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R51" t="inlineStr">
         <is>
@@ -4077,7 +4077,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44454</v>
+        <v>44358</v>
       </c>
       <c r="E52" t="n">
         <v>8</v>
@@ -4092,7 +4092,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -4104,29 +4104,29 @@
         <v>100</v>
       </c>
       <c r="K52" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="L52" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="M52" t="n">
-        <v>13500</v>
+        <v>19000</v>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P52" t="n">
-        <v>338</v>
+        <v>633</v>
       </c>
       <c r="Q52" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R52" t="inlineStr">
         <is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Alcachofa.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Alcachofa.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R52"/>
+  <dimension ref="A1:R53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44335</v>
+        <v>44761</v>
       </c>
       <c r="E4" t="n">
         <v>8</v>
@@ -636,7 +636,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -645,20 +645,20 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="K4" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="L4" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="M4" t="n">
-        <v>17500</v>
+        <v>13375</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -667,10 +667,10 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>583</v>
+        <v>268</v>
       </c>
       <c r="Q4" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R4" t="inlineStr">
         <is>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44426</v>
+        <v>44335</v>
       </c>
       <c r="E5" t="n">
         <v>8</v>
@@ -708,7 +708,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -717,20 +717,20 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="K5" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="L5" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="M5" t="n">
-        <v>12600</v>
+        <v>17500</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -739,10 +739,10 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>315</v>
+        <v>583</v>
       </c>
       <c r="Q5" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R5" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44447</v>
+        <v>44426</v>
       </c>
       <c r="E6" t="n">
         <v>8</v>
@@ -780,7 +780,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -789,20 +789,20 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K6" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="L6" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M6" t="n">
-        <v>14500</v>
+        <v>12600</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
@@ -811,10 +811,10 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>483</v>
+        <v>315</v>
       </c>
       <c r="Q6" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R6" t="inlineStr">
         <is>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44741</v>
+        <v>44447</v>
       </c>
       <c r="E7" t="n">
         <v>8</v>
@@ -852,7 +852,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -864,17 +864,17 @@
         <v>100</v>
       </c>
       <c r="K7" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="L7" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="M7" t="n">
-        <v>16500</v>
+        <v>14500</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -883,10 +883,10 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>330</v>
+        <v>483</v>
       </c>
       <c r="Q7" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R7" t="inlineStr">
         <is>
@@ -924,7 +924,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -936,17 +936,17 @@
         <v>100</v>
       </c>
       <c r="K8" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="L8" t="n">
-        <v>22000</v>
+        <v>17000</v>
       </c>
       <c r="M8" t="n">
-        <v>21000</v>
+        <v>16500</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
@@ -955,10 +955,10 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>700</v>
+        <v>330</v>
       </c>
       <c r="Q8" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R8" t="inlineStr">
         <is>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44750</v>
+        <v>44741</v>
       </c>
       <c r="E9" t="n">
         <v>8</v>
@@ -996,7 +996,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1005,20 +1005,20 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="K9" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="L9" t="n">
-        <v>17000</v>
+        <v>22000</v>
       </c>
       <c r="M9" t="n">
-        <v>16615</v>
+        <v>21000</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
@@ -1027,10 +1027,10 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>332</v>
+        <v>700</v>
       </c>
       <c r="Q9" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R9" t="inlineStr">
         <is>
@@ -1068,7 +1068,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1077,20 +1077,20 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="K10" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="L10" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="M10" t="n">
-        <v>18909</v>
+        <v>16615</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
@@ -1099,10 +1099,10 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>630</v>
+        <v>332</v>
       </c>
       <c r="Q10" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R10" t="inlineStr">
         <is>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44385</v>
+        <v>44750</v>
       </c>
       <c r="E11" t="n">
         <v>8</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="K11" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="L11" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="M11" t="n">
-        <v>17500</v>
+        <v>18909</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>583</v>
+        <v>630</v>
       </c>
       <c r="Q11" t="n">
         <v>30</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44727</v>
+        <v>44385</v>
       </c>
       <c r="E12" t="n">
         <v>8</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="K12" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="L12" t="n">
-        <v>21000</v>
+        <v>18000</v>
       </c>
       <c r="M12" t="n">
-        <v>20467</v>
+        <v>17500</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>682</v>
+        <v>583</v>
       </c>
       <c r="Q12" t="n">
         <v>30</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44680</v>
+        <v>44727</v>
       </c>
       <c r="E13" t="n">
         <v>8</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="K13" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="L13" t="n">
-        <v>19000</v>
+        <v>21000</v>
       </c>
       <c r="M13" t="n">
-        <v>18600</v>
+        <v>20467</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>620</v>
+        <v>682</v>
       </c>
       <c r="Q13" t="n">
         <v>30</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44433</v>
+        <v>44680</v>
       </c>
       <c r="E14" t="n">
         <v>8</v>
@@ -1356,7 +1356,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1365,20 +1365,20 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K14" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="L14" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="M14" t="n">
-        <v>14500</v>
+        <v>18600</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
@@ -1387,10 +1387,10 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>290</v>
+        <v>620</v>
       </c>
       <c r="Q14" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R14" t="inlineStr">
         <is>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44755</v>
+        <v>44433</v>
       </c>
       <c r="E15" t="n">
         <v>8</v>
@@ -1440,13 +1440,13 @@
         <v>100</v>
       </c>
       <c r="K15" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="L15" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="M15" t="n">
-        <v>16500</v>
+        <v>14500</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>330</v>
+        <v>290</v>
       </c>
       <c r="Q15" t="n">
         <v>50</v>
@@ -1500,7 +1500,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1512,17 +1512,17 @@
         <v>100</v>
       </c>
       <c r="K16" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="L16" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="M16" t="n">
-        <v>19000</v>
+        <v>16500</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
@@ -1531,10 +1531,10 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>633</v>
+        <v>330</v>
       </c>
       <c r="Q16" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R16" t="inlineStr">
         <is>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44722</v>
+        <v>44755</v>
       </c>
       <c r="E17" t="n">
         <v>8</v>
@@ -1581,16 +1581,16 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K17" t="n">
+        <v>18000</v>
+      </c>
+      <c r="L17" t="n">
         <v>20000</v>
       </c>
-      <c r="L17" t="n">
-        <v>22000</v>
-      </c>
       <c r="M17" t="n">
-        <v>21333</v>
+        <v>19000</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>711</v>
+        <v>633</v>
       </c>
       <c r="Q17" t="n">
         <v>30</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44699</v>
+        <v>44722</v>
       </c>
       <c r="E18" t="n">
         <v>8</v>
@@ -1653,16 +1653,16 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K18" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="L18" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="M18" t="n">
-        <v>19500</v>
+        <v>21333</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>650</v>
+        <v>711</v>
       </c>
       <c r="Q18" t="n">
         <v>30</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44706</v>
+        <v>44699</v>
       </c>
       <c r="E19" t="n">
         <v>8</v>
@@ -1725,16 +1725,16 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="K19" t="n">
-        <v>23000</v>
+        <v>19000</v>
       </c>
       <c r="L19" t="n">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="M19" t="n">
-        <v>23400</v>
+        <v>19500</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>780</v>
+        <v>650</v>
       </c>
       <c r="Q19" t="n">
         <v>30</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44350</v>
+        <v>44706</v>
       </c>
       <c r="E20" t="n">
         <v>8</v>
@@ -1788,7 +1788,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1800,17 +1800,17 @@
         <v>50</v>
       </c>
       <c r="K20" t="n">
-        <v>15000</v>
+        <v>23000</v>
       </c>
       <c r="L20" t="n">
-        <v>16000</v>
+        <v>24000</v>
       </c>
       <c r="M20" t="n">
-        <v>15600</v>
+        <v>23400</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
@@ -1819,10 +1819,10 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>312</v>
+        <v>780</v>
       </c>
       <c r="Q20" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R20" t="inlineStr">
         <is>
@@ -1860,7 +1860,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1869,20 +1869,20 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K21" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="L21" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="M21" t="n">
-        <v>17500</v>
+        <v>15600</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
@@ -1891,10 +1891,10 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>583</v>
+        <v>312</v>
       </c>
       <c r="Q21" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R21" t="inlineStr">
         <is>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44383</v>
+        <v>44350</v>
       </c>
       <c r="E22" t="n">
         <v>8</v>
@@ -1932,7 +1932,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1941,7 +1941,7 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="K22" t="n">
         <v>17000</v>
@@ -1950,11 +1950,11 @@
         <v>18000</v>
       </c>
       <c r="M22" t="n">
-        <v>17400</v>
+        <v>17500</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
@@ -1963,10 +1963,10 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>348</v>
+        <v>583</v>
       </c>
       <c r="Q22" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R22" t="inlineStr">
         <is>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44342</v>
+        <v>44383</v>
       </c>
       <c r="E23" t="n">
         <v>8</v>
@@ -2004,7 +2004,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -2013,7 +2013,7 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K23" t="n">
         <v>17000</v>
@@ -2022,11 +2022,11 @@
         <v>18000</v>
       </c>
       <c r="M23" t="n">
-        <v>17500</v>
+        <v>17400</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
@@ -2035,10 +2035,10 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>583</v>
+        <v>348</v>
       </c>
       <c r="Q23" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R23" t="inlineStr">
         <is>
@@ -2076,7 +2076,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -2088,17 +2088,17 @@
         <v>100</v>
       </c>
       <c r="K24" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="L24" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="M24" t="n">
-        <v>15500</v>
+        <v>17500</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
@@ -2107,10 +2107,10 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>388</v>
+        <v>583</v>
       </c>
       <c r="Q24" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R24" t="inlineStr">
         <is>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44435</v>
+        <v>44342</v>
       </c>
       <c r="E25" t="n">
         <v>8</v>
@@ -2148,7 +2148,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -2160,17 +2160,17 @@
         <v>100</v>
       </c>
       <c r="K25" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L25" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="M25" t="n">
-        <v>14500</v>
+        <v>15500</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
@@ -2179,10 +2179,10 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>290</v>
+        <v>388</v>
       </c>
       <c r="Q25" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R25" t="inlineStr">
         <is>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44376</v>
+        <v>44435</v>
       </c>
       <c r="E26" t="n">
         <v>8</v>
@@ -2220,7 +2220,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -2232,17 +2232,17 @@
         <v>100</v>
       </c>
       <c r="K26" t="n">
-        <v>19000</v>
+        <v>14000</v>
       </c>
       <c r="L26" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="M26" t="n">
-        <v>19500</v>
+        <v>14500</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
@@ -2251,10 +2251,10 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>650</v>
+        <v>290</v>
       </c>
       <c r="Q26" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R26" t="inlineStr">
         <is>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44721</v>
+        <v>44376</v>
       </c>
       <c r="E27" t="n">
         <v>8</v>
@@ -2301,7 +2301,7 @@
         </is>
       </c>
       <c r="J27" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="K27" t="n">
         <v>19000</v>
@@ -2310,7 +2310,7 @@
         <v>20000</v>
       </c>
       <c r="M27" t="n">
-        <v>19533</v>
+        <v>19500</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
@@ -2323,7 +2323,7 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="Q27" t="n">
         <v>30</v>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44364</v>
+        <v>44721</v>
       </c>
       <c r="E28" t="n">
         <v>8</v>
@@ -2364,7 +2364,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -2373,7 +2373,7 @@
         </is>
       </c>
       <c r="J28" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="K28" t="n">
         <v>19000</v>
@@ -2382,11 +2382,11 @@
         <v>20000</v>
       </c>
       <c r="M28" t="n">
-        <v>19500</v>
+        <v>19533</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
@@ -2395,10 +2395,10 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>390</v>
+        <v>651</v>
       </c>
       <c r="Q28" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R28" t="inlineStr">
         <is>
@@ -2436,7 +2436,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -2458,7 +2458,7 @@
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
@@ -2467,10 +2467,10 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>650</v>
+        <v>390</v>
       </c>
       <c r="Q29" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R29" t="inlineStr">
         <is>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44454</v>
+        <v>44364</v>
       </c>
       <c r="E30" t="n">
         <v>8</v>
@@ -2508,7 +2508,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -2520,29 +2520,29 @@
         <v>100</v>
       </c>
       <c r="K30" t="n">
-        <v>13000</v>
+        <v>19000</v>
       </c>
       <c r="L30" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="M30" t="n">
-        <v>13500</v>
+        <v>19500</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P30" t="n">
-        <v>338</v>
+        <v>650</v>
       </c>
       <c r="Q30" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R30" t="inlineStr">
         <is>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44428</v>
+        <v>44454</v>
       </c>
       <c r="E31" t="n">
         <v>8</v>
@@ -2580,7 +2580,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -2592,29 +2592,29 @@
         <v>100</v>
       </c>
       <c r="K31" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L31" t="n">
         <v>14000</v>
       </c>
-      <c r="L31" t="n">
-        <v>15000</v>
-      </c>
       <c r="M31" t="n">
-        <v>14500</v>
+        <v>13500</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P31" t="n">
-        <v>483</v>
+        <v>338</v>
       </c>
       <c r="Q31" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R31" t="inlineStr">
         <is>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44749</v>
+        <v>44428</v>
       </c>
       <c r="E32" t="n">
         <v>8</v>
@@ -2652,7 +2652,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -2661,20 +2661,20 @@
         </is>
       </c>
       <c r="J32" t="n">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="K32" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L32" t="n">
         <v>15000</v>
       </c>
       <c r="M32" t="n">
-        <v>14200</v>
+        <v>14500</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
@@ -2683,10 +2683,10 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>284</v>
+        <v>483</v>
       </c>
       <c r="Q32" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R32" t="inlineStr">
         <is>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44420</v>
+        <v>44749</v>
       </c>
       <c r="E33" t="n">
         <v>8</v>
@@ -2724,7 +2724,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -2733,20 +2733,20 @@
         </is>
       </c>
       <c r="J33" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="K33" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="L33" t="n">
         <v>15000</v>
       </c>
       <c r="M33" t="n">
-        <v>14500</v>
+        <v>14200</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
@@ -2755,10 +2755,10 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>483</v>
+        <v>284</v>
       </c>
       <c r="Q33" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R33" t="inlineStr">
         <is>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44463</v>
+        <v>44420</v>
       </c>
       <c r="E34" t="n">
         <v>8</v>
@@ -2796,7 +2796,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -2808,17 +2808,17 @@
         <v>100</v>
       </c>
       <c r="K34" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="L34" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="M34" t="n">
-        <v>9500</v>
+        <v>14500</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
@@ -2827,10 +2827,10 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>190</v>
+        <v>483</v>
       </c>
       <c r="Q34" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R34" t="inlineStr">
         <is>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44421</v>
+        <v>44463</v>
       </c>
       <c r="E35" t="n">
         <v>8</v>
@@ -2868,7 +2868,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -2880,17 +2880,17 @@
         <v>100</v>
       </c>
       <c r="K35" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="L35" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="M35" t="n">
-        <v>14500</v>
+        <v>9500</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
@@ -2899,10 +2899,10 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>483</v>
+        <v>190</v>
       </c>
       <c r="Q35" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R35" t="inlineStr">
         <is>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44748</v>
+        <v>44421</v>
       </c>
       <c r="E36" t="n">
         <v>8</v>
@@ -2940,7 +2940,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -2949,20 +2949,20 @@
         </is>
       </c>
       <c r="J36" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="K36" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L36" t="n">
         <v>15000</v>
       </c>
-      <c r="L36" t="n">
-        <v>16000</v>
-      </c>
       <c r="M36" t="n">
-        <v>15545</v>
+        <v>14500</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
@@ -2971,10 +2971,10 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>389</v>
+        <v>483</v>
       </c>
       <c r="Q36" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R36" t="inlineStr">
         <is>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44441</v>
+        <v>44748</v>
       </c>
       <c r="E37" t="n">
         <v>8</v>
@@ -3012,7 +3012,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -3021,20 +3021,20 @@
         </is>
       </c>
       <c r="J37" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="K37" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="L37" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="M37" t="n">
-        <v>13500</v>
+        <v>15545</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
@@ -3043,10 +3043,10 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>450</v>
+        <v>389</v>
       </c>
       <c r="Q37" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R37" t="inlineStr">
         <is>
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44483</v>
+        <v>44441</v>
       </c>
       <c r="E38" t="n">
         <v>8</v>
@@ -3093,29 +3093,29 @@
         </is>
       </c>
       <c r="J38" t="n">
+        <v>100</v>
+      </c>
+      <c r="K38" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L38" t="n">
+        <v>14000</v>
+      </c>
+      <c r="M38" t="n">
+        <v>13500</v>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>$/caja 30 unidades</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P38" t="n">
         <v>450</v>
-      </c>
-      <c r="K38" t="n">
-        <v>11000</v>
-      </c>
-      <c r="L38" t="n">
-        <v>12000</v>
-      </c>
-      <c r="M38" t="n">
-        <v>11444</v>
-      </c>
-      <c r="N38" t="inlineStr">
-        <is>
-          <t>$/caja 30 unidades</t>
-        </is>
-      </c>
-      <c r="O38" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="P38" t="n">
-        <v>381</v>
       </c>
       <c r="Q38" t="n">
         <v>30</v>
@@ -3156,7 +3156,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -3165,32 +3165,32 @@
         </is>
       </c>
       <c r="J39" t="n">
-        <v>220</v>
+        <v>450</v>
       </c>
       <c r="K39" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="L39" t="n">
-        <v>8500</v>
+        <v>12000</v>
       </c>
       <c r="M39" t="n">
-        <v>8273</v>
+        <v>11444</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P39" t="n">
-        <v>207</v>
+        <v>381</v>
       </c>
       <c r="Q39" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R39" t="inlineStr">
         <is>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44484</v>
+        <v>44483</v>
       </c>
       <c r="E40" t="n">
         <v>8</v>
@@ -3228,7 +3228,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -3243,26 +3243,26 @@
         <v>8000</v>
       </c>
       <c r="L40" t="n">
-        <v>9000</v>
+        <v>8500</v>
       </c>
       <c r="M40" t="n">
-        <v>8455</v>
+        <v>8273</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P40" t="n">
-        <v>169</v>
+        <v>207</v>
       </c>
       <c r="Q40" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R40" t="inlineStr">
         <is>
@@ -3300,7 +3300,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -3312,17 +3312,17 @@
         <v>220</v>
       </c>
       <c r="K41" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="L41" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M41" t="n">
-        <v>7727</v>
+        <v>8455</v>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
@@ -3331,10 +3331,10 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>258</v>
+        <v>169</v>
       </c>
       <c r="Q41" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R41" t="inlineStr">
         <is>
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44496</v>
+        <v>44484</v>
       </c>
       <c r="E42" t="n">
         <v>8</v>
@@ -3372,7 +3372,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -3381,32 +3381,32 @@
         </is>
       </c>
       <c r="J42" t="n">
-        <v>350</v>
+        <v>220</v>
       </c>
       <c r="K42" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="L42" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="M42" t="n">
-        <v>7214</v>
+        <v>7727</v>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P42" t="n">
-        <v>180</v>
+        <v>258</v>
       </c>
       <c r="Q42" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R42" t="inlineStr">
         <is>
@@ -3429,7 +3429,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44399</v>
+        <v>44496</v>
       </c>
       <c r="E43" t="n">
         <v>8</v>
@@ -3444,7 +3444,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -3453,32 +3453,32 @@
         </is>
       </c>
       <c r="J43" t="n">
-        <v>100</v>
+        <v>350</v>
       </c>
       <c r="K43" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="L43" t="n">
-        <v>15000</v>
+        <v>7500</v>
       </c>
       <c r="M43" t="n">
-        <v>14500</v>
+        <v>7214</v>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P43" t="n">
-        <v>483</v>
+        <v>180</v>
       </c>
       <c r="Q43" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R43" t="inlineStr">
         <is>
@@ -3501,7 +3501,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44397</v>
+        <v>44399</v>
       </c>
       <c r="E44" t="n">
         <v>8</v>
@@ -3573,7 +3573,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44497</v>
+        <v>44397</v>
       </c>
       <c r="E45" t="n">
         <v>8</v>
@@ -3588,7 +3588,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -3597,20 +3597,20 @@
         </is>
       </c>
       <c r="J45" t="n">
-        <v>180</v>
+        <v>100</v>
       </c>
       <c r="K45" t="n">
-        <v>6500</v>
+        <v>14000</v>
       </c>
       <c r="L45" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="M45" t="n">
-        <v>6778</v>
+        <v>14500</v>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
@@ -3619,10 +3619,10 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>136</v>
+        <v>483</v>
       </c>
       <c r="Q45" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R45" t="inlineStr">
         <is>
@@ -3660,7 +3660,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -3669,20 +3669,20 @@
         </is>
       </c>
       <c r="J46" t="n">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="K46" t="n">
+        <v>6500</v>
+      </c>
+      <c r="L46" t="n">
         <v>7000</v>
       </c>
-      <c r="L46" t="n">
-        <v>7500</v>
-      </c>
       <c r="M46" t="n">
-        <v>7250</v>
+        <v>6778</v>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
@@ -3691,10 +3691,10 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>242</v>
+        <v>136</v>
       </c>
       <c r="Q46" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R46" t="inlineStr">
         <is>
@@ -3732,7 +3732,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -3741,32 +3741,32 @@
         </is>
       </c>
       <c r="J47" t="n">
-        <v>130</v>
+        <v>200</v>
       </c>
       <c r="K47" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L47" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="M47" t="n">
-        <v>6192</v>
+        <v>7250</v>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P47" t="n">
-        <v>155</v>
+        <v>242</v>
       </c>
       <c r="Q47" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R47" t="inlineStr">
         <is>
@@ -3789,7 +3789,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44757</v>
+        <v>44497</v>
       </c>
       <c r="E48" t="n">
         <v>8</v>
@@ -3804,7 +3804,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -3813,32 +3813,32 @@
         </is>
       </c>
       <c r="J48" t="n">
-        <v>50</v>
+        <v>130</v>
       </c>
       <c r="K48" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="L48" t="n">
-        <v>15000</v>
+        <v>6500</v>
       </c>
       <c r="M48" t="n">
-        <v>14400</v>
+        <v>6192</v>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P48" t="n">
-        <v>288</v>
+        <v>155</v>
       </c>
       <c r="Q48" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R48" t="inlineStr">
         <is>
@@ -3861,7 +3861,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44489</v>
+        <v>44757</v>
       </c>
       <c r="E49" t="n">
         <v>8</v>
@@ -3885,16 +3885,16 @@
         </is>
       </c>
       <c r="J49" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K49" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="L49" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="M49" t="n">
-        <v>9500</v>
+        <v>14400</v>
       </c>
       <c r="N49" t="inlineStr">
         <is>
@@ -3907,7 +3907,7 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>190</v>
+        <v>288</v>
       </c>
       <c r="Q49" t="n">
         <v>50</v>
@@ -3948,7 +3948,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -3960,17 +3960,17 @@
         <v>100</v>
       </c>
       <c r="K50" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="L50" t="n">
-        <v>8500</v>
+        <v>10000</v>
       </c>
       <c r="M50" t="n">
-        <v>8250</v>
+        <v>9500</v>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
@@ -3979,10 +3979,10 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>275</v>
+        <v>190</v>
       </c>
       <c r="Q50" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R50" t="inlineStr">
         <is>
@@ -4005,7 +4005,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44358</v>
+        <v>44489</v>
       </c>
       <c r="E51" t="n">
         <v>8</v>
@@ -4020,7 +4020,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -4032,17 +4032,17 @@
         <v>100</v>
       </c>
       <c r="K51" t="n">
-        <v>18000</v>
+        <v>8000</v>
       </c>
       <c r="L51" t="n">
-        <v>20000</v>
+        <v>8500</v>
       </c>
       <c r="M51" t="n">
-        <v>19000</v>
+        <v>8250</v>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
@@ -4051,10 +4051,10 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>380</v>
+        <v>275</v>
       </c>
       <c r="Q51" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R51" t="inlineStr">
         <is>
@@ -4092,7 +4092,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -4114,21 +4114,93 @@
       </c>
       <c r="N52" t="inlineStr">
         <is>
+          <t>$/caja 50 unidades</t>
+        </is>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P52" t="n">
+        <v>380</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>50</v>
+      </c>
+      <c r="R52" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>11</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D53" s="2" t="n">
+        <v>44358</v>
+      </c>
+      <c r="E53" t="n">
+        <v>8</v>
+      </c>
+      <c r="F53" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Española</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J53" t="n">
+        <v>100</v>
+      </c>
+      <c r="K53" t="n">
+        <v>18000</v>
+      </c>
+      <c r="L53" t="n">
+        <v>20000</v>
+      </c>
+      <c r="M53" t="n">
+        <v>19000</v>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
           <t>$/caja 30 unidades</t>
         </is>
       </c>
-      <c r="O52" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="P52" t="n">
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P53" t="n">
         <v>633</v>
       </c>
-      <c r="Q52" t="n">
+      <c r="Q53" t="n">
         <v>30</v>
       </c>
-      <c r="R52" t="inlineStr">
+      <c r="R53" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Alcachofa.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Alcachofa.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R53"/>
+  <dimension ref="A1:R54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44454</v>
+        <v>44762</v>
       </c>
       <c r="E31" t="n">
         <v>8</v>
@@ -2580,7 +2580,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -2589,32 +2589,32 @@
         </is>
       </c>
       <c r="J31" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="K31" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="L31" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="M31" t="n">
-        <v>13500</v>
+        <v>15571</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P31" t="n">
-        <v>338</v>
+        <v>519</v>
       </c>
       <c r="Q31" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R31" t="inlineStr">
         <is>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44428</v>
+        <v>44454</v>
       </c>
       <c r="E32" t="n">
         <v>8</v>
@@ -2652,7 +2652,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -2664,29 +2664,29 @@
         <v>100</v>
       </c>
       <c r="K32" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L32" t="n">
         <v>14000</v>
       </c>
-      <c r="L32" t="n">
-        <v>15000</v>
-      </c>
       <c r="M32" t="n">
-        <v>14500</v>
+        <v>13500</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P32" t="n">
-        <v>483</v>
+        <v>338</v>
       </c>
       <c r="Q32" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R32" t="inlineStr">
         <is>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44749</v>
+        <v>44428</v>
       </c>
       <c r="E33" t="n">
         <v>8</v>
@@ -2724,7 +2724,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -2733,20 +2733,20 @@
         </is>
       </c>
       <c r="J33" t="n">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="K33" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L33" t="n">
         <v>15000</v>
       </c>
       <c r="M33" t="n">
-        <v>14200</v>
+        <v>14500</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
@@ -2755,10 +2755,10 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>284</v>
+        <v>483</v>
       </c>
       <c r="Q33" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R33" t="inlineStr">
         <is>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44420</v>
+        <v>44749</v>
       </c>
       <c r="E34" t="n">
         <v>8</v>
@@ -2796,7 +2796,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -2805,20 +2805,20 @@
         </is>
       </c>
       <c r="J34" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="K34" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="L34" t="n">
         <v>15000</v>
       </c>
       <c r="M34" t="n">
-        <v>14500</v>
+        <v>14200</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
@@ -2827,10 +2827,10 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>483</v>
+        <v>284</v>
       </c>
       <c r="Q34" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R34" t="inlineStr">
         <is>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44463</v>
+        <v>44420</v>
       </c>
       <c r="E35" t="n">
         <v>8</v>
@@ -2868,7 +2868,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -2880,17 +2880,17 @@
         <v>100</v>
       </c>
       <c r="K35" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="L35" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="M35" t="n">
-        <v>9500</v>
+        <v>14500</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
@@ -2899,10 +2899,10 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>190</v>
+        <v>483</v>
       </c>
       <c r="Q35" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R35" t="inlineStr">
         <is>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44421</v>
+        <v>44463</v>
       </c>
       <c r="E36" t="n">
         <v>8</v>
@@ -2940,7 +2940,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -2952,17 +2952,17 @@
         <v>100</v>
       </c>
       <c r="K36" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="L36" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="M36" t="n">
-        <v>14500</v>
+        <v>9500</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
@@ -2971,10 +2971,10 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>483</v>
+        <v>190</v>
       </c>
       <c r="Q36" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R36" t="inlineStr">
         <is>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44748</v>
+        <v>44421</v>
       </c>
       <c r="E37" t="n">
         <v>8</v>
@@ -3012,7 +3012,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -3021,20 +3021,20 @@
         </is>
       </c>
       <c r="J37" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="K37" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L37" t="n">
         <v>15000</v>
       </c>
-      <c r="L37" t="n">
-        <v>16000</v>
-      </c>
       <c r="M37" t="n">
-        <v>15545</v>
+        <v>14500</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
@@ -3043,10 +3043,10 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>389</v>
+        <v>483</v>
       </c>
       <c r="Q37" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R37" t="inlineStr">
         <is>
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44441</v>
+        <v>44748</v>
       </c>
       <c r="E38" t="n">
         <v>8</v>
@@ -3084,7 +3084,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -3093,20 +3093,20 @@
         </is>
       </c>
       <c r="J38" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="K38" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="L38" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="M38" t="n">
-        <v>13500</v>
+        <v>15545</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
@@ -3115,10 +3115,10 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>450</v>
+        <v>389</v>
       </c>
       <c r="Q38" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R38" t="inlineStr">
         <is>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44483</v>
+        <v>44441</v>
       </c>
       <c r="E39" t="n">
         <v>8</v>
@@ -3165,29 +3165,29 @@
         </is>
       </c>
       <c r="J39" t="n">
+        <v>100</v>
+      </c>
+      <c r="K39" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L39" t="n">
+        <v>14000</v>
+      </c>
+      <c r="M39" t="n">
+        <v>13500</v>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>$/caja 30 unidades</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P39" t="n">
         <v>450</v>
-      </c>
-      <c r="K39" t="n">
-        <v>11000</v>
-      </c>
-      <c r="L39" t="n">
-        <v>12000</v>
-      </c>
-      <c r="M39" t="n">
-        <v>11444</v>
-      </c>
-      <c r="N39" t="inlineStr">
-        <is>
-          <t>$/caja 30 unidades</t>
-        </is>
-      </c>
-      <c r="O39" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="P39" t="n">
-        <v>381</v>
       </c>
       <c r="Q39" t="n">
         <v>30</v>
@@ -3228,7 +3228,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -3237,32 +3237,32 @@
         </is>
       </c>
       <c r="J40" t="n">
-        <v>220</v>
+        <v>450</v>
       </c>
       <c r="K40" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="L40" t="n">
-        <v>8500</v>
+        <v>12000</v>
       </c>
       <c r="M40" t="n">
-        <v>8273</v>
+        <v>11444</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P40" t="n">
-        <v>207</v>
+        <v>381</v>
       </c>
       <c r="Q40" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R40" t="inlineStr">
         <is>
@@ -3285,7 +3285,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44484</v>
+        <v>44483</v>
       </c>
       <c r="E41" t="n">
         <v>8</v>
@@ -3300,7 +3300,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -3315,26 +3315,26 @@
         <v>8000</v>
       </c>
       <c r="L41" t="n">
-        <v>9000</v>
+        <v>8500</v>
       </c>
       <c r="M41" t="n">
-        <v>8455</v>
+        <v>8273</v>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P41" t="n">
-        <v>169</v>
+        <v>207</v>
       </c>
       <c r="Q41" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R41" t="inlineStr">
         <is>
@@ -3372,7 +3372,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -3384,17 +3384,17 @@
         <v>220</v>
       </c>
       <c r="K42" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="L42" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M42" t="n">
-        <v>7727</v>
+        <v>8455</v>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
@@ -3403,10 +3403,10 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>258</v>
+        <v>169</v>
       </c>
       <c r="Q42" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R42" t="inlineStr">
         <is>
@@ -3429,7 +3429,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44496</v>
+        <v>44484</v>
       </c>
       <c r="E43" t="n">
         <v>8</v>
@@ -3444,7 +3444,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -3453,32 +3453,32 @@
         </is>
       </c>
       <c r="J43" t="n">
-        <v>350</v>
+        <v>220</v>
       </c>
       <c r="K43" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="L43" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="M43" t="n">
-        <v>7214</v>
+        <v>7727</v>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P43" t="n">
-        <v>180</v>
+        <v>258</v>
       </c>
       <c r="Q43" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R43" t="inlineStr">
         <is>
@@ -3501,7 +3501,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44399</v>
+        <v>44496</v>
       </c>
       <c r="E44" t="n">
         <v>8</v>
@@ -3516,7 +3516,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -3525,32 +3525,32 @@
         </is>
       </c>
       <c r="J44" t="n">
-        <v>100</v>
+        <v>350</v>
       </c>
       <c r="K44" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="L44" t="n">
-        <v>15000</v>
+        <v>7500</v>
       </c>
       <c r="M44" t="n">
-        <v>14500</v>
+        <v>7214</v>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P44" t="n">
-        <v>483</v>
+        <v>180</v>
       </c>
       <c r="Q44" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R44" t="inlineStr">
         <is>
@@ -3573,7 +3573,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44397</v>
+        <v>44399</v>
       </c>
       <c r="E45" t="n">
         <v>8</v>
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44497</v>
+        <v>44397</v>
       </c>
       <c r="E46" t="n">
         <v>8</v>
@@ -3660,7 +3660,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -3669,20 +3669,20 @@
         </is>
       </c>
       <c r="J46" t="n">
-        <v>180</v>
+        <v>100</v>
       </c>
       <c r="K46" t="n">
-        <v>6500</v>
+        <v>14000</v>
       </c>
       <c r="L46" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="M46" t="n">
-        <v>6778</v>
+        <v>14500</v>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
@@ -3691,10 +3691,10 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>136</v>
+        <v>483</v>
       </c>
       <c r="Q46" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R46" t="inlineStr">
         <is>
@@ -3732,7 +3732,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -3741,20 +3741,20 @@
         </is>
       </c>
       <c r="J47" t="n">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="K47" t="n">
+        <v>6500</v>
+      </c>
+      <c r="L47" t="n">
         <v>7000</v>
       </c>
-      <c r="L47" t="n">
-        <v>7500</v>
-      </c>
       <c r="M47" t="n">
-        <v>7250</v>
+        <v>6778</v>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
@@ -3763,10 +3763,10 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>242</v>
+        <v>136</v>
       </c>
       <c r="Q47" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R47" t="inlineStr">
         <is>
@@ -3804,7 +3804,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -3813,32 +3813,32 @@
         </is>
       </c>
       <c r="J48" t="n">
-        <v>130</v>
+        <v>200</v>
       </c>
       <c r="K48" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L48" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="M48" t="n">
-        <v>6192</v>
+        <v>7250</v>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P48" t="n">
-        <v>155</v>
+        <v>242</v>
       </c>
       <c r="Q48" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R48" t="inlineStr">
         <is>
@@ -3861,7 +3861,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44757</v>
+        <v>44497</v>
       </c>
       <c r="E49" t="n">
         <v>8</v>
@@ -3876,7 +3876,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -3885,32 +3885,32 @@
         </is>
       </c>
       <c r="J49" t="n">
-        <v>50</v>
+        <v>130</v>
       </c>
       <c r="K49" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="L49" t="n">
-        <v>15000</v>
+        <v>6500</v>
       </c>
       <c r="M49" t="n">
-        <v>14400</v>
+        <v>6192</v>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P49" t="n">
-        <v>288</v>
+        <v>155</v>
       </c>
       <c r="Q49" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R49" t="inlineStr">
         <is>
@@ -3933,7 +3933,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44489</v>
+        <v>44757</v>
       </c>
       <c r="E50" t="n">
         <v>8</v>
@@ -3957,16 +3957,16 @@
         </is>
       </c>
       <c r="J50" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K50" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="L50" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="M50" t="n">
-        <v>9500</v>
+        <v>14400</v>
       </c>
       <c r="N50" t="inlineStr">
         <is>
@@ -3979,7 +3979,7 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>190</v>
+        <v>288</v>
       </c>
       <c r="Q50" t="n">
         <v>50</v>
@@ -4020,7 +4020,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -4032,17 +4032,17 @@
         <v>100</v>
       </c>
       <c r="K51" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="L51" t="n">
-        <v>8500</v>
+        <v>10000</v>
       </c>
       <c r="M51" t="n">
-        <v>8250</v>
+        <v>9500</v>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
@@ -4051,10 +4051,10 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>275</v>
+        <v>190</v>
       </c>
       <c r="Q51" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R51" t="inlineStr">
         <is>
@@ -4077,7 +4077,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44358</v>
+        <v>44489</v>
       </c>
       <c r="E52" t="n">
         <v>8</v>
@@ -4092,7 +4092,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -4104,17 +4104,17 @@
         <v>100</v>
       </c>
       <c r="K52" t="n">
-        <v>18000</v>
+        <v>8000</v>
       </c>
       <c r="L52" t="n">
-        <v>20000</v>
+        <v>8500</v>
       </c>
       <c r="M52" t="n">
-        <v>19000</v>
+        <v>8250</v>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
@@ -4123,10 +4123,10 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>380</v>
+        <v>275</v>
       </c>
       <c r="Q52" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R52" t="inlineStr">
         <is>
@@ -4164,7 +4164,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -4186,21 +4186,93 @@
       </c>
       <c r="N53" t="inlineStr">
         <is>
+          <t>$/caja 50 unidades</t>
+        </is>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P53" t="n">
+        <v>380</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>50</v>
+      </c>
+      <c r="R53" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>11</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D54" s="2" t="n">
+        <v>44358</v>
+      </c>
+      <c r="E54" t="n">
+        <v>8</v>
+      </c>
+      <c r="F54" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Española</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J54" t="n">
+        <v>100</v>
+      </c>
+      <c r="K54" t="n">
+        <v>18000</v>
+      </c>
+      <c r="L54" t="n">
+        <v>20000</v>
+      </c>
+      <c r="M54" t="n">
+        <v>19000</v>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
           <t>$/caja 30 unidades</t>
         </is>
       </c>
-      <c r="O53" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="P53" t="n">
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P54" t="n">
         <v>633</v>
       </c>
-      <c r="Q53" t="n">
+      <c r="Q54" t="n">
         <v>30</v>
       </c>
-      <c r="R53" t="inlineStr">
+      <c r="R54" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Alcachofa.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Alcachofa.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R54"/>
+  <dimension ref="A1:R55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44741</v>
+        <v>44764</v>
       </c>
       <c r="E8" t="n">
         <v>8</v>
@@ -924,7 +924,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -933,20 +933,20 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="K8" t="n">
+        <v>15000</v>
+      </c>
+      <c r="L8" t="n">
         <v>16000</v>
       </c>
-      <c r="L8" t="n">
-        <v>17000</v>
-      </c>
       <c r="M8" t="n">
-        <v>16500</v>
+        <v>15429</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
@@ -955,10 +955,10 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>330</v>
+        <v>386</v>
       </c>
       <c r="Q8" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R8" t="inlineStr">
         <is>
@@ -996,7 +996,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1008,17 +1008,17 @@
         <v>100</v>
       </c>
       <c r="K9" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="L9" t="n">
-        <v>22000</v>
+        <v>17000</v>
       </c>
       <c r="M9" t="n">
-        <v>21000</v>
+        <v>16500</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
@@ -1027,10 +1027,10 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>700</v>
+        <v>330</v>
       </c>
       <c r="Q9" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R9" t="inlineStr">
         <is>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44750</v>
+        <v>44741</v>
       </c>
       <c r="E10" t="n">
         <v>8</v>
@@ -1068,7 +1068,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1077,20 +1077,20 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="K10" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="L10" t="n">
-        <v>17000</v>
+        <v>22000</v>
       </c>
       <c r="M10" t="n">
-        <v>16615</v>
+        <v>21000</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
@@ -1099,10 +1099,10 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>332</v>
+        <v>700</v>
       </c>
       <c r="Q10" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R10" t="inlineStr">
         <is>
@@ -1140,7 +1140,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1149,20 +1149,20 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="K11" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="L11" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="M11" t="n">
-        <v>18909</v>
+        <v>16615</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
@@ -1171,10 +1171,10 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>630</v>
+        <v>332</v>
       </c>
       <c r="Q11" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R11" t="inlineStr">
         <is>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44385</v>
+        <v>44750</v>
       </c>
       <c r="E12" t="n">
         <v>8</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="K12" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="L12" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="M12" t="n">
-        <v>17500</v>
+        <v>18909</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>583</v>
+        <v>630</v>
       </c>
       <c r="Q12" t="n">
         <v>30</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44727</v>
+        <v>44385</v>
       </c>
       <c r="E13" t="n">
         <v>8</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="K13" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="L13" t="n">
-        <v>21000</v>
+        <v>18000</v>
       </c>
       <c r="M13" t="n">
-        <v>20467</v>
+        <v>17500</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>682</v>
+        <v>583</v>
       </c>
       <c r="Q13" t="n">
         <v>30</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44680</v>
+        <v>44727</v>
       </c>
       <c r="E14" t="n">
         <v>8</v>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="K14" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="L14" t="n">
-        <v>19000</v>
+        <v>21000</v>
       </c>
       <c r="M14" t="n">
-        <v>18600</v>
+        <v>20467</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>620</v>
+        <v>682</v>
       </c>
       <c r="Q14" t="n">
         <v>30</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44433</v>
+        <v>44680</v>
       </c>
       <c r="E15" t="n">
         <v>8</v>
@@ -1428,7 +1428,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1437,20 +1437,20 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K15" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="L15" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="M15" t="n">
-        <v>14500</v>
+        <v>18600</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
@@ -1459,10 +1459,10 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>290</v>
+        <v>620</v>
       </c>
       <c r="Q15" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R15" t="inlineStr">
         <is>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44755</v>
+        <v>44433</v>
       </c>
       <c r="E16" t="n">
         <v>8</v>
@@ -1512,13 +1512,13 @@
         <v>100</v>
       </c>
       <c r="K16" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="L16" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="M16" t="n">
-        <v>16500</v>
+        <v>14500</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>330</v>
+        <v>290</v>
       </c>
       <c r="Q16" t="n">
         <v>50</v>
@@ -1572,7 +1572,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1584,17 +1584,17 @@
         <v>100</v>
       </c>
       <c r="K17" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="L17" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="M17" t="n">
-        <v>19000</v>
+        <v>16500</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
@@ -1603,10 +1603,10 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>633</v>
+        <v>330</v>
       </c>
       <c r="Q17" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R17" t="inlineStr">
         <is>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44722</v>
+        <v>44755</v>
       </c>
       <c r="E18" t="n">
         <v>8</v>
@@ -1653,16 +1653,16 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K18" t="n">
+        <v>18000</v>
+      </c>
+      <c r="L18" t="n">
         <v>20000</v>
       </c>
-      <c r="L18" t="n">
-        <v>22000</v>
-      </c>
       <c r="M18" t="n">
-        <v>21333</v>
+        <v>19000</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>711</v>
+        <v>633</v>
       </c>
       <c r="Q18" t="n">
         <v>30</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44699</v>
+        <v>44722</v>
       </c>
       <c r="E19" t="n">
         <v>8</v>
@@ -1725,16 +1725,16 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K19" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="L19" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="M19" t="n">
-        <v>19500</v>
+        <v>21333</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>650</v>
+        <v>711</v>
       </c>
       <c r="Q19" t="n">
         <v>30</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44706</v>
+        <v>44699</v>
       </c>
       <c r="E20" t="n">
         <v>8</v>
@@ -1797,16 +1797,16 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="K20" t="n">
-        <v>23000</v>
+        <v>19000</v>
       </c>
       <c r="L20" t="n">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="M20" t="n">
-        <v>23400</v>
+        <v>19500</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>780</v>
+        <v>650</v>
       </c>
       <c r="Q20" t="n">
         <v>30</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44350</v>
+        <v>44706</v>
       </c>
       <c r="E21" t="n">
         <v>8</v>
@@ -1860,7 +1860,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1872,17 +1872,17 @@
         <v>50</v>
       </c>
       <c r="K21" t="n">
-        <v>15000</v>
+        <v>23000</v>
       </c>
       <c r="L21" t="n">
-        <v>16000</v>
+        <v>24000</v>
       </c>
       <c r="M21" t="n">
-        <v>15600</v>
+        <v>23400</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
@@ -1891,10 +1891,10 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>312</v>
+        <v>780</v>
       </c>
       <c r="Q21" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R21" t="inlineStr">
         <is>
@@ -1932,7 +1932,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1941,20 +1941,20 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K22" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="L22" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="M22" t="n">
-        <v>17500</v>
+        <v>15600</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
@@ -1963,10 +1963,10 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>583</v>
+        <v>312</v>
       </c>
       <c r="Q22" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R22" t="inlineStr">
         <is>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44383</v>
+        <v>44350</v>
       </c>
       <c r="E23" t="n">
         <v>8</v>
@@ -2004,7 +2004,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -2013,7 +2013,7 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="K23" t="n">
         <v>17000</v>
@@ -2022,11 +2022,11 @@
         <v>18000</v>
       </c>
       <c r="M23" t="n">
-        <v>17400</v>
+        <v>17500</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
@@ -2035,10 +2035,10 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>348</v>
+        <v>583</v>
       </c>
       <c r="Q23" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R23" t="inlineStr">
         <is>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44342</v>
+        <v>44383</v>
       </c>
       <c r="E24" t="n">
         <v>8</v>
@@ -2076,7 +2076,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -2085,7 +2085,7 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K24" t="n">
         <v>17000</v>
@@ -2094,11 +2094,11 @@
         <v>18000</v>
       </c>
       <c r="M24" t="n">
-        <v>17500</v>
+        <v>17400</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
@@ -2107,10 +2107,10 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>583</v>
+        <v>348</v>
       </c>
       <c r="Q24" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R24" t="inlineStr">
         <is>
@@ -2148,7 +2148,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -2160,17 +2160,17 @@
         <v>100</v>
       </c>
       <c r="K25" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="L25" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="M25" t="n">
-        <v>15500</v>
+        <v>17500</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
@@ -2179,10 +2179,10 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>388</v>
+        <v>583</v>
       </c>
       <c r="Q25" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R25" t="inlineStr">
         <is>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44435</v>
+        <v>44342</v>
       </c>
       <c r="E26" t="n">
         <v>8</v>
@@ -2220,7 +2220,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -2232,17 +2232,17 @@
         <v>100</v>
       </c>
       <c r="K26" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L26" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="M26" t="n">
-        <v>14500</v>
+        <v>15500</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
@@ -2251,10 +2251,10 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>290</v>
+        <v>388</v>
       </c>
       <c r="Q26" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R26" t="inlineStr">
         <is>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44376</v>
+        <v>44435</v>
       </c>
       <c r="E27" t="n">
         <v>8</v>
@@ -2292,7 +2292,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -2304,17 +2304,17 @@
         <v>100</v>
       </c>
       <c r="K27" t="n">
-        <v>19000</v>
+        <v>14000</v>
       </c>
       <c r="L27" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="M27" t="n">
-        <v>19500</v>
+        <v>14500</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
@@ -2323,10 +2323,10 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>650</v>
+        <v>290</v>
       </c>
       <c r="Q27" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R27" t="inlineStr">
         <is>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44721</v>
+        <v>44376</v>
       </c>
       <c r="E28" t="n">
         <v>8</v>
@@ -2373,7 +2373,7 @@
         </is>
       </c>
       <c r="J28" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="K28" t="n">
         <v>19000</v>
@@ -2382,7 +2382,7 @@
         <v>20000</v>
       </c>
       <c r="M28" t="n">
-        <v>19533</v>
+        <v>19500</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
@@ -2395,7 +2395,7 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="Q28" t="n">
         <v>30</v>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44364</v>
+        <v>44721</v>
       </c>
       <c r="E29" t="n">
         <v>8</v>
@@ -2436,7 +2436,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -2445,7 +2445,7 @@
         </is>
       </c>
       <c r="J29" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="K29" t="n">
         <v>19000</v>
@@ -2454,11 +2454,11 @@
         <v>20000</v>
       </c>
       <c r="M29" t="n">
-        <v>19500</v>
+        <v>19533</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
@@ -2467,10 +2467,10 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>390</v>
+        <v>651</v>
       </c>
       <c r="Q29" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R29" t="inlineStr">
         <is>
@@ -2508,7 +2508,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -2530,7 +2530,7 @@
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
@@ -2539,10 +2539,10 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>650</v>
+        <v>390</v>
       </c>
       <c r="Q30" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R30" t="inlineStr">
         <is>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44762</v>
+        <v>44364</v>
       </c>
       <c r="E31" t="n">
         <v>8</v>
@@ -2589,16 +2589,16 @@
         </is>
       </c>
       <c r="J31" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="K31" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="L31" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="M31" t="n">
-        <v>15571</v>
+        <v>19500</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
@@ -2611,7 +2611,7 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>519</v>
+        <v>650</v>
       </c>
       <c r="Q31" t="n">
         <v>30</v>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44454</v>
+        <v>44762</v>
       </c>
       <c r="E32" t="n">
         <v>8</v>
@@ -2652,7 +2652,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -2661,32 +2661,32 @@
         </is>
       </c>
       <c r="J32" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="K32" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="L32" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="M32" t="n">
-        <v>13500</v>
+        <v>15571</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P32" t="n">
-        <v>338</v>
+        <v>519</v>
       </c>
       <c r="Q32" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R32" t="inlineStr">
         <is>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44428</v>
+        <v>44454</v>
       </c>
       <c r="E33" t="n">
         <v>8</v>
@@ -2724,7 +2724,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -2736,29 +2736,29 @@
         <v>100</v>
       </c>
       <c r="K33" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L33" t="n">
         <v>14000</v>
       </c>
-      <c r="L33" t="n">
-        <v>15000</v>
-      </c>
       <c r="M33" t="n">
-        <v>14500</v>
+        <v>13500</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P33" t="n">
-        <v>483</v>
+        <v>338</v>
       </c>
       <c r="Q33" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R33" t="inlineStr">
         <is>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44749</v>
+        <v>44428</v>
       </c>
       <c r="E34" t="n">
         <v>8</v>
@@ -2796,7 +2796,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -2805,20 +2805,20 @@
         </is>
       </c>
       <c r="J34" t="n">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="K34" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L34" t="n">
         <v>15000</v>
       </c>
       <c r="M34" t="n">
-        <v>14200</v>
+        <v>14500</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
@@ -2827,10 +2827,10 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>284</v>
+        <v>483</v>
       </c>
       <c r="Q34" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R34" t="inlineStr">
         <is>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44420</v>
+        <v>44749</v>
       </c>
       <c r="E35" t="n">
         <v>8</v>
@@ -2868,7 +2868,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -2877,20 +2877,20 @@
         </is>
       </c>
       <c r="J35" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="K35" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="L35" t="n">
         <v>15000</v>
       </c>
       <c r="M35" t="n">
-        <v>14500</v>
+        <v>14200</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
@@ -2899,10 +2899,10 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>483</v>
+        <v>284</v>
       </c>
       <c r="Q35" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R35" t="inlineStr">
         <is>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44463</v>
+        <v>44420</v>
       </c>
       <c r="E36" t="n">
         <v>8</v>
@@ -2940,7 +2940,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -2952,17 +2952,17 @@
         <v>100</v>
       </c>
       <c r="K36" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="L36" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="M36" t="n">
-        <v>9500</v>
+        <v>14500</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
@@ -2971,10 +2971,10 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>190</v>
+        <v>483</v>
       </c>
       <c r="Q36" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R36" t="inlineStr">
         <is>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44421</v>
+        <v>44463</v>
       </c>
       <c r="E37" t="n">
         <v>8</v>
@@ -3012,7 +3012,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -3024,17 +3024,17 @@
         <v>100</v>
       </c>
       <c r="K37" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="L37" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="M37" t="n">
-        <v>14500</v>
+        <v>9500</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
@@ -3043,10 +3043,10 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>483</v>
+        <v>190</v>
       </c>
       <c r="Q37" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R37" t="inlineStr">
         <is>
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44748</v>
+        <v>44421</v>
       </c>
       <c r="E38" t="n">
         <v>8</v>
@@ -3084,7 +3084,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -3093,20 +3093,20 @@
         </is>
       </c>
       <c r="J38" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="K38" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L38" t="n">
         <v>15000</v>
       </c>
-      <c r="L38" t="n">
-        <v>16000</v>
-      </c>
       <c r="M38" t="n">
-        <v>15545</v>
+        <v>14500</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
@@ -3115,10 +3115,10 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>389</v>
+        <v>483</v>
       </c>
       <c r="Q38" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R38" t="inlineStr">
         <is>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44441</v>
+        <v>44748</v>
       </c>
       <c r="E39" t="n">
         <v>8</v>
@@ -3156,7 +3156,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -3165,20 +3165,20 @@
         </is>
       </c>
       <c r="J39" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="K39" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="L39" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="M39" t="n">
-        <v>13500</v>
+        <v>15545</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
@@ -3187,10 +3187,10 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>450</v>
+        <v>389</v>
       </c>
       <c r="Q39" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R39" t="inlineStr">
         <is>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44483</v>
+        <v>44441</v>
       </c>
       <c r="E40" t="n">
         <v>8</v>
@@ -3237,29 +3237,29 @@
         </is>
       </c>
       <c r="J40" t="n">
+        <v>100</v>
+      </c>
+      <c r="K40" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L40" t="n">
+        <v>14000</v>
+      </c>
+      <c r="M40" t="n">
+        <v>13500</v>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>$/caja 30 unidades</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P40" t="n">
         <v>450</v>
-      </c>
-      <c r="K40" t="n">
-        <v>11000</v>
-      </c>
-      <c r="L40" t="n">
-        <v>12000</v>
-      </c>
-      <c r="M40" t="n">
-        <v>11444</v>
-      </c>
-      <c r="N40" t="inlineStr">
-        <is>
-          <t>$/caja 30 unidades</t>
-        </is>
-      </c>
-      <c r="O40" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="P40" t="n">
-        <v>381</v>
       </c>
       <c r="Q40" t="n">
         <v>30</v>
@@ -3300,7 +3300,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -3309,32 +3309,32 @@
         </is>
       </c>
       <c r="J41" t="n">
-        <v>220</v>
+        <v>450</v>
       </c>
       <c r="K41" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="L41" t="n">
-        <v>8500</v>
+        <v>12000</v>
       </c>
       <c r="M41" t="n">
-        <v>8273</v>
+        <v>11444</v>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P41" t="n">
-        <v>207</v>
+        <v>381</v>
       </c>
       <c r="Q41" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R41" t="inlineStr">
         <is>
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44484</v>
+        <v>44483</v>
       </c>
       <c r="E42" t="n">
         <v>8</v>
@@ -3372,7 +3372,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -3387,26 +3387,26 @@
         <v>8000</v>
       </c>
       <c r="L42" t="n">
-        <v>9000</v>
+        <v>8500</v>
       </c>
       <c r="M42" t="n">
-        <v>8455</v>
+        <v>8273</v>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P42" t="n">
-        <v>169</v>
+        <v>207</v>
       </c>
       <c r="Q42" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R42" t="inlineStr">
         <is>
@@ -3444,7 +3444,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -3456,17 +3456,17 @@
         <v>220</v>
       </c>
       <c r="K43" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="L43" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M43" t="n">
-        <v>7727</v>
+        <v>8455</v>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
@@ -3475,10 +3475,10 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>258</v>
+        <v>169</v>
       </c>
       <c r="Q43" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R43" t="inlineStr">
         <is>
@@ -3501,7 +3501,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44496</v>
+        <v>44484</v>
       </c>
       <c r="E44" t="n">
         <v>8</v>
@@ -3516,7 +3516,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -3525,32 +3525,32 @@
         </is>
       </c>
       <c r="J44" t="n">
-        <v>350</v>
+        <v>220</v>
       </c>
       <c r="K44" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="L44" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="M44" t="n">
-        <v>7214</v>
+        <v>7727</v>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P44" t="n">
-        <v>180</v>
+        <v>258</v>
       </c>
       <c r="Q44" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R44" t="inlineStr">
         <is>
@@ -3573,7 +3573,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44399</v>
+        <v>44496</v>
       </c>
       <c r="E45" t="n">
         <v>8</v>
@@ -3588,7 +3588,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -3597,32 +3597,32 @@
         </is>
       </c>
       <c r="J45" t="n">
-        <v>100</v>
+        <v>350</v>
       </c>
       <c r="K45" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="L45" t="n">
-        <v>15000</v>
+        <v>7500</v>
       </c>
       <c r="M45" t="n">
-        <v>14500</v>
+        <v>7214</v>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P45" t="n">
-        <v>483</v>
+        <v>180</v>
       </c>
       <c r="Q45" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R45" t="inlineStr">
         <is>
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44397</v>
+        <v>44399</v>
       </c>
       <c r="E46" t="n">
         <v>8</v>
@@ -3717,7 +3717,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44497</v>
+        <v>44397</v>
       </c>
       <c r="E47" t="n">
         <v>8</v>
@@ -3732,7 +3732,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -3741,20 +3741,20 @@
         </is>
       </c>
       <c r="J47" t="n">
-        <v>180</v>
+        <v>100</v>
       </c>
       <c r="K47" t="n">
-        <v>6500</v>
+        <v>14000</v>
       </c>
       <c r="L47" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="M47" t="n">
-        <v>6778</v>
+        <v>14500</v>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
@@ -3763,10 +3763,10 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>136</v>
+        <v>483</v>
       </c>
       <c r="Q47" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R47" t="inlineStr">
         <is>
@@ -3804,7 +3804,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -3813,20 +3813,20 @@
         </is>
       </c>
       <c r="J48" t="n">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="K48" t="n">
+        <v>6500</v>
+      </c>
+      <c r="L48" t="n">
         <v>7000</v>
       </c>
-      <c r="L48" t="n">
-        <v>7500</v>
-      </c>
       <c r="M48" t="n">
-        <v>7250</v>
+        <v>6778</v>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
@@ -3835,10 +3835,10 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>242</v>
+        <v>136</v>
       </c>
       <c r="Q48" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R48" t="inlineStr">
         <is>
@@ -3876,7 +3876,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -3885,32 +3885,32 @@
         </is>
       </c>
       <c r="J49" t="n">
-        <v>130</v>
+        <v>200</v>
       </c>
       <c r="K49" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L49" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="M49" t="n">
-        <v>6192</v>
+        <v>7250</v>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P49" t="n">
-        <v>155</v>
+        <v>242</v>
       </c>
       <c r="Q49" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R49" t="inlineStr">
         <is>
@@ -3933,7 +3933,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44757</v>
+        <v>44497</v>
       </c>
       <c r="E50" t="n">
         <v>8</v>
@@ -3948,7 +3948,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -3957,32 +3957,32 @@
         </is>
       </c>
       <c r="J50" t="n">
-        <v>50</v>
+        <v>130</v>
       </c>
       <c r="K50" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="L50" t="n">
-        <v>15000</v>
+        <v>6500</v>
       </c>
       <c r="M50" t="n">
-        <v>14400</v>
+        <v>6192</v>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P50" t="n">
-        <v>288</v>
+        <v>155</v>
       </c>
       <c r="Q50" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R50" t="inlineStr">
         <is>
@@ -4005,7 +4005,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44489</v>
+        <v>44757</v>
       </c>
       <c r="E51" t="n">
         <v>8</v>
@@ -4029,16 +4029,16 @@
         </is>
       </c>
       <c r="J51" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K51" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="L51" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="M51" t="n">
-        <v>9500</v>
+        <v>14400</v>
       </c>
       <c r="N51" t="inlineStr">
         <is>
@@ -4051,7 +4051,7 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>190</v>
+        <v>288</v>
       </c>
       <c r="Q51" t="n">
         <v>50</v>
@@ -4092,7 +4092,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -4104,17 +4104,17 @@
         <v>100</v>
       </c>
       <c r="K52" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="L52" t="n">
-        <v>8500</v>
+        <v>10000</v>
       </c>
       <c r="M52" t="n">
-        <v>8250</v>
+        <v>9500</v>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
@@ -4123,10 +4123,10 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>275</v>
+        <v>190</v>
       </c>
       <c r="Q52" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R52" t="inlineStr">
         <is>
@@ -4149,7 +4149,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44358</v>
+        <v>44489</v>
       </c>
       <c r="E53" t="n">
         <v>8</v>
@@ -4164,7 +4164,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -4176,17 +4176,17 @@
         <v>100</v>
       </c>
       <c r="K53" t="n">
-        <v>18000</v>
+        <v>8000</v>
       </c>
       <c r="L53" t="n">
-        <v>20000</v>
+        <v>8500</v>
       </c>
       <c r="M53" t="n">
-        <v>19000</v>
+        <v>8250</v>
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O53" t="inlineStr">
@@ -4195,10 +4195,10 @@
         </is>
       </c>
       <c r="P53" t="n">
-        <v>380</v>
+        <v>275</v>
       </c>
       <c r="Q53" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R53" t="inlineStr">
         <is>
@@ -4236,7 +4236,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -4258,21 +4258,93 @@
       </c>
       <c r="N54" t="inlineStr">
         <is>
+          <t>$/caja 50 unidades</t>
+        </is>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P54" t="n">
+        <v>380</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>50</v>
+      </c>
+      <c r="R54" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>11</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D55" s="2" t="n">
+        <v>44358</v>
+      </c>
+      <c r="E55" t="n">
+        <v>8</v>
+      </c>
+      <c r="F55" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Española</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J55" t="n">
+        <v>100</v>
+      </c>
+      <c r="K55" t="n">
+        <v>18000</v>
+      </c>
+      <c r="L55" t="n">
+        <v>20000</v>
+      </c>
+      <c r="M55" t="n">
+        <v>19000</v>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
           <t>$/caja 30 unidades</t>
         </is>
       </c>
-      <c r="O54" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="P54" t="n">
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P55" t="n">
         <v>633</v>
       </c>
-      <c r="Q54" t="n">
+      <c r="Q55" t="n">
         <v>30</v>
       </c>
-      <c r="R54" t="inlineStr">
+      <c r="R55" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Alcachofa.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Alcachofa.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R55"/>
+  <dimension ref="A1:R57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3573,7 +3573,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44496</v>
+        <v>44769</v>
       </c>
       <c r="E45" t="n">
         <v>8</v>
@@ -3588,7 +3588,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -3597,32 +3597,32 @@
         </is>
       </c>
       <c r="J45" t="n">
-        <v>350</v>
+        <v>100</v>
       </c>
       <c r="K45" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="L45" t="n">
-        <v>7500</v>
+        <v>14000</v>
       </c>
       <c r="M45" t="n">
-        <v>7214</v>
+        <v>13500</v>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P45" t="n">
-        <v>180</v>
+        <v>270</v>
       </c>
       <c r="Q45" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R45" t="inlineStr">
         <is>
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44399</v>
+        <v>44769</v>
       </c>
       <c r="E46" t="n">
         <v>8</v>
@@ -3672,13 +3672,13 @@
         <v>100</v>
       </c>
       <c r="K46" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="L46" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M46" t="n">
-        <v>14500</v>
+        <v>17000</v>
       </c>
       <c r="N46" t="inlineStr">
         <is>
@@ -3691,7 +3691,7 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>483</v>
+        <v>567</v>
       </c>
       <c r="Q46" t="n">
         <v>30</v>
@@ -3717,7 +3717,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44397</v>
+        <v>44496</v>
       </c>
       <c r="E47" t="n">
         <v>8</v>
@@ -3732,7 +3732,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -3741,32 +3741,32 @@
         </is>
       </c>
       <c r="J47" t="n">
-        <v>100</v>
+        <v>350</v>
       </c>
       <c r="K47" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="L47" t="n">
-        <v>15000</v>
+        <v>7500</v>
       </c>
       <c r="M47" t="n">
-        <v>14500</v>
+        <v>7214</v>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P47" t="n">
-        <v>483</v>
+        <v>180</v>
       </c>
       <c r="Q47" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R47" t="inlineStr">
         <is>
@@ -3789,7 +3789,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44497</v>
+        <v>44399</v>
       </c>
       <c r="E48" t="n">
         <v>8</v>
@@ -3804,7 +3804,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -3813,20 +3813,20 @@
         </is>
       </c>
       <c r="J48" t="n">
-        <v>180</v>
+        <v>100</v>
       </c>
       <c r="K48" t="n">
-        <v>6500</v>
+        <v>14000</v>
       </c>
       <c r="L48" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="M48" t="n">
-        <v>6778</v>
+        <v>14500</v>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
@@ -3835,10 +3835,10 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>136</v>
+        <v>483</v>
       </c>
       <c r="Q48" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R48" t="inlineStr">
         <is>
@@ -3861,7 +3861,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44497</v>
+        <v>44397</v>
       </c>
       <c r="E49" t="n">
         <v>8</v>
@@ -3885,16 +3885,16 @@
         </is>
       </c>
       <c r="J49" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K49" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="L49" t="n">
-        <v>7500</v>
+        <v>15000</v>
       </c>
       <c r="M49" t="n">
-        <v>7250</v>
+        <v>14500</v>
       </c>
       <c r="N49" t="inlineStr">
         <is>
@@ -3907,7 +3907,7 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>242</v>
+        <v>483</v>
       </c>
       <c r="Q49" t="n">
         <v>30</v>
@@ -3948,7 +3948,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -3957,32 +3957,32 @@
         </is>
       </c>
       <c r="J50" t="n">
-        <v>130</v>
+        <v>180</v>
       </c>
       <c r="K50" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="L50" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="M50" t="n">
-        <v>6192</v>
+        <v>6778</v>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P50" t="n">
-        <v>155</v>
+        <v>136</v>
       </c>
       <c r="Q50" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R50" t="inlineStr">
         <is>
@@ -4005,7 +4005,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44757</v>
+        <v>44497</v>
       </c>
       <c r="E51" t="n">
         <v>8</v>
@@ -4020,7 +4020,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -4029,20 +4029,20 @@
         </is>
       </c>
       <c r="J51" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="K51" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="L51" t="n">
-        <v>15000</v>
+        <v>7500</v>
       </c>
       <c r="M51" t="n">
-        <v>14400</v>
+        <v>7250</v>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
@@ -4051,10 +4051,10 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>288</v>
+        <v>242</v>
       </c>
       <c r="Q51" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R51" t="inlineStr">
         <is>
@@ -4077,7 +4077,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44489</v>
+        <v>44497</v>
       </c>
       <c r="E52" t="n">
         <v>8</v>
@@ -4092,7 +4092,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -4101,32 +4101,32 @@
         </is>
       </c>
       <c r="J52" t="n">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="K52" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="L52" t="n">
-        <v>10000</v>
+        <v>6500</v>
       </c>
       <c r="M52" t="n">
-        <v>9500</v>
+        <v>6192</v>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P52" t="n">
-        <v>190</v>
+        <v>155</v>
       </c>
       <c r="Q52" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R52" t="inlineStr">
         <is>
@@ -4149,7 +4149,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44489</v>
+        <v>44757</v>
       </c>
       <c r="E53" t="n">
         <v>8</v>
@@ -4164,7 +4164,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -4173,20 +4173,20 @@
         </is>
       </c>
       <c r="J53" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K53" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="L53" t="n">
-        <v>8500</v>
+        <v>15000</v>
       </c>
       <c r="M53" t="n">
-        <v>8250</v>
+        <v>14400</v>
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O53" t="inlineStr">
@@ -4195,10 +4195,10 @@
         </is>
       </c>
       <c r="P53" t="n">
-        <v>275</v>
+        <v>288</v>
       </c>
       <c r="Q53" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R53" t="inlineStr">
         <is>
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44358</v>
+        <v>44489</v>
       </c>
       <c r="E54" t="n">
         <v>8</v>
@@ -4248,13 +4248,13 @@
         <v>100</v>
       </c>
       <c r="K54" t="n">
-        <v>18000</v>
+        <v>9000</v>
       </c>
       <c r="L54" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="M54" t="n">
-        <v>19000</v>
+        <v>9500</v>
       </c>
       <c r="N54" t="inlineStr">
         <is>
@@ -4267,7 +4267,7 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>380</v>
+        <v>190</v>
       </c>
       <c r="Q54" t="n">
         <v>50</v>
@@ -4293,7 +4293,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44358</v>
+        <v>44489</v>
       </c>
       <c r="E55" t="n">
         <v>8</v>
@@ -4320,13 +4320,13 @@
         <v>100</v>
       </c>
       <c r="K55" t="n">
-        <v>18000</v>
+        <v>8000</v>
       </c>
       <c r="L55" t="n">
-        <v>20000</v>
+        <v>8500</v>
       </c>
       <c r="M55" t="n">
-        <v>19000</v>
+        <v>8250</v>
       </c>
       <c r="N55" t="inlineStr">
         <is>
@@ -4339,12 +4339,156 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>633</v>
+        <v>275</v>
       </c>
       <c r="Q55" t="n">
         <v>30</v>
       </c>
       <c r="R55" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>11</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D56" s="2" t="n">
+        <v>44358</v>
+      </c>
+      <c r="E56" t="n">
+        <v>8</v>
+      </c>
+      <c r="F56" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Argentina(o)</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J56" t="n">
+        <v>100</v>
+      </c>
+      <c r="K56" t="n">
+        <v>18000</v>
+      </c>
+      <c r="L56" t="n">
+        <v>20000</v>
+      </c>
+      <c r="M56" t="n">
+        <v>19000</v>
+      </c>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>$/caja 50 unidades</t>
+        </is>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P56" t="n">
+        <v>380</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>50</v>
+      </c>
+      <c r="R56" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>11</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D57" s="2" t="n">
+        <v>44358</v>
+      </c>
+      <c r="E57" t="n">
+        <v>8</v>
+      </c>
+      <c r="F57" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>Española</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J57" t="n">
+        <v>100</v>
+      </c>
+      <c r="K57" t="n">
+        <v>18000</v>
+      </c>
+      <c r="L57" t="n">
+        <v>20000</v>
+      </c>
+      <c r="M57" t="n">
+        <v>19000</v>
+      </c>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>$/caja 30 unidades</t>
+        </is>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P57" t="n">
+        <v>633</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>30</v>
+      </c>
+      <c r="R57" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Alcachofa.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Alcachofa.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R57"/>
+  <dimension ref="A1:R58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3429,7 +3429,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44484</v>
+        <v>44776</v>
       </c>
       <c r="E43" t="n">
         <v>8</v>
@@ -3444,7 +3444,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -3453,20 +3453,20 @@
         </is>
       </c>
       <c r="J43" t="n">
-        <v>220</v>
+        <v>150</v>
       </c>
       <c r="K43" t="n">
-        <v>8000</v>
+        <v>17000</v>
       </c>
       <c r="L43" t="n">
-        <v>9000</v>
+        <v>18000</v>
       </c>
       <c r="M43" t="n">
-        <v>8455</v>
+        <v>17467</v>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
@@ -3475,10 +3475,10 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>169</v>
+        <v>582</v>
       </c>
       <c r="Q43" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R43" t="inlineStr">
         <is>
@@ -3516,7 +3516,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -3528,17 +3528,17 @@
         <v>220</v>
       </c>
       <c r="K44" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="L44" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M44" t="n">
-        <v>7727</v>
+        <v>8455</v>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
@@ -3547,10 +3547,10 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>258</v>
+        <v>169</v>
       </c>
       <c r="Q44" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R44" t="inlineStr">
         <is>
@@ -3573,7 +3573,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44769</v>
+        <v>44484</v>
       </c>
       <c r="E45" t="n">
         <v>8</v>
@@ -3588,7 +3588,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -3597,20 +3597,20 @@
         </is>
       </c>
       <c r="J45" t="n">
-        <v>100</v>
+        <v>220</v>
       </c>
       <c r="K45" t="n">
-        <v>13000</v>
+        <v>7500</v>
       </c>
       <c r="L45" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="M45" t="n">
-        <v>13500</v>
+        <v>7727</v>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
@@ -3619,10 +3619,10 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="Q45" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R45" t="inlineStr">
         <is>
@@ -3660,7 +3660,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -3672,17 +3672,17 @@
         <v>100</v>
       </c>
       <c r="K46" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="L46" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="M46" t="n">
-        <v>17000</v>
+        <v>13500</v>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
@@ -3691,10 +3691,10 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>567</v>
+        <v>270</v>
       </c>
       <c r="Q46" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R46" t="inlineStr">
         <is>
@@ -3717,7 +3717,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44496</v>
+        <v>44769</v>
       </c>
       <c r="E47" t="n">
         <v>8</v>
@@ -3732,7 +3732,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -3741,32 +3741,32 @@
         </is>
       </c>
       <c r="J47" t="n">
-        <v>350</v>
+        <v>100</v>
       </c>
       <c r="K47" t="n">
-        <v>7000</v>
+        <v>16000</v>
       </c>
       <c r="L47" t="n">
-        <v>7500</v>
+        <v>18000</v>
       </c>
       <c r="M47" t="n">
-        <v>7214</v>
+        <v>17000</v>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P47" t="n">
-        <v>180</v>
+        <v>567</v>
       </c>
       <c r="Q47" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R47" t="inlineStr">
         <is>
@@ -3789,7 +3789,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44399</v>
+        <v>44496</v>
       </c>
       <c r="E48" t="n">
         <v>8</v>
@@ -3804,7 +3804,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -3813,32 +3813,32 @@
         </is>
       </c>
       <c r="J48" t="n">
-        <v>100</v>
+        <v>350</v>
       </c>
       <c r="K48" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="L48" t="n">
-        <v>15000</v>
+        <v>7500</v>
       </c>
       <c r="M48" t="n">
-        <v>14500</v>
+        <v>7214</v>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P48" t="n">
-        <v>483</v>
+        <v>180</v>
       </c>
       <c r="Q48" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R48" t="inlineStr">
         <is>
@@ -3861,7 +3861,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44397</v>
+        <v>44399</v>
       </c>
       <c r="E49" t="n">
         <v>8</v>
@@ -3933,7 +3933,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44497</v>
+        <v>44397</v>
       </c>
       <c r="E50" t="n">
         <v>8</v>
@@ -3948,7 +3948,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -3957,20 +3957,20 @@
         </is>
       </c>
       <c r="J50" t="n">
-        <v>180</v>
+        <v>100</v>
       </c>
       <c r="K50" t="n">
-        <v>6500</v>
+        <v>14000</v>
       </c>
       <c r="L50" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="M50" t="n">
-        <v>6778</v>
+        <v>14500</v>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
@@ -3979,10 +3979,10 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>136</v>
+        <v>483</v>
       </c>
       <c r="Q50" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R50" t="inlineStr">
         <is>
@@ -4020,7 +4020,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -4029,20 +4029,20 @@
         </is>
       </c>
       <c r="J51" t="n">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="K51" t="n">
+        <v>6500</v>
+      </c>
+      <c r="L51" t="n">
         <v>7000</v>
       </c>
-      <c r="L51" t="n">
-        <v>7500</v>
-      </c>
       <c r="M51" t="n">
-        <v>7250</v>
+        <v>6778</v>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
@@ -4051,10 +4051,10 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>242</v>
+        <v>136</v>
       </c>
       <c r="Q51" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R51" t="inlineStr">
         <is>
@@ -4092,7 +4092,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -4101,32 +4101,32 @@
         </is>
       </c>
       <c r="J52" t="n">
-        <v>130</v>
+        <v>200</v>
       </c>
       <c r="K52" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L52" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="M52" t="n">
-        <v>6192</v>
+        <v>7250</v>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P52" t="n">
-        <v>155</v>
+        <v>242</v>
       </c>
       <c r="Q52" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R52" t="inlineStr">
         <is>
@@ -4149,7 +4149,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44757</v>
+        <v>44497</v>
       </c>
       <c r="E53" t="n">
         <v>8</v>
@@ -4164,7 +4164,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -4173,32 +4173,32 @@
         </is>
       </c>
       <c r="J53" t="n">
-        <v>50</v>
+        <v>130</v>
       </c>
       <c r="K53" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="L53" t="n">
-        <v>15000</v>
+        <v>6500</v>
       </c>
       <c r="M53" t="n">
-        <v>14400</v>
+        <v>6192</v>
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P53" t="n">
-        <v>288</v>
+        <v>155</v>
       </c>
       <c r="Q53" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R53" t="inlineStr">
         <is>
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44489</v>
+        <v>44757</v>
       </c>
       <c r="E54" t="n">
         <v>8</v>
@@ -4245,16 +4245,16 @@
         </is>
       </c>
       <c r="J54" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K54" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="L54" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="M54" t="n">
-        <v>9500</v>
+        <v>14400</v>
       </c>
       <c r="N54" t="inlineStr">
         <is>
@@ -4267,7 +4267,7 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>190</v>
+        <v>288</v>
       </c>
       <c r="Q54" t="n">
         <v>50</v>
@@ -4308,7 +4308,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -4320,17 +4320,17 @@
         <v>100</v>
       </c>
       <c r="K55" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="L55" t="n">
-        <v>8500</v>
+        <v>10000</v>
       </c>
       <c r="M55" t="n">
-        <v>8250</v>
+        <v>9500</v>
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O55" t="inlineStr">
@@ -4339,10 +4339,10 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>275</v>
+        <v>190</v>
       </c>
       <c r="Q55" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R55" t="inlineStr">
         <is>
@@ -4365,7 +4365,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44358</v>
+        <v>44489</v>
       </c>
       <c r="E56" t="n">
         <v>8</v>
@@ -4380,7 +4380,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -4392,17 +4392,17 @@
         <v>100</v>
       </c>
       <c r="K56" t="n">
-        <v>18000</v>
+        <v>8000</v>
       </c>
       <c r="L56" t="n">
-        <v>20000</v>
+        <v>8500</v>
       </c>
       <c r="M56" t="n">
-        <v>19000</v>
+        <v>8250</v>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O56" t="inlineStr">
@@ -4411,10 +4411,10 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>380</v>
+        <v>275</v>
       </c>
       <c r="Q56" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R56" t="inlineStr">
         <is>
@@ -4452,7 +4452,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
@@ -4474,21 +4474,93 @@
       </c>
       <c r="N57" t="inlineStr">
         <is>
+          <t>$/caja 50 unidades</t>
+        </is>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P57" t="n">
+        <v>380</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>50</v>
+      </c>
+      <c r="R57" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>11</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D58" s="2" t="n">
+        <v>44358</v>
+      </c>
+      <c r="E58" t="n">
+        <v>8</v>
+      </c>
+      <c r="F58" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Española</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J58" t="n">
+        <v>100</v>
+      </c>
+      <c r="K58" t="n">
+        <v>18000</v>
+      </c>
+      <c r="L58" t="n">
+        <v>20000</v>
+      </c>
+      <c r="M58" t="n">
+        <v>19000</v>
+      </c>
+      <c r="N58" t="inlineStr">
+        <is>
           <t>$/caja 30 unidades</t>
         </is>
       </c>
-      <c r="O57" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="P57" t="n">
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P58" t="n">
         <v>633</v>
       </c>
-      <c r="Q57" t="n">
+      <c r="Q58" t="n">
         <v>30</v>
       </c>
-      <c r="R57" t="inlineStr">
+      <c r="R58" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Alcachofa.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Alcachofa.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R58"/>
+  <dimension ref="A1:R59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44749</v>
+        <v>44777</v>
       </c>
       <c r="E35" t="n">
         <v>8</v>
@@ -2868,7 +2868,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -2877,20 +2877,20 @@
         </is>
       </c>
       <c r="J35" t="n">
-        <v>250</v>
+        <v>110</v>
       </c>
       <c r="K35" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="L35" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="M35" t="n">
-        <v>14200</v>
+        <v>18545</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
@@ -2899,10 +2899,10 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>284</v>
+        <v>618</v>
       </c>
       <c r="Q35" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R35" t="inlineStr">
         <is>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44420</v>
+        <v>44749</v>
       </c>
       <c r="E36" t="n">
         <v>8</v>
@@ -2940,7 +2940,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -2949,20 +2949,20 @@
         </is>
       </c>
       <c r="J36" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="K36" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="L36" t="n">
         <v>15000</v>
       </c>
       <c r="M36" t="n">
-        <v>14500</v>
+        <v>14200</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
@@ -2971,10 +2971,10 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>483</v>
+        <v>284</v>
       </c>
       <c r="Q36" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R36" t="inlineStr">
         <is>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44463</v>
+        <v>44420</v>
       </c>
       <c r="E37" t="n">
         <v>8</v>
@@ -3012,7 +3012,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -3024,17 +3024,17 @@
         <v>100</v>
       </c>
       <c r="K37" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="L37" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="M37" t="n">
-        <v>9500</v>
+        <v>14500</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
@@ -3043,10 +3043,10 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>190</v>
+        <v>483</v>
       </c>
       <c r="Q37" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R37" t="inlineStr">
         <is>
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44421</v>
+        <v>44463</v>
       </c>
       <c r="E38" t="n">
         <v>8</v>
@@ -3084,7 +3084,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -3096,17 +3096,17 @@
         <v>100</v>
       </c>
       <c r="K38" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="L38" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="M38" t="n">
-        <v>14500</v>
+        <v>9500</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
@@ -3115,10 +3115,10 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>483</v>
+        <v>190</v>
       </c>
       <c r="Q38" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R38" t="inlineStr">
         <is>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44748</v>
+        <v>44421</v>
       </c>
       <c r="E39" t="n">
         <v>8</v>
@@ -3156,7 +3156,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -3165,20 +3165,20 @@
         </is>
       </c>
       <c r="J39" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="K39" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L39" t="n">
         <v>15000</v>
       </c>
-      <c r="L39" t="n">
-        <v>16000</v>
-      </c>
       <c r="M39" t="n">
-        <v>15545</v>
+        <v>14500</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
@@ -3187,10 +3187,10 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>389</v>
+        <v>483</v>
       </c>
       <c r="Q39" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R39" t="inlineStr">
         <is>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44441</v>
+        <v>44748</v>
       </c>
       <c r="E40" t="n">
         <v>8</v>
@@ -3228,7 +3228,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -3237,20 +3237,20 @@
         </is>
       </c>
       <c r="J40" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="K40" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="L40" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="M40" t="n">
-        <v>13500</v>
+        <v>15545</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
@@ -3259,10 +3259,10 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>450</v>
+        <v>389</v>
       </c>
       <c r="Q40" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R40" t="inlineStr">
         <is>
@@ -3285,7 +3285,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44483</v>
+        <v>44441</v>
       </c>
       <c r="E41" t="n">
         <v>8</v>
@@ -3309,29 +3309,29 @@
         </is>
       </c>
       <c r="J41" t="n">
+        <v>100</v>
+      </c>
+      <c r="K41" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L41" t="n">
+        <v>14000</v>
+      </c>
+      <c r="M41" t="n">
+        <v>13500</v>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>$/caja 30 unidades</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P41" t="n">
         <v>450</v>
-      </c>
-      <c r="K41" t="n">
-        <v>11000</v>
-      </c>
-      <c r="L41" t="n">
-        <v>12000</v>
-      </c>
-      <c r="M41" t="n">
-        <v>11444</v>
-      </c>
-      <c r="N41" t="inlineStr">
-        <is>
-          <t>$/caja 30 unidades</t>
-        </is>
-      </c>
-      <c r="O41" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="P41" t="n">
-        <v>381</v>
       </c>
       <c r="Q41" t="n">
         <v>30</v>
@@ -3372,7 +3372,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -3381,32 +3381,32 @@
         </is>
       </c>
       <c r="J42" t="n">
-        <v>220</v>
+        <v>450</v>
       </c>
       <c r="K42" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="L42" t="n">
-        <v>8500</v>
+        <v>12000</v>
       </c>
       <c r="M42" t="n">
-        <v>8273</v>
+        <v>11444</v>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P42" t="n">
-        <v>207</v>
+        <v>381</v>
       </c>
       <c r="Q42" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R42" t="inlineStr">
         <is>
@@ -3429,7 +3429,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44776</v>
+        <v>44483</v>
       </c>
       <c r="E43" t="n">
         <v>8</v>
@@ -3444,7 +3444,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -3453,32 +3453,32 @@
         </is>
       </c>
       <c r="J43" t="n">
-        <v>150</v>
+        <v>220</v>
       </c>
       <c r="K43" t="n">
-        <v>17000</v>
+        <v>8000</v>
       </c>
       <c r="L43" t="n">
-        <v>18000</v>
+        <v>8500</v>
       </c>
       <c r="M43" t="n">
-        <v>17467</v>
+        <v>8273</v>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P43" t="n">
-        <v>582</v>
+        <v>207</v>
       </c>
       <c r="Q43" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R43" t="inlineStr">
         <is>
@@ -3501,7 +3501,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44484</v>
+        <v>44776</v>
       </c>
       <c r="E44" t="n">
         <v>8</v>
@@ -3516,7 +3516,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -3525,20 +3525,20 @@
         </is>
       </c>
       <c r="J44" t="n">
-        <v>220</v>
+        <v>150</v>
       </c>
       <c r="K44" t="n">
-        <v>8000</v>
+        <v>17000</v>
       </c>
       <c r="L44" t="n">
-        <v>9000</v>
+        <v>18000</v>
       </c>
       <c r="M44" t="n">
-        <v>8455</v>
+        <v>17467</v>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
@@ -3547,10 +3547,10 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>169</v>
+        <v>582</v>
       </c>
       <c r="Q44" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R44" t="inlineStr">
         <is>
@@ -3588,7 +3588,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -3600,17 +3600,17 @@
         <v>220</v>
       </c>
       <c r="K45" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="L45" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M45" t="n">
-        <v>7727</v>
+        <v>8455</v>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
@@ -3619,10 +3619,10 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>258</v>
+        <v>169</v>
       </c>
       <c r="Q45" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R45" t="inlineStr">
         <is>
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44769</v>
+        <v>44484</v>
       </c>
       <c r="E46" t="n">
         <v>8</v>
@@ -3660,7 +3660,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -3669,20 +3669,20 @@
         </is>
       </c>
       <c r="J46" t="n">
-        <v>100</v>
+        <v>220</v>
       </c>
       <c r="K46" t="n">
-        <v>13000</v>
+        <v>7500</v>
       </c>
       <c r="L46" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="M46" t="n">
-        <v>13500</v>
+        <v>7727</v>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
@@ -3691,10 +3691,10 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="Q46" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R46" t="inlineStr">
         <is>
@@ -3732,7 +3732,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -3744,17 +3744,17 @@
         <v>100</v>
       </c>
       <c r="K47" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="L47" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="M47" t="n">
-        <v>17000</v>
+        <v>13500</v>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
@@ -3763,10 +3763,10 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>567</v>
+        <v>270</v>
       </c>
       <c r="Q47" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R47" t="inlineStr">
         <is>
@@ -3789,7 +3789,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44496</v>
+        <v>44769</v>
       </c>
       <c r="E48" t="n">
         <v>8</v>
@@ -3804,7 +3804,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -3813,32 +3813,32 @@
         </is>
       </c>
       <c r="J48" t="n">
-        <v>350</v>
+        <v>100</v>
       </c>
       <c r="K48" t="n">
-        <v>7000</v>
+        <v>16000</v>
       </c>
       <c r="L48" t="n">
-        <v>7500</v>
+        <v>18000</v>
       </c>
       <c r="M48" t="n">
-        <v>7214</v>
+        <v>17000</v>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P48" t="n">
-        <v>180</v>
+        <v>567</v>
       </c>
       <c r="Q48" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R48" t="inlineStr">
         <is>
@@ -3861,7 +3861,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44399</v>
+        <v>44496</v>
       </c>
       <c r="E49" t="n">
         <v>8</v>
@@ -3876,7 +3876,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -3885,32 +3885,32 @@
         </is>
       </c>
       <c r="J49" t="n">
-        <v>100</v>
+        <v>350</v>
       </c>
       <c r="K49" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="L49" t="n">
-        <v>15000</v>
+        <v>7500</v>
       </c>
       <c r="M49" t="n">
-        <v>14500</v>
+        <v>7214</v>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P49" t="n">
-        <v>483</v>
+        <v>180</v>
       </c>
       <c r="Q49" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R49" t="inlineStr">
         <is>
@@ -3933,7 +3933,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44397</v>
+        <v>44399</v>
       </c>
       <c r="E50" t="n">
         <v>8</v>
@@ -4005,7 +4005,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44497</v>
+        <v>44397</v>
       </c>
       <c r="E51" t="n">
         <v>8</v>
@@ -4020,7 +4020,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -4029,20 +4029,20 @@
         </is>
       </c>
       <c r="J51" t="n">
-        <v>180</v>
+        <v>100</v>
       </c>
       <c r="K51" t="n">
-        <v>6500</v>
+        <v>14000</v>
       </c>
       <c r="L51" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="M51" t="n">
-        <v>6778</v>
+        <v>14500</v>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
@@ -4051,10 +4051,10 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>136</v>
+        <v>483</v>
       </c>
       <c r="Q51" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R51" t="inlineStr">
         <is>
@@ -4092,7 +4092,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -4101,20 +4101,20 @@
         </is>
       </c>
       <c r="J52" t="n">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="K52" t="n">
+        <v>6500</v>
+      </c>
+      <c r="L52" t="n">
         <v>7000</v>
       </c>
-      <c r="L52" t="n">
-        <v>7500</v>
-      </c>
       <c r="M52" t="n">
-        <v>7250</v>
+        <v>6778</v>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
@@ -4123,10 +4123,10 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>242</v>
+        <v>136</v>
       </c>
       <c r="Q52" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R52" t="inlineStr">
         <is>
@@ -4164,7 +4164,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -4173,32 +4173,32 @@
         </is>
       </c>
       <c r="J53" t="n">
-        <v>130</v>
+        <v>200</v>
       </c>
       <c r="K53" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L53" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="M53" t="n">
-        <v>6192</v>
+        <v>7250</v>
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P53" t="n">
-        <v>155</v>
+        <v>242</v>
       </c>
       <c r="Q53" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R53" t="inlineStr">
         <is>
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44757</v>
+        <v>44497</v>
       </c>
       <c r="E54" t="n">
         <v>8</v>
@@ -4236,7 +4236,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -4245,32 +4245,32 @@
         </is>
       </c>
       <c r="J54" t="n">
-        <v>50</v>
+        <v>130</v>
       </c>
       <c r="K54" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="L54" t="n">
-        <v>15000</v>
+        <v>6500</v>
       </c>
       <c r="M54" t="n">
-        <v>14400</v>
+        <v>6192</v>
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P54" t="n">
-        <v>288</v>
+        <v>155</v>
       </c>
       <c r="Q54" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R54" t="inlineStr">
         <is>
@@ -4293,7 +4293,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44489</v>
+        <v>44757</v>
       </c>
       <c r="E55" t="n">
         <v>8</v>
@@ -4317,16 +4317,16 @@
         </is>
       </c>
       <c r="J55" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K55" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="L55" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="M55" t="n">
-        <v>9500</v>
+        <v>14400</v>
       </c>
       <c r="N55" t="inlineStr">
         <is>
@@ -4339,7 +4339,7 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>190</v>
+        <v>288</v>
       </c>
       <c r="Q55" t="n">
         <v>50</v>
@@ -4380,7 +4380,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -4392,17 +4392,17 @@
         <v>100</v>
       </c>
       <c r="K56" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="L56" t="n">
-        <v>8500</v>
+        <v>10000</v>
       </c>
       <c r="M56" t="n">
-        <v>8250</v>
+        <v>9500</v>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O56" t="inlineStr">
@@ -4411,10 +4411,10 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>275</v>
+        <v>190</v>
       </c>
       <c r="Q56" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R56" t="inlineStr">
         <is>
@@ -4437,7 +4437,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44358</v>
+        <v>44489</v>
       </c>
       <c r="E57" t="n">
         <v>8</v>
@@ -4452,7 +4452,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
@@ -4464,17 +4464,17 @@
         <v>100</v>
       </c>
       <c r="K57" t="n">
-        <v>18000</v>
+        <v>8000</v>
       </c>
       <c r="L57" t="n">
-        <v>20000</v>
+        <v>8500</v>
       </c>
       <c r="M57" t="n">
-        <v>19000</v>
+        <v>8250</v>
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O57" t="inlineStr">
@@ -4483,10 +4483,10 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>380</v>
+        <v>275</v>
       </c>
       <c r="Q57" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R57" t="inlineStr">
         <is>
@@ -4524,7 +4524,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -4546,21 +4546,93 @@
       </c>
       <c r="N58" t="inlineStr">
         <is>
+          <t>$/caja 50 unidades</t>
+        </is>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P58" t="n">
+        <v>380</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>50</v>
+      </c>
+      <c r="R58" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>11</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D59" s="2" t="n">
+        <v>44358</v>
+      </c>
+      <c r="E59" t="n">
+        <v>8</v>
+      </c>
+      <c r="F59" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>Española</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J59" t="n">
+        <v>100</v>
+      </c>
+      <c r="K59" t="n">
+        <v>18000</v>
+      </c>
+      <c r="L59" t="n">
+        <v>20000</v>
+      </c>
+      <c r="M59" t="n">
+        <v>19000</v>
+      </c>
+      <c r="N59" t="inlineStr">
+        <is>
           <t>$/caja 30 unidades</t>
         </is>
       </c>
-      <c r="O58" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="P58" t="n">
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P59" t="n">
         <v>633</v>
       </c>
-      <c r="Q58" t="n">
+      <c r="Q59" t="n">
         <v>30</v>
       </c>
-      <c r="R58" t="inlineStr">
+      <c r="R59" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Alcachofa.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Alcachofa.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R59"/>
+  <dimension ref="A1:R60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44342</v>
+        <v>44778</v>
       </c>
       <c r="E25" t="n">
         <v>8</v>
@@ -2148,7 +2148,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -2157,20 +2157,20 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="K25" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="L25" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M25" t="n">
-        <v>17500</v>
+        <v>14533</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
@@ -2179,10 +2179,10 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>583</v>
+        <v>291</v>
       </c>
       <c r="Q25" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R25" t="inlineStr">
         <is>
@@ -2220,7 +2220,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -2232,17 +2232,17 @@
         <v>100</v>
       </c>
       <c r="K26" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="L26" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="M26" t="n">
-        <v>15500</v>
+        <v>17500</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
@@ -2251,10 +2251,10 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>388</v>
+        <v>583</v>
       </c>
       <c r="Q26" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R26" t="inlineStr">
         <is>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44435</v>
+        <v>44342</v>
       </c>
       <c r="E27" t="n">
         <v>8</v>
@@ -2292,7 +2292,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -2304,17 +2304,17 @@
         <v>100</v>
       </c>
       <c r="K27" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L27" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="M27" t="n">
-        <v>14500</v>
+        <v>15500</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
@@ -2323,10 +2323,10 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>290</v>
+        <v>388</v>
       </c>
       <c r="Q27" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R27" t="inlineStr">
         <is>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44376</v>
+        <v>44435</v>
       </c>
       <c r="E28" t="n">
         <v>8</v>
@@ -2364,7 +2364,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -2376,17 +2376,17 @@
         <v>100</v>
       </c>
       <c r="K28" t="n">
-        <v>19000</v>
+        <v>14000</v>
       </c>
       <c r="L28" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="M28" t="n">
-        <v>19500</v>
+        <v>14500</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
@@ -2395,10 +2395,10 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>650</v>
+        <v>290</v>
       </c>
       <c r="Q28" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R28" t="inlineStr">
         <is>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44721</v>
+        <v>44376</v>
       </c>
       <c r="E29" t="n">
         <v>8</v>
@@ -2445,7 +2445,7 @@
         </is>
       </c>
       <c r="J29" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="K29" t="n">
         <v>19000</v>
@@ -2454,7 +2454,7 @@
         <v>20000</v>
       </c>
       <c r="M29" t="n">
-        <v>19533</v>
+        <v>19500</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
@@ -2467,7 +2467,7 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="Q29" t="n">
         <v>30</v>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44364</v>
+        <v>44721</v>
       </c>
       <c r="E30" t="n">
         <v>8</v>
@@ -2508,7 +2508,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -2517,7 +2517,7 @@
         </is>
       </c>
       <c r="J30" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="K30" t="n">
         <v>19000</v>
@@ -2526,11 +2526,11 @@
         <v>20000</v>
       </c>
       <c r="M30" t="n">
-        <v>19500</v>
+        <v>19533</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
@@ -2539,10 +2539,10 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>390</v>
+        <v>651</v>
       </c>
       <c r="Q30" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R30" t="inlineStr">
         <is>
@@ -2580,7 +2580,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -2602,7 +2602,7 @@
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
@@ -2611,10 +2611,10 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>650</v>
+        <v>390</v>
       </c>
       <c r="Q31" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R31" t="inlineStr">
         <is>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44762</v>
+        <v>44364</v>
       </c>
       <c r="E32" t="n">
         <v>8</v>
@@ -2661,16 +2661,16 @@
         </is>
       </c>
       <c r="J32" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="K32" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="L32" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="M32" t="n">
-        <v>15571</v>
+        <v>19500</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
@@ -2683,7 +2683,7 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>519</v>
+        <v>650</v>
       </c>
       <c r="Q32" t="n">
         <v>30</v>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44454</v>
+        <v>44762</v>
       </c>
       <c r="E33" t="n">
         <v>8</v>
@@ -2724,7 +2724,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -2733,32 +2733,32 @@
         </is>
       </c>
       <c r="J33" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="K33" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="L33" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="M33" t="n">
-        <v>13500</v>
+        <v>15571</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P33" t="n">
-        <v>338</v>
+        <v>519</v>
       </c>
       <c r="Q33" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R33" t="inlineStr">
         <is>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44428</v>
+        <v>44454</v>
       </c>
       <c r="E34" t="n">
         <v>8</v>
@@ -2796,7 +2796,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -2808,29 +2808,29 @@
         <v>100</v>
       </c>
       <c r="K34" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L34" t="n">
         <v>14000</v>
       </c>
-      <c r="L34" t="n">
-        <v>15000</v>
-      </c>
       <c r="M34" t="n">
-        <v>14500</v>
+        <v>13500</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P34" t="n">
-        <v>483</v>
+        <v>338</v>
       </c>
       <c r="Q34" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R34" t="inlineStr">
         <is>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44777</v>
+        <v>44428</v>
       </c>
       <c r="E35" t="n">
         <v>8</v>
@@ -2877,16 +2877,16 @@
         </is>
       </c>
       <c r="J35" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="K35" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="L35" t="n">
-        <v>19000</v>
+        <v>15000</v>
       </c>
       <c r="M35" t="n">
-        <v>18545</v>
+        <v>14500</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
@@ -2899,7 +2899,7 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>618</v>
+        <v>483</v>
       </c>
       <c r="Q35" t="n">
         <v>30</v>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44749</v>
+        <v>44777</v>
       </c>
       <c r="E36" t="n">
         <v>8</v>
@@ -2940,7 +2940,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -2949,20 +2949,20 @@
         </is>
       </c>
       <c r="J36" t="n">
-        <v>250</v>
+        <v>110</v>
       </c>
       <c r="K36" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="L36" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="M36" t="n">
-        <v>14200</v>
+        <v>18545</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
@@ -2971,10 +2971,10 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>284</v>
+        <v>618</v>
       </c>
       <c r="Q36" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R36" t="inlineStr">
         <is>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44420</v>
+        <v>44749</v>
       </c>
       <c r="E37" t="n">
         <v>8</v>
@@ -3012,7 +3012,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -3021,20 +3021,20 @@
         </is>
       </c>
       <c r="J37" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="K37" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="L37" t="n">
         <v>15000</v>
       </c>
       <c r="M37" t="n">
-        <v>14500</v>
+        <v>14200</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
@@ -3043,10 +3043,10 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>483</v>
+        <v>284</v>
       </c>
       <c r="Q37" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R37" t="inlineStr">
         <is>
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44463</v>
+        <v>44420</v>
       </c>
       <c r="E38" t="n">
         <v>8</v>
@@ -3084,7 +3084,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -3096,17 +3096,17 @@
         <v>100</v>
       </c>
       <c r="K38" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="L38" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="M38" t="n">
-        <v>9500</v>
+        <v>14500</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
@@ -3115,10 +3115,10 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>190</v>
+        <v>483</v>
       </c>
       <c r="Q38" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R38" t="inlineStr">
         <is>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44421</v>
+        <v>44463</v>
       </c>
       <c r="E39" t="n">
         <v>8</v>
@@ -3156,7 +3156,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -3168,17 +3168,17 @@
         <v>100</v>
       </c>
       <c r="K39" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="L39" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="M39" t="n">
-        <v>14500</v>
+        <v>9500</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
@@ -3187,10 +3187,10 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>483</v>
+        <v>190</v>
       </c>
       <c r="Q39" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R39" t="inlineStr">
         <is>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44748</v>
+        <v>44421</v>
       </c>
       <c r="E40" t="n">
         <v>8</v>
@@ -3228,7 +3228,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -3237,20 +3237,20 @@
         </is>
       </c>
       <c r="J40" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="K40" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L40" t="n">
         <v>15000</v>
       </c>
-      <c r="L40" t="n">
-        <v>16000</v>
-      </c>
       <c r="M40" t="n">
-        <v>15545</v>
+        <v>14500</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
@@ -3259,10 +3259,10 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>389</v>
+        <v>483</v>
       </c>
       <c r="Q40" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R40" t="inlineStr">
         <is>
@@ -3285,7 +3285,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44441</v>
+        <v>44748</v>
       </c>
       <c r="E41" t="n">
         <v>8</v>
@@ -3300,7 +3300,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -3309,20 +3309,20 @@
         </is>
       </c>
       <c r="J41" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="K41" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="L41" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="M41" t="n">
-        <v>13500</v>
+        <v>15545</v>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
@@ -3331,10 +3331,10 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>450</v>
+        <v>389</v>
       </c>
       <c r="Q41" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R41" t="inlineStr">
         <is>
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44483</v>
+        <v>44441</v>
       </c>
       <c r="E42" t="n">
         <v>8</v>
@@ -3381,29 +3381,29 @@
         </is>
       </c>
       <c r="J42" t="n">
+        <v>100</v>
+      </c>
+      <c r="K42" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L42" t="n">
+        <v>14000</v>
+      </c>
+      <c r="M42" t="n">
+        <v>13500</v>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>$/caja 30 unidades</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P42" t="n">
         <v>450</v>
-      </c>
-      <c r="K42" t="n">
-        <v>11000</v>
-      </c>
-      <c r="L42" t="n">
-        <v>12000</v>
-      </c>
-      <c r="M42" t="n">
-        <v>11444</v>
-      </c>
-      <c r="N42" t="inlineStr">
-        <is>
-          <t>$/caja 30 unidades</t>
-        </is>
-      </c>
-      <c r="O42" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="P42" t="n">
-        <v>381</v>
       </c>
       <c r="Q42" t="n">
         <v>30</v>
@@ -3444,7 +3444,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -3453,32 +3453,32 @@
         </is>
       </c>
       <c r="J43" t="n">
-        <v>220</v>
+        <v>450</v>
       </c>
       <c r="K43" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="L43" t="n">
-        <v>8500</v>
+        <v>12000</v>
       </c>
       <c r="M43" t="n">
-        <v>8273</v>
+        <v>11444</v>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P43" t="n">
-        <v>207</v>
+        <v>381</v>
       </c>
       <c r="Q43" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R43" t="inlineStr">
         <is>
@@ -3501,7 +3501,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44776</v>
+        <v>44483</v>
       </c>
       <c r="E44" t="n">
         <v>8</v>
@@ -3516,7 +3516,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -3525,32 +3525,32 @@
         </is>
       </c>
       <c r="J44" t="n">
-        <v>150</v>
+        <v>220</v>
       </c>
       <c r="K44" t="n">
-        <v>17000</v>
+        <v>8000</v>
       </c>
       <c r="L44" t="n">
-        <v>18000</v>
+        <v>8500</v>
       </c>
       <c r="M44" t="n">
-        <v>17467</v>
+        <v>8273</v>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P44" t="n">
-        <v>582</v>
+        <v>207</v>
       </c>
       <c r="Q44" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R44" t="inlineStr">
         <is>
@@ -3573,7 +3573,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44484</v>
+        <v>44776</v>
       </c>
       <c r="E45" t="n">
         <v>8</v>
@@ -3588,7 +3588,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -3597,20 +3597,20 @@
         </is>
       </c>
       <c r="J45" t="n">
-        <v>220</v>
+        <v>150</v>
       </c>
       <c r="K45" t="n">
-        <v>8000</v>
+        <v>17000</v>
       </c>
       <c r="L45" t="n">
-        <v>9000</v>
+        <v>18000</v>
       </c>
       <c r="M45" t="n">
-        <v>8455</v>
+        <v>17467</v>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
@@ -3619,10 +3619,10 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>169</v>
+        <v>582</v>
       </c>
       <c r="Q45" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R45" t="inlineStr">
         <is>
@@ -3660,7 +3660,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -3672,17 +3672,17 @@
         <v>220</v>
       </c>
       <c r="K46" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="L46" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M46" t="n">
-        <v>7727</v>
+        <v>8455</v>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
@@ -3691,10 +3691,10 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>258</v>
+        <v>169</v>
       </c>
       <c r="Q46" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R46" t="inlineStr">
         <is>
@@ -3717,7 +3717,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44769</v>
+        <v>44484</v>
       </c>
       <c r="E47" t="n">
         <v>8</v>
@@ -3732,7 +3732,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -3741,20 +3741,20 @@
         </is>
       </c>
       <c r="J47" t="n">
-        <v>100</v>
+        <v>220</v>
       </c>
       <c r="K47" t="n">
-        <v>13000</v>
+        <v>7500</v>
       </c>
       <c r="L47" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="M47" t="n">
-        <v>13500</v>
+        <v>7727</v>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
@@ -3763,10 +3763,10 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="Q47" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R47" t="inlineStr">
         <is>
@@ -3804,7 +3804,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -3816,17 +3816,17 @@
         <v>100</v>
       </c>
       <c r="K48" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="L48" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="M48" t="n">
-        <v>17000</v>
+        <v>13500</v>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
@@ -3835,10 +3835,10 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>567</v>
+        <v>270</v>
       </c>
       <c r="Q48" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R48" t="inlineStr">
         <is>
@@ -3861,7 +3861,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44496</v>
+        <v>44769</v>
       </c>
       <c r="E49" t="n">
         <v>8</v>
@@ -3876,7 +3876,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -3885,32 +3885,32 @@
         </is>
       </c>
       <c r="J49" t="n">
-        <v>350</v>
+        <v>100</v>
       </c>
       <c r="K49" t="n">
-        <v>7000</v>
+        <v>16000</v>
       </c>
       <c r="L49" t="n">
-        <v>7500</v>
+        <v>18000</v>
       </c>
       <c r="M49" t="n">
-        <v>7214</v>
+        <v>17000</v>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P49" t="n">
-        <v>180</v>
+        <v>567</v>
       </c>
       <c r="Q49" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R49" t="inlineStr">
         <is>
@@ -3933,7 +3933,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44399</v>
+        <v>44496</v>
       </c>
       <c r="E50" t="n">
         <v>8</v>
@@ -3948,7 +3948,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -3957,32 +3957,32 @@
         </is>
       </c>
       <c r="J50" t="n">
-        <v>100</v>
+        <v>350</v>
       </c>
       <c r="K50" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="L50" t="n">
-        <v>15000</v>
+        <v>7500</v>
       </c>
       <c r="M50" t="n">
-        <v>14500</v>
+        <v>7214</v>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P50" t="n">
-        <v>483</v>
+        <v>180</v>
       </c>
       <c r="Q50" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R50" t="inlineStr">
         <is>
@@ -4005,7 +4005,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44397</v>
+        <v>44399</v>
       </c>
       <c r="E51" t="n">
         <v>8</v>
@@ -4077,7 +4077,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44497</v>
+        <v>44397</v>
       </c>
       <c r="E52" t="n">
         <v>8</v>
@@ -4092,7 +4092,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -4101,20 +4101,20 @@
         </is>
       </c>
       <c r="J52" t="n">
-        <v>180</v>
+        <v>100</v>
       </c>
       <c r="K52" t="n">
-        <v>6500</v>
+        <v>14000</v>
       </c>
       <c r="L52" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="M52" t="n">
-        <v>6778</v>
+        <v>14500</v>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
@@ -4123,10 +4123,10 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>136</v>
+        <v>483</v>
       </c>
       <c r="Q52" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R52" t="inlineStr">
         <is>
@@ -4164,7 +4164,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -4173,20 +4173,20 @@
         </is>
       </c>
       <c r="J53" t="n">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="K53" t="n">
+        <v>6500</v>
+      </c>
+      <c r="L53" t="n">
         <v>7000</v>
       </c>
-      <c r="L53" t="n">
-        <v>7500</v>
-      </c>
       <c r="M53" t="n">
-        <v>7250</v>
+        <v>6778</v>
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O53" t="inlineStr">
@@ -4195,10 +4195,10 @@
         </is>
       </c>
       <c r="P53" t="n">
-        <v>242</v>
+        <v>136</v>
       </c>
       <c r="Q53" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R53" t="inlineStr">
         <is>
@@ -4236,7 +4236,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -4245,32 +4245,32 @@
         </is>
       </c>
       <c r="J54" t="n">
-        <v>130</v>
+        <v>200</v>
       </c>
       <c r="K54" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L54" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="M54" t="n">
-        <v>6192</v>
+        <v>7250</v>
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P54" t="n">
-        <v>155</v>
+        <v>242</v>
       </c>
       <c r="Q54" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R54" t="inlineStr">
         <is>
@@ -4293,7 +4293,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44757</v>
+        <v>44497</v>
       </c>
       <c r="E55" t="n">
         <v>8</v>
@@ -4308,7 +4308,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -4317,32 +4317,32 @@
         </is>
       </c>
       <c r="J55" t="n">
-        <v>50</v>
+        <v>130</v>
       </c>
       <c r="K55" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="L55" t="n">
-        <v>15000</v>
+        <v>6500</v>
       </c>
       <c r="M55" t="n">
-        <v>14400</v>
+        <v>6192</v>
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P55" t="n">
-        <v>288</v>
+        <v>155</v>
       </c>
       <c r="Q55" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R55" t="inlineStr">
         <is>
@@ -4365,7 +4365,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44489</v>
+        <v>44757</v>
       </c>
       <c r="E56" t="n">
         <v>8</v>
@@ -4389,16 +4389,16 @@
         </is>
       </c>
       <c r="J56" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K56" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="L56" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="M56" t="n">
-        <v>9500</v>
+        <v>14400</v>
       </c>
       <c r="N56" t="inlineStr">
         <is>
@@ -4411,7 +4411,7 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>190</v>
+        <v>288</v>
       </c>
       <c r="Q56" t="n">
         <v>50</v>
@@ -4452,7 +4452,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
@@ -4464,17 +4464,17 @@
         <v>100</v>
       </c>
       <c r="K57" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="L57" t="n">
-        <v>8500</v>
+        <v>10000</v>
       </c>
       <c r="M57" t="n">
-        <v>8250</v>
+        <v>9500</v>
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O57" t="inlineStr">
@@ -4483,10 +4483,10 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>275</v>
+        <v>190</v>
       </c>
       <c r="Q57" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R57" t="inlineStr">
         <is>
@@ -4509,7 +4509,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44358</v>
+        <v>44489</v>
       </c>
       <c r="E58" t="n">
         <v>8</v>
@@ -4524,7 +4524,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -4536,17 +4536,17 @@
         <v>100</v>
       </c>
       <c r="K58" t="n">
-        <v>18000</v>
+        <v>8000</v>
       </c>
       <c r="L58" t="n">
-        <v>20000</v>
+        <v>8500</v>
       </c>
       <c r="M58" t="n">
-        <v>19000</v>
+        <v>8250</v>
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O58" t="inlineStr">
@@ -4555,10 +4555,10 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>380</v>
+        <v>275</v>
       </c>
       <c r="Q58" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R58" t="inlineStr">
         <is>
@@ -4596,7 +4596,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -4618,21 +4618,93 @@
       </c>
       <c r="N59" t="inlineStr">
         <is>
+          <t>$/caja 50 unidades</t>
+        </is>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P59" t="n">
+        <v>380</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>50</v>
+      </c>
+      <c r="R59" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>11</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D60" s="2" t="n">
+        <v>44358</v>
+      </c>
+      <c r="E60" t="n">
+        <v>8</v>
+      </c>
+      <c r="F60" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>Española</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J60" t="n">
+        <v>100</v>
+      </c>
+      <c r="K60" t="n">
+        <v>18000</v>
+      </c>
+      <c r="L60" t="n">
+        <v>20000</v>
+      </c>
+      <c r="M60" t="n">
+        <v>19000</v>
+      </c>
+      <c r="N60" t="inlineStr">
+        <is>
           <t>$/caja 30 unidades</t>
         </is>
       </c>
-      <c r="O59" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="P59" t="n">
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P60" t="n">
         <v>633</v>
       </c>
-      <c r="Q59" t="n">
+      <c r="Q60" t="n">
         <v>30</v>
       </c>
-      <c r="R59" t="inlineStr">
+      <c r="R60" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Alcachofa.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Alcachofa.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R60"/>
+  <dimension ref="A1:R61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44463</v>
+        <v>44784</v>
       </c>
       <c r="E39" t="n">
         <v>8</v>
@@ -3156,7 +3156,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -3165,20 +3165,20 @@
         </is>
       </c>
       <c r="J39" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K39" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="L39" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="M39" t="n">
-        <v>9500</v>
+        <v>14400</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
@@ -3187,10 +3187,10 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>190</v>
+        <v>480</v>
       </c>
       <c r="Q39" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R39" t="inlineStr">
         <is>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44421</v>
+        <v>44463</v>
       </c>
       <c r="E40" t="n">
         <v>8</v>
@@ -3228,7 +3228,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -3240,17 +3240,17 @@
         <v>100</v>
       </c>
       <c r="K40" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="L40" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="M40" t="n">
-        <v>14500</v>
+        <v>9500</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
@@ -3259,10 +3259,10 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>483</v>
+        <v>190</v>
       </c>
       <c r="Q40" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R40" t="inlineStr">
         <is>
@@ -3285,7 +3285,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44748</v>
+        <v>44421</v>
       </c>
       <c r="E41" t="n">
         <v>8</v>
@@ -3300,7 +3300,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -3309,20 +3309,20 @@
         </is>
       </c>
       <c r="J41" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="K41" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L41" t="n">
         <v>15000</v>
       </c>
-      <c r="L41" t="n">
-        <v>16000</v>
-      </c>
       <c r="M41" t="n">
-        <v>15545</v>
+        <v>14500</v>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
@@ -3331,10 +3331,10 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>389</v>
+        <v>483</v>
       </c>
       <c r="Q41" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R41" t="inlineStr">
         <is>
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44441</v>
+        <v>44748</v>
       </c>
       <c r="E42" t="n">
         <v>8</v>
@@ -3372,7 +3372,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -3381,20 +3381,20 @@
         </is>
       </c>
       <c r="J42" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="K42" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="L42" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="M42" t="n">
-        <v>13500</v>
+        <v>15545</v>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
@@ -3403,10 +3403,10 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>450</v>
+        <v>389</v>
       </c>
       <c r="Q42" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R42" t="inlineStr">
         <is>
@@ -3429,7 +3429,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44483</v>
+        <v>44441</v>
       </c>
       <c r="E43" t="n">
         <v>8</v>
@@ -3453,29 +3453,29 @@
         </is>
       </c>
       <c r="J43" t="n">
+        <v>100</v>
+      </c>
+      <c r="K43" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L43" t="n">
+        <v>14000</v>
+      </c>
+      <c r="M43" t="n">
+        <v>13500</v>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>$/caja 30 unidades</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P43" t="n">
         <v>450</v>
-      </c>
-      <c r="K43" t="n">
-        <v>11000</v>
-      </c>
-      <c r="L43" t="n">
-        <v>12000</v>
-      </c>
-      <c r="M43" t="n">
-        <v>11444</v>
-      </c>
-      <c r="N43" t="inlineStr">
-        <is>
-          <t>$/caja 30 unidades</t>
-        </is>
-      </c>
-      <c r="O43" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="P43" t="n">
-        <v>381</v>
       </c>
       <c r="Q43" t="n">
         <v>30</v>
@@ -3516,7 +3516,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -3525,32 +3525,32 @@
         </is>
       </c>
       <c r="J44" t="n">
-        <v>220</v>
+        <v>450</v>
       </c>
       <c r="K44" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="L44" t="n">
-        <v>8500</v>
+        <v>12000</v>
       </c>
       <c r="M44" t="n">
-        <v>8273</v>
+        <v>11444</v>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P44" t="n">
-        <v>207</v>
+        <v>381</v>
       </c>
       <c r="Q44" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R44" t="inlineStr">
         <is>
@@ -3573,7 +3573,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44776</v>
+        <v>44483</v>
       </c>
       <c r="E45" t="n">
         <v>8</v>
@@ -3588,7 +3588,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -3597,32 +3597,32 @@
         </is>
       </c>
       <c r="J45" t="n">
-        <v>150</v>
+        <v>220</v>
       </c>
       <c r="K45" t="n">
-        <v>17000</v>
+        <v>8000</v>
       </c>
       <c r="L45" t="n">
-        <v>18000</v>
+        <v>8500</v>
       </c>
       <c r="M45" t="n">
-        <v>17467</v>
+        <v>8273</v>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P45" t="n">
-        <v>582</v>
+        <v>207</v>
       </c>
       <c r="Q45" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R45" t="inlineStr">
         <is>
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44484</v>
+        <v>44776</v>
       </c>
       <c r="E46" t="n">
         <v>8</v>
@@ -3660,7 +3660,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -3669,20 +3669,20 @@
         </is>
       </c>
       <c r="J46" t="n">
-        <v>220</v>
+        <v>150</v>
       </c>
       <c r="K46" t="n">
-        <v>8000</v>
+        <v>17000</v>
       </c>
       <c r="L46" t="n">
-        <v>9000</v>
+        <v>18000</v>
       </c>
       <c r="M46" t="n">
-        <v>8455</v>
+        <v>17467</v>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
@@ -3691,10 +3691,10 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>169</v>
+        <v>582</v>
       </c>
       <c r="Q46" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R46" t="inlineStr">
         <is>
@@ -3732,7 +3732,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -3744,17 +3744,17 @@
         <v>220</v>
       </c>
       <c r="K47" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="L47" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M47" t="n">
-        <v>7727</v>
+        <v>8455</v>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
@@ -3763,10 +3763,10 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>258</v>
+        <v>169</v>
       </c>
       <c r="Q47" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R47" t="inlineStr">
         <is>
@@ -3789,7 +3789,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44769</v>
+        <v>44484</v>
       </c>
       <c r="E48" t="n">
         <v>8</v>
@@ -3804,7 +3804,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -3813,20 +3813,20 @@
         </is>
       </c>
       <c r="J48" t="n">
-        <v>100</v>
+        <v>220</v>
       </c>
       <c r="K48" t="n">
-        <v>13000</v>
+        <v>7500</v>
       </c>
       <c r="L48" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="M48" t="n">
-        <v>13500</v>
+        <v>7727</v>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
@@ -3835,10 +3835,10 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="Q48" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R48" t="inlineStr">
         <is>
@@ -3876,7 +3876,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -3888,17 +3888,17 @@
         <v>100</v>
       </c>
       <c r="K49" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="L49" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="M49" t="n">
-        <v>17000</v>
+        <v>13500</v>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
@@ -3907,10 +3907,10 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>567</v>
+        <v>270</v>
       </c>
       <c r="Q49" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R49" t="inlineStr">
         <is>
@@ -3933,7 +3933,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44496</v>
+        <v>44769</v>
       </c>
       <c r="E50" t="n">
         <v>8</v>
@@ -3948,7 +3948,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -3957,32 +3957,32 @@
         </is>
       </c>
       <c r="J50" t="n">
-        <v>350</v>
+        <v>100</v>
       </c>
       <c r="K50" t="n">
-        <v>7000</v>
+        <v>16000</v>
       </c>
       <c r="L50" t="n">
-        <v>7500</v>
+        <v>18000</v>
       </c>
       <c r="M50" t="n">
-        <v>7214</v>
+        <v>17000</v>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P50" t="n">
-        <v>180</v>
+        <v>567</v>
       </c>
       <c r="Q50" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R50" t="inlineStr">
         <is>
@@ -4005,7 +4005,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44399</v>
+        <v>44496</v>
       </c>
       <c r="E51" t="n">
         <v>8</v>
@@ -4020,7 +4020,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -4029,32 +4029,32 @@
         </is>
       </c>
       <c r="J51" t="n">
-        <v>100</v>
+        <v>350</v>
       </c>
       <c r="K51" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="L51" t="n">
-        <v>15000</v>
+        <v>7500</v>
       </c>
       <c r="M51" t="n">
-        <v>14500</v>
+        <v>7214</v>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P51" t="n">
-        <v>483</v>
+        <v>180</v>
       </c>
       <c r="Q51" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R51" t="inlineStr">
         <is>
@@ -4077,7 +4077,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44397</v>
+        <v>44399</v>
       </c>
       <c r="E52" t="n">
         <v>8</v>
@@ -4149,7 +4149,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44497</v>
+        <v>44397</v>
       </c>
       <c r="E53" t="n">
         <v>8</v>
@@ -4164,7 +4164,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -4173,20 +4173,20 @@
         </is>
       </c>
       <c r="J53" t="n">
-        <v>180</v>
+        <v>100</v>
       </c>
       <c r="K53" t="n">
-        <v>6500</v>
+        <v>14000</v>
       </c>
       <c r="L53" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="M53" t="n">
-        <v>6778</v>
+        <v>14500</v>
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O53" t="inlineStr">
@@ -4195,10 +4195,10 @@
         </is>
       </c>
       <c r="P53" t="n">
-        <v>136</v>
+        <v>483</v>
       </c>
       <c r="Q53" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R53" t="inlineStr">
         <is>
@@ -4236,7 +4236,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -4245,20 +4245,20 @@
         </is>
       </c>
       <c r="J54" t="n">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="K54" t="n">
+        <v>6500</v>
+      </c>
+      <c r="L54" t="n">
         <v>7000</v>
       </c>
-      <c r="L54" t="n">
-        <v>7500</v>
-      </c>
       <c r="M54" t="n">
-        <v>7250</v>
+        <v>6778</v>
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O54" t="inlineStr">
@@ -4267,10 +4267,10 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>242</v>
+        <v>136</v>
       </c>
       <c r="Q54" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R54" t="inlineStr">
         <is>
@@ -4308,7 +4308,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -4317,32 +4317,32 @@
         </is>
       </c>
       <c r="J55" t="n">
-        <v>130</v>
+        <v>200</v>
       </c>
       <c r="K55" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L55" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="M55" t="n">
-        <v>6192</v>
+        <v>7250</v>
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P55" t="n">
-        <v>155</v>
+        <v>242</v>
       </c>
       <c r="Q55" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R55" t="inlineStr">
         <is>
@@ -4365,7 +4365,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44757</v>
+        <v>44497</v>
       </c>
       <c r="E56" t="n">
         <v>8</v>
@@ -4380,7 +4380,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -4389,32 +4389,32 @@
         </is>
       </c>
       <c r="J56" t="n">
-        <v>50</v>
+        <v>130</v>
       </c>
       <c r="K56" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="L56" t="n">
-        <v>15000</v>
+        <v>6500</v>
       </c>
       <c r="M56" t="n">
-        <v>14400</v>
+        <v>6192</v>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P56" t="n">
-        <v>288</v>
+        <v>155</v>
       </c>
       <c r="Q56" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R56" t="inlineStr">
         <is>
@@ -4437,7 +4437,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44489</v>
+        <v>44757</v>
       </c>
       <c r="E57" t="n">
         <v>8</v>
@@ -4461,16 +4461,16 @@
         </is>
       </c>
       <c r="J57" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K57" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="L57" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="M57" t="n">
-        <v>9500</v>
+        <v>14400</v>
       </c>
       <c r="N57" t="inlineStr">
         <is>
@@ -4483,7 +4483,7 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>190</v>
+        <v>288</v>
       </c>
       <c r="Q57" t="n">
         <v>50</v>
@@ -4524,7 +4524,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -4536,17 +4536,17 @@
         <v>100</v>
       </c>
       <c r="K58" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="L58" t="n">
-        <v>8500</v>
+        <v>10000</v>
       </c>
       <c r="M58" t="n">
-        <v>8250</v>
+        <v>9500</v>
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O58" t="inlineStr">
@@ -4555,10 +4555,10 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>275</v>
+        <v>190</v>
       </c>
       <c r="Q58" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R58" t="inlineStr">
         <is>
@@ -4581,7 +4581,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44358</v>
+        <v>44489</v>
       </c>
       <c r="E59" t="n">
         <v>8</v>
@@ -4596,7 +4596,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -4608,17 +4608,17 @@
         <v>100</v>
       </c>
       <c r="K59" t="n">
-        <v>18000</v>
+        <v>8000</v>
       </c>
       <c r="L59" t="n">
-        <v>20000</v>
+        <v>8500</v>
       </c>
       <c r="M59" t="n">
-        <v>19000</v>
+        <v>8250</v>
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O59" t="inlineStr">
@@ -4627,10 +4627,10 @@
         </is>
       </c>
       <c r="P59" t="n">
-        <v>380</v>
+        <v>275</v>
       </c>
       <c r="Q59" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R59" t="inlineStr">
         <is>
@@ -4668,7 +4668,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -4690,21 +4690,93 @@
       </c>
       <c r="N60" t="inlineStr">
         <is>
+          <t>$/caja 50 unidades</t>
+        </is>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P60" t="n">
+        <v>380</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>50</v>
+      </c>
+      <c r="R60" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>11</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D61" s="2" t="n">
+        <v>44358</v>
+      </c>
+      <c r="E61" t="n">
+        <v>8</v>
+      </c>
+      <c r="F61" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>Española</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J61" t="n">
+        <v>100</v>
+      </c>
+      <c r="K61" t="n">
+        <v>18000</v>
+      </c>
+      <c r="L61" t="n">
+        <v>20000</v>
+      </c>
+      <c r="M61" t="n">
+        <v>19000</v>
+      </c>
+      <c r="N61" t="inlineStr">
+        <is>
           <t>$/caja 30 unidades</t>
         </is>
       </c>
-      <c r="O60" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="P60" t="n">
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P61" t="n">
         <v>633</v>
       </c>
-      <c r="Q60" t="n">
+      <c r="Q61" t="n">
         <v>30</v>
       </c>
-      <c r="R60" t="inlineStr">
+      <c r="R61" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Alcachofa.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Alcachofa.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44729</v>
+        <v>44483</v>
       </c>
       <c r="E2" t="n">
         <v>8</v>
@@ -492,7 +492,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -501,20 +501,20 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>200</v>
+        <v>450</v>
       </c>
       <c r="K2" t="n">
-        <v>17000</v>
+        <v>11000</v>
       </c>
       <c r="L2" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="M2" t="n">
-        <v>17500</v>
+        <v>11444</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -523,10 +523,10 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>438</v>
+        <v>381</v>
       </c>
       <c r="Q2" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R2" t="inlineStr">
         <is>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44442</v>
+        <v>44483</v>
       </c>
       <c r="E3" t="n">
         <v>8</v>
@@ -564,7 +564,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -573,32 +573,32 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>100</v>
+        <v>220</v>
       </c>
       <c r="K3" t="n">
-        <v>14500</v>
+        <v>8000</v>
       </c>
       <c r="L3" t="n">
-        <v>15000</v>
+        <v>8500</v>
       </c>
       <c r="M3" t="n">
-        <v>14750</v>
+        <v>8273</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P3" t="n">
-        <v>492</v>
+        <v>207</v>
       </c>
       <c r="Q3" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R3" t="inlineStr">
         <is>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44761</v>
+        <v>44680</v>
       </c>
       <c r="E4" t="n">
         <v>8</v>
@@ -636,7 +636,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -645,20 +645,20 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="K4" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="L4" t="n">
-        <v>14000</v>
+        <v>19000</v>
       </c>
       <c r="M4" t="n">
-        <v>13375</v>
+        <v>18600</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -667,10 +667,10 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>268</v>
+        <v>620</v>
       </c>
       <c r="Q4" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R4" t="inlineStr">
         <is>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44335</v>
+        <v>44358</v>
       </c>
       <c r="E5" t="n">
         <v>8</v>
@@ -708,7 +708,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -720,17 +720,17 @@
         <v>100</v>
       </c>
       <c r="K5" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="L5" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="M5" t="n">
-        <v>17500</v>
+        <v>19000</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -739,10 +739,10 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>583</v>
+        <v>380</v>
       </c>
       <c r="Q5" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R5" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44426</v>
+        <v>44358</v>
       </c>
       <c r="E6" t="n">
         <v>8</v>
@@ -780,7 +780,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -789,20 +789,20 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="K6" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="L6" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="M6" t="n">
-        <v>12600</v>
+        <v>19000</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
@@ -811,10 +811,10 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>315</v>
+        <v>633</v>
       </c>
       <c r="Q6" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R6" t="inlineStr">
         <is>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44447</v>
+        <v>44364</v>
       </c>
       <c r="E7" t="n">
         <v>8</v>
@@ -852,7 +852,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -864,17 +864,17 @@
         <v>100</v>
       </c>
       <c r="K7" t="n">
-        <v>14000</v>
+        <v>19000</v>
       </c>
       <c r="L7" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="M7" t="n">
-        <v>14500</v>
+        <v>19500</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -883,10 +883,10 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>483</v>
+        <v>390</v>
       </c>
       <c r="Q7" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R7" t="inlineStr">
         <is>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44764</v>
+        <v>44364</v>
       </c>
       <c r="E8" t="n">
         <v>8</v>
@@ -924,7 +924,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -933,20 +933,20 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="K8" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="L8" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="M8" t="n">
-        <v>15429</v>
+        <v>19500</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
@@ -955,10 +955,10 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>386</v>
+        <v>650</v>
       </c>
       <c r="Q8" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R8" t="inlineStr">
         <is>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44741</v>
+        <v>44433</v>
       </c>
       <c r="E9" t="n">
         <v>8</v>
@@ -1008,13 +1008,13 @@
         <v>100</v>
       </c>
       <c r="K9" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="L9" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="M9" t="n">
-        <v>16500</v>
+        <v>14500</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>330</v>
+        <v>290</v>
       </c>
       <c r="Q9" t="n">
         <v>50</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44741</v>
+        <v>44397</v>
       </c>
       <c r="E10" t="n">
         <v>8</v>
@@ -1080,13 +1080,13 @@
         <v>100</v>
       </c>
       <c r="K10" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="L10" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="M10" t="n">
-        <v>21000</v>
+        <v>14500</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>700</v>
+        <v>483</v>
       </c>
       <c r="Q10" t="n">
         <v>30</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44750</v>
+        <v>44729</v>
       </c>
       <c r="E11" t="n">
         <v>8</v>
@@ -1149,20 +1149,20 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>130</v>
+        <v>200</v>
       </c>
       <c r="K11" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="L11" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="M11" t="n">
-        <v>16615</v>
+        <v>17500</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
@@ -1171,10 +1171,10 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>332</v>
+        <v>438</v>
       </c>
       <c r="Q11" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R11" t="inlineStr">
         <is>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44750</v>
+        <v>44762</v>
       </c>
       <c r="E12" t="n">
         <v>8</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="K12" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="L12" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="M12" t="n">
-        <v>18909</v>
+        <v>15571</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>630</v>
+        <v>519</v>
       </c>
       <c r="Q12" t="n">
         <v>30</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44385</v>
+        <v>44399</v>
       </c>
       <c r="E13" t="n">
         <v>8</v>
@@ -1296,13 +1296,13 @@
         <v>100</v>
       </c>
       <c r="K13" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="L13" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M13" t="n">
-        <v>17500</v>
+        <v>14500</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>583</v>
+        <v>483</v>
       </c>
       <c r="Q13" t="n">
         <v>30</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44727</v>
+        <v>44383</v>
       </c>
       <c r="E14" t="n">
         <v>8</v>
@@ -1356,7 +1356,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1365,20 +1365,20 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="K14" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="L14" t="n">
-        <v>21000</v>
+        <v>18000</v>
       </c>
       <c r="M14" t="n">
-        <v>20467</v>
+        <v>17400</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
@@ -1387,10 +1387,10 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>682</v>
+        <v>348</v>
       </c>
       <c r="Q14" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R14" t="inlineStr">
         <is>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44680</v>
+        <v>44420</v>
       </c>
       <c r="E15" t="n">
         <v>8</v>
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="K15" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="L15" t="n">
-        <v>19000</v>
+        <v>15000</v>
       </c>
       <c r="M15" t="n">
-        <v>18600</v>
+        <v>14500</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>620</v>
+        <v>483</v>
       </c>
       <c r="Q15" t="n">
         <v>30</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44433</v>
+        <v>44750</v>
       </c>
       <c r="E16" t="n">
         <v>8</v>
@@ -1509,16 +1509,16 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="K16" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="L16" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="M16" t="n">
-        <v>14500</v>
+        <v>16615</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>290</v>
+        <v>332</v>
       </c>
       <c r="Q16" t="n">
         <v>50</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44755</v>
+        <v>44750</v>
       </c>
       <c r="E17" t="n">
         <v>8</v>
@@ -1572,7 +1572,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1581,20 +1581,20 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="K17" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="L17" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="M17" t="n">
-        <v>16500</v>
+        <v>18909</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
@@ -1603,10 +1603,10 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>330</v>
+        <v>630</v>
       </c>
       <c r="Q17" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R17" t="inlineStr">
         <is>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44755</v>
+        <v>44769</v>
       </c>
       <c r="E18" t="n">
         <v>8</v>
@@ -1644,7 +1644,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1656,17 +1656,17 @@
         <v>100</v>
       </c>
       <c r="K18" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="L18" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="M18" t="n">
-        <v>19000</v>
+        <v>13500</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
@@ -1675,10 +1675,10 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>633</v>
+        <v>270</v>
       </c>
       <c r="Q18" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R18" t="inlineStr">
         <is>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44722</v>
+        <v>44769</v>
       </c>
       <c r="E19" t="n">
         <v>8</v>
@@ -1725,16 +1725,16 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K19" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="L19" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="M19" t="n">
-        <v>21333</v>
+        <v>17000</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>711</v>
+        <v>567</v>
       </c>
       <c r="Q19" t="n">
         <v>30</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44699</v>
+        <v>44748</v>
       </c>
       <c r="E20" t="n">
         <v>8</v>
@@ -1788,7 +1788,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1797,20 +1797,20 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="K20" t="n">
-        <v>19000</v>
+        <v>15000</v>
       </c>
       <c r="L20" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="M20" t="n">
-        <v>19500</v>
+        <v>15545</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
@@ -1819,10 +1819,10 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>650</v>
+        <v>389</v>
       </c>
       <c r="Q20" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R20" t="inlineStr">
         <is>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44706</v>
+        <v>44722</v>
       </c>
       <c r="E21" t="n">
         <v>8</v>
@@ -1869,16 +1869,16 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="K21" t="n">
-        <v>23000</v>
+        <v>20000</v>
       </c>
       <c r="L21" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="M21" t="n">
-        <v>23400</v>
+        <v>21333</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1891,7 +1891,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>780</v>
+        <v>711</v>
       </c>
       <c r="Q21" t="n">
         <v>30</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44350</v>
+        <v>44428</v>
       </c>
       <c r="E22" t="n">
         <v>8</v>
@@ -1932,7 +1932,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1941,20 +1941,20 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="K22" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L22" t="n">
         <v>15000</v>
       </c>
-      <c r="L22" t="n">
-        <v>16000</v>
-      </c>
       <c r="M22" t="n">
-        <v>15600</v>
+        <v>14500</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
@@ -1963,10 +1963,10 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>312</v>
+        <v>483</v>
       </c>
       <c r="Q22" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R22" t="inlineStr">
         <is>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44350</v>
+        <v>44426</v>
       </c>
       <c r="E23" t="n">
         <v>8</v>
@@ -2004,7 +2004,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -2013,32 +2013,32 @@
         </is>
       </c>
       <c r="J23" t="n">
+        <v>50</v>
+      </c>
+      <c r="K23" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L23" t="n">
+        <v>13000</v>
+      </c>
+      <c r="M23" t="n">
+        <v>12600</v>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>$/caja 40 unidades</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P23" t="n">
+        <v>315</v>
+      </c>
+      <c r="Q23" t="n">
         <v>40</v>
-      </c>
-      <c r="K23" t="n">
-        <v>17000</v>
-      </c>
-      <c r="L23" t="n">
-        <v>18000</v>
-      </c>
-      <c r="M23" t="n">
-        <v>17500</v>
-      </c>
-      <c r="N23" t="inlineStr">
-        <is>
-          <t>$/caja 30 unidades</t>
-        </is>
-      </c>
-      <c r="O23" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="P23" t="n">
-        <v>583</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>30</v>
       </c>
       <c r="R23" t="inlineStr">
         <is>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44383</v>
+        <v>44447</v>
       </c>
       <c r="E24" t="n">
         <v>8</v>
@@ -2076,7 +2076,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -2085,20 +2085,20 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="K24" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="L24" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M24" t="n">
-        <v>17400</v>
+        <v>14500</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
@@ -2107,10 +2107,10 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>348</v>
+        <v>483</v>
       </c>
       <c r="Q24" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R24" t="inlineStr">
         <is>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44778</v>
+        <v>44385</v>
       </c>
       <c r="E25" t="n">
         <v>8</v>
@@ -2148,7 +2148,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -2157,20 +2157,20 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="K25" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="L25" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M25" t="n">
-        <v>14533</v>
+        <v>17500</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
@@ -2179,10 +2179,10 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>291</v>
+        <v>583</v>
       </c>
       <c r="Q25" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R25" t="inlineStr">
         <is>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44342</v>
+        <v>44755</v>
       </c>
       <c r="E26" t="n">
         <v>8</v>
@@ -2220,7 +2220,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -2232,17 +2232,17 @@
         <v>100</v>
       </c>
       <c r="K26" t="n">
+        <v>16000</v>
+      </c>
+      <c r="L26" t="n">
         <v>17000</v>
       </c>
-      <c r="L26" t="n">
-        <v>18000</v>
-      </c>
       <c r="M26" t="n">
-        <v>17500</v>
+        <v>16500</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
@@ -2251,10 +2251,10 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>583</v>
+        <v>330</v>
       </c>
       <c r="Q26" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R26" t="inlineStr">
         <is>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44342</v>
+        <v>44755</v>
       </c>
       <c r="E27" t="n">
         <v>8</v>
@@ -2292,7 +2292,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -2304,17 +2304,17 @@
         <v>100</v>
       </c>
       <c r="K27" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="L27" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="M27" t="n">
-        <v>15500</v>
+        <v>19000</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
@@ -2323,10 +2323,10 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>388</v>
+        <v>633</v>
       </c>
       <c r="Q27" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R27" t="inlineStr">
         <is>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44435</v>
+        <v>44350</v>
       </c>
       <c r="E28" t="n">
         <v>8</v>
@@ -2373,16 +2373,16 @@
         </is>
       </c>
       <c r="J28" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K28" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L28" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="M28" t="n">
-        <v>14500</v>
+        <v>15600</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
@@ -2395,7 +2395,7 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>290</v>
+        <v>312</v>
       </c>
       <c r="Q28" t="n">
         <v>50</v>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44376</v>
+        <v>44350</v>
       </c>
       <c r="E29" t="n">
         <v>8</v>
@@ -2445,16 +2445,16 @@
         </is>
       </c>
       <c r="J29" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="K29" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="L29" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="M29" t="n">
-        <v>19500</v>
+        <v>17500</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
@@ -2467,7 +2467,7 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>650</v>
+        <v>583</v>
       </c>
       <c r="Q29" t="n">
         <v>30</v>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44364</v>
+        <v>44706</v>
       </c>
       <c r="E31" t="n">
         <v>8</v>
@@ -2580,7 +2580,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -2589,20 +2589,20 @@
         </is>
       </c>
       <c r="J31" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K31" t="n">
-        <v>19000</v>
+        <v>23000</v>
       </c>
       <c r="L31" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="M31" t="n">
-        <v>19500</v>
+        <v>23400</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
@@ -2611,10 +2611,10 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>390</v>
+        <v>780</v>
       </c>
       <c r="Q31" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R31" t="inlineStr">
         <is>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44364</v>
+        <v>44784</v>
       </c>
       <c r="E32" t="n">
         <v>8</v>
@@ -2661,16 +2661,16 @@
         </is>
       </c>
       <c r="J32" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K32" t="n">
-        <v>19000</v>
+        <v>14000</v>
       </c>
       <c r="L32" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="M32" t="n">
-        <v>19500</v>
+        <v>14400</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
@@ -2683,7 +2683,7 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>650</v>
+        <v>480</v>
       </c>
       <c r="Q32" t="n">
         <v>30</v>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44762</v>
+        <v>44757</v>
       </c>
       <c r="E33" t="n">
         <v>8</v>
@@ -2724,7 +2724,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -2733,20 +2733,20 @@
         </is>
       </c>
       <c r="J33" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="K33" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L33" t="n">
         <v>15000</v>
       </c>
-      <c r="L33" t="n">
-        <v>16000</v>
-      </c>
       <c r="M33" t="n">
-        <v>15571</v>
+        <v>14400</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
@@ -2755,10 +2755,10 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>519</v>
+        <v>288</v>
       </c>
       <c r="Q33" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R33" t="inlineStr">
         <is>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44454</v>
+        <v>44776</v>
       </c>
       <c r="E34" t="n">
         <v>8</v>
@@ -2796,7 +2796,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -2805,32 +2805,32 @@
         </is>
       </c>
       <c r="J34" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="K34" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="L34" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="M34" t="n">
-        <v>13500</v>
+        <v>17467</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P34" t="n">
-        <v>338</v>
+        <v>582</v>
       </c>
       <c r="Q34" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R34" t="inlineStr">
         <is>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44428</v>
+        <v>44496</v>
       </c>
       <c r="E35" t="n">
         <v>8</v>
@@ -2868,7 +2868,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -2877,32 +2877,32 @@
         </is>
       </c>
       <c r="J35" t="n">
-        <v>100</v>
+        <v>350</v>
       </c>
       <c r="K35" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="L35" t="n">
-        <v>15000</v>
+        <v>7500</v>
       </c>
       <c r="M35" t="n">
-        <v>14500</v>
+        <v>7214</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P35" t="n">
-        <v>483</v>
+        <v>180</v>
       </c>
       <c r="Q35" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R35" t="inlineStr">
         <is>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44777</v>
+        <v>44741</v>
       </c>
       <c r="E36" t="n">
         <v>8</v>
@@ -2940,7 +2940,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -2949,20 +2949,20 @@
         </is>
       </c>
       <c r="J36" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="K36" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="L36" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="M36" t="n">
-        <v>18545</v>
+        <v>16500</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
@@ -2971,10 +2971,10 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>618</v>
+        <v>330</v>
       </c>
       <c r="Q36" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R36" t="inlineStr">
         <is>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44749</v>
+        <v>44741</v>
       </c>
       <c r="E37" t="n">
         <v>8</v>
@@ -3012,7 +3012,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -3021,20 +3021,20 @@
         </is>
       </c>
       <c r="J37" t="n">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="K37" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="L37" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="M37" t="n">
-        <v>14200</v>
+        <v>21000</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
@@ -3043,10 +3043,10 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>284</v>
+        <v>700</v>
       </c>
       <c r="Q37" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R37" t="inlineStr">
         <is>
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44420</v>
+        <v>44441</v>
       </c>
       <c r="E38" t="n">
         <v>8</v>
@@ -3096,13 +3096,13 @@
         <v>100</v>
       </c>
       <c r="K38" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L38" t="n">
         <v>14000</v>
       </c>
-      <c r="L38" t="n">
-        <v>15000</v>
-      </c>
       <c r="M38" t="n">
-        <v>14500</v>
+        <v>13500</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
@@ -3115,7 +3115,7 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>483</v>
+        <v>450</v>
       </c>
       <c r="Q38" t="n">
         <v>30</v>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44784</v>
+        <v>44335</v>
       </c>
       <c r="E39" t="n">
         <v>8</v>
@@ -3165,16 +3165,16 @@
         </is>
       </c>
       <c r="J39" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="K39" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="L39" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M39" t="n">
-        <v>14400</v>
+        <v>17500</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
@@ -3187,7 +3187,7 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>480</v>
+        <v>583</v>
       </c>
       <c r="Q39" t="n">
         <v>30</v>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44463</v>
+        <v>44764</v>
       </c>
       <c r="E40" t="n">
         <v>8</v>
@@ -3228,7 +3228,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -3237,20 +3237,20 @@
         </is>
       </c>
       <c r="J40" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="K40" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="L40" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="M40" t="n">
-        <v>9500</v>
+        <v>15429</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
@@ -3259,10 +3259,10 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>190</v>
+        <v>386</v>
       </c>
       <c r="Q40" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R40" t="inlineStr">
         <is>
@@ -3285,7 +3285,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44421</v>
+        <v>44778</v>
       </c>
       <c r="E41" t="n">
         <v>8</v>
@@ -3300,7 +3300,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -3309,7 +3309,7 @@
         </is>
       </c>
       <c r="J41" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="K41" t="n">
         <v>14000</v>
@@ -3318,11 +3318,11 @@
         <v>15000</v>
       </c>
       <c r="M41" t="n">
-        <v>14500</v>
+        <v>14533</v>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
@@ -3331,10 +3331,10 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>483</v>
+        <v>291</v>
       </c>
       <c r="Q41" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R41" t="inlineStr">
         <is>
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44748</v>
+        <v>44749</v>
       </c>
       <c r="E42" t="n">
         <v>8</v>
@@ -3381,20 +3381,20 @@
         </is>
       </c>
       <c r="J42" t="n">
-        <v>110</v>
+        <v>250</v>
       </c>
       <c r="K42" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L42" t="n">
         <v>15000</v>
       </c>
-      <c r="L42" t="n">
-        <v>16000</v>
-      </c>
       <c r="M42" t="n">
-        <v>15545</v>
+        <v>14200</v>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
@@ -3403,10 +3403,10 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>389</v>
+        <v>284</v>
       </c>
       <c r="Q42" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R42" t="inlineStr">
         <is>
@@ -3429,7 +3429,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44441</v>
+        <v>44727</v>
       </c>
       <c r="E43" t="n">
         <v>8</v>
@@ -3453,16 +3453,16 @@
         </is>
       </c>
       <c r="J43" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="K43" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="L43" t="n">
-        <v>14000</v>
+        <v>21000</v>
       </c>
       <c r="M43" t="n">
-        <v>13500</v>
+        <v>20467</v>
       </c>
       <c r="N43" t="inlineStr">
         <is>
@@ -3475,7 +3475,7 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>450</v>
+        <v>682</v>
       </c>
       <c r="Q43" t="n">
         <v>30</v>
@@ -3501,7 +3501,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44483</v>
+        <v>44761</v>
       </c>
       <c r="E44" t="n">
         <v>8</v>
@@ -3516,7 +3516,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -3525,20 +3525,20 @@
         </is>
       </c>
       <c r="J44" t="n">
-        <v>450</v>
+        <v>80</v>
       </c>
       <c r="K44" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="L44" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="M44" t="n">
-        <v>11444</v>
+        <v>13375</v>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
@@ -3547,10 +3547,10 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>381</v>
+        <v>268</v>
       </c>
       <c r="Q44" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R44" t="inlineStr">
         <is>
@@ -3573,7 +3573,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44483</v>
+        <v>44342</v>
       </c>
       <c r="E45" t="n">
         <v>8</v>
@@ -3588,7 +3588,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -3597,32 +3597,32 @@
         </is>
       </c>
       <c r="J45" t="n">
-        <v>220</v>
+        <v>100</v>
       </c>
       <c r="K45" t="n">
-        <v>8000</v>
+        <v>17000</v>
       </c>
       <c r="L45" t="n">
-        <v>8500</v>
+        <v>18000</v>
       </c>
       <c r="M45" t="n">
-        <v>8273</v>
+        <v>17500</v>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P45" t="n">
-        <v>207</v>
+        <v>583</v>
       </c>
       <c r="Q45" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R45" t="inlineStr">
         <is>
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44776</v>
+        <v>44342</v>
       </c>
       <c r="E46" t="n">
         <v>8</v>
@@ -3660,7 +3660,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -3669,20 +3669,20 @@
         </is>
       </c>
       <c r="J46" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="K46" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="L46" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="M46" t="n">
-        <v>17467</v>
+        <v>15500</v>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
@@ -3691,10 +3691,10 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>582</v>
+        <v>388</v>
       </c>
       <c r="Q46" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R46" t="inlineStr">
         <is>
@@ -3717,7 +3717,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44484</v>
+        <v>44376</v>
       </c>
       <c r="E47" t="n">
         <v>8</v>
@@ -3732,7 +3732,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -3741,20 +3741,20 @@
         </is>
       </c>
       <c r="J47" t="n">
-        <v>220</v>
+        <v>100</v>
       </c>
       <c r="K47" t="n">
-        <v>8000</v>
+        <v>19000</v>
       </c>
       <c r="L47" t="n">
-        <v>9000</v>
+        <v>20000</v>
       </c>
       <c r="M47" t="n">
-        <v>8455</v>
+        <v>19500</v>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
@@ -3763,10 +3763,10 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>169</v>
+        <v>650</v>
       </c>
       <c r="Q47" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R47" t="inlineStr">
         <is>
@@ -3789,7 +3789,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44484</v>
+        <v>44442</v>
       </c>
       <c r="E48" t="n">
         <v>8</v>
@@ -3813,16 +3813,16 @@
         </is>
       </c>
       <c r="J48" t="n">
-        <v>220</v>
+        <v>100</v>
       </c>
       <c r="K48" t="n">
-        <v>7500</v>
+        <v>14500</v>
       </c>
       <c r="L48" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="M48" t="n">
-        <v>7727</v>
+        <v>14750</v>
       </c>
       <c r="N48" t="inlineStr">
         <is>
@@ -3835,7 +3835,7 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>258</v>
+        <v>492</v>
       </c>
       <c r="Q48" t="n">
         <v>30</v>
@@ -3861,7 +3861,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44769</v>
+        <v>44454</v>
       </c>
       <c r="E49" t="n">
         <v>8</v>
@@ -3876,7 +3876,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -3898,19 +3898,19 @@
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P49" t="n">
-        <v>270</v>
+        <v>338</v>
       </c>
       <c r="Q49" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R49" t="inlineStr">
         <is>
@@ -3933,7 +3933,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44769</v>
+        <v>44421</v>
       </c>
       <c r="E50" t="n">
         <v>8</v>
@@ -3960,13 +3960,13 @@
         <v>100</v>
       </c>
       <c r="K50" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="L50" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M50" t="n">
-        <v>17000</v>
+        <v>14500</v>
       </c>
       <c r="N50" t="inlineStr">
         <is>
@@ -3979,7 +3979,7 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>567</v>
+        <v>483</v>
       </c>
       <c r="Q50" t="n">
         <v>30</v>
@@ -4005,7 +4005,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44496</v>
+        <v>44489</v>
       </c>
       <c r="E51" t="n">
         <v>8</v>
@@ -4020,7 +4020,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -4029,32 +4029,32 @@
         </is>
       </c>
       <c r="J51" t="n">
-        <v>350</v>
+        <v>100</v>
       </c>
       <c r="K51" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L51" t="n">
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="M51" t="n">
-        <v>7214</v>
+        <v>9500</v>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P51" t="n">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="Q51" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R51" t="inlineStr">
         <is>
@@ -4077,7 +4077,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44399</v>
+        <v>44489</v>
       </c>
       <c r="E52" t="n">
         <v>8</v>
@@ -4104,13 +4104,13 @@
         <v>100</v>
       </c>
       <c r="K52" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="L52" t="n">
-        <v>15000</v>
+        <v>8500</v>
       </c>
       <c r="M52" t="n">
-        <v>14500</v>
+        <v>8250</v>
       </c>
       <c r="N52" t="inlineStr">
         <is>
@@ -4123,7 +4123,7 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>483</v>
+        <v>275</v>
       </c>
       <c r="Q52" t="n">
         <v>30</v>
@@ -4149,7 +4149,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44397</v>
+        <v>44699</v>
       </c>
       <c r="E53" t="n">
         <v>8</v>
@@ -4176,13 +4176,13 @@
         <v>100</v>
       </c>
       <c r="K53" t="n">
-        <v>14000</v>
+        <v>19000</v>
       </c>
       <c r="L53" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="M53" t="n">
-        <v>14500</v>
+        <v>19500</v>
       </c>
       <c r="N53" t="inlineStr">
         <is>
@@ -4195,7 +4195,7 @@
         </is>
       </c>
       <c r="P53" t="n">
-        <v>483</v>
+        <v>650</v>
       </c>
       <c r="Q53" t="n">
         <v>30</v>
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44497</v>
+        <v>44777</v>
       </c>
       <c r="E54" t="n">
         <v>8</v>
@@ -4236,7 +4236,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -4245,20 +4245,20 @@
         </is>
       </c>
       <c r="J54" t="n">
-        <v>180</v>
+        <v>110</v>
       </c>
       <c r="K54" t="n">
-        <v>6500</v>
+        <v>18000</v>
       </c>
       <c r="L54" t="n">
-        <v>7000</v>
+        <v>19000</v>
       </c>
       <c r="M54" t="n">
-        <v>6778</v>
+        <v>18545</v>
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O54" t="inlineStr">
@@ -4267,10 +4267,10 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>136</v>
+        <v>618</v>
       </c>
       <c r="Q54" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R54" t="inlineStr">
         <is>
@@ -4308,7 +4308,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -4317,20 +4317,20 @@
         </is>
       </c>
       <c r="J55" t="n">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="K55" t="n">
+        <v>6500</v>
+      </c>
+      <c r="L55" t="n">
         <v>7000</v>
       </c>
-      <c r="L55" t="n">
-        <v>7500</v>
-      </c>
       <c r="M55" t="n">
-        <v>7250</v>
+        <v>6778</v>
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O55" t="inlineStr">
@@ -4339,10 +4339,10 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>242</v>
+        <v>136</v>
       </c>
       <c r="Q55" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R55" t="inlineStr">
         <is>
@@ -4380,7 +4380,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -4389,32 +4389,32 @@
         </is>
       </c>
       <c r="J56" t="n">
-        <v>130</v>
+        <v>200</v>
       </c>
       <c r="K56" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L56" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="M56" t="n">
-        <v>6192</v>
+        <v>7250</v>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P56" t="n">
-        <v>155</v>
+        <v>242</v>
       </c>
       <c r="Q56" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R56" t="inlineStr">
         <is>
@@ -4437,7 +4437,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44757</v>
+        <v>44497</v>
       </c>
       <c r="E57" t="n">
         <v>8</v>
@@ -4452,7 +4452,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
@@ -4461,32 +4461,32 @@
         </is>
       </c>
       <c r="J57" t="n">
-        <v>50</v>
+        <v>130</v>
       </c>
       <c r="K57" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="L57" t="n">
-        <v>15000</v>
+        <v>6500</v>
       </c>
       <c r="M57" t="n">
-        <v>14400</v>
+        <v>6192</v>
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P57" t="n">
-        <v>288</v>
+        <v>155</v>
       </c>
       <c r="Q57" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R57" t="inlineStr">
         <is>
@@ -4509,7 +4509,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44489</v>
+        <v>44435</v>
       </c>
       <c r="E58" t="n">
         <v>8</v>
@@ -4536,13 +4536,13 @@
         <v>100</v>
       </c>
       <c r="K58" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="L58" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="M58" t="n">
-        <v>9500</v>
+        <v>14500</v>
       </c>
       <c r="N58" t="inlineStr">
         <is>
@@ -4555,7 +4555,7 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>190</v>
+        <v>290</v>
       </c>
       <c r="Q58" t="n">
         <v>50</v>
@@ -4581,7 +4581,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44489</v>
+        <v>44484</v>
       </c>
       <c r="E59" t="n">
         <v>8</v>
@@ -4596,7 +4596,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -4605,20 +4605,20 @@
         </is>
       </c>
       <c r="J59" t="n">
-        <v>100</v>
+        <v>220</v>
       </c>
       <c r="K59" t="n">
         <v>8000</v>
       </c>
       <c r="L59" t="n">
-        <v>8500</v>
+        <v>9000</v>
       </c>
       <c r="M59" t="n">
-        <v>8250</v>
+        <v>8455</v>
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O59" t="inlineStr">
@@ -4627,10 +4627,10 @@
         </is>
       </c>
       <c r="P59" t="n">
-        <v>275</v>
+        <v>169</v>
       </c>
       <c r="Q59" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R59" t="inlineStr">
         <is>
@@ -4653,7 +4653,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44358</v>
+        <v>44484</v>
       </c>
       <c r="E60" t="n">
         <v>8</v>
@@ -4668,7 +4668,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -4677,20 +4677,20 @@
         </is>
       </c>
       <c r="J60" t="n">
-        <v>100</v>
+        <v>220</v>
       </c>
       <c r="K60" t="n">
-        <v>18000</v>
+        <v>7500</v>
       </c>
       <c r="L60" t="n">
-        <v>20000</v>
+        <v>8000</v>
       </c>
       <c r="M60" t="n">
-        <v>19000</v>
+        <v>7727</v>
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O60" t="inlineStr">
@@ -4699,10 +4699,10 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>380</v>
+        <v>258</v>
       </c>
       <c r="Q60" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R60" t="inlineStr">
         <is>
@@ -4725,7 +4725,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44358</v>
+        <v>44463</v>
       </c>
       <c r="E61" t="n">
         <v>8</v>
@@ -4740,7 +4740,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -4752,17 +4752,17 @@
         <v>100</v>
       </c>
       <c r="K61" t="n">
-        <v>18000</v>
+        <v>9000</v>
       </c>
       <c r="L61" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="M61" t="n">
-        <v>19000</v>
+        <v>9500</v>
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O61" t="inlineStr">
@@ -4771,10 +4771,10 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>633</v>
+        <v>190</v>
       </c>
       <c r="Q61" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R61" t="inlineStr">
         <is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Alcachofa.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Alcachofa.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R61"/>
+  <dimension ref="A1:R64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44748</v>
+        <v>44791</v>
       </c>
       <c r="E20" t="n">
         <v>8</v>
@@ -1800,17 +1800,17 @@
         <v>110</v>
       </c>
       <c r="K20" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L20" t="n">
         <v>15000</v>
       </c>
-      <c r="L20" t="n">
-        <v>16000</v>
-      </c>
       <c r="M20" t="n">
-        <v>15545</v>
+        <v>14455</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
@@ -1819,10 +1819,10 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>389</v>
+        <v>289</v>
       </c>
       <c r="Q20" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R20" t="inlineStr">
         <is>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44722</v>
+        <v>44791</v>
       </c>
       <c r="E21" t="n">
         <v>8</v>
@@ -1869,16 +1869,16 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K21" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="L21" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="M21" t="n">
-        <v>21333</v>
+        <v>15500</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1891,7 +1891,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>711</v>
+        <v>517</v>
       </c>
       <c r="Q21" t="n">
         <v>30</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44428</v>
+        <v>44791</v>
       </c>
       <c r="E22" t="n">
         <v>8</v>
@@ -1932,7 +1932,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1941,7 +1941,7 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="K22" t="n">
         <v>14000</v>
@@ -1950,11 +1950,11 @@
         <v>15000</v>
       </c>
       <c r="M22" t="n">
-        <v>14500</v>
+        <v>14444</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
@@ -1963,10 +1963,10 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>483</v>
+        <v>289</v>
       </c>
       <c r="Q22" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R22" t="inlineStr">
         <is>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44426</v>
+        <v>44748</v>
       </c>
       <c r="E23" t="n">
         <v>8</v>
@@ -2004,7 +2004,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -2013,16 +2013,16 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="K23" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="L23" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="M23" t="n">
-        <v>12600</v>
+        <v>15545</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>315</v>
+        <v>389</v>
       </c>
       <c r="Q23" t="n">
         <v>40</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44447</v>
+        <v>44722</v>
       </c>
       <c r="E24" t="n">
         <v>8</v>
@@ -2085,16 +2085,16 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K24" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="L24" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="M24" t="n">
-        <v>14500</v>
+        <v>21333</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>483</v>
+        <v>711</v>
       </c>
       <c r="Q24" t="n">
         <v>30</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44385</v>
+        <v>44428</v>
       </c>
       <c r="E25" t="n">
         <v>8</v>
@@ -2160,13 +2160,13 @@
         <v>100</v>
       </c>
       <c r="K25" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="L25" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M25" t="n">
-        <v>17500</v>
+        <v>14500</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>583</v>
+        <v>483</v>
       </c>
       <c r="Q25" t="n">
         <v>30</v>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44755</v>
+        <v>44426</v>
       </c>
       <c r="E26" t="n">
         <v>8</v>
@@ -2220,7 +2220,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -2229,20 +2229,20 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K26" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="L26" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="M26" t="n">
-        <v>16500</v>
+        <v>12600</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
@@ -2251,10 +2251,10 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>330</v>
+        <v>315</v>
       </c>
       <c r="Q26" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R26" t="inlineStr">
         <is>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44755</v>
+        <v>44447</v>
       </c>
       <c r="E27" t="n">
         <v>8</v>
@@ -2304,13 +2304,13 @@
         <v>100</v>
       </c>
       <c r="K27" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="L27" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="M27" t="n">
-        <v>19000</v>
+        <v>14500</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
@@ -2323,7 +2323,7 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>633</v>
+        <v>483</v>
       </c>
       <c r="Q27" t="n">
         <v>30</v>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44350</v>
+        <v>44385</v>
       </c>
       <c r="E28" t="n">
         <v>8</v>
@@ -2364,7 +2364,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -2373,20 +2373,20 @@
         </is>
       </c>
       <c r="J28" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="K28" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="L28" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="M28" t="n">
-        <v>15600</v>
+        <v>17500</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
@@ -2395,10 +2395,10 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>312</v>
+        <v>583</v>
       </c>
       <c r="Q28" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R28" t="inlineStr">
         <is>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44350</v>
+        <v>44755</v>
       </c>
       <c r="E29" t="n">
         <v>8</v>
@@ -2436,7 +2436,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -2445,20 +2445,20 @@
         </is>
       </c>
       <c r="J29" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="K29" t="n">
+        <v>16000</v>
+      </c>
+      <c r="L29" t="n">
         <v>17000</v>
       </c>
-      <c r="L29" t="n">
-        <v>18000</v>
-      </c>
       <c r="M29" t="n">
-        <v>17500</v>
+        <v>16500</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
@@ -2467,10 +2467,10 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>583</v>
+        <v>330</v>
       </c>
       <c r="Q29" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R29" t="inlineStr">
         <is>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44721</v>
+        <v>44755</v>
       </c>
       <c r="E30" t="n">
         <v>8</v>
@@ -2517,16 +2517,16 @@
         </is>
       </c>
       <c r="J30" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="K30" t="n">
-        <v>19000</v>
+        <v>18000</v>
       </c>
       <c r="L30" t="n">
         <v>20000</v>
       </c>
       <c r="M30" t="n">
-        <v>19533</v>
+        <v>19000</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
@@ -2539,7 +2539,7 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>651</v>
+        <v>633</v>
       </c>
       <c r="Q30" t="n">
         <v>30</v>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44706</v>
+        <v>44350</v>
       </c>
       <c r="E31" t="n">
         <v>8</v>
@@ -2580,7 +2580,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -2592,17 +2592,17 @@
         <v>50</v>
       </c>
       <c r="K31" t="n">
-        <v>23000</v>
+        <v>15000</v>
       </c>
       <c r="L31" t="n">
-        <v>24000</v>
+        <v>16000</v>
       </c>
       <c r="M31" t="n">
-        <v>23400</v>
+        <v>15600</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
@@ -2611,10 +2611,10 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>780</v>
+        <v>312</v>
       </c>
       <c r="Q31" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R31" t="inlineStr">
         <is>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44784</v>
+        <v>44350</v>
       </c>
       <c r="E32" t="n">
         <v>8</v>
@@ -2661,16 +2661,16 @@
         </is>
       </c>
       <c r="J32" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="K32" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="L32" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M32" t="n">
-        <v>14400</v>
+        <v>17500</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
@@ -2683,7 +2683,7 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>480</v>
+        <v>583</v>
       </c>
       <c r="Q32" t="n">
         <v>30</v>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44757</v>
+        <v>44721</v>
       </c>
       <c r="E33" t="n">
         <v>8</v>
@@ -2724,7 +2724,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -2733,20 +2733,20 @@
         </is>
       </c>
       <c r="J33" t="n">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="K33" t="n">
-        <v>14000</v>
+        <v>19000</v>
       </c>
       <c r="L33" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="M33" t="n">
-        <v>14400</v>
+        <v>19533</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
@@ -2755,10 +2755,10 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>288</v>
+        <v>651</v>
       </c>
       <c r="Q33" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R33" t="inlineStr">
         <is>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44776</v>
+        <v>44706</v>
       </c>
       <c r="E34" t="n">
         <v>8</v>
@@ -2805,16 +2805,16 @@
         </is>
       </c>
       <c r="J34" t="n">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="K34" t="n">
-        <v>17000</v>
+        <v>23000</v>
       </c>
       <c r="L34" t="n">
-        <v>18000</v>
+        <v>24000</v>
       </c>
       <c r="M34" t="n">
-        <v>17467</v>
+        <v>23400</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>582</v>
+        <v>780</v>
       </c>
       <c r="Q34" t="n">
         <v>30</v>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44496</v>
+        <v>44784</v>
       </c>
       <c r="E35" t="n">
         <v>8</v>
@@ -2868,7 +2868,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -2877,32 +2877,32 @@
         </is>
       </c>
       <c r="J35" t="n">
-        <v>350</v>
+        <v>50</v>
       </c>
       <c r="K35" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="L35" t="n">
-        <v>7500</v>
+        <v>15000</v>
       </c>
       <c r="M35" t="n">
-        <v>7214</v>
+        <v>14400</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P35" t="n">
-        <v>180</v>
+        <v>480</v>
       </c>
       <c r="Q35" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R35" t="inlineStr">
         <is>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44741</v>
+        <v>44757</v>
       </c>
       <c r="E36" t="n">
         <v>8</v>
@@ -2949,16 +2949,16 @@
         </is>
       </c>
       <c r="J36" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K36" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="L36" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="M36" t="n">
-        <v>16500</v>
+        <v>14400</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>330</v>
+        <v>288</v>
       </c>
       <c r="Q36" t="n">
         <v>50</v>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44741</v>
+        <v>44776</v>
       </c>
       <c r="E37" t="n">
         <v>8</v>
@@ -3021,16 +3021,16 @@
         </is>
       </c>
       <c r="J37" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="K37" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="L37" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="M37" t="n">
-        <v>21000</v>
+        <v>17467</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
@@ -3043,7 +3043,7 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>700</v>
+        <v>582</v>
       </c>
       <c r="Q37" t="n">
         <v>30</v>
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44441</v>
+        <v>44496</v>
       </c>
       <c r="E38" t="n">
         <v>8</v>
@@ -3084,7 +3084,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -3093,32 +3093,32 @@
         </is>
       </c>
       <c r="J38" t="n">
-        <v>100</v>
+        <v>350</v>
       </c>
       <c r="K38" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="L38" t="n">
-        <v>14000</v>
+        <v>7500</v>
       </c>
       <c r="M38" t="n">
-        <v>13500</v>
+        <v>7214</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P38" t="n">
-        <v>450</v>
+        <v>180</v>
       </c>
       <c r="Q38" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R38" t="inlineStr">
         <is>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44335</v>
+        <v>44741</v>
       </c>
       <c r="E39" t="n">
         <v>8</v>
@@ -3156,7 +3156,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -3168,17 +3168,17 @@
         <v>100</v>
       </c>
       <c r="K39" t="n">
+        <v>16000</v>
+      </c>
+      <c r="L39" t="n">
         <v>17000</v>
       </c>
-      <c r="L39" t="n">
-        <v>18000</v>
-      </c>
       <c r="M39" t="n">
-        <v>17500</v>
+        <v>16500</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
@@ -3187,10 +3187,10 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>583</v>
+        <v>330</v>
       </c>
       <c r="Q39" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R39" t="inlineStr">
         <is>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44764</v>
+        <v>44741</v>
       </c>
       <c r="E40" t="n">
         <v>8</v>
@@ -3228,7 +3228,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -3237,20 +3237,20 @@
         </is>
       </c>
       <c r="J40" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="K40" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="L40" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="M40" t="n">
-        <v>15429</v>
+        <v>21000</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
@@ -3259,10 +3259,10 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>386</v>
+        <v>700</v>
       </c>
       <c r="Q40" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R40" t="inlineStr">
         <is>
@@ -3285,7 +3285,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44778</v>
+        <v>44441</v>
       </c>
       <c r="E41" t="n">
         <v>8</v>
@@ -3300,7 +3300,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -3309,20 +3309,20 @@
         </is>
       </c>
       <c r="J41" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="K41" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L41" t="n">
         <v>14000</v>
       </c>
-      <c r="L41" t="n">
-        <v>15000</v>
-      </c>
       <c r="M41" t="n">
-        <v>14533</v>
+        <v>13500</v>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
@@ -3331,10 +3331,10 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>291</v>
+        <v>450</v>
       </c>
       <c r="Q41" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R41" t="inlineStr">
         <is>
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44749</v>
+        <v>44335</v>
       </c>
       <c r="E42" t="n">
         <v>8</v>
@@ -3372,7 +3372,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -3381,20 +3381,20 @@
         </is>
       </c>
       <c r="J42" t="n">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="K42" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="L42" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M42" t="n">
-        <v>14200</v>
+        <v>17500</v>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
@@ -3403,10 +3403,10 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>284</v>
+        <v>583</v>
       </c>
       <c r="Q42" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R42" t="inlineStr">
         <is>
@@ -3429,7 +3429,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44727</v>
+        <v>44764</v>
       </c>
       <c r="E43" t="n">
         <v>8</v>
@@ -3444,7 +3444,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -3453,20 +3453,20 @@
         </is>
       </c>
       <c r="J43" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="K43" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="L43" t="n">
-        <v>21000</v>
+        <v>16000</v>
       </c>
       <c r="M43" t="n">
-        <v>20467</v>
+        <v>15429</v>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
@@ -3475,10 +3475,10 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>682</v>
+        <v>386</v>
       </c>
       <c r="Q43" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R43" t="inlineStr">
         <is>
@@ -3501,7 +3501,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44761</v>
+        <v>44778</v>
       </c>
       <c r="E44" t="n">
         <v>8</v>
@@ -3525,16 +3525,16 @@
         </is>
       </c>
       <c r="J44" t="n">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="K44" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L44" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M44" t="n">
-        <v>13375</v>
+        <v>14533</v>
       </c>
       <c r="N44" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>268</v>
+        <v>291</v>
       </c>
       <c r="Q44" t="n">
         <v>50</v>
@@ -3573,7 +3573,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44342</v>
+        <v>44749</v>
       </c>
       <c r="E45" t="n">
         <v>8</v>
@@ -3588,7 +3588,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -3597,20 +3597,20 @@
         </is>
       </c>
       <c r="J45" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="K45" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="L45" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M45" t="n">
-        <v>17500</v>
+        <v>14200</v>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
@@ -3619,10 +3619,10 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>583</v>
+        <v>284</v>
       </c>
       <c r="Q45" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R45" t="inlineStr">
         <is>
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44342</v>
+        <v>44727</v>
       </c>
       <c r="E46" t="n">
         <v>8</v>
@@ -3660,7 +3660,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -3669,20 +3669,20 @@
         </is>
       </c>
       <c r="J46" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="K46" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="L46" t="n">
-        <v>16000</v>
+        <v>21000</v>
       </c>
       <c r="M46" t="n">
-        <v>15500</v>
+        <v>20467</v>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
@@ -3691,10 +3691,10 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>388</v>
+        <v>682</v>
       </c>
       <c r="Q46" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R46" t="inlineStr">
         <is>
@@ -3717,7 +3717,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44376</v>
+        <v>44761</v>
       </c>
       <c r="E47" t="n">
         <v>8</v>
@@ -3732,7 +3732,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -3741,20 +3741,20 @@
         </is>
       </c>
       <c r="J47" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="K47" t="n">
-        <v>19000</v>
+        <v>13000</v>
       </c>
       <c r="L47" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="M47" t="n">
-        <v>19500</v>
+        <v>13375</v>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
@@ -3763,10 +3763,10 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>650</v>
+        <v>268</v>
       </c>
       <c r="Q47" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R47" t="inlineStr">
         <is>
@@ -3789,7 +3789,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44442</v>
+        <v>44342</v>
       </c>
       <c r="E48" t="n">
         <v>8</v>
@@ -3816,13 +3816,13 @@
         <v>100</v>
       </c>
       <c r="K48" t="n">
-        <v>14500</v>
+        <v>17000</v>
       </c>
       <c r="L48" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M48" t="n">
-        <v>14750</v>
+        <v>17500</v>
       </c>
       <c r="N48" t="inlineStr">
         <is>
@@ -3835,7 +3835,7 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>492</v>
+        <v>583</v>
       </c>
       <c r="Q48" t="n">
         <v>30</v>
@@ -3861,7 +3861,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44454</v>
+        <v>44342</v>
       </c>
       <c r="E49" t="n">
         <v>8</v>
@@ -3888,13 +3888,13 @@
         <v>100</v>
       </c>
       <c r="K49" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="L49" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="M49" t="n">
-        <v>13500</v>
+        <v>15500</v>
       </c>
       <c r="N49" t="inlineStr">
         <is>
@@ -3903,11 +3903,11 @@
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P49" t="n">
-        <v>338</v>
+        <v>388</v>
       </c>
       <c r="Q49" t="n">
         <v>40</v>
@@ -3933,7 +3933,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44421</v>
+        <v>44376</v>
       </c>
       <c r="E50" t="n">
         <v>8</v>
@@ -3960,13 +3960,13 @@
         <v>100</v>
       </c>
       <c r="K50" t="n">
-        <v>14000</v>
+        <v>19000</v>
       </c>
       <c r="L50" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="M50" t="n">
-        <v>14500</v>
+        <v>19500</v>
       </c>
       <c r="N50" t="inlineStr">
         <is>
@@ -3979,7 +3979,7 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>483</v>
+        <v>650</v>
       </c>
       <c r="Q50" t="n">
         <v>30</v>
@@ -4005,7 +4005,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44489</v>
+        <v>44442</v>
       </c>
       <c r="E51" t="n">
         <v>8</v>
@@ -4020,7 +4020,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -4032,17 +4032,17 @@
         <v>100</v>
       </c>
       <c r="K51" t="n">
-        <v>9000</v>
+        <v>14500</v>
       </c>
       <c r="L51" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="M51" t="n">
-        <v>9500</v>
+        <v>14750</v>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
@@ -4051,10 +4051,10 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>190</v>
+        <v>492</v>
       </c>
       <c r="Q51" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R51" t="inlineStr">
         <is>
@@ -4077,7 +4077,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44489</v>
+        <v>44454</v>
       </c>
       <c r="E52" t="n">
         <v>8</v>
@@ -4092,7 +4092,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -4104,29 +4104,29 @@
         <v>100</v>
       </c>
       <c r="K52" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="L52" t="n">
-        <v>8500</v>
+        <v>14000</v>
       </c>
       <c r="M52" t="n">
-        <v>8250</v>
+        <v>13500</v>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P52" t="n">
-        <v>275</v>
+        <v>338</v>
       </c>
       <c r="Q52" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R52" t="inlineStr">
         <is>
@@ -4149,7 +4149,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44699</v>
+        <v>44421</v>
       </c>
       <c r="E53" t="n">
         <v>8</v>
@@ -4176,13 +4176,13 @@
         <v>100</v>
       </c>
       <c r="K53" t="n">
-        <v>19000</v>
+        <v>14000</v>
       </c>
       <c r="L53" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="M53" t="n">
-        <v>19500</v>
+        <v>14500</v>
       </c>
       <c r="N53" t="inlineStr">
         <is>
@@ -4195,7 +4195,7 @@
         </is>
       </c>
       <c r="P53" t="n">
-        <v>650</v>
+        <v>483</v>
       </c>
       <c r="Q53" t="n">
         <v>30</v>
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44777</v>
+        <v>44489</v>
       </c>
       <c r="E54" t="n">
         <v>8</v>
@@ -4236,7 +4236,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -4245,20 +4245,20 @@
         </is>
       </c>
       <c r="J54" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="K54" t="n">
-        <v>18000</v>
+        <v>9000</v>
       </c>
       <c r="L54" t="n">
-        <v>19000</v>
+        <v>10000</v>
       </c>
       <c r="M54" t="n">
-        <v>18545</v>
+        <v>9500</v>
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O54" t="inlineStr">
@@ -4267,10 +4267,10 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>618</v>
+        <v>190</v>
       </c>
       <c r="Q54" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R54" t="inlineStr">
         <is>
@@ -4293,7 +4293,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44497</v>
+        <v>44489</v>
       </c>
       <c r="E55" t="n">
         <v>8</v>
@@ -4308,7 +4308,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -4317,20 +4317,20 @@
         </is>
       </c>
       <c r="J55" t="n">
-        <v>180</v>
+        <v>100</v>
       </c>
       <c r="K55" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="L55" t="n">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="M55" t="n">
-        <v>6778</v>
+        <v>8250</v>
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O55" t="inlineStr">
@@ -4339,10 +4339,10 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>136</v>
+        <v>275</v>
       </c>
       <c r="Q55" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R55" t="inlineStr">
         <is>
@@ -4365,7 +4365,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44497</v>
+        <v>44699</v>
       </c>
       <c r="E56" t="n">
         <v>8</v>
@@ -4389,16 +4389,16 @@
         </is>
       </c>
       <c r="J56" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K56" t="n">
-        <v>7000</v>
+        <v>19000</v>
       </c>
       <c r="L56" t="n">
-        <v>7500</v>
+        <v>20000</v>
       </c>
       <c r="M56" t="n">
-        <v>7250</v>
+        <v>19500</v>
       </c>
       <c r="N56" t="inlineStr">
         <is>
@@ -4411,7 +4411,7 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>242</v>
+        <v>650</v>
       </c>
       <c r="Q56" t="n">
         <v>30</v>
@@ -4437,7 +4437,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44497</v>
+        <v>44777</v>
       </c>
       <c r="E57" t="n">
         <v>8</v>
@@ -4452,7 +4452,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
@@ -4461,32 +4461,32 @@
         </is>
       </c>
       <c r="J57" t="n">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="K57" t="n">
-        <v>6000</v>
+        <v>18000</v>
       </c>
       <c r="L57" t="n">
-        <v>6500</v>
+        <v>19000</v>
       </c>
       <c r="M57" t="n">
-        <v>6192</v>
+        <v>18545</v>
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P57" t="n">
-        <v>155</v>
+        <v>618</v>
       </c>
       <c r="Q57" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R57" t="inlineStr">
         <is>
@@ -4509,7 +4509,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44435</v>
+        <v>44497</v>
       </c>
       <c r="E58" t="n">
         <v>8</v>
@@ -4533,16 +4533,16 @@
         </is>
       </c>
       <c r="J58" t="n">
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="K58" t="n">
-        <v>14000</v>
+        <v>6500</v>
       </c>
       <c r="L58" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="M58" t="n">
-        <v>14500</v>
+        <v>6778</v>
       </c>
       <c r="N58" t="inlineStr">
         <is>
@@ -4555,7 +4555,7 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>290</v>
+        <v>136</v>
       </c>
       <c r="Q58" t="n">
         <v>50</v>
@@ -4581,7 +4581,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44484</v>
+        <v>44497</v>
       </c>
       <c r="E59" t="n">
         <v>8</v>
@@ -4596,7 +4596,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -4605,20 +4605,20 @@
         </is>
       </c>
       <c r="J59" t="n">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="K59" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L59" t="n">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="M59" t="n">
-        <v>8455</v>
+        <v>7250</v>
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O59" t="inlineStr">
@@ -4627,10 +4627,10 @@
         </is>
       </c>
       <c r="P59" t="n">
-        <v>169</v>
+        <v>242</v>
       </c>
       <c r="Q59" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R59" t="inlineStr">
         <is>
@@ -4653,7 +4653,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44484</v>
+        <v>44497</v>
       </c>
       <c r="E60" t="n">
         <v>8</v>
@@ -4668,7 +4668,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -4677,32 +4677,32 @@
         </is>
       </c>
       <c r="J60" t="n">
-        <v>220</v>
+        <v>130</v>
       </c>
       <c r="K60" t="n">
-        <v>7500</v>
+        <v>6000</v>
       </c>
       <c r="L60" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="M60" t="n">
-        <v>7727</v>
+        <v>6192</v>
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P60" t="n">
-        <v>258</v>
+        <v>155</v>
       </c>
       <c r="Q60" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R60" t="inlineStr">
         <is>
@@ -4725,7 +4725,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44463</v>
+        <v>44435</v>
       </c>
       <c r="E61" t="n">
         <v>8</v>
@@ -4752,13 +4752,13 @@
         <v>100</v>
       </c>
       <c r="K61" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="L61" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="M61" t="n">
-        <v>9500</v>
+        <v>14500</v>
       </c>
       <c r="N61" t="inlineStr">
         <is>
@@ -4771,12 +4771,228 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>190</v>
+        <v>290</v>
       </c>
       <c r="Q61" t="n">
         <v>50</v>
       </c>
       <c r="R61" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>11</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D62" s="2" t="n">
+        <v>44484</v>
+      </c>
+      <c r="E62" t="n">
+        <v>8</v>
+      </c>
+      <c r="F62" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>Argentina(o)</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J62" t="n">
+        <v>220</v>
+      </c>
+      <c r="K62" t="n">
+        <v>8000</v>
+      </c>
+      <c r="L62" t="n">
+        <v>9000</v>
+      </c>
+      <c r="M62" t="n">
+        <v>8455</v>
+      </c>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>$/caja 50 unidades</t>
+        </is>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P62" t="n">
+        <v>169</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>50</v>
+      </c>
+      <c r="R62" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>11</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D63" s="2" t="n">
+        <v>44484</v>
+      </c>
+      <c r="E63" t="n">
+        <v>8</v>
+      </c>
+      <c r="F63" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>Española</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J63" t="n">
+        <v>220</v>
+      </c>
+      <c r="K63" t="n">
+        <v>7500</v>
+      </c>
+      <c r="L63" t="n">
+        <v>8000</v>
+      </c>
+      <c r="M63" t="n">
+        <v>7727</v>
+      </c>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>$/caja 30 unidades</t>
+        </is>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P63" t="n">
+        <v>258</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>30</v>
+      </c>
+      <c r="R63" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>11</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D64" s="2" t="n">
+        <v>44463</v>
+      </c>
+      <c r="E64" t="n">
+        <v>8</v>
+      </c>
+      <c r="F64" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>Argentina(o)</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J64" t="n">
+        <v>100</v>
+      </c>
+      <c r="K64" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L64" t="n">
+        <v>10000</v>
+      </c>
+      <c r="M64" t="n">
+        <v>9500</v>
+      </c>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>$/caja 50 unidades</t>
+        </is>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P64" t="n">
+        <v>190</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>50</v>
+      </c>
+      <c r="R64" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Alcachofa.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Alcachofa.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R64"/>
+  <dimension ref="A1:R66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44385</v>
+        <v>44799</v>
       </c>
       <c r="E28" t="n">
         <v>8</v>
@@ -2364,7 +2364,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -2373,20 +2373,20 @@
         </is>
       </c>
       <c r="J28" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K28" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="L28" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="M28" t="n">
-        <v>17500</v>
+        <v>13600</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
@@ -2395,10 +2395,10 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>583</v>
+        <v>272</v>
       </c>
       <c r="Q28" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R28" t="inlineStr">
         <is>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44755</v>
+        <v>44799</v>
       </c>
       <c r="E29" t="n">
         <v>8</v>
@@ -2436,7 +2436,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -2445,20 +2445,20 @@
         </is>
       </c>
       <c r="J29" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K29" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="L29" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="M29" t="n">
-        <v>16500</v>
+        <v>14600</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
@@ -2467,10 +2467,10 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>330</v>
+        <v>487</v>
       </c>
       <c r="Q29" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R29" t="inlineStr">
         <is>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44755</v>
+        <v>44385</v>
       </c>
       <c r="E30" t="n">
         <v>8</v>
@@ -2520,13 +2520,13 @@
         <v>100</v>
       </c>
       <c r="K30" t="n">
+        <v>17000</v>
+      </c>
+      <c r="L30" t="n">
         <v>18000</v>
       </c>
-      <c r="L30" t="n">
-        <v>20000</v>
-      </c>
       <c r="M30" t="n">
-        <v>19000</v>
+        <v>17500</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
@@ -2539,7 +2539,7 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>633</v>
+        <v>583</v>
       </c>
       <c r="Q30" t="n">
         <v>30</v>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44350</v>
+        <v>44755</v>
       </c>
       <c r="E31" t="n">
         <v>8</v>
@@ -2589,16 +2589,16 @@
         </is>
       </c>
       <c r="J31" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="K31" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="L31" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="M31" t="n">
-        <v>15600</v>
+        <v>16500</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
@@ -2611,7 +2611,7 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>312</v>
+        <v>330</v>
       </c>
       <c r="Q31" t="n">
         <v>50</v>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44350</v>
+        <v>44755</v>
       </c>
       <c r="E32" t="n">
         <v>8</v>
@@ -2661,16 +2661,16 @@
         </is>
       </c>
       <c r="J32" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="K32" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="L32" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="M32" t="n">
-        <v>17500</v>
+        <v>19000</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
@@ -2683,7 +2683,7 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>583</v>
+        <v>633</v>
       </c>
       <c r="Q32" t="n">
         <v>30</v>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44721</v>
+        <v>44350</v>
       </c>
       <c r="E33" t="n">
         <v>8</v>
@@ -2724,7 +2724,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -2733,20 +2733,20 @@
         </is>
       </c>
       <c r="J33" t="n">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="K33" t="n">
-        <v>19000</v>
+        <v>15000</v>
       </c>
       <c r="L33" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="M33" t="n">
-        <v>19533</v>
+        <v>15600</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
@@ -2755,10 +2755,10 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>651</v>
+        <v>312</v>
       </c>
       <c r="Q33" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R33" t="inlineStr">
         <is>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44706</v>
+        <v>44350</v>
       </c>
       <c r="E34" t="n">
         <v>8</v>
@@ -2805,16 +2805,16 @@
         </is>
       </c>
       <c r="J34" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="K34" t="n">
-        <v>23000</v>
+        <v>17000</v>
       </c>
       <c r="L34" t="n">
-        <v>24000</v>
+        <v>18000</v>
       </c>
       <c r="M34" t="n">
-        <v>23400</v>
+        <v>17500</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>780</v>
+        <v>583</v>
       </c>
       <c r="Q34" t="n">
         <v>30</v>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44784</v>
+        <v>44721</v>
       </c>
       <c r="E35" t="n">
         <v>8</v>
@@ -2877,16 +2877,16 @@
         </is>
       </c>
       <c r="J35" t="n">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="K35" t="n">
-        <v>14000</v>
+        <v>19000</v>
       </c>
       <c r="L35" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="M35" t="n">
-        <v>14400</v>
+        <v>19533</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
@@ -2899,7 +2899,7 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>480</v>
+        <v>651</v>
       </c>
       <c r="Q35" t="n">
         <v>30</v>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44757</v>
+        <v>44706</v>
       </c>
       <c r="E36" t="n">
         <v>8</v>
@@ -2940,7 +2940,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -2952,17 +2952,17 @@
         <v>50</v>
       </c>
       <c r="K36" t="n">
-        <v>14000</v>
+        <v>23000</v>
       </c>
       <c r="L36" t="n">
-        <v>15000</v>
+        <v>24000</v>
       </c>
       <c r="M36" t="n">
-        <v>14400</v>
+        <v>23400</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
@@ -2971,10 +2971,10 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>288</v>
+        <v>780</v>
       </c>
       <c r="Q36" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R36" t="inlineStr">
         <is>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44776</v>
+        <v>44784</v>
       </c>
       <c r="E37" t="n">
         <v>8</v>
@@ -3021,16 +3021,16 @@
         </is>
       </c>
       <c r="J37" t="n">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="K37" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="L37" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M37" t="n">
-        <v>17467</v>
+        <v>14400</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
@@ -3043,7 +3043,7 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>582</v>
+        <v>480</v>
       </c>
       <c r="Q37" t="n">
         <v>30</v>
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44496</v>
+        <v>44757</v>
       </c>
       <c r="E38" t="n">
         <v>8</v>
@@ -3084,7 +3084,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -3093,32 +3093,32 @@
         </is>
       </c>
       <c r="J38" t="n">
-        <v>350</v>
+        <v>50</v>
       </c>
       <c r="K38" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="L38" t="n">
-        <v>7500</v>
+        <v>15000</v>
       </c>
       <c r="M38" t="n">
-        <v>7214</v>
+        <v>14400</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P38" t="n">
-        <v>180</v>
+        <v>288</v>
       </c>
       <c r="Q38" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R38" t="inlineStr">
         <is>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44741</v>
+        <v>44776</v>
       </c>
       <c r="E39" t="n">
         <v>8</v>
@@ -3156,7 +3156,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -3165,20 +3165,20 @@
         </is>
       </c>
       <c r="J39" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="K39" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="L39" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="M39" t="n">
-        <v>16500</v>
+        <v>17467</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
@@ -3187,10 +3187,10 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>330</v>
+        <v>582</v>
       </c>
       <c r="Q39" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R39" t="inlineStr">
         <is>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44741</v>
+        <v>44496</v>
       </c>
       <c r="E40" t="n">
         <v>8</v>
@@ -3228,7 +3228,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -3237,32 +3237,32 @@
         </is>
       </c>
       <c r="J40" t="n">
-        <v>100</v>
+        <v>350</v>
       </c>
       <c r="K40" t="n">
-        <v>20000</v>
+        <v>7000</v>
       </c>
       <c r="L40" t="n">
-        <v>22000</v>
+        <v>7500</v>
       </c>
       <c r="M40" t="n">
-        <v>21000</v>
+        <v>7214</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P40" t="n">
-        <v>700</v>
+        <v>180</v>
       </c>
       <c r="Q40" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R40" t="inlineStr">
         <is>
@@ -3285,7 +3285,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44441</v>
+        <v>44741</v>
       </c>
       <c r="E41" t="n">
         <v>8</v>
@@ -3300,7 +3300,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -3312,17 +3312,17 @@
         <v>100</v>
       </c>
       <c r="K41" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="L41" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="M41" t="n">
-        <v>13500</v>
+        <v>16500</v>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
@@ -3331,10 +3331,10 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>450</v>
+        <v>330</v>
       </c>
       <c r="Q41" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R41" t="inlineStr">
         <is>
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44335</v>
+        <v>44741</v>
       </c>
       <c r="E42" t="n">
         <v>8</v>
@@ -3384,13 +3384,13 @@
         <v>100</v>
       </c>
       <c r="K42" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="L42" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="M42" t="n">
-        <v>17500</v>
+        <v>21000</v>
       </c>
       <c r="N42" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>583</v>
+        <v>700</v>
       </c>
       <c r="Q42" t="n">
         <v>30</v>
@@ -3429,7 +3429,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44764</v>
+        <v>44441</v>
       </c>
       <c r="E43" t="n">
         <v>8</v>
@@ -3444,7 +3444,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -3453,20 +3453,20 @@
         </is>
       </c>
       <c r="J43" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="K43" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="L43" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="M43" t="n">
-        <v>15429</v>
+        <v>13500</v>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
@@ -3475,10 +3475,10 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>386</v>
+        <v>450</v>
       </c>
       <c r="Q43" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R43" t="inlineStr">
         <is>
@@ -3501,7 +3501,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44778</v>
+        <v>44335</v>
       </c>
       <c r="E44" t="n">
         <v>8</v>
@@ -3516,7 +3516,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -3525,20 +3525,20 @@
         </is>
       </c>
       <c r="J44" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="K44" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="L44" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M44" t="n">
-        <v>14533</v>
+        <v>17500</v>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
@@ -3547,10 +3547,10 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>291</v>
+        <v>583</v>
       </c>
       <c r="Q44" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R44" t="inlineStr">
         <is>
@@ -3573,7 +3573,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44749</v>
+        <v>44764</v>
       </c>
       <c r="E45" t="n">
         <v>8</v>
@@ -3588,7 +3588,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -3597,20 +3597,20 @@
         </is>
       </c>
       <c r="J45" t="n">
-        <v>250</v>
+        <v>140</v>
       </c>
       <c r="K45" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="L45" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="M45" t="n">
-        <v>14200</v>
+        <v>15429</v>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
@@ -3619,10 +3619,10 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>284</v>
+        <v>386</v>
       </c>
       <c r="Q45" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R45" t="inlineStr">
         <is>
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44727</v>
+        <v>44778</v>
       </c>
       <c r="E46" t="n">
         <v>8</v>
@@ -3660,7 +3660,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -3672,17 +3672,17 @@
         <v>150</v>
       </c>
       <c r="K46" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="L46" t="n">
-        <v>21000</v>
+        <v>15000</v>
       </c>
       <c r="M46" t="n">
-        <v>20467</v>
+        <v>14533</v>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
@@ -3691,10 +3691,10 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>682</v>
+        <v>291</v>
       </c>
       <c r="Q46" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R46" t="inlineStr">
         <is>
@@ -3717,7 +3717,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44761</v>
+        <v>44749</v>
       </c>
       <c r="E47" t="n">
         <v>8</v>
@@ -3741,16 +3741,16 @@
         </is>
       </c>
       <c r="J47" t="n">
-        <v>80</v>
+        <v>250</v>
       </c>
       <c r="K47" t="n">
         <v>13000</v>
       </c>
       <c r="L47" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M47" t="n">
-        <v>13375</v>
+        <v>14200</v>
       </c>
       <c r="N47" t="inlineStr">
         <is>
@@ -3763,7 +3763,7 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>268</v>
+        <v>284</v>
       </c>
       <c r="Q47" t="n">
         <v>50</v>
@@ -3789,7 +3789,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44342</v>
+        <v>44727</v>
       </c>
       <c r="E48" t="n">
         <v>8</v>
@@ -3813,16 +3813,16 @@
         </is>
       </c>
       <c r="J48" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="K48" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="L48" t="n">
-        <v>18000</v>
+        <v>21000</v>
       </c>
       <c r="M48" t="n">
-        <v>17500</v>
+        <v>20467</v>
       </c>
       <c r="N48" t="inlineStr">
         <is>
@@ -3835,7 +3835,7 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>583</v>
+        <v>682</v>
       </c>
       <c r="Q48" t="n">
         <v>30</v>
@@ -3861,7 +3861,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44342</v>
+        <v>44761</v>
       </c>
       <c r="E49" t="n">
         <v>8</v>
@@ -3876,7 +3876,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -3885,20 +3885,20 @@
         </is>
       </c>
       <c r="J49" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="K49" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="L49" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="M49" t="n">
-        <v>15500</v>
+        <v>13375</v>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
@@ -3907,10 +3907,10 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>388</v>
+        <v>268</v>
       </c>
       <c r="Q49" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R49" t="inlineStr">
         <is>
@@ -3933,7 +3933,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44376</v>
+        <v>44342</v>
       </c>
       <c r="E50" t="n">
         <v>8</v>
@@ -3960,13 +3960,13 @@
         <v>100</v>
       </c>
       <c r="K50" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="L50" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="M50" t="n">
-        <v>19500</v>
+        <v>17500</v>
       </c>
       <c r="N50" t="inlineStr">
         <is>
@@ -3979,7 +3979,7 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>650</v>
+        <v>583</v>
       </c>
       <c r="Q50" t="n">
         <v>30</v>
@@ -4005,7 +4005,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44442</v>
+        <v>44342</v>
       </c>
       <c r="E51" t="n">
         <v>8</v>
@@ -4020,7 +4020,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -4032,17 +4032,17 @@
         <v>100</v>
       </c>
       <c r="K51" t="n">
-        <v>14500</v>
+        <v>15000</v>
       </c>
       <c r="L51" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="M51" t="n">
-        <v>14750</v>
+        <v>15500</v>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
@@ -4051,10 +4051,10 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>492</v>
+        <v>388</v>
       </c>
       <c r="Q51" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R51" t="inlineStr">
         <is>
@@ -4077,7 +4077,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44454</v>
+        <v>44376</v>
       </c>
       <c r="E52" t="n">
         <v>8</v>
@@ -4092,7 +4092,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -4104,29 +4104,29 @@
         <v>100</v>
       </c>
       <c r="K52" t="n">
-        <v>13000</v>
+        <v>19000</v>
       </c>
       <c r="L52" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="M52" t="n">
-        <v>13500</v>
+        <v>19500</v>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P52" t="n">
-        <v>338</v>
+        <v>650</v>
       </c>
       <c r="Q52" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R52" t="inlineStr">
         <is>
@@ -4149,7 +4149,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44421</v>
+        <v>44442</v>
       </c>
       <c r="E53" t="n">
         <v>8</v>
@@ -4176,13 +4176,13 @@
         <v>100</v>
       </c>
       <c r="K53" t="n">
-        <v>14000</v>
+        <v>14500</v>
       </c>
       <c r="L53" t="n">
         <v>15000</v>
       </c>
       <c r="M53" t="n">
-        <v>14500</v>
+        <v>14750</v>
       </c>
       <c r="N53" t="inlineStr">
         <is>
@@ -4195,7 +4195,7 @@
         </is>
       </c>
       <c r="P53" t="n">
-        <v>483</v>
+        <v>492</v>
       </c>
       <c r="Q53" t="n">
         <v>30</v>
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44489</v>
+        <v>44454</v>
       </c>
       <c r="E54" t="n">
         <v>8</v>
@@ -4236,7 +4236,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -4248,29 +4248,29 @@
         <v>100</v>
       </c>
       <c r="K54" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="L54" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="M54" t="n">
-        <v>9500</v>
+        <v>13500</v>
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P54" t="n">
-        <v>190</v>
+        <v>338</v>
       </c>
       <c r="Q54" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R54" t="inlineStr">
         <is>
@@ -4293,7 +4293,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44489</v>
+        <v>44421</v>
       </c>
       <c r="E55" t="n">
         <v>8</v>
@@ -4320,13 +4320,13 @@
         <v>100</v>
       </c>
       <c r="K55" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="L55" t="n">
-        <v>8500</v>
+        <v>15000</v>
       </c>
       <c r="M55" t="n">
-        <v>8250</v>
+        <v>14500</v>
       </c>
       <c r="N55" t="inlineStr">
         <is>
@@ -4339,7 +4339,7 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>275</v>
+        <v>483</v>
       </c>
       <c r="Q55" t="n">
         <v>30</v>
@@ -4365,7 +4365,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44699</v>
+        <v>44489</v>
       </c>
       <c r="E56" t="n">
         <v>8</v>
@@ -4380,7 +4380,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -4392,17 +4392,17 @@
         <v>100</v>
       </c>
       <c r="K56" t="n">
-        <v>19000</v>
+        <v>9000</v>
       </c>
       <c r="L56" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="M56" t="n">
-        <v>19500</v>
+        <v>9500</v>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O56" t="inlineStr">
@@ -4411,10 +4411,10 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>650</v>
+        <v>190</v>
       </c>
       <c r="Q56" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R56" t="inlineStr">
         <is>
@@ -4437,7 +4437,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44777</v>
+        <v>44489</v>
       </c>
       <c r="E57" t="n">
         <v>8</v>
@@ -4461,16 +4461,16 @@
         </is>
       </c>
       <c r="J57" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="K57" t="n">
-        <v>18000</v>
+        <v>8000</v>
       </c>
       <c r="L57" t="n">
-        <v>19000</v>
+        <v>8500</v>
       </c>
       <c r="M57" t="n">
-        <v>18545</v>
+        <v>8250</v>
       </c>
       <c r="N57" t="inlineStr">
         <is>
@@ -4483,7 +4483,7 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>618</v>
+        <v>275</v>
       </c>
       <c r="Q57" t="n">
         <v>30</v>
@@ -4509,7 +4509,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44497</v>
+        <v>44699</v>
       </c>
       <c r="E58" t="n">
         <v>8</v>
@@ -4524,7 +4524,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -4533,20 +4533,20 @@
         </is>
       </c>
       <c r="J58" t="n">
-        <v>180</v>
+        <v>100</v>
       </c>
       <c r="K58" t="n">
-        <v>6500</v>
+        <v>19000</v>
       </c>
       <c r="L58" t="n">
-        <v>7000</v>
+        <v>20000</v>
       </c>
       <c r="M58" t="n">
-        <v>6778</v>
+        <v>19500</v>
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O58" t="inlineStr">
@@ -4555,10 +4555,10 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>136</v>
+        <v>650</v>
       </c>
       <c r="Q58" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R58" t="inlineStr">
         <is>
@@ -4581,7 +4581,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44497</v>
+        <v>44777</v>
       </c>
       <c r="E59" t="n">
         <v>8</v>
@@ -4605,16 +4605,16 @@
         </is>
       </c>
       <c r="J59" t="n">
-        <v>200</v>
+        <v>110</v>
       </c>
       <c r="K59" t="n">
-        <v>7000</v>
+        <v>18000</v>
       </c>
       <c r="L59" t="n">
-        <v>7500</v>
+        <v>19000</v>
       </c>
       <c r="M59" t="n">
-        <v>7250</v>
+        <v>18545</v>
       </c>
       <c r="N59" t="inlineStr">
         <is>
@@ -4627,7 +4627,7 @@
         </is>
       </c>
       <c r="P59" t="n">
-        <v>242</v>
+        <v>618</v>
       </c>
       <c r="Q59" t="n">
         <v>30</v>
@@ -4668,7 +4668,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -4677,32 +4677,32 @@
         </is>
       </c>
       <c r="J60" t="n">
-        <v>130</v>
+        <v>180</v>
       </c>
       <c r="K60" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="L60" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="M60" t="n">
-        <v>6192</v>
+        <v>6778</v>
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P60" t="n">
-        <v>155</v>
+        <v>136</v>
       </c>
       <c r="Q60" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R60" t="inlineStr">
         <is>
@@ -4725,7 +4725,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44435</v>
+        <v>44497</v>
       </c>
       <c r="E61" t="n">
         <v>8</v>
@@ -4740,7 +4740,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -4749,20 +4749,20 @@
         </is>
       </c>
       <c r="J61" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K61" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="L61" t="n">
-        <v>15000</v>
+        <v>7500</v>
       </c>
       <c r="M61" t="n">
-        <v>14500</v>
+        <v>7250</v>
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O61" t="inlineStr">
@@ -4771,10 +4771,10 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>290</v>
+        <v>242</v>
       </c>
       <c r="Q61" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R61" t="inlineStr">
         <is>
@@ -4797,7 +4797,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44484</v>
+        <v>44497</v>
       </c>
       <c r="E62" t="n">
         <v>8</v>
@@ -4812,7 +4812,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
@@ -4821,32 +4821,32 @@
         </is>
       </c>
       <c r="J62" t="n">
-        <v>220</v>
+        <v>130</v>
       </c>
       <c r="K62" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L62" t="n">
-        <v>9000</v>
+        <v>6500</v>
       </c>
       <c r="M62" t="n">
-        <v>8455</v>
+        <v>6192</v>
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P62" t="n">
-        <v>169</v>
+        <v>155</v>
       </c>
       <c r="Q62" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R62" t="inlineStr">
         <is>
@@ -4869,7 +4869,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44484</v>
+        <v>44435</v>
       </c>
       <c r="E63" t="n">
         <v>8</v>
@@ -4884,7 +4884,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
@@ -4893,20 +4893,20 @@
         </is>
       </c>
       <c r="J63" t="n">
-        <v>220</v>
+        <v>100</v>
       </c>
       <c r="K63" t="n">
-        <v>7500</v>
+        <v>14000</v>
       </c>
       <c r="L63" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="M63" t="n">
-        <v>7727</v>
+        <v>14500</v>
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O63" t="inlineStr">
@@ -4915,10 +4915,10 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>258</v>
+        <v>290</v>
       </c>
       <c r="Q63" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R63" t="inlineStr">
         <is>
@@ -4941,7 +4941,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44463</v>
+        <v>44484</v>
       </c>
       <c r="E64" t="n">
         <v>8</v>
@@ -4965,16 +4965,16 @@
         </is>
       </c>
       <c r="J64" t="n">
-        <v>100</v>
+        <v>220</v>
       </c>
       <c r="K64" t="n">
+        <v>8000</v>
+      </c>
+      <c r="L64" t="n">
         <v>9000</v>
       </c>
-      <c r="L64" t="n">
-        <v>10000</v>
-      </c>
       <c r="M64" t="n">
-        <v>9500</v>
+        <v>8455</v>
       </c>
       <c r="N64" t="inlineStr">
         <is>
@@ -4987,12 +4987,156 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>190</v>
+        <v>169</v>
       </c>
       <c r="Q64" t="n">
         <v>50</v>
       </c>
       <c r="R64" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>11</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D65" s="2" t="n">
+        <v>44484</v>
+      </c>
+      <c r="E65" t="n">
+        <v>8</v>
+      </c>
+      <c r="F65" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>Española</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J65" t="n">
+        <v>220</v>
+      </c>
+      <c r="K65" t="n">
+        <v>7500</v>
+      </c>
+      <c r="L65" t="n">
+        <v>8000</v>
+      </c>
+      <c r="M65" t="n">
+        <v>7727</v>
+      </c>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>$/caja 30 unidades</t>
+        </is>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P65" t="n">
+        <v>258</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>30</v>
+      </c>
+      <c r="R65" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>11</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D66" s="2" t="n">
+        <v>44463</v>
+      </c>
+      <c r="E66" t="n">
+        <v>8</v>
+      </c>
+      <c r="F66" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>Argentina(o)</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J66" t="n">
+        <v>100</v>
+      </c>
+      <c r="K66" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L66" t="n">
+        <v>10000</v>
+      </c>
+      <c r="M66" t="n">
+        <v>9500</v>
+      </c>
+      <c r="N66" t="inlineStr">
+        <is>
+          <t>$/caja 50 unidades</t>
+        </is>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P66" t="n">
+        <v>190</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>50</v>
+      </c>
+      <c r="R66" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Alcachofa.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Alcachofa.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R66"/>
+  <dimension ref="A1:R68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44385</v>
+        <v>44803</v>
       </c>
       <c r="E30" t="n">
         <v>8</v>
@@ -2508,7 +2508,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -2517,20 +2517,20 @@
         </is>
       </c>
       <c r="J30" t="n">
-        <v>100</v>
+        <v>170</v>
       </c>
       <c r="K30" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="L30" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="M30" t="n">
-        <v>17500</v>
+        <v>13529</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
@@ -2539,10 +2539,10 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>583</v>
+        <v>271</v>
       </c>
       <c r="Q30" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R30" t="inlineStr">
         <is>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44755</v>
+        <v>44803</v>
       </c>
       <c r="E31" t="n">
         <v>8</v>
@@ -2580,7 +2580,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -2589,20 +2589,20 @@
         </is>
       </c>
       <c r="J31" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="K31" t="n">
+        <v>15000</v>
+      </c>
+      <c r="L31" t="n">
         <v>16000</v>
       </c>
-      <c r="L31" t="n">
-        <v>17000</v>
-      </c>
       <c r="M31" t="n">
-        <v>16500</v>
+        <v>15467</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
@@ -2611,10 +2611,10 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>330</v>
+        <v>516</v>
       </c>
       <c r="Q31" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R31" t="inlineStr">
         <is>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44755</v>
+        <v>44385</v>
       </c>
       <c r="E32" t="n">
         <v>8</v>
@@ -2664,13 +2664,13 @@
         <v>100</v>
       </c>
       <c r="K32" t="n">
+        <v>17000</v>
+      </c>
+      <c r="L32" t="n">
         <v>18000</v>
       </c>
-      <c r="L32" t="n">
-        <v>20000</v>
-      </c>
       <c r="M32" t="n">
-        <v>19000</v>
+        <v>17500</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
@@ -2683,7 +2683,7 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>633</v>
+        <v>583</v>
       </c>
       <c r="Q32" t="n">
         <v>30</v>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44350</v>
+        <v>44755</v>
       </c>
       <c r="E33" t="n">
         <v>8</v>
@@ -2733,16 +2733,16 @@
         </is>
       </c>
       <c r="J33" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="K33" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="L33" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="M33" t="n">
-        <v>15600</v>
+        <v>16500</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
@@ -2755,7 +2755,7 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>312</v>
+        <v>330</v>
       </c>
       <c r="Q33" t="n">
         <v>50</v>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44350</v>
+        <v>44755</v>
       </c>
       <c r="E34" t="n">
         <v>8</v>
@@ -2805,16 +2805,16 @@
         </is>
       </c>
       <c r="J34" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="K34" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="L34" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="M34" t="n">
-        <v>17500</v>
+        <v>19000</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>583</v>
+        <v>633</v>
       </c>
       <c r="Q34" t="n">
         <v>30</v>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44721</v>
+        <v>44350</v>
       </c>
       <c r="E35" t="n">
         <v>8</v>
@@ -2868,7 +2868,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -2877,20 +2877,20 @@
         </is>
       </c>
       <c r="J35" t="n">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="K35" t="n">
-        <v>19000</v>
+        <v>15000</v>
       </c>
       <c r="L35" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="M35" t="n">
-        <v>19533</v>
+        <v>15600</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
@@ -2899,10 +2899,10 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>651</v>
+        <v>312</v>
       </c>
       <c r="Q35" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R35" t="inlineStr">
         <is>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44706</v>
+        <v>44350</v>
       </c>
       <c r="E36" t="n">
         <v>8</v>
@@ -2949,16 +2949,16 @@
         </is>
       </c>
       <c r="J36" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="K36" t="n">
-        <v>23000</v>
+        <v>17000</v>
       </c>
       <c r="L36" t="n">
-        <v>24000</v>
+        <v>18000</v>
       </c>
       <c r="M36" t="n">
-        <v>23400</v>
+        <v>17500</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>780</v>
+        <v>583</v>
       </c>
       <c r="Q36" t="n">
         <v>30</v>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44784</v>
+        <v>44721</v>
       </c>
       <c r="E37" t="n">
         <v>8</v>
@@ -3021,16 +3021,16 @@
         </is>
       </c>
       <c r="J37" t="n">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="K37" t="n">
-        <v>14000</v>
+        <v>19000</v>
       </c>
       <c r="L37" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="M37" t="n">
-        <v>14400</v>
+        <v>19533</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
@@ -3043,7 +3043,7 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>480</v>
+        <v>651</v>
       </c>
       <c r="Q37" t="n">
         <v>30</v>
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44757</v>
+        <v>44706</v>
       </c>
       <c r="E38" t="n">
         <v>8</v>
@@ -3084,7 +3084,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -3096,17 +3096,17 @@
         <v>50</v>
       </c>
       <c r="K38" t="n">
-        <v>14000</v>
+        <v>23000</v>
       </c>
       <c r="L38" t="n">
-        <v>15000</v>
+        <v>24000</v>
       </c>
       <c r="M38" t="n">
-        <v>14400</v>
+        <v>23400</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
@@ -3115,10 +3115,10 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>288</v>
+        <v>780</v>
       </c>
       <c r="Q38" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R38" t="inlineStr">
         <is>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44776</v>
+        <v>44784</v>
       </c>
       <c r="E39" t="n">
         <v>8</v>
@@ -3165,16 +3165,16 @@
         </is>
       </c>
       <c r="J39" t="n">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="K39" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="L39" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M39" t="n">
-        <v>17467</v>
+        <v>14400</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
@@ -3187,7 +3187,7 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>582</v>
+        <v>480</v>
       </c>
       <c r="Q39" t="n">
         <v>30</v>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44496</v>
+        <v>44757</v>
       </c>
       <c r="E40" t="n">
         <v>8</v>
@@ -3228,7 +3228,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -3237,32 +3237,32 @@
         </is>
       </c>
       <c r="J40" t="n">
-        <v>350</v>
+        <v>50</v>
       </c>
       <c r="K40" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="L40" t="n">
-        <v>7500</v>
+        <v>15000</v>
       </c>
       <c r="M40" t="n">
-        <v>7214</v>
+        <v>14400</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P40" t="n">
-        <v>180</v>
+        <v>288</v>
       </c>
       <c r="Q40" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R40" t="inlineStr">
         <is>
@@ -3285,7 +3285,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44741</v>
+        <v>44776</v>
       </c>
       <c r="E41" t="n">
         <v>8</v>
@@ -3300,7 +3300,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -3309,20 +3309,20 @@
         </is>
       </c>
       <c r="J41" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="K41" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="L41" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="M41" t="n">
-        <v>16500</v>
+        <v>17467</v>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
@@ -3331,10 +3331,10 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>330</v>
+        <v>582</v>
       </c>
       <c r="Q41" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R41" t="inlineStr">
         <is>
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44741</v>
+        <v>44496</v>
       </c>
       <c r="E42" t="n">
         <v>8</v>
@@ -3372,7 +3372,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -3381,32 +3381,32 @@
         </is>
       </c>
       <c r="J42" t="n">
-        <v>100</v>
+        <v>350</v>
       </c>
       <c r="K42" t="n">
-        <v>20000</v>
+        <v>7000</v>
       </c>
       <c r="L42" t="n">
-        <v>22000</v>
+        <v>7500</v>
       </c>
       <c r="M42" t="n">
-        <v>21000</v>
+        <v>7214</v>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P42" t="n">
-        <v>700</v>
+        <v>180</v>
       </c>
       <c r="Q42" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R42" t="inlineStr">
         <is>
@@ -3429,7 +3429,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44441</v>
+        <v>44741</v>
       </c>
       <c r="E43" t="n">
         <v>8</v>
@@ -3444,7 +3444,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -3456,17 +3456,17 @@
         <v>100</v>
       </c>
       <c r="K43" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="L43" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="M43" t="n">
-        <v>13500</v>
+        <v>16500</v>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
@@ -3475,10 +3475,10 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>450</v>
+        <v>330</v>
       </c>
       <c r="Q43" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R43" t="inlineStr">
         <is>
@@ -3501,7 +3501,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44335</v>
+        <v>44741</v>
       </c>
       <c r="E44" t="n">
         <v>8</v>
@@ -3528,13 +3528,13 @@
         <v>100</v>
       </c>
       <c r="K44" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="L44" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="M44" t="n">
-        <v>17500</v>
+        <v>21000</v>
       </c>
       <c r="N44" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>583</v>
+        <v>700</v>
       </c>
       <c r="Q44" t="n">
         <v>30</v>
@@ -3573,7 +3573,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44764</v>
+        <v>44441</v>
       </c>
       <c r="E45" t="n">
         <v>8</v>
@@ -3588,7 +3588,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -3597,20 +3597,20 @@
         </is>
       </c>
       <c r="J45" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="K45" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="L45" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="M45" t="n">
-        <v>15429</v>
+        <v>13500</v>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
@@ -3619,10 +3619,10 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>386</v>
+        <v>450</v>
       </c>
       <c r="Q45" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R45" t="inlineStr">
         <is>
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44778</v>
+        <v>44335</v>
       </c>
       <c r="E46" t="n">
         <v>8</v>
@@ -3660,7 +3660,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -3669,20 +3669,20 @@
         </is>
       </c>
       <c r="J46" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="K46" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="L46" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M46" t="n">
-        <v>14533</v>
+        <v>17500</v>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
@@ -3691,10 +3691,10 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>291</v>
+        <v>583</v>
       </c>
       <c r="Q46" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R46" t="inlineStr">
         <is>
@@ -3717,7 +3717,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44749</v>
+        <v>44764</v>
       </c>
       <c r="E47" t="n">
         <v>8</v>
@@ -3732,7 +3732,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -3741,20 +3741,20 @@
         </is>
       </c>
       <c r="J47" t="n">
-        <v>250</v>
+        <v>140</v>
       </c>
       <c r="K47" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="L47" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="M47" t="n">
-        <v>14200</v>
+        <v>15429</v>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
@@ -3763,10 +3763,10 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>284</v>
+        <v>386</v>
       </c>
       <c r="Q47" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R47" t="inlineStr">
         <is>
@@ -3789,7 +3789,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44727</v>
+        <v>44778</v>
       </c>
       <c r="E48" t="n">
         <v>8</v>
@@ -3804,7 +3804,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -3816,17 +3816,17 @@
         <v>150</v>
       </c>
       <c r="K48" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="L48" t="n">
-        <v>21000</v>
+        <v>15000</v>
       </c>
       <c r="M48" t="n">
-        <v>20467</v>
+        <v>14533</v>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
@@ -3835,10 +3835,10 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>682</v>
+        <v>291</v>
       </c>
       <c r="Q48" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R48" t="inlineStr">
         <is>
@@ -3861,7 +3861,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44761</v>
+        <v>44749</v>
       </c>
       <c r="E49" t="n">
         <v>8</v>
@@ -3885,16 +3885,16 @@
         </is>
       </c>
       <c r="J49" t="n">
-        <v>80</v>
+        <v>250</v>
       </c>
       <c r="K49" t="n">
         <v>13000</v>
       </c>
       <c r="L49" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M49" t="n">
-        <v>13375</v>
+        <v>14200</v>
       </c>
       <c r="N49" t="inlineStr">
         <is>
@@ -3907,7 +3907,7 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>268</v>
+        <v>284</v>
       </c>
       <c r="Q49" t="n">
         <v>50</v>
@@ -3933,7 +3933,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44342</v>
+        <v>44727</v>
       </c>
       <c r="E50" t="n">
         <v>8</v>
@@ -3957,16 +3957,16 @@
         </is>
       </c>
       <c r="J50" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="K50" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="L50" t="n">
-        <v>18000</v>
+        <v>21000</v>
       </c>
       <c r="M50" t="n">
-        <v>17500</v>
+        <v>20467</v>
       </c>
       <c r="N50" t="inlineStr">
         <is>
@@ -3979,7 +3979,7 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>583</v>
+        <v>682</v>
       </c>
       <c r="Q50" t="n">
         <v>30</v>
@@ -4005,7 +4005,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44342</v>
+        <v>44761</v>
       </c>
       <c r="E51" t="n">
         <v>8</v>
@@ -4020,7 +4020,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -4029,20 +4029,20 @@
         </is>
       </c>
       <c r="J51" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="K51" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="L51" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="M51" t="n">
-        <v>15500</v>
+        <v>13375</v>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
@@ -4051,10 +4051,10 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>388</v>
+        <v>268</v>
       </c>
       <c r="Q51" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R51" t="inlineStr">
         <is>
@@ -4077,7 +4077,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44376</v>
+        <v>44342</v>
       </c>
       <c r="E52" t="n">
         <v>8</v>
@@ -4104,13 +4104,13 @@
         <v>100</v>
       </c>
       <c r="K52" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="L52" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="M52" t="n">
-        <v>19500</v>
+        <v>17500</v>
       </c>
       <c r="N52" t="inlineStr">
         <is>
@@ -4123,7 +4123,7 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>650</v>
+        <v>583</v>
       </c>
       <c r="Q52" t="n">
         <v>30</v>
@@ -4149,7 +4149,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44442</v>
+        <v>44342</v>
       </c>
       <c r="E53" t="n">
         <v>8</v>
@@ -4164,7 +4164,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -4176,17 +4176,17 @@
         <v>100</v>
       </c>
       <c r="K53" t="n">
-        <v>14500</v>
+        <v>15000</v>
       </c>
       <c r="L53" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="M53" t="n">
-        <v>14750</v>
+        <v>15500</v>
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O53" t="inlineStr">
@@ -4195,10 +4195,10 @@
         </is>
       </c>
       <c r="P53" t="n">
-        <v>492</v>
+        <v>388</v>
       </c>
       <c r="Q53" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R53" t="inlineStr">
         <is>
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44454</v>
+        <v>44376</v>
       </c>
       <c r="E54" t="n">
         <v>8</v>
@@ -4236,7 +4236,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -4248,29 +4248,29 @@
         <v>100</v>
       </c>
       <c r="K54" t="n">
-        <v>13000</v>
+        <v>19000</v>
       </c>
       <c r="L54" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="M54" t="n">
-        <v>13500</v>
+        <v>19500</v>
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P54" t="n">
-        <v>338</v>
+        <v>650</v>
       </c>
       <c r="Q54" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R54" t="inlineStr">
         <is>
@@ -4293,7 +4293,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44421</v>
+        <v>44442</v>
       </c>
       <c r="E55" t="n">
         <v>8</v>
@@ -4320,13 +4320,13 @@
         <v>100</v>
       </c>
       <c r="K55" t="n">
-        <v>14000</v>
+        <v>14500</v>
       </c>
       <c r="L55" t="n">
         <v>15000</v>
       </c>
       <c r="M55" t="n">
-        <v>14500</v>
+        <v>14750</v>
       </c>
       <c r="N55" t="inlineStr">
         <is>
@@ -4339,7 +4339,7 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>483</v>
+        <v>492</v>
       </c>
       <c r="Q55" t="n">
         <v>30</v>
@@ -4365,7 +4365,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44489</v>
+        <v>44454</v>
       </c>
       <c r="E56" t="n">
         <v>8</v>
@@ -4380,7 +4380,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -4392,29 +4392,29 @@
         <v>100</v>
       </c>
       <c r="K56" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="L56" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="M56" t="n">
-        <v>9500</v>
+        <v>13500</v>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P56" t="n">
-        <v>190</v>
+        <v>338</v>
       </c>
       <c r="Q56" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R56" t="inlineStr">
         <is>
@@ -4437,7 +4437,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44489</v>
+        <v>44421</v>
       </c>
       <c r="E57" t="n">
         <v>8</v>
@@ -4464,13 +4464,13 @@
         <v>100</v>
       </c>
       <c r="K57" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="L57" t="n">
-        <v>8500</v>
+        <v>15000</v>
       </c>
       <c r="M57" t="n">
-        <v>8250</v>
+        <v>14500</v>
       </c>
       <c r="N57" t="inlineStr">
         <is>
@@ -4483,7 +4483,7 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>275</v>
+        <v>483</v>
       </c>
       <c r="Q57" t="n">
         <v>30</v>
@@ -4509,7 +4509,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44699</v>
+        <v>44489</v>
       </c>
       <c r="E58" t="n">
         <v>8</v>
@@ -4524,7 +4524,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -4536,17 +4536,17 @@
         <v>100</v>
       </c>
       <c r="K58" t="n">
-        <v>19000</v>
+        <v>9000</v>
       </c>
       <c r="L58" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="M58" t="n">
-        <v>19500</v>
+        <v>9500</v>
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O58" t="inlineStr">
@@ -4555,10 +4555,10 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>650</v>
+        <v>190</v>
       </c>
       <c r="Q58" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R58" t="inlineStr">
         <is>
@@ -4581,7 +4581,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44777</v>
+        <v>44489</v>
       </c>
       <c r="E59" t="n">
         <v>8</v>
@@ -4605,16 +4605,16 @@
         </is>
       </c>
       <c r="J59" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="K59" t="n">
-        <v>18000</v>
+        <v>8000</v>
       </c>
       <c r="L59" t="n">
-        <v>19000</v>
+        <v>8500</v>
       </c>
       <c r="M59" t="n">
-        <v>18545</v>
+        <v>8250</v>
       </c>
       <c r="N59" t="inlineStr">
         <is>
@@ -4627,7 +4627,7 @@
         </is>
       </c>
       <c r="P59" t="n">
-        <v>618</v>
+        <v>275</v>
       </c>
       <c r="Q59" t="n">
         <v>30</v>
@@ -4653,7 +4653,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44497</v>
+        <v>44699</v>
       </c>
       <c r="E60" t="n">
         <v>8</v>
@@ -4668,7 +4668,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -4677,20 +4677,20 @@
         </is>
       </c>
       <c r="J60" t="n">
-        <v>180</v>
+        <v>100</v>
       </c>
       <c r="K60" t="n">
-        <v>6500</v>
+        <v>19000</v>
       </c>
       <c r="L60" t="n">
-        <v>7000</v>
+        <v>20000</v>
       </c>
       <c r="M60" t="n">
-        <v>6778</v>
+        <v>19500</v>
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O60" t="inlineStr">
@@ -4699,10 +4699,10 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>136</v>
+        <v>650</v>
       </c>
       <c r="Q60" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R60" t="inlineStr">
         <is>
@@ -4725,7 +4725,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44497</v>
+        <v>44777</v>
       </c>
       <c r="E61" t="n">
         <v>8</v>
@@ -4749,16 +4749,16 @@
         </is>
       </c>
       <c r="J61" t="n">
-        <v>200</v>
+        <v>110</v>
       </c>
       <c r="K61" t="n">
-        <v>7000</v>
+        <v>18000</v>
       </c>
       <c r="L61" t="n">
-        <v>7500</v>
+        <v>19000</v>
       </c>
       <c r="M61" t="n">
-        <v>7250</v>
+        <v>18545</v>
       </c>
       <c r="N61" t="inlineStr">
         <is>
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>242</v>
+        <v>618</v>
       </c>
       <c r="Q61" t="n">
         <v>30</v>
@@ -4812,7 +4812,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
@@ -4821,32 +4821,32 @@
         </is>
       </c>
       <c r="J62" t="n">
-        <v>130</v>
+        <v>180</v>
       </c>
       <c r="K62" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="L62" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="M62" t="n">
-        <v>6192</v>
+        <v>6778</v>
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P62" t="n">
-        <v>155</v>
+        <v>136</v>
       </c>
       <c r="Q62" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R62" t="inlineStr">
         <is>
@@ -4869,7 +4869,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44435</v>
+        <v>44497</v>
       </c>
       <c r="E63" t="n">
         <v>8</v>
@@ -4884,7 +4884,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
@@ -4893,20 +4893,20 @@
         </is>
       </c>
       <c r="J63" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K63" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="L63" t="n">
-        <v>15000</v>
+        <v>7500</v>
       </c>
       <c r="M63" t="n">
-        <v>14500</v>
+        <v>7250</v>
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O63" t="inlineStr">
@@ -4915,10 +4915,10 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>290</v>
+        <v>242</v>
       </c>
       <c r="Q63" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R63" t="inlineStr">
         <is>
@@ -4941,7 +4941,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44484</v>
+        <v>44497</v>
       </c>
       <c r="E64" t="n">
         <v>8</v>
@@ -4956,7 +4956,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
@@ -4965,32 +4965,32 @@
         </is>
       </c>
       <c r="J64" t="n">
-        <v>220</v>
+        <v>130</v>
       </c>
       <c r="K64" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L64" t="n">
-        <v>9000</v>
+        <v>6500</v>
       </c>
       <c r="M64" t="n">
-        <v>8455</v>
+        <v>6192</v>
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P64" t="n">
-        <v>169</v>
+        <v>155</v>
       </c>
       <c r="Q64" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R64" t="inlineStr">
         <is>
@@ -5013,7 +5013,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44484</v>
+        <v>44435</v>
       </c>
       <c r="E65" t="n">
         <v>8</v>
@@ -5028,7 +5028,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
@@ -5037,20 +5037,20 @@
         </is>
       </c>
       <c r="J65" t="n">
-        <v>220</v>
+        <v>100</v>
       </c>
       <c r="K65" t="n">
-        <v>7500</v>
+        <v>14000</v>
       </c>
       <c r="L65" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="M65" t="n">
-        <v>7727</v>
+        <v>14500</v>
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O65" t="inlineStr">
@@ -5059,10 +5059,10 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>258</v>
+        <v>290</v>
       </c>
       <c r="Q65" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R65" t="inlineStr">
         <is>
@@ -5085,7 +5085,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44463</v>
+        <v>44484</v>
       </c>
       <c r="E66" t="n">
         <v>8</v>
@@ -5109,16 +5109,16 @@
         </is>
       </c>
       <c r="J66" t="n">
-        <v>100</v>
+        <v>220</v>
       </c>
       <c r="K66" t="n">
+        <v>8000</v>
+      </c>
+      <c r="L66" t="n">
         <v>9000</v>
       </c>
-      <c r="L66" t="n">
-        <v>10000</v>
-      </c>
       <c r="M66" t="n">
-        <v>9500</v>
+        <v>8455</v>
       </c>
       <c r="N66" t="inlineStr">
         <is>
@@ -5131,12 +5131,156 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>190</v>
+        <v>169</v>
       </c>
       <c r="Q66" t="n">
         <v>50</v>
       </c>
       <c r="R66" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>11</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D67" s="2" t="n">
+        <v>44484</v>
+      </c>
+      <c r="E67" t="n">
+        <v>8</v>
+      </c>
+      <c r="F67" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>Española</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J67" t="n">
+        <v>220</v>
+      </c>
+      <c r="K67" t="n">
+        <v>7500</v>
+      </c>
+      <c r="L67" t="n">
+        <v>8000</v>
+      </c>
+      <c r="M67" t="n">
+        <v>7727</v>
+      </c>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>$/caja 30 unidades</t>
+        </is>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P67" t="n">
+        <v>258</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>30</v>
+      </c>
+      <c r="R67" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>11</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D68" s="2" t="n">
+        <v>44463</v>
+      </c>
+      <c r="E68" t="n">
+        <v>8</v>
+      </c>
+      <c r="F68" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>Argentina(o)</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J68" t="n">
+        <v>100</v>
+      </c>
+      <c r="K68" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L68" t="n">
+        <v>10000</v>
+      </c>
+      <c r="M68" t="n">
+        <v>9500</v>
+      </c>
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>$/caja 50 unidades</t>
+        </is>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P68" t="n">
+        <v>190</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>50</v>
+      </c>
+      <c r="R68" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Alcachofa.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Alcachofa.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R68"/>
+  <dimension ref="A1:R69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44791</v>
+        <v>44804</v>
       </c>
       <c r="E20" t="n">
         <v>8</v>
@@ -1797,20 +1797,20 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="K20" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="L20" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="M20" t="n">
-        <v>14455</v>
+        <v>11533</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
@@ -1819,10 +1819,10 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>289</v>
+        <v>384</v>
       </c>
       <c r="Q20" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R20" t="inlineStr">
         <is>
@@ -1860,7 +1860,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1869,20 +1869,20 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="K21" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L21" t="n">
         <v>15000</v>
       </c>
-      <c r="L21" t="n">
-        <v>16000</v>
-      </c>
       <c r="M21" t="n">
-        <v>15500</v>
+        <v>14455</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
@@ -1891,10 +1891,10 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>517</v>
+        <v>289</v>
       </c>
       <c r="Q21" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R21" t="inlineStr">
         <is>
@@ -1932,7 +1932,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1941,20 +1941,20 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="K22" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L22" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="M22" t="n">
-        <v>14444</v>
+        <v>15500</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
@@ -1963,10 +1963,10 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>289</v>
+        <v>517</v>
       </c>
       <c r="Q22" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R22" t="inlineStr">
         <is>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44748</v>
+        <v>44791</v>
       </c>
       <c r="E23" t="n">
         <v>8</v>
@@ -2004,7 +2004,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -2013,20 +2013,20 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="K23" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L23" t="n">
         <v>15000</v>
       </c>
-      <c r="L23" t="n">
-        <v>16000</v>
-      </c>
       <c r="M23" t="n">
-        <v>15545</v>
+        <v>14444</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
@@ -2035,10 +2035,10 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>389</v>
+        <v>289</v>
       </c>
       <c r="Q23" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R23" t="inlineStr">
         <is>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44722</v>
+        <v>44748</v>
       </c>
       <c r="E24" t="n">
         <v>8</v>
@@ -2076,7 +2076,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -2085,20 +2085,20 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="K24" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="L24" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="M24" t="n">
-        <v>21333</v>
+        <v>15545</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
@@ -2107,10 +2107,10 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>711</v>
+        <v>389</v>
       </c>
       <c r="Q24" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R24" t="inlineStr">
         <is>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44428</v>
+        <v>44722</v>
       </c>
       <c r="E25" t="n">
         <v>8</v>
@@ -2157,16 +2157,16 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K25" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="L25" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="M25" t="n">
-        <v>14500</v>
+        <v>21333</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>483</v>
+        <v>711</v>
       </c>
       <c r="Q25" t="n">
         <v>30</v>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44426</v>
+        <v>44428</v>
       </c>
       <c r="E26" t="n">
         <v>8</v>
@@ -2220,7 +2220,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -2229,20 +2229,20 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="K26" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L26" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M26" t="n">
-        <v>12600</v>
+        <v>14500</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
@@ -2251,10 +2251,10 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>315</v>
+        <v>483</v>
       </c>
       <c r="Q26" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R26" t="inlineStr">
         <is>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44447</v>
+        <v>44426</v>
       </c>
       <c r="E27" t="n">
         <v>8</v>
@@ -2292,7 +2292,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -2301,20 +2301,20 @@
         </is>
       </c>
       <c r="J27" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K27" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="L27" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M27" t="n">
-        <v>14500</v>
+        <v>12600</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
@@ -2323,10 +2323,10 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>483</v>
+        <v>315</v>
       </c>
       <c r="Q27" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R27" t="inlineStr">
         <is>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44799</v>
+        <v>44447</v>
       </c>
       <c r="E28" t="n">
         <v>8</v>
@@ -2364,7 +2364,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -2373,20 +2373,20 @@
         </is>
       </c>
       <c r="J28" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="K28" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L28" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M28" t="n">
-        <v>13600</v>
+        <v>14500</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
@@ -2395,10 +2395,10 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>272</v>
+        <v>483</v>
       </c>
       <c r="Q28" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R28" t="inlineStr">
         <is>
@@ -2436,7 +2436,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -2448,17 +2448,17 @@
         <v>50</v>
       </c>
       <c r="K29" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L29" t="n">
         <v>14000</v>
       </c>
-      <c r="L29" t="n">
-        <v>15000</v>
-      </c>
       <c r="M29" t="n">
-        <v>14600</v>
+        <v>13600</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
@@ -2467,10 +2467,10 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>487</v>
+        <v>272</v>
       </c>
       <c r="Q29" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R29" t="inlineStr">
         <is>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44803</v>
+        <v>44799</v>
       </c>
       <c r="E30" t="n">
         <v>8</v>
@@ -2508,7 +2508,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -2517,20 +2517,20 @@
         </is>
       </c>
       <c r="J30" t="n">
-        <v>170</v>
+        <v>50</v>
       </c>
       <c r="K30" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L30" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M30" t="n">
-        <v>13529</v>
+        <v>14600</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
@@ -2539,10 +2539,10 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>271</v>
+        <v>487</v>
       </c>
       <c r="Q30" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R30" t="inlineStr">
         <is>
@@ -2580,7 +2580,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -2589,20 +2589,20 @@
         </is>
       </c>
       <c r="J31" t="n">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="K31" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="L31" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="M31" t="n">
-        <v>15467</v>
+        <v>13529</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
@@ -2611,10 +2611,10 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>516</v>
+        <v>271</v>
       </c>
       <c r="Q31" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R31" t="inlineStr">
         <is>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44385</v>
+        <v>44803</v>
       </c>
       <c r="E32" t="n">
         <v>8</v>
@@ -2661,16 +2661,16 @@
         </is>
       </c>
       <c r="J32" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="K32" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="L32" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="M32" t="n">
-        <v>17500</v>
+        <v>15467</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
@@ -2683,7 +2683,7 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>583</v>
+        <v>516</v>
       </c>
       <c r="Q32" t="n">
         <v>30</v>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44755</v>
+        <v>44385</v>
       </c>
       <c r="E33" t="n">
         <v>8</v>
@@ -2724,7 +2724,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -2736,17 +2736,17 @@
         <v>100</v>
       </c>
       <c r="K33" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="L33" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="M33" t="n">
-        <v>16500</v>
+        <v>17500</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
@@ -2755,10 +2755,10 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>330</v>
+        <v>583</v>
       </c>
       <c r="Q33" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R33" t="inlineStr">
         <is>
@@ -2796,7 +2796,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -2808,17 +2808,17 @@
         <v>100</v>
       </c>
       <c r="K34" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="L34" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="M34" t="n">
-        <v>19000</v>
+        <v>16500</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
@@ -2827,10 +2827,10 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>633</v>
+        <v>330</v>
       </c>
       <c r="Q34" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R34" t="inlineStr">
         <is>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44350</v>
+        <v>44755</v>
       </c>
       <c r="E35" t="n">
         <v>8</v>
@@ -2868,7 +2868,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -2877,20 +2877,20 @@
         </is>
       </c>
       <c r="J35" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="K35" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="L35" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="M35" t="n">
-        <v>15600</v>
+        <v>19000</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
@@ -2899,10 +2899,10 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>312</v>
+        <v>633</v>
       </c>
       <c r="Q35" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R35" t="inlineStr">
         <is>
@@ -2940,7 +2940,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -2949,20 +2949,20 @@
         </is>
       </c>
       <c r="J36" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K36" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="L36" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="M36" t="n">
-        <v>17500</v>
+        <v>15600</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
@@ -2971,10 +2971,10 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>583</v>
+        <v>312</v>
       </c>
       <c r="Q36" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R36" t="inlineStr">
         <is>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44721</v>
+        <v>44350</v>
       </c>
       <c r="E37" t="n">
         <v>8</v>
@@ -3021,16 +3021,16 @@
         </is>
       </c>
       <c r="J37" t="n">
-        <v>150</v>
+        <v>40</v>
       </c>
       <c r="K37" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="L37" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="M37" t="n">
-        <v>19533</v>
+        <v>17500</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
@@ -3043,7 +3043,7 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>651</v>
+        <v>583</v>
       </c>
       <c r="Q37" t="n">
         <v>30</v>
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44706</v>
+        <v>44721</v>
       </c>
       <c r="E38" t="n">
         <v>8</v>
@@ -3093,16 +3093,16 @@
         </is>
       </c>
       <c r="J38" t="n">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="K38" t="n">
-        <v>23000</v>
+        <v>19000</v>
       </c>
       <c r="L38" t="n">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="M38" t="n">
-        <v>23400</v>
+        <v>19533</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
@@ -3115,7 +3115,7 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>780</v>
+        <v>651</v>
       </c>
       <c r="Q38" t="n">
         <v>30</v>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44784</v>
+        <v>44706</v>
       </c>
       <c r="E39" t="n">
         <v>8</v>
@@ -3168,13 +3168,13 @@
         <v>50</v>
       </c>
       <c r="K39" t="n">
-        <v>14000</v>
+        <v>23000</v>
       </c>
       <c r="L39" t="n">
-        <v>15000</v>
+        <v>24000</v>
       </c>
       <c r="M39" t="n">
-        <v>14400</v>
+        <v>23400</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
@@ -3187,7 +3187,7 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>480</v>
+        <v>780</v>
       </c>
       <c r="Q39" t="n">
         <v>30</v>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44757</v>
+        <v>44784</v>
       </c>
       <c r="E40" t="n">
         <v>8</v>
@@ -3228,7 +3228,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -3250,7 +3250,7 @@
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
@@ -3259,10 +3259,10 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>288</v>
+        <v>480</v>
       </c>
       <c r="Q40" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R40" t="inlineStr">
         <is>
@@ -3285,7 +3285,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44776</v>
+        <v>44757</v>
       </c>
       <c r="E41" t="n">
         <v>8</v>
@@ -3300,7 +3300,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -3309,20 +3309,20 @@
         </is>
       </c>
       <c r="J41" t="n">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="K41" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="L41" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M41" t="n">
-        <v>17467</v>
+        <v>14400</v>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
@@ -3331,10 +3331,10 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>582</v>
+        <v>288</v>
       </c>
       <c r="Q41" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R41" t="inlineStr">
         <is>
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44496</v>
+        <v>44776</v>
       </c>
       <c r="E42" t="n">
         <v>8</v>
@@ -3372,7 +3372,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -3381,32 +3381,32 @@
         </is>
       </c>
       <c r="J42" t="n">
-        <v>350</v>
+        <v>150</v>
       </c>
       <c r="K42" t="n">
-        <v>7000</v>
+        <v>17000</v>
       </c>
       <c r="L42" t="n">
-        <v>7500</v>
+        <v>18000</v>
       </c>
       <c r="M42" t="n">
-        <v>7214</v>
+        <v>17467</v>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P42" t="n">
-        <v>180</v>
+        <v>582</v>
       </c>
       <c r="Q42" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R42" t="inlineStr">
         <is>
@@ -3429,7 +3429,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44741</v>
+        <v>44496</v>
       </c>
       <c r="E43" t="n">
         <v>8</v>
@@ -3444,7 +3444,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -3453,32 +3453,32 @@
         </is>
       </c>
       <c r="J43" t="n">
-        <v>100</v>
+        <v>350</v>
       </c>
       <c r="K43" t="n">
-        <v>16000</v>
+        <v>7000</v>
       </c>
       <c r="L43" t="n">
-        <v>17000</v>
+        <v>7500</v>
       </c>
       <c r="M43" t="n">
-        <v>16500</v>
+        <v>7214</v>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P43" t="n">
-        <v>330</v>
+        <v>180</v>
       </c>
       <c r="Q43" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R43" t="inlineStr">
         <is>
@@ -3516,7 +3516,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -3528,17 +3528,17 @@
         <v>100</v>
       </c>
       <c r="K44" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="L44" t="n">
-        <v>22000</v>
+        <v>17000</v>
       </c>
       <c r="M44" t="n">
-        <v>21000</v>
+        <v>16500</v>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
@@ -3547,10 +3547,10 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>700</v>
+        <v>330</v>
       </c>
       <c r="Q44" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R44" t="inlineStr">
         <is>
@@ -3573,7 +3573,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44441</v>
+        <v>44741</v>
       </c>
       <c r="E45" t="n">
         <v>8</v>
@@ -3600,13 +3600,13 @@
         <v>100</v>
       </c>
       <c r="K45" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="L45" t="n">
-        <v>14000</v>
+        <v>22000</v>
       </c>
       <c r="M45" t="n">
-        <v>13500</v>
+        <v>21000</v>
       </c>
       <c r="N45" t="inlineStr">
         <is>
@@ -3619,7 +3619,7 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>450</v>
+        <v>700</v>
       </c>
       <c r="Q45" t="n">
         <v>30</v>
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44335</v>
+        <v>44441</v>
       </c>
       <c r="E46" t="n">
         <v>8</v>
@@ -3672,13 +3672,13 @@
         <v>100</v>
       </c>
       <c r="K46" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="L46" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="M46" t="n">
-        <v>17500</v>
+        <v>13500</v>
       </c>
       <c r="N46" t="inlineStr">
         <is>
@@ -3691,7 +3691,7 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>583</v>
+        <v>450</v>
       </c>
       <c r="Q46" t="n">
         <v>30</v>
@@ -3717,7 +3717,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44764</v>
+        <v>44335</v>
       </c>
       <c r="E47" t="n">
         <v>8</v>
@@ -3732,7 +3732,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -3741,20 +3741,20 @@
         </is>
       </c>
       <c r="J47" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="K47" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="L47" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="M47" t="n">
-        <v>15429</v>
+        <v>17500</v>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
@@ -3763,10 +3763,10 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>386</v>
+        <v>583</v>
       </c>
       <c r="Q47" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R47" t="inlineStr">
         <is>
@@ -3789,7 +3789,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44778</v>
+        <v>44764</v>
       </c>
       <c r="E48" t="n">
         <v>8</v>
@@ -3804,7 +3804,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -3813,20 +3813,20 @@
         </is>
       </c>
       <c r="J48" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="K48" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L48" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="M48" t="n">
-        <v>14533</v>
+        <v>15429</v>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
@@ -3835,10 +3835,10 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>291</v>
+        <v>386</v>
       </c>
       <c r="Q48" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R48" t="inlineStr">
         <is>
@@ -3861,7 +3861,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44749</v>
+        <v>44778</v>
       </c>
       <c r="E49" t="n">
         <v>8</v>
@@ -3885,16 +3885,16 @@
         </is>
       </c>
       <c r="J49" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="K49" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L49" t="n">
         <v>15000</v>
       </c>
       <c r="M49" t="n">
-        <v>14200</v>
+        <v>14533</v>
       </c>
       <c r="N49" t="inlineStr">
         <is>
@@ -3907,7 +3907,7 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="Q49" t="n">
         <v>50</v>
@@ -3933,7 +3933,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44727</v>
+        <v>44749</v>
       </c>
       <c r="E50" t="n">
         <v>8</v>
@@ -3948,7 +3948,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -3957,20 +3957,20 @@
         </is>
       </c>
       <c r="J50" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="K50" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="L50" t="n">
-        <v>21000</v>
+        <v>15000</v>
       </c>
       <c r="M50" t="n">
-        <v>20467</v>
+        <v>14200</v>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
@@ -3979,10 +3979,10 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>682</v>
+        <v>284</v>
       </c>
       <c r="Q50" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R50" t="inlineStr">
         <is>
@@ -4005,7 +4005,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44761</v>
+        <v>44727</v>
       </c>
       <c r="E51" t="n">
         <v>8</v>
@@ -4020,7 +4020,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -4029,20 +4029,20 @@
         </is>
       </c>
       <c r="J51" t="n">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="K51" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="L51" t="n">
-        <v>14000</v>
+        <v>21000</v>
       </c>
       <c r="M51" t="n">
-        <v>13375</v>
+        <v>20467</v>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
@@ -4051,10 +4051,10 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>268</v>
+        <v>682</v>
       </c>
       <c r="Q51" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R51" t="inlineStr">
         <is>
@@ -4077,7 +4077,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44342</v>
+        <v>44761</v>
       </c>
       <c r="E52" t="n">
         <v>8</v>
@@ -4092,7 +4092,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -4101,20 +4101,20 @@
         </is>
       </c>
       <c r="J52" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="K52" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="L52" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="M52" t="n">
-        <v>17500</v>
+        <v>13375</v>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
@@ -4123,10 +4123,10 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>583</v>
+        <v>268</v>
       </c>
       <c r="Q52" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R52" t="inlineStr">
         <is>
@@ -4164,7 +4164,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -4176,17 +4176,17 @@
         <v>100</v>
       </c>
       <c r="K53" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="L53" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="M53" t="n">
-        <v>15500</v>
+        <v>17500</v>
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O53" t="inlineStr">
@@ -4195,10 +4195,10 @@
         </is>
       </c>
       <c r="P53" t="n">
-        <v>388</v>
+        <v>583</v>
       </c>
       <c r="Q53" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R53" t="inlineStr">
         <is>
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44376</v>
+        <v>44342</v>
       </c>
       <c r="E54" t="n">
         <v>8</v>
@@ -4236,7 +4236,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -4248,17 +4248,17 @@
         <v>100</v>
       </c>
       <c r="K54" t="n">
-        <v>19000</v>
+        <v>15000</v>
       </c>
       <c r="L54" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="M54" t="n">
-        <v>19500</v>
+        <v>15500</v>
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O54" t="inlineStr">
@@ -4267,10 +4267,10 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>650</v>
+        <v>388</v>
       </c>
       <c r="Q54" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R54" t="inlineStr">
         <is>
@@ -4293,7 +4293,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44442</v>
+        <v>44376</v>
       </c>
       <c r="E55" t="n">
         <v>8</v>
@@ -4320,13 +4320,13 @@
         <v>100</v>
       </c>
       <c r="K55" t="n">
-        <v>14500</v>
+        <v>19000</v>
       </c>
       <c r="L55" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="M55" t="n">
-        <v>14750</v>
+        <v>19500</v>
       </c>
       <c r="N55" t="inlineStr">
         <is>
@@ -4339,7 +4339,7 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>492</v>
+        <v>650</v>
       </c>
       <c r="Q55" t="n">
         <v>30</v>
@@ -4365,7 +4365,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44454</v>
+        <v>44442</v>
       </c>
       <c r="E56" t="n">
         <v>8</v>
@@ -4380,7 +4380,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -4392,29 +4392,29 @@
         <v>100</v>
       </c>
       <c r="K56" t="n">
-        <v>13000</v>
+        <v>14500</v>
       </c>
       <c r="L56" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M56" t="n">
-        <v>13500</v>
+        <v>14750</v>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P56" t="n">
-        <v>338</v>
+        <v>492</v>
       </c>
       <c r="Q56" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R56" t="inlineStr">
         <is>
@@ -4437,7 +4437,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44421</v>
+        <v>44454</v>
       </c>
       <c r="E57" t="n">
         <v>8</v>
@@ -4452,7 +4452,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
@@ -4464,29 +4464,29 @@
         <v>100</v>
       </c>
       <c r="K57" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L57" t="n">
         <v>14000</v>
       </c>
-      <c r="L57" t="n">
-        <v>15000</v>
-      </c>
       <c r="M57" t="n">
-        <v>14500</v>
+        <v>13500</v>
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P57" t="n">
-        <v>483</v>
+        <v>338</v>
       </c>
       <c r="Q57" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R57" t="inlineStr">
         <is>
@@ -4509,7 +4509,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44489</v>
+        <v>44421</v>
       </c>
       <c r="E58" t="n">
         <v>8</v>
@@ -4524,7 +4524,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -4536,17 +4536,17 @@
         <v>100</v>
       </c>
       <c r="K58" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="L58" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="M58" t="n">
-        <v>9500</v>
+        <v>14500</v>
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O58" t="inlineStr">
@@ -4555,10 +4555,10 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>190</v>
+        <v>483</v>
       </c>
       <c r="Q58" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R58" t="inlineStr">
         <is>
@@ -4596,7 +4596,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -4608,17 +4608,17 @@
         <v>100</v>
       </c>
       <c r="K59" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="L59" t="n">
-        <v>8500</v>
+        <v>10000</v>
       </c>
       <c r="M59" t="n">
-        <v>8250</v>
+        <v>9500</v>
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O59" t="inlineStr">
@@ -4627,10 +4627,10 @@
         </is>
       </c>
       <c r="P59" t="n">
-        <v>275</v>
+        <v>190</v>
       </c>
       <c r="Q59" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R59" t="inlineStr">
         <is>
@@ -4653,7 +4653,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44699</v>
+        <v>44489</v>
       </c>
       <c r="E60" t="n">
         <v>8</v>
@@ -4680,13 +4680,13 @@
         <v>100</v>
       </c>
       <c r="K60" t="n">
-        <v>19000</v>
+        <v>8000</v>
       </c>
       <c r="L60" t="n">
-        <v>20000</v>
+        <v>8500</v>
       </c>
       <c r="M60" t="n">
-        <v>19500</v>
+        <v>8250</v>
       </c>
       <c r="N60" t="inlineStr">
         <is>
@@ -4699,7 +4699,7 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>650</v>
+        <v>275</v>
       </c>
       <c r="Q60" t="n">
         <v>30</v>
@@ -4725,7 +4725,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44777</v>
+        <v>44699</v>
       </c>
       <c r="E61" t="n">
         <v>8</v>
@@ -4749,16 +4749,16 @@
         </is>
       </c>
       <c r="J61" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="K61" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="L61" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="M61" t="n">
-        <v>18545</v>
+        <v>19500</v>
       </c>
       <c r="N61" t="inlineStr">
         <is>
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>618</v>
+        <v>650</v>
       </c>
       <c r="Q61" t="n">
         <v>30</v>
@@ -4797,7 +4797,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44497</v>
+        <v>44777</v>
       </c>
       <c r="E62" t="n">
         <v>8</v>
@@ -4812,7 +4812,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
@@ -4821,20 +4821,20 @@
         </is>
       </c>
       <c r="J62" t="n">
-        <v>180</v>
+        <v>110</v>
       </c>
       <c r="K62" t="n">
-        <v>6500</v>
+        <v>18000</v>
       </c>
       <c r="L62" t="n">
-        <v>7000</v>
+        <v>19000</v>
       </c>
       <c r="M62" t="n">
-        <v>6778</v>
+        <v>18545</v>
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O62" t="inlineStr">
@@ -4843,10 +4843,10 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>136</v>
+        <v>618</v>
       </c>
       <c r="Q62" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R62" t="inlineStr">
         <is>
@@ -4884,7 +4884,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
@@ -4893,20 +4893,20 @@
         </is>
       </c>
       <c r="J63" t="n">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="K63" t="n">
+        <v>6500</v>
+      </c>
+      <c r="L63" t="n">
         <v>7000</v>
       </c>
-      <c r="L63" t="n">
-        <v>7500</v>
-      </c>
       <c r="M63" t="n">
-        <v>7250</v>
+        <v>6778</v>
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O63" t="inlineStr">
@@ -4915,10 +4915,10 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>242</v>
+        <v>136</v>
       </c>
       <c r="Q63" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R63" t="inlineStr">
         <is>
@@ -4956,7 +4956,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
@@ -4965,32 +4965,32 @@
         </is>
       </c>
       <c r="J64" t="n">
-        <v>130</v>
+        <v>200</v>
       </c>
       <c r="K64" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L64" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="M64" t="n">
-        <v>6192</v>
+        <v>7250</v>
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P64" t="n">
-        <v>155</v>
+        <v>242</v>
       </c>
       <c r="Q64" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R64" t="inlineStr">
         <is>
@@ -5013,7 +5013,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44435</v>
+        <v>44497</v>
       </c>
       <c r="E65" t="n">
         <v>8</v>
@@ -5028,7 +5028,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
@@ -5037,32 +5037,32 @@
         </is>
       </c>
       <c r="J65" t="n">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="K65" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="L65" t="n">
-        <v>15000</v>
+        <v>6500</v>
       </c>
       <c r="M65" t="n">
-        <v>14500</v>
+        <v>6192</v>
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P65" t="n">
-        <v>290</v>
+        <v>155</v>
       </c>
       <c r="Q65" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R65" t="inlineStr">
         <is>
@@ -5085,7 +5085,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44484</v>
+        <v>44435</v>
       </c>
       <c r="E66" t="n">
         <v>8</v>
@@ -5109,16 +5109,16 @@
         </is>
       </c>
       <c r="J66" t="n">
-        <v>220</v>
+        <v>100</v>
       </c>
       <c r="K66" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="L66" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="M66" t="n">
-        <v>8455</v>
+        <v>14500</v>
       </c>
       <c r="N66" t="inlineStr">
         <is>
@@ -5131,7 +5131,7 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>169</v>
+        <v>290</v>
       </c>
       <c r="Q66" t="n">
         <v>50</v>
@@ -5172,7 +5172,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
@@ -5184,17 +5184,17 @@
         <v>220</v>
       </c>
       <c r="K67" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="L67" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M67" t="n">
-        <v>7727</v>
+        <v>8455</v>
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O67" t="inlineStr">
@@ -5203,10 +5203,10 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>258</v>
+        <v>169</v>
       </c>
       <c r="Q67" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R67" t="inlineStr">
         <is>
@@ -5229,58 +5229,130 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
+        <v>44484</v>
+      </c>
+      <c r="E68" t="n">
+        <v>8</v>
+      </c>
+      <c r="F68" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>Española</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J68" t="n">
+        <v>220</v>
+      </c>
+      <c r="K68" t="n">
+        <v>7500</v>
+      </c>
+      <c r="L68" t="n">
+        <v>8000</v>
+      </c>
+      <c r="M68" t="n">
+        <v>7727</v>
+      </c>
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>$/caja 30 unidades</t>
+        </is>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P68" t="n">
+        <v>258</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>30</v>
+      </c>
+      <c r="R68" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>11</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D69" s="2" t="n">
         <v>44463</v>
       </c>
-      <c r="E68" t="n">
-        <v>8</v>
-      </c>
-      <c r="F68" t="n">
-        <v>100112013</v>
-      </c>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>Alcachofa</t>
-        </is>
-      </c>
-      <c r="H68" t="inlineStr">
+      <c r="E69" t="n">
+        <v>8</v>
+      </c>
+      <c r="F69" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
         <is>
           <t>Argentina(o)</t>
         </is>
       </c>
-      <c r="I68" t="inlineStr">
-        <is>
-          <t>Primera</t>
-        </is>
-      </c>
-      <c r="J68" t="n">
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J69" t="n">
         <v>100</v>
       </c>
-      <c r="K68" t="n">
+      <c r="K69" t="n">
         <v>9000</v>
       </c>
-      <c r="L68" t="n">
+      <c r="L69" t="n">
         <v>10000</v>
       </c>
-      <c r="M68" t="n">
+      <c r="M69" t="n">
         <v>9500</v>
       </c>
-      <c r="N68" t="inlineStr">
+      <c r="N69" t="inlineStr">
         <is>
           <t>$/caja 50 unidades</t>
         </is>
       </c>
-      <c r="O68" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="P68" t="n">
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P69" t="n">
         <v>190</v>
       </c>
-      <c r="Q68" t="n">
+      <c r="Q69" t="n">
         <v>50</v>
       </c>
-      <c r="R68" t="inlineStr">
+      <c r="R69" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Alcachofa.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Alcachofa.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R69"/>
+  <dimension ref="A1:R70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3501,7 +3501,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44741</v>
+        <v>44806</v>
       </c>
       <c r="E44" t="n">
         <v>8</v>
@@ -3525,16 +3525,16 @@
         </is>
       </c>
       <c r="J44" t="n">
-        <v>100</v>
+        <v>220</v>
       </c>
       <c r="K44" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="L44" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="M44" t="n">
-        <v>16500</v>
+        <v>10909</v>
       </c>
       <c r="N44" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>330</v>
+        <v>218</v>
       </c>
       <c r="Q44" t="n">
         <v>50</v>
@@ -3588,7 +3588,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -3600,17 +3600,17 @@
         <v>100</v>
       </c>
       <c r="K45" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="L45" t="n">
-        <v>22000</v>
+        <v>17000</v>
       </c>
       <c r="M45" t="n">
-        <v>21000</v>
+        <v>16500</v>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
@@ -3619,10 +3619,10 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>700</v>
+        <v>330</v>
       </c>
       <c r="Q45" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R45" t="inlineStr">
         <is>
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44441</v>
+        <v>44741</v>
       </c>
       <c r="E46" t="n">
         <v>8</v>
@@ -3672,13 +3672,13 @@
         <v>100</v>
       </c>
       <c r="K46" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="L46" t="n">
-        <v>14000</v>
+        <v>22000</v>
       </c>
       <c r="M46" t="n">
-        <v>13500</v>
+        <v>21000</v>
       </c>
       <c r="N46" t="inlineStr">
         <is>
@@ -3691,7 +3691,7 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>450</v>
+        <v>700</v>
       </c>
       <c r="Q46" t="n">
         <v>30</v>
@@ -3717,7 +3717,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44335</v>
+        <v>44441</v>
       </c>
       <c r="E47" t="n">
         <v>8</v>
@@ -3744,13 +3744,13 @@
         <v>100</v>
       </c>
       <c r="K47" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="L47" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="M47" t="n">
-        <v>17500</v>
+        <v>13500</v>
       </c>
       <c r="N47" t="inlineStr">
         <is>
@@ -3763,7 +3763,7 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>583</v>
+        <v>450</v>
       </c>
       <c r="Q47" t="n">
         <v>30</v>
@@ -3789,7 +3789,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44764</v>
+        <v>44335</v>
       </c>
       <c r="E48" t="n">
         <v>8</v>
@@ -3804,7 +3804,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -3813,20 +3813,20 @@
         </is>
       </c>
       <c r="J48" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="K48" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="L48" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="M48" t="n">
-        <v>15429</v>
+        <v>17500</v>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
@@ -3835,10 +3835,10 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>386</v>
+        <v>583</v>
       </c>
       <c r="Q48" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R48" t="inlineStr">
         <is>
@@ -3861,7 +3861,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44778</v>
+        <v>44764</v>
       </c>
       <c r="E49" t="n">
         <v>8</v>
@@ -3876,7 +3876,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -3885,20 +3885,20 @@
         </is>
       </c>
       <c r="J49" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="K49" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L49" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="M49" t="n">
-        <v>14533</v>
+        <v>15429</v>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
@@ -3907,10 +3907,10 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>291</v>
+        <v>386</v>
       </c>
       <c r="Q49" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R49" t="inlineStr">
         <is>
@@ -3933,7 +3933,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44749</v>
+        <v>44778</v>
       </c>
       <c r="E50" t="n">
         <v>8</v>
@@ -3957,16 +3957,16 @@
         </is>
       </c>
       <c r="J50" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="K50" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L50" t="n">
         <v>15000</v>
       </c>
       <c r="M50" t="n">
-        <v>14200</v>
+        <v>14533</v>
       </c>
       <c r="N50" t="inlineStr">
         <is>
@@ -3979,7 +3979,7 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="Q50" t="n">
         <v>50</v>
@@ -4005,7 +4005,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44727</v>
+        <v>44749</v>
       </c>
       <c r="E51" t="n">
         <v>8</v>
@@ -4020,7 +4020,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -4029,20 +4029,20 @@
         </is>
       </c>
       <c r="J51" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="K51" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="L51" t="n">
-        <v>21000</v>
+        <v>15000</v>
       </c>
       <c r="M51" t="n">
-        <v>20467</v>
+        <v>14200</v>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
@@ -4051,10 +4051,10 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>682</v>
+        <v>284</v>
       </c>
       <c r="Q51" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R51" t="inlineStr">
         <is>
@@ -4077,7 +4077,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44761</v>
+        <v>44727</v>
       </c>
       <c r="E52" t="n">
         <v>8</v>
@@ -4092,7 +4092,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -4101,20 +4101,20 @@
         </is>
       </c>
       <c r="J52" t="n">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="K52" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="L52" t="n">
-        <v>14000</v>
+        <v>21000</v>
       </c>
       <c r="M52" t="n">
-        <v>13375</v>
+        <v>20467</v>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
@@ -4123,10 +4123,10 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>268</v>
+        <v>682</v>
       </c>
       <c r="Q52" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R52" t="inlineStr">
         <is>
@@ -4149,7 +4149,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44342</v>
+        <v>44761</v>
       </c>
       <c r="E53" t="n">
         <v>8</v>
@@ -4164,7 +4164,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -4173,20 +4173,20 @@
         </is>
       </c>
       <c r="J53" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="K53" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="L53" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="M53" t="n">
-        <v>17500</v>
+        <v>13375</v>
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O53" t="inlineStr">
@@ -4195,10 +4195,10 @@
         </is>
       </c>
       <c r="P53" t="n">
-        <v>583</v>
+        <v>268</v>
       </c>
       <c r="Q53" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R53" t="inlineStr">
         <is>
@@ -4236,7 +4236,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -4248,17 +4248,17 @@
         <v>100</v>
       </c>
       <c r="K54" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="L54" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="M54" t="n">
-        <v>15500</v>
+        <v>17500</v>
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O54" t="inlineStr">
@@ -4267,10 +4267,10 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>388</v>
+        <v>583</v>
       </c>
       <c r="Q54" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R54" t="inlineStr">
         <is>
@@ -4293,7 +4293,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44376</v>
+        <v>44342</v>
       </c>
       <c r="E55" t="n">
         <v>8</v>
@@ -4308,7 +4308,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -4320,17 +4320,17 @@
         <v>100</v>
       </c>
       <c r="K55" t="n">
-        <v>19000</v>
+        <v>15000</v>
       </c>
       <c r="L55" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="M55" t="n">
-        <v>19500</v>
+        <v>15500</v>
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O55" t="inlineStr">
@@ -4339,10 +4339,10 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>650</v>
+        <v>388</v>
       </c>
       <c r="Q55" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R55" t="inlineStr">
         <is>
@@ -4365,7 +4365,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44442</v>
+        <v>44376</v>
       </c>
       <c r="E56" t="n">
         <v>8</v>
@@ -4392,13 +4392,13 @@
         <v>100</v>
       </c>
       <c r="K56" t="n">
-        <v>14500</v>
+        <v>19000</v>
       </c>
       <c r="L56" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="M56" t="n">
-        <v>14750</v>
+        <v>19500</v>
       </c>
       <c r="N56" t="inlineStr">
         <is>
@@ -4411,7 +4411,7 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>492</v>
+        <v>650</v>
       </c>
       <c r="Q56" t="n">
         <v>30</v>
@@ -4437,7 +4437,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44454</v>
+        <v>44442</v>
       </c>
       <c r="E57" t="n">
         <v>8</v>
@@ -4452,7 +4452,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
@@ -4464,29 +4464,29 @@
         <v>100</v>
       </c>
       <c r="K57" t="n">
-        <v>13000</v>
+        <v>14500</v>
       </c>
       <c r="L57" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M57" t="n">
-        <v>13500</v>
+        <v>14750</v>
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P57" t="n">
-        <v>338</v>
+        <v>492</v>
       </c>
       <c r="Q57" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R57" t="inlineStr">
         <is>
@@ -4509,7 +4509,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44421</v>
+        <v>44454</v>
       </c>
       <c r="E58" t="n">
         <v>8</v>
@@ -4524,7 +4524,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -4536,29 +4536,29 @@
         <v>100</v>
       </c>
       <c r="K58" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L58" t="n">
         <v>14000</v>
       </c>
-      <c r="L58" t="n">
-        <v>15000</v>
-      </c>
       <c r="M58" t="n">
-        <v>14500</v>
+        <v>13500</v>
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P58" t="n">
-        <v>483</v>
+        <v>338</v>
       </c>
       <c r="Q58" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R58" t="inlineStr">
         <is>
@@ -4581,7 +4581,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44489</v>
+        <v>44421</v>
       </c>
       <c r="E59" t="n">
         <v>8</v>
@@ -4596,7 +4596,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -4608,17 +4608,17 @@
         <v>100</v>
       </c>
       <c r="K59" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="L59" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="M59" t="n">
-        <v>9500</v>
+        <v>14500</v>
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O59" t="inlineStr">
@@ -4627,10 +4627,10 @@
         </is>
       </c>
       <c r="P59" t="n">
-        <v>190</v>
+        <v>483</v>
       </c>
       <c r="Q59" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R59" t="inlineStr">
         <is>
@@ -4668,7 +4668,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -4680,17 +4680,17 @@
         <v>100</v>
       </c>
       <c r="K60" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="L60" t="n">
-        <v>8500</v>
+        <v>10000</v>
       </c>
       <c r="M60" t="n">
-        <v>8250</v>
+        <v>9500</v>
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O60" t="inlineStr">
@@ -4699,10 +4699,10 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>275</v>
+        <v>190</v>
       </c>
       <c r="Q60" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R60" t="inlineStr">
         <is>
@@ -4725,7 +4725,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44699</v>
+        <v>44489</v>
       </c>
       <c r="E61" t="n">
         <v>8</v>
@@ -4752,13 +4752,13 @@
         <v>100</v>
       </c>
       <c r="K61" t="n">
-        <v>19000</v>
+        <v>8000</v>
       </c>
       <c r="L61" t="n">
-        <v>20000</v>
+        <v>8500</v>
       </c>
       <c r="M61" t="n">
-        <v>19500</v>
+        <v>8250</v>
       </c>
       <c r="N61" t="inlineStr">
         <is>
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>650</v>
+        <v>275</v>
       </c>
       <c r="Q61" t="n">
         <v>30</v>
@@ -4797,7 +4797,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44777</v>
+        <v>44699</v>
       </c>
       <c r="E62" t="n">
         <v>8</v>
@@ -4821,16 +4821,16 @@
         </is>
       </c>
       <c r="J62" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="K62" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="L62" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="M62" t="n">
-        <v>18545</v>
+        <v>19500</v>
       </c>
       <c r="N62" t="inlineStr">
         <is>
@@ -4843,7 +4843,7 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>618</v>
+        <v>650</v>
       </c>
       <c r="Q62" t="n">
         <v>30</v>
@@ -4869,7 +4869,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44497</v>
+        <v>44777</v>
       </c>
       <c r="E63" t="n">
         <v>8</v>
@@ -4884,7 +4884,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
@@ -4893,20 +4893,20 @@
         </is>
       </c>
       <c r="J63" t="n">
-        <v>180</v>
+        <v>110</v>
       </c>
       <c r="K63" t="n">
-        <v>6500</v>
+        <v>18000</v>
       </c>
       <c r="L63" t="n">
-        <v>7000</v>
+        <v>19000</v>
       </c>
       <c r="M63" t="n">
-        <v>6778</v>
+        <v>18545</v>
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O63" t="inlineStr">
@@ -4915,10 +4915,10 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>136</v>
+        <v>618</v>
       </c>
       <c r="Q63" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R63" t="inlineStr">
         <is>
@@ -4956,7 +4956,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
@@ -4965,20 +4965,20 @@
         </is>
       </c>
       <c r="J64" t="n">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="K64" t="n">
+        <v>6500</v>
+      </c>
+      <c r="L64" t="n">
         <v>7000</v>
       </c>
-      <c r="L64" t="n">
-        <v>7500</v>
-      </c>
       <c r="M64" t="n">
-        <v>7250</v>
+        <v>6778</v>
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O64" t="inlineStr">
@@ -4987,10 +4987,10 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>242</v>
+        <v>136</v>
       </c>
       <c r="Q64" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R64" t="inlineStr">
         <is>
@@ -5028,7 +5028,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
@@ -5037,32 +5037,32 @@
         </is>
       </c>
       <c r="J65" t="n">
-        <v>130</v>
+        <v>200</v>
       </c>
       <c r="K65" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L65" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="M65" t="n">
-        <v>6192</v>
+        <v>7250</v>
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P65" t="n">
-        <v>155</v>
+        <v>242</v>
       </c>
       <c r="Q65" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R65" t="inlineStr">
         <is>
@@ -5085,7 +5085,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44435</v>
+        <v>44497</v>
       </c>
       <c r="E66" t="n">
         <v>8</v>
@@ -5100,7 +5100,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
@@ -5109,32 +5109,32 @@
         </is>
       </c>
       <c r="J66" t="n">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="K66" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="L66" t="n">
-        <v>15000</v>
+        <v>6500</v>
       </c>
       <c r="M66" t="n">
-        <v>14500</v>
+        <v>6192</v>
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P66" t="n">
-        <v>290</v>
+        <v>155</v>
       </c>
       <c r="Q66" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R66" t="inlineStr">
         <is>
@@ -5157,7 +5157,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44484</v>
+        <v>44435</v>
       </c>
       <c r="E67" t="n">
         <v>8</v>
@@ -5181,16 +5181,16 @@
         </is>
       </c>
       <c r="J67" t="n">
-        <v>220</v>
+        <v>100</v>
       </c>
       <c r="K67" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="L67" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="M67" t="n">
-        <v>8455</v>
+        <v>14500</v>
       </c>
       <c r="N67" t="inlineStr">
         <is>
@@ -5203,7 +5203,7 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>169</v>
+        <v>290</v>
       </c>
       <c r="Q67" t="n">
         <v>50</v>
@@ -5244,7 +5244,7 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
@@ -5256,17 +5256,17 @@
         <v>220</v>
       </c>
       <c r="K68" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="L68" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M68" t="n">
-        <v>7727</v>
+        <v>8455</v>
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O68" t="inlineStr">
@@ -5275,10 +5275,10 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>258</v>
+        <v>169</v>
       </c>
       <c r="Q68" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R68" t="inlineStr">
         <is>
@@ -5301,58 +5301,130 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
+        <v>44484</v>
+      </c>
+      <c r="E69" t="n">
+        <v>8</v>
+      </c>
+      <c r="F69" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>Española</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J69" t="n">
+        <v>220</v>
+      </c>
+      <c r="K69" t="n">
+        <v>7500</v>
+      </c>
+      <c r="L69" t="n">
+        <v>8000</v>
+      </c>
+      <c r="M69" t="n">
+        <v>7727</v>
+      </c>
+      <c r="N69" t="inlineStr">
+        <is>
+          <t>$/caja 30 unidades</t>
+        </is>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P69" t="n">
+        <v>258</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>30</v>
+      </c>
+      <c r="R69" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>11</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D70" s="2" t="n">
         <v>44463</v>
       </c>
-      <c r="E69" t="n">
-        <v>8</v>
-      </c>
-      <c r="F69" t="n">
-        <v>100112013</v>
-      </c>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>Alcachofa</t>
-        </is>
-      </c>
-      <c r="H69" t="inlineStr">
+      <c r="E70" t="n">
+        <v>8</v>
+      </c>
+      <c r="F70" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
         <is>
           <t>Argentina(o)</t>
         </is>
       </c>
-      <c r="I69" t="inlineStr">
-        <is>
-          <t>Primera</t>
-        </is>
-      </c>
-      <c r="J69" t="n">
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J70" t="n">
         <v>100</v>
       </c>
-      <c r="K69" t="n">
+      <c r="K70" t="n">
         <v>9000</v>
       </c>
-      <c r="L69" t="n">
+      <c r="L70" t="n">
         <v>10000</v>
       </c>
-      <c r="M69" t="n">
+      <c r="M70" t="n">
         <v>9500</v>
       </c>
-      <c r="N69" t="inlineStr">
+      <c r="N70" t="inlineStr">
         <is>
           <t>$/caja 50 unidades</t>
         </is>
       </c>
-      <c r="O69" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="P69" t="n">
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P70" t="n">
         <v>190</v>
       </c>
-      <c r="Q69" t="n">
+      <c r="Q70" t="n">
         <v>50</v>
       </c>
-      <c r="R69" t="inlineStr">
+      <c r="R70" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Alcachofa.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Alcachofa.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R70"/>
+  <dimension ref="A1:R71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44750</v>
+        <v>44811</v>
       </c>
       <c r="E16" t="n">
         <v>8</v>
@@ -1500,7 +1500,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1509,20 +1509,20 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="K16" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="L16" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="M16" t="n">
-        <v>16615</v>
+        <v>12500</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
@@ -1531,10 +1531,10 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>332</v>
+        <v>312</v>
       </c>
       <c r="Q16" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R16" t="inlineStr">
         <is>
@@ -1572,7 +1572,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1581,20 +1581,20 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="K17" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="L17" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="M17" t="n">
-        <v>18909</v>
+        <v>16615</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
@@ -1603,10 +1603,10 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>630</v>
+        <v>332</v>
       </c>
       <c r="Q17" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R17" t="inlineStr">
         <is>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44769</v>
+        <v>44750</v>
       </c>
       <c r="E18" t="n">
         <v>8</v>
@@ -1644,7 +1644,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1653,20 +1653,20 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="K18" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="L18" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="M18" t="n">
-        <v>13500</v>
+        <v>18909</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
@@ -1675,10 +1675,10 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>270</v>
+        <v>630</v>
       </c>
       <c r="Q18" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R18" t="inlineStr">
         <is>
@@ -1716,7 +1716,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1728,17 +1728,17 @@
         <v>100</v>
       </c>
       <c r="K19" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="L19" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="M19" t="n">
-        <v>17000</v>
+        <v>13500</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
@@ -1747,10 +1747,10 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>567</v>
+        <v>270</v>
       </c>
       <c r="Q19" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R19" t="inlineStr">
         <is>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44804</v>
+        <v>44769</v>
       </c>
       <c r="E20" t="n">
         <v>8</v>
@@ -1788,7 +1788,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1797,16 +1797,16 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="K20" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="L20" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="M20" t="n">
-        <v>11533</v>
+        <v>17000</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>384</v>
+        <v>567</v>
       </c>
       <c r="Q20" t="n">
         <v>30</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44791</v>
+        <v>44804</v>
       </c>
       <c r="E21" t="n">
         <v>8</v>
@@ -1869,20 +1869,20 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="K21" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="L21" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="M21" t="n">
-        <v>14455</v>
+        <v>11533</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
@@ -1891,10 +1891,10 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>289</v>
+        <v>384</v>
       </c>
       <c r="Q21" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R21" t="inlineStr">
         <is>
@@ -1932,7 +1932,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1941,20 +1941,20 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="K22" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L22" t="n">
         <v>15000</v>
       </c>
-      <c r="L22" t="n">
-        <v>16000</v>
-      </c>
       <c r="M22" t="n">
-        <v>15500</v>
+        <v>14455</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
@@ -1963,10 +1963,10 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>517</v>
+        <v>289</v>
       </c>
       <c r="Q22" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R22" t="inlineStr">
         <is>
@@ -2004,7 +2004,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -2013,20 +2013,20 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="K23" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L23" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="M23" t="n">
-        <v>14444</v>
+        <v>15500</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
@@ -2035,10 +2035,10 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>289</v>
+        <v>517</v>
       </c>
       <c r="Q23" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R23" t="inlineStr">
         <is>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44748</v>
+        <v>44791</v>
       </c>
       <c r="E24" t="n">
         <v>8</v>
@@ -2076,7 +2076,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -2085,20 +2085,20 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="K24" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L24" t="n">
         <v>15000</v>
       </c>
-      <c r="L24" t="n">
-        <v>16000</v>
-      </c>
       <c r="M24" t="n">
-        <v>15545</v>
+        <v>14444</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
@@ -2107,10 +2107,10 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>389</v>
+        <v>289</v>
       </c>
       <c r="Q24" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R24" t="inlineStr">
         <is>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44722</v>
+        <v>44748</v>
       </c>
       <c r="E25" t="n">
         <v>8</v>
@@ -2148,7 +2148,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -2157,20 +2157,20 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="K25" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="L25" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="M25" t="n">
-        <v>21333</v>
+        <v>15545</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
@@ -2179,10 +2179,10 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>711</v>
+        <v>389</v>
       </c>
       <c r="Q25" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R25" t="inlineStr">
         <is>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44428</v>
+        <v>44722</v>
       </c>
       <c r="E26" t="n">
         <v>8</v>
@@ -2229,16 +2229,16 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K26" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="L26" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="M26" t="n">
-        <v>14500</v>
+        <v>21333</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
@@ -2251,7 +2251,7 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>483</v>
+        <v>711</v>
       </c>
       <c r="Q26" t="n">
         <v>30</v>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44426</v>
+        <v>44428</v>
       </c>
       <c r="E27" t="n">
         <v>8</v>
@@ -2292,7 +2292,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -2301,20 +2301,20 @@
         </is>
       </c>
       <c r="J27" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="K27" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L27" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M27" t="n">
-        <v>12600</v>
+        <v>14500</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
@@ -2323,10 +2323,10 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>315</v>
+        <v>483</v>
       </c>
       <c r="Q27" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R27" t="inlineStr">
         <is>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44447</v>
+        <v>44426</v>
       </c>
       <c r="E28" t="n">
         <v>8</v>
@@ -2364,7 +2364,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -2373,20 +2373,20 @@
         </is>
       </c>
       <c r="J28" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K28" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="L28" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M28" t="n">
-        <v>14500</v>
+        <v>12600</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
@@ -2395,10 +2395,10 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>483</v>
+        <v>315</v>
       </c>
       <c r="Q28" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R28" t="inlineStr">
         <is>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44799</v>
+        <v>44447</v>
       </c>
       <c r="E29" t="n">
         <v>8</v>
@@ -2436,7 +2436,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -2445,20 +2445,20 @@
         </is>
       </c>
       <c r="J29" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="K29" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L29" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M29" t="n">
-        <v>13600</v>
+        <v>14500</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
@@ -2467,10 +2467,10 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>272</v>
+        <v>483</v>
       </c>
       <c r="Q29" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R29" t="inlineStr">
         <is>
@@ -2508,7 +2508,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -2520,17 +2520,17 @@
         <v>50</v>
       </c>
       <c r="K30" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L30" t="n">
         <v>14000</v>
       </c>
-      <c r="L30" t="n">
-        <v>15000</v>
-      </c>
       <c r="M30" t="n">
-        <v>14600</v>
+        <v>13600</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
@@ -2539,10 +2539,10 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>487</v>
+        <v>272</v>
       </c>
       <c r="Q30" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R30" t="inlineStr">
         <is>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44803</v>
+        <v>44799</v>
       </c>
       <c r="E31" t="n">
         <v>8</v>
@@ -2580,7 +2580,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -2589,20 +2589,20 @@
         </is>
       </c>
       <c r="J31" t="n">
-        <v>170</v>
+        <v>50</v>
       </c>
       <c r="K31" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L31" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M31" t="n">
-        <v>13529</v>
+        <v>14600</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
@@ -2611,10 +2611,10 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>271</v>
+        <v>487</v>
       </c>
       <c r="Q31" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R31" t="inlineStr">
         <is>
@@ -2652,7 +2652,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -2661,20 +2661,20 @@
         </is>
       </c>
       <c r="J32" t="n">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="K32" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="L32" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="M32" t="n">
-        <v>15467</v>
+        <v>13529</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
@@ -2683,10 +2683,10 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>516</v>
+        <v>271</v>
       </c>
       <c r="Q32" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R32" t="inlineStr">
         <is>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44385</v>
+        <v>44803</v>
       </c>
       <c r="E33" t="n">
         <v>8</v>
@@ -2733,16 +2733,16 @@
         </is>
       </c>
       <c r="J33" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="K33" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="L33" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="M33" t="n">
-        <v>17500</v>
+        <v>15467</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
@@ -2755,7 +2755,7 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>583</v>
+        <v>516</v>
       </c>
       <c r="Q33" t="n">
         <v>30</v>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44755</v>
+        <v>44385</v>
       </c>
       <c r="E34" t="n">
         <v>8</v>
@@ -2796,7 +2796,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -2808,17 +2808,17 @@
         <v>100</v>
       </c>
       <c r="K34" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="L34" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="M34" t="n">
-        <v>16500</v>
+        <v>17500</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
@@ -2827,10 +2827,10 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>330</v>
+        <v>583</v>
       </c>
       <c r="Q34" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R34" t="inlineStr">
         <is>
@@ -2868,7 +2868,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -2880,17 +2880,17 @@
         <v>100</v>
       </c>
       <c r="K35" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="L35" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="M35" t="n">
-        <v>19000</v>
+        <v>16500</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
@@ -2899,10 +2899,10 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>633</v>
+        <v>330</v>
       </c>
       <c r="Q35" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R35" t="inlineStr">
         <is>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44350</v>
+        <v>44755</v>
       </c>
       <c r="E36" t="n">
         <v>8</v>
@@ -2940,7 +2940,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -2949,20 +2949,20 @@
         </is>
       </c>
       <c r="J36" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="K36" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="L36" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="M36" t="n">
-        <v>15600</v>
+        <v>19000</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
@@ -2971,10 +2971,10 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>312</v>
+        <v>633</v>
       </c>
       <c r="Q36" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R36" t="inlineStr">
         <is>
@@ -3012,7 +3012,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -3021,20 +3021,20 @@
         </is>
       </c>
       <c r="J37" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K37" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="L37" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="M37" t="n">
-        <v>17500</v>
+        <v>15600</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
@@ -3043,10 +3043,10 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>583</v>
+        <v>312</v>
       </c>
       <c r="Q37" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R37" t="inlineStr">
         <is>
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44721</v>
+        <v>44350</v>
       </c>
       <c r="E38" t="n">
         <v>8</v>
@@ -3093,16 +3093,16 @@
         </is>
       </c>
       <c r="J38" t="n">
-        <v>150</v>
+        <v>40</v>
       </c>
       <c r="K38" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="L38" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="M38" t="n">
-        <v>19533</v>
+        <v>17500</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
@@ -3115,7 +3115,7 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>651</v>
+        <v>583</v>
       </c>
       <c r="Q38" t="n">
         <v>30</v>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44706</v>
+        <v>44721</v>
       </c>
       <c r="E39" t="n">
         <v>8</v>
@@ -3165,16 +3165,16 @@
         </is>
       </c>
       <c r="J39" t="n">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="K39" t="n">
-        <v>23000</v>
+        <v>19000</v>
       </c>
       <c r="L39" t="n">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="M39" t="n">
-        <v>23400</v>
+        <v>19533</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
@@ -3187,7 +3187,7 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>780</v>
+        <v>651</v>
       </c>
       <c r="Q39" t="n">
         <v>30</v>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44784</v>
+        <v>44706</v>
       </c>
       <c r="E40" t="n">
         <v>8</v>
@@ -3240,13 +3240,13 @@
         <v>50</v>
       </c>
       <c r="K40" t="n">
-        <v>14000</v>
+        <v>23000</v>
       </c>
       <c r="L40" t="n">
-        <v>15000</v>
+        <v>24000</v>
       </c>
       <c r="M40" t="n">
-        <v>14400</v>
+        <v>23400</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
@@ -3259,7 +3259,7 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>480</v>
+        <v>780</v>
       </c>
       <c r="Q40" t="n">
         <v>30</v>
@@ -3285,7 +3285,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44757</v>
+        <v>44784</v>
       </c>
       <c r="E41" t="n">
         <v>8</v>
@@ -3300,7 +3300,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -3322,7 +3322,7 @@
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
@@ -3331,10 +3331,10 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>288</v>
+        <v>480</v>
       </c>
       <c r="Q41" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R41" t="inlineStr">
         <is>
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44776</v>
+        <v>44757</v>
       </c>
       <c r="E42" t="n">
         <v>8</v>
@@ -3372,7 +3372,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -3381,20 +3381,20 @@
         </is>
       </c>
       <c r="J42" t="n">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="K42" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="L42" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M42" t="n">
-        <v>17467</v>
+        <v>14400</v>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
@@ -3403,10 +3403,10 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>582</v>
+        <v>288</v>
       </c>
       <c r="Q42" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R42" t="inlineStr">
         <is>
@@ -3429,7 +3429,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44496</v>
+        <v>44776</v>
       </c>
       <c r="E43" t="n">
         <v>8</v>
@@ -3444,7 +3444,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -3453,32 +3453,32 @@
         </is>
       </c>
       <c r="J43" t="n">
-        <v>350</v>
+        <v>150</v>
       </c>
       <c r="K43" t="n">
-        <v>7000</v>
+        <v>17000</v>
       </c>
       <c r="L43" t="n">
-        <v>7500</v>
+        <v>18000</v>
       </c>
       <c r="M43" t="n">
-        <v>7214</v>
+        <v>17467</v>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P43" t="n">
-        <v>180</v>
+        <v>582</v>
       </c>
       <c r="Q43" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R43" t="inlineStr">
         <is>
@@ -3501,7 +3501,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44806</v>
+        <v>44496</v>
       </c>
       <c r="E44" t="n">
         <v>8</v>
@@ -3516,7 +3516,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -3525,32 +3525,32 @@
         </is>
       </c>
       <c r="J44" t="n">
-        <v>220</v>
+        <v>350</v>
       </c>
       <c r="K44" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="L44" t="n">
-        <v>12000</v>
+        <v>7500</v>
       </c>
       <c r="M44" t="n">
-        <v>10909</v>
+        <v>7214</v>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P44" t="n">
-        <v>218</v>
+        <v>180</v>
       </c>
       <c r="Q44" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R44" t="inlineStr">
         <is>
@@ -3573,7 +3573,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44741</v>
+        <v>44806</v>
       </c>
       <c r="E45" t="n">
         <v>8</v>
@@ -3597,16 +3597,16 @@
         </is>
       </c>
       <c r="J45" t="n">
-        <v>100</v>
+        <v>220</v>
       </c>
       <c r="K45" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="L45" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="M45" t="n">
-        <v>16500</v>
+        <v>10909</v>
       </c>
       <c r="N45" t="inlineStr">
         <is>
@@ -3619,7 +3619,7 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>330</v>
+        <v>218</v>
       </c>
       <c r="Q45" t="n">
         <v>50</v>
@@ -3660,7 +3660,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -3672,17 +3672,17 @@
         <v>100</v>
       </c>
       <c r="K46" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="L46" t="n">
-        <v>22000</v>
+        <v>17000</v>
       </c>
       <c r="M46" t="n">
-        <v>21000</v>
+        <v>16500</v>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
@@ -3691,10 +3691,10 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>700</v>
+        <v>330</v>
       </c>
       <c r="Q46" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R46" t="inlineStr">
         <is>
@@ -3717,7 +3717,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44441</v>
+        <v>44741</v>
       </c>
       <c r="E47" t="n">
         <v>8</v>
@@ -3744,13 +3744,13 @@
         <v>100</v>
       </c>
       <c r="K47" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="L47" t="n">
-        <v>14000</v>
+        <v>22000</v>
       </c>
       <c r="M47" t="n">
-        <v>13500</v>
+        <v>21000</v>
       </c>
       <c r="N47" t="inlineStr">
         <is>
@@ -3763,7 +3763,7 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>450</v>
+        <v>700</v>
       </c>
       <c r="Q47" t="n">
         <v>30</v>
@@ -3789,7 +3789,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44335</v>
+        <v>44441</v>
       </c>
       <c r="E48" t="n">
         <v>8</v>
@@ -3816,13 +3816,13 @@
         <v>100</v>
       </c>
       <c r="K48" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="L48" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="M48" t="n">
-        <v>17500</v>
+        <v>13500</v>
       </c>
       <c r="N48" t="inlineStr">
         <is>
@@ -3835,7 +3835,7 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>583</v>
+        <v>450</v>
       </c>
       <c r="Q48" t="n">
         <v>30</v>
@@ -3861,7 +3861,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44764</v>
+        <v>44335</v>
       </c>
       <c r="E49" t="n">
         <v>8</v>
@@ -3876,7 +3876,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -3885,20 +3885,20 @@
         </is>
       </c>
       <c r="J49" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="K49" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="L49" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="M49" t="n">
-        <v>15429</v>
+        <v>17500</v>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
@@ -3907,10 +3907,10 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>386</v>
+        <v>583</v>
       </c>
       <c r="Q49" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R49" t="inlineStr">
         <is>
@@ -3933,7 +3933,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44778</v>
+        <v>44764</v>
       </c>
       <c r="E50" t="n">
         <v>8</v>
@@ -3948,7 +3948,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -3957,20 +3957,20 @@
         </is>
       </c>
       <c r="J50" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="K50" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L50" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="M50" t="n">
-        <v>14533</v>
+        <v>15429</v>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
@@ -3979,10 +3979,10 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>291</v>
+        <v>386</v>
       </c>
       <c r="Q50" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R50" t="inlineStr">
         <is>
@@ -4005,7 +4005,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44749</v>
+        <v>44778</v>
       </c>
       <c r="E51" t="n">
         <v>8</v>
@@ -4029,16 +4029,16 @@
         </is>
       </c>
       <c r="J51" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="K51" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L51" t="n">
         <v>15000</v>
       </c>
       <c r="M51" t="n">
-        <v>14200</v>
+        <v>14533</v>
       </c>
       <c r="N51" t="inlineStr">
         <is>
@@ -4051,7 +4051,7 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="Q51" t="n">
         <v>50</v>
@@ -4077,7 +4077,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44727</v>
+        <v>44749</v>
       </c>
       <c r="E52" t="n">
         <v>8</v>
@@ -4092,7 +4092,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -4101,20 +4101,20 @@
         </is>
       </c>
       <c r="J52" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="K52" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="L52" t="n">
-        <v>21000</v>
+        <v>15000</v>
       </c>
       <c r="M52" t="n">
-        <v>20467</v>
+        <v>14200</v>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
@@ -4123,10 +4123,10 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>682</v>
+        <v>284</v>
       </c>
       <c r="Q52" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R52" t="inlineStr">
         <is>
@@ -4149,7 +4149,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44761</v>
+        <v>44727</v>
       </c>
       <c r="E53" t="n">
         <v>8</v>
@@ -4164,7 +4164,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -4173,20 +4173,20 @@
         </is>
       </c>
       <c r="J53" t="n">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="K53" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="L53" t="n">
-        <v>14000</v>
+        <v>21000</v>
       </c>
       <c r="M53" t="n">
-        <v>13375</v>
+        <v>20467</v>
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O53" t="inlineStr">
@@ -4195,10 +4195,10 @@
         </is>
       </c>
       <c r="P53" t="n">
-        <v>268</v>
+        <v>682</v>
       </c>
       <c r="Q53" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R53" t="inlineStr">
         <is>
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44342</v>
+        <v>44761</v>
       </c>
       <c r="E54" t="n">
         <v>8</v>
@@ -4236,7 +4236,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -4245,20 +4245,20 @@
         </is>
       </c>
       <c r="J54" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="K54" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="L54" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="M54" t="n">
-        <v>17500</v>
+        <v>13375</v>
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O54" t="inlineStr">
@@ -4267,10 +4267,10 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>583</v>
+        <v>268</v>
       </c>
       <c r="Q54" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R54" t="inlineStr">
         <is>
@@ -4308,7 +4308,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -4320,17 +4320,17 @@
         <v>100</v>
       </c>
       <c r="K55" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="L55" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="M55" t="n">
-        <v>15500</v>
+        <v>17500</v>
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O55" t="inlineStr">
@@ -4339,10 +4339,10 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>388</v>
+        <v>583</v>
       </c>
       <c r="Q55" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R55" t="inlineStr">
         <is>
@@ -4365,7 +4365,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44376</v>
+        <v>44342</v>
       </c>
       <c r="E56" t="n">
         <v>8</v>
@@ -4380,7 +4380,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -4392,17 +4392,17 @@
         <v>100</v>
       </c>
       <c r="K56" t="n">
-        <v>19000</v>
+        <v>15000</v>
       </c>
       <c r="L56" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="M56" t="n">
-        <v>19500</v>
+        <v>15500</v>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O56" t="inlineStr">
@@ -4411,10 +4411,10 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>650</v>
+        <v>388</v>
       </c>
       <c r="Q56" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R56" t="inlineStr">
         <is>
@@ -4437,7 +4437,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44442</v>
+        <v>44376</v>
       </c>
       <c r="E57" t="n">
         <v>8</v>
@@ -4464,13 +4464,13 @@
         <v>100</v>
       </c>
       <c r="K57" t="n">
-        <v>14500</v>
+        <v>19000</v>
       </c>
       <c r="L57" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="M57" t="n">
-        <v>14750</v>
+        <v>19500</v>
       </c>
       <c r="N57" t="inlineStr">
         <is>
@@ -4483,7 +4483,7 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>492</v>
+        <v>650</v>
       </c>
       <c r="Q57" t="n">
         <v>30</v>
@@ -4509,7 +4509,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44454</v>
+        <v>44442</v>
       </c>
       <c r="E58" t="n">
         <v>8</v>
@@ -4524,7 +4524,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -4536,29 +4536,29 @@
         <v>100</v>
       </c>
       <c r="K58" t="n">
-        <v>13000</v>
+        <v>14500</v>
       </c>
       <c r="L58" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M58" t="n">
-        <v>13500</v>
+        <v>14750</v>
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P58" t="n">
-        <v>338</v>
+        <v>492</v>
       </c>
       <c r="Q58" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R58" t="inlineStr">
         <is>
@@ -4581,7 +4581,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44421</v>
+        <v>44454</v>
       </c>
       <c r="E59" t="n">
         <v>8</v>
@@ -4596,7 +4596,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -4608,29 +4608,29 @@
         <v>100</v>
       </c>
       <c r="K59" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L59" t="n">
         <v>14000</v>
       </c>
-      <c r="L59" t="n">
-        <v>15000</v>
-      </c>
       <c r="M59" t="n">
-        <v>14500</v>
+        <v>13500</v>
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P59" t="n">
-        <v>483</v>
+        <v>338</v>
       </c>
       <c r="Q59" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R59" t="inlineStr">
         <is>
@@ -4653,7 +4653,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44489</v>
+        <v>44421</v>
       </c>
       <c r="E60" t="n">
         <v>8</v>
@@ -4668,7 +4668,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -4680,17 +4680,17 @@
         <v>100</v>
       </c>
       <c r="K60" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="L60" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="M60" t="n">
-        <v>9500</v>
+        <v>14500</v>
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O60" t="inlineStr">
@@ -4699,10 +4699,10 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>190</v>
+        <v>483</v>
       </c>
       <c r="Q60" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R60" t="inlineStr">
         <is>
@@ -4740,7 +4740,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -4752,17 +4752,17 @@
         <v>100</v>
       </c>
       <c r="K61" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="L61" t="n">
-        <v>8500</v>
+        <v>10000</v>
       </c>
       <c r="M61" t="n">
-        <v>8250</v>
+        <v>9500</v>
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O61" t="inlineStr">
@@ -4771,10 +4771,10 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>275</v>
+        <v>190</v>
       </c>
       <c r="Q61" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R61" t="inlineStr">
         <is>
@@ -4797,7 +4797,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44699</v>
+        <v>44489</v>
       </c>
       <c r="E62" t="n">
         <v>8</v>
@@ -4824,13 +4824,13 @@
         <v>100</v>
       </c>
       <c r="K62" t="n">
-        <v>19000</v>
+        <v>8000</v>
       </c>
       <c r="L62" t="n">
-        <v>20000</v>
+        <v>8500</v>
       </c>
       <c r="M62" t="n">
-        <v>19500</v>
+        <v>8250</v>
       </c>
       <c r="N62" t="inlineStr">
         <is>
@@ -4843,7 +4843,7 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>650</v>
+        <v>275</v>
       </c>
       <c r="Q62" t="n">
         <v>30</v>
@@ -4869,7 +4869,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44777</v>
+        <v>44699</v>
       </c>
       <c r="E63" t="n">
         <v>8</v>
@@ -4893,16 +4893,16 @@
         </is>
       </c>
       <c r="J63" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="K63" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="L63" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="M63" t="n">
-        <v>18545</v>
+        <v>19500</v>
       </c>
       <c r="N63" t="inlineStr">
         <is>
@@ -4915,7 +4915,7 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>618</v>
+        <v>650</v>
       </c>
       <c r="Q63" t="n">
         <v>30</v>
@@ -4941,7 +4941,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44497</v>
+        <v>44777</v>
       </c>
       <c r="E64" t="n">
         <v>8</v>
@@ -4956,7 +4956,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
@@ -4965,20 +4965,20 @@
         </is>
       </c>
       <c r="J64" t="n">
-        <v>180</v>
+        <v>110</v>
       </c>
       <c r="K64" t="n">
-        <v>6500</v>
+        <v>18000</v>
       </c>
       <c r="L64" t="n">
-        <v>7000</v>
+        <v>19000</v>
       </c>
       <c r="M64" t="n">
-        <v>6778</v>
+        <v>18545</v>
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O64" t="inlineStr">
@@ -4987,10 +4987,10 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>136</v>
+        <v>618</v>
       </c>
       <c r="Q64" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R64" t="inlineStr">
         <is>
@@ -5028,7 +5028,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
@@ -5037,20 +5037,20 @@
         </is>
       </c>
       <c r="J65" t="n">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="K65" t="n">
+        <v>6500</v>
+      </c>
+      <c r="L65" t="n">
         <v>7000</v>
       </c>
-      <c r="L65" t="n">
-        <v>7500</v>
-      </c>
       <c r="M65" t="n">
-        <v>7250</v>
+        <v>6778</v>
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O65" t="inlineStr">
@@ -5059,10 +5059,10 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>242</v>
+        <v>136</v>
       </c>
       <c r="Q65" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R65" t="inlineStr">
         <is>
@@ -5100,7 +5100,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
@@ -5109,32 +5109,32 @@
         </is>
       </c>
       <c r="J66" t="n">
-        <v>130</v>
+        <v>200</v>
       </c>
       <c r="K66" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L66" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="M66" t="n">
-        <v>6192</v>
+        <v>7250</v>
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P66" t="n">
-        <v>155</v>
+        <v>242</v>
       </c>
       <c r="Q66" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R66" t="inlineStr">
         <is>
@@ -5157,7 +5157,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44435</v>
+        <v>44497</v>
       </c>
       <c r="E67" t="n">
         <v>8</v>
@@ -5172,7 +5172,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
@@ -5181,32 +5181,32 @@
         </is>
       </c>
       <c r="J67" t="n">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="K67" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="L67" t="n">
-        <v>15000</v>
+        <v>6500</v>
       </c>
       <c r="M67" t="n">
-        <v>14500</v>
+        <v>6192</v>
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P67" t="n">
-        <v>290</v>
+        <v>155</v>
       </c>
       <c r="Q67" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R67" t="inlineStr">
         <is>
@@ -5229,7 +5229,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44484</v>
+        <v>44435</v>
       </c>
       <c r="E68" t="n">
         <v>8</v>
@@ -5253,16 +5253,16 @@
         </is>
       </c>
       <c r="J68" t="n">
-        <v>220</v>
+        <v>100</v>
       </c>
       <c r="K68" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="L68" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="M68" t="n">
-        <v>8455</v>
+        <v>14500</v>
       </c>
       <c r="N68" t="inlineStr">
         <is>
@@ -5275,7 +5275,7 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>169</v>
+        <v>290</v>
       </c>
       <c r="Q68" t="n">
         <v>50</v>
@@ -5316,7 +5316,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
@@ -5328,17 +5328,17 @@
         <v>220</v>
       </c>
       <c r="K69" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="L69" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M69" t="n">
-        <v>7727</v>
+        <v>8455</v>
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O69" t="inlineStr">
@@ -5347,10 +5347,10 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>258</v>
+        <v>169</v>
       </c>
       <c r="Q69" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R69" t="inlineStr">
         <is>
@@ -5373,58 +5373,130 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
+        <v>44484</v>
+      </c>
+      <c r="E70" t="n">
+        <v>8</v>
+      </c>
+      <c r="F70" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>Española</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J70" t="n">
+        <v>220</v>
+      </c>
+      <c r="K70" t="n">
+        <v>7500</v>
+      </c>
+      <c r="L70" t="n">
+        <v>8000</v>
+      </c>
+      <c r="M70" t="n">
+        <v>7727</v>
+      </c>
+      <c r="N70" t="inlineStr">
+        <is>
+          <t>$/caja 30 unidades</t>
+        </is>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P70" t="n">
+        <v>258</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>30</v>
+      </c>
+      <c r="R70" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>11</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D71" s="2" t="n">
         <v>44463</v>
       </c>
-      <c r="E70" t="n">
-        <v>8</v>
-      </c>
-      <c r="F70" t="n">
-        <v>100112013</v>
-      </c>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>Alcachofa</t>
-        </is>
-      </c>
-      <c r="H70" t="inlineStr">
+      <c r="E71" t="n">
+        <v>8</v>
+      </c>
+      <c r="F71" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
         <is>
           <t>Argentina(o)</t>
         </is>
       </c>
-      <c r="I70" t="inlineStr">
-        <is>
-          <t>Primera</t>
-        </is>
-      </c>
-      <c r="J70" t="n">
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J71" t="n">
         <v>100</v>
       </c>
-      <c r="K70" t="n">
+      <c r="K71" t="n">
         <v>9000</v>
       </c>
-      <c r="L70" t="n">
+      <c r="L71" t="n">
         <v>10000</v>
       </c>
-      <c r="M70" t="n">
+      <c r="M71" t="n">
         <v>9500</v>
       </c>
-      <c r="N70" t="inlineStr">
+      <c r="N71" t="inlineStr">
         <is>
           <t>$/caja 50 unidades</t>
         </is>
       </c>
-      <c r="O70" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="P70" t="n">
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P71" t="n">
         <v>190</v>
       </c>
-      <c r="Q70" t="n">
+      <c r="Q71" t="n">
         <v>50</v>
       </c>
-      <c r="R70" t="inlineStr">
+      <c r="R71" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Alcachofa.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Alcachofa.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R71"/>
+  <dimension ref="A1:R74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44364</v>
+        <v>44817</v>
       </c>
       <c r="E7" t="n">
         <v>8</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="K7" t="n">
-        <v>19000</v>
+        <v>13000</v>
       </c>
       <c r="L7" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="M7" t="n">
-        <v>19500</v>
+        <v>13571</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>390</v>
+        <v>271</v>
       </c>
       <c r="Q7" t="n">
         <v>50</v>
@@ -924,7 +924,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -946,7 +946,7 @@
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
@@ -955,10 +955,10 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>650</v>
+        <v>390</v>
       </c>
       <c r="Q8" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R8" t="inlineStr">
         <is>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44433</v>
+        <v>44364</v>
       </c>
       <c r="E9" t="n">
         <v>8</v>
@@ -996,7 +996,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1008,17 +1008,17 @@
         <v>100</v>
       </c>
       <c r="K9" t="n">
-        <v>14000</v>
+        <v>19000</v>
       </c>
       <c r="L9" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="M9" t="n">
-        <v>14500</v>
+        <v>19500</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
@@ -1027,10 +1027,10 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>290</v>
+        <v>650</v>
       </c>
       <c r="Q9" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R9" t="inlineStr">
         <is>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44397</v>
+        <v>44433</v>
       </c>
       <c r="E10" t="n">
         <v>8</v>
@@ -1068,7 +1068,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1090,7 +1090,7 @@
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
@@ -1099,10 +1099,10 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>483</v>
+        <v>290</v>
       </c>
       <c r="Q10" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R10" t="inlineStr">
         <is>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44729</v>
+        <v>44397</v>
       </c>
       <c r="E11" t="n">
         <v>8</v>
@@ -1140,7 +1140,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1149,20 +1149,20 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K11" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="L11" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M11" t="n">
-        <v>17500</v>
+        <v>14500</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
@@ -1171,10 +1171,10 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>438</v>
+        <v>483</v>
       </c>
       <c r="Q11" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R11" t="inlineStr">
         <is>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44762</v>
+        <v>44729</v>
       </c>
       <c r="E12" t="n">
         <v>8</v>
@@ -1212,7 +1212,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1221,20 +1221,20 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>70</v>
+        <v>200</v>
       </c>
       <c r="K12" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="L12" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="M12" t="n">
-        <v>15571</v>
+        <v>17500</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
@@ -1243,10 +1243,10 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>519</v>
+        <v>438</v>
       </c>
       <c r="Q12" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R12" t="inlineStr">
         <is>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44399</v>
+        <v>44762</v>
       </c>
       <c r="E13" t="n">
         <v>8</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="K13" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L13" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="M13" t="n">
-        <v>14500</v>
+        <v>15571</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>483</v>
+        <v>519</v>
       </c>
       <c r="Q13" t="n">
         <v>30</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44383</v>
+        <v>44399</v>
       </c>
       <c r="E14" t="n">
         <v>8</v>
@@ -1356,7 +1356,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1365,20 +1365,20 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="K14" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="L14" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M14" t="n">
-        <v>17400</v>
+        <v>14500</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
@@ -1387,10 +1387,10 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>348</v>
+        <v>483</v>
       </c>
       <c r="Q14" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R14" t="inlineStr">
         <is>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44420</v>
+        <v>44383</v>
       </c>
       <c r="E15" t="n">
         <v>8</v>
@@ -1428,7 +1428,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1437,20 +1437,20 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K15" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="L15" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M15" t="n">
-        <v>14500</v>
+        <v>17400</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
@@ -1459,10 +1459,10 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>483</v>
+        <v>348</v>
       </c>
       <c r="Q15" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R15" t="inlineStr">
         <is>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44811</v>
+        <v>44420</v>
       </c>
       <c r="E16" t="n">
         <v>8</v>
@@ -1500,7 +1500,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1512,17 +1512,17 @@
         <v>100</v>
       </c>
       <c r="K16" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L16" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M16" t="n">
-        <v>12500</v>
+        <v>14500</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
@@ -1531,10 +1531,10 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>312</v>
+        <v>483</v>
       </c>
       <c r="Q16" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R16" t="inlineStr">
         <is>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44750</v>
+        <v>44811</v>
       </c>
       <c r="E17" t="n">
         <v>8</v>
@@ -1572,7 +1572,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1581,20 +1581,20 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="K17" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="L17" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="M17" t="n">
-        <v>16615</v>
+        <v>12500</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
@@ -1603,10 +1603,10 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>332</v>
+        <v>312</v>
       </c>
       <c r="Q17" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R17" t="inlineStr">
         <is>
@@ -1644,7 +1644,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1653,20 +1653,20 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="K18" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="L18" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="M18" t="n">
-        <v>18909</v>
+        <v>16615</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
@@ -1675,10 +1675,10 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>630</v>
+        <v>332</v>
       </c>
       <c r="Q18" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R18" t="inlineStr">
         <is>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44769</v>
+        <v>44750</v>
       </c>
       <c r="E19" t="n">
         <v>8</v>
@@ -1716,7 +1716,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1725,20 +1725,20 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="K19" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="L19" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="M19" t="n">
-        <v>13500</v>
+        <v>18909</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
@@ -1747,10 +1747,10 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>270</v>
+        <v>630</v>
       </c>
       <c r="Q19" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R19" t="inlineStr">
         <is>
@@ -1788,7 +1788,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1800,17 +1800,17 @@
         <v>100</v>
       </c>
       <c r="K20" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="L20" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="M20" t="n">
-        <v>17000</v>
+        <v>13500</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
@@ -1819,10 +1819,10 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>567</v>
+        <v>270</v>
       </c>
       <c r="Q20" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R20" t="inlineStr">
         <is>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44804</v>
+        <v>44769</v>
       </c>
       <c r="E21" t="n">
         <v>8</v>
@@ -1860,7 +1860,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1869,16 +1869,16 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="K21" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="L21" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="M21" t="n">
-        <v>11533</v>
+        <v>17000</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1891,7 +1891,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>384</v>
+        <v>567</v>
       </c>
       <c r="Q21" t="n">
         <v>30</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44791</v>
+        <v>44804</v>
       </c>
       <c r="E22" t="n">
         <v>8</v>
@@ -1941,20 +1941,20 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="K22" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="L22" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="M22" t="n">
-        <v>14455</v>
+        <v>11533</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
@@ -1963,10 +1963,10 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>289</v>
+        <v>384</v>
       </c>
       <c r="Q22" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R22" t="inlineStr">
         <is>
@@ -2004,7 +2004,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -2013,20 +2013,20 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="K23" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L23" t="n">
         <v>15000</v>
       </c>
-      <c r="L23" t="n">
-        <v>16000</v>
-      </c>
       <c r="M23" t="n">
-        <v>15500</v>
+        <v>14455</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
@@ -2035,10 +2035,10 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>517</v>
+        <v>289</v>
       </c>
       <c r="Q23" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R23" t="inlineStr">
         <is>
@@ -2076,7 +2076,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -2085,20 +2085,20 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="K24" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L24" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="M24" t="n">
-        <v>14444</v>
+        <v>15500</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
@@ -2107,10 +2107,10 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>289</v>
+        <v>517</v>
       </c>
       <c r="Q24" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R24" t="inlineStr">
         <is>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44748</v>
+        <v>44791</v>
       </c>
       <c r="E25" t="n">
         <v>8</v>
@@ -2148,7 +2148,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -2157,20 +2157,20 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="K25" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L25" t="n">
         <v>15000</v>
       </c>
-      <c r="L25" t="n">
-        <v>16000</v>
-      </c>
       <c r="M25" t="n">
-        <v>15545</v>
+        <v>14444</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
@@ -2179,10 +2179,10 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>389</v>
+        <v>289</v>
       </c>
       <c r="Q25" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R25" t="inlineStr">
         <is>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44722</v>
+        <v>44748</v>
       </c>
       <c r="E26" t="n">
         <v>8</v>
@@ -2220,7 +2220,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -2229,20 +2229,20 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="K26" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="L26" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="M26" t="n">
-        <v>21333</v>
+        <v>15545</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
@@ -2251,10 +2251,10 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>711</v>
+        <v>389</v>
       </c>
       <c r="Q26" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R26" t="inlineStr">
         <is>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44428</v>
+        <v>44722</v>
       </c>
       <c r="E27" t="n">
         <v>8</v>
@@ -2301,16 +2301,16 @@
         </is>
       </c>
       <c r="J27" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K27" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="L27" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="M27" t="n">
-        <v>14500</v>
+        <v>21333</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
@@ -2323,7 +2323,7 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>483</v>
+        <v>711</v>
       </c>
       <c r="Q27" t="n">
         <v>30</v>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44426</v>
+        <v>44428</v>
       </c>
       <c r="E28" t="n">
         <v>8</v>
@@ -2364,7 +2364,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -2373,20 +2373,20 @@
         </is>
       </c>
       <c r="J28" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="K28" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L28" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M28" t="n">
-        <v>12600</v>
+        <v>14500</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
@@ -2395,10 +2395,10 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>315</v>
+        <v>483</v>
       </c>
       <c r="Q28" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R28" t="inlineStr">
         <is>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44447</v>
+        <v>44426</v>
       </c>
       <c r="E29" t="n">
         <v>8</v>
@@ -2436,7 +2436,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -2445,20 +2445,20 @@
         </is>
       </c>
       <c r="J29" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K29" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="L29" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M29" t="n">
-        <v>14500</v>
+        <v>12600</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
@@ -2467,10 +2467,10 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>483</v>
+        <v>315</v>
       </c>
       <c r="Q29" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R29" t="inlineStr">
         <is>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44799</v>
+        <v>44447</v>
       </c>
       <c r="E30" t="n">
         <v>8</v>
@@ -2508,7 +2508,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -2517,20 +2517,20 @@
         </is>
       </c>
       <c r="J30" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="K30" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L30" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M30" t="n">
-        <v>13600</v>
+        <v>14500</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
@@ -2539,10 +2539,10 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>272</v>
+        <v>483</v>
       </c>
       <c r="Q30" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R30" t="inlineStr">
         <is>
@@ -2580,7 +2580,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -2592,17 +2592,17 @@
         <v>50</v>
       </c>
       <c r="K31" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L31" t="n">
         <v>14000</v>
       </c>
-      <c r="L31" t="n">
-        <v>15000</v>
-      </c>
       <c r="M31" t="n">
-        <v>14600</v>
+        <v>13600</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
@@ -2611,10 +2611,10 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>487</v>
+        <v>272</v>
       </c>
       <c r="Q31" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R31" t="inlineStr">
         <is>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44803</v>
+        <v>44799</v>
       </c>
       <c r="E32" t="n">
         <v>8</v>
@@ -2652,7 +2652,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -2661,20 +2661,20 @@
         </is>
       </c>
       <c r="J32" t="n">
-        <v>170</v>
+        <v>50</v>
       </c>
       <c r="K32" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L32" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M32" t="n">
-        <v>13529</v>
+        <v>14600</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
@@ -2683,10 +2683,10 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>271</v>
+        <v>487</v>
       </c>
       <c r="Q32" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R32" t="inlineStr">
         <is>
@@ -2724,7 +2724,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -2733,20 +2733,20 @@
         </is>
       </c>
       <c r="J33" t="n">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="K33" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="L33" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="M33" t="n">
-        <v>15467</v>
+        <v>13529</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
@@ -2755,10 +2755,10 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>516</v>
+        <v>271</v>
       </c>
       <c r="Q33" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R33" t="inlineStr">
         <is>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44385</v>
+        <v>44803</v>
       </c>
       <c r="E34" t="n">
         <v>8</v>
@@ -2805,16 +2805,16 @@
         </is>
       </c>
       <c r="J34" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="K34" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="L34" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="M34" t="n">
-        <v>17500</v>
+        <v>15467</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>583</v>
+        <v>516</v>
       </c>
       <c r="Q34" t="n">
         <v>30</v>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44755</v>
+        <v>44385</v>
       </c>
       <c r="E35" t="n">
         <v>8</v>
@@ -2868,7 +2868,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -2880,17 +2880,17 @@
         <v>100</v>
       </c>
       <c r="K35" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="L35" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="M35" t="n">
-        <v>16500</v>
+        <v>17500</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
@@ -2899,10 +2899,10 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>330</v>
+        <v>583</v>
       </c>
       <c r="Q35" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R35" t="inlineStr">
         <is>
@@ -2940,7 +2940,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -2952,17 +2952,17 @@
         <v>100</v>
       </c>
       <c r="K36" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="L36" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="M36" t="n">
-        <v>19000</v>
+        <v>16500</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
@@ -2971,10 +2971,10 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>633</v>
+        <v>330</v>
       </c>
       <c r="Q36" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R36" t="inlineStr">
         <is>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44350</v>
+        <v>44755</v>
       </c>
       <c r="E37" t="n">
         <v>8</v>
@@ -3012,7 +3012,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -3021,20 +3021,20 @@
         </is>
       </c>
       <c r="J37" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="K37" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="L37" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="M37" t="n">
-        <v>15600</v>
+        <v>19000</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
@@ -3043,10 +3043,10 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>312</v>
+        <v>633</v>
       </c>
       <c r="Q37" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R37" t="inlineStr">
         <is>
@@ -3084,7 +3084,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -3093,20 +3093,20 @@
         </is>
       </c>
       <c r="J38" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K38" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="L38" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="M38" t="n">
-        <v>17500</v>
+        <v>15600</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
@@ -3115,10 +3115,10 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>583</v>
+        <v>312</v>
       </c>
       <c r="Q38" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R38" t="inlineStr">
         <is>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44721</v>
+        <v>44350</v>
       </c>
       <c r="E39" t="n">
         <v>8</v>
@@ -3165,16 +3165,16 @@
         </is>
       </c>
       <c r="J39" t="n">
-        <v>150</v>
+        <v>40</v>
       </c>
       <c r="K39" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="L39" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="M39" t="n">
-        <v>19533</v>
+        <v>17500</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
@@ -3187,7 +3187,7 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>651</v>
+        <v>583</v>
       </c>
       <c r="Q39" t="n">
         <v>30</v>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44706</v>
+        <v>44721</v>
       </c>
       <c r="E40" t="n">
         <v>8</v>
@@ -3237,16 +3237,16 @@
         </is>
       </c>
       <c r="J40" t="n">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="K40" t="n">
-        <v>23000</v>
+        <v>19000</v>
       </c>
       <c r="L40" t="n">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="M40" t="n">
-        <v>23400</v>
+        <v>19533</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
@@ -3259,7 +3259,7 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>780</v>
+        <v>651</v>
       </c>
       <c r="Q40" t="n">
         <v>30</v>
@@ -3285,7 +3285,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44784</v>
+        <v>44706</v>
       </c>
       <c r="E41" t="n">
         <v>8</v>
@@ -3312,13 +3312,13 @@
         <v>50</v>
       </c>
       <c r="K41" t="n">
-        <v>14000</v>
+        <v>23000</v>
       </c>
       <c r="L41" t="n">
-        <v>15000</v>
+        <v>24000</v>
       </c>
       <c r="M41" t="n">
-        <v>14400</v>
+        <v>23400</v>
       </c>
       <c r="N41" t="inlineStr">
         <is>
@@ -3331,7 +3331,7 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>480</v>
+        <v>780</v>
       </c>
       <c r="Q41" t="n">
         <v>30</v>
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44757</v>
+        <v>44784</v>
       </c>
       <c r="E42" t="n">
         <v>8</v>
@@ -3372,7 +3372,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -3394,7 +3394,7 @@
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
@@ -3403,10 +3403,10 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>288</v>
+        <v>480</v>
       </c>
       <c r="Q42" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R42" t="inlineStr">
         <is>
@@ -3429,7 +3429,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44776</v>
+        <v>44818</v>
       </c>
       <c r="E43" t="n">
         <v>8</v>
@@ -3444,7 +3444,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -3453,20 +3453,20 @@
         </is>
       </c>
       <c r="J43" t="n">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="K43" t="n">
-        <v>17000</v>
+        <v>11000</v>
       </c>
       <c r="L43" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="M43" t="n">
-        <v>17467</v>
+        <v>11556</v>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
@@ -3475,10 +3475,10 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>582</v>
+        <v>231</v>
       </c>
       <c r="Q43" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R43" t="inlineStr">
         <is>
@@ -3501,7 +3501,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44496</v>
+        <v>44818</v>
       </c>
       <c r="E44" t="n">
         <v>8</v>
@@ -3516,7 +3516,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -3525,32 +3525,32 @@
         </is>
       </c>
       <c r="J44" t="n">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="K44" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="L44" t="n">
-        <v>7500</v>
+        <v>13000</v>
       </c>
       <c r="M44" t="n">
-        <v>7214</v>
+        <v>12500</v>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P44" t="n">
-        <v>180</v>
+        <v>417</v>
       </c>
       <c r="Q44" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R44" t="inlineStr">
         <is>
@@ -3573,7 +3573,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44806</v>
+        <v>44757</v>
       </c>
       <c r="E45" t="n">
         <v>8</v>
@@ -3597,16 +3597,16 @@
         </is>
       </c>
       <c r="J45" t="n">
-        <v>220</v>
+        <v>50</v>
       </c>
       <c r="K45" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="L45" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M45" t="n">
-        <v>10909</v>
+        <v>14400</v>
       </c>
       <c r="N45" t="inlineStr">
         <is>
@@ -3619,7 +3619,7 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>218</v>
+        <v>288</v>
       </c>
       <c r="Q45" t="n">
         <v>50</v>
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44741</v>
+        <v>44776</v>
       </c>
       <c r="E46" t="n">
         <v>8</v>
@@ -3660,7 +3660,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -3669,20 +3669,20 @@
         </is>
       </c>
       <c r="J46" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="K46" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="L46" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="M46" t="n">
-        <v>16500</v>
+        <v>17467</v>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
@@ -3691,10 +3691,10 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>330</v>
+        <v>582</v>
       </c>
       <c r="Q46" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R46" t="inlineStr">
         <is>
@@ -3717,7 +3717,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44741</v>
+        <v>44496</v>
       </c>
       <c r="E47" t="n">
         <v>8</v>
@@ -3732,7 +3732,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -3741,32 +3741,32 @@
         </is>
       </c>
       <c r="J47" t="n">
-        <v>100</v>
+        <v>350</v>
       </c>
       <c r="K47" t="n">
-        <v>20000</v>
+        <v>7000</v>
       </c>
       <c r="L47" t="n">
-        <v>22000</v>
+        <v>7500</v>
       </c>
       <c r="M47" t="n">
-        <v>21000</v>
+        <v>7214</v>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P47" t="n">
-        <v>700</v>
+        <v>180</v>
       </c>
       <c r="Q47" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R47" t="inlineStr">
         <is>
@@ -3789,7 +3789,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44441</v>
+        <v>44806</v>
       </c>
       <c r="E48" t="n">
         <v>8</v>
@@ -3804,7 +3804,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -3813,20 +3813,20 @@
         </is>
       </c>
       <c r="J48" t="n">
-        <v>100</v>
+        <v>220</v>
       </c>
       <c r="K48" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="L48" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="M48" t="n">
-        <v>13500</v>
+        <v>10909</v>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
@@ -3835,10 +3835,10 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>450</v>
+        <v>218</v>
       </c>
       <c r="Q48" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R48" t="inlineStr">
         <is>
@@ -3861,7 +3861,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44335</v>
+        <v>44741</v>
       </c>
       <c r="E49" t="n">
         <v>8</v>
@@ -3876,7 +3876,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -3888,17 +3888,17 @@
         <v>100</v>
       </c>
       <c r="K49" t="n">
+        <v>16000</v>
+      </c>
+      <c r="L49" t="n">
         <v>17000</v>
       </c>
-      <c r="L49" t="n">
-        <v>18000</v>
-      </c>
       <c r="M49" t="n">
-        <v>17500</v>
+        <v>16500</v>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
@@ -3907,10 +3907,10 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>583</v>
+        <v>330</v>
       </c>
       <c r="Q49" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R49" t="inlineStr">
         <is>
@@ -3933,7 +3933,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44764</v>
+        <v>44741</v>
       </c>
       <c r="E50" t="n">
         <v>8</v>
@@ -3948,7 +3948,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -3957,20 +3957,20 @@
         </is>
       </c>
       <c r="J50" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="K50" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="L50" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="M50" t="n">
-        <v>15429</v>
+        <v>21000</v>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
@@ -3979,10 +3979,10 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>386</v>
+        <v>700</v>
       </c>
       <c r="Q50" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R50" t="inlineStr">
         <is>
@@ -4005,7 +4005,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44778</v>
+        <v>44441</v>
       </c>
       <c r="E51" t="n">
         <v>8</v>
@@ -4020,7 +4020,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -4029,20 +4029,20 @@
         </is>
       </c>
       <c r="J51" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="K51" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L51" t="n">
         <v>14000</v>
       </c>
-      <c r="L51" t="n">
-        <v>15000</v>
-      </c>
       <c r="M51" t="n">
-        <v>14533</v>
+        <v>13500</v>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
@@ -4051,10 +4051,10 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>291</v>
+        <v>450</v>
       </c>
       <c r="Q51" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R51" t="inlineStr">
         <is>
@@ -4077,7 +4077,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44749</v>
+        <v>44335</v>
       </c>
       <c r="E52" t="n">
         <v>8</v>
@@ -4092,7 +4092,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -4101,20 +4101,20 @@
         </is>
       </c>
       <c r="J52" t="n">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="K52" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="L52" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M52" t="n">
-        <v>14200</v>
+        <v>17500</v>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
@@ -4123,10 +4123,10 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>284</v>
+        <v>583</v>
       </c>
       <c r="Q52" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R52" t="inlineStr">
         <is>
@@ -4149,7 +4149,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44727</v>
+        <v>44764</v>
       </c>
       <c r="E53" t="n">
         <v>8</v>
@@ -4164,7 +4164,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -4173,20 +4173,20 @@
         </is>
       </c>
       <c r="J53" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="K53" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="L53" t="n">
-        <v>21000</v>
+        <v>16000</v>
       </c>
       <c r="M53" t="n">
-        <v>20467</v>
+        <v>15429</v>
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O53" t="inlineStr">
@@ -4195,10 +4195,10 @@
         </is>
       </c>
       <c r="P53" t="n">
-        <v>682</v>
+        <v>386</v>
       </c>
       <c r="Q53" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R53" t="inlineStr">
         <is>
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44761</v>
+        <v>44778</v>
       </c>
       <c r="E54" t="n">
         <v>8</v>
@@ -4245,16 +4245,16 @@
         </is>
       </c>
       <c r="J54" t="n">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="K54" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L54" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M54" t="n">
-        <v>13375</v>
+        <v>14533</v>
       </c>
       <c r="N54" t="inlineStr">
         <is>
@@ -4267,7 +4267,7 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>268</v>
+        <v>291</v>
       </c>
       <c r="Q54" t="n">
         <v>50</v>
@@ -4293,7 +4293,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44342</v>
+        <v>44749</v>
       </c>
       <c r="E55" t="n">
         <v>8</v>
@@ -4308,7 +4308,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -4317,20 +4317,20 @@
         </is>
       </c>
       <c r="J55" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="K55" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="L55" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M55" t="n">
-        <v>17500</v>
+        <v>14200</v>
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O55" t="inlineStr">
@@ -4339,10 +4339,10 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>583</v>
+        <v>284</v>
       </c>
       <c r="Q55" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R55" t="inlineStr">
         <is>
@@ -4365,7 +4365,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44342</v>
+        <v>44727</v>
       </c>
       <c r="E56" t="n">
         <v>8</v>
@@ -4380,7 +4380,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -4389,20 +4389,20 @@
         </is>
       </c>
       <c r="J56" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="K56" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="L56" t="n">
-        <v>16000</v>
+        <v>21000</v>
       </c>
       <c r="M56" t="n">
-        <v>15500</v>
+        <v>20467</v>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O56" t="inlineStr">
@@ -4411,10 +4411,10 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>388</v>
+        <v>682</v>
       </c>
       <c r="Q56" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R56" t="inlineStr">
         <is>
@@ -4437,7 +4437,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44376</v>
+        <v>44761</v>
       </c>
       <c r="E57" t="n">
         <v>8</v>
@@ -4452,7 +4452,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
@@ -4461,20 +4461,20 @@
         </is>
       </c>
       <c r="J57" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="K57" t="n">
-        <v>19000</v>
+        <v>13000</v>
       </c>
       <c r="L57" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="M57" t="n">
-        <v>19500</v>
+        <v>13375</v>
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O57" t="inlineStr">
@@ -4483,10 +4483,10 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>650</v>
+        <v>268</v>
       </c>
       <c r="Q57" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R57" t="inlineStr">
         <is>
@@ -4509,7 +4509,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44442</v>
+        <v>44342</v>
       </c>
       <c r="E58" t="n">
         <v>8</v>
@@ -4536,13 +4536,13 @@
         <v>100</v>
       </c>
       <c r="K58" t="n">
-        <v>14500</v>
+        <v>17000</v>
       </c>
       <c r="L58" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M58" t="n">
-        <v>14750</v>
+        <v>17500</v>
       </c>
       <c r="N58" t="inlineStr">
         <is>
@@ -4555,7 +4555,7 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>492</v>
+        <v>583</v>
       </c>
       <c r="Q58" t="n">
         <v>30</v>
@@ -4581,7 +4581,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44454</v>
+        <v>44342</v>
       </c>
       <c r="E59" t="n">
         <v>8</v>
@@ -4608,13 +4608,13 @@
         <v>100</v>
       </c>
       <c r="K59" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="L59" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="M59" t="n">
-        <v>13500</v>
+        <v>15500</v>
       </c>
       <c r="N59" t="inlineStr">
         <is>
@@ -4623,11 +4623,11 @@
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P59" t="n">
-        <v>338</v>
+        <v>388</v>
       </c>
       <c r="Q59" t="n">
         <v>40</v>
@@ -4653,7 +4653,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44421</v>
+        <v>44376</v>
       </c>
       <c r="E60" t="n">
         <v>8</v>
@@ -4680,13 +4680,13 @@
         <v>100</v>
       </c>
       <c r="K60" t="n">
-        <v>14000</v>
+        <v>19000</v>
       </c>
       <c r="L60" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="M60" t="n">
-        <v>14500</v>
+        <v>19500</v>
       </c>
       <c r="N60" t="inlineStr">
         <is>
@@ -4699,7 +4699,7 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>483</v>
+        <v>650</v>
       </c>
       <c r="Q60" t="n">
         <v>30</v>
@@ -4725,7 +4725,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44489</v>
+        <v>44442</v>
       </c>
       <c r="E61" t="n">
         <v>8</v>
@@ -4740,7 +4740,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -4752,17 +4752,17 @@
         <v>100</v>
       </c>
       <c r="K61" t="n">
-        <v>9000</v>
+        <v>14500</v>
       </c>
       <c r="L61" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="M61" t="n">
-        <v>9500</v>
+        <v>14750</v>
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O61" t="inlineStr">
@@ -4771,10 +4771,10 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>190</v>
+        <v>492</v>
       </c>
       <c r="Q61" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R61" t="inlineStr">
         <is>
@@ -4797,7 +4797,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44489</v>
+        <v>44454</v>
       </c>
       <c r="E62" t="n">
         <v>8</v>
@@ -4812,7 +4812,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
@@ -4824,29 +4824,29 @@
         <v>100</v>
       </c>
       <c r="K62" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="L62" t="n">
-        <v>8500</v>
+        <v>14000</v>
       </c>
       <c r="M62" t="n">
-        <v>8250</v>
+        <v>13500</v>
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P62" t="n">
-        <v>275</v>
+        <v>338</v>
       </c>
       <c r="Q62" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R62" t="inlineStr">
         <is>
@@ -4869,7 +4869,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44699</v>
+        <v>44421</v>
       </c>
       <c r="E63" t="n">
         <v>8</v>
@@ -4896,13 +4896,13 @@
         <v>100</v>
       </c>
       <c r="K63" t="n">
-        <v>19000</v>
+        <v>14000</v>
       </c>
       <c r="L63" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="M63" t="n">
-        <v>19500</v>
+        <v>14500</v>
       </c>
       <c r="N63" t="inlineStr">
         <is>
@@ -4915,7 +4915,7 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>650</v>
+        <v>483</v>
       </c>
       <c r="Q63" t="n">
         <v>30</v>
@@ -4941,7 +4941,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44777</v>
+        <v>44489</v>
       </c>
       <c r="E64" t="n">
         <v>8</v>
@@ -4956,7 +4956,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
@@ -4965,20 +4965,20 @@
         </is>
       </c>
       <c r="J64" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="K64" t="n">
-        <v>18000</v>
+        <v>9000</v>
       </c>
       <c r="L64" t="n">
-        <v>19000</v>
+        <v>10000</v>
       </c>
       <c r="M64" t="n">
-        <v>18545</v>
+        <v>9500</v>
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O64" t="inlineStr">
@@ -4987,10 +4987,10 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>618</v>
+        <v>190</v>
       </c>
       <c r="Q64" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R64" t="inlineStr">
         <is>
@@ -5013,7 +5013,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44497</v>
+        <v>44489</v>
       </c>
       <c r="E65" t="n">
         <v>8</v>
@@ -5028,7 +5028,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
@@ -5037,20 +5037,20 @@
         </is>
       </c>
       <c r="J65" t="n">
-        <v>180</v>
+        <v>100</v>
       </c>
       <c r="K65" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="L65" t="n">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="M65" t="n">
-        <v>6778</v>
+        <v>8250</v>
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O65" t="inlineStr">
@@ -5059,10 +5059,10 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>136</v>
+        <v>275</v>
       </c>
       <c r="Q65" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R65" t="inlineStr">
         <is>
@@ -5085,7 +5085,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44497</v>
+        <v>44699</v>
       </c>
       <c r="E66" t="n">
         <v>8</v>
@@ -5109,16 +5109,16 @@
         </is>
       </c>
       <c r="J66" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K66" t="n">
-        <v>7000</v>
+        <v>19000</v>
       </c>
       <c r="L66" t="n">
-        <v>7500</v>
+        <v>20000</v>
       </c>
       <c r="M66" t="n">
-        <v>7250</v>
+        <v>19500</v>
       </c>
       <c r="N66" t="inlineStr">
         <is>
@@ -5131,7 +5131,7 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>242</v>
+        <v>650</v>
       </c>
       <c r="Q66" t="n">
         <v>30</v>
@@ -5157,7 +5157,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44497</v>
+        <v>44777</v>
       </c>
       <c r="E67" t="n">
         <v>8</v>
@@ -5172,7 +5172,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
@@ -5181,32 +5181,32 @@
         </is>
       </c>
       <c r="J67" t="n">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="K67" t="n">
-        <v>6000</v>
+        <v>18000</v>
       </c>
       <c r="L67" t="n">
-        <v>6500</v>
+        <v>19000</v>
       </c>
       <c r="M67" t="n">
-        <v>6192</v>
+        <v>18545</v>
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P67" t="n">
-        <v>155</v>
+        <v>618</v>
       </c>
       <c r="Q67" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R67" t="inlineStr">
         <is>
@@ -5229,7 +5229,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44435</v>
+        <v>44497</v>
       </c>
       <c r="E68" t="n">
         <v>8</v>
@@ -5253,16 +5253,16 @@
         </is>
       </c>
       <c r="J68" t="n">
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="K68" t="n">
-        <v>14000</v>
+        <v>6500</v>
       </c>
       <c r="L68" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="M68" t="n">
-        <v>14500</v>
+        <v>6778</v>
       </c>
       <c r="N68" t="inlineStr">
         <is>
@@ -5275,7 +5275,7 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>290</v>
+        <v>136</v>
       </c>
       <c r="Q68" t="n">
         <v>50</v>
@@ -5301,7 +5301,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44484</v>
+        <v>44497</v>
       </c>
       <c r="E69" t="n">
         <v>8</v>
@@ -5316,7 +5316,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
@@ -5325,20 +5325,20 @@
         </is>
       </c>
       <c r="J69" t="n">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="K69" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L69" t="n">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="M69" t="n">
-        <v>8455</v>
+        <v>7250</v>
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O69" t="inlineStr">
@@ -5347,10 +5347,10 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>169</v>
+        <v>242</v>
       </c>
       <c r="Q69" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R69" t="inlineStr">
         <is>
@@ -5373,7 +5373,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44484</v>
+        <v>44497</v>
       </c>
       <c r="E70" t="n">
         <v>8</v>
@@ -5388,7 +5388,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
@@ -5397,32 +5397,32 @@
         </is>
       </c>
       <c r="J70" t="n">
-        <v>220</v>
+        <v>130</v>
       </c>
       <c r="K70" t="n">
-        <v>7500</v>
+        <v>6000</v>
       </c>
       <c r="L70" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="M70" t="n">
-        <v>7727</v>
+        <v>6192</v>
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P70" t="n">
-        <v>258</v>
+        <v>155</v>
       </c>
       <c r="Q70" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R70" t="inlineStr">
         <is>
@@ -5445,7 +5445,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44463</v>
+        <v>44435</v>
       </c>
       <c r="E71" t="n">
         <v>8</v>
@@ -5472,13 +5472,13 @@
         <v>100</v>
       </c>
       <c r="K71" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="L71" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="M71" t="n">
-        <v>9500</v>
+        <v>14500</v>
       </c>
       <c r="N71" t="inlineStr">
         <is>
@@ -5491,12 +5491,228 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>190</v>
+        <v>290</v>
       </c>
       <c r="Q71" t="n">
         <v>50</v>
       </c>
       <c r="R71" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>11</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D72" s="2" t="n">
+        <v>44484</v>
+      </c>
+      <c r="E72" t="n">
+        <v>8</v>
+      </c>
+      <c r="F72" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>Argentina(o)</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J72" t="n">
+        <v>220</v>
+      </c>
+      <c r="K72" t="n">
+        <v>8000</v>
+      </c>
+      <c r="L72" t="n">
+        <v>9000</v>
+      </c>
+      <c r="M72" t="n">
+        <v>8455</v>
+      </c>
+      <c r="N72" t="inlineStr">
+        <is>
+          <t>$/caja 50 unidades</t>
+        </is>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P72" t="n">
+        <v>169</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>50</v>
+      </c>
+      <c r="R72" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>11</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D73" s="2" t="n">
+        <v>44484</v>
+      </c>
+      <c r="E73" t="n">
+        <v>8</v>
+      </c>
+      <c r="F73" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>Española</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J73" t="n">
+        <v>220</v>
+      </c>
+      <c r="K73" t="n">
+        <v>7500</v>
+      </c>
+      <c r="L73" t="n">
+        <v>8000</v>
+      </c>
+      <c r="M73" t="n">
+        <v>7727</v>
+      </c>
+      <c r="N73" t="inlineStr">
+        <is>
+          <t>$/caja 30 unidades</t>
+        </is>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P73" t="n">
+        <v>258</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>30</v>
+      </c>
+      <c r="R73" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>11</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D74" s="2" t="n">
+        <v>44463</v>
+      </c>
+      <c r="E74" t="n">
+        <v>8</v>
+      </c>
+      <c r="F74" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>Argentina(o)</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J74" t="n">
+        <v>100</v>
+      </c>
+      <c r="K74" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L74" t="n">
+        <v>10000</v>
+      </c>
+      <c r="M74" t="n">
+        <v>9500</v>
+      </c>
+      <c r="N74" t="inlineStr">
+        <is>
+          <t>$/caja 50 unidades</t>
+        </is>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P74" t="n">
+        <v>190</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>50</v>
+      </c>
+      <c r="R74" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Alcachofa.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Alcachofa.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R74"/>
+  <dimension ref="A1:R75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44729</v>
+        <v>44819</v>
       </c>
       <c r="E12" t="n">
         <v>8</v>
@@ -1221,20 +1221,20 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>200</v>
+        <v>110</v>
       </c>
       <c r="K12" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="L12" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M12" t="n">
-        <v>17500</v>
+        <v>13364</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
@@ -1243,10 +1243,10 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>438</v>
+        <v>267</v>
       </c>
       <c r="Q12" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R12" t="inlineStr">
         <is>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44762</v>
+        <v>44729</v>
       </c>
       <c r="E13" t="n">
         <v>8</v>
@@ -1284,7 +1284,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1293,20 +1293,20 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>70</v>
+        <v>200</v>
       </c>
       <c r="K13" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="L13" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="M13" t="n">
-        <v>15571</v>
+        <v>17500</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
@@ -1315,10 +1315,10 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>519</v>
+        <v>438</v>
       </c>
       <c r="Q13" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R13" t="inlineStr">
         <is>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44399</v>
+        <v>44762</v>
       </c>
       <c r="E14" t="n">
         <v>8</v>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="K14" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L14" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="M14" t="n">
-        <v>14500</v>
+        <v>15571</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>483</v>
+        <v>519</v>
       </c>
       <c r="Q14" t="n">
         <v>30</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44383</v>
+        <v>44399</v>
       </c>
       <c r="E15" t="n">
         <v>8</v>
@@ -1428,7 +1428,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1437,20 +1437,20 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="K15" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="L15" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M15" t="n">
-        <v>17400</v>
+        <v>14500</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
@@ -1459,10 +1459,10 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>348</v>
+        <v>483</v>
       </c>
       <c r="Q15" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R15" t="inlineStr">
         <is>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44420</v>
+        <v>44383</v>
       </c>
       <c r="E16" t="n">
         <v>8</v>
@@ -1500,7 +1500,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1509,20 +1509,20 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K16" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="L16" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M16" t="n">
-        <v>14500</v>
+        <v>17400</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
@@ -1531,10 +1531,10 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>483</v>
+        <v>348</v>
       </c>
       <c r="Q16" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R16" t="inlineStr">
         <is>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44811</v>
+        <v>44420</v>
       </c>
       <c r="E17" t="n">
         <v>8</v>
@@ -1572,7 +1572,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1584,17 +1584,17 @@
         <v>100</v>
       </c>
       <c r="K17" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L17" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M17" t="n">
-        <v>12500</v>
+        <v>14500</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
@@ -1603,10 +1603,10 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>312</v>
+        <v>483</v>
       </c>
       <c r="Q17" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R17" t="inlineStr">
         <is>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44750</v>
+        <v>44811</v>
       </c>
       <c r="E18" t="n">
         <v>8</v>
@@ -1644,7 +1644,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1653,20 +1653,20 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="K18" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="L18" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="M18" t="n">
-        <v>16615</v>
+        <v>12500</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
@@ -1675,10 +1675,10 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>332</v>
+        <v>312</v>
       </c>
       <c r="Q18" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R18" t="inlineStr">
         <is>
@@ -1716,7 +1716,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1725,20 +1725,20 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="K19" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="L19" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="M19" t="n">
-        <v>18909</v>
+        <v>16615</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
@@ -1747,10 +1747,10 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>630</v>
+        <v>332</v>
       </c>
       <c r="Q19" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R19" t="inlineStr">
         <is>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44769</v>
+        <v>44750</v>
       </c>
       <c r="E20" t="n">
         <v>8</v>
@@ -1788,7 +1788,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1797,20 +1797,20 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="K20" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="L20" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="M20" t="n">
-        <v>13500</v>
+        <v>18909</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
@@ -1819,10 +1819,10 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>270</v>
+        <v>630</v>
       </c>
       <c r="Q20" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R20" t="inlineStr">
         <is>
@@ -1860,7 +1860,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1872,17 +1872,17 @@
         <v>100</v>
       </c>
       <c r="K21" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="L21" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="M21" t="n">
-        <v>17000</v>
+        <v>13500</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
@@ -1891,10 +1891,10 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>567</v>
+        <v>270</v>
       </c>
       <c r="Q21" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R21" t="inlineStr">
         <is>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44804</v>
+        <v>44769</v>
       </c>
       <c r="E22" t="n">
         <v>8</v>
@@ -1932,7 +1932,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1941,16 +1941,16 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="K22" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="L22" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="M22" t="n">
-        <v>11533</v>
+        <v>17000</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>384</v>
+        <v>567</v>
       </c>
       <c r="Q22" t="n">
         <v>30</v>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44791</v>
+        <v>44804</v>
       </c>
       <c r="E23" t="n">
         <v>8</v>
@@ -2013,20 +2013,20 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="K23" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="L23" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="M23" t="n">
-        <v>14455</v>
+        <v>11533</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
@@ -2035,10 +2035,10 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>289</v>
+        <v>384</v>
       </c>
       <c r="Q23" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R23" t="inlineStr">
         <is>
@@ -2076,7 +2076,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -2085,20 +2085,20 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="K24" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L24" t="n">
         <v>15000</v>
       </c>
-      <c r="L24" t="n">
-        <v>16000</v>
-      </c>
       <c r="M24" t="n">
-        <v>15500</v>
+        <v>14455</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
@@ -2107,10 +2107,10 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>517</v>
+        <v>289</v>
       </c>
       <c r="Q24" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R24" t="inlineStr">
         <is>
@@ -2148,7 +2148,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -2157,20 +2157,20 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="K25" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L25" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="M25" t="n">
-        <v>14444</v>
+        <v>15500</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
@@ -2179,10 +2179,10 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>289</v>
+        <v>517</v>
       </c>
       <c r="Q25" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R25" t="inlineStr">
         <is>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44748</v>
+        <v>44791</v>
       </c>
       <c r="E26" t="n">
         <v>8</v>
@@ -2220,7 +2220,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -2229,20 +2229,20 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="K26" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L26" t="n">
         <v>15000</v>
       </c>
-      <c r="L26" t="n">
-        <v>16000</v>
-      </c>
       <c r="M26" t="n">
-        <v>15545</v>
+        <v>14444</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
@@ -2251,10 +2251,10 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>389</v>
+        <v>289</v>
       </c>
       <c r="Q26" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R26" t="inlineStr">
         <is>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44722</v>
+        <v>44748</v>
       </c>
       <c r="E27" t="n">
         <v>8</v>
@@ -2292,7 +2292,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -2301,20 +2301,20 @@
         </is>
       </c>
       <c r="J27" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="K27" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="L27" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="M27" t="n">
-        <v>21333</v>
+        <v>15545</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
@@ -2323,10 +2323,10 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>711</v>
+        <v>389</v>
       </c>
       <c r="Q27" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R27" t="inlineStr">
         <is>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44428</v>
+        <v>44722</v>
       </c>
       <c r="E28" t="n">
         <v>8</v>
@@ -2373,16 +2373,16 @@
         </is>
       </c>
       <c r="J28" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K28" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="L28" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="M28" t="n">
-        <v>14500</v>
+        <v>21333</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
@@ -2395,7 +2395,7 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>483</v>
+        <v>711</v>
       </c>
       <c r="Q28" t="n">
         <v>30</v>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44426</v>
+        <v>44428</v>
       </c>
       <c r="E29" t="n">
         <v>8</v>
@@ -2436,7 +2436,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -2445,20 +2445,20 @@
         </is>
       </c>
       <c r="J29" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="K29" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L29" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M29" t="n">
-        <v>12600</v>
+        <v>14500</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
@@ -2467,10 +2467,10 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>315</v>
+        <v>483</v>
       </c>
       <c r="Q29" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R29" t="inlineStr">
         <is>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44447</v>
+        <v>44426</v>
       </c>
       <c r="E30" t="n">
         <v>8</v>
@@ -2508,7 +2508,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -2517,20 +2517,20 @@
         </is>
       </c>
       <c r="J30" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K30" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="L30" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M30" t="n">
-        <v>14500</v>
+        <v>12600</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
@@ -2539,10 +2539,10 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>483</v>
+        <v>315</v>
       </c>
       <c r="Q30" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R30" t="inlineStr">
         <is>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44799</v>
+        <v>44447</v>
       </c>
       <c r="E31" t="n">
         <v>8</v>
@@ -2580,7 +2580,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -2589,20 +2589,20 @@
         </is>
       </c>
       <c r="J31" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="K31" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L31" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M31" t="n">
-        <v>13600</v>
+        <v>14500</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
@@ -2611,10 +2611,10 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>272</v>
+        <v>483</v>
       </c>
       <c r="Q31" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R31" t="inlineStr">
         <is>
@@ -2652,7 +2652,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -2664,17 +2664,17 @@
         <v>50</v>
       </c>
       <c r="K32" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L32" t="n">
         <v>14000</v>
       </c>
-      <c r="L32" t="n">
-        <v>15000</v>
-      </c>
       <c r="M32" t="n">
-        <v>14600</v>
+        <v>13600</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
@@ -2683,10 +2683,10 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>487</v>
+        <v>272</v>
       </c>
       <c r="Q32" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R32" t="inlineStr">
         <is>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44803</v>
+        <v>44799</v>
       </c>
       <c r="E33" t="n">
         <v>8</v>
@@ -2724,7 +2724,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -2733,20 +2733,20 @@
         </is>
       </c>
       <c r="J33" t="n">
-        <v>170</v>
+        <v>50</v>
       </c>
       <c r="K33" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L33" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M33" t="n">
-        <v>13529</v>
+        <v>14600</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
@@ -2755,10 +2755,10 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>271</v>
+        <v>487</v>
       </c>
       <c r="Q33" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R33" t="inlineStr">
         <is>
@@ -2796,7 +2796,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -2805,20 +2805,20 @@
         </is>
       </c>
       <c r="J34" t="n">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="K34" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="L34" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="M34" t="n">
-        <v>15467</v>
+        <v>13529</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
@@ -2827,10 +2827,10 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>516</v>
+        <v>271</v>
       </c>
       <c r="Q34" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R34" t="inlineStr">
         <is>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44385</v>
+        <v>44803</v>
       </c>
       <c r="E35" t="n">
         <v>8</v>
@@ -2877,16 +2877,16 @@
         </is>
       </c>
       <c r="J35" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="K35" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="L35" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="M35" t="n">
-        <v>17500</v>
+        <v>15467</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
@@ -2899,7 +2899,7 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>583</v>
+        <v>516</v>
       </c>
       <c r="Q35" t="n">
         <v>30</v>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44755</v>
+        <v>44385</v>
       </c>
       <c r="E36" t="n">
         <v>8</v>
@@ -2940,7 +2940,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -2952,17 +2952,17 @@
         <v>100</v>
       </c>
       <c r="K36" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="L36" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="M36" t="n">
-        <v>16500</v>
+        <v>17500</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
@@ -2971,10 +2971,10 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>330</v>
+        <v>583</v>
       </c>
       <c r="Q36" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R36" t="inlineStr">
         <is>
@@ -3012,7 +3012,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -3024,17 +3024,17 @@
         <v>100</v>
       </c>
       <c r="K37" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="L37" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="M37" t="n">
-        <v>19000</v>
+        <v>16500</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
@@ -3043,10 +3043,10 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>633</v>
+        <v>330</v>
       </c>
       <c r="Q37" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R37" t="inlineStr">
         <is>
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44350</v>
+        <v>44755</v>
       </c>
       <c r="E38" t="n">
         <v>8</v>
@@ -3084,7 +3084,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -3093,20 +3093,20 @@
         </is>
       </c>
       <c r="J38" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="K38" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="L38" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="M38" t="n">
-        <v>15600</v>
+        <v>19000</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
@@ -3115,10 +3115,10 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>312</v>
+        <v>633</v>
       </c>
       <c r="Q38" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R38" t="inlineStr">
         <is>
@@ -3156,7 +3156,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -3165,20 +3165,20 @@
         </is>
       </c>
       <c r="J39" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K39" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="L39" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="M39" t="n">
-        <v>17500</v>
+        <v>15600</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
@@ -3187,10 +3187,10 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>583</v>
+        <v>312</v>
       </c>
       <c r="Q39" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R39" t="inlineStr">
         <is>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44721</v>
+        <v>44350</v>
       </c>
       <c r="E40" t="n">
         <v>8</v>
@@ -3237,16 +3237,16 @@
         </is>
       </c>
       <c r="J40" t="n">
-        <v>150</v>
+        <v>40</v>
       </c>
       <c r="K40" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="L40" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="M40" t="n">
-        <v>19533</v>
+        <v>17500</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
@@ -3259,7 +3259,7 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>651</v>
+        <v>583</v>
       </c>
       <c r="Q40" t="n">
         <v>30</v>
@@ -3285,7 +3285,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44706</v>
+        <v>44721</v>
       </c>
       <c r="E41" t="n">
         <v>8</v>
@@ -3309,16 +3309,16 @@
         </is>
       </c>
       <c r="J41" t="n">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="K41" t="n">
-        <v>23000</v>
+        <v>19000</v>
       </c>
       <c r="L41" t="n">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="M41" t="n">
-        <v>23400</v>
+        <v>19533</v>
       </c>
       <c r="N41" t="inlineStr">
         <is>
@@ -3331,7 +3331,7 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>780</v>
+        <v>651</v>
       </c>
       <c r="Q41" t="n">
         <v>30</v>
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44784</v>
+        <v>44706</v>
       </c>
       <c r="E42" t="n">
         <v>8</v>
@@ -3384,13 +3384,13 @@
         <v>50</v>
       </c>
       <c r="K42" t="n">
-        <v>14000</v>
+        <v>23000</v>
       </c>
       <c r="L42" t="n">
-        <v>15000</v>
+        <v>24000</v>
       </c>
       <c r="M42" t="n">
-        <v>14400</v>
+        <v>23400</v>
       </c>
       <c r="N42" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>480</v>
+        <v>780</v>
       </c>
       <c r="Q42" t="n">
         <v>30</v>
@@ -3429,7 +3429,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44818</v>
+        <v>44784</v>
       </c>
       <c r="E43" t="n">
         <v>8</v>
@@ -3444,7 +3444,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -3453,20 +3453,20 @@
         </is>
       </c>
       <c r="J43" t="n">
-        <v>180</v>
+        <v>50</v>
       </c>
       <c r="K43" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="L43" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M43" t="n">
-        <v>11556</v>
+        <v>14400</v>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
@@ -3475,10 +3475,10 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>231</v>
+        <v>480</v>
       </c>
       <c r="Q43" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R43" t="inlineStr">
         <is>
@@ -3516,7 +3516,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -3525,20 +3525,20 @@
         </is>
       </c>
       <c r="J44" t="n">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="K44" t="n">
+        <v>11000</v>
+      </c>
+      <c r="L44" t="n">
         <v>12000</v>
       </c>
-      <c r="L44" t="n">
-        <v>13000</v>
-      </c>
       <c r="M44" t="n">
-        <v>12500</v>
+        <v>11556</v>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
@@ -3547,10 +3547,10 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>417</v>
+        <v>231</v>
       </c>
       <c r="Q44" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R44" t="inlineStr">
         <is>
@@ -3573,7 +3573,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44757</v>
+        <v>44818</v>
       </c>
       <c r="E45" t="n">
         <v>8</v>
@@ -3588,7 +3588,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -3597,20 +3597,20 @@
         </is>
       </c>
       <c r="J45" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="K45" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="L45" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M45" t="n">
-        <v>14400</v>
+        <v>12500</v>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
@@ -3619,10 +3619,10 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>288</v>
+        <v>417</v>
       </c>
       <c r="Q45" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R45" t="inlineStr">
         <is>
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44776</v>
+        <v>44757</v>
       </c>
       <c r="E46" t="n">
         <v>8</v>
@@ -3660,7 +3660,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -3669,20 +3669,20 @@
         </is>
       </c>
       <c r="J46" t="n">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="K46" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="L46" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M46" t="n">
-        <v>17467</v>
+        <v>14400</v>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
@@ -3691,10 +3691,10 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>582</v>
+        <v>288</v>
       </c>
       <c r="Q46" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R46" t="inlineStr">
         <is>
@@ -3717,7 +3717,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44496</v>
+        <v>44776</v>
       </c>
       <c r="E47" t="n">
         <v>8</v>
@@ -3732,7 +3732,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -3741,32 +3741,32 @@
         </is>
       </c>
       <c r="J47" t="n">
-        <v>350</v>
+        <v>150</v>
       </c>
       <c r="K47" t="n">
-        <v>7000</v>
+        <v>17000</v>
       </c>
       <c r="L47" t="n">
-        <v>7500</v>
+        <v>18000</v>
       </c>
       <c r="M47" t="n">
-        <v>7214</v>
+        <v>17467</v>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P47" t="n">
-        <v>180</v>
+        <v>582</v>
       </c>
       <c r="Q47" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R47" t="inlineStr">
         <is>
@@ -3789,7 +3789,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44806</v>
+        <v>44496</v>
       </c>
       <c r="E48" t="n">
         <v>8</v>
@@ -3804,7 +3804,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -3813,32 +3813,32 @@
         </is>
       </c>
       <c r="J48" t="n">
-        <v>220</v>
+        <v>350</v>
       </c>
       <c r="K48" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="L48" t="n">
-        <v>12000</v>
+        <v>7500</v>
       </c>
       <c r="M48" t="n">
-        <v>10909</v>
+        <v>7214</v>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P48" t="n">
-        <v>218</v>
+        <v>180</v>
       </c>
       <c r="Q48" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R48" t="inlineStr">
         <is>
@@ -3861,7 +3861,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44741</v>
+        <v>44806</v>
       </c>
       <c r="E49" t="n">
         <v>8</v>
@@ -3885,16 +3885,16 @@
         </is>
       </c>
       <c r="J49" t="n">
-        <v>100</v>
+        <v>220</v>
       </c>
       <c r="K49" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="L49" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="M49" t="n">
-        <v>16500</v>
+        <v>10909</v>
       </c>
       <c r="N49" t="inlineStr">
         <is>
@@ -3907,7 +3907,7 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>330</v>
+        <v>218</v>
       </c>
       <c r="Q49" t="n">
         <v>50</v>
@@ -3948,7 +3948,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -3960,17 +3960,17 @@
         <v>100</v>
       </c>
       <c r="K50" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="L50" t="n">
-        <v>22000</v>
+        <v>17000</v>
       </c>
       <c r="M50" t="n">
-        <v>21000</v>
+        <v>16500</v>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
@@ -3979,10 +3979,10 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>700</v>
+        <v>330</v>
       </c>
       <c r="Q50" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R50" t="inlineStr">
         <is>
@@ -4005,7 +4005,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44441</v>
+        <v>44741</v>
       </c>
       <c r="E51" t="n">
         <v>8</v>
@@ -4032,13 +4032,13 @@
         <v>100</v>
       </c>
       <c r="K51" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="L51" t="n">
-        <v>14000</v>
+        <v>22000</v>
       </c>
       <c r="M51" t="n">
-        <v>13500</v>
+        <v>21000</v>
       </c>
       <c r="N51" t="inlineStr">
         <is>
@@ -4051,7 +4051,7 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>450</v>
+        <v>700</v>
       </c>
       <c r="Q51" t="n">
         <v>30</v>
@@ -4077,7 +4077,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44335</v>
+        <v>44441</v>
       </c>
       <c r="E52" t="n">
         <v>8</v>
@@ -4104,13 +4104,13 @@
         <v>100</v>
       </c>
       <c r="K52" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="L52" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="M52" t="n">
-        <v>17500</v>
+        <v>13500</v>
       </c>
       <c r="N52" t="inlineStr">
         <is>
@@ -4123,7 +4123,7 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>583</v>
+        <v>450</v>
       </c>
       <c r="Q52" t="n">
         <v>30</v>
@@ -4149,7 +4149,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44764</v>
+        <v>44335</v>
       </c>
       <c r="E53" t="n">
         <v>8</v>
@@ -4164,7 +4164,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -4173,20 +4173,20 @@
         </is>
       </c>
       <c r="J53" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="K53" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="L53" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="M53" t="n">
-        <v>15429</v>
+        <v>17500</v>
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O53" t="inlineStr">
@@ -4195,10 +4195,10 @@
         </is>
       </c>
       <c r="P53" t="n">
-        <v>386</v>
+        <v>583</v>
       </c>
       <c r="Q53" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R53" t="inlineStr">
         <is>
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44778</v>
+        <v>44764</v>
       </c>
       <c r="E54" t="n">
         <v>8</v>
@@ -4236,7 +4236,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -4245,20 +4245,20 @@
         </is>
       </c>
       <c r="J54" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="K54" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L54" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="M54" t="n">
-        <v>14533</v>
+        <v>15429</v>
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O54" t="inlineStr">
@@ -4267,10 +4267,10 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>291</v>
+        <v>386</v>
       </c>
       <c r="Q54" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R54" t="inlineStr">
         <is>
@@ -4293,7 +4293,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44749</v>
+        <v>44778</v>
       </c>
       <c r="E55" t="n">
         <v>8</v>
@@ -4317,16 +4317,16 @@
         </is>
       </c>
       <c r="J55" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="K55" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L55" t="n">
         <v>15000</v>
       </c>
       <c r="M55" t="n">
-        <v>14200</v>
+        <v>14533</v>
       </c>
       <c r="N55" t="inlineStr">
         <is>
@@ -4339,7 +4339,7 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="Q55" t="n">
         <v>50</v>
@@ -4365,7 +4365,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44727</v>
+        <v>44749</v>
       </c>
       <c r="E56" t="n">
         <v>8</v>
@@ -4380,7 +4380,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -4389,20 +4389,20 @@
         </is>
       </c>
       <c r="J56" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="K56" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="L56" t="n">
-        <v>21000</v>
+        <v>15000</v>
       </c>
       <c r="M56" t="n">
-        <v>20467</v>
+        <v>14200</v>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O56" t="inlineStr">
@@ -4411,10 +4411,10 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>682</v>
+        <v>284</v>
       </c>
       <c r="Q56" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R56" t="inlineStr">
         <is>
@@ -4437,7 +4437,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44761</v>
+        <v>44727</v>
       </c>
       <c r="E57" t="n">
         <v>8</v>
@@ -4452,7 +4452,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
@@ -4461,20 +4461,20 @@
         </is>
       </c>
       <c r="J57" t="n">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="K57" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="L57" t="n">
-        <v>14000</v>
+        <v>21000</v>
       </c>
       <c r="M57" t="n">
-        <v>13375</v>
+        <v>20467</v>
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O57" t="inlineStr">
@@ -4483,10 +4483,10 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>268</v>
+        <v>682</v>
       </c>
       <c r="Q57" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R57" t="inlineStr">
         <is>
@@ -4509,7 +4509,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44342</v>
+        <v>44761</v>
       </c>
       <c r="E58" t="n">
         <v>8</v>
@@ -4524,7 +4524,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -4533,20 +4533,20 @@
         </is>
       </c>
       <c r="J58" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="K58" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="L58" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="M58" t="n">
-        <v>17500</v>
+        <v>13375</v>
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O58" t="inlineStr">
@@ -4555,10 +4555,10 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>583</v>
+        <v>268</v>
       </c>
       <c r="Q58" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R58" t="inlineStr">
         <is>
@@ -4596,7 +4596,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -4608,17 +4608,17 @@
         <v>100</v>
       </c>
       <c r="K59" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="L59" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="M59" t="n">
-        <v>15500</v>
+        <v>17500</v>
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O59" t="inlineStr">
@@ -4627,10 +4627,10 @@
         </is>
       </c>
       <c r="P59" t="n">
-        <v>388</v>
+        <v>583</v>
       </c>
       <c r="Q59" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R59" t="inlineStr">
         <is>
@@ -4653,7 +4653,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44376</v>
+        <v>44342</v>
       </c>
       <c r="E60" t="n">
         <v>8</v>
@@ -4668,7 +4668,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -4680,17 +4680,17 @@
         <v>100</v>
       </c>
       <c r="K60" t="n">
-        <v>19000</v>
+        <v>15000</v>
       </c>
       <c r="L60" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="M60" t="n">
-        <v>19500</v>
+        <v>15500</v>
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O60" t="inlineStr">
@@ -4699,10 +4699,10 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>650</v>
+        <v>388</v>
       </c>
       <c r="Q60" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R60" t="inlineStr">
         <is>
@@ -4725,7 +4725,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44442</v>
+        <v>44376</v>
       </c>
       <c r="E61" t="n">
         <v>8</v>
@@ -4752,13 +4752,13 @@
         <v>100</v>
       </c>
       <c r="K61" t="n">
-        <v>14500</v>
+        <v>19000</v>
       </c>
       <c r="L61" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="M61" t="n">
-        <v>14750</v>
+        <v>19500</v>
       </c>
       <c r="N61" t="inlineStr">
         <is>
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>492</v>
+        <v>650</v>
       </c>
       <c r="Q61" t="n">
         <v>30</v>
@@ -4797,7 +4797,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44454</v>
+        <v>44442</v>
       </c>
       <c r="E62" t="n">
         <v>8</v>
@@ -4812,7 +4812,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
@@ -4824,29 +4824,29 @@
         <v>100</v>
       </c>
       <c r="K62" t="n">
-        <v>13000</v>
+        <v>14500</v>
       </c>
       <c r="L62" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M62" t="n">
-        <v>13500</v>
+        <v>14750</v>
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P62" t="n">
-        <v>338</v>
+        <v>492</v>
       </c>
       <c r="Q62" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R62" t="inlineStr">
         <is>
@@ -4869,7 +4869,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44421</v>
+        <v>44454</v>
       </c>
       <c r="E63" t="n">
         <v>8</v>
@@ -4884,7 +4884,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
@@ -4896,29 +4896,29 @@
         <v>100</v>
       </c>
       <c r="K63" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L63" t="n">
         <v>14000</v>
       </c>
-      <c r="L63" t="n">
-        <v>15000</v>
-      </c>
       <c r="M63" t="n">
-        <v>14500</v>
+        <v>13500</v>
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P63" t="n">
-        <v>483</v>
+        <v>338</v>
       </c>
       <c r="Q63" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R63" t="inlineStr">
         <is>
@@ -4941,7 +4941,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44489</v>
+        <v>44421</v>
       </c>
       <c r="E64" t="n">
         <v>8</v>
@@ -4956,7 +4956,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
@@ -4968,17 +4968,17 @@
         <v>100</v>
       </c>
       <c r="K64" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="L64" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="M64" t="n">
-        <v>9500</v>
+        <v>14500</v>
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O64" t="inlineStr">
@@ -4987,10 +4987,10 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>190</v>
+        <v>483</v>
       </c>
       <c r="Q64" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R64" t="inlineStr">
         <is>
@@ -5028,7 +5028,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
@@ -5040,17 +5040,17 @@
         <v>100</v>
       </c>
       <c r="K65" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="L65" t="n">
-        <v>8500</v>
+        <v>10000</v>
       </c>
       <c r="M65" t="n">
-        <v>8250</v>
+        <v>9500</v>
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O65" t="inlineStr">
@@ -5059,10 +5059,10 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>275</v>
+        <v>190</v>
       </c>
       <c r="Q65" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R65" t="inlineStr">
         <is>
@@ -5085,7 +5085,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44699</v>
+        <v>44489</v>
       </c>
       <c r="E66" t="n">
         <v>8</v>
@@ -5112,13 +5112,13 @@
         <v>100</v>
       </c>
       <c r="K66" t="n">
-        <v>19000</v>
+        <v>8000</v>
       </c>
       <c r="L66" t="n">
-        <v>20000</v>
+        <v>8500</v>
       </c>
       <c r="M66" t="n">
-        <v>19500</v>
+        <v>8250</v>
       </c>
       <c r="N66" t="inlineStr">
         <is>
@@ -5131,7 +5131,7 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>650</v>
+        <v>275</v>
       </c>
       <c r="Q66" t="n">
         <v>30</v>
@@ -5157,7 +5157,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44777</v>
+        <v>44699</v>
       </c>
       <c r="E67" t="n">
         <v>8</v>
@@ -5181,16 +5181,16 @@
         </is>
       </c>
       <c r="J67" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="K67" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="L67" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="M67" t="n">
-        <v>18545</v>
+        <v>19500</v>
       </c>
       <c r="N67" t="inlineStr">
         <is>
@@ -5203,7 +5203,7 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>618</v>
+        <v>650</v>
       </c>
       <c r="Q67" t="n">
         <v>30</v>
@@ -5229,7 +5229,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44497</v>
+        <v>44777</v>
       </c>
       <c r="E68" t="n">
         <v>8</v>
@@ -5244,7 +5244,7 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
@@ -5253,20 +5253,20 @@
         </is>
       </c>
       <c r="J68" t="n">
-        <v>180</v>
+        <v>110</v>
       </c>
       <c r="K68" t="n">
-        <v>6500</v>
+        <v>18000</v>
       </c>
       <c r="L68" t="n">
-        <v>7000</v>
+        <v>19000</v>
       </c>
       <c r="M68" t="n">
-        <v>6778</v>
+        <v>18545</v>
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O68" t="inlineStr">
@@ -5275,10 +5275,10 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>136</v>
+        <v>618</v>
       </c>
       <c r="Q68" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R68" t="inlineStr">
         <is>
@@ -5316,7 +5316,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
@@ -5325,20 +5325,20 @@
         </is>
       </c>
       <c r="J69" t="n">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="K69" t="n">
+        <v>6500</v>
+      </c>
+      <c r="L69" t="n">
         <v>7000</v>
       </c>
-      <c r="L69" t="n">
-        <v>7500</v>
-      </c>
       <c r="M69" t="n">
-        <v>7250</v>
+        <v>6778</v>
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O69" t="inlineStr">
@@ -5347,10 +5347,10 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>242</v>
+        <v>136</v>
       </c>
       <c r="Q69" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R69" t="inlineStr">
         <is>
@@ -5388,7 +5388,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
@@ -5397,32 +5397,32 @@
         </is>
       </c>
       <c r="J70" t="n">
-        <v>130</v>
+        <v>200</v>
       </c>
       <c r="K70" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L70" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="M70" t="n">
-        <v>6192</v>
+        <v>7250</v>
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P70" t="n">
-        <v>155</v>
+        <v>242</v>
       </c>
       <c r="Q70" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R70" t="inlineStr">
         <is>
@@ -5445,7 +5445,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44435</v>
+        <v>44497</v>
       </c>
       <c r="E71" t="n">
         <v>8</v>
@@ -5460,7 +5460,7 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
@@ -5469,32 +5469,32 @@
         </is>
       </c>
       <c r="J71" t="n">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="K71" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="L71" t="n">
-        <v>15000</v>
+        <v>6500</v>
       </c>
       <c r="M71" t="n">
-        <v>14500</v>
+        <v>6192</v>
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P71" t="n">
-        <v>290</v>
+        <v>155</v>
       </c>
       <c r="Q71" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R71" t="inlineStr">
         <is>
@@ -5517,7 +5517,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44484</v>
+        <v>44435</v>
       </c>
       <c r="E72" t="n">
         <v>8</v>
@@ -5541,16 +5541,16 @@
         </is>
       </c>
       <c r="J72" t="n">
-        <v>220</v>
+        <v>100</v>
       </c>
       <c r="K72" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="L72" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="M72" t="n">
-        <v>8455</v>
+        <v>14500</v>
       </c>
       <c r="N72" t="inlineStr">
         <is>
@@ -5563,7 +5563,7 @@
         </is>
       </c>
       <c r="P72" t="n">
-        <v>169</v>
+        <v>290</v>
       </c>
       <c r="Q72" t="n">
         <v>50</v>
@@ -5604,7 +5604,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
@@ -5616,17 +5616,17 @@
         <v>220</v>
       </c>
       <c r="K73" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="L73" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M73" t="n">
-        <v>7727</v>
+        <v>8455</v>
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O73" t="inlineStr">
@@ -5635,10 +5635,10 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>258</v>
+        <v>169</v>
       </c>
       <c r="Q73" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R73" t="inlineStr">
         <is>
@@ -5661,58 +5661,130 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
+        <v>44484</v>
+      </c>
+      <c r="E74" t="n">
+        <v>8</v>
+      </c>
+      <c r="F74" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>Española</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J74" t="n">
+        <v>220</v>
+      </c>
+      <c r="K74" t="n">
+        <v>7500</v>
+      </c>
+      <c r="L74" t="n">
+        <v>8000</v>
+      </c>
+      <c r="M74" t="n">
+        <v>7727</v>
+      </c>
+      <c r="N74" t="inlineStr">
+        <is>
+          <t>$/caja 30 unidades</t>
+        </is>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P74" t="n">
+        <v>258</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>30</v>
+      </c>
+      <c r="R74" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>11</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D75" s="2" t="n">
         <v>44463</v>
       </c>
-      <c r="E74" t="n">
-        <v>8</v>
-      </c>
-      <c r="F74" t="n">
-        <v>100112013</v>
-      </c>
-      <c r="G74" t="inlineStr">
-        <is>
-          <t>Alcachofa</t>
-        </is>
-      </c>
-      <c r="H74" t="inlineStr">
+      <c r="E75" t="n">
+        <v>8</v>
+      </c>
+      <c r="F75" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
         <is>
           <t>Argentina(o)</t>
         </is>
       </c>
-      <c r="I74" t="inlineStr">
-        <is>
-          <t>Primera</t>
-        </is>
-      </c>
-      <c r="J74" t="n">
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J75" t="n">
         <v>100</v>
       </c>
-      <c r="K74" t="n">
+      <c r="K75" t="n">
         <v>9000</v>
       </c>
-      <c r="L74" t="n">
+      <c r="L75" t="n">
         <v>10000</v>
       </c>
-      <c r="M74" t="n">
+      <c r="M75" t="n">
         <v>9500</v>
       </c>
-      <c r="N74" t="inlineStr">
+      <c r="N75" t="inlineStr">
         <is>
           <t>$/caja 50 unidades</t>
         </is>
       </c>
-      <c r="O74" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="P74" t="n">
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P75" t="n">
         <v>190</v>
       </c>
-      <c r="Q74" t="n">
+      <c r="Q75" t="n">
         <v>50</v>
       </c>
-      <c r="R74" t="inlineStr">
+      <c r="R75" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Alcachofa.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Alcachofa.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R75"/>
+  <dimension ref="A1:R76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3933,7 +3933,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44741</v>
+        <v>44825</v>
       </c>
       <c r="E50" t="n">
         <v>8</v>
@@ -3957,16 +3957,16 @@
         </is>
       </c>
       <c r="J50" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="K50" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="L50" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="M50" t="n">
-        <v>16500</v>
+        <v>12500</v>
       </c>
       <c r="N50" t="inlineStr">
         <is>
@@ -3979,7 +3979,7 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>330</v>
+        <v>250</v>
       </c>
       <c r="Q50" t="n">
         <v>50</v>
@@ -4020,7 +4020,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -4032,17 +4032,17 @@
         <v>100</v>
       </c>
       <c r="K51" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="L51" t="n">
-        <v>22000</v>
+        <v>17000</v>
       </c>
       <c r="M51" t="n">
-        <v>21000</v>
+        <v>16500</v>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
@@ -4051,10 +4051,10 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>700</v>
+        <v>330</v>
       </c>
       <c r="Q51" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R51" t="inlineStr">
         <is>
@@ -4077,7 +4077,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44441</v>
+        <v>44741</v>
       </c>
       <c r="E52" t="n">
         <v>8</v>
@@ -4104,13 +4104,13 @@
         <v>100</v>
       </c>
       <c r="K52" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="L52" t="n">
-        <v>14000</v>
+        <v>22000</v>
       </c>
       <c r="M52" t="n">
-        <v>13500</v>
+        <v>21000</v>
       </c>
       <c r="N52" t="inlineStr">
         <is>
@@ -4123,7 +4123,7 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>450</v>
+        <v>700</v>
       </c>
       <c r="Q52" t="n">
         <v>30</v>
@@ -4149,7 +4149,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44335</v>
+        <v>44441</v>
       </c>
       <c r="E53" t="n">
         <v>8</v>
@@ -4176,13 +4176,13 @@
         <v>100</v>
       </c>
       <c r="K53" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="L53" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="M53" t="n">
-        <v>17500</v>
+        <v>13500</v>
       </c>
       <c r="N53" t="inlineStr">
         <is>
@@ -4195,7 +4195,7 @@
         </is>
       </c>
       <c r="P53" t="n">
-        <v>583</v>
+        <v>450</v>
       </c>
       <c r="Q53" t="n">
         <v>30</v>
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44764</v>
+        <v>44335</v>
       </c>
       <c r="E54" t="n">
         <v>8</v>
@@ -4236,7 +4236,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -4245,20 +4245,20 @@
         </is>
       </c>
       <c r="J54" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="K54" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="L54" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="M54" t="n">
-        <v>15429</v>
+        <v>17500</v>
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O54" t="inlineStr">
@@ -4267,10 +4267,10 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>386</v>
+        <v>583</v>
       </c>
       <c r="Q54" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R54" t="inlineStr">
         <is>
@@ -4293,7 +4293,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44778</v>
+        <v>44764</v>
       </c>
       <c r="E55" t="n">
         <v>8</v>
@@ -4308,7 +4308,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -4317,20 +4317,20 @@
         </is>
       </c>
       <c r="J55" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="K55" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L55" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="M55" t="n">
-        <v>14533</v>
+        <v>15429</v>
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O55" t="inlineStr">
@@ -4339,10 +4339,10 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>291</v>
+        <v>386</v>
       </c>
       <c r="Q55" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R55" t="inlineStr">
         <is>
@@ -4365,7 +4365,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44749</v>
+        <v>44778</v>
       </c>
       <c r="E56" t="n">
         <v>8</v>
@@ -4389,16 +4389,16 @@
         </is>
       </c>
       <c r="J56" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="K56" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L56" t="n">
         <v>15000</v>
       </c>
       <c r="M56" t="n">
-        <v>14200</v>
+        <v>14533</v>
       </c>
       <c r="N56" t="inlineStr">
         <is>
@@ -4411,7 +4411,7 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="Q56" t="n">
         <v>50</v>
@@ -4437,7 +4437,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44727</v>
+        <v>44749</v>
       </c>
       <c r="E57" t="n">
         <v>8</v>
@@ -4452,7 +4452,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
@@ -4461,20 +4461,20 @@
         </is>
       </c>
       <c r="J57" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="K57" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="L57" t="n">
-        <v>21000</v>
+        <v>15000</v>
       </c>
       <c r="M57" t="n">
-        <v>20467</v>
+        <v>14200</v>
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O57" t="inlineStr">
@@ -4483,10 +4483,10 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>682</v>
+        <v>284</v>
       </c>
       <c r="Q57" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R57" t="inlineStr">
         <is>
@@ -4509,7 +4509,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44761</v>
+        <v>44727</v>
       </c>
       <c r="E58" t="n">
         <v>8</v>
@@ -4524,7 +4524,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -4533,20 +4533,20 @@
         </is>
       </c>
       <c r="J58" t="n">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="K58" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="L58" t="n">
-        <v>14000</v>
+        <v>21000</v>
       </c>
       <c r="M58" t="n">
-        <v>13375</v>
+        <v>20467</v>
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O58" t="inlineStr">
@@ -4555,10 +4555,10 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>268</v>
+        <v>682</v>
       </c>
       <c r="Q58" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R58" t="inlineStr">
         <is>
@@ -4581,7 +4581,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44342</v>
+        <v>44761</v>
       </c>
       <c r="E59" t="n">
         <v>8</v>
@@ -4596,7 +4596,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -4605,20 +4605,20 @@
         </is>
       </c>
       <c r="J59" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="K59" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="L59" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="M59" t="n">
-        <v>17500</v>
+        <v>13375</v>
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O59" t="inlineStr">
@@ -4627,10 +4627,10 @@
         </is>
       </c>
       <c r="P59" t="n">
-        <v>583</v>
+        <v>268</v>
       </c>
       <c r="Q59" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R59" t="inlineStr">
         <is>
@@ -4668,7 +4668,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -4680,17 +4680,17 @@
         <v>100</v>
       </c>
       <c r="K60" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="L60" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="M60" t="n">
-        <v>15500</v>
+        <v>17500</v>
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O60" t="inlineStr">
@@ -4699,10 +4699,10 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>388</v>
+        <v>583</v>
       </c>
       <c r="Q60" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R60" t="inlineStr">
         <is>
@@ -4725,7 +4725,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44376</v>
+        <v>44342</v>
       </c>
       <c r="E61" t="n">
         <v>8</v>
@@ -4740,7 +4740,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -4752,17 +4752,17 @@
         <v>100</v>
       </c>
       <c r="K61" t="n">
-        <v>19000</v>
+        <v>15000</v>
       </c>
       <c r="L61" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="M61" t="n">
-        <v>19500</v>
+        <v>15500</v>
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O61" t="inlineStr">
@@ -4771,10 +4771,10 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>650</v>
+        <v>388</v>
       </c>
       <c r="Q61" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R61" t="inlineStr">
         <is>
@@ -4797,7 +4797,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44442</v>
+        <v>44376</v>
       </c>
       <c r="E62" t="n">
         <v>8</v>
@@ -4824,13 +4824,13 @@
         <v>100</v>
       </c>
       <c r="K62" t="n">
-        <v>14500</v>
+        <v>19000</v>
       </c>
       <c r="L62" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="M62" t="n">
-        <v>14750</v>
+        <v>19500</v>
       </c>
       <c r="N62" t="inlineStr">
         <is>
@@ -4843,7 +4843,7 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>492</v>
+        <v>650</v>
       </c>
       <c r="Q62" t="n">
         <v>30</v>
@@ -4869,7 +4869,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44454</v>
+        <v>44442</v>
       </c>
       <c r="E63" t="n">
         <v>8</v>
@@ -4884,7 +4884,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
@@ -4896,29 +4896,29 @@
         <v>100</v>
       </c>
       <c r="K63" t="n">
-        <v>13000</v>
+        <v>14500</v>
       </c>
       <c r="L63" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M63" t="n">
-        <v>13500</v>
+        <v>14750</v>
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P63" t="n">
-        <v>338</v>
+        <v>492</v>
       </c>
       <c r="Q63" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R63" t="inlineStr">
         <is>
@@ -4941,7 +4941,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44421</v>
+        <v>44454</v>
       </c>
       <c r="E64" t="n">
         <v>8</v>
@@ -4956,7 +4956,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
@@ -4968,29 +4968,29 @@
         <v>100</v>
       </c>
       <c r="K64" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L64" t="n">
         <v>14000</v>
       </c>
-      <c r="L64" t="n">
-        <v>15000</v>
-      </c>
       <c r="M64" t="n">
-        <v>14500</v>
+        <v>13500</v>
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P64" t="n">
-        <v>483</v>
+        <v>338</v>
       </c>
       <c r="Q64" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R64" t="inlineStr">
         <is>
@@ -5013,7 +5013,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44489</v>
+        <v>44421</v>
       </c>
       <c r="E65" t="n">
         <v>8</v>
@@ -5028,7 +5028,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
@@ -5040,17 +5040,17 @@
         <v>100</v>
       </c>
       <c r="K65" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="L65" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="M65" t="n">
-        <v>9500</v>
+        <v>14500</v>
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O65" t="inlineStr">
@@ -5059,10 +5059,10 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>190</v>
+        <v>483</v>
       </c>
       <c r="Q65" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R65" t="inlineStr">
         <is>
@@ -5100,7 +5100,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
@@ -5112,17 +5112,17 @@
         <v>100</v>
       </c>
       <c r="K66" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="L66" t="n">
-        <v>8500</v>
+        <v>10000</v>
       </c>
       <c r="M66" t="n">
-        <v>8250</v>
+        <v>9500</v>
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O66" t="inlineStr">
@@ -5131,10 +5131,10 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>275</v>
+        <v>190</v>
       </c>
       <c r="Q66" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R66" t="inlineStr">
         <is>
@@ -5157,7 +5157,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44699</v>
+        <v>44489</v>
       </c>
       <c r="E67" t="n">
         <v>8</v>
@@ -5184,13 +5184,13 @@
         <v>100</v>
       </c>
       <c r="K67" t="n">
-        <v>19000</v>
+        <v>8000</v>
       </c>
       <c r="L67" t="n">
-        <v>20000</v>
+        <v>8500</v>
       </c>
       <c r="M67" t="n">
-        <v>19500</v>
+        <v>8250</v>
       </c>
       <c r="N67" t="inlineStr">
         <is>
@@ -5203,7 +5203,7 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>650</v>
+        <v>275</v>
       </c>
       <c r="Q67" t="n">
         <v>30</v>
@@ -5229,7 +5229,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44777</v>
+        <v>44699</v>
       </c>
       <c r="E68" t="n">
         <v>8</v>
@@ -5253,16 +5253,16 @@
         </is>
       </c>
       <c r="J68" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="K68" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="L68" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="M68" t="n">
-        <v>18545</v>
+        <v>19500</v>
       </c>
       <c r="N68" t="inlineStr">
         <is>
@@ -5275,7 +5275,7 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>618</v>
+        <v>650</v>
       </c>
       <c r="Q68" t="n">
         <v>30</v>
@@ -5301,7 +5301,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44497</v>
+        <v>44777</v>
       </c>
       <c r="E69" t="n">
         <v>8</v>
@@ -5316,7 +5316,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
@@ -5325,20 +5325,20 @@
         </is>
       </c>
       <c r="J69" t="n">
-        <v>180</v>
+        <v>110</v>
       </c>
       <c r="K69" t="n">
-        <v>6500</v>
+        <v>18000</v>
       </c>
       <c r="L69" t="n">
-        <v>7000</v>
+        <v>19000</v>
       </c>
       <c r="M69" t="n">
-        <v>6778</v>
+        <v>18545</v>
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O69" t="inlineStr">
@@ -5347,10 +5347,10 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>136</v>
+        <v>618</v>
       </c>
       <c r="Q69" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R69" t="inlineStr">
         <is>
@@ -5388,7 +5388,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
@@ -5397,20 +5397,20 @@
         </is>
       </c>
       <c r="J70" t="n">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="K70" t="n">
+        <v>6500</v>
+      </c>
+      <c r="L70" t="n">
         <v>7000</v>
       </c>
-      <c r="L70" t="n">
-        <v>7500</v>
-      </c>
       <c r="M70" t="n">
-        <v>7250</v>
+        <v>6778</v>
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O70" t="inlineStr">
@@ -5419,10 +5419,10 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>242</v>
+        <v>136</v>
       </c>
       <c r="Q70" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R70" t="inlineStr">
         <is>
@@ -5460,7 +5460,7 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
@@ -5469,32 +5469,32 @@
         </is>
       </c>
       <c r="J71" t="n">
-        <v>130</v>
+        <v>200</v>
       </c>
       <c r="K71" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L71" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="M71" t="n">
-        <v>6192</v>
+        <v>7250</v>
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P71" t="n">
-        <v>155</v>
+        <v>242</v>
       </c>
       <c r="Q71" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R71" t="inlineStr">
         <is>
@@ -5517,7 +5517,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44435</v>
+        <v>44497</v>
       </c>
       <c r="E72" t="n">
         <v>8</v>
@@ -5532,7 +5532,7 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
@@ -5541,32 +5541,32 @@
         </is>
       </c>
       <c r="J72" t="n">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="K72" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="L72" t="n">
-        <v>15000</v>
+        <v>6500</v>
       </c>
       <c r="M72" t="n">
-        <v>14500</v>
+        <v>6192</v>
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P72" t="n">
-        <v>290</v>
+        <v>155</v>
       </c>
       <c r="Q72" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R72" t="inlineStr">
         <is>
@@ -5589,7 +5589,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44484</v>
+        <v>44435</v>
       </c>
       <c r="E73" t="n">
         <v>8</v>
@@ -5613,16 +5613,16 @@
         </is>
       </c>
       <c r="J73" t="n">
-        <v>220</v>
+        <v>100</v>
       </c>
       <c r="K73" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="L73" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="M73" t="n">
-        <v>8455</v>
+        <v>14500</v>
       </c>
       <c r="N73" t="inlineStr">
         <is>
@@ -5635,7 +5635,7 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>169</v>
+        <v>290</v>
       </c>
       <c r="Q73" t="n">
         <v>50</v>
@@ -5676,7 +5676,7 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
@@ -5688,17 +5688,17 @@
         <v>220</v>
       </c>
       <c r="K74" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="L74" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M74" t="n">
-        <v>7727</v>
+        <v>8455</v>
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O74" t="inlineStr">
@@ -5707,10 +5707,10 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>258</v>
+        <v>169</v>
       </c>
       <c r="Q74" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R74" t="inlineStr">
         <is>
@@ -5733,58 +5733,130 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
+        <v>44484</v>
+      </c>
+      <c r="E75" t="n">
+        <v>8</v>
+      </c>
+      <c r="F75" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>Española</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J75" t="n">
+        <v>220</v>
+      </c>
+      <c r="K75" t="n">
+        <v>7500</v>
+      </c>
+      <c r="L75" t="n">
+        <v>8000</v>
+      </c>
+      <c r="M75" t="n">
+        <v>7727</v>
+      </c>
+      <c r="N75" t="inlineStr">
+        <is>
+          <t>$/caja 30 unidades</t>
+        </is>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P75" t="n">
+        <v>258</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>30</v>
+      </c>
+      <c r="R75" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>11</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D76" s="2" t="n">
         <v>44463</v>
       </c>
-      <c r="E75" t="n">
-        <v>8</v>
-      </c>
-      <c r="F75" t="n">
-        <v>100112013</v>
-      </c>
-      <c r="G75" t="inlineStr">
-        <is>
-          <t>Alcachofa</t>
-        </is>
-      </c>
-      <c r="H75" t="inlineStr">
+      <c r="E76" t="n">
+        <v>8</v>
+      </c>
+      <c r="F76" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
         <is>
           <t>Argentina(o)</t>
         </is>
       </c>
-      <c r="I75" t="inlineStr">
-        <is>
-          <t>Primera</t>
-        </is>
-      </c>
-      <c r="J75" t="n">
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J76" t="n">
         <v>100</v>
       </c>
-      <c r="K75" t="n">
+      <c r="K76" t="n">
         <v>9000</v>
       </c>
-      <c r="L75" t="n">
+      <c r="L76" t="n">
         <v>10000</v>
       </c>
-      <c r="M75" t="n">
+      <c r="M76" t="n">
         <v>9500</v>
       </c>
-      <c r="N75" t="inlineStr">
+      <c r="N76" t="inlineStr">
         <is>
           <t>$/caja 50 unidades</t>
         </is>
       </c>
-      <c r="O75" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="P75" t="n">
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P76" t="n">
         <v>190</v>
       </c>
-      <c r="Q75" t="n">
+      <c r="Q76" t="n">
         <v>50</v>
       </c>
-      <c r="R75" t="inlineStr">
+      <c r="R76" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Alcachofa.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Alcachofa.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44483</v>
+        <v>44750</v>
       </c>
       <c r="E2" t="n">
         <v>8</v>
@@ -492,7 +492,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -501,20 +501,20 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>450</v>
+        <v>130</v>
       </c>
       <c r="K2" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="L2" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="M2" t="n">
-        <v>11444</v>
+        <v>16615</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -523,10 +523,10 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>381</v>
+        <v>332</v>
       </c>
       <c r="Q2" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R2" t="inlineStr">
         <is>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44483</v>
+        <v>44750</v>
       </c>
       <c r="E3" t="n">
         <v>8</v>
@@ -564,7 +564,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -573,32 +573,32 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>220</v>
+        <v>110</v>
       </c>
       <c r="K3" t="n">
-        <v>8000</v>
+        <v>18000</v>
       </c>
       <c r="L3" t="n">
-        <v>8500</v>
+        <v>20000</v>
       </c>
       <c r="M3" t="n">
-        <v>8273</v>
+        <v>18909</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P3" t="n">
-        <v>207</v>
+        <v>630</v>
       </c>
       <c r="Q3" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R3" t="inlineStr">
         <is>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44680</v>
+        <v>44818</v>
       </c>
       <c r="E4" t="n">
         <v>8</v>
@@ -636,7 +636,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -645,32 +645,32 @@
         </is>
       </c>
       <c r="J4" t="n">
+        <v>180</v>
+      </c>
+      <c r="K4" t="n">
+        <v>11000</v>
+      </c>
+      <c r="L4" t="n">
+        <v>12000</v>
+      </c>
+      <c r="M4" t="n">
+        <v>11556</v>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>$/caja 50 unidades</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P4" t="n">
+        <v>231</v>
+      </c>
+      <c r="Q4" t="n">
         <v>50</v>
-      </c>
-      <c r="K4" t="n">
-        <v>18000</v>
-      </c>
-      <c r="L4" t="n">
-        <v>19000</v>
-      </c>
-      <c r="M4" t="n">
-        <v>18600</v>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>$/caja 30 unidades</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="P4" t="n">
-        <v>620</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>30</v>
       </c>
       <c r="R4" t="inlineStr">
         <is>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44358</v>
+        <v>44818</v>
       </c>
       <c r="E5" t="n">
         <v>8</v>
@@ -708,7 +708,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -717,20 +717,20 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K5" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="L5" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="M5" t="n">
-        <v>19000</v>
+        <v>12500</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -739,10 +739,10 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>380</v>
+        <v>417</v>
       </c>
       <c r="Q5" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R5" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44358</v>
+        <v>44497</v>
       </c>
       <c r="E6" t="n">
         <v>8</v>
@@ -780,7 +780,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -789,20 +789,20 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="K6" t="n">
-        <v>18000</v>
+        <v>6500</v>
       </c>
       <c r="L6" t="n">
-        <v>20000</v>
+        <v>7000</v>
       </c>
       <c r="M6" t="n">
-        <v>19000</v>
+        <v>6778</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
@@ -811,10 +811,10 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>633</v>
+        <v>136</v>
       </c>
       <c r="Q6" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R6" t="inlineStr">
         <is>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44817</v>
+        <v>44497</v>
       </c>
       <c r="E7" t="n">
         <v>8</v>
@@ -852,7 +852,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -861,20 +861,20 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="K7" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="L7" t="n">
-        <v>14000</v>
+        <v>7500</v>
       </c>
       <c r="M7" t="n">
-        <v>13571</v>
+        <v>7250</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -883,10 +883,10 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>271</v>
+        <v>242</v>
       </c>
       <c r="Q7" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R7" t="inlineStr">
         <is>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44364</v>
+        <v>44497</v>
       </c>
       <c r="E8" t="n">
         <v>8</v>
@@ -924,7 +924,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -933,32 +933,32 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="K8" t="n">
-        <v>19000</v>
+        <v>6000</v>
       </c>
       <c r="L8" t="n">
-        <v>20000</v>
+        <v>6500</v>
       </c>
       <c r="M8" t="n">
-        <v>19500</v>
+        <v>6192</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P8" t="n">
-        <v>390</v>
+        <v>155</v>
       </c>
       <c r="Q8" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R8" t="inlineStr">
         <is>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44364</v>
+        <v>44799</v>
       </c>
       <c r="E9" t="n">
         <v>8</v>
@@ -996,7 +996,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1005,20 +1005,20 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K9" t="n">
-        <v>19000</v>
+        <v>13000</v>
       </c>
       <c r="L9" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="M9" t="n">
-        <v>19500</v>
+        <v>13600</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
@@ -1027,10 +1027,10 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>650</v>
+        <v>272</v>
       </c>
       <c r="Q9" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R9" t="inlineStr">
         <is>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44433</v>
+        <v>44799</v>
       </c>
       <c r="E10" t="n">
         <v>8</v>
@@ -1068,7 +1068,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1077,7 +1077,7 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K10" t="n">
         <v>14000</v>
@@ -1086,11 +1086,11 @@
         <v>15000</v>
       </c>
       <c r="M10" t="n">
-        <v>14500</v>
+        <v>14600</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
@@ -1099,10 +1099,10 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>290</v>
+        <v>487</v>
       </c>
       <c r="Q10" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R10" t="inlineStr">
         <is>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44397</v>
+        <v>44729</v>
       </c>
       <c r="E11" t="n">
         <v>8</v>
@@ -1140,7 +1140,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1149,20 +1149,20 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K11" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="L11" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M11" t="n">
-        <v>14500</v>
+        <v>17500</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
@@ -1171,10 +1171,10 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>483</v>
+        <v>438</v>
       </c>
       <c r="Q11" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R11" t="inlineStr">
         <is>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44819</v>
+        <v>44699</v>
       </c>
       <c r="E12" t="n">
         <v>8</v>
@@ -1212,7 +1212,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1221,20 +1221,20 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="K12" t="n">
-        <v>12000</v>
+        <v>19000</v>
       </c>
       <c r="L12" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="M12" t="n">
-        <v>13364</v>
+        <v>19500</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
@@ -1243,10 +1243,10 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>267</v>
+        <v>650</v>
       </c>
       <c r="Q12" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R12" t="inlineStr">
         <is>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44729</v>
+        <v>44383</v>
       </c>
       <c r="E13" t="n">
         <v>8</v>
@@ -1293,7 +1293,7 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="K13" t="n">
         <v>17000</v>
@@ -1302,11 +1302,11 @@
         <v>18000</v>
       </c>
       <c r="M13" t="n">
-        <v>17500</v>
+        <v>17400</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
@@ -1315,10 +1315,10 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>438</v>
+        <v>348</v>
       </c>
       <c r="Q13" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R13" t="inlineStr">
         <is>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44399</v>
+        <v>44769</v>
       </c>
       <c r="E15" t="n">
         <v>8</v>
@@ -1428,7 +1428,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1440,17 +1440,17 @@
         <v>100</v>
       </c>
       <c r="K15" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L15" t="n">
         <v>14000</v>
       </c>
-      <c r="L15" t="n">
-        <v>15000</v>
-      </c>
       <c r="M15" t="n">
-        <v>14500</v>
+        <v>13500</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
@@ -1459,10 +1459,10 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>483</v>
+        <v>270</v>
       </c>
       <c r="Q15" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R15" t="inlineStr">
         <is>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44383</v>
+        <v>44769</v>
       </c>
       <c r="E16" t="n">
         <v>8</v>
@@ -1500,7 +1500,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1509,20 +1509,20 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="K16" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="L16" t="n">
         <v>18000</v>
       </c>
       <c r="M16" t="n">
-        <v>17400</v>
+        <v>17000</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
@@ -1531,10 +1531,10 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>348</v>
+        <v>567</v>
       </c>
       <c r="Q16" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R16" t="inlineStr">
         <is>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44420</v>
+        <v>44489</v>
       </c>
       <c r="E17" t="n">
         <v>8</v>
@@ -1572,7 +1572,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1584,17 +1584,17 @@
         <v>100</v>
       </c>
       <c r="K17" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="L17" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="M17" t="n">
-        <v>14500</v>
+        <v>9500</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
@@ -1603,10 +1603,10 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>483</v>
+        <v>190</v>
       </c>
       <c r="Q17" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R17" t="inlineStr">
         <is>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44811</v>
+        <v>44489</v>
       </c>
       <c r="E18" t="n">
         <v>8</v>
@@ -1644,7 +1644,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1656,17 +1656,17 @@
         <v>100</v>
       </c>
       <c r="K18" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="L18" t="n">
-        <v>13000</v>
+        <v>8500</v>
       </c>
       <c r="M18" t="n">
-        <v>12500</v>
+        <v>8250</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
@@ -1675,10 +1675,10 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>312</v>
+        <v>275</v>
       </c>
       <c r="Q18" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R18" t="inlineStr">
         <is>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44750</v>
+        <v>44463</v>
       </c>
       <c r="E19" t="n">
         <v>8</v>
@@ -1725,16 +1725,16 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="K19" t="n">
-        <v>16000</v>
+        <v>9000</v>
       </c>
       <c r="L19" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="M19" t="n">
-        <v>16615</v>
+        <v>9500</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>332</v>
+        <v>190</v>
       </c>
       <c r="Q19" t="n">
         <v>50</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44750</v>
+        <v>44778</v>
       </c>
       <c r="E20" t="n">
         <v>8</v>
@@ -1788,7 +1788,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1797,20 +1797,20 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="K20" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="L20" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="M20" t="n">
-        <v>18909</v>
+        <v>14533</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
@@ -1819,10 +1819,10 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>630</v>
+        <v>291</v>
       </c>
       <c r="Q20" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R20" t="inlineStr">
         <is>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44769</v>
+        <v>44727</v>
       </c>
       <c r="E21" t="n">
         <v>8</v>
@@ -1860,7 +1860,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1869,20 +1869,20 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="K21" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="L21" t="n">
-        <v>14000</v>
+        <v>21000</v>
       </c>
       <c r="M21" t="n">
-        <v>13500</v>
+        <v>20467</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
@@ -1891,10 +1891,10 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>270</v>
+        <v>682</v>
       </c>
       <c r="Q21" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R21" t="inlineStr">
         <is>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44769</v>
+        <v>44764</v>
       </c>
       <c r="E22" t="n">
         <v>8</v>
@@ -1932,7 +1932,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1941,20 +1941,20 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="K22" t="n">
+        <v>15000</v>
+      </c>
+      <c r="L22" t="n">
         <v>16000</v>
       </c>
-      <c r="L22" t="n">
-        <v>18000</v>
-      </c>
       <c r="M22" t="n">
-        <v>17000</v>
+        <v>15429</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
@@ -1963,10 +1963,10 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>567</v>
+        <v>386</v>
       </c>
       <c r="Q22" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R22" t="inlineStr">
         <is>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44804</v>
+        <v>44399</v>
       </c>
       <c r="E23" t="n">
         <v>8</v>
@@ -2004,7 +2004,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -2013,16 +2013,16 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="K23" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="L23" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M23" t="n">
-        <v>11533</v>
+        <v>14500</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>384</v>
+        <v>483</v>
       </c>
       <c r="Q23" t="n">
         <v>30</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44791</v>
+        <v>44342</v>
       </c>
       <c r="E24" t="n">
         <v>8</v>
@@ -2076,7 +2076,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -2085,20 +2085,20 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="K24" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="L24" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M24" t="n">
-        <v>14455</v>
+        <v>17500</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
@@ -2107,10 +2107,10 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>289</v>
+        <v>583</v>
       </c>
       <c r="Q24" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R24" t="inlineStr">
         <is>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44791</v>
+        <v>44342</v>
       </c>
       <c r="E25" t="n">
         <v>8</v>
@@ -2148,7 +2148,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -2170,7 +2170,7 @@
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
@@ -2179,10 +2179,10 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>517</v>
+        <v>388</v>
       </c>
       <c r="Q25" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R25" t="inlineStr">
         <is>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44791</v>
+        <v>44447</v>
       </c>
       <c r="E26" t="n">
         <v>8</v>
@@ -2220,7 +2220,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -2229,7 +2229,7 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="K26" t="n">
         <v>14000</v>
@@ -2238,11 +2238,11 @@
         <v>15000</v>
       </c>
       <c r="M26" t="n">
-        <v>14444</v>
+        <v>14500</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
@@ -2251,10 +2251,10 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>289</v>
+        <v>483</v>
       </c>
       <c r="Q26" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R26" t="inlineStr">
         <is>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44748</v>
+        <v>44420</v>
       </c>
       <c r="E27" t="n">
         <v>8</v>
@@ -2292,7 +2292,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -2301,20 +2301,20 @@
         </is>
       </c>
       <c r="J27" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="K27" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L27" t="n">
         <v>15000</v>
       </c>
-      <c r="L27" t="n">
-        <v>16000</v>
-      </c>
       <c r="M27" t="n">
-        <v>15545</v>
+        <v>14500</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
@@ -2323,10 +2323,10 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>389</v>
+        <v>483</v>
       </c>
       <c r="Q27" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R27" t="inlineStr">
         <is>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44722</v>
+        <v>44428</v>
       </c>
       <c r="E28" t="n">
         <v>8</v>
@@ -2373,16 +2373,16 @@
         </is>
       </c>
       <c r="J28" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K28" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="L28" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="M28" t="n">
-        <v>21333</v>
+        <v>14500</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
@@ -2395,7 +2395,7 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>711</v>
+        <v>483</v>
       </c>
       <c r="Q28" t="n">
         <v>30</v>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44428</v>
+        <v>44350</v>
       </c>
       <c r="E29" t="n">
         <v>8</v>
@@ -2436,7 +2436,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -2445,20 +2445,20 @@
         </is>
       </c>
       <c r="J29" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K29" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L29" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="M29" t="n">
-        <v>14500</v>
+        <v>15600</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
@@ -2467,10 +2467,10 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>483</v>
+        <v>312</v>
       </c>
       <c r="Q29" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R29" t="inlineStr">
         <is>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44426</v>
+        <v>44350</v>
       </c>
       <c r="E30" t="n">
         <v>8</v>
@@ -2508,7 +2508,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -2517,20 +2517,20 @@
         </is>
       </c>
       <c r="J30" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="K30" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="L30" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="M30" t="n">
-        <v>12600</v>
+        <v>17500</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
@@ -2539,10 +2539,10 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>315</v>
+        <v>583</v>
       </c>
       <c r="Q30" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R30" t="inlineStr">
         <is>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44447</v>
+        <v>44804</v>
       </c>
       <c r="E31" t="n">
         <v>8</v>
@@ -2580,7 +2580,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -2589,16 +2589,16 @@
         </is>
       </c>
       <c r="J31" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="K31" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="L31" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="M31" t="n">
-        <v>14500</v>
+        <v>11533</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
@@ -2611,7 +2611,7 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>483</v>
+        <v>384</v>
       </c>
       <c r="Q31" t="n">
         <v>30</v>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44799</v>
+        <v>44757</v>
       </c>
       <c r="E32" t="n">
         <v>8</v>
@@ -2664,13 +2664,13 @@
         <v>50</v>
       </c>
       <c r="K32" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L32" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M32" t="n">
-        <v>13600</v>
+        <v>14400</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
@@ -2683,7 +2683,7 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>272</v>
+        <v>288</v>
       </c>
       <c r="Q32" t="n">
         <v>50</v>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44799</v>
+        <v>44806</v>
       </c>
       <c r="E33" t="n">
         <v>8</v>
@@ -2724,7 +2724,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -2733,32 +2733,32 @@
         </is>
       </c>
       <c r="J33" t="n">
+        <v>220</v>
+      </c>
+      <c r="K33" t="n">
+        <v>10000</v>
+      </c>
+      <c r="L33" t="n">
+        <v>12000</v>
+      </c>
+      <c r="M33" t="n">
+        <v>10909</v>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>$/caja 50 unidades</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P33" t="n">
+        <v>218</v>
+      </c>
+      <c r="Q33" t="n">
         <v>50</v>
-      </c>
-      <c r="K33" t="n">
-        <v>14000</v>
-      </c>
-      <c r="L33" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M33" t="n">
-        <v>14600</v>
-      </c>
-      <c r="N33" t="inlineStr">
-        <is>
-          <t>$/caja 30 unidades</t>
-        </is>
-      </c>
-      <c r="O33" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="P33" t="n">
-        <v>487</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>30</v>
       </c>
       <c r="R33" t="inlineStr">
         <is>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44803</v>
+        <v>44761</v>
       </c>
       <c r="E34" t="n">
         <v>8</v>
@@ -2805,7 +2805,7 @@
         </is>
       </c>
       <c r="J34" t="n">
-        <v>170</v>
+        <v>80</v>
       </c>
       <c r="K34" t="n">
         <v>13000</v>
@@ -2814,7 +2814,7 @@
         <v>14000</v>
       </c>
       <c r="M34" t="n">
-        <v>13529</v>
+        <v>13375</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="Q34" t="n">
         <v>50</v>
@@ -2868,7 +2868,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -2877,20 +2877,20 @@
         </is>
       </c>
       <c r="J35" t="n">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="K35" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="L35" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="M35" t="n">
-        <v>15467</v>
+        <v>13529</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
@@ -2899,10 +2899,10 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>516</v>
+        <v>271</v>
       </c>
       <c r="Q35" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R35" t="inlineStr">
         <is>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44385</v>
+        <v>44803</v>
       </c>
       <c r="E36" t="n">
         <v>8</v>
@@ -2949,16 +2949,16 @@
         </is>
       </c>
       <c r="J36" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="K36" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="L36" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="M36" t="n">
-        <v>17500</v>
+        <v>15467</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>583</v>
+        <v>516</v>
       </c>
       <c r="Q36" t="n">
         <v>30</v>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44755</v>
+        <v>44825</v>
       </c>
       <c r="E37" t="n">
         <v>8</v>
@@ -3021,16 +3021,16 @@
         </is>
       </c>
       <c r="J37" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="K37" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="L37" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="M37" t="n">
-        <v>16500</v>
+        <v>12500</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
@@ -3043,7 +3043,7 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>330</v>
+        <v>250</v>
       </c>
       <c r="Q37" t="n">
         <v>50</v>
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44755</v>
+        <v>44721</v>
       </c>
       <c r="E38" t="n">
         <v>8</v>
@@ -3093,16 +3093,16 @@
         </is>
       </c>
       <c r="J38" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="K38" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="L38" t="n">
         <v>20000</v>
       </c>
       <c r="M38" t="n">
-        <v>19000</v>
+        <v>19533</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
@@ -3115,7 +3115,7 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>633</v>
+        <v>651</v>
       </c>
       <c r="Q38" t="n">
         <v>30</v>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44350</v>
+        <v>44819</v>
       </c>
       <c r="E39" t="n">
         <v>8</v>
@@ -3165,16 +3165,16 @@
         </is>
       </c>
       <c r="J39" t="n">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="K39" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L39" t="n">
         <v>15000</v>
       </c>
-      <c r="L39" t="n">
-        <v>16000</v>
-      </c>
       <c r="M39" t="n">
-        <v>15600</v>
+        <v>13364</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
@@ -3187,7 +3187,7 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>312</v>
+        <v>267</v>
       </c>
       <c r="Q39" t="n">
         <v>50</v>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44350</v>
+        <v>44817</v>
       </c>
       <c r="E40" t="n">
         <v>8</v>
@@ -3228,7 +3228,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -3237,20 +3237,20 @@
         </is>
       </c>
       <c r="J40" t="n">
-        <v>40</v>
+        <v>140</v>
       </c>
       <c r="K40" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="L40" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="M40" t="n">
-        <v>17500</v>
+        <v>13571</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
@@ -3259,10 +3259,10 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>583</v>
+        <v>271</v>
       </c>
       <c r="Q40" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R40" t="inlineStr">
         <is>
@@ -3285,7 +3285,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44721</v>
+        <v>44397</v>
       </c>
       <c r="E41" t="n">
         <v>8</v>
@@ -3309,16 +3309,16 @@
         </is>
       </c>
       <c r="J41" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="K41" t="n">
-        <v>19000</v>
+        <v>14000</v>
       </c>
       <c r="L41" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="M41" t="n">
-        <v>19533</v>
+        <v>14500</v>
       </c>
       <c r="N41" t="inlineStr">
         <is>
@@ -3331,7 +3331,7 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>651</v>
+        <v>483</v>
       </c>
       <c r="Q41" t="n">
         <v>30</v>
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44706</v>
+        <v>44483</v>
       </c>
       <c r="E42" t="n">
         <v>8</v>
@@ -3381,16 +3381,16 @@
         </is>
       </c>
       <c r="J42" t="n">
-        <v>50</v>
+        <v>450</v>
       </c>
       <c r="K42" t="n">
-        <v>23000</v>
+        <v>11000</v>
       </c>
       <c r="L42" t="n">
-        <v>24000</v>
+        <v>12000</v>
       </c>
       <c r="M42" t="n">
-        <v>23400</v>
+        <v>11444</v>
       </c>
       <c r="N42" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>780</v>
+        <v>381</v>
       </c>
       <c r="Q42" t="n">
         <v>30</v>
@@ -3429,7 +3429,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44784</v>
+        <v>44483</v>
       </c>
       <c r="E43" t="n">
         <v>8</v>
@@ -3444,7 +3444,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -3453,32 +3453,32 @@
         </is>
       </c>
       <c r="J43" t="n">
-        <v>50</v>
+        <v>220</v>
       </c>
       <c r="K43" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="L43" t="n">
-        <v>15000</v>
+        <v>8500</v>
       </c>
       <c r="M43" t="n">
-        <v>14400</v>
+        <v>8273</v>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P43" t="n">
-        <v>480</v>
+        <v>207</v>
       </c>
       <c r="Q43" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R43" t="inlineStr">
         <is>
@@ -3501,7 +3501,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44818</v>
+        <v>44364</v>
       </c>
       <c r="E44" t="n">
         <v>8</v>
@@ -3525,16 +3525,16 @@
         </is>
       </c>
       <c r="J44" t="n">
-        <v>180</v>
+        <v>100</v>
       </c>
       <c r="K44" t="n">
-        <v>11000</v>
+        <v>19000</v>
       </c>
       <c r="L44" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="M44" t="n">
-        <v>11556</v>
+        <v>19500</v>
       </c>
       <c r="N44" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>231</v>
+        <v>390</v>
       </c>
       <c r="Q44" t="n">
         <v>50</v>
@@ -3573,7 +3573,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44818</v>
+        <v>44364</v>
       </c>
       <c r="E45" t="n">
         <v>8</v>
@@ -3597,16 +3597,16 @@
         </is>
       </c>
       <c r="J45" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K45" t="n">
-        <v>12000</v>
+        <v>19000</v>
       </c>
       <c r="L45" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="M45" t="n">
-        <v>12500</v>
+        <v>19500</v>
       </c>
       <c r="N45" t="inlineStr">
         <is>
@@ -3619,7 +3619,7 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>417</v>
+        <v>650</v>
       </c>
       <c r="Q45" t="n">
         <v>30</v>
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44757</v>
+        <v>44777</v>
       </c>
       <c r="E46" t="n">
         <v>8</v>
@@ -3660,7 +3660,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -3669,20 +3669,20 @@
         </is>
       </c>
       <c r="J46" t="n">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="K46" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="L46" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="M46" t="n">
-        <v>14400</v>
+        <v>18545</v>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
@@ -3691,10 +3691,10 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>288</v>
+        <v>618</v>
       </c>
       <c r="Q46" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R46" t="inlineStr">
         <is>
@@ -3717,7 +3717,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44776</v>
+        <v>44441</v>
       </c>
       <c r="E47" t="n">
         <v>8</v>
@@ -3741,16 +3741,16 @@
         </is>
       </c>
       <c r="J47" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="K47" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="L47" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="M47" t="n">
-        <v>17467</v>
+        <v>13500</v>
       </c>
       <c r="N47" t="inlineStr">
         <is>
@@ -3763,7 +3763,7 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>582</v>
+        <v>450</v>
       </c>
       <c r="Q47" t="n">
         <v>30</v>
@@ -3789,7 +3789,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44496</v>
+        <v>44335</v>
       </c>
       <c r="E48" t="n">
         <v>8</v>
@@ -3804,7 +3804,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -3813,32 +3813,32 @@
         </is>
       </c>
       <c r="J48" t="n">
-        <v>350</v>
+        <v>100</v>
       </c>
       <c r="K48" t="n">
-        <v>7000</v>
+        <v>17000</v>
       </c>
       <c r="L48" t="n">
-        <v>7500</v>
+        <v>18000</v>
       </c>
       <c r="M48" t="n">
-        <v>7214</v>
+        <v>17500</v>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P48" t="n">
-        <v>180</v>
+        <v>583</v>
       </c>
       <c r="Q48" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R48" t="inlineStr">
         <is>
@@ -3861,7 +3861,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44806</v>
+        <v>44741</v>
       </c>
       <c r="E49" t="n">
         <v>8</v>
@@ -3885,16 +3885,16 @@
         </is>
       </c>
       <c r="J49" t="n">
-        <v>220</v>
+        <v>100</v>
       </c>
       <c r="K49" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="L49" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="M49" t="n">
-        <v>10909</v>
+        <v>16500</v>
       </c>
       <c r="N49" t="inlineStr">
         <is>
@@ -3907,7 +3907,7 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>218</v>
+        <v>330</v>
       </c>
       <c r="Q49" t="n">
         <v>50</v>
@@ -3933,7 +3933,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44825</v>
+        <v>44741</v>
       </c>
       <c r="E50" t="n">
         <v>8</v>
@@ -3948,7 +3948,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -3957,20 +3957,20 @@
         </is>
       </c>
       <c r="J50" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="K50" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="L50" t="n">
-        <v>13000</v>
+        <v>22000</v>
       </c>
       <c r="M50" t="n">
-        <v>12500</v>
+        <v>21000</v>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
@@ -3979,10 +3979,10 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>250</v>
+        <v>700</v>
       </c>
       <c r="Q50" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R50" t="inlineStr">
         <is>
@@ -4005,7 +4005,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44741</v>
+        <v>44358</v>
       </c>
       <c r="E51" t="n">
         <v>8</v>
@@ -4032,13 +4032,13 @@
         <v>100</v>
       </c>
       <c r="K51" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="L51" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="M51" t="n">
-        <v>16500</v>
+        <v>19000</v>
       </c>
       <c r="N51" t="inlineStr">
         <is>
@@ -4051,7 +4051,7 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>330</v>
+        <v>380</v>
       </c>
       <c r="Q51" t="n">
         <v>50</v>
@@ -4077,7 +4077,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44741</v>
+        <v>44358</v>
       </c>
       <c r="E52" t="n">
         <v>8</v>
@@ -4104,13 +4104,13 @@
         <v>100</v>
       </c>
       <c r="K52" t="n">
+        <v>18000</v>
+      </c>
+      <c r="L52" t="n">
         <v>20000</v>
       </c>
-      <c r="L52" t="n">
-        <v>22000</v>
-      </c>
       <c r="M52" t="n">
-        <v>21000</v>
+        <v>19000</v>
       </c>
       <c r="N52" t="inlineStr">
         <is>
@@ -4123,7 +4123,7 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>700</v>
+        <v>633</v>
       </c>
       <c r="Q52" t="n">
         <v>30</v>
@@ -4149,7 +4149,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44441</v>
+        <v>44776</v>
       </c>
       <c r="E53" t="n">
         <v>8</v>
@@ -4173,16 +4173,16 @@
         </is>
       </c>
       <c r="J53" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="K53" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="L53" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="M53" t="n">
-        <v>13500</v>
+        <v>17467</v>
       </c>
       <c r="N53" t="inlineStr">
         <is>
@@ -4195,7 +4195,7 @@
         </is>
       </c>
       <c r="P53" t="n">
-        <v>450</v>
+        <v>582</v>
       </c>
       <c r="Q53" t="n">
         <v>30</v>
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44335</v>
+        <v>44680</v>
       </c>
       <c r="E54" t="n">
         <v>8</v>
@@ -4245,16 +4245,16 @@
         </is>
       </c>
       <c r="J54" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K54" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="L54" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="M54" t="n">
-        <v>17500</v>
+        <v>18600</v>
       </c>
       <c r="N54" t="inlineStr">
         <is>
@@ -4267,7 +4267,7 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>583</v>
+        <v>620</v>
       </c>
       <c r="Q54" t="n">
         <v>30</v>
@@ -4293,7 +4293,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44764</v>
+        <v>44791</v>
       </c>
       <c r="E55" t="n">
         <v>8</v>
@@ -4308,7 +4308,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -4317,20 +4317,20 @@
         </is>
       </c>
       <c r="J55" t="n">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="K55" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L55" t="n">
         <v>15000</v>
       </c>
-      <c r="L55" t="n">
-        <v>16000</v>
-      </c>
       <c r="M55" t="n">
-        <v>15429</v>
+        <v>14455</v>
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O55" t="inlineStr">
@@ -4339,10 +4339,10 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>386</v>
+        <v>289</v>
       </c>
       <c r="Q55" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R55" t="inlineStr">
         <is>
@@ -4365,7 +4365,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44778</v>
+        <v>44791</v>
       </c>
       <c r="E56" t="n">
         <v>8</v>
@@ -4380,7 +4380,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -4389,20 +4389,20 @@
         </is>
       </c>
       <c r="J56" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="K56" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L56" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="M56" t="n">
-        <v>14533</v>
+        <v>15500</v>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O56" t="inlineStr">
@@ -4411,10 +4411,10 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>291</v>
+        <v>517</v>
       </c>
       <c r="Q56" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R56" t="inlineStr">
         <is>
@@ -4437,7 +4437,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44749</v>
+        <v>44791</v>
       </c>
       <c r="E57" t="n">
         <v>8</v>
@@ -4452,7 +4452,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
@@ -4461,16 +4461,16 @@
         </is>
       </c>
       <c r="J57" t="n">
-        <v>250</v>
+        <v>90</v>
       </c>
       <c r="K57" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L57" t="n">
         <v>15000</v>
       </c>
       <c r="M57" t="n">
-        <v>14200</v>
+        <v>14444</v>
       </c>
       <c r="N57" t="inlineStr">
         <is>
@@ -4483,7 +4483,7 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="Q57" t="n">
         <v>50</v>
@@ -4509,7 +4509,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44727</v>
+        <v>44749</v>
       </c>
       <c r="E58" t="n">
         <v>8</v>
@@ -4524,7 +4524,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -4533,20 +4533,20 @@
         </is>
       </c>
       <c r="J58" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="K58" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="L58" t="n">
-        <v>21000</v>
+        <v>15000</v>
       </c>
       <c r="M58" t="n">
-        <v>20467</v>
+        <v>14200</v>
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O58" t="inlineStr">
@@ -4555,10 +4555,10 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>682</v>
+        <v>284</v>
       </c>
       <c r="Q58" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R58" t="inlineStr">
         <is>
@@ -4581,7 +4581,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44761</v>
+        <v>44811</v>
       </c>
       <c r="E59" t="n">
         <v>8</v>
@@ -4596,7 +4596,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -4605,20 +4605,20 @@
         </is>
       </c>
       <c r="J59" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="K59" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L59" t="n">
         <v>13000</v>
       </c>
-      <c r="L59" t="n">
-        <v>14000</v>
-      </c>
       <c r="M59" t="n">
-        <v>13375</v>
+        <v>12500</v>
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O59" t="inlineStr">
@@ -4627,10 +4627,10 @@
         </is>
       </c>
       <c r="P59" t="n">
-        <v>268</v>
+        <v>312</v>
       </c>
       <c r="Q59" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R59" t="inlineStr">
         <is>
@@ -4653,7 +4653,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44342</v>
+        <v>44435</v>
       </c>
       <c r="E60" t="n">
         <v>8</v>
@@ -4668,7 +4668,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -4680,17 +4680,17 @@
         <v>100</v>
       </c>
       <c r="K60" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="L60" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M60" t="n">
-        <v>17500</v>
+        <v>14500</v>
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O60" t="inlineStr">
@@ -4699,10 +4699,10 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>583</v>
+        <v>290</v>
       </c>
       <c r="Q60" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R60" t="inlineStr">
         <is>
@@ -4725,7 +4725,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44342</v>
+        <v>44442</v>
       </c>
       <c r="E61" t="n">
         <v>8</v>
@@ -4740,7 +4740,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -4752,17 +4752,17 @@
         <v>100</v>
       </c>
       <c r="K61" t="n">
+        <v>14500</v>
+      </c>
+      <c r="L61" t="n">
         <v>15000</v>
       </c>
-      <c r="L61" t="n">
-        <v>16000</v>
-      </c>
       <c r="M61" t="n">
-        <v>15500</v>
+        <v>14750</v>
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O61" t="inlineStr">
@@ -4771,10 +4771,10 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>388</v>
+        <v>492</v>
       </c>
       <c r="Q61" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R61" t="inlineStr">
         <is>
@@ -4797,7 +4797,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44376</v>
+        <v>44755</v>
       </c>
       <c r="E62" t="n">
         <v>8</v>
@@ -4812,7 +4812,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
@@ -4824,17 +4824,17 @@
         <v>100</v>
       </c>
       <c r="K62" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="L62" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="M62" t="n">
-        <v>19500</v>
+        <v>16500</v>
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O62" t="inlineStr">
@@ -4843,10 +4843,10 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>650</v>
+        <v>330</v>
       </c>
       <c r="Q62" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R62" t="inlineStr">
         <is>
@@ -4869,7 +4869,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44442</v>
+        <v>44755</v>
       </c>
       <c r="E63" t="n">
         <v>8</v>
@@ -4896,13 +4896,13 @@
         <v>100</v>
       </c>
       <c r="K63" t="n">
-        <v>14500</v>
+        <v>18000</v>
       </c>
       <c r="L63" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="M63" t="n">
-        <v>14750</v>
+        <v>19000</v>
       </c>
       <c r="N63" t="inlineStr">
         <is>
@@ -4915,7 +4915,7 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>492</v>
+        <v>633</v>
       </c>
       <c r="Q63" t="n">
         <v>30</v>
@@ -4941,7 +4941,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44454</v>
+        <v>44426</v>
       </c>
       <c r="E64" t="n">
         <v>8</v>
@@ -4965,16 +4965,16 @@
         </is>
       </c>
       <c r="J64" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K64" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L64" t="n">
         <v>13000</v>
       </c>
-      <c r="L64" t="n">
-        <v>14000</v>
-      </c>
       <c r="M64" t="n">
-        <v>13500</v>
+        <v>12600</v>
       </c>
       <c r="N64" t="inlineStr">
         <is>
@@ -4983,11 +4983,11 @@
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P64" t="n">
-        <v>338</v>
+        <v>315</v>
       </c>
       <c r="Q64" t="n">
         <v>40</v>
@@ -5013,7 +5013,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44421</v>
+        <v>44484</v>
       </c>
       <c r="E65" t="n">
         <v>8</v>
@@ -5028,7 +5028,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
@@ -5037,20 +5037,20 @@
         </is>
       </c>
       <c r="J65" t="n">
-        <v>100</v>
+        <v>220</v>
       </c>
       <c r="K65" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="L65" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="M65" t="n">
-        <v>14500</v>
+        <v>8455</v>
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O65" t="inlineStr">
@@ -5059,10 +5059,10 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>483</v>
+        <v>169</v>
       </c>
       <c r="Q65" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R65" t="inlineStr">
         <is>
@@ -5085,7 +5085,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44489</v>
+        <v>44484</v>
       </c>
       <c r="E66" t="n">
         <v>8</v>
@@ -5100,7 +5100,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
@@ -5109,20 +5109,20 @@
         </is>
       </c>
       <c r="J66" t="n">
-        <v>100</v>
+        <v>220</v>
       </c>
       <c r="K66" t="n">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="L66" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M66" t="n">
-        <v>9500</v>
+        <v>7727</v>
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O66" t="inlineStr">
@@ -5131,10 +5131,10 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>190</v>
+        <v>258</v>
       </c>
       <c r="Q66" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R66" t="inlineStr">
         <is>
@@ -5157,7 +5157,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44489</v>
+        <v>44784</v>
       </c>
       <c r="E67" t="n">
         <v>8</v>
@@ -5181,16 +5181,16 @@
         </is>
       </c>
       <c r="J67" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K67" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="L67" t="n">
-        <v>8500</v>
+        <v>15000</v>
       </c>
       <c r="M67" t="n">
-        <v>8250</v>
+        <v>14400</v>
       </c>
       <c r="N67" t="inlineStr">
         <is>
@@ -5203,7 +5203,7 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>275</v>
+        <v>480</v>
       </c>
       <c r="Q67" t="n">
         <v>30</v>
@@ -5229,7 +5229,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44699</v>
+        <v>44722</v>
       </c>
       <c r="E68" t="n">
         <v>8</v>
@@ -5253,16 +5253,16 @@
         </is>
       </c>
       <c r="J68" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K68" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="L68" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="M68" t="n">
-        <v>19500</v>
+        <v>21333</v>
       </c>
       <c r="N68" t="inlineStr">
         <is>
@@ -5275,7 +5275,7 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>650</v>
+        <v>711</v>
       </c>
       <c r="Q68" t="n">
         <v>30</v>
@@ -5301,7 +5301,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44777</v>
+        <v>44706</v>
       </c>
       <c r="E69" t="n">
         <v>8</v>
@@ -5325,16 +5325,16 @@
         </is>
       </c>
       <c r="J69" t="n">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="K69" t="n">
-        <v>18000</v>
+        <v>23000</v>
       </c>
       <c r="L69" t="n">
-        <v>19000</v>
+        <v>24000</v>
       </c>
       <c r="M69" t="n">
-        <v>18545</v>
+        <v>23400</v>
       </c>
       <c r="N69" t="inlineStr">
         <is>
@@ -5347,7 +5347,7 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>618</v>
+        <v>780</v>
       </c>
       <c r="Q69" t="n">
         <v>30</v>
@@ -5373,7 +5373,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44497</v>
+        <v>44748</v>
       </c>
       <c r="E70" t="n">
         <v>8</v>
@@ -5397,20 +5397,20 @@
         </is>
       </c>
       <c r="J70" t="n">
-        <v>180</v>
+        <v>110</v>
       </c>
       <c r="K70" t="n">
-        <v>6500</v>
+        <v>15000</v>
       </c>
       <c r="L70" t="n">
-        <v>7000</v>
+        <v>16000</v>
       </c>
       <c r="M70" t="n">
-        <v>6778</v>
+        <v>15545</v>
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O70" t="inlineStr">
@@ -5419,10 +5419,10 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>136</v>
+        <v>389</v>
       </c>
       <c r="Q70" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R70" t="inlineStr">
         <is>
@@ -5445,7 +5445,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44497</v>
+        <v>44421</v>
       </c>
       <c r="E71" t="n">
         <v>8</v>
@@ -5469,16 +5469,16 @@
         </is>
       </c>
       <c r="J71" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K71" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="L71" t="n">
-        <v>7500</v>
+        <v>15000</v>
       </c>
       <c r="M71" t="n">
-        <v>7250</v>
+        <v>14500</v>
       </c>
       <c r="N71" t="inlineStr">
         <is>
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>242</v>
+        <v>483</v>
       </c>
       <c r="Q71" t="n">
         <v>30</v>
@@ -5517,7 +5517,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44497</v>
+        <v>44496</v>
       </c>
       <c r="E72" t="n">
         <v>8</v>
@@ -5541,16 +5541,16 @@
         </is>
       </c>
       <c r="J72" t="n">
-        <v>130</v>
+        <v>350</v>
       </c>
       <c r="K72" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L72" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="M72" t="n">
-        <v>6192</v>
+        <v>7214</v>
       </c>
       <c r="N72" t="inlineStr">
         <is>
@@ -5563,7 +5563,7 @@
         </is>
       </c>
       <c r="P72" t="n">
-        <v>155</v>
+        <v>180</v>
       </c>
       <c r="Q72" t="n">
         <v>40</v>
@@ -5589,7 +5589,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44435</v>
+        <v>44376</v>
       </c>
       <c r="E73" t="n">
         <v>8</v>
@@ -5604,7 +5604,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
@@ -5616,17 +5616,17 @@
         <v>100</v>
       </c>
       <c r="K73" t="n">
-        <v>14000</v>
+        <v>19000</v>
       </c>
       <c r="L73" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="M73" t="n">
-        <v>14500</v>
+        <v>19500</v>
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O73" t="inlineStr">
@@ -5635,10 +5635,10 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>290</v>
+        <v>650</v>
       </c>
       <c r="Q73" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R73" t="inlineStr">
         <is>
@@ -5661,7 +5661,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44484</v>
+        <v>44433</v>
       </c>
       <c r="E74" t="n">
         <v>8</v>
@@ -5685,16 +5685,16 @@
         </is>
       </c>
       <c r="J74" t="n">
-        <v>220</v>
+        <v>100</v>
       </c>
       <c r="K74" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="L74" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="M74" t="n">
-        <v>8455</v>
+        <v>14500</v>
       </c>
       <c r="N74" t="inlineStr">
         <is>
@@ -5707,7 +5707,7 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>169</v>
+        <v>290</v>
       </c>
       <c r="Q74" t="n">
         <v>50</v>
@@ -5733,7 +5733,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>44484</v>
+        <v>44385</v>
       </c>
       <c r="E75" t="n">
         <v>8</v>
@@ -5757,16 +5757,16 @@
         </is>
       </c>
       <c r="J75" t="n">
-        <v>220</v>
+        <v>100</v>
       </c>
       <c r="K75" t="n">
-        <v>7500</v>
+        <v>17000</v>
       </c>
       <c r="L75" t="n">
-        <v>8000</v>
+        <v>18000</v>
       </c>
       <c r="M75" t="n">
-        <v>7727</v>
+        <v>17500</v>
       </c>
       <c r="N75" t="inlineStr">
         <is>
@@ -5779,7 +5779,7 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>258</v>
+        <v>583</v>
       </c>
       <c r="Q75" t="n">
         <v>30</v>
@@ -5805,7 +5805,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44463</v>
+        <v>44454</v>
       </c>
       <c r="E76" t="n">
         <v>8</v>
@@ -5820,7 +5820,7 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
@@ -5832,29 +5832,29 @@
         <v>100</v>
       </c>
       <c r="K76" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="L76" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="M76" t="n">
-        <v>9500</v>
+        <v>13500</v>
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P76" t="n">
-        <v>190</v>
+        <v>338</v>
       </c>
       <c r="Q76" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R76" t="inlineStr">
         <is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Alcachofa.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Alcachofa.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R76"/>
+  <dimension ref="A1:R78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44762</v>
+        <v>44831</v>
       </c>
       <c r="E14" t="n">
         <v>8</v>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>70</v>
+        <v>220</v>
       </c>
       <c r="K14" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="L14" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="M14" t="n">
-        <v>15571</v>
+        <v>10455</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>519</v>
+        <v>348</v>
       </c>
       <c r="Q14" t="n">
         <v>30</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44769</v>
+        <v>44762</v>
       </c>
       <c r="E15" t="n">
         <v>8</v>
@@ -1428,7 +1428,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1437,20 +1437,20 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="K15" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="L15" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="M15" t="n">
-        <v>13500</v>
+        <v>15571</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
@@ -1459,10 +1459,10 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>270</v>
+        <v>519</v>
       </c>
       <c r="Q15" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R15" t="inlineStr">
         <is>
@@ -1500,7 +1500,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1512,17 +1512,17 @@
         <v>100</v>
       </c>
       <c r="K16" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="L16" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="M16" t="n">
-        <v>17000</v>
+        <v>13500</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
@@ -1531,10 +1531,10 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>567</v>
+        <v>270</v>
       </c>
       <c r="Q16" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R16" t="inlineStr">
         <is>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44489</v>
+        <v>44769</v>
       </c>
       <c r="E17" t="n">
         <v>8</v>
@@ -1572,7 +1572,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1584,17 +1584,17 @@
         <v>100</v>
       </c>
       <c r="K17" t="n">
-        <v>9000</v>
+        <v>16000</v>
       </c>
       <c r="L17" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="M17" t="n">
-        <v>9500</v>
+        <v>17000</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
@@ -1603,10 +1603,10 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>190</v>
+        <v>567</v>
       </c>
       <c r="Q17" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R17" t="inlineStr">
         <is>
@@ -1644,7 +1644,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1656,17 +1656,17 @@
         <v>100</v>
       </c>
       <c r="K18" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="L18" t="n">
-        <v>8500</v>
+        <v>10000</v>
       </c>
       <c r="M18" t="n">
-        <v>8250</v>
+        <v>9500</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
@@ -1675,10 +1675,10 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>275</v>
+        <v>190</v>
       </c>
       <c r="Q18" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R18" t="inlineStr">
         <is>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44463</v>
+        <v>44489</v>
       </c>
       <c r="E19" t="n">
         <v>8</v>
@@ -1716,7 +1716,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1728,17 +1728,17 @@
         <v>100</v>
       </c>
       <c r="K19" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="L19" t="n">
-        <v>10000</v>
+        <v>8500</v>
       </c>
       <c r="M19" t="n">
-        <v>9500</v>
+        <v>8250</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
@@ -1747,10 +1747,10 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>190</v>
+        <v>275</v>
       </c>
       <c r="Q19" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R19" t="inlineStr">
         <is>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44778</v>
+        <v>44463</v>
       </c>
       <c r="E20" t="n">
         <v>8</v>
@@ -1797,16 +1797,16 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="K20" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="L20" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="M20" t="n">
-        <v>14533</v>
+        <v>9500</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>291</v>
+        <v>190</v>
       </c>
       <c r="Q20" t="n">
         <v>50</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44727</v>
+        <v>44778</v>
       </c>
       <c r="E21" t="n">
         <v>8</v>
@@ -1860,7 +1860,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1872,17 +1872,17 @@
         <v>150</v>
       </c>
       <c r="K21" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="L21" t="n">
-        <v>21000</v>
+        <v>15000</v>
       </c>
       <c r="M21" t="n">
-        <v>20467</v>
+        <v>14533</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
@@ -1891,10 +1891,10 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>682</v>
+        <v>291</v>
       </c>
       <c r="Q21" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R21" t="inlineStr">
         <is>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44764</v>
+        <v>44727</v>
       </c>
       <c r="E22" t="n">
         <v>8</v>
@@ -1932,7 +1932,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1941,20 +1941,20 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="K22" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="L22" t="n">
-        <v>16000</v>
+        <v>21000</v>
       </c>
       <c r="M22" t="n">
-        <v>15429</v>
+        <v>20467</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
@@ -1963,10 +1963,10 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>386</v>
+        <v>682</v>
       </c>
       <c r="Q22" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R22" t="inlineStr">
         <is>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44399</v>
+        <v>44764</v>
       </c>
       <c r="E23" t="n">
         <v>8</v>
@@ -2004,7 +2004,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -2013,20 +2013,20 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="K23" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L23" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="M23" t="n">
-        <v>14500</v>
+        <v>15429</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
@@ -2035,10 +2035,10 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>483</v>
+        <v>386</v>
       </c>
       <c r="Q23" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R23" t="inlineStr">
         <is>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44342</v>
+        <v>44399</v>
       </c>
       <c r="E24" t="n">
         <v>8</v>
@@ -2088,13 +2088,13 @@
         <v>100</v>
       </c>
       <c r="K24" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="L24" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M24" t="n">
-        <v>17500</v>
+        <v>14500</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>583</v>
+        <v>483</v>
       </c>
       <c r="Q24" t="n">
         <v>30</v>
@@ -2148,7 +2148,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -2160,17 +2160,17 @@
         <v>100</v>
       </c>
       <c r="K25" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="L25" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="M25" t="n">
-        <v>15500</v>
+        <v>17500</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
@@ -2179,10 +2179,10 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>388</v>
+        <v>583</v>
       </c>
       <c r="Q25" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R25" t="inlineStr">
         <is>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44447</v>
+        <v>44342</v>
       </c>
       <c r="E26" t="n">
         <v>8</v>
@@ -2220,7 +2220,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -2232,17 +2232,17 @@
         <v>100</v>
       </c>
       <c r="K26" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L26" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="M26" t="n">
-        <v>14500</v>
+        <v>15500</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
@@ -2251,10 +2251,10 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>483</v>
+        <v>388</v>
       </c>
       <c r="Q26" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R26" t="inlineStr">
         <is>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44420</v>
+        <v>44447</v>
       </c>
       <c r="E27" t="n">
         <v>8</v>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44428</v>
+        <v>44420</v>
       </c>
       <c r="E28" t="n">
         <v>8</v>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44350</v>
+        <v>44428</v>
       </c>
       <c r="E29" t="n">
         <v>8</v>
@@ -2436,7 +2436,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -2445,20 +2445,20 @@
         </is>
       </c>
       <c r="J29" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="K29" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L29" t="n">
         <v>15000</v>
       </c>
-      <c r="L29" t="n">
-        <v>16000</v>
-      </c>
       <c r="M29" t="n">
-        <v>15600</v>
+        <v>14500</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
@@ -2467,10 +2467,10 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>312</v>
+        <v>483</v>
       </c>
       <c r="Q29" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R29" t="inlineStr">
         <is>
@@ -2508,7 +2508,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -2517,20 +2517,20 @@
         </is>
       </c>
       <c r="J30" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K30" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="L30" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="M30" t="n">
-        <v>17500</v>
+        <v>15600</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
@@ -2539,10 +2539,10 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>583</v>
+        <v>312</v>
       </c>
       <c r="Q30" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R30" t="inlineStr">
         <is>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44804</v>
+        <v>44350</v>
       </c>
       <c r="E31" t="n">
         <v>8</v>
@@ -2580,7 +2580,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -2589,16 +2589,16 @@
         </is>
       </c>
       <c r="J31" t="n">
-        <v>150</v>
+        <v>40</v>
       </c>
       <c r="K31" t="n">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="L31" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="M31" t="n">
-        <v>11533</v>
+        <v>17500</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
@@ -2611,7 +2611,7 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>384</v>
+        <v>583</v>
       </c>
       <c r="Q31" t="n">
         <v>30</v>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44757</v>
+        <v>44804</v>
       </c>
       <c r="E32" t="n">
         <v>8</v>
@@ -2661,20 +2661,20 @@
         </is>
       </c>
       <c r="J32" t="n">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="K32" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="L32" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="M32" t="n">
-        <v>14400</v>
+        <v>11533</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
@@ -2683,10 +2683,10 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>288</v>
+        <v>384</v>
       </c>
       <c r="Q32" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R32" t="inlineStr">
         <is>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44806</v>
+        <v>44757</v>
       </c>
       <c r="E33" t="n">
         <v>8</v>
@@ -2733,16 +2733,16 @@
         </is>
       </c>
       <c r="J33" t="n">
-        <v>220</v>
+        <v>50</v>
       </c>
       <c r="K33" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="L33" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M33" t="n">
-        <v>10909</v>
+        <v>14400</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
@@ -2755,7 +2755,7 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>218</v>
+        <v>288</v>
       </c>
       <c r="Q33" t="n">
         <v>50</v>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44761</v>
+        <v>44806</v>
       </c>
       <c r="E34" t="n">
         <v>8</v>
@@ -2805,16 +2805,16 @@
         </is>
       </c>
       <c r="J34" t="n">
-        <v>80</v>
+        <v>220</v>
       </c>
       <c r="K34" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="L34" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="M34" t="n">
-        <v>13375</v>
+        <v>10909</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>268</v>
+        <v>218</v>
       </c>
       <c r="Q34" t="n">
         <v>50</v>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44803</v>
+        <v>44761</v>
       </c>
       <c r="E35" t="n">
         <v>8</v>
@@ -2877,7 +2877,7 @@
         </is>
       </c>
       <c r="J35" t="n">
-        <v>170</v>
+        <v>80</v>
       </c>
       <c r="K35" t="n">
         <v>13000</v>
@@ -2886,7 +2886,7 @@
         <v>14000</v>
       </c>
       <c r="M35" t="n">
-        <v>13529</v>
+        <v>13375</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
@@ -2899,7 +2899,7 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="Q35" t="n">
         <v>50</v>
@@ -2940,7 +2940,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -2949,20 +2949,20 @@
         </is>
       </c>
       <c r="J36" t="n">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="K36" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="L36" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="M36" t="n">
-        <v>15467</v>
+        <v>13529</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
@@ -2971,10 +2971,10 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>516</v>
+        <v>271</v>
       </c>
       <c r="Q36" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R36" t="inlineStr">
         <is>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44825</v>
+        <v>44803</v>
       </c>
       <c r="E37" t="n">
         <v>8</v>
@@ -3012,7 +3012,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -3021,20 +3021,20 @@
         </is>
       </c>
       <c r="J37" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="K37" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="L37" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="M37" t="n">
-        <v>12500</v>
+        <v>15467</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
@@ -3043,10 +3043,10 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>250</v>
+        <v>516</v>
       </c>
       <c r="Q37" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R37" t="inlineStr">
         <is>
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44721</v>
+        <v>44825</v>
       </c>
       <c r="E38" t="n">
         <v>8</v>
@@ -3084,7 +3084,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -3093,20 +3093,20 @@
         </is>
       </c>
       <c r="J38" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="K38" t="n">
-        <v>19000</v>
+        <v>12000</v>
       </c>
       <c r="L38" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="M38" t="n">
-        <v>19533</v>
+        <v>12500</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
@@ -3115,10 +3115,10 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>651</v>
+        <v>250</v>
       </c>
       <c r="Q38" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R38" t="inlineStr">
         <is>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44819</v>
+        <v>44721</v>
       </c>
       <c r="E39" t="n">
         <v>8</v>
@@ -3156,7 +3156,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -3165,20 +3165,20 @@
         </is>
       </c>
       <c r="J39" t="n">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="K39" t="n">
-        <v>12000</v>
+        <v>19000</v>
       </c>
       <c r="L39" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="M39" t="n">
-        <v>13364</v>
+        <v>19533</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
@@ -3187,10 +3187,10 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>267</v>
+        <v>651</v>
       </c>
       <c r="Q39" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R39" t="inlineStr">
         <is>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44817</v>
+        <v>44819</v>
       </c>
       <c r="E40" t="n">
         <v>8</v>
@@ -3237,16 +3237,16 @@
         </is>
       </c>
       <c r="J40" t="n">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="K40" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="L40" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M40" t="n">
-        <v>13571</v>
+        <v>13364</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
@@ -3259,7 +3259,7 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="Q40" t="n">
         <v>50</v>
@@ -3285,7 +3285,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44397</v>
+        <v>44817</v>
       </c>
       <c r="E41" t="n">
         <v>8</v>
@@ -3300,7 +3300,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -3309,20 +3309,20 @@
         </is>
       </c>
       <c r="J41" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="K41" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L41" t="n">
         <v>14000</v>
       </c>
-      <c r="L41" t="n">
-        <v>15000</v>
-      </c>
       <c r="M41" t="n">
-        <v>14500</v>
+        <v>13571</v>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
@@ -3331,10 +3331,10 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>483</v>
+        <v>271</v>
       </c>
       <c r="Q41" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R41" t="inlineStr">
         <is>
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44483</v>
+        <v>44397</v>
       </c>
       <c r="E42" t="n">
         <v>8</v>
@@ -3381,16 +3381,16 @@
         </is>
       </c>
       <c r="J42" t="n">
-        <v>450</v>
+        <v>100</v>
       </c>
       <c r="K42" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="L42" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M42" t="n">
-        <v>11444</v>
+        <v>14500</v>
       </c>
       <c r="N42" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>381</v>
+        <v>483</v>
       </c>
       <c r="Q42" t="n">
         <v>30</v>
@@ -3444,7 +3444,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -3453,32 +3453,32 @@
         </is>
       </c>
       <c r="J43" t="n">
-        <v>220</v>
+        <v>450</v>
       </c>
       <c r="K43" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="L43" t="n">
-        <v>8500</v>
+        <v>12000</v>
       </c>
       <c r="M43" t="n">
-        <v>8273</v>
+        <v>11444</v>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P43" t="n">
-        <v>207</v>
+        <v>381</v>
       </c>
       <c r="Q43" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R43" t="inlineStr">
         <is>
@@ -3501,7 +3501,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44364</v>
+        <v>44483</v>
       </c>
       <c r="E44" t="n">
         <v>8</v>
@@ -3516,7 +3516,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -3525,32 +3525,32 @@
         </is>
       </c>
       <c r="J44" t="n">
-        <v>100</v>
+        <v>220</v>
       </c>
       <c r="K44" t="n">
-        <v>19000</v>
+        <v>8000</v>
       </c>
       <c r="L44" t="n">
-        <v>20000</v>
+        <v>8500</v>
       </c>
       <c r="M44" t="n">
-        <v>19500</v>
+        <v>8273</v>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P44" t="n">
-        <v>390</v>
+        <v>207</v>
       </c>
       <c r="Q44" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R44" t="inlineStr">
         <is>
@@ -3588,7 +3588,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -3610,7 +3610,7 @@
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
@@ -3619,10 +3619,10 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>650</v>
+        <v>390</v>
       </c>
       <c r="Q45" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R45" t="inlineStr">
         <is>
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44777</v>
+        <v>44364</v>
       </c>
       <c r="E46" t="n">
         <v>8</v>
@@ -3669,16 +3669,16 @@
         </is>
       </c>
       <c r="J46" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="K46" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="L46" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="M46" t="n">
-        <v>18545</v>
+        <v>19500</v>
       </c>
       <c r="N46" t="inlineStr">
         <is>
@@ -3691,7 +3691,7 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>618</v>
+        <v>650</v>
       </c>
       <c r="Q46" t="n">
         <v>30</v>
@@ -3717,7 +3717,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44441</v>
+        <v>44777</v>
       </c>
       <c r="E47" t="n">
         <v>8</v>
@@ -3741,16 +3741,16 @@
         </is>
       </c>
       <c r="J47" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="K47" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="L47" t="n">
-        <v>14000</v>
+        <v>19000</v>
       </c>
       <c r="M47" t="n">
-        <v>13500</v>
+        <v>18545</v>
       </c>
       <c r="N47" t="inlineStr">
         <is>
@@ -3763,7 +3763,7 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>450</v>
+        <v>618</v>
       </c>
       <c r="Q47" t="n">
         <v>30</v>
@@ -3789,7 +3789,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44335</v>
+        <v>44441</v>
       </c>
       <c r="E48" t="n">
         <v>8</v>
@@ -3816,13 +3816,13 @@
         <v>100</v>
       </c>
       <c r="K48" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="L48" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="M48" t="n">
-        <v>17500</v>
+        <v>13500</v>
       </c>
       <c r="N48" t="inlineStr">
         <is>
@@ -3835,7 +3835,7 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>583</v>
+        <v>450</v>
       </c>
       <c r="Q48" t="n">
         <v>30</v>
@@ -3861,7 +3861,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44741</v>
+        <v>44335</v>
       </c>
       <c r="E49" t="n">
         <v>8</v>
@@ -3876,7 +3876,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -3888,17 +3888,17 @@
         <v>100</v>
       </c>
       <c r="K49" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="L49" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="M49" t="n">
-        <v>16500</v>
+        <v>17500</v>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
@@ -3907,10 +3907,10 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>330</v>
+        <v>583</v>
       </c>
       <c r="Q49" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R49" t="inlineStr">
         <is>
@@ -3948,7 +3948,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -3960,17 +3960,17 @@
         <v>100</v>
       </c>
       <c r="K50" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="L50" t="n">
-        <v>22000</v>
+        <v>17000</v>
       </c>
       <c r="M50" t="n">
-        <v>21000</v>
+        <v>16500</v>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
@@ -3979,10 +3979,10 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>700</v>
+        <v>330</v>
       </c>
       <c r="Q50" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R50" t="inlineStr">
         <is>
@@ -4005,7 +4005,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44358</v>
+        <v>44741</v>
       </c>
       <c r="E51" t="n">
         <v>8</v>
@@ -4020,7 +4020,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -4032,17 +4032,17 @@
         <v>100</v>
       </c>
       <c r="K51" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="L51" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="M51" t="n">
-        <v>19000</v>
+        <v>21000</v>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
@@ -4051,10 +4051,10 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>380</v>
+        <v>700</v>
       </c>
       <c r="Q51" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R51" t="inlineStr">
         <is>
@@ -4092,7 +4092,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -4114,7 +4114,7 @@
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
@@ -4123,10 +4123,10 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>633</v>
+        <v>380</v>
       </c>
       <c r="Q52" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R52" t="inlineStr">
         <is>
@@ -4149,7 +4149,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44776</v>
+        <v>44358</v>
       </c>
       <c r="E53" t="n">
         <v>8</v>
@@ -4173,16 +4173,16 @@
         </is>
       </c>
       <c r="J53" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="K53" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="L53" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="M53" t="n">
-        <v>17467</v>
+        <v>19000</v>
       </c>
       <c r="N53" t="inlineStr">
         <is>
@@ -4195,7 +4195,7 @@
         </is>
       </c>
       <c r="P53" t="n">
-        <v>582</v>
+        <v>633</v>
       </c>
       <c r="Q53" t="n">
         <v>30</v>
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44680</v>
+        <v>44776</v>
       </c>
       <c r="E54" t="n">
         <v>8</v>
@@ -4245,16 +4245,16 @@
         </is>
       </c>
       <c r="J54" t="n">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="K54" t="n">
+        <v>17000</v>
+      </c>
+      <c r="L54" t="n">
         <v>18000</v>
       </c>
-      <c r="L54" t="n">
-        <v>19000</v>
-      </c>
       <c r="M54" t="n">
-        <v>18600</v>
+        <v>17467</v>
       </c>
       <c r="N54" t="inlineStr">
         <is>
@@ -4267,7 +4267,7 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>620</v>
+        <v>582</v>
       </c>
       <c r="Q54" t="n">
         <v>30</v>
@@ -4293,7 +4293,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44791</v>
+        <v>44680</v>
       </c>
       <c r="E55" t="n">
         <v>8</v>
@@ -4308,7 +4308,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -4317,20 +4317,20 @@
         </is>
       </c>
       <c r="J55" t="n">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="K55" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="L55" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="M55" t="n">
-        <v>14455</v>
+        <v>18600</v>
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O55" t="inlineStr">
@@ -4339,10 +4339,10 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>289</v>
+        <v>620</v>
       </c>
       <c r="Q55" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R55" t="inlineStr">
         <is>
@@ -4380,7 +4380,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -4389,20 +4389,20 @@
         </is>
       </c>
       <c r="J56" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="K56" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L56" t="n">
         <v>15000</v>
       </c>
-      <c r="L56" t="n">
-        <v>16000</v>
-      </c>
       <c r="M56" t="n">
-        <v>15500</v>
+        <v>14455</v>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O56" t="inlineStr">
@@ -4411,10 +4411,10 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>517</v>
+        <v>289</v>
       </c>
       <c r="Q56" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R56" t="inlineStr">
         <is>
@@ -4452,7 +4452,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
@@ -4461,20 +4461,20 @@
         </is>
       </c>
       <c r="J57" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="K57" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L57" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="M57" t="n">
-        <v>14444</v>
+        <v>15500</v>
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O57" t="inlineStr">
@@ -4483,10 +4483,10 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>289</v>
+        <v>517</v>
       </c>
       <c r="Q57" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R57" t="inlineStr">
         <is>
@@ -4509,7 +4509,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44749</v>
+        <v>44791</v>
       </c>
       <c r="E58" t="n">
         <v>8</v>
@@ -4524,7 +4524,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -4533,16 +4533,16 @@
         </is>
       </c>
       <c r="J58" t="n">
-        <v>250</v>
+        <v>90</v>
       </c>
       <c r="K58" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L58" t="n">
         <v>15000</v>
       </c>
       <c r="M58" t="n">
-        <v>14200</v>
+        <v>14444</v>
       </c>
       <c r="N58" t="inlineStr">
         <is>
@@ -4555,7 +4555,7 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="Q58" t="n">
         <v>50</v>
@@ -4581,7 +4581,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44811</v>
+        <v>44749</v>
       </c>
       <c r="E59" t="n">
         <v>8</v>
@@ -4596,7 +4596,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -4605,20 +4605,20 @@
         </is>
       </c>
       <c r="J59" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="K59" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="L59" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M59" t="n">
-        <v>12500</v>
+        <v>14200</v>
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O59" t="inlineStr">
@@ -4627,10 +4627,10 @@
         </is>
       </c>
       <c r="P59" t="n">
-        <v>312</v>
+        <v>284</v>
       </c>
       <c r="Q59" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R59" t="inlineStr">
         <is>
@@ -4653,7 +4653,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44435</v>
+        <v>44811</v>
       </c>
       <c r="E60" t="n">
         <v>8</v>
@@ -4668,7 +4668,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -4680,17 +4680,17 @@
         <v>100</v>
       </c>
       <c r="K60" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="L60" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M60" t="n">
-        <v>14500</v>
+        <v>12500</v>
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O60" t="inlineStr">
@@ -4699,10 +4699,10 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>290</v>
+        <v>312</v>
       </c>
       <c r="Q60" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R60" t="inlineStr">
         <is>
@@ -4725,7 +4725,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44442</v>
+        <v>44435</v>
       </c>
       <c r="E61" t="n">
         <v>8</v>
@@ -4740,7 +4740,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -4752,17 +4752,17 @@
         <v>100</v>
       </c>
       <c r="K61" t="n">
-        <v>14500</v>
+        <v>14000</v>
       </c>
       <c r="L61" t="n">
         <v>15000</v>
       </c>
       <c r="M61" t="n">
-        <v>14750</v>
+        <v>14500</v>
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O61" t="inlineStr">
@@ -4771,10 +4771,10 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>492</v>
+        <v>290</v>
       </c>
       <c r="Q61" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R61" t="inlineStr">
         <is>
@@ -4797,7 +4797,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44755</v>
+        <v>44442</v>
       </c>
       <c r="E62" t="n">
         <v>8</v>
@@ -4812,7 +4812,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
@@ -4824,17 +4824,17 @@
         <v>100</v>
       </c>
       <c r="K62" t="n">
-        <v>16000</v>
+        <v>14500</v>
       </c>
       <c r="L62" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="M62" t="n">
-        <v>16500</v>
+        <v>14750</v>
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O62" t="inlineStr">
@@ -4843,10 +4843,10 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>330</v>
+        <v>492</v>
       </c>
       <c r="Q62" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R62" t="inlineStr">
         <is>
@@ -4884,7 +4884,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
@@ -4896,17 +4896,17 @@
         <v>100</v>
       </c>
       <c r="K63" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="L63" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="M63" t="n">
-        <v>19000</v>
+        <v>16500</v>
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O63" t="inlineStr">
@@ -4915,10 +4915,10 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>633</v>
+        <v>330</v>
       </c>
       <c r="Q63" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R63" t="inlineStr">
         <is>
@@ -4941,7 +4941,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44426</v>
+        <v>44755</v>
       </c>
       <c r="E64" t="n">
         <v>8</v>
@@ -4956,7 +4956,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
@@ -4965,20 +4965,20 @@
         </is>
       </c>
       <c r="J64" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="K64" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="L64" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="M64" t="n">
-        <v>12600</v>
+        <v>19000</v>
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O64" t="inlineStr">
@@ -4987,10 +4987,10 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>315</v>
+        <v>633</v>
       </c>
       <c r="Q64" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R64" t="inlineStr">
         <is>
@@ -5013,7 +5013,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44484</v>
+        <v>44426</v>
       </c>
       <c r="E65" t="n">
         <v>8</v>
@@ -5028,7 +5028,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
@@ -5037,20 +5037,20 @@
         </is>
       </c>
       <c r="J65" t="n">
-        <v>220</v>
+        <v>50</v>
       </c>
       <c r="K65" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="L65" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="M65" t="n">
-        <v>8455</v>
+        <v>12600</v>
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O65" t="inlineStr">
@@ -5059,10 +5059,10 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>169</v>
+        <v>315</v>
       </c>
       <c r="Q65" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R65" t="inlineStr">
         <is>
@@ -5100,7 +5100,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
@@ -5112,17 +5112,17 @@
         <v>220</v>
       </c>
       <c r="K66" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="L66" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M66" t="n">
-        <v>7727</v>
+        <v>8455</v>
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O66" t="inlineStr">
@@ -5131,10 +5131,10 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>258</v>
+        <v>169</v>
       </c>
       <c r="Q66" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R66" t="inlineStr">
         <is>
@@ -5157,7 +5157,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44784</v>
+        <v>44484</v>
       </c>
       <c r="E67" t="n">
         <v>8</v>
@@ -5181,16 +5181,16 @@
         </is>
       </c>
       <c r="J67" t="n">
-        <v>50</v>
+        <v>220</v>
       </c>
       <c r="K67" t="n">
-        <v>14000</v>
+        <v>7500</v>
       </c>
       <c r="L67" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="M67" t="n">
-        <v>14400</v>
+        <v>7727</v>
       </c>
       <c r="N67" t="inlineStr">
         <is>
@@ -5203,7 +5203,7 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>480</v>
+        <v>258</v>
       </c>
       <c r="Q67" t="n">
         <v>30</v>
@@ -5229,7 +5229,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44722</v>
+        <v>44784</v>
       </c>
       <c r="E68" t="n">
         <v>8</v>
@@ -5253,16 +5253,16 @@
         </is>
       </c>
       <c r="J68" t="n">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="K68" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="L68" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="M68" t="n">
-        <v>21333</v>
+        <v>14400</v>
       </c>
       <c r="N68" t="inlineStr">
         <is>
@@ -5275,7 +5275,7 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>711</v>
+        <v>480</v>
       </c>
       <c r="Q68" t="n">
         <v>30</v>
@@ -5301,7 +5301,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44706</v>
+        <v>44722</v>
       </c>
       <c r="E69" t="n">
         <v>8</v>
@@ -5325,16 +5325,16 @@
         </is>
       </c>
       <c r="J69" t="n">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="K69" t="n">
-        <v>23000</v>
+        <v>20000</v>
       </c>
       <c r="L69" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="M69" t="n">
-        <v>23400</v>
+        <v>21333</v>
       </c>
       <c r="N69" t="inlineStr">
         <is>
@@ -5347,7 +5347,7 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>780</v>
+        <v>711</v>
       </c>
       <c r="Q69" t="n">
         <v>30</v>
@@ -5373,7 +5373,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44748</v>
+        <v>44706</v>
       </c>
       <c r="E70" t="n">
         <v>8</v>
@@ -5388,7 +5388,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
@@ -5397,20 +5397,20 @@
         </is>
       </c>
       <c r="J70" t="n">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="K70" t="n">
-        <v>15000</v>
+        <v>23000</v>
       </c>
       <c r="L70" t="n">
-        <v>16000</v>
+        <v>24000</v>
       </c>
       <c r="M70" t="n">
-        <v>15545</v>
+        <v>23400</v>
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O70" t="inlineStr">
@@ -5419,10 +5419,10 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>389</v>
+        <v>780</v>
       </c>
       <c r="Q70" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R70" t="inlineStr">
         <is>
@@ -5445,7 +5445,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44421</v>
+        <v>44748</v>
       </c>
       <c r="E71" t="n">
         <v>8</v>
@@ -5460,7 +5460,7 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
@@ -5469,20 +5469,20 @@
         </is>
       </c>
       <c r="J71" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="K71" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L71" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="M71" t="n">
-        <v>14500</v>
+        <v>15545</v>
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O71" t="inlineStr">
@@ -5491,10 +5491,10 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>483</v>
+        <v>389</v>
       </c>
       <c r="Q71" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R71" t="inlineStr">
         <is>
@@ -5517,7 +5517,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44496</v>
+        <v>44421</v>
       </c>
       <c r="E72" t="n">
         <v>8</v>
@@ -5532,7 +5532,7 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
@@ -5541,32 +5541,32 @@
         </is>
       </c>
       <c r="J72" t="n">
-        <v>350</v>
+        <v>100</v>
       </c>
       <c r="K72" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="L72" t="n">
-        <v>7500</v>
+        <v>15000</v>
       </c>
       <c r="M72" t="n">
-        <v>7214</v>
+        <v>14500</v>
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P72" t="n">
-        <v>180</v>
+        <v>483</v>
       </c>
       <c r="Q72" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R72" t="inlineStr">
         <is>
@@ -5589,7 +5589,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44376</v>
+        <v>44496</v>
       </c>
       <c r="E73" t="n">
         <v>8</v>
@@ -5604,7 +5604,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
@@ -5613,32 +5613,32 @@
         </is>
       </c>
       <c r="J73" t="n">
-        <v>100</v>
+        <v>350</v>
       </c>
       <c r="K73" t="n">
-        <v>19000</v>
+        <v>7000</v>
       </c>
       <c r="L73" t="n">
-        <v>20000</v>
+        <v>7500</v>
       </c>
       <c r="M73" t="n">
-        <v>19500</v>
+        <v>7214</v>
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P73" t="n">
-        <v>650</v>
+        <v>180</v>
       </c>
       <c r="Q73" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R73" t="inlineStr">
         <is>
@@ -5661,7 +5661,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44433</v>
+        <v>44376</v>
       </c>
       <c r="E74" t="n">
         <v>8</v>
@@ -5676,7 +5676,7 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
@@ -5688,17 +5688,17 @@
         <v>100</v>
       </c>
       <c r="K74" t="n">
-        <v>14000</v>
+        <v>19000</v>
       </c>
       <c r="L74" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="M74" t="n">
-        <v>14500</v>
+        <v>19500</v>
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O74" t="inlineStr">
@@ -5707,10 +5707,10 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>290</v>
+        <v>650</v>
       </c>
       <c r="Q74" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R74" t="inlineStr">
         <is>
@@ -5733,7 +5733,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>44385</v>
+        <v>44433</v>
       </c>
       <c r="E75" t="n">
         <v>8</v>
@@ -5748,7 +5748,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
@@ -5760,17 +5760,17 @@
         <v>100</v>
       </c>
       <c r="K75" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="L75" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M75" t="n">
-        <v>17500</v>
+        <v>14500</v>
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O75" t="inlineStr">
@@ -5779,10 +5779,10 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>583</v>
+        <v>290</v>
       </c>
       <c r="Q75" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R75" t="inlineStr">
         <is>
@@ -5805,7 +5805,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44454</v>
+        <v>44385</v>
       </c>
       <c r="E76" t="n">
         <v>8</v>
@@ -5820,7 +5820,7 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
@@ -5832,31 +5832,175 @@
         <v>100</v>
       </c>
       <c r="K76" t="n">
+        <v>17000</v>
+      </c>
+      <c r="L76" t="n">
+        <v>18000</v>
+      </c>
+      <c r="M76" t="n">
+        <v>17500</v>
+      </c>
+      <c r="N76" t="inlineStr">
+        <is>
+          <t>$/caja 30 unidades</t>
+        </is>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P76" t="n">
+        <v>583</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>30</v>
+      </c>
+      <c r="R76" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>11</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D77" s="2" t="n">
+        <v>44454</v>
+      </c>
+      <c r="E77" t="n">
+        <v>8</v>
+      </c>
+      <c r="F77" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>Madrigal</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J77" t="n">
+        <v>100</v>
+      </c>
+      <c r="K77" t="n">
         <v>13000</v>
       </c>
-      <c r="L76" t="n">
+      <c r="L77" t="n">
         <v>14000</v>
       </c>
-      <c r="M76" t="n">
+      <c r="M77" t="n">
         <v>13500</v>
       </c>
-      <c r="N76" t="inlineStr">
+      <c r="N77" t="inlineStr">
         <is>
           <t>$/caja 40 unidades</t>
         </is>
       </c>
-      <c r="O76" t="inlineStr">
+      <c r="O77" t="inlineStr">
         <is>
           <t>Provincia del Elquí</t>
         </is>
       </c>
-      <c r="P76" t="n">
+      <c r="P77" t="n">
         <v>338</v>
       </c>
-      <c r="Q76" t="n">
+      <c r="Q77" t="n">
         <v>40</v>
       </c>
-      <c r="R76" t="inlineStr">
+      <c r="R77" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>11</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D78" s="2" t="n">
+        <v>44832</v>
+      </c>
+      <c r="E78" t="n">
+        <v>8</v>
+      </c>
+      <c r="F78" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>Argentina(o)</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J78" t="n">
+        <v>150</v>
+      </c>
+      <c r="K78" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L78" t="n">
+        <v>10000</v>
+      </c>
+      <c r="M78" t="n">
+        <v>9533</v>
+      </c>
+      <c r="N78" t="inlineStr">
+        <is>
+          <t>$/caja 50 unidades</t>
+        </is>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P78" t="n">
+        <v>191</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>50</v>
+      </c>
+      <c r="R78" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Alcachofa.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Alcachofa.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44750</v>
+        <v>44399</v>
       </c>
       <c r="E2" t="n">
         <v>8</v>
@@ -492,7 +492,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -501,20 +501,20 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="K2" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="L2" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="M2" t="n">
-        <v>16615</v>
+        <v>14500</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -523,10 +523,10 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>332</v>
+        <v>483</v>
       </c>
       <c r="Q2" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R2" t="inlineStr">
         <is>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44750</v>
+        <v>44741</v>
       </c>
       <c r="E3" t="n">
         <v>8</v>
@@ -564,7 +564,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -573,20 +573,20 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="K3" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="L3" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="M3" t="n">
-        <v>18909</v>
+        <v>16500</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -595,10 +595,10 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>630</v>
+        <v>330</v>
       </c>
       <c r="Q3" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R3" t="inlineStr">
         <is>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44818</v>
+        <v>44741</v>
       </c>
       <c r="E4" t="n">
         <v>8</v>
@@ -636,7 +636,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -645,20 +645,20 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>180</v>
+        <v>100</v>
       </c>
       <c r="K4" t="n">
-        <v>11000</v>
+        <v>20000</v>
       </c>
       <c r="L4" t="n">
-        <v>12000</v>
+        <v>22000</v>
       </c>
       <c r="M4" t="n">
-        <v>11556</v>
+        <v>21000</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -667,10 +667,10 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>231</v>
+        <v>700</v>
       </c>
       <c r="Q4" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R4" t="inlineStr">
         <is>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44818</v>
+        <v>44358</v>
       </c>
       <c r="E5" t="n">
         <v>8</v>
@@ -708,7 +708,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -717,20 +717,20 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K5" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="L5" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="M5" t="n">
-        <v>12500</v>
+        <v>19000</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -739,10 +739,10 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>417</v>
+        <v>380</v>
       </c>
       <c r="Q5" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R5" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44497</v>
+        <v>44358</v>
       </c>
       <c r="E6" t="n">
         <v>8</v>
@@ -780,7 +780,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -789,20 +789,20 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>180</v>
+        <v>100</v>
       </c>
       <c r="K6" t="n">
-        <v>6500</v>
+        <v>18000</v>
       </c>
       <c r="L6" t="n">
-        <v>7000</v>
+        <v>20000</v>
       </c>
       <c r="M6" t="n">
-        <v>6778</v>
+        <v>19000</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
@@ -811,10 +811,10 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>136</v>
+        <v>633</v>
       </c>
       <c r="Q6" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R6" t="inlineStr">
         <is>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44497</v>
+        <v>44447</v>
       </c>
       <c r="E7" t="n">
         <v>8</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K7" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="L7" t="n">
-        <v>7500</v>
+        <v>15000</v>
       </c>
       <c r="M7" t="n">
-        <v>7250</v>
+        <v>14500</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>242</v>
+        <v>483</v>
       </c>
       <c r="Q7" t="n">
         <v>30</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44497</v>
+        <v>44483</v>
       </c>
       <c r="E8" t="n">
         <v>8</v>
@@ -924,7 +924,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -933,32 +933,32 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>130</v>
+        <v>450</v>
       </c>
       <c r="K8" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="L8" t="n">
-        <v>6500</v>
+        <v>12000</v>
       </c>
       <c r="M8" t="n">
-        <v>6192</v>
+        <v>11444</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P8" t="n">
-        <v>155</v>
+        <v>381</v>
       </c>
       <c r="Q8" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R8" t="inlineStr">
         <is>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44799</v>
+        <v>44483</v>
       </c>
       <c r="E9" t="n">
         <v>8</v>
@@ -996,7 +996,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1005,32 +1005,32 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>50</v>
+        <v>220</v>
       </c>
       <c r="K9" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="L9" t="n">
-        <v>14000</v>
+        <v>8500</v>
       </c>
       <c r="M9" t="n">
-        <v>13600</v>
+        <v>8273</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P9" t="n">
-        <v>272</v>
+        <v>207</v>
       </c>
       <c r="Q9" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R9" t="inlineStr">
         <is>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44799</v>
+        <v>44420</v>
       </c>
       <c r="E10" t="n">
         <v>8</v>
@@ -1077,7 +1077,7 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="K10" t="n">
         <v>14000</v>
@@ -1086,7 +1086,7 @@
         <v>15000</v>
       </c>
       <c r="M10" t="n">
-        <v>14600</v>
+        <v>14500</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="Q10" t="n">
         <v>30</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44729</v>
+        <v>44757</v>
       </c>
       <c r="E11" t="n">
         <v>8</v>
@@ -1149,20 +1149,20 @@
         </is>
       </c>
       <c r="J11" t="n">
- 